--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040726-5\ＪＯＢ040726-5\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040802-1\ＪＯＢ040802-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BT$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BT$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DT$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DT$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BU$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BU$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DU$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DU$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="368">
   <si>
     <t>都道府県</t>
   </si>
@@ -4010,6 +4010,61 @@
     <t>7/18(月)～
 7/24(日)分
 【7月第4週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/25(月)～
+7/31(日)分
+【7月第5週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/26(月)～
+8/1(日)分
+【7月第5週
+8月第1週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/25(月)～
+7/31(日)分
+【7月第5週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4505,18 +4560,6 @@
     <xf numFmtId="38" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4535,22 +4578,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4565,11 +4608,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4590,6 +4642,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8776,13 +8831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT61"/>
+  <dimension ref="A1:DU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DH10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DT4" sqref="DT4:DT5"/>
+      <selection pane="bottomRight" activeCell="DU4" sqref="DU4:DU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8798,11 +8853,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="124" width="10.875" style="1" customWidth="1"/>
-    <col min="125" max="16384" width="8.625" style="1"/>
+    <col min="106" max="125" width="10.875" style="1" customWidth="1"/>
+    <col min="126" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:125" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -8853,773 +8908,780 @@
       <c r="DQ1" s="19"/>
       <c r="DR1" s="19"/>
       <c r="DS1" s="19"/>
-      <c r="DT1" s="19" t="s">
+      <c r="DT1" s="19"/>
+      <c r="DU1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:124" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="71" t="s">
+    <row r="2" spans="1:125" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47"/>
-      <c r="BO2" s="47"/>
-      <c r="BP2" s="47"/>
-      <c r="BQ2" s="47"/>
-      <c r="BR2" s="47"/>
-      <c r="BS2" s="47"/>
-      <c r="BT2" s="47"/>
-      <c r="BU2" s="47"/>
-      <c r="BV2" s="47"/>
-      <c r="BW2" s="47"/>
-      <c r="BX2" s="47"/>
-      <c r="BY2" s="47"/>
-      <c r="BZ2" s="47"/>
-      <c r="CA2" s="47"/>
-      <c r="CB2" s="47"/>
-      <c r="CC2" s="47"/>
-      <c r="CD2" s="47"/>
-      <c r="CE2" s="47"/>
-      <c r="CF2" s="47"/>
-      <c r="CG2" s="47"/>
-      <c r="CH2" s="47"/>
-      <c r="CI2" s="47"/>
-      <c r="CJ2" s="47"/>
-      <c r="CK2" s="47"/>
-      <c r="CL2" s="47"/>
-      <c r="CM2" s="47"/>
-      <c r="CN2" s="47"/>
-      <c r="CO2" s="47"/>
-      <c r="CP2" s="47"/>
-      <c r="CQ2" s="47"/>
-      <c r="CR2" s="47"/>
-      <c r="CS2" s="47"/>
-      <c r="CT2" s="47"/>
-      <c r="CU2" s="47"/>
-      <c r="CV2" s="47"/>
-      <c r="CW2" s="47"/>
-      <c r="CX2" s="47"/>
-      <c r="CY2" s="47"/>
-      <c r="CZ2" s="47"/>
-      <c r="DA2" s="47"/>
-      <c r="DB2" s="47"/>
-      <c r="DC2" s="47"/>
-      <c r="DD2" s="47"/>
-      <c r="DE2" s="43" t="s">
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
+      <c r="CN2" s="43"/>
+      <c r="CO2" s="43"/>
+      <c r="CP2" s="43"/>
+      <c r="CQ2" s="43"/>
+      <c r="CR2" s="43"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="43"/>
+      <c r="CU2" s="43"/>
+      <c r="CV2" s="43"/>
+      <c r="CW2" s="43"/>
+      <c r="CX2" s="43"/>
+      <c r="CY2" s="43"/>
+      <c r="CZ2" s="43"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="43"/>
+      <c r="DC2" s="43"/>
+      <c r="DD2" s="43"/>
+      <c r="DE2" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="DF2" s="43"/>
-      <c r="DG2" s="43"/>
-      <c r="DH2" s="43"/>
-      <c r="DI2" s="43"/>
-      <c r="DJ2" s="43"/>
-      <c r="DK2" s="43"/>
-      <c r="DL2" s="43"/>
-      <c r="DM2" s="43"/>
-      <c r="DN2" s="43"/>
-      <c r="DO2" s="43"/>
-      <c r="DP2" s="43"/>
-      <c r="DQ2" s="43"/>
-      <c r="DR2" s="43"/>
-      <c r="DS2" s="43"/>
-      <c r="DT2" s="43"/>
+      <c r="DF2" s="71"/>
+      <c r="DG2" s="71"/>
+      <c r="DH2" s="71"/>
+      <c r="DI2" s="71"/>
+      <c r="DJ2" s="71"/>
+      <c r="DK2" s="71"/>
+      <c r="DL2" s="71"/>
+      <c r="DM2" s="71"/>
+      <c r="DN2" s="71"/>
+      <c r="DO2" s="71"/>
+      <c r="DP2" s="71"/>
+      <c r="DQ2" s="71"/>
+      <c r="DR2" s="71"/>
+      <c r="DS2" s="71"/>
+      <c r="DT2" s="71"/>
+      <c r="DU2" s="71"/>
     </row>
-    <row r="3" spans="1:124" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="44" t="s">
+    <row r="3" spans="1:125" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="58" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48" t="s">
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="48"/>
-      <c r="BL3" s="48"/>
-      <c r="BM3" s="48"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="48"/>
-      <c r="BP3" s="48"/>
-      <c r="BQ3" s="48"/>
-      <c r="BR3" s="48"/>
-      <c r="BS3" s="48"/>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="48"/>
-      <c r="BW3" s="48"/>
-      <c r="BX3" s="48"/>
-      <c r="BY3" s="48"/>
-      <c r="BZ3" s="48"/>
-      <c r="CA3" s="48"/>
-      <c r="CB3" s="48"/>
-      <c r="CC3" s="48"/>
-      <c r="CD3" s="48"/>
-      <c r="CE3" s="48"/>
-      <c r="CF3" s="48"/>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="48"/>
-      <c r="CI3" s="48"/>
-      <c r="CJ3" s="48"/>
-      <c r="CK3" s="48"/>
-      <c r="CL3" s="48"/>
-      <c r="CM3" s="48"/>
-      <c r="CN3" s="48"/>
-      <c r="CO3" s="48"/>
-      <c r="CP3" s="48"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="44" t="s">
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="44"/>
+      <c r="BW3" s="44"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44"/>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="44"/>
+      <c r="CD3" s="44"/>
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="44"/>
+      <c r="CG3" s="44"/>
+      <c r="CH3" s="44"/>
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="44"/>
+      <c r="CM3" s="44"/>
+      <c r="CN3" s="44"/>
+      <c r="CO3" s="44"/>
+      <c r="CP3" s="44"/>
+      <c r="CQ3" s="45"/>
+      <c r="CR3" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="CS3" s="44"/>
-      <c r="CT3" s="44"/>
-      <c r="CU3" s="44"/>
-      <c r="CV3" s="44"/>
-      <c r="CW3" s="44"/>
-      <c r="CX3" s="44"/>
-      <c r="CY3" s="44"/>
-      <c r="CZ3" s="44"/>
-      <c r="DA3" s="44"/>
-      <c r="DB3" s="44"/>
-      <c r="DC3" s="44"/>
-      <c r="DD3" s="58"/>
-      <c r="DE3" s="44" t="s">
+      <c r="CS3" s="51"/>
+      <c r="CT3" s="51"/>
+      <c r="CU3" s="51"/>
+      <c r="CV3" s="51"/>
+      <c r="CW3" s="51"/>
+      <c r="CX3" s="51"/>
+      <c r="CY3" s="51"/>
+      <c r="CZ3" s="51"/>
+      <c r="DA3" s="51"/>
+      <c r="DB3" s="51"/>
+      <c r="DC3" s="51"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="44"/>
-      <c r="DH3" s="44"/>
-      <c r="DI3" s="44"/>
-      <c r="DJ3" s="44"/>
-      <c r="DK3" s="44"/>
-      <c r="DL3" s="44"/>
-      <c r="DM3" s="44"/>
-      <c r="DN3" s="44"/>
-      <c r="DO3" s="44"/>
-      <c r="DP3" s="44"/>
-      <c r="DQ3" s="44"/>
-      <c r="DR3" s="44"/>
-      <c r="DS3" s="44"/>
-      <c r="DT3" s="44"/>
+      <c r="DF3" s="51"/>
+      <c r="DG3" s="51"/>
+      <c r="DH3" s="51"/>
+      <c r="DI3" s="51"/>
+      <c r="DJ3" s="51"/>
+      <c r="DK3" s="51"/>
+      <c r="DL3" s="51"/>
+      <c r="DM3" s="51"/>
+      <c r="DN3" s="51"/>
+      <c r="DO3" s="51"/>
+      <c r="DP3" s="51"/>
+      <c r="DQ3" s="51"/>
+      <c r="DR3" s="51"/>
+      <c r="DS3" s="51"/>
+      <c r="DT3" s="51"/>
+      <c r="DU3" s="51"/>
     </row>
-    <row r="4" spans="1:124" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55" t="s">
+    <row r="4" spans="1:125" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="55" t="s">
+      <c r="Z4" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AA4" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AE4" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="55" t="s">
+      <c r="AF4" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="55" t="s">
+      <c r="AI4" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AJ4" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="55" t="s">
+      <c r="AK4" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="55" t="s">
+      <c r="AL4" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="55" t="s">
+      <c r="AM4" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="55" t="s">
+      <c r="AN4" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="55" t="s">
+      <c r="AO4" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="55" t="s">
+      <c r="AP4" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="55" t="s">
+      <c r="AQ4" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="51" t="s">
+      <c r="AX4" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="51" t="s">
+      <c r="AZ4" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="51" t="s">
+      <c r="BA4" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="51" t="s">
+      <c r="BB4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="51" t="s">
+      <c r="BC4" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="50" t="s">
+      <c r="BD4" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="BE4" s="50" t="s">
+      <c r="BE4" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="BF4" s="50" t="s">
+      <c r="BF4" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="50" t="s">
+      <c r="BG4" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="BH4" s="50" t="s">
+      <c r="BH4" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="BI4" s="50" t="s">
+      <c r="BI4" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="BJ4" s="50" t="s">
+      <c r="BJ4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="BK4" s="50" t="s">
+      <c r="BK4" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="50" t="s">
+      <c r="BL4" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="50" t="s">
+      <c r="BM4" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="BN4" s="50" t="s">
+      <c r="BN4" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="BO4" s="50" t="s">
+      <c r="BO4" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BQ4" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BR4" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BS4" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BT4" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BU4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BV4" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BX4" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="BY4" s="50" t="s">
+      <c r="BY4" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="BZ4" s="50" t="s">
+      <c r="BZ4" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="CA4" s="50" t="s">
+      <c r="CA4" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="50" t="s">
+      <c r="CB4" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="CC4" s="50" t="s">
+      <c r="CC4" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="CD4" s="50" t="s">
+      <c r="CD4" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="CE4" s="52" t="s">
+      <c r="CE4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="CF4" s="52" t="s">
+      <c r="CF4" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="CG4" s="52" t="s">
+      <c r="CG4" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="CH4" s="52" t="s">
+      <c r="CH4" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="CI4" s="52" t="s">
+      <c r="CI4" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="CJ4" s="52" t="s">
+      <c r="CJ4" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="CK4" s="52" t="s">
+      <c r="CK4" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="CL4" s="52" t="s">
+      <c r="CL4" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="CM4" s="52" t="s">
+      <c r="CM4" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="CN4" s="52" t="s">
+      <c r="CN4" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="CO4" s="52" t="s">
+      <c r="CO4" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="CP4" s="52" t="s">
+      <c r="CP4" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="CQ4" s="52" t="s">
+      <c r="CQ4" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="CR4" s="52" t="s">
+      <c r="CR4" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="CS4" s="52" t="s">
+      <c r="CS4" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="CT4" s="52" t="s">
+      <c r="CT4" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="CU4" s="52" t="s">
+      <c r="CU4" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="CV4" s="52" t="s">
+      <c r="CV4" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="CW4" s="52" t="s">
+      <c r="CW4" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="CX4" s="52" t="s">
+      <c r="CX4" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="CY4" s="52" t="s">
+      <c r="CY4" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="CZ4" s="52" t="s">
+      <c r="CZ4" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="DA4" s="52" t="s">
+      <c r="DA4" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="DB4" s="52" t="s">
+      <c r="DB4" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="DC4" s="52" t="s">
+      <c r="DC4" s="48" t="s">
         <v>312</v>
       </c>
       <c r="DD4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="DE4" s="45" t="s">
+      <c r="DE4" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="DF4" s="45" t="s">
+      <c r="DF4" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="DG4" s="45" t="s">
+      <c r="DG4" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="DH4" s="45" t="s">
+      <c r="DH4" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="DI4" s="45" t="s">
+      <c r="DI4" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="DJ4" s="45" t="s">
+      <c r="DJ4" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="DK4" s="45" t="s">
+      <c r="DK4" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="DL4" s="45" t="s">
+      <c r="DL4" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="DM4" s="45" t="s">
+      <c r="DM4" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="DN4" s="45" t="s">
+      <c r="DN4" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="DO4" s="45" t="s">
+      <c r="DO4" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="DP4" s="45" t="s">
+      <c r="DP4" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="DQ4" s="45" t="s">
+      <c r="DQ4" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="DR4" s="45" t="s">
+      <c r="DR4" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="DS4" s="45" t="s">
+      <c r="DS4" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="DT4" s="45" t="s">
+      <c r="DT4" s="50" t="s">
         <v>362</v>
       </c>
+      <c r="DU4" s="50" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="5" spans="1:124" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="51"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="51"/>
-      <c r="BT5" s="51"/>
-      <c r="BU5" s="51"/>
-      <c r="BV5" s="51"/>
-      <c r="BW5" s="51"/>
-      <c r="BX5" s="51"/>
-      <c r="BY5" s="51"/>
-      <c r="BZ5" s="51"/>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="46"/>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="46"/>
-      <c r="CU5" s="46"/>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
+    <row r="5" spans="1:125" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="47"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="47"/>
+      <c r="BT5" s="47"/>
+      <c r="BU5" s="47"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="47"/>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="47"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="47"/>
+      <c r="CD5" s="47"/>
+      <c r="CE5" s="49"/>
+      <c r="CF5" s="49"/>
+      <c r="CG5" s="49"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="49"/>
+      <c r="CK5" s="49"/>
+      <c r="CL5" s="49"/>
+      <c r="CM5" s="49"/>
+      <c r="CN5" s="49"/>
+      <c r="CO5" s="49"/>
+      <c r="CP5" s="49"/>
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="49"/>
+      <c r="CS5" s="49"/>
+      <c r="CT5" s="49"/>
+      <c r="CU5" s="49"/>
+      <c r="CV5" s="49"/>
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="49"/>
+      <c r="CY5" s="49"/>
+      <c r="CZ5" s="49"/>
+      <c r="DA5" s="49"/>
+      <c r="DB5" s="49"/>
+      <c r="DC5" s="49"/>
       <c r="DD5" s="54"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="46"/>
-      <c r="DG5" s="46"/>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="46"/>
-      <c r="DS5" s="46"/>
-      <c r="DT5" s="46"/>
+      <c r="DE5" s="49"/>
+      <c r="DF5" s="49"/>
+      <c r="DG5" s="49"/>
+      <c r="DH5" s="49"/>
+      <c r="DI5" s="49"/>
+      <c r="DJ5" s="49"/>
+      <c r="DK5" s="49"/>
+      <c r="DL5" s="49"/>
+      <c r="DM5" s="49"/>
+      <c r="DN5" s="49"/>
+      <c r="DO5" s="49"/>
+      <c r="DP5" s="49"/>
+      <c r="DQ5" s="49"/>
+      <c r="DR5" s="49"/>
+      <c r="DS5" s="49"/>
+      <c r="DT5" s="49"/>
+      <c r="DU5" s="49"/>
     </row>
-    <row r="6" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -9990,8 +10052,11 @@
       <c r="DT6" s="28">
         <v>147</v>
       </c>
+      <c r="DU6" s="28">
+        <v>200</v>
+      </c>
     </row>
-    <row r="7" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10361,8 +10426,11 @@
       <c r="DT7" s="15">
         <v>0</v>
       </c>
+      <c r="DU7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -10732,8 +10800,11 @@
       <c r="DT8" s="28">
         <v>13</v>
       </c>
+      <c r="DU8" s="28">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11104,8 +11175,11 @@
       <c r="DT9" s="15">
         <v>101</v>
       </c>
+      <c r="DU9" s="15">
+        <v>139</v>
+      </c>
     </row>
-    <row r="10" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11473,8 +11547,11 @@
       <c r="DT10" s="15">
         <v>0</v>
       </c>
+      <c r="DU10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -11844,8 +11921,11 @@
       <c r="DT11" s="15">
         <v>11</v>
       </c>
+      <c r="DU11" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12215,8 +12295,11 @@
       <c r="DT12" s="15">
         <v>13</v>
       </c>
+      <c r="DU12" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -12586,8 +12669,11 @@
       <c r="DT13" s="15">
         <v>38</v>
       </c>
+      <c r="DU13" s="15">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -12957,8 +13043,11 @@
       <c r="DT14" s="15">
         <v>30</v>
       </c>
+      <c r="DU14" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="15" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13328,8 +13417,11 @@
       <c r="DT15" s="15">
         <v>4</v>
       </c>
+      <c r="DU15" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -13700,8 +13792,11 @@
       <c r="DT16" s="28">
         <v>199</v>
       </c>
+      <c r="DU16" s="28">
+        <v>233</v>
+      </c>
     </row>
-    <row r="17" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14071,8 +14166,11 @@
       <c r="DT17" s="15">
         <v>254</v>
       </c>
+      <c r="DU17" s="15">
+        <v>262</v>
+      </c>
     </row>
-    <row r="18" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -14443,10 +14541,13 @@
       <c r="DT18" s="34">
         <v>3173</v>
       </c>
+      <c r="DU18" s="34">
+        <v>2861</v>
+      </c>
     </row>
-    <row r="19" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -14815,10 +14916,13 @@
       <c r="DT19" s="15">
         <v>113</v>
       </c>
+      <c r="DU19" s="15">
+        <v>141</v>
+      </c>
     </row>
-    <row r="20" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="67"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -15185,10 +15289,13 @@
       <c r="DT20" s="28">
         <v>424</v>
       </c>
+      <c r="DU20" s="28">
+        <v>388</v>
+      </c>
     </row>
-    <row r="21" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="67"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -15555,8 +15662,11 @@
       <c r="DT21" s="15">
         <v>79</v>
       </c>
+      <c r="DU21" s="15">
+        <v>76</v>
+      </c>
     </row>
-    <row r="22" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -15926,8 +16036,11 @@
       <c r="DT22" s="15">
         <v>11</v>
       </c>
+      <c r="DU22" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -16297,8 +16410,11 @@
       <c r="DT23" s="15">
         <v>2</v>
       </c>
+      <c r="DU23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -16668,8 +16784,11 @@
       <c r="DT24" s="15">
         <v>11</v>
       </c>
+      <c r="DU24" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17039,8 +17158,11 @@
       <c r="DT25" s="15">
         <v>0</v>
       </c>
+      <c r="DU25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -17410,8 +17532,11 @@
       <c r="DT26" s="15">
         <v>17</v>
       </c>
+      <c r="DU26" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="27" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -17781,8 +17906,11 @@
       <c r="DT27" s="15">
         <v>1</v>
       </c>
+      <c r="DU27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18152,9 +18280,12 @@
       <c r="DT28" s="15">
         <v>0</v>
       </c>
+      <c r="DU28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="68" t="s">
+    <row r="29" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -18523,9 +18654,12 @@
       <c r="DT29" s="15">
         <v>3</v>
       </c>
+      <c r="DU29" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="68"/>
+    <row r="30" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -18892,8 +19026,11 @@
       <c r="DT30" s="15">
         <v>35</v>
       </c>
+      <c r="DU30" s="15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="31" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -19264,8 +19401,11 @@
       <c r="DT31" s="15">
         <v>71</v>
       </c>
+      <c r="DU31" s="15">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -19635,8 +19775,11 @@
       <c r="DT32" s="15">
         <v>2</v>
       </c>
+      <c r="DU32" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20006,8 +20149,11 @@
       <c r="DT33" s="15">
         <v>1</v>
       </c>
+      <c r="DU33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -20378,10 +20524,13 @@
       <c r="DT34" s="15">
         <v>93</v>
       </c>
+      <c r="DU34" s="15">
+        <v>185</v>
+      </c>
     </row>
-    <row r="35" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -20750,9 +20899,12 @@
       <c r="DT35" s="15">
         <v>516</v>
       </c>
+      <c r="DU35" s="15">
+        <v>526</v>
+      </c>
     </row>
-    <row r="36" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="67"/>
+    <row r="36" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -21119,8 +21271,11 @@
       <c r="DT36" s="28">
         <v>70</v>
       </c>
+      <c r="DU36" s="28">
+        <v>104</v>
+      </c>
     </row>
-    <row r="37" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -21491,8 +21646,11 @@
       <c r="DT37" s="15">
         <v>117</v>
       </c>
+      <c r="DU37" s="15">
+        <v>192</v>
+      </c>
     </row>
-    <row r="38" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -21862,8 +22020,11 @@
       <c r="DT38" s="15">
         <v>27</v>
       </c>
+      <c r="DU38" s="15">
+        <v>43</v>
+      </c>
     </row>
-    <row r="39" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -22233,8 +22394,11 @@
       <c r="DT39" s="15">
         <v>10</v>
       </c>
+      <c r="DU39" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="40" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -22604,8 +22768,11 @@
       <c r="DT40" s="15">
         <v>0</v>
       </c>
+      <c r="DU40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -22975,8 +23142,11 @@
       <c r="DT41" s="15">
         <v>0</v>
       </c>
+      <c r="DU41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -23346,8 +23516,11 @@
       <c r="DT42" s="15">
         <v>5</v>
       </c>
+      <c r="DU42" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -23717,8 +23890,11 @@
       <c r="DT43" s="28">
         <v>49</v>
       </c>
+      <c r="DU43" s="28">
+        <v>87</v>
+      </c>
     </row>
-    <row r="44" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -24088,8 +24264,11 @@
       <c r="DT44" s="15">
         <v>4</v>
       </c>
+      <c r="DU44" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -24459,8 +24638,11 @@
       <c r="DT45" s="15">
         <v>23</v>
       </c>
+      <c r="DU45" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="46" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -24830,8 +25012,11 @@
       <c r="DT46" s="15">
         <v>25</v>
       </c>
+      <c r="DU46" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="47" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -25201,8 +25386,11 @@
       <c r="DT47" s="15">
         <v>3</v>
       </c>
+      <c r="DU47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -25572,10 +25760,13 @@
       <c r="DT48" s="15">
         <v>8</v>
       </c>
+      <c r="DU48" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="49" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="66" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -25944,9 +26135,12 @@
       <c r="DT49" s="15">
         <v>145</v>
       </c>
+      <c r="DU49" s="15">
+        <v>217</v>
+      </c>
     </row>
-    <row r="50" spans="1:124" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="67"/>
+    <row r="50" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -26313,8 +26507,11 @@
       <c r="DT50" s="15">
         <v>46</v>
       </c>
+      <c r="DU50" s="15">
+        <v>71</v>
+      </c>
     </row>
-    <row r="51" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -26684,8 +26881,11 @@
       <c r="DT51" s="15">
         <v>9</v>
       </c>
+      <c r="DU51" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="52" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -27055,8 +27255,11 @@
       <c r="DT52" s="15">
         <v>23</v>
       </c>
+      <c r="DU52" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="53" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -27426,8 +27629,11 @@
       <c r="DT53" s="15">
         <v>78</v>
       </c>
+      <c r="DU53" s="15">
+        <v>67</v>
+      </c>
     </row>
-    <row r="54" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -27797,8 +28003,11 @@
       <c r="DT54" s="15">
         <v>6</v>
       </c>
+      <c r="DU54" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="55" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -28168,8 +28377,11 @@
       <c r="DT55" s="15">
         <v>17</v>
       </c>
+      <c r="DU55" s="15">
+        <v>28</v>
+      </c>
     </row>
-    <row r="56" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -28539,8 +28751,11 @@
       <c r="DT56" s="15">
         <v>0</v>
       </c>
+      <c r="DU56" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -28910,8 +29125,11 @@
       <c r="DT57" s="15">
         <v>8</v>
       </c>
+      <c r="DU57" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="58" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -29389,7 +29607,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:DT58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:DU58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -29400,8 +29618,12 @@
         <f t="shared" si="10"/>
         <v>6035</v>
       </c>
+      <c r="DU58" s="14">
+        <f t="shared" si="10"/>
+        <v>6307</v>
+      </c>
     </row>
-    <row r="59" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -29485,7 +29707,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -29569,30 +29791,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:124" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -29654,7 +29876,7 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="138">
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="DJ4:DJ5"/>
@@ -29676,6 +29898,9 @@
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="DE2:DU2"/>
+    <mergeCell ref="DE3:DU3"/>
+    <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="T4:T5"/>
@@ -29687,6 +29912,19 @@
     <mergeCell ref="DS4:DS5"/>
     <mergeCell ref="DR4:DR5"/>
     <mergeCell ref="DQ4:DQ5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DH4:DH5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="DK4:DK5"/>
+    <mergeCell ref="CX4:CX5"/>
+    <mergeCell ref="CT4:CT5"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B19:B21"/>
@@ -29702,11 +29940,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -29725,20 +29958,12 @@
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="CR3:DD3"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CL4:CL5"/>
     <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BK4:BK5"/>
@@ -29749,31 +29974,23 @@
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="CK4:CK5"/>
     <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DH4:DH5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="DD4:DD5"/>
     <mergeCell ref="CN4:CN5"/>
-    <mergeCell ref="DA4:DA5"/>
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CW4:CW5"/>
-    <mergeCell ref="DK4:DK5"/>
-    <mergeCell ref="CX4:CX5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
     <mergeCell ref="DE4:DE5"/>
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="DC4:DC5"/>
     <mergeCell ref="CZ4:CZ5"/>
-    <mergeCell ref="DE2:DT2"/>
-    <mergeCell ref="DE3:DT3"/>
     <mergeCell ref="DT4:DT5"/>
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
     <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="CR3:DD3"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="DD4:DD5"/>
+    <mergeCell ref="DA4:DA5"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CW4:CW5"/>
     <mergeCell ref="BD2:DD2"/>
     <mergeCell ref="BD3:CQ3"/>
     <mergeCell ref="BG4:BG5"/>
@@ -29792,6 +30009,12 @@
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="CJ4:CJ5"/>
     <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CL4:CL5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -29804,7 +30027,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:DT57">
+  <conditionalFormatting sqref="DP6:DU57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -29821,13 +30044,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DT58"/>
+  <dimension ref="B1:DU58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DG46" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DT50" sqref="DT50"/>
+      <selection pane="bottomRight" activeCell="DU4" sqref="DU4:DU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29842,11 +30065,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="124" width="10.875" style="1" customWidth="1"/>
-    <col min="125" max="16384" width="8.625" style="1"/>
+    <col min="106" max="125" width="10.875" style="1" customWidth="1"/>
+    <col min="126" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:124" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:125" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="76" t="s">
         <v>336</v>
       </c>
@@ -29897,144 +30120,146 @@
       <c r="DQ1" s="19"/>
       <c r="DR1" s="19"/>
       <c r="DS1" s="19"/>
-      <c r="DT1" s="19" t="s">
+      <c r="DT1" s="19"/>
+      <c r="DU1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="2:124" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="2:125" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
-      <c r="CF2" s="43"/>
-      <c r="CG2" s="43"/>
-      <c r="CH2" s="43"/>
-      <c r="CI2" s="43"/>
-      <c r="CJ2" s="43"/>
-      <c r="CK2" s="43"/>
-      <c r="CL2" s="43"/>
-      <c r="CM2" s="43"/>
-      <c r="CN2" s="43"/>
-      <c r="CO2" s="43"/>
-      <c r="CP2" s="43"/>
-      <c r="CQ2" s="43"/>
-      <c r="CR2" s="43"/>
-      <c r="CS2" s="43"/>
-      <c r="CT2" s="43"/>
-      <c r="CU2" s="43"/>
-      <c r="CV2" s="43"/>
-      <c r="CW2" s="43"/>
-      <c r="CX2" s="43"/>
-      <c r="CY2" s="43"/>
-      <c r="CZ2" s="43"/>
-      <c r="DA2" s="43"/>
-      <c r="DB2" s="43"/>
-      <c r="DC2" s="43"/>
-      <c r="DD2" s="43" t="s">
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="71"/>
+      <c r="BT2" s="71"/>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="71"/>
+      <c r="BW2" s="71"/>
+      <c r="BX2" s="71"/>
+      <c r="BY2" s="71"/>
+      <c r="BZ2" s="71"/>
+      <c r="CA2" s="71"/>
+      <c r="CB2" s="71"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="71"/>
+      <c r="CE2" s="71"/>
+      <c r="CF2" s="71"/>
+      <c r="CG2" s="71"/>
+      <c r="CH2" s="71"/>
+      <c r="CI2" s="71"/>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="71"/>
+      <c r="CM2" s="71"/>
+      <c r="CN2" s="71"/>
+      <c r="CO2" s="71"/>
+      <c r="CP2" s="71"/>
+      <c r="CQ2" s="71"/>
+      <c r="CR2" s="71"/>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="71"/>
+      <c r="CU2" s="71"/>
+      <c r="CV2" s="71"/>
+      <c r="CW2" s="71"/>
+      <c r="CX2" s="71"/>
+      <c r="CY2" s="71"/>
+      <c r="CZ2" s="71"/>
+      <c r="DA2" s="71"/>
+      <c r="DB2" s="71"/>
+      <c r="DC2" s="71"/>
+      <c r="DD2" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="DE2" s="43"/>
-      <c r="DF2" s="43"/>
-      <c r="DG2" s="43"/>
-      <c r="DH2" s="43"/>
-      <c r="DI2" s="43"/>
-      <c r="DJ2" s="43"/>
-      <c r="DK2" s="43"/>
-      <c r="DL2" s="43"/>
-      <c r="DM2" s="43"/>
-      <c r="DN2" s="43"/>
-      <c r="DO2" s="43"/>
-      <c r="DP2" s="43"/>
-      <c r="DQ2" s="43"/>
-      <c r="DR2" s="43"/>
-      <c r="DS2" s="43"/>
-      <c r="DT2" s="43"/>
+      <c r="DE2" s="71"/>
+      <c r="DF2" s="71"/>
+      <c r="DG2" s="71"/>
+      <c r="DH2" s="71"/>
+      <c r="DI2" s="71"/>
+      <c r="DJ2" s="71"/>
+      <c r="DK2" s="71"/>
+      <c r="DL2" s="71"/>
+      <c r="DM2" s="71"/>
+      <c r="DN2" s="71"/>
+      <c r="DO2" s="71"/>
+      <c r="DP2" s="71"/>
+      <c r="DQ2" s="71"/>
+      <c r="DR2" s="71"/>
+      <c r="DS2" s="71"/>
+      <c r="DT2" s="71"/>
+      <c r="DU2" s="71"/>
     </row>
-    <row r="3" spans="2:124" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
+    <row r="3" spans="2:125" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
         <v>289</v>
       </c>
@@ -30077,101 +30302,102 @@
       <c r="AO3" s="75"/>
       <c r="AP3" s="75"/>
       <c r="AQ3" s="75"/>
-      <c r="AR3" s="44" t="s">
+      <c r="AR3" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="58" t="s">
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="48"/>
-      <c r="BL3" s="48"/>
-      <c r="BM3" s="48"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="48"/>
-      <c r="BP3" s="48"/>
-      <c r="BQ3" s="48"/>
-      <c r="BR3" s="48"/>
-      <c r="BS3" s="48"/>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="48"/>
-      <c r="BW3" s="48"/>
-      <c r="BX3" s="48"/>
-      <c r="BY3" s="48"/>
-      <c r="BZ3" s="48"/>
-      <c r="CA3" s="48"/>
-      <c r="CB3" s="48"/>
-      <c r="CC3" s="48"/>
-      <c r="CD3" s="48"/>
-      <c r="CE3" s="48"/>
-      <c r="CF3" s="48"/>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="48"/>
-      <c r="CI3" s="48"/>
-      <c r="CJ3" s="48"/>
-      <c r="CK3" s="48"/>
-      <c r="CL3" s="48"/>
-      <c r="CM3" s="48"/>
-      <c r="CN3" s="48"/>
-      <c r="CO3" s="48"/>
-      <c r="CP3" s="48"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="44" t="s">
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="44"/>
+      <c r="BW3" s="44"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44"/>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="44"/>
+      <c r="CD3" s="44"/>
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="44"/>
+      <c r="CG3" s="44"/>
+      <c r="CH3" s="44"/>
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="44"/>
+      <c r="CM3" s="44"/>
+      <c r="CN3" s="44"/>
+      <c r="CO3" s="44"/>
+      <c r="CP3" s="44"/>
+      <c r="CQ3" s="45"/>
+      <c r="CR3" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="CS3" s="44"/>
-      <c r="CT3" s="44"/>
-      <c r="CU3" s="44"/>
-      <c r="CV3" s="44"/>
-      <c r="CW3" s="44"/>
-      <c r="CX3" s="44"/>
-      <c r="CY3" s="44"/>
-      <c r="CZ3" s="44"/>
-      <c r="DA3" s="44"/>
-      <c r="DB3" s="44"/>
-      <c r="DC3" s="44"/>
-      <c r="DD3" s="44" t="s">
+      <c r="CS3" s="51"/>
+      <c r="CT3" s="51"/>
+      <c r="CU3" s="51"/>
+      <c r="CV3" s="51"/>
+      <c r="CW3" s="51"/>
+      <c r="CX3" s="51"/>
+      <c r="CY3" s="51"/>
+      <c r="CZ3" s="51"/>
+      <c r="DA3" s="51"/>
+      <c r="DB3" s="51"/>
+      <c r="DC3" s="51"/>
+      <c r="DD3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="DE3" s="44"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="44"/>
-      <c r="DH3" s="44"/>
-      <c r="DI3" s="44"/>
-      <c r="DJ3" s="44"/>
-      <c r="DK3" s="44"/>
-      <c r="DL3" s="44"/>
-      <c r="DM3" s="44"/>
-      <c r="DN3" s="44"/>
-      <c r="DO3" s="44"/>
-      <c r="DP3" s="44"/>
-      <c r="DQ3" s="44"/>
-      <c r="DR3" s="44"/>
-      <c r="DS3" s="44"/>
-      <c r="DT3" s="44"/>
+      <c r="DE3" s="51"/>
+      <c r="DF3" s="51"/>
+      <c r="DG3" s="51"/>
+      <c r="DH3" s="51"/>
+      <c r="DI3" s="51"/>
+      <c r="DJ3" s="51"/>
+      <c r="DK3" s="51"/>
+      <c r="DL3" s="51"/>
+      <c r="DM3" s="51"/>
+      <c r="DN3" s="51"/>
+      <c r="DO3" s="51"/>
+      <c r="DP3" s="51"/>
+      <c r="DQ3" s="51"/>
+      <c r="DR3" s="51"/>
+      <c r="DS3" s="51"/>
+      <c r="DT3" s="51"/>
+      <c r="DU3" s="51"/>
     </row>
-    <row r="4" spans="2:124" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="69" t="s">
+    <row r="4" spans="2:125" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="72" t="s">
@@ -30330,340 +30556,344 @@
       <c r="BC4" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="BD4" s="50" t="s">
+      <c r="BD4" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="BE4" s="50" t="s">
+      <c r="BE4" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" s="50" t="s">
+      <c r="BF4" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" s="50" t="s">
+      <c r="BG4" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="BH4" s="50" t="s">
+      <c r="BH4" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="BI4" s="50" t="s">
+      <c r="BI4" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="50" t="s">
+      <c r="BJ4" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="50" t="s">
+      <c r="BK4" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="50" t="s">
+      <c r="BL4" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="50" t="s">
+      <c r="BM4" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="50" t="s">
+      <c r="BN4" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="50" t="s">
+      <c r="BO4" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BQ4" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BR4" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BS4" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BT4" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BU4" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BV4" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BX4" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="BY4" s="50" t="s">
+      <c r="BY4" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="BZ4" s="50" t="s">
+      <c r="BZ4" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="CA4" s="50" t="s">
+      <c r="CA4" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="CB4" s="50" t="s">
+      <c r="CB4" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="CC4" s="50" t="s">
+      <c r="CC4" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="CD4" s="50" t="s">
+      <c r="CD4" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="CE4" s="52" t="s">
+      <c r="CE4" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="CF4" s="52" t="s">
+      <c r="CF4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="CG4" s="52" t="s">
+      <c r="CG4" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="CH4" s="52" t="s">
+      <c r="CH4" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="CI4" s="52" t="s">
+      <c r="CI4" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="CJ4" s="52" t="s">
+      <c r="CJ4" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="CK4" s="52" t="s">
+      <c r="CK4" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="CL4" s="52" t="s">
+      <c r="CL4" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CM4" s="52" t="s">
+      <c r="CM4" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="CN4" s="52" t="s">
+      <c r="CN4" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="CO4" s="52" t="s">
+      <c r="CO4" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="CP4" s="52" t="s">
+      <c r="CP4" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="CQ4" s="52" t="s">
+      <c r="CQ4" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="CR4" s="52" t="s">
+      <c r="CR4" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="CS4" s="52" t="s">
+      <c r="CS4" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="CT4" s="52" t="s">
+      <c r="CT4" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="CU4" s="52" t="s">
+      <c r="CU4" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="CV4" s="52" t="s">
+      <c r="CV4" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="CW4" s="52" t="s">
+      <c r="CW4" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="CX4" s="52" t="s">
+      <c r="CX4" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="CY4" s="52" t="s">
+      <c r="CY4" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="CZ4" s="52" t="s">
+      <c r="CZ4" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="DA4" s="52" t="s">
+      <c r="DA4" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="DB4" s="52" t="s">
+      <c r="DB4" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="DC4" s="52" t="s">
+      <c r="DC4" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="DD4" s="45" t="s">
+      <c r="DD4" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="DE4" s="45" t="s">
+      <c r="DE4" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="DF4" s="45" t="s">
+      <c r="DF4" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="DG4" s="45" t="s">
+      <c r="DG4" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="DH4" s="45" t="s">
+      <c r="DH4" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="DI4" s="45" t="s">
+      <c r="DI4" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="DJ4" s="45" t="s">
+      <c r="DJ4" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="DK4" s="45" t="s">
+      <c r="DK4" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="DL4" s="45" t="s">
+      <c r="DL4" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="DM4" s="45" t="s">
+      <c r="DM4" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="DN4" s="45" t="s">
+      <c r="DN4" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="DO4" s="45" t="s">
+      <c r="DO4" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="DP4" s="45" t="s">
+      <c r="DP4" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="DQ4" s="45" t="s">
+      <c r="DQ4" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="DR4" s="45" t="s">
+      <c r="DR4" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="DS4" s="45" t="s">
+      <c r="DS4" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="DT4" s="45" t="s">
+      <c r="DT4" s="50" t="s">
         <v>363</v>
       </c>
+      <c r="DU4" s="50" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="5" spans="2:124" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+    <row r="5" spans="2:125" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="51"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="51"/>
-      <c r="BT5" s="51"/>
-      <c r="BU5" s="51"/>
-      <c r="BV5" s="51"/>
-      <c r="BW5" s="51"/>
-      <c r="BX5" s="51"/>
-      <c r="BY5" s="51"/>
-      <c r="BZ5" s="51"/>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="46"/>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="46"/>
-      <c r="CU5" s="46"/>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="46"/>
-      <c r="DG5" s="46"/>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="46"/>
-      <c r="DS5" s="46"/>
-      <c r="DT5" s="46"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="47"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="47"/>
+      <c r="BT5" s="47"/>
+      <c r="BU5" s="47"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="47"/>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="47"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="47"/>
+      <c r="CD5" s="47"/>
+      <c r="CE5" s="49"/>
+      <c r="CF5" s="49"/>
+      <c r="CG5" s="49"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="49"/>
+      <c r="CK5" s="49"/>
+      <c r="CL5" s="49"/>
+      <c r="CM5" s="49"/>
+      <c r="CN5" s="49"/>
+      <c r="CO5" s="49"/>
+      <c r="CP5" s="49"/>
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="49"/>
+      <c r="CS5" s="49"/>
+      <c r="CT5" s="49"/>
+      <c r="CU5" s="49"/>
+      <c r="CV5" s="49"/>
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="49"/>
+      <c r="CY5" s="49"/>
+      <c r="CZ5" s="49"/>
+      <c r="DA5" s="49"/>
+      <c r="DB5" s="49"/>
+      <c r="DC5" s="49"/>
+      <c r="DD5" s="49"/>
+      <c r="DE5" s="49"/>
+      <c r="DF5" s="49"/>
+      <c r="DG5" s="49"/>
+      <c r="DH5" s="49"/>
+      <c r="DI5" s="49"/>
+      <c r="DJ5" s="49"/>
+      <c r="DK5" s="49"/>
+      <c r="DL5" s="49"/>
+      <c r="DM5" s="49"/>
+      <c r="DN5" s="49"/>
+      <c r="DO5" s="49"/>
+      <c r="DP5" s="49"/>
+      <c r="DQ5" s="49"/>
+      <c r="DR5" s="49"/>
+      <c r="DS5" s="49"/>
+      <c r="DT5" s="49"/>
+      <c r="DU5" s="49"/>
     </row>
-    <row r="6" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -31033,8 +31263,11 @@
       <c r="DT6" s="28">
         <v>173</v>
       </c>
+      <c r="DU6" s="28">
+        <v>143</v>
+      </c>
     </row>
-    <row r="7" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -31404,8 +31637,11 @@
       <c r="DT7" s="15">
         <v>1</v>
       </c>
+      <c r="DU7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -31775,8 +32011,11 @@
       <c r="DT8" s="28">
         <v>7</v>
       </c>
+      <c r="DU8" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -32146,8 +32385,11 @@
       <c r="DT9" s="15">
         <v>71</v>
       </c>
+      <c r="DU9" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -32517,8 +32759,11 @@
       <c r="DT10" s="15">
         <v>0</v>
       </c>
+      <c r="DU10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -32888,8 +33133,11 @@
       <c r="DT11" s="15">
         <v>7</v>
       </c>
+      <c r="DU11" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -33259,8 +33507,11 @@
       <c r="DT12" s="15">
         <v>3</v>
       </c>
+      <c r="DU12" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -33630,8 +33881,11 @@
       <c r="DT13" s="15">
         <v>10</v>
       </c>
+      <c r="DU13" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="14" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -34001,8 +34255,11 @@
       <c r="DT14" s="15">
         <v>7</v>
       </c>
+      <c r="DU14" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -34372,8 +34629,11 @@
       <c r="DT15" s="15">
         <v>1</v>
       </c>
+      <c r="DU15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -34743,8 +35003,11 @@
       <c r="DT16" s="28">
         <v>63</v>
       </c>
+      <c r="DU16" s="28">
+        <v>57</v>
+      </c>
     </row>
-    <row r="17" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35114,8 +35377,11 @@
       <c r="DT17" s="15">
         <v>86</v>
       </c>
+      <c r="DU17" s="15">
+        <v>78</v>
+      </c>
     </row>
-    <row r="18" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -35485,9 +35751,12 @@
       <c r="DT18" s="34">
         <v>1121</v>
       </c>
+      <c r="DU18" s="34">
+        <v>1292</v>
+      </c>
     </row>
-    <row r="19" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -35856,9 +36125,12 @@
       <c r="DT19" s="15">
         <v>33</v>
       </c>
+      <c r="DU19" s="15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="20" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="67"/>
+    <row r="20" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -36225,9 +36497,12 @@
       <c r="DT20" s="28">
         <v>140</v>
       </c>
+      <c r="DU20" s="28">
+        <v>175</v>
+      </c>
     </row>
-    <row r="21" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="67"/>
+    <row r="21" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -36594,8 +36869,11 @@
       <c r="DT21" s="15">
         <v>21</v>
       </c>
+      <c r="DU21" s="15">
+        <v>26</v>
+      </c>
     </row>
-    <row r="22" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -36965,8 +37243,11 @@
       <c r="DT22" s="15">
         <v>7</v>
       </c>
+      <c r="DU22" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -37336,8 +37617,11 @@
       <c r="DT23" s="15">
         <v>1</v>
       </c>
+      <c r="DU23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -37707,8 +37991,11 @@
       <c r="DT24" s="15">
         <v>7</v>
       </c>
+      <c r="DU24" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -38078,8 +38365,11 @@
       <c r="DT25" s="15">
         <v>0</v>
       </c>
+      <c r="DU25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -38449,8 +38739,11 @@
       <c r="DT26" s="15">
         <v>5</v>
       </c>
+      <c r="DU26" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -38820,8 +39113,11 @@
       <c r="DT27" s="15">
         <v>1</v>
       </c>
+      <c r="DU27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -39191,9 +39487,12 @@
       <c r="DT28" s="15">
         <v>1</v>
       </c>
+      <c r="DU28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="68" t="s">
+    <row r="29" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -39562,9 +39861,12 @@
       <c r="DT29" s="15">
         <v>5</v>
       </c>
+      <c r="DU29" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="68"/>
+    <row r="30" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -39931,8 +40233,11 @@
       <c r="DT30" s="15">
         <v>3</v>
       </c>
+      <c r="DU30" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -40302,8 +40607,11 @@
       <c r="DT31" s="15">
         <v>16</v>
       </c>
+      <c r="DU31" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="32" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -40673,8 +40981,11 @@
       <c r="DT32" s="15">
         <v>2</v>
       </c>
+      <c r="DU32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -41044,8 +41355,11 @@
       <c r="DT33" s="15">
         <v>0</v>
       </c>
+      <c r="DU33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -41415,9 +41729,12 @@
       <c r="DT34" s="15">
         <v>29</v>
       </c>
+      <c r="DU34" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="35" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="67" t="s">
+    <row r="35" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="66" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -41786,9 +42103,12 @@
       <c r="DT35" s="15">
         <v>300</v>
       </c>
+      <c r="DU35" s="15">
+        <v>276</v>
+      </c>
     </row>
-    <row r="36" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="67"/>
+    <row r="36" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -42155,8 +42475,11 @@
       <c r="DT36" s="28">
         <v>10</v>
       </c>
+      <c r="DU36" s="28">
+        <v>16</v>
+      </c>
     </row>
-    <row r="37" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -42526,8 +42849,11 @@
       <c r="DT37" s="15">
         <v>29</v>
       </c>
+      <c r="DU37" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="38" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -42897,8 +43223,11 @@
       <c r="DT38" s="15">
         <v>3</v>
       </c>
+      <c r="DU38" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -43268,8 +43597,11 @@
       <c r="DT39" s="15">
         <v>5</v>
       </c>
+      <c r="DU39" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -43639,8 +43971,11 @@
       <c r="DT40" s="15">
         <v>0</v>
       </c>
+      <c r="DU40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -44010,8 +44345,11 @@
       <c r="DT41" s="15">
         <v>0</v>
       </c>
+      <c r="DU41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -44381,8 +44719,11 @@
       <c r="DT42" s="15">
         <v>5</v>
       </c>
+      <c r="DU42" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -44752,8 +45093,11 @@
       <c r="DT43" s="28">
         <v>40</v>
       </c>
+      <c r="DU43" s="28">
+        <v>50</v>
+      </c>
     </row>
-    <row r="44" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -45123,8 +45467,11 @@
       <c r="DT44" s="15">
         <v>0</v>
       </c>
+      <c r="DU44" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="45" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -45494,8 +45841,11 @@
       <c r="DT45" s="15">
         <v>6</v>
       </c>
+      <c r="DU45" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="46" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -45865,8 +46215,11 @@
       <c r="DT46" s="15">
         <v>12</v>
       </c>
+      <c r="DU46" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="47" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -46236,8 +46589,11 @@
       <c r="DT47" s="15">
         <v>1</v>
       </c>
+      <c r="DU47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -46607,9 +46963,12 @@
       <c r="DT48" s="15">
         <v>2</v>
       </c>
+      <c r="DU48" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="49" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="67" t="s">
+    <row r="49" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="66" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -46978,9 +47337,12 @@
       <c r="DT49" s="15">
         <v>17</v>
       </c>
+      <c r="DU49" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -47347,8 +47709,11 @@
       <c r="DT50" s="15">
         <v>7</v>
       </c>
+      <c r="DU50" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="51" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -47718,8 +48083,11 @@
       <c r="DT51" s="15">
         <v>1</v>
       </c>
+      <c r="DU51" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -48089,8 +48457,11 @@
       <c r="DT52" s="15">
         <v>7</v>
       </c>
+      <c r="DU52" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="53" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -48460,8 +48831,11 @@
       <c r="DT53" s="15">
         <v>9</v>
       </c>
+      <c r="DU53" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="54" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -48831,8 +49205,11 @@
       <c r="DT54" s="15">
         <v>7</v>
       </c>
+      <c r="DU54" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -49202,8 +49579,11 @@
       <c r="DT55" s="15">
         <v>10</v>
       </c>
+      <c r="DU55" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="56" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -49573,8 +49953,11 @@
       <c r="DT56" s="15">
         <v>0</v>
       </c>
+      <c r="DU56" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -49944,8 +50327,11 @@
       <c r="DT57" s="15">
         <v>0</v>
       </c>
+      <c r="DU57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -50414,28 +50800,35 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f>SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:DU58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
-        <f>SUM(DQ6:DQ57)</f>
+        <f t="shared" si="8"/>
         <v>1158</v>
       </c>
       <c r="DR58" s="14">
-        <f>SUM(DR6:DR57)</f>
+        <f t="shared" si="8"/>
         <v>1422</v>
       </c>
       <c r="DS58" s="14">
-        <f>SUM(DS6:DS57)</f>
+        <f t="shared" si="8"/>
         <v>1594</v>
       </c>
       <c r="DT58" s="14">
-        <f>SUM(DT6:DT57)</f>
+        <f t="shared" si="8"/>
         <v>2292</v>
+      </c>
+      <c r="DU58" s="14">
+        <f t="shared" si="8"/>
+        <v>2470</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="138">
+    <mergeCell ref="DD2:DU2"/>
+    <mergeCell ref="DD3:DU3"/>
+    <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="DM4:DM5"/>
     <mergeCell ref="DL4:DL5"/>
     <mergeCell ref="DG4:DG5"/>
@@ -50447,6 +50840,7 @@
     <mergeCell ref="DS4:DS5"/>
     <mergeCell ref="DR4:DR5"/>
     <mergeCell ref="DQ4:DQ5"/>
+    <mergeCell ref="DT4:DT5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="CO4:CO5"/>
     <mergeCell ref="CM4:CM5"/>
@@ -50516,14 +50910,6 @@
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B19:B21"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS4:AS5"/>
@@ -50540,18 +50926,20 @@
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="W4:W5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="DD2:DT2"/>
-    <mergeCell ref="DD3:DT3"/>
-    <mergeCell ref="DT4:DT5"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
@@ -50573,6 +50961,9 @@
     <mergeCell ref="DF4:DF5"/>
     <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -50607,7 +50998,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:DT57</xm:sqref>
+          <xm:sqref>DP6:DU57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -50617,13 +51008,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT61"/>
+  <dimension ref="A1:BU61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BH49" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BT57" sqref="BT57"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4:BU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -50636,11 +51027,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="72" width="10.875" style="1" customWidth="1"/>
-    <col min="73" max="16384" width="8.625" style="1"/>
+    <col min="54" max="73" width="10.875" style="1" customWidth="1"/>
+    <col min="74" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:73" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -50687,90 +51078,92 @@
       <c r="BQ1" s="19"/>
       <c r="BR1" s="19"/>
       <c r="BS1" s="19"/>
-      <c r="BT1" s="19" t="s">
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:72" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="71" t="s">
+    <row r="2" spans="1:73" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
       <c r="BC2" s="77"/>
-      <c r="BD2" s="43" t="s">
+      <c r="BD2" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="71"/>
+      <c r="BT2" s="71"/>
+      <c r="BU2" s="71"/>
     </row>
-    <row r="3" spans="1:72" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
+    <row r="3" spans="1:73" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
         <v>218</v>
       </c>
@@ -50813,329 +51206,334 @@
       <c r="AO3" s="75"/>
       <c r="AP3" s="75"/>
       <c r="AQ3" s="75"/>
-      <c r="AR3" s="44" t="s">
+      <c r="AR3" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44" t="s">
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="51"/>
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="51"/>
     </row>
-    <row r="4" spans="1:72" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50" t="s">
+    <row r="4" spans="1:73" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="50" t="s">
+      <c r="U4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="50" t="s">
+      <c r="V4" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="50" t="s">
+      <c r="W4" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="50" t="s">
+      <c r="X4" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="50" t="s">
+      <c r="Z4" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="AA4" s="50" t="s">
+      <c r="AA4" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="50" t="s">
+      <c r="AB4" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AC4" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="50" t="s">
+      <c r="AD4" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="AG4" s="52" t="s">
+      <c r="AG4" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="AI4" s="52" t="s">
+      <c r="AI4" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AJ4" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AK4" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AL4" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="AM4" s="52" t="s">
+      <c r="AM4" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="AN4" s="52" t="s">
+      <c r="AN4" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="AO4" s="52" t="s">
+      <c r="AO4" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="AP4" s="52" t="s">
+      <c r="AP4" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="AQ4" s="52" t="s">
+      <c r="AQ4" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="AR4" s="52" t="s">
+      <c r="AR4" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="AS4" s="52" t="s">
+      <c r="AS4" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="AT4" s="52" t="s">
+      <c r="AT4" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="AU4" s="52" t="s">
+      <c r="AU4" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="AV4" s="52" t="s">
+      <c r="AV4" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="AW4" s="52" t="s">
+      <c r="AW4" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="AX4" s="52" t="s">
+      <c r="AX4" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="AY4" s="52" t="s">
+      <c r="AY4" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="AZ4" s="52" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="BA4" s="52" t="s">
+      <c r="BA4" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="BB4" s="52" t="s">
+      <c r="BB4" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="BC4" s="52" t="s">
+      <c r="BC4" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="BD4" s="45" t="s">
+      <c r="BD4" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="BE4" s="45" t="s">
+      <c r="BE4" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="BF4" s="45" t="s">
+      <c r="BF4" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="BG4" s="45" t="s">
+      <c r="BG4" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="BH4" s="45" t="s">
+      <c r="BH4" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="BI4" s="45" t="s">
+      <c r="BI4" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="BJ4" s="45" t="s">
+      <c r="BJ4" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="BK4" s="45" t="s">
+      <c r="BK4" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="BL4" s="45" t="s">
+      <c r="BL4" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="BM4" s="45" t="s">
+      <c r="BM4" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="BN4" s="45" t="s">
+      <c r="BN4" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="BO4" s="45" t="s">
+      <c r="BO4" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="BP4" s="45" t="s">
+      <c r="BP4" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="BQ4" s="45" t="s">
+      <c r="BQ4" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="45" t="s">
+      <c r="BR4" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="BS4" s="45" t="s">
+      <c r="BS4" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="BT4" s="45" t="s">
+      <c r="BT4" s="50" t="s">
         <v>364</v>
       </c>
+      <c r="BU4" s="50" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
+    <row r="5" spans="1:73" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="49"/>
     </row>
-    <row r="6" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -51350,8 +51748,11 @@
       <c r="BT6" s="28">
         <v>43</v>
       </c>
+      <c r="BU6" s="28">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -51565,8 +51966,11 @@
       <c r="BT7" s="15">
         <v>0</v>
       </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -51780,8 +52184,11 @@
       <c r="BT8" s="28">
         <v>2</v>
       </c>
+      <c r="BU8" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -51996,8 +52403,11 @@
       <c r="BT9" s="15">
         <v>22</v>
       </c>
+      <c r="BU9" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -52211,8 +52621,11 @@
       <c r="BT10" s="15">
         <v>0</v>
       </c>
+      <c r="BU10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -52426,8 +52839,11 @@
       <c r="BT11" s="15">
         <v>7</v>
       </c>
+      <c r="BU11" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -52641,8 +53057,11 @@
       <c r="BT12" s="15">
         <v>9</v>
       </c>
+      <c r="BU12" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -52856,8 +53275,11 @@
       <c r="BT13" s="15">
         <v>19</v>
       </c>
+      <c r="BU13" s="15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -53071,8 +53493,11 @@
       <c r="BT14" s="15">
         <v>14</v>
       </c>
+      <c r="BU14" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -53286,8 +53711,11 @@
       <c r="BT15" s="15">
         <v>3</v>
       </c>
+      <c r="BU15" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -53502,8 +53930,11 @@
       <c r="BT16" s="28">
         <v>44</v>
       </c>
+      <c r="BU16" s="28">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -53717,8 +54148,11 @@
       <c r="BT17" s="15">
         <v>130</v>
       </c>
+      <c r="BU17" s="15">
+        <v>143</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -53933,8 +54367,11 @@
       <c r="BT18" s="34">
         <v>1290</v>
       </c>
+      <c r="BU18" s="34">
+        <v>1076</v>
+      </c>
     </row>
-    <row r="19" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -54149,8 +54586,11 @@
       <c r="BT19" s="15">
         <v>75</v>
       </c>
+      <c r="BU19" s="15">
+        <v>93</v>
+      </c>
     </row>
-    <row r="20" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -54363,8 +54803,11 @@
       <c r="BT20" s="28">
         <v>300</v>
       </c>
+      <c r="BU20" s="28">
+        <v>267</v>
+      </c>
     </row>
-    <row r="21" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -54577,8 +55020,11 @@
       <c r="BT21" s="15">
         <v>47</v>
       </c>
+      <c r="BU21" s="15">
+        <v>48</v>
+      </c>
     </row>
-    <row r="22" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -54792,8 +55238,11 @@
       <c r="BT22" s="15">
         <v>5</v>
       </c>
+      <c r="BU22" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -55007,8 +55456,11 @@
       <c r="BT23" s="15">
         <v>0</v>
       </c>
+      <c r="BU23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -55222,8 +55674,11 @@
       <c r="BT24" s="15">
         <v>4</v>
       </c>
+      <c r="BU24" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -55437,8 +55892,11 @@
       <c r="BT25" s="15">
         <v>0</v>
       </c>
+      <c r="BU25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -55652,8 +56110,11 @@
       <c r="BT26" s="15">
         <v>11</v>
       </c>
+      <c r="BU26" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -55867,8 +56328,11 @@
       <c r="BT27" s="15">
         <v>1</v>
       </c>
+      <c r="BU27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -56082,8 +56546,11 @@
       <c r="BT28" s="15">
         <v>0</v>
       </c>
+      <c r="BU28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -56297,8 +56764,11 @@
       <c r="BT29" s="15">
         <v>2</v>
       </c>
+      <c r="BU29" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -56510,8 +56980,11 @@
       <c r="BT30" s="15">
         <v>24</v>
       </c>
+      <c r="BU30" s="15">
+        <v>26</v>
+      </c>
     </row>
-    <row r="31" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -56726,8 +57199,11 @@
       <c r="BT31" s="15">
         <v>36</v>
       </c>
+      <c r="BU31" s="15">
+        <v>87</v>
+      </c>
     </row>
-    <row r="32" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -56941,8 +57417,11 @@
       <c r="BT32" s="15">
         <v>1</v>
       </c>
+      <c r="BU32" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -57156,8 +57635,11 @@
       <c r="BT33" s="15">
         <v>0</v>
       </c>
+      <c r="BU33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -57372,8 +57854,11 @@
       <c r="BT34" s="15">
         <v>32</v>
       </c>
+      <c r="BU34" s="15">
+        <v>67</v>
+      </c>
     </row>
-    <row r="35" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -57588,8 +58073,11 @@
       <c r="BT35" s="15">
         <v>218</v>
       </c>
+      <c r="BU35" s="15">
+        <v>210</v>
+      </c>
     </row>
-    <row r="36" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -57801,8 +58289,11 @@
       <c r="BT36" s="28">
         <v>45</v>
       </c>
+      <c r="BU36" s="28">
+        <v>79</v>
+      </c>
     </row>
-    <row r="37" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -58017,8 +58508,11 @@
       <c r="BT37" s="15">
         <v>56</v>
       </c>
+      <c r="BU37" s="15">
+        <v>86</v>
+      </c>
     </row>
-    <row r="38" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -58232,8 +58726,11 @@
       <c r="BT38" s="15">
         <v>14</v>
       </c>
+      <c r="BU38" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="39" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -58447,8 +58944,11 @@
       <c r="BT39" s="15">
         <v>6</v>
       </c>
+      <c r="BU39" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -58662,8 +59162,11 @@
       <c r="BT40" s="15">
         <v>0</v>
       </c>
+      <c r="BU40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -58877,8 +59380,11 @@
       <c r="BT41" s="15">
         <v>0</v>
       </c>
+      <c r="BU41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -59092,8 +59598,11 @@
       <c r="BT42" s="15">
         <v>2</v>
       </c>
+      <c r="BU42" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -59307,8 +59816,11 @@
       <c r="BT43" s="28">
         <v>29</v>
       </c>
+      <c r="BU43" s="28">
+        <v>51</v>
+      </c>
     </row>
-    <row r="44" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -59522,8 +60034,11 @@
       <c r="BT44" s="15">
         <v>1</v>
       </c>
+      <c r="BU44" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -59737,8 +60252,11 @@
       <c r="BT45" s="15">
         <v>6</v>
       </c>
+      <c r="BU45" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="46" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -59952,8 +60470,11 @@
       <c r="BT46" s="15">
         <v>6</v>
       </c>
+      <c r="BU46" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="47" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -60167,8 +60688,11 @@
       <c r="BT47" s="15">
         <v>2</v>
       </c>
+      <c r="BU47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -60382,8 +60906,11 @@
       <c r="BT48" s="15">
         <v>7</v>
       </c>
+      <c r="BU48" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="49" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -60598,8 +61125,11 @@
       <c r="BT49" s="15">
         <v>74</v>
       </c>
+      <c r="BU49" s="15">
+        <v>96</v>
+      </c>
     </row>
-    <row r="50" spans="1:72" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -60811,8 +61341,11 @@
       <c r="BT50" s="15">
         <v>33</v>
       </c>
+      <c r="BU50" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="51" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -61026,8 +61559,11 @@
       <c r="BT51" s="15">
         <v>0</v>
       </c>
+      <c r="BU51" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -61241,8 +61777,11 @@
       <c r="BT52" s="15">
         <v>10</v>
       </c>
+      <c r="BU52" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="53" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -61456,8 +61995,11 @@
       <c r="BT53" s="15">
         <v>36</v>
       </c>
+      <c r="BU53" s="15">
+        <v>26</v>
+      </c>
     </row>
-    <row r="54" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -61671,8 +62213,11 @@
       <c r="BT54" s="15">
         <v>2</v>
       </c>
+      <c r="BU54" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="55" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -61886,8 +62431,11 @@
       <c r="BT55" s="15">
         <v>7</v>
       </c>
+      <c r="BU55" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="56" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -62101,8 +62649,11 @@
       <c r="BT56" s="15">
         <v>0</v>
       </c>
+      <c r="BU56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -62316,8 +62867,11 @@
       <c r="BT57" s="15">
         <v>1</v>
       </c>
+      <c r="BU57" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="58" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -62587,7 +63141,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BT58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BU58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -62598,8 +63152,12 @@
         <f t="shared" si="8"/>
         <v>2676</v>
       </c>
+      <c r="BU58" s="14">
+        <f t="shared" si="8"/>
+        <v>2789</v>
+      </c>
     </row>
-    <row r="59" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -62632,7 +63190,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -62665,7 +63223,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:72" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -62699,7 +63257,7 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="82">
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -62753,6 +63311,9 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="AY4:AY5"/>
@@ -62763,31 +63324,29 @@
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BD2:BT2"/>
-    <mergeCell ref="BD3:BT3"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BD2:BU2"/>
+    <mergeCell ref="BD3:BU3"/>
+    <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BG4:BG5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="72" max="66" man="1"/>
+    <brk id="73" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -62804,7 +63363,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BT57</xm:sqref>
+          <xm:sqref>BP6:BU57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -62814,13 +63373,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY61"/>
+  <dimension ref="A1:BZ61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BM44" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BR52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BT58" sqref="BT58"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4:BU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -62831,11 +63390,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="77" width="10.875" style="1" customWidth="1"/>
-    <col min="78" max="16384" width="8.625" style="1"/>
+    <col min="34" max="78" width="10.875" style="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:78" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -62882,95 +63441,97 @@
       <c r="BQ1" s="19"/>
       <c r="BR1" s="19"/>
       <c r="BS1" s="19"/>
-      <c r="BT1" s="19" t="s">
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="71" t="s">
+    <row r="2" spans="1:78" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
       <c r="BC2" s="77"/>
-      <c r="BD2" s="43" t="s">
+      <c r="BD2" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="20"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="71"/>
+      <c r="BT2" s="71"/>
+      <c r="BU2" s="71"/>
       <c r="BV2" s="20"/>
       <c r="BW2" s="20"/>
       <c r="BX2" s="20"/>
       <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
     </row>
-    <row r="3" spans="1:77" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
+    <row r="3" spans="1:78" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
         <v>218</v>
       </c>
@@ -63013,344 +63574,349 @@
       <c r="AO3" s="75"/>
       <c r="AP3" s="75"/>
       <c r="AQ3" s="75"/>
-      <c r="AR3" s="44" t="s">
+      <c r="AR3" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44" t="s">
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
-      <c r="BU3" s="21"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="51"/>
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="51"/>
       <c r="BV3" s="21"/>
       <c r="BW3" s="21"/>
       <c r="BX3" s="21"/>
       <c r="BY3" s="21"/>
+      <c r="BZ3" s="21"/>
     </row>
-    <row r="4" spans="1:77" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50" t="s">
+    <row r="4" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="50" t="s">
+      <c r="U4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="50" t="s">
+      <c r="V4" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="50" t="s">
+      <c r="W4" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="50" t="s">
+      <c r="X4" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="50" t="s">
+      <c r="Z4" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="AA4" s="50" t="s">
+      <c r="AA4" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="50" t="s">
+      <c r="AB4" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AC4" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="50" t="s">
+      <c r="AD4" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="AG4" s="52" t="s">
+      <c r="AG4" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="AI4" s="52" t="s">
+      <c r="AI4" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AJ4" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AK4" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AL4" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="AM4" s="52" t="s">
+      <c r="AM4" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="AN4" s="52" t="s">
+      <c r="AN4" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="AO4" s="52" t="s">
+      <c r="AO4" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="AP4" s="52" t="s">
+      <c r="AP4" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="AQ4" s="52" t="s">
+      <c r="AQ4" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="AR4" s="52" t="s">
+      <c r="AR4" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="AS4" s="52" t="s">
+      <c r="AS4" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="AT4" s="52" t="s">
+      <c r="AT4" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="AU4" s="52" t="s">
+      <c r="AU4" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="AV4" s="52" t="s">
+      <c r="AV4" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="AW4" s="52" t="s">
+      <c r="AW4" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="AX4" s="52" t="s">
+      <c r="AX4" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="AY4" s="52" t="s">
+      <c r="AY4" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="AZ4" s="52" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="BA4" s="52" t="s">
+      <c r="BA4" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="BB4" s="52" t="s">
+      <c r="BB4" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="BC4" s="52" t="s">
+      <c r="BC4" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="BD4" s="45" t="s">
+      <c r="BD4" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="BE4" s="45" t="s">
+      <c r="BE4" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="BF4" s="45" t="s">
+      <c r="BF4" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="BG4" s="45" t="s">
+      <c r="BG4" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="BH4" s="45" t="s">
+      <c r="BH4" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="BI4" s="45" t="s">
+      <c r="BI4" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="BJ4" s="45" t="s">
+      <c r="BJ4" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="BK4" s="45" t="s">
+      <c r="BK4" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="BL4" s="45" t="s">
+      <c r="BL4" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="BM4" s="45" t="s">
+      <c r="BM4" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="BN4" s="45" t="s">
+      <c r="BN4" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="BO4" s="45" t="s">
+      <c r="BO4" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="BP4" s="45" t="s">
+      <c r="BP4" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="BQ4" s="45" t="s">
+      <c r="BQ4" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="45" t="s">
+      <c r="BR4" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="BS4" s="45" t="s">
+      <c r="BS4" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="BT4" s="45" t="s">
+      <c r="BT4" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="BU4" s="83"/>
+      <c r="BU4" s="50" t="s">
+        <v>367</v>
+      </c>
       <c r="BV4" s="83"/>
       <c r="BW4" s="83"/>
       <c r="BX4" s="83"/>
       <c r="BY4" s="83"/>
+      <c r="BZ4" s="83"/>
     </row>
-    <row r="5" spans="1:77" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="83"/>
+    <row r="5" spans="1:78" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
       <c r="BV5" s="83"/>
       <c r="BW5" s="83"/>
       <c r="BX5" s="83"/>
       <c r="BY5" s="83"/>
+      <c r="BZ5" s="83"/>
     </row>
-    <row r="6" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -63565,13 +64131,16 @@
       <c r="BT6" s="28">
         <v>104</v>
       </c>
-      <c r="BU6" s="22"/>
+      <c r="BU6" s="28">
+        <v>105</v>
+      </c>
       <c r="BV6" s="22"/>
       <c r="BW6" s="22"/>
       <c r="BX6" s="22"/>
       <c r="BY6" s="22"/>
+      <c r="BZ6" s="22"/>
     </row>
-    <row r="7" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -63785,13 +64354,16 @@
       <c r="BT7" s="15">
         <v>0</v>
       </c>
-      <c r="BU7" s="23"/>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
       <c r="BV7" s="23"/>
       <c r="BW7" s="23"/>
       <c r="BX7" s="23"/>
       <c r="BY7" s="23"/>
+      <c r="BZ7" s="23"/>
     </row>
-    <row r="8" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -64005,13 +64577,16 @@
       <c r="BT8" s="28">
         <v>11</v>
       </c>
-      <c r="BU8" s="23"/>
+      <c r="BU8" s="28">
+        <v>22</v>
+      </c>
       <c r="BV8" s="23"/>
       <c r="BW8" s="23"/>
       <c r="BX8" s="23"/>
       <c r="BY8" s="23"/>
+      <c r="BZ8" s="23"/>
     </row>
-    <row r="9" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -64226,13 +64801,16 @@
       <c r="BT9" s="15">
         <v>79</v>
       </c>
-      <c r="BU9" s="23"/>
+      <c r="BU9" s="15">
+        <v>101</v>
+      </c>
       <c r="BV9" s="23"/>
       <c r="BW9" s="23"/>
       <c r="BX9" s="23"/>
       <c r="BY9" s="23"/>
+      <c r="BZ9" s="23"/>
     </row>
-    <row r="10" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -64446,13 +65024,16 @@
       <c r="BT10" s="15">
         <v>0</v>
       </c>
-      <c r="BU10" s="23"/>
+      <c r="BU10" s="15">
+        <v>0</v>
+      </c>
       <c r="BV10" s="23"/>
       <c r="BW10" s="23"/>
       <c r="BX10" s="23"/>
       <c r="BY10" s="23"/>
+      <c r="BZ10" s="23"/>
     </row>
-    <row r="11" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -64666,13 +65247,16 @@
       <c r="BT11" s="15">
         <v>4</v>
       </c>
-      <c r="BU11" s="23"/>
+      <c r="BU11" s="15">
+        <v>6</v>
+      </c>
       <c r="BV11" s="23"/>
       <c r="BW11" s="23"/>
       <c r="BX11" s="23"/>
       <c r="BY11" s="23"/>
+      <c r="BZ11" s="23"/>
     </row>
-    <row r="12" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -64886,13 +65470,16 @@
       <c r="BT12" s="15">
         <v>4</v>
       </c>
-      <c r="BU12" s="23"/>
+      <c r="BU12" s="15">
+        <v>5</v>
+      </c>
       <c r="BV12" s="23"/>
       <c r="BW12" s="23"/>
       <c r="BX12" s="23"/>
       <c r="BY12" s="23"/>
+      <c r="BZ12" s="23"/>
     </row>
-    <row r="13" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -65106,13 +65693,16 @@
       <c r="BT13" s="15">
         <v>19</v>
       </c>
-      <c r="BU13" s="22"/>
+      <c r="BU13" s="15">
+        <v>17</v>
+      </c>
       <c r="BV13" s="22"/>
       <c r="BW13" s="22"/>
       <c r="BX13" s="22"/>
       <c r="BY13" s="22"/>
+      <c r="BZ13" s="22"/>
     </row>
-    <row r="14" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -65326,13 +65916,16 @@
       <c r="BT14" s="15">
         <v>16</v>
       </c>
-      <c r="BU14" s="23"/>
+      <c r="BU14" s="15">
+        <v>19</v>
+      </c>
       <c r="BV14" s="23"/>
       <c r="BW14" s="23"/>
       <c r="BX14" s="23"/>
       <c r="BY14" s="23"/>
+      <c r="BZ14" s="23"/>
     </row>
-    <row r="15" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -65546,13 +66139,16 @@
       <c r="BT15" s="15">
         <v>1</v>
       </c>
-      <c r="BU15" s="23"/>
+      <c r="BU15" s="15">
+        <v>2</v>
+      </c>
       <c r="BV15" s="23"/>
       <c r="BW15" s="23"/>
       <c r="BX15" s="23"/>
       <c r="BY15" s="23"/>
+      <c r="BZ15" s="23"/>
     </row>
-    <row r="16" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -65767,13 +66363,16 @@
       <c r="BT16" s="28">
         <v>155</v>
       </c>
-      <c r="BU16" s="22"/>
+      <c r="BU16" s="28">
+        <v>195</v>
+      </c>
       <c r="BV16" s="22"/>
       <c r="BW16" s="22"/>
       <c r="BX16" s="22"/>
       <c r="BY16" s="22"/>
+      <c r="BZ16" s="22"/>
     </row>
-    <row r="17" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -65987,13 +66586,16 @@
       <c r="BT17" s="15">
         <v>124</v>
       </c>
-      <c r="BU17" s="22"/>
+      <c r="BU17" s="15">
+        <v>119</v>
+      </c>
       <c r="BV17" s="22"/>
       <c r="BW17" s="22"/>
       <c r="BX17" s="22"/>
       <c r="BY17" s="22"/>
+      <c r="BZ17" s="22"/>
     </row>
-    <row r="18" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -66208,13 +66810,16 @@
       <c r="BT18" s="34">
         <v>1883</v>
       </c>
-      <c r="BU18" s="22"/>
+      <c r="BU18" s="34">
+        <v>1785</v>
+      </c>
       <c r="BV18" s="22"/>
       <c r="BW18" s="22"/>
       <c r="BX18" s="22"/>
       <c r="BY18" s="22"/>
+      <c r="BZ18" s="22"/>
     </row>
-    <row r="19" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -66429,13 +67034,16 @@
       <c r="BT19" s="15">
         <v>38</v>
       </c>
-      <c r="BU19" s="22"/>
+      <c r="BU19" s="15">
+        <v>48</v>
+      </c>
       <c r="BV19" s="22"/>
       <c r="BW19" s="22"/>
       <c r="BX19" s="22"/>
       <c r="BY19" s="22"/>
+      <c r="BZ19" s="22"/>
     </row>
-    <row r="20" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -66648,13 +67256,16 @@
       <c r="BT20" s="28">
         <v>124</v>
       </c>
-      <c r="BU20" s="22"/>
+      <c r="BU20" s="28">
+        <v>121</v>
+      </c>
       <c r="BV20" s="22"/>
       <c r="BW20" s="22"/>
       <c r="BX20" s="22"/>
       <c r="BY20" s="22"/>
+      <c r="BZ20" s="22"/>
     </row>
-    <row r="21" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -66867,13 +67478,16 @@
       <c r="BT21" s="15">
         <v>32</v>
       </c>
-      <c r="BU21" s="22"/>
+      <c r="BU21" s="15">
+        <v>28</v>
+      </c>
       <c r="BV21" s="22"/>
       <c r="BW21" s="22"/>
       <c r="BX21" s="22"/>
       <c r="BY21" s="22"/>
+      <c r="BZ21" s="22"/>
     </row>
-    <row r="22" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -67087,13 +67701,16 @@
       <c r="BT22" s="15">
         <v>6</v>
       </c>
-      <c r="BU22" s="23"/>
+      <c r="BU22" s="15">
+        <v>3</v>
+      </c>
       <c r="BV22" s="23"/>
       <c r="BW22" s="23"/>
       <c r="BX22" s="23"/>
       <c r="BY22" s="23"/>
+      <c r="BZ22" s="23"/>
     </row>
-    <row r="23" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -67307,13 +67924,16 @@
       <c r="BT23" s="15">
         <v>2</v>
       </c>
-      <c r="BU23" s="23"/>
+      <c r="BU23" s="15">
+        <v>0</v>
+      </c>
       <c r="BV23" s="23"/>
       <c r="BW23" s="23"/>
       <c r="BX23" s="23"/>
       <c r="BY23" s="23"/>
+      <c r="BZ23" s="23"/>
     </row>
-    <row r="24" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -67527,13 +68147,16 @@
       <c r="BT24" s="15">
         <v>7</v>
       </c>
-      <c r="BU24" s="22"/>
+      <c r="BU24" s="15">
+        <v>13</v>
+      </c>
       <c r="BV24" s="22"/>
       <c r="BW24" s="22"/>
       <c r="BX24" s="22"/>
       <c r="BY24" s="22"/>
+      <c r="BZ24" s="22"/>
     </row>
-    <row r="25" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -67747,13 +68370,16 @@
       <c r="BT25" s="15">
         <v>0</v>
       </c>
-      <c r="BU25" s="23"/>
+      <c r="BU25" s="15">
+        <v>0</v>
+      </c>
       <c r="BV25" s="23"/>
       <c r="BW25" s="23"/>
       <c r="BX25" s="23"/>
       <c r="BY25" s="23"/>
+      <c r="BZ25" s="23"/>
     </row>
-    <row r="26" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -67967,13 +68593,16 @@
       <c r="BT26" s="15">
         <v>6</v>
       </c>
-      <c r="BU26" s="23"/>
+      <c r="BU26" s="15">
+        <v>5</v>
+      </c>
       <c r="BV26" s="23"/>
       <c r="BW26" s="23"/>
       <c r="BX26" s="23"/>
       <c r="BY26" s="23"/>
+      <c r="BZ26" s="23"/>
     </row>
-    <row r="27" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -68187,13 +68816,16 @@
       <c r="BT27" s="15">
         <v>0</v>
       </c>
-      <c r="BU27" s="23"/>
+      <c r="BU27" s="15">
+        <v>0</v>
+      </c>
       <c r="BV27" s="23"/>
       <c r="BW27" s="23"/>
       <c r="BX27" s="23"/>
       <c r="BY27" s="23"/>
+      <c r="BZ27" s="23"/>
     </row>
-    <row r="28" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -68407,13 +69039,16 @@
       <c r="BT28" s="15">
         <v>0</v>
       </c>
-      <c r="BU28" s="22"/>
+      <c r="BU28" s="15">
+        <v>0</v>
+      </c>
       <c r="BV28" s="22"/>
       <c r="BW28" s="22"/>
       <c r="BX28" s="22"/>
       <c r="BY28" s="22"/>
+      <c r="BZ28" s="22"/>
     </row>
-    <row r="29" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -68627,13 +69262,16 @@
       <c r="BT29" s="15">
         <v>1</v>
       </c>
-      <c r="BU29" s="23"/>
+      <c r="BU29" s="15">
+        <v>2</v>
+      </c>
       <c r="BV29" s="23"/>
       <c r="BW29" s="23"/>
       <c r="BX29" s="23"/>
       <c r="BY29" s="23"/>
+      <c r="BZ29" s="23"/>
     </row>
-    <row r="30" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -68845,13 +69483,16 @@
       <c r="BT30" s="15">
         <v>11</v>
       </c>
-      <c r="BU30" s="23"/>
+      <c r="BU30" s="15">
+        <v>11</v>
+      </c>
       <c r="BV30" s="23"/>
       <c r="BW30" s="23"/>
       <c r="BX30" s="23"/>
       <c r="BY30" s="23"/>
+      <c r="BZ30" s="23"/>
     </row>
-    <row r="31" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -69066,13 +69707,16 @@
       <c r="BT31" s="15">
         <v>35</v>
       </c>
-      <c r="BU31" s="22"/>
+      <c r="BU31" s="15">
+        <v>15</v>
+      </c>
       <c r="BV31" s="22"/>
       <c r="BW31" s="22"/>
       <c r="BX31" s="22"/>
       <c r="BY31" s="22"/>
+      <c r="BZ31" s="22"/>
     </row>
-    <row r="32" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -69286,13 +69930,16 @@
       <c r="BT32" s="15">
         <v>1</v>
       </c>
-      <c r="BU32" s="23"/>
+      <c r="BU32" s="15">
+        <v>1</v>
+      </c>
       <c r="BV32" s="23"/>
       <c r="BW32" s="23"/>
       <c r="BX32" s="23"/>
       <c r="BY32" s="23"/>
+      <c r="BZ32" s="23"/>
     </row>
-    <row r="33" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -69506,13 +70153,16 @@
       <c r="BT33" s="15">
         <v>1</v>
       </c>
-      <c r="BU33" s="23"/>
+      <c r="BU33" s="15">
+        <v>0</v>
+      </c>
       <c r="BV33" s="23"/>
       <c r="BW33" s="23"/>
       <c r="BX33" s="23"/>
       <c r="BY33" s="23"/>
+      <c r="BZ33" s="23"/>
     </row>
-    <row r="34" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -69727,13 +70377,16 @@
       <c r="BT34" s="15">
         <v>61</v>
       </c>
-      <c r="BU34" s="22"/>
+      <c r="BU34" s="15">
+        <v>118</v>
+      </c>
       <c r="BV34" s="22"/>
       <c r="BW34" s="22"/>
       <c r="BX34" s="22"/>
       <c r="BY34" s="22"/>
+      <c r="BZ34" s="22"/>
     </row>
-    <row r="35" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -69948,13 +70601,16 @@
       <c r="BT35" s="15">
         <v>298</v>
       </c>
-      <c r="BU35" s="22"/>
+      <c r="BU35" s="15">
+        <v>316</v>
+      </c>
       <c r="BV35" s="22"/>
       <c r="BW35" s="22"/>
       <c r="BX35" s="22"/>
       <c r="BY35" s="22"/>
+      <c r="BZ35" s="22"/>
     </row>
-    <row r="36" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -70166,13 +70822,16 @@
       <c r="BT36" s="28">
         <v>25</v>
       </c>
-      <c r="BU36" s="22"/>
+      <c r="BU36" s="28">
+        <v>25</v>
+      </c>
       <c r="BV36" s="22"/>
       <c r="BW36" s="22"/>
       <c r="BX36" s="22"/>
       <c r="BY36" s="22"/>
+      <c r="BZ36" s="22"/>
     </row>
-    <row r="37" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -70387,13 +71046,16 @@
       <c r="BT37" s="15">
         <v>61</v>
       </c>
-      <c r="BU37" s="22"/>
+      <c r="BU37" s="15">
+        <v>106</v>
+      </c>
       <c r="BV37" s="22"/>
       <c r="BW37" s="22"/>
       <c r="BX37" s="22"/>
       <c r="BY37" s="22"/>
+      <c r="BZ37" s="22"/>
     </row>
-    <row r="38" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -70607,13 +71269,16 @@
       <c r="BT38" s="15">
         <v>13</v>
       </c>
-      <c r="BU38" s="23"/>
+      <c r="BU38" s="15">
+        <v>16</v>
+      </c>
       <c r="BV38" s="23"/>
       <c r="BW38" s="23"/>
       <c r="BX38" s="23"/>
       <c r="BY38" s="23"/>
+      <c r="BZ38" s="23"/>
     </row>
-    <row r="39" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -70827,13 +71492,16 @@
       <c r="BT39" s="15">
         <v>4</v>
       </c>
-      <c r="BU39" s="23"/>
+      <c r="BU39" s="15">
+        <v>7</v>
+      </c>
       <c r="BV39" s="23"/>
       <c r="BW39" s="23"/>
       <c r="BX39" s="23"/>
       <c r="BY39" s="23"/>
+      <c r="BZ39" s="23"/>
     </row>
-    <row r="40" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -71047,13 +71715,16 @@
       <c r="BT40" s="15">
         <v>0</v>
       </c>
-      <c r="BU40" s="23"/>
+      <c r="BU40" s="15">
+        <v>0</v>
+      </c>
       <c r="BV40" s="23"/>
       <c r="BW40" s="23"/>
       <c r="BX40" s="23"/>
       <c r="BY40" s="23"/>
+      <c r="BZ40" s="23"/>
     </row>
-    <row r="41" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -71267,13 +71938,16 @@
       <c r="BT41" s="15">
         <v>0</v>
       </c>
-      <c r="BU41" s="23"/>
+      <c r="BU41" s="15">
+        <v>0</v>
+      </c>
       <c r="BV41" s="23"/>
       <c r="BW41" s="23"/>
       <c r="BX41" s="23"/>
       <c r="BY41" s="23"/>
+      <c r="BZ41" s="23"/>
     </row>
-    <row r="42" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -71487,13 +72161,16 @@
       <c r="BT42" s="15">
         <v>3</v>
       </c>
-      <c r="BU42" s="23"/>
+      <c r="BU42" s="15">
+        <v>5</v>
+      </c>
       <c r="BV42" s="23"/>
       <c r="BW42" s="23"/>
       <c r="BX42" s="23"/>
       <c r="BY42" s="23"/>
+      <c r="BZ42" s="23"/>
     </row>
-    <row r="43" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -71707,13 +72384,16 @@
       <c r="BT43" s="28">
         <v>20</v>
       </c>
-      <c r="BU43" s="23"/>
+      <c r="BU43" s="28">
+        <v>36</v>
+      </c>
       <c r="BV43" s="23"/>
       <c r="BW43" s="23"/>
       <c r="BX43" s="23"/>
       <c r="BY43" s="23"/>
+      <c r="BZ43" s="23"/>
     </row>
-    <row r="44" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -71927,13 +72607,16 @@
       <c r="BT44" s="15">
         <v>3</v>
       </c>
-      <c r="BU44" s="23"/>
+      <c r="BU44" s="15">
+        <v>4</v>
+      </c>
       <c r="BV44" s="23"/>
       <c r="BW44" s="23"/>
       <c r="BX44" s="23"/>
       <c r="BY44" s="23"/>
+      <c r="BZ44" s="23"/>
     </row>
-    <row r="45" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -72147,13 +72830,16 @@
       <c r="BT45" s="15">
         <v>17</v>
       </c>
-      <c r="BU45" s="22"/>
+      <c r="BU45" s="15">
+        <v>8</v>
+      </c>
       <c r="BV45" s="22"/>
       <c r="BW45" s="22"/>
       <c r="BX45" s="22"/>
       <c r="BY45" s="22"/>
+      <c r="BZ45" s="22"/>
     </row>
-    <row r="46" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -72367,13 +73053,16 @@
       <c r="BT46" s="15">
         <v>19</v>
       </c>
-      <c r="BU46" s="23"/>
+      <c r="BU46" s="15">
+        <v>18</v>
+      </c>
       <c r="BV46" s="23"/>
       <c r="BW46" s="23"/>
       <c r="BX46" s="23"/>
       <c r="BY46" s="23"/>
+      <c r="BZ46" s="23"/>
     </row>
-    <row r="47" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -72587,13 +73276,16 @@
       <c r="BT47" s="15">
         <v>1</v>
       </c>
-      <c r="BU47" s="23"/>
+      <c r="BU47" s="15">
+        <v>0</v>
+      </c>
       <c r="BV47" s="23"/>
       <c r="BW47" s="23"/>
       <c r="BX47" s="23"/>
       <c r="BY47" s="23"/>
+      <c r="BZ47" s="23"/>
     </row>
-    <row r="48" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -72807,13 +73499,16 @@
       <c r="BT48" s="15">
         <v>1</v>
       </c>
-      <c r="BU48" s="23"/>
+      <c r="BU48" s="15">
+        <v>5</v>
+      </c>
       <c r="BV48" s="23"/>
       <c r="BW48" s="23"/>
       <c r="BX48" s="23"/>
       <c r="BY48" s="23"/>
+      <c r="BZ48" s="23"/>
     </row>
-    <row r="49" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -73028,13 +73723,16 @@
       <c r="BT49" s="15">
         <v>71</v>
       </c>
-      <c r="BU49" s="22"/>
+      <c r="BU49" s="15">
+        <v>121</v>
+      </c>
       <c r="BV49" s="22"/>
       <c r="BW49" s="22"/>
       <c r="BX49" s="22"/>
       <c r="BY49" s="22"/>
+      <c r="BZ49" s="22"/>
     </row>
-    <row r="50" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -73246,13 +73944,16 @@
       <c r="BT50" s="15">
         <v>13</v>
       </c>
-      <c r="BU50" s="22"/>
+      <c r="BU50" s="15">
+        <v>25</v>
+      </c>
       <c r="BV50" s="22"/>
       <c r="BW50" s="22"/>
       <c r="BX50" s="22"/>
       <c r="BY50" s="22"/>
+      <c r="BZ50" s="22"/>
     </row>
-    <row r="51" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -73466,13 +74167,16 @@
       <c r="BT51" s="15">
         <v>9</v>
       </c>
-      <c r="BU51" s="23"/>
+      <c r="BU51" s="15">
+        <v>9</v>
+      </c>
       <c r="BV51" s="23"/>
       <c r="BW51" s="23"/>
       <c r="BX51" s="23"/>
       <c r="BY51" s="23"/>
+      <c r="BZ51" s="23"/>
     </row>
-    <row r="52" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -73686,13 +74390,16 @@
       <c r="BT52" s="15">
         <v>13</v>
       </c>
-      <c r="BU52" s="23"/>
+      <c r="BU52" s="15">
+        <v>9</v>
+      </c>
       <c r="BV52" s="23"/>
       <c r="BW52" s="23"/>
       <c r="BX52" s="23"/>
       <c r="BY52" s="23"/>
+      <c r="BZ52" s="23"/>
     </row>
-    <row r="53" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -73906,13 +74613,16 @@
       <c r="BT53" s="15">
         <v>42</v>
       </c>
-      <c r="BU53" s="23"/>
+      <c r="BU53" s="15">
+        <v>41</v>
+      </c>
       <c r="BV53" s="23"/>
       <c r="BW53" s="23"/>
       <c r="BX53" s="23"/>
       <c r="BY53" s="23"/>
+      <c r="BZ53" s="23"/>
     </row>
-    <row r="54" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -74126,13 +74836,16 @@
       <c r="BT54" s="15">
         <v>4</v>
       </c>
-      <c r="BU54" s="23"/>
+      <c r="BU54" s="15">
+        <v>4</v>
+      </c>
       <c r="BV54" s="23"/>
       <c r="BW54" s="23"/>
       <c r="BX54" s="23"/>
       <c r="BY54" s="23"/>
+      <c r="BZ54" s="23"/>
     </row>
-    <row r="55" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -74346,13 +75059,16 @@
       <c r="BT55" s="15">
         <v>10</v>
       </c>
-      <c r="BU55" s="23"/>
+      <c r="BU55" s="15">
+        <v>16</v>
+      </c>
       <c r="BV55" s="23"/>
       <c r="BW55" s="23"/>
       <c r="BX55" s="23"/>
       <c r="BY55" s="23"/>
+      <c r="BZ55" s="23"/>
     </row>
-    <row r="56" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -74566,13 +75282,16 @@
       <c r="BT56" s="15">
         <v>0</v>
       </c>
-      <c r="BU56" s="23"/>
+      <c r="BU56" s="15">
+        <v>1</v>
+      </c>
       <c r="BV56" s="23"/>
       <c r="BW56" s="23"/>
       <c r="BX56" s="23"/>
       <c r="BY56" s="23"/>
+      <c r="BZ56" s="23"/>
     </row>
-    <row r="57" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -74786,13 +75505,16 @@
       <c r="BT57" s="15">
         <v>7</v>
       </c>
-      <c r="BU57" s="23"/>
+      <c r="BU57" s="15">
+        <v>5</v>
+      </c>
       <c r="BV57" s="23"/>
       <c r="BW57" s="23"/>
       <c r="BX57" s="23"/>
       <c r="BY57" s="23"/>
+      <c r="BZ57" s="23"/>
     </row>
-    <row r="58" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -75062,7 +75784,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BT58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BU58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -75073,13 +75795,17 @@
         <f t="shared" si="4"/>
         <v>3359</v>
       </c>
-      <c r="BU58" s="24"/>
+      <c r="BU58" s="14">
+        <f t="shared" si="4"/>
+        <v>3518</v>
+      </c>
       <c r="BV58" s="24"/>
       <c r="BW58" s="24"/>
       <c r="BX58" s="24"/>
       <c r="BY58" s="24"/>
+      <c r="BZ58" s="24"/>
     </row>
-    <row r="59" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -75112,7 +75838,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -75145,7 +75871,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -75179,9 +75905,7 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="BD2:BT2"/>
-    <mergeCell ref="BD3:BT3"/>
+  <mergeCells count="87">
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BQ4:BQ5"/>
@@ -75192,22 +75916,25 @@
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BD2:BU2"/>
+    <mergeCell ref="BD3:BU3"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="T4:T5"/>
@@ -75226,17 +75953,7 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="J4:J5"/>
@@ -75244,12 +75961,22 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -75288,7 +76015,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BT57</xm:sqref>
+          <xm:sqref>BP6:BU57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040802-1\ＪＯＢ040802-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040809-1\ＪＯＢ040809-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BU$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BU$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DU$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DU$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BV$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BV$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DV$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DV$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="372">
   <si>
     <t>都道府県</t>
   </si>
@@ -4065,6 +4065,66 @@
     <t>7/25(月)～
 7/31(日)分
 【7月第5週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/1(月)～
+8/7(日)分
+【8月第1週】</t>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/2(月)～
+8/8(日)分
+【8月第2週】</t>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/1(月)～
+8/7(日)分
+【8月第1週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/1(月)～
+8/7(日)分
+【8月第1週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4641,10 +4701,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8831,13 +8891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DU61"/>
+  <dimension ref="A1:DV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DH6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DU4" sqref="DU4:DU5"/>
+      <selection pane="bottomRight" activeCell="DV4" sqref="DV4:DV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8853,11 +8913,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="125" width="10.875" style="1" customWidth="1"/>
-    <col min="126" max="16384" width="8.625" style="1"/>
+    <col min="106" max="126" width="10.875" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:126" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -8909,14 +8969,15 @@
       <c r="DR1" s="19"/>
       <c r="DS1" s="19"/>
       <c r="DT1" s="19"/>
-      <c r="DU1" s="19" t="s">
+      <c r="DU1" s="19"/>
+      <c r="DV1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:125" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:126" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>155</v>
       </c>
       <c r="E2" s="43"/>
@@ -9025,27 +9086,28 @@
       <c r="DB2" s="43"/>
       <c r="DC2" s="43"/>
       <c r="DD2" s="43"/>
-      <c r="DE2" s="71" t="s">
+      <c r="DE2" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="DF2" s="71"/>
-      <c r="DG2" s="71"/>
-      <c r="DH2" s="71"/>
-      <c r="DI2" s="71"/>
-      <c r="DJ2" s="71"/>
-      <c r="DK2" s="71"/>
-      <c r="DL2" s="71"/>
-      <c r="DM2" s="71"/>
-      <c r="DN2" s="71"/>
-      <c r="DO2" s="71"/>
-      <c r="DP2" s="71"/>
-      <c r="DQ2" s="71"/>
-      <c r="DR2" s="71"/>
-      <c r="DS2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
     </row>
-    <row r="3" spans="1:125" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:126" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="51" t="s">
@@ -9180,8 +9242,9 @@
       <c r="DS3" s="51"/>
       <c r="DT3" s="51"/>
       <c r="DU3" s="51"/>
+      <c r="DV3" s="51"/>
     </row>
-    <row r="4" spans="1:125" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:126" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -9554,8 +9617,11 @@
       <c r="DU4" s="50" t="s">
         <v>365</v>
       </c>
+      <c r="DV4" s="50" t="s">
+        <v>368</v>
+      </c>
     </row>
-    <row r="5" spans="1:125" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:126" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="46"/>
@@ -9680,8 +9746,9 @@
       <c r="DS5" s="49"/>
       <c r="DT5" s="49"/>
       <c r="DU5" s="49"/>
+      <c r="DV5" s="49"/>
     </row>
-    <row r="6" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10055,8 +10122,11 @@
       <c r="DU6" s="28">
         <v>200</v>
       </c>
+      <c r="DV6" s="28">
+        <v>160</v>
+      </c>
     </row>
-    <row r="7" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10429,8 +10499,11 @@
       <c r="DU7" s="15">
         <v>0</v>
       </c>
+      <c r="DV7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -10803,8 +10876,11 @@
       <c r="DU8" s="28">
         <v>25</v>
       </c>
+      <c r="DV8" s="28">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11178,8 +11254,11 @@
       <c r="DU9" s="15">
         <v>139</v>
       </c>
+      <c r="DV9" s="15">
+        <v>147</v>
+      </c>
     </row>
-    <row r="10" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11550,8 +11629,11 @@
       <c r="DU10" s="15">
         <v>0</v>
       </c>
+      <c r="DV10" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -11924,8 +12006,11 @@
       <c r="DU11" s="15">
         <v>14</v>
       </c>
+      <c r="DV11" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12298,8 +12383,11 @@
       <c r="DU12" s="15">
         <v>5</v>
       </c>
+      <c r="DV12" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -12672,8 +12760,11 @@
       <c r="DU13" s="15">
         <v>54</v>
       </c>
+      <c r="DV13" s="15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13046,8 +13137,11 @@
       <c r="DU14" s="15">
         <v>42</v>
       </c>
+      <c r="DV14" s="15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13420,8 +13514,11 @@
       <c r="DU15" s="15">
         <v>5</v>
       </c>
+      <c r="DV15" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -13795,8 +13892,11 @@
       <c r="DU16" s="28">
         <v>233</v>
       </c>
+      <c r="DV16" s="28">
+        <v>238</v>
+      </c>
     </row>
-    <row r="17" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14169,8 +14269,11 @@
       <c r="DU17" s="15">
         <v>262</v>
       </c>
+      <c r="DV17" s="15">
+        <v>270</v>
+      </c>
     </row>
-    <row r="18" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -14544,8 +14647,11 @@
       <c r="DU18" s="34">
         <v>2861</v>
       </c>
+      <c r="DV18" s="34">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="19" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="66" t="s">
         <v>27</v>
@@ -14919,8 +15025,11 @@
       <c r="DU19" s="15">
         <v>141</v>
       </c>
+      <c r="DV19" s="15">
+        <v>171</v>
+      </c>
     </row>
-    <row r="20" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
@@ -15292,8 +15401,11 @@
       <c r="DU20" s="28">
         <v>388</v>
       </c>
+      <c r="DV20" s="28">
+        <v>456</v>
+      </c>
     </row>
-    <row r="21" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
@@ -15665,8 +15777,11 @@
       <c r="DU21" s="15">
         <v>76</v>
       </c>
+      <c r="DV21" s="15">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16039,8 +16154,11 @@
       <c r="DU22" s="15">
         <v>10</v>
       </c>
+      <c r="DV22" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="23" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -16413,8 +16531,11 @@
       <c r="DU23" s="15">
         <v>0</v>
       </c>
+      <c r="DV23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -16787,8 +16908,11 @@
       <c r="DU24" s="15">
         <v>19</v>
       </c>
+      <c r="DV24" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="25" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17161,8 +17285,11 @@
       <c r="DU25" s="15">
         <v>0</v>
       </c>
+      <c r="DV25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -17535,8 +17662,11 @@
       <c r="DU26" s="15">
         <v>13</v>
       </c>
+      <c r="DV26" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="27" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -17909,8 +18039,11 @@
       <c r="DU27" s="15">
         <v>0</v>
       </c>
+      <c r="DV27" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18283,8 +18416,11 @@
       <c r="DU28" s="15">
         <v>1</v>
       </c>
+      <c r="DV28" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
@@ -18657,8 +18793,11 @@
       <c r="DU29" s="15">
         <v>6</v>
       </c>
+      <c r="DV29" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -19029,8 +19168,11 @@
       <c r="DU30" s="15">
         <v>37</v>
       </c>
+      <c r="DV30" s="15">
+        <v>62</v>
+      </c>
     </row>
-    <row r="31" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -19404,8 +19546,11 @@
       <c r="DU31" s="15">
         <v>102</v>
       </c>
+      <c r="DV31" s="15">
+        <v>179</v>
+      </c>
     </row>
-    <row r="32" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -19778,8 +19923,11 @@
       <c r="DU32" s="15">
         <v>2</v>
       </c>
+      <c r="DV32" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20152,8 +20300,11 @@
       <c r="DU33" s="15">
         <v>0</v>
       </c>
+      <c r="DV33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -20527,8 +20678,11 @@
       <c r="DU34" s="15">
         <v>185</v>
       </c>
+      <c r="DV34" s="15">
+        <v>153</v>
+      </c>
     </row>
-    <row r="35" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="66" t="s">
         <v>56</v>
@@ -20902,8 +21056,11 @@
       <c r="DU35" s="15">
         <v>526</v>
       </c>
+      <c r="DV35" s="15">
+        <v>552</v>
+      </c>
     </row>
-    <row r="36" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -21274,8 +21431,11 @@
       <c r="DU36" s="28">
         <v>104</v>
       </c>
+      <c r="DV36" s="28">
+        <v>120</v>
+      </c>
     </row>
-    <row r="37" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -21649,8 +21809,11 @@
       <c r="DU37" s="15">
         <v>192</v>
       </c>
+      <c r="DV37" s="15">
+        <v>171</v>
+      </c>
     </row>
-    <row r="38" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -22023,8 +22186,11 @@
       <c r="DU38" s="15">
         <v>43</v>
       </c>
+      <c r="DV38" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="39" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -22397,8 +22563,11 @@
       <c r="DU39" s="15">
         <v>12</v>
       </c>
+      <c r="DV39" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="40" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -22771,8 +22940,11 @@
       <c r="DU40" s="15">
         <v>0</v>
       </c>
+      <c r="DV40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -23145,8 +23317,11 @@
       <c r="DU41" s="15">
         <v>0</v>
       </c>
+      <c r="DV41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -23519,8 +23694,11 @@
       <c r="DU42" s="15">
         <v>10</v>
       </c>
+      <c r="DV42" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="43" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -23893,8 +24071,11 @@
       <c r="DU43" s="28">
         <v>87</v>
       </c>
+      <c r="DV43" s="28">
+        <v>107</v>
+      </c>
     </row>
-    <row r="44" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -24267,8 +24448,11 @@
       <c r="DU44" s="15">
         <v>11</v>
       </c>
+      <c r="DV44" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -24641,8 +24825,11 @@
       <c r="DU45" s="15">
         <v>13</v>
       </c>
+      <c r="DV45" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="46" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -25015,8 +25202,11 @@
       <c r="DU46" s="15">
         <v>32</v>
       </c>
+      <c r="DV46" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="47" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -25389,8 +25579,11 @@
       <c r="DU47" s="15">
         <v>0</v>
       </c>
+      <c r="DV47" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -25763,8 +25956,11 @@
       <c r="DU48" s="15">
         <v>23</v>
       </c>
+      <c r="DV48" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="49" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="66" t="s">
         <v>83</v>
@@ -26138,8 +26334,11 @@
       <c r="DU49" s="15">
         <v>217</v>
       </c>
+      <c r="DV49" s="15">
+        <v>174</v>
+      </c>
     </row>
-    <row r="50" spans="1:125" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -26510,8 +26709,11 @@
       <c r="DU50" s="15">
         <v>71</v>
       </c>
+      <c r="DV50" s="15">
+        <v>58</v>
+      </c>
     </row>
-    <row r="51" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -26884,8 +27086,11 @@
       <c r="DU51" s="15">
         <v>10</v>
       </c>
+      <c r="DV51" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="52" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -27258,8 +27463,11 @@
       <c r="DU52" s="15">
         <v>15</v>
       </c>
+      <c r="DV52" s="15">
+        <v>33</v>
+      </c>
     </row>
-    <row r="53" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -27632,8 +27840,11 @@
       <c r="DU53" s="15">
         <v>67</v>
       </c>
+      <c r="DV53" s="15">
+        <v>93</v>
+      </c>
     </row>
-    <row r="54" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -28006,8 +28217,11 @@
       <c r="DU54" s="15">
         <v>15</v>
       </c>
+      <c r="DV54" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="55" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -28380,8 +28594,11 @@
       <c r="DU55" s="15">
         <v>28</v>
       </c>
+      <c r="DV55" s="15">
+        <v>34</v>
+      </c>
     </row>
-    <row r="56" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -28754,8 +28971,11 @@
       <c r="DU56" s="15">
         <v>1</v>
       </c>
+      <c r="DV56" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -29128,8 +29348,11 @@
       <c r="DU57" s="15">
         <v>10</v>
       </c>
+      <c r="DV57" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="58" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -29607,7 +29830,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:DU58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:DV58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -29622,8 +29845,12 @@
         <f t="shared" si="10"/>
         <v>6307</v>
       </c>
+      <c r="DV58" s="14">
+        <f t="shared" si="10"/>
+        <v>6589</v>
+      </c>
     </row>
-    <row r="59" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -29707,7 +29934,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -29791,7 +30018,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:125" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -29876,7 +30103,10 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="139">
+    <mergeCell ref="DE2:DV2"/>
+    <mergeCell ref="DE3:DV3"/>
+    <mergeCell ref="DV4:DV5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="DJ4:DJ5"/>
@@ -29898,16 +30128,6 @@
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="DE2:DU2"/>
-    <mergeCell ref="DE3:DU3"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="DS4:DS5"/>
     <mergeCell ref="DR4:DR5"/>
@@ -29924,7 +30144,16 @@
     <mergeCell ref="DF4:DF5"/>
     <mergeCell ref="DK4:DK5"/>
     <mergeCell ref="CX4:CX5"/>
-    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B19:B21"/>
@@ -29940,6 +30169,10 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -29964,14 +30197,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="CK4:CK5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BL4:BL5"/>
@@ -29981,6 +30206,9 @@
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="DC4:DC5"/>
     <mergeCell ref="CZ4:CZ5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="DT4:DT5"/>
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
@@ -30027,7 +30255,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:DU57">
+  <conditionalFormatting sqref="DP6:DV57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -30044,13 +30272,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DU58"/>
+  <dimension ref="B1:DV58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DM2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DN53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DU4" sqref="DU4:DU5"/>
+      <selection pane="bottomRight" activeCell="DV60" sqref="DV60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30065,11 +30293,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="125" width="10.875" style="1" customWidth="1"/>
-    <col min="126" max="16384" width="8.625" style="1"/>
+    <col min="106" max="126" width="10.875" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:125" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:126" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="76" t="s">
         <v>336</v>
       </c>
@@ -30121,143 +30349,145 @@
       <c r="DR1" s="19"/>
       <c r="DS1" s="19"/>
       <c r="DT1" s="19"/>
-      <c r="DU1" s="19" t="s">
+      <c r="DU1" s="19"/>
+      <c r="DV1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="2:125" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:126" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="71"/>
-      <c r="BW2" s="71"/>
-      <c r="BX2" s="71"/>
-      <c r="BY2" s="71"/>
-      <c r="BZ2" s="71"/>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="71"/>
-      <c r="CL2" s="71"/>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="71"/>
-      <c r="CO2" s="71"/>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="71"/>
-      <c r="CR2" s="71"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="71"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="71"/>
-      <c r="CW2" s="71"/>
-      <c r="CX2" s="71"/>
-      <c r="CY2" s="71"/>
-      <c r="CZ2" s="71"/>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="71"/>
-      <c r="DC2" s="71"/>
-      <c r="DD2" s="71" t="s">
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="DE2" s="71"/>
-      <c r="DF2" s="71"/>
-      <c r="DG2" s="71"/>
-      <c r="DH2" s="71"/>
-      <c r="DI2" s="71"/>
-      <c r="DJ2" s="71"/>
-      <c r="DK2" s="71"/>
-      <c r="DL2" s="71"/>
-      <c r="DM2" s="71"/>
-      <c r="DN2" s="71"/>
-      <c r="DO2" s="71"/>
-      <c r="DP2" s="71"/>
-      <c r="DQ2" s="71"/>
-      <c r="DR2" s="71"/>
-      <c r="DS2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
     </row>
-    <row r="3" spans="2:125" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:126" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
@@ -30392,8 +30622,9 @@
       <c r="DS3" s="51"/>
       <c r="DT3" s="51"/>
       <c r="DU3" s="51"/>
+      <c r="DV3" s="51"/>
     </row>
-    <row r="4" spans="2:125" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:126" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -30766,8 +30997,11 @@
       <c r="DU4" s="50" t="s">
         <v>366</v>
       </c>
+      <c r="DV4" s="50" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="5" spans="2:125" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:126" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="48"/>
@@ -30892,8 +31126,9 @@
       <c r="DS5" s="49"/>
       <c r="DT5" s="49"/>
       <c r="DU5" s="49"/>
+      <c r="DV5" s="49"/>
     </row>
-    <row r="6" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -31266,8 +31501,11 @@
       <c r="DU6" s="28">
         <v>143</v>
       </c>
+      <c r="DV6" s="28">
+        <v>149</v>
+      </c>
     </row>
-    <row r="7" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -31640,8 +31878,11 @@
       <c r="DU7" s="15">
         <v>0</v>
       </c>
+      <c r="DV7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -32014,8 +32255,11 @@
       <c r="DU8" s="28">
         <v>5</v>
       </c>
+      <c r="DV8" s="28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -32388,8 +32632,11 @@
       <c r="DU9" s="15">
         <v>46</v>
       </c>
+      <c r="DV9" s="15">
+        <v>52</v>
+      </c>
     </row>
-    <row r="10" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -32762,8 +33009,11 @@
       <c r="DU10" s="15">
         <v>0</v>
       </c>
+      <c r="DV10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -33136,8 +33386,11 @@
       <c r="DU11" s="15">
         <v>9</v>
       </c>
+      <c r="DV11" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -33510,8 +33763,11 @@
       <c r="DU12" s="15">
         <v>4</v>
       </c>
+      <c r="DV12" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -33884,8 +34140,11 @@
       <c r="DU13" s="15">
         <v>18</v>
       </c>
+      <c r="DV13" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -34258,8 +34517,11 @@
       <c r="DU14" s="15">
         <v>5</v>
       </c>
+      <c r="DV14" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -34632,8 +34894,11 @@
       <c r="DU15" s="15">
         <v>0</v>
       </c>
+      <c r="DV15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -35006,8 +35271,11 @@
       <c r="DU16" s="28">
         <v>57</v>
       </c>
+      <c r="DV16" s="28">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35380,8 +35648,11 @@
       <c r="DU17" s="15">
         <v>78</v>
       </c>
+      <c r="DV17" s="15">
+        <v>109</v>
+      </c>
     </row>
-    <row r="18" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -35754,8 +36025,11 @@
       <c r="DU18" s="34">
         <v>1292</v>
       </c>
+      <c r="DV18" s="34">
+        <v>1532</v>
+      </c>
     </row>
-    <row r="19" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66" t="s">
         <v>27</v>
       </c>
@@ -36128,8 +36402,11 @@
       <c r="DU19" s="15">
         <v>49</v>
       </c>
+      <c r="DV19" s="15">
+        <v>83</v>
+      </c>
     </row>
-    <row r="20" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -36500,8 +36777,11 @@
       <c r="DU20" s="28">
         <v>175</v>
       </c>
+      <c r="DV20" s="28">
+        <v>280</v>
+      </c>
     </row>
-    <row r="21" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -36872,8 +37152,11 @@
       <c r="DU21" s="15">
         <v>26</v>
       </c>
+      <c r="DV21" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="22" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -37246,8 +37529,11 @@
       <c r="DU22" s="15">
         <v>9</v>
       </c>
+      <c r="DV22" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -37620,8 +37906,11 @@
       <c r="DU23" s="15">
         <v>0</v>
       </c>
+      <c r="DV23" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -37994,8 +38283,11 @@
       <c r="DU24" s="15">
         <v>8</v>
       </c>
+      <c r="DV24" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -38368,8 +38660,11 @@
       <c r="DU25" s="15">
         <v>0</v>
       </c>
+      <c r="DV25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -38742,8 +39037,11 @@
       <c r="DU26" s="15">
         <v>9</v>
       </c>
+      <c r="DV26" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -39116,8 +39414,11 @@
       <c r="DU27" s="15">
         <v>0</v>
       </c>
+      <c r="DV27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -39490,8 +39791,11 @@
       <c r="DU28" s="15">
         <v>0</v>
       </c>
+      <c r="DV28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
@@ -39864,8 +40168,11 @@
       <c r="DU29" s="15">
         <v>3</v>
       </c>
+      <c r="DV29" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -40236,8 +40543,11 @@
       <c r="DU30" s="15">
         <v>2</v>
       </c>
+      <c r="DV30" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -40610,8 +40920,11 @@
       <c r="DU31" s="15">
         <v>19</v>
       </c>
+      <c r="DV31" s="15">
+        <v>28</v>
+      </c>
     </row>
-    <row r="32" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -40984,8 +41297,11 @@
       <c r="DU32" s="15">
         <v>0</v>
       </c>
+      <c r="DV32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -41358,8 +41674,11 @@
       <c r="DU33" s="15">
         <v>0</v>
       </c>
+      <c r="DV33" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -41732,8 +42051,11 @@
       <c r="DU34" s="15">
         <v>31</v>
       </c>
+      <c r="DV34" s="15">
+        <v>36</v>
+      </c>
     </row>
-    <row r="35" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
         <v>56</v>
       </c>
@@ -42106,8 +42428,11 @@
       <c r="DU35" s="15">
         <v>276</v>
       </c>
+      <c r="DV35" s="15">
+        <v>261</v>
+      </c>
     </row>
-    <row r="36" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -42478,8 +42803,11 @@
       <c r="DU36" s="28">
         <v>16</v>
       </c>
+      <c r="DV36" s="28">
+        <v>28</v>
+      </c>
     </row>
-    <row r="37" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -42852,8 +43180,11 @@
       <c r="DU37" s="15">
         <v>15</v>
       </c>
+      <c r="DV37" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="38" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -43226,8 +43557,11 @@
       <c r="DU38" s="15">
         <v>4</v>
       </c>
+      <c r="DV38" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -43600,8 +43934,11 @@
       <c r="DU39" s="15">
         <v>5</v>
       </c>
+      <c r="DV39" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -43974,8 +44311,11 @@
       <c r="DU40" s="15">
         <v>0</v>
       </c>
+      <c r="DV40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -44348,8 +44688,11 @@
       <c r="DU41" s="15">
         <v>0</v>
       </c>
+      <c r="DV41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -44722,8 +45065,11 @@
       <c r="DU42" s="15">
         <v>10</v>
       </c>
+      <c r="DV42" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -45096,8 +45442,11 @@
       <c r="DU43" s="28">
         <v>50</v>
       </c>
+      <c r="DV43" s="28">
+        <v>33</v>
+      </c>
     </row>
-    <row r="44" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -45470,8 +45819,11 @@
       <c r="DU44" s="15">
         <v>3</v>
       </c>
+      <c r="DV44" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -45844,8 +46196,11 @@
       <c r="DU45" s="15">
         <v>14</v>
       </c>
+      <c r="DV45" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="46" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -46218,8 +46573,11 @@
       <c r="DU46" s="15">
         <v>12</v>
       </c>
+      <c r="DV46" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="47" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -46592,8 +46950,11 @@
       <c r="DU47" s="15">
         <v>2</v>
       </c>
+      <c r="DV47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -46966,8 +47327,11 @@
       <c r="DU48" s="15">
         <v>7</v>
       </c>
+      <c r="DV48" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66" t="s">
         <v>83</v>
       </c>
@@ -47340,8 +47704,11 @@
       <c r="DU49" s="15">
         <v>19</v>
       </c>
+      <c r="DV49" s="15">
+        <v>45</v>
+      </c>
     </row>
-    <row r="50" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -47712,8 +48079,11 @@
       <c r="DU50" s="15">
         <v>7</v>
       </c>
+      <c r="DV50" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="51" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -48086,8 +48456,11 @@
       <c r="DU51" s="15">
         <v>3</v>
       </c>
+      <c r="DV51" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -48460,8 +48833,11 @@
       <c r="DU52" s="15">
         <v>12</v>
       </c>
+      <c r="DV52" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="53" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -48834,8 +49210,11 @@
       <c r="DU53" s="15">
         <v>17</v>
       </c>
+      <c r="DV53" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="54" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -49208,8 +49587,11 @@
       <c r="DU54" s="15">
         <v>4</v>
       </c>
+      <c r="DV54" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="55" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -49582,8 +49964,11 @@
       <c r="DU55" s="15">
         <v>4</v>
       </c>
+      <c r="DV55" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -49956,8 +50341,11 @@
       <c r="DU56" s="15">
         <v>2</v>
       </c>
+      <c r="DV56" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -50330,8 +50718,11 @@
       <c r="DU57" s="15">
         <v>0</v>
       </c>
+      <c r="DV57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -50800,7 +51191,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:DU58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:DV58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -50823,11 +51214,13 @@
         <f t="shared" si="8"/>
         <v>2470</v>
       </c>
+      <c r="DV58" s="14">
+        <f t="shared" si="8"/>
+        <v>2899</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="DD2:DU2"/>
-    <mergeCell ref="DD3:DU3"/>
+  <mergeCells count="139">
     <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="DM4:DM5"/>
     <mergeCell ref="DL4:DL5"/>
@@ -50841,6 +51234,9 @@
     <mergeCell ref="DR4:DR5"/>
     <mergeCell ref="DQ4:DQ5"/>
     <mergeCell ref="DT4:DT5"/>
+    <mergeCell ref="DD2:DV2"/>
+    <mergeCell ref="DD3:DV3"/>
+    <mergeCell ref="DV4:DV5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="CO4:CO5"/>
     <mergeCell ref="CM4:CM5"/>
@@ -50998,7 +51394,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:DU57</xm:sqref>
+          <xm:sqref>DP6:DV57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -51008,13 +51404,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU61"/>
+  <dimension ref="A1:BV61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BM6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="AZ28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BU4" sqref="BU4:BU5"/>
+      <selection pane="bottomRight" activeCell="BV59" sqref="BV59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -51027,11 +51423,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="73" width="10.875" style="1" customWidth="1"/>
-    <col min="74" max="16384" width="8.625" style="1"/>
+    <col min="54" max="74" width="10.875" style="1" customWidth="1"/>
+    <col min="75" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:74" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -51079,14 +51475,15 @@
       <c r="BR1" s="19"/>
       <c r="BS1" s="19"/>
       <c r="BT1" s="19"/>
-      <c r="BU1" s="19" t="s">
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:73" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:74" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>249</v>
       </c>
       <c r="E2" s="43"/>
@@ -51140,28 +51537,29 @@
       <c r="BA2" s="43"/>
       <c r="BB2" s="43"/>
       <c r="BC2" s="77"/>
-      <c r="BD2" s="71" t="s">
+      <c r="BD2" s="70" t="s">
         <v>337</v>
       </c>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
     </row>
-    <row r="3" spans="1:73" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:74" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
@@ -51240,8 +51638,9 @@
       <c r="BS3" s="51"/>
       <c r="BT3" s="51"/>
       <c r="BU3" s="51"/>
+      <c r="BV3" s="51"/>
     </row>
-    <row r="4" spans="1:73" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:74" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -51458,8 +51857,11 @@
       <c r="BU4" s="50" t="s">
         <v>367</v>
       </c>
+      <c r="BV4" s="50" t="s">
+        <v>370</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:74" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="47"/>
@@ -51532,8 +51934,9 @@
       <c r="BS5" s="49"/>
       <c r="BT5" s="49"/>
       <c r="BU5" s="49"/>
+      <c r="BV5" s="49"/>
     </row>
-    <row r="6" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -51751,8 +52154,11 @@
       <c r="BU6" s="28">
         <v>95</v>
       </c>
+      <c r="BV6" s="28">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -51969,8 +52375,11 @@
       <c r="BU7" s="15">
         <v>0</v>
       </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -52187,8 +52596,11 @@
       <c r="BU8" s="28">
         <v>3</v>
       </c>
+      <c r="BV8" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -52406,8 +52818,11 @@
       <c r="BU9" s="15">
         <v>38</v>
       </c>
+      <c r="BV9" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -52624,8 +53039,11 @@
       <c r="BU10" s="15">
         <v>0</v>
       </c>
+      <c r="BV10" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -52842,8 +53260,11 @@
       <c r="BU11" s="15">
         <v>8</v>
       </c>
+      <c r="BV11" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -53060,8 +53481,11 @@
       <c r="BU12" s="15">
         <v>0</v>
       </c>
+      <c r="BV12" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -53278,8 +53702,11 @@
       <c r="BU13" s="15">
         <v>37</v>
       </c>
+      <c r="BV13" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -53496,8 +53923,11 @@
       <c r="BU14" s="15">
         <v>23</v>
       </c>
+      <c r="BV14" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -53714,8 +54144,11 @@
       <c r="BU15" s="15">
         <v>3</v>
       </c>
+      <c r="BV15" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -53933,8 +54366,11 @@
       <c r="BU16" s="28">
         <v>38</v>
       </c>
+      <c r="BV16" s="28">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -54151,8 +54587,11 @@
       <c r="BU17" s="15">
         <v>143</v>
       </c>
+      <c r="BV17" s="15">
+        <v>150</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -54370,8 +54809,11 @@
       <c r="BU18" s="34">
         <v>1076</v>
       </c>
+      <c r="BV18" s="34">
+        <v>975</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -54589,8 +55031,11 @@
       <c r="BU19" s="15">
         <v>93</v>
       </c>
+      <c r="BV19" s="15">
+        <v>121</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -54806,8 +55251,11 @@
       <c r="BU20" s="28">
         <v>267</v>
       </c>
+      <c r="BV20" s="28">
+        <v>324</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -55023,8 +55471,11 @@
       <c r="BU21" s="15">
         <v>48</v>
       </c>
+      <c r="BV21" s="15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="22" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -55241,8 +55692,11 @@
       <c r="BU22" s="15">
         <v>7</v>
       </c>
+      <c r="BV22" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -55459,8 +55913,11 @@
       <c r="BU23" s="15">
         <v>0</v>
       </c>
+      <c r="BV23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -55677,8 +56134,11 @@
       <c r="BU24" s="15">
         <v>6</v>
       </c>
+      <c r="BV24" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -55895,8 +56355,11 @@
       <c r="BU25" s="15">
         <v>0</v>
       </c>
+      <c r="BV25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -56113,8 +56576,11 @@
       <c r="BU26" s="15">
         <v>8</v>
       </c>
+      <c r="BV26" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="27" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -56331,8 +56797,11 @@
       <c r="BU27" s="15">
         <v>0</v>
       </c>
+      <c r="BV27" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -56549,8 +57018,11 @@
       <c r="BU28" s="15">
         <v>1</v>
       </c>
+      <c r="BV28" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -56767,8 +57239,11 @@
       <c r="BU29" s="15">
         <v>4</v>
       </c>
+      <c r="BV29" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -56983,8 +57458,11 @@
       <c r="BU30" s="15">
         <v>26</v>
       </c>
+      <c r="BV30" s="15">
+        <v>45</v>
+      </c>
     </row>
-    <row r="31" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -57202,8 +57680,11 @@
       <c r="BU31" s="15">
         <v>87</v>
       </c>
+      <c r="BV31" s="15">
+        <v>137</v>
+      </c>
     </row>
-    <row r="32" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -57420,8 +57901,11 @@
       <c r="BU32" s="15">
         <v>1</v>
       </c>
+      <c r="BV32" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -57638,8 +58122,11 @@
       <c r="BU33" s="15">
         <v>0</v>
       </c>
+      <c r="BV33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -57857,8 +58344,11 @@
       <c r="BU34" s="15">
         <v>67</v>
       </c>
+      <c r="BV34" s="15">
+        <v>61</v>
+      </c>
     </row>
-    <row r="35" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -58076,8 +58566,11 @@
       <c r="BU35" s="15">
         <v>210</v>
       </c>
+      <c r="BV35" s="15">
+        <v>238</v>
+      </c>
     </row>
-    <row r="36" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -58292,8 +58785,11 @@
       <c r="BU36" s="28">
         <v>79</v>
       </c>
+      <c r="BV36" s="28">
+        <v>87</v>
+      </c>
     </row>
-    <row r="37" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -58511,8 +59007,11 @@
       <c r="BU37" s="15">
         <v>86</v>
       </c>
+      <c r="BV37" s="15">
+        <v>72</v>
+      </c>
     </row>
-    <row r="38" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -58729,8 +59228,11 @@
       <c r="BU38" s="15">
         <v>27</v>
       </c>
+      <c r="BV38" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="39" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -58947,8 +59449,11 @@
       <c r="BU39" s="15">
         <v>5</v>
       </c>
+      <c r="BV39" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -59165,8 +59670,11 @@
       <c r="BU40" s="15">
         <v>0</v>
       </c>
+      <c r="BV40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -59383,8 +59891,11 @@
       <c r="BU41" s="15">
         <v>0</v>
       </c>
+      <c r="BV41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -59601,8 +60112,11 @@
       <c r="BU42" s="15">
         <v>5</v>
       </c>
+      <c r="BV42" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="43" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -59819,8 +60333,11 @@
       <c r="BU43" s="28">
         <v>51</v>
       </c>
+      <c r="BV43" s="28">
+        <v>69</v>
+      </c>
     </row>
-    <row r="44" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -60037,8 +60554,11 @@
       <c r="BU44" s="15">
         <v>7</v>
       </c>
+      <c r="BV44" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -60255,8 +60775,11 @@
       <c r="BU45" s="15">
         <v>5</v>
       </c>
+      <c r="BV45" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -60473,8 +60996,11 @@
       <c r="BU46" s="15">
         <v>14</v>
       </c>
+      <c r="BV46" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="47" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -60691,8 +61217,11 @@
       <c r="BU47" s="15">
         <v>0</v>
       </c>
+      <c r="BV47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -60909,8 +61438,11 @@
       <c r="BU48" s="15">
         <v>18</v>
       </c>
+      <c r="BV48" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="49" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -61128,8 +61660,11 @@
       <c r="BU49" s="15">
         <v>96</v>
       </c>
+      <c r="BV49" s="15">
+        <v>85</v>
+      </c>
     </row>
-    <row r="50" spans="1:73" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -61344,8 +61879,11 @@
       <c r="BU50" s="15">
         <v>46</v>
       </c>
+      <c r="BV50" s="15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -61562,8 +62100,11 @@
       <c r="BU51" s="15">
         <v>1</v>
       </c>
+      <c r="BV51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -61780,8 +62321,11 @@
       <c r="BU52" s="15">
         <v>6</v>
       </c>
+      <c r="BV52" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="53" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -61998,8 +62542,11 @@
       <c r="BU53" s="15">
         <v>26</v>
       </c>
+      <c r="BV53" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="54" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -62216,8 +62763,11 @@
       <c r="BU54" s="15">
         <v>11</v>
       </c>
+      <c r="BV54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -62434,8 +62984,11 @@
       <c r="BU55" s="15">
         <v>12</v>
       </c>
+      <c r="BV55" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="56" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -62652,8 +63205,11 @@
       <c r="BU56" s="15">
         <v>0</v>
       </c>
+      <c r="BV56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -62870,8 +63426,11 @@
       <c r="BU57" s="15">
         <v>5</v>
       </c>
+      <c r="BV57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -63141,7 +63700,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BU58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BV58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -63156,8 +63715,12 @@
         <f t="shared" si="8"/>
         <v>2789</v>
       </c>
+      <c r="BV58" s="14">
+        <f t="shared" si="8"/>
+        <v>2873</v>
+      </c>
     </row>
-    <row r="59" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -63190,7 +63753,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -63223,7 +63786,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:73" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -63257,12 +63820,23 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="83">
+    <mergeCell ref="BD2:BV2"/>
+    <mergeCell ref="BD3:BV3"/>
+    <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -63295,8 +63869,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="AG4:AG5"/>
@@ -63311,21 +63883,15 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="BD2:BU2"/>
-    <mergeCell ref="BD3:BU3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -63338,15 +63904,13 @@
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BG4:BG5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="73" max="66" man="1"/>
+    <brk id="74" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -63363,7 +63927,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BU57</xm:sqref>
+          <xm:sqref>BP6:BV57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -63373,13 +63937,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ61"/>
+  <dimension ref="A1:CA61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BR52" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BM38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BU4" sqref="BU4:BU5"/>
+      <selection pane="bottomRight" activeCell="BV59" sqref="BV59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -63390,11 +63954,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="78" width="10.875" style="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.625" style="1"/>
+    <col min="34" max="79" width="10.875" style="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:79" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -63442,14 +64006,15 @@
       <c r="BR1" s="19"/>
       <c r="BS1" s="19"/>
       <c r="BT1" s="19"/>
-      <c r="BU1" s="19" t="s">
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:79" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>250</v>
       </c>
       <c r="E2" s="43"/>
@@ -63503,33 +64068,34 @@
       <c r="BA2" s="43"/>
       <c r="BB2" s="43"/>
       <c r="BC2" s="77"/>
-      <c r="BD2" s="71" t="s">
+      <c r="BD2" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="20"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
       <c r="BW2" s="20"/>
       <c r="BX2" s="20"/>
       <c r="BY2" s="20"/>
       <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
     </row>
-    <row r="3" spans="1:78" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:79" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
@@ -63608,13 +64174,14 @@
       <c r="BS3" s="51"/>
       <c r="BT3" s="51"/>
       <c r="BU3" s="51"/>
-      <c r="BV3" s="21"/>
+      <c r="BV3" s="51"/>
       <c r="BW3" s="21"/>
       <c r="BX3" s="21"/>
       <c r="BY3" s="21"/>
       <c r="BZ3" s="21"/>
+      <c r="CA3" s="21"/>
     </row>
-    <row r="4" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -63831,13 +64398,16 @@
       <c r="BU4" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="BV4" s="83"/>
+      <c r="BV4" s="50" t="s">
+        <v>371</v>
+      </c>
       <c r="BW4" s="83"/>
       <c r="BX4" s="83"/>
       <c r="BY4" s="83"/>
       <c r="BZ4" s="83"/>
+      <c r="CA4" s="83"/>
     </row>
-    <row r="5" spans="1:78" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:79" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="47"/>
@@ -63910,13 +64480,14 @@
       <c r="BS5" s="50"/>
       <c r="BT5" s="50"/>
       <c r="BU5" s="50"/>
-      <c r="BV5" s="83"/>
+      <c r="BV5" s="50"/>
       <c r="BW5" s="83"/>
       <c r="BX5" s="83"/>
       <c r="BY5" s="83"/>
       <c r="BZ5" s="83"/>
+      <c r="CA5" s="83"/>
     </row>
-    <row r="6" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -64134,13 +64705,16 @@
       <c r="BU6" s="28">
         <v>105</v>
       </c>
-      <c r="BV6" s="22"/>
+      <c r="BV6" s="28">
+        <v>93</v>
+      </c>
       <c r="BW6" s="22"/>
       <c r="BX6" s="22"/>
       <c r="BY6" s="22"/>
       <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
     </row>
-    <row r="7" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -64357,13 +64931,16 @@
       <c r="BU7" s="15">
         <v>0</v>
       </c>
-      <c r="BV7" s="23"/>
+      <c r="BV7" s="15">
+        <v>1</v>
+      </c>
       <c r="BW7" s="23"/>
       <c r="BX7" s="23"/>
       <c r="BY7" s="23"/>
       <c r="BZ7" s="23"/>
+      <c r="CA7" s="23"/>
     </row>
-    <row r="8" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -64580,13 +65157,16 @@
       <c r="BU8" s="28">
         <v>22</v>
       </c>
-      <c r="BV8" s="23"/>
+      <c r="BV8" s="28">
+        <v>19</v>
+      </c>
       <c r="BW8" s="23"/>
       <c r="BX8" s="23"/>
       <c r="BY8" s="23"/>
       <c r="BZ8" s="23"/>
+      <c r="CA8" s="23"/>
     </row>
-    <row r="9" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -64804,13 +65384,16 @@
       <c r="BU9" s="15">
         <v>101</v>
       </c>
-      <c r="BV9" s="23"/>
+      <c r="BV9" s="15">
+        <v>124</v>
+      </c>
       <c r="BW9" s="23"/>
       <c r="BX9" s="23"/>
       <c r="BY9" s="23"/>
       <c r="BZ9" s="23"/>
+      <c r="CA9" s="23"/>
     </row>
-    <row r="10" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -65027,13 +65610,16 @@
       <c r="BU10" s="15">
         <v>0</v>
       </c>
-      <c r="BV10" s="23"/>
+      <c r="BV10" s="15">
+        <v>0</v>
+      </c>
       <c r="BW10" s="23"/>
       <c r="BX10" s="23"/>
       <c r="BY10" s="23"/>
       <c r="BZ10" s="23"/>
+      <c r="CA10" s="23"/>
     </row>
-    <row r="11" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -65250,13 +65836,16 @@
       <c r="BU11" s="15">
         <v>6</v>
       </c>
-      <c r="BV11" s="23"/>
+      <c r="BV11" s="15">
+        <v>6</v>
+      </c>
       <c r="BW11" s="23"/>
       <c r="BX11" s="23"/>
       <c r="BY11" s="23"/>
       <c r="BZ11" s="23"/>
+      <c r="CA11" s="23"/>
     </row>
-    <row r="12" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -65473,13 +66062,16 @@
       <c r="BU12" s="15">
         <v>5</v>
       </c>
-      <c r="BV12" s="23"/>
+      <c r="BV12" s="15">
+        <v>4</v>
+      </c>
       <c r="BW12" s="23"/>
       <c r="BX12" s="23"/>
       <c r="BY12" s="23"/>
       <c r="BZ12" s="23"/>
+      <c r="CA12" s="23"/>
     </row>
-    <row r="13" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -65696,13 +66288,16 @@
       <c r="BU13" s="15">
         <v>17</v>
       </c>
-      <c r="BV13" s="22"/>
+      <c r="BV13" s="15">
+        <v>27</v>
+      </c>
       <c r="BW13" s="22"/>
       <c r="BX13" s="22"/>
       <c r="BY13" s="22"/>
       <c r="BZ13" s="22"/>
+      <c r="CA13" s="22"/>
     </row>
-    <row r="14" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -65919,13 +66514,16 @@
       <c r="BU14" s="15">
         <v>19</v>
       </c>
-      <c r="BV14" s="23"/>
+      <c r="BV14" s="15">
+        <v>20</v>
+      </c>
       <c r="BW14" s="23"/>
       <c r="BX14" s="23"/>
       <c r="BY14" s="23"/>
       <c r="BZ14" s="23"/>
+      <c r="CA14" s="23"/>
     </row>
-    <row r="15" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -66142,13 +66740,16 @@
       <c r="BU15" s="15">
         <v>2</v>
       </c>
-      <c r="BV15" s="23"/>
+      <c r="BV15" s="15">
+        <v>1</v>
+      </c>
       <c r="BW15" s="23"/>
       <c r="BX15" s="23"/>
       <c r="BY15" s="23"/>
       <c r="BZ15" s="23"/>
+      <c r="CA15" s="23"/>
     </row>
-    <row r="16" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -66366,13 +66967,16 @@
       <c r="BU16" s="28">
         <v>195</v>
       </c>
-      <c r="BV16" s="22"/>
+      <c r="BV16" s="28">
+        <v>202</v>
+      </c>
       <c r="BW16" s="22"/>
       <c r="BX16" s="22"/>
       <c r="BY16" s="22"/>
       <c r="BZ16" s="22"/>
+      <c r="CA16" s="22"/>
     </row>
-    <row r="17" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -66589,13 +67193,16 @@
       <c r="BU17" s="15">
         <v>119</v>
       </c>
-      <c r="BV17" s="22"/>
+      <c r="BV17" s="15">
+        <v>120</v>
+      </c>
       <c r="BW17" s="22"/>
       <c r="BX17" s="22"/>
       <c r="BY17" s="22"/>
       <c r="BZ17" s="22"/>
+      <c r="CA17" s="22"/>
     </row>
-    <row r="18" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -66813,13 +67420,16 @@
       <c r="BU18" s="34">
         <v>1785</v>
       </c>
-      <c r="BV18" s="22"/>
+      <c r="BV18" s="34">
+        <v>1925</v>
+      </c>
       <c r="BW18" s="22"/>
       <c r="BX18" s="22"/>
       <c r="BY18" s="22"/>
       <c r="BZ18" s="22"/>
+      <c r="CA18" s="22"/>
     </row>
-    <row r="19" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -67037,13 +67647,16 @@
       <c r="BU19" s="15">
         <v>48</v>
       </c>
-      <c r="BV19" s="22"/>
+      <c r="BV19" s="15">
+        <v>50</v>
+      </c>
       <c r="BW19" s="22"/>
       <c r="BX19" s="22"/>
       <c r="BY19" s="22"/>
       <c r="BZ19" s="22"/>
+      <c r="CA19" s="22"/>
     </row>
-    <row r="20" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -67259,13 +67872,16 @@
       <c r="BU20" s="28">
         <v>121</v>
       </c>
-      <c r="BV20" s="22"/>
+      <c r="BV20" s="28">
+        <v>132</v>
+      </c>
       <c r="BW20" s="22"/>
       <c r="BX20" s="22"/>
       <c r="BY20" s="22"/>
       <c r="BZ20" s="22"/>
+      <c r="CA20" s="22"/>
     </row>
-    <row r="21" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -67481,13 +68097,16 @@
       <c r="BU21" s="15">
         <v>28</v>
       </c>
-      <c r="BV21" s="22"/>
+      <c r="BV21" s="15">
+        <v>28</v>
+      </c>
       <c r="BW21" s="22"/>
       <c r="BX21" s="22"/>
       <c r="BY21" s="22"/>
       <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
     </row>
-    <row r="22" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -67704,13 +68323,16 @@
       <c r="BU22" s="15">
         <v>3</v>
       </c>
-      <c r="BV22" s="23"/>
+      <c r="BV22" s="15">
+        <v>4</v>
+      </c>
       <c r="BW22" s="23"/>
       <c r="BX22" s="23"/>
       <c r="BY22" s="23"/>
       <c r="BZ22" s="23"/>
+      <c r="CA22" s="23"/>
     </row>
-    <row r="23" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -67927,13 +68549,16 @@
       <c r="BU23" s="15">
         <v>0</v>
       </c>
-      <c r="BV23" s="23"/>
+      <c r="BV23" s="15">
+        <v>0</v>
+      </c>
       <c r="BW23" s="23"/>
       <c r="BX23" s="23"/>
       <c r="BY23" s="23"/>
       <c r="BZ23" s="23"/>
+      <c r="CA23" s="23"/>
     </row>
-    <row r="24" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -68150,13 +68775,16 @@
       <c r="BU24" s="15">
         <v>13</v>
       </c>
-      <c r="BV24" s="22"/>
+      <c r="BV24" s="15">
+        <v>16</v>
+      </c>
       <c r="BW24" s="22"/>
       <c r="BX24" s="22"/>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="22"/>
+      <c r="CA24" s="22"/>
     </row>
-    <row r="25" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -68373,13 +69001,16 @@
       <c r="BU25" s="15">
         <v>0</v>
       </c>
-      <c r="BV25" s="23"/>
+      <c r="BV25" s="15">
+        <v>0</v>
+      </c>
       <c r="BW25" s="23"/>
       <c r="BX25" s="23"/>
       <c r="BY25" s="23"/>
       <c r="BZ25" s="23"/>
+      <c r="CA25" s="23"/>
     </row>
-    <row r="26" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -68596,13 +69227,16 @@
       <c r="BU26" s="15">
         <v>5</v>
       </c>
-      <c r="BV26" s="23"/>
+      <c r="BV26" s="15">
+        <v>5</v>
+      </c>
       <c r="BW26" s="23"/>
       <c r="BX26" s="23"/>
       <c r="BY26" s="23"/>
       <c r="BZ26" s="23"/>
+      <c r="CA26" s="23"/>
     </row>
-    <row r="27" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -68819,13 +69453,16 @@
       <c r="BU27" s="15">
         <v>0</v>
       </c>
-      <c r="BV27" s="23"/>
+      <c r="BV27" s="15">
+        <v>0</v>
+      </c>
       <c r="BW27" s="23"/>
       <c r="BX27" s="23"/>
       <c r="BY27" s="23"/>
       <c r="BZ27" s="23"/>
+      <c r="CA27" s="23"/>
     </row>
-    <row r="28" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -69042,13 +69679,16 @@
       <c r="BU28" s="15">
         <v>0</v>
       </c>
-      <c r="BV28" s="22"/>
+      <c r="BV28" s="15">
+        <v>1</v>
+      </c>
       <c r="BW28" s="22"/>
       <c r="BX28" s="22"/>
       <c r="BY28" s="22"/>
       <c r="BZ28" s="22"/>
+      <c r="CA28" s="22"/>
     </row>
-    <row r="29" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -69265,13 +69905,16 @@
       <c r="BU29" s="15">
         <v>2</v>
       </c>
-      <c r="BV29" s="23"/>
+      <c r="BV29" s="15">
+        <v>3</v>
+      </c>
       <c r="BW29" s="23"/>
       <c r="BX29" s="23"/>
       <c r="BY29" s="23"/>
       <c r="BZ29" s="23"/>
+      <c r="CA29" s="23"/>
     </row>
-    <row r="30" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -69486,13 +70129,16 @@
       <c r="BU30" s="15">
         <v>11</v>
       </c>
-      <c r="BV30" s="23"/>
+      <c r="BV30" s="15">
+        <v>17</v>
+      </c>
       <c r="BW30" s="23"/>
       <c r="BX30" s="23"/>
       <c r="BY30" s="23"/>
       <c r="BZ30" s="23"/>
+      <c r="CA30" s="23"/>
     </row>
-    <row r="31" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -69710,13 +70356,16 @@
       <c r="BU31" s="15">
         <v>15</v>
       </c>
-      <c r="BV31" s="22"/>
+      <c r="BV31" s="15">
+        <v>42</v>
+      </c>
       <c r="BW31" s="22"/>
       <c r="BX31" s="22"/>
       <c r="BY31" s="22"/>
       <c r="BZ31" s="22"/>
+      <c r="CA31" s="22"/>
     </row>
-    <row r="32" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -69933,13 +70582,16 @@
       <c r="BU32" s="15">
         <v>1</v>
       </c>
-      <c r="BV32" s="23"/>
+      <c r="BV32" s="15">
+        <v>2</v>
+      </c>
       <c r="BW32" s="23"/>
       <c r="BX32" s="23"/>
       <c r="BY32" s="23"/>
       <c r="BZ32" s="23"/>
+      <c r="CA32" s="23"/>
     </row>
-    <row r="33" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -70156,13 +70808,16 @@
       <c r="BU33" s="15">
         <v>0</v>
       </c>
-      <c r="BV33" s="23"/>
+      <c r="BV33" s="15">
+        <v>0</v>
+      </c>
       <c r="BW33" s="23"/>
       <c r="BX33" s="23"/>
       <c r="BY33" s="23"/>
       <c r="BZ33" s="23"/>
+      <c r="CA33" s="23"/>
     </row>
-    <row r="34" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -70380,13 +71035,16 @@
       <c r="BU34" s="15">
         <v>118</v>
       </c>
-      <c r="BV34" s="22"/>
+      <c r="BV34" s="15">
+        <v>92</v>
+      </c>
       <c r="BW34" s="22"/>
       <c r="BX34" s="22"/>
       <c r="BY34" s="22"/>
       <c r="BZ34" s="22"/>
+      <c r="CA34" s="22"/>
     </row>
-    <row r="35" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -70604,13 +71262,16 @@
       <c r="BU35" s="15">
         <v>316</v>
       </c>
-      <c r="BV35" s="22"/>
+      <c r="BV35" s="15">
+        <v>314</v>
+      </c>
       <c r="BW35" s="22"/>
       <c r="BX35" s="22"/>
       <c r="BY35" s="22"/>
       <c r="BZ35" s="22"/>
+      <c r="CA35" s="22"/>
     </row>
-    <row r="36" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -70825,13 +71486,16 @@
       <c r="BU36" s="28">
         <v>25</v>
       </c>
-      <c r="BV36" s="22"/>
+      <c r="BV36" s="28">
+        <v>33</v>
+      </c>
       <c r="BW36" s="22"/>
       <c r="BX36" s="22"/>
       <c r="BY36" s="22"/>
       <c r="BZ36" s="22"/>
+      <c r="CA36" s="22"/>
     </row>
-    <row r="37" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -71049,13 +71713,16 @@
       <c r="BU37" s="15">
         <v>106</v>
       </c>
-      <c r="BV37" s="22"/>
+      <c r="BV37" s="15">
+        <v>99</v>
+      </c>
       <c r="BW37" s="22"/>
       <c r="BX37" s="22"/>
       <c r="BY37" s="22"/>
       <c r="BZ37" s="22"/>
+      <c r="CA37" s="22"/>
     </row>
-    <row r="38" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -71272,13 +71939,16 @@
       <c r="BU38" s="15">
         <v>16</v>
       </c>
-      <c r="BV38" s="23"/>
+      <c r="BV38" s="15">
+        <v>10</v>
+      </c>
       <c r="BW38" s="23"/>
       <c r="BX38" s="23"/>
       <c r="BY38" s="23"/>
       <c r="BZ38" s="23"/>
+      <c r="CA38" s="23"/>
     </row>
-    <row r="39" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -71495,13 +72165,16 @@
       <c r="BU39" s="15">
         <v>7</v>
       </c>
-      <c r="BV39" s="23"/>
+      <c r="BV39" s="15">
+        <v>6</v>
+      </c>
       <c r="BW39" s="23"/>
       <c r="BX39" s="23"/>
       <c r="BY39" s="23"/>
       <c r="BZ39" s="23"/>
+      <c r="CA39" s="23"/>
     </row>
-    <row r="40" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -71718,13 +72391,16 @@
       <c r="BU40" s="15">
         <v>0</v>
       </c>
-      <c r="BV40" s="23"/>
+      <c r="BV40" s="15">
+        <v>0</v>
+      </c>
       <c r="BW40" s="23"/>
       <c r="BX40" s="23"/>
       <c r="BY40" s="23"/>
       <c r="BZ40" s="23"/>
+      <c r="CA40" s="23"/>
     </row>
-    <row r="41" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -71941,13 +72617,16 @@
       <c r="BU41" s="15">
         <v>0</v>
       </c>
-      <c r="BV41" s="23"/>
+      <c r="BV41" s="15">
+        <v>0</v>
+      </c>
       <c r="BW41" s="23"/>
       <c r="BX41" s="23"/>
       <c r="BY41" s="23"/>
       <c r="BZ41" s="23"/>
+      <c r="CA41" s="23"/>
     </row>
-    <row r="42" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -72164,13 +72843,16 @@
       <c r="BU42" s="15">
         <v>5</v>
       </c>
-      <c r="BV42" s="23"/>
+      <c r="BV42" s="15">
+        <v>3</v>
+      </c>
       <c r="BW42" s="23"/>
       <c r="BX42" s="23"/>
       <c r="BY42" s="23"/>
       <c r="BZ42" s="23"/>
+      <c r="CA42" s="23"/>
     </row>
-    <row r="43" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -72387,13 +73069,16 @@
       <c r="BU43" s="28">
         <v>36</v>
       </c>
-      <c r="BV43" s="23"/>
+      <c r="BV43" s="28">
+        <v>38</v>
+      </c>
       <c r="BW43" s="23"/>
       <c r="BX43" s="23"/>
       <c r="BY43" s="23"/>
       <c r="BZ43" s="23"/>
+      <c r="CA43" s="23"/>
     </row>
-    <row r="44" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -72610,13 +73295,16 @@
       <c r="BU44" s="15">
         <v>4</v>
       </c>
-      <c r="BV44" s="23"/>
+      <c r="BV44" s="15">
+        <v>5</v>
+      </c>
       <c r="BW44" s="23"/>
       <c r="BX44" s="23"/>
       <c r="BY44" s="23"/>
       <c r="BZ44" s="23"/>
+      <c r="CA44" s="23"/>
     </row>
-    <row r="45" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -72833,13 +73521,16 @@
       <c r="BU45" s="15">
         <v>8</v>
       </c>
-      <c r="BV45" s="22"/>
+      <c r="BV45" s="15">
+        <v>20</v>
+      </c>
       <c r="BW45" s="22"/>
       <c r="BX45" s="22"/>
       <c r="BY45" s="22"/>
       <c r="BZ45" s="22"/>
+      <c r="CA45" s="22"/>
     </row>
-    <row r="46" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -73056,13 +73747,16 @@
       <c r="BU46" s="15">
         <v>18</v>
       </c>
-      <c r="BV46" s="23"/>
+      <c r="BV46" s="15">
+        <v>22</v>
+      </c>
       <c r="BW46" s="23"/>
       <c r="BX46" s="23"/>
       <c r="BY46" s="23"/>
       <c r="BZ46" s="23"/>
+      <c r="CA46" s="23"/>
     </row>
-    <row r="47" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -73279,13 +73973,16 @@
       <c r="BU47" s="15">
         <v>0</v>
       </c>
-      <c r="BV47" s="23"/>
+      <c r="BV47" s="15">
+        <v>4</v>
+      </c>
       <c r="BW47" s="23"/>
       <c r="BX47" s="23"/>
       <c r="BY47" s="23"/>
       <c r="BZ47" s="23"/>
+      <c r="CA47" s="23"/>
     </row>
-    <row r="48" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -73502,13 +74199,16 @@
       <c r="BU48" s="15">
         <v>5</v>
       </c>
-      <c r="BV48" s="23"/>
+      <c r="BV48" s="15">
+        <v>8</v>
+      </c>
       <c r="BW48" s="23"/>
       <c r="BX48" s="23"/>
       <c r="BY48" s="23"/>
       <c r="BZ48" s="23"/>
+      <c r="CA48" s="23"/>
     </row>
-    <row r="49" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -73726,13 +74426,16 @@
       <c r="BU49" s="15">
         <v>121</v>
       </c>
-      <c r="BV49" s="22"/>
+      <c r="BV49" s="15">
+        <v>89</v>
+      </c>
       <c r="BW49" s="22"/>
       <c r="BX49" s="22"/>
       <c r="BY49" s="22"/>
       <c r="BZ49" s="22"/>
+      <c r="CA49" s="22"/>
     </row>
-    <row r="50" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -73947,13 +74650,16 @@
       <c r="BU50" s="15">
         <v>25</v>
       </c>
-      <c r="BV50" s="22"/>
+      <c r="BV50" s="15">
+        <v>14</v>
+      </c>
       <c r="BW50" s="22"/>
       <c r="BX50" s="22"/>
       <c r="BY50" s="22"/>
       <c r="BZ50" s="22"/>
+      <c r="CA50" s="22"/>
     </row>
-    <row r="51" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -74170,13 +74876,16 @@
       <c r="BU51" s="15">
         <v>9</v>
       </c>
-      <c r="BV51" s="23"/>
+      <c r="BV51" s="15">
+        <v>8</v>
+      </c>
       <c r="BW51" s="23"/>
       <c r="BX51" s="23"/>
       <c r="BY51" s="23"/>
       <c r="BZ51" s="23"/>
+      <c r="CA51" s="23"/>
     </row>
-    <row r="52" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -74393,13 +75102,16 @@
       <c r="BU52" s="15">
         <v>9</v>
       </c>
-      <c r="BV52" s="23"/>
+      <c r="BV52" s="15">
+        <v>21</v>
+      </c>
       <c r="BW52" s="23"/>
       <c r="BX52" s="23"/>
       <c r="BY52" s="23"/>
       <c r="BZ52" s="23"/>
+      <c r="CA52" s="23"/>
     </row>
-    <row r="53" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -74616,13 +75328,16 @@
       <c r="BU53" s="15">
         <v>41</v>
       </c>
-      <c r="BV53" s="23"/>
+      <c r="BV53" s="15">
+        <v>51</v>
+      </c>
       <c r="BW53" s="23"/>
       <c r="BX53" s="23"/>
       <c r="BY53" s="23"/>
       <c r="BZ53" s="23"/>
+      <c r="CA53" s="23"/>
     </row>
-    <row r="54" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -74839,13 +75554,16 @@
       <c r="BU54" s="15">
         <v>4</v>
       </c>
-      <c r="BV54" s="23"/>
+      <c r="BV54" s="15">
+        <v>7</v>
+      </c>
       <c r="BW54" s="23"/>
       <c r="BX54" s="23"/>
       <c r="BY54" s="23"/>
       <c r="BZ54" s="23"/>
+      <c r="CA54" s="23"/>
     </row>
-    <row r="55" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -75062,13 +75780,16 @@
       <c r="BU55" s="15">
         <v>16</v>
       </c>
-      <c r="BV55" s="23"/>
+      <c r="BV55" s="15">
+        <v>22</v>
+      </c>
       <c r="BW55" s="23"/>
       <c r="BX55" s="23"/>
       <c r="BY55" s="23"/>
       <c r="BZ55" s="23"/>
+      <c r="CA55" s="23"/>
     </row>
-    <row r="56" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -75285,13 +76006,16 @@
       <c r="BU56" s="15">
         <v>1</v>
       </c>
-      <c r="BV56" s="23"/>
+      <c r="BV56" s="15">
+        <v>2</v>
+      </c>
       <c r="BW56" s="23"/>
       <c r="BX56" s="23"/>
       <c r="BY56" s="23"/>
       <c r="BZ56" s="23"/>
+      <c r="CA56" s="23"/>
     </row>
-    <row r="57" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -75508,13 +76232,16 @@
       <c r="BU57" s="15">
         <v>5</v>
       </c>
-      <c r="BV57" s="23"/>
+      <c r="BV57" s="15">
+        <v>6</v>
+      </c>
       <c r="BW57" s="23"/>
       <c r="BX57" s="23"/>
       <c r="BY57" s="23"/>
       <c r="BZ57" s="23"/>
+      <c r="CA57" s="23"/>
     </row>
-    <row r="58" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -75784,7 +76511,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BU58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BV58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -75799,13 +76526,17 @@
         <f t="shared" si="4"/>
         <v>3518</v>
       </c>
-      <c r="BV58" s="24"/>
+      <c r="BV58" s="14">
+        <f t="shared" si="4"/>
+        <v>3716</v>
+      </c>
       <c r="BW58" s="24"/>
       <c r="BX58" s="24"/>
       <c r="BY58" s="24"/>
       <c r="BZ58" s="24"/>
+      <c r="CA58" s="24"/>
     </row>
-    <row r="59" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -75838,7 +76569,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -75871,7 +76602,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -75905,7 +76636,11 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="BD2:BV2"/>
+    <mergeCell ref="BD3:BV3"/>
+    <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BQ4:BQ5"/>
@@ -75916,25 +76651,24 @@
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BD2:BU2"/>
-    <mergeCell ref="BD3:BU3"/>
     <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="T4:T5"/>
@@ -75950,8 +76684,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
@@ -75960,7 +76692,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AC4:AC5"/>
@@ -75972,6 +76703,7 @@
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -76015,7 +76747,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BU57</xm:sqref>
+          <xm:sqref>BP6:BV57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040809-1\ＪＯＢ040809-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040816-1\ＪＯＢ040816-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BV$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BV$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DV$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DV$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BW$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BW$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DW$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DW$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="375">
   <si>
     <t>都道府県</t>
   </si>
@@ -4125,6 +4125,60 @@
     <t>8/1(月)～
 8/7(日)分
 【8月第1週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/8(月)～
+8/14(日)分
+【8月第2週】</t>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/9(月)～
+8/15(日)分
+【8月第3週】</t>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/8(月)～
+8/14(日)分
+【8月第2週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8891,13 +8945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DV61"/>
+  <dimension ref="A1:DW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="DL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DV4" sqref="DV4:DV5"/>
+      <selection pane="bottomRight" activeCell="DW4" sqref="DW4:DW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8913,11 +8967,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="126" width="10.875" style="1" customWidth="1"/>
-    <col min="127" max="16384" width="8.625" style="1"/>
+    <col min="106" max="127" width="10.875" style="1" customWidth="1"/>
+    <col min="128" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:127" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -8970,11 +9024,12 @@
       <c r="DS1" s="19"/>
       <c r="DT1" s="19"/>
       <c r="DU1" s="19"/>
-      <c r="DV1" s="19" t="s">
+      <c r="DV1" s="19"/>
+      <c r="DW1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:127" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="71" t="s">
@@ -9106,8 +9161,9 @@
       <c r="DT2" s="70"/>
       <c r="DU2" s="70"/>
       <c r="DV2" s="70"/>
+      <c r="DW2" s="70"/>
     </row>
-    <row r="3" spans="1:126" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:127" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="51" t="s">
@@ -9243,8 +9299,9 @@
       <c r="DT3" s="51"/>
       <c r="DU3" s="51"/>
       <c r="DV3" s="51"/>
+      <c r="DW3" s="51"/>
     </row>
-    <row r="4" spans="1:126" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:127" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -9620,8 +9677,11 @@
       <c r="DV4" s="50" t="s">
         <v>368</v>
       </c>
+      <c r="DW4" s="50" t="s">
+        <v>372</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:127" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="46"/>
@@ -9747,8 +9807,9 @@
       <c r="DT5" s="49"/>
       <c r="DU5" s="49"/>
       <c r="DV5" s="49"/>
+      <c r="DW5" s="49"/>
     </row>
-    <row r="6" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10125,8 +10186,11 @@
       <c r="DV6" s="28">
         <v>160</v>
       </c>
+      <c r="DW6" s="28">
+        <v>207</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10502,8 +10566,11 @@
       <c r="DV7" s="15">
         <v>1</v>
       </c>
+      <c r="DW7" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -10879,8 +10946,11 @@
       <c r="DV8" s="28">
         <v>21</v>
       </c>
+      <c r="DW8" s="28">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11257,8 +11327,11 @@
       <c r="DV9" s="15">
         <v>147</v>
       </c>
+      <c r="DW9" s="15">
+        <v>221</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11632,8 +11705,11 @@
       <c r="DV10" s="15">
         <v>2</v>
       </c>
+      <c r="DW10" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12009,8 +12085,11 @@
       <c r="DV11" s="15">
         <v>11</v>
       </c>
+      <c r="DW11" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12386,8 +12465,11 @@
       <c r="DV12" s="15">
         <v>8</v>
       </c>
+      <c r="DW12" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -12763,8 +12845,11 @@
       <c r="DV13" s="15">
         <v>49</v>
       </c>
+      <c r="DW13" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13140,8 +13225,11 @@
       <c r="DV14" s="15">
         <v>37</v>
       </c>
+      <c r="DW14" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="15" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13517,8 +13605,11 @@
       <c r="DV15" s="15">
         <v>6</v>
       </c>
+      <c r="DW15" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -13895,8 +13986,11 @@
       <c r="DV16" s="28">
         <v>238</v>
       </c>
+      <c r="DW16" s="28">
+        <v>230</v>
+      </c>
     </row>
-    <row r="17" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14272,8 +14366,11 @@
       <c r="DV17" s="15">
         <v>270</v>
       </c>
+      <c r="DW17" s="15">
+        <v>273</v>
+      </c>
     </row>
-    <row r="18" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -14650,8 +14747,11 @@
       <c r="DV18" s="34">
         <v>2900</v>
       </c>
+      <c r="DW18" s="34">
+        <v>2856</v>
+      </c>
     </row>
-    <row r="19" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="66" t="s">
         <v>27</v>
@@ -15028,8 +15128,11 @@
       <c r="DV19" s="15">
         <v>171</v>
       </c>
+      <c r="DW19" s="15">
+        <v>124</v>
+      </c>
     </row>
-    <row r="20" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
@@ -15404,8 +15507,11 @@
       <c r="DV20" s="28">
         <v>456</v>
       </c>
+      <c r="DW20" s="28">
+        <v>401</v>
+      </c>
     </row>
-    <row r="21" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
@@ -15780,8 +15886,11 @@
       <c r="DV21" s="15">
         <v>72</v>
       </c>
+      <c r="DW21" s="15">
+        <v>53</v>
+      </c>
     </row>
-    <row r="22" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16157,8 +16266,11 @@
       <c r="DV22" s="15">
         <v>16</v>
       </c>
+      <c r="DW22" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -16534,8 +16646,11 @@
       <c r="DV23" s="15">
         <v>0</v>
       </c>
+      <c r="DW23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -16911,8 +17026,11 @@
       <c r="DV24" s="15">
         <v>27</v>
       </c>
+      <c r="DW24" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17288,8 +17406,11 @@
       <c r="DV25" s="15">
         <v>1</v>
       </c>
+      <c r="DW25" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -17665,8 +17786,11 @@
       <c r="DV26" s="15">
         <v>19</v>
       </c>
+      <c r="DW26" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18042,8 +18166,11 @@
       <c r="DV27" s="15">
         <v>2</v>
       </c>
+      <c r="DW27" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18419,8 +18546,11 @@
       <c r="DV28" s="15">
         <v>11</v>
       </c>
+      <c r="DW28" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
@@ -18796,8 +18926,11 @@
       <c r="DV29" s="15">
         <v>10</v>
       </c>
+      <c r="DW29" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="30" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -19171,8 +19304,11 @@
       <c r="DV30" s="15">
         <v>62</v>
       </c>
+      <c r="DW30" s="15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="31" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -19549,8 +19685,11 @@
       <c r="DV31" s="15">
         <v>179</v>
       </c>
+      <c r="DW31" s="15">
+        <v>273</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -19926,8 +20065,11 @@
       <c r="DV32" s="15">
         <v>7</v>
       </c>
+      <c r="DW32" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20303,8 +20445,11 @@
       <c r="DV33" s="15">
         <v>0</v>
       </c>
+      <c r="DW33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -20681,8 +20826,11 @@
       <c r="DV34" s="15">
         <v>153</v>
       </c>
+      <c r="DW34" s="15">
+        <v>175</v>
+      </c>
     </row>
-    <row r="35" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="66" t="s">
         <v>56</v>
@@ -21059,8 +21207,11 @@
       <c r="DV35" s="15">
         <v>552</v>
       </c>
+      <c r="DW35" s="15">
+        <v>560</v>
+      </c>
     </row>
-    <row r="36" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -21434,8 +21585,11 @@
       <c r="DV36" s="28">
         <v>120</v>
       </c>
+      <c r="DW36" s="28">
+        <v>122</v>
+      </c>
     </row>
-    <row r="37" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -21812,8 +21966,11 @@
       <c r="DV37" s="15">
         <v>171</v>
       </c>
+      <c r="DW37" s="15">
+        <v>196</v>
+      </c>
     </row>
-    <row r="38" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -22189,8 +22346,11 @@
       <c r="DV38" s="15">
         <v>32</v>
       </c>
+      <c r="DW38" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="39" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -22566,8 +22726,11 @@
       <c r="DV39" s="15">
         <v>10</v>
       </c>
+      <c r="DW39" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="40" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -22943,8 +23106,11 @@
       <c r="DV40" s="15">
         <v>0</v>
       </c>
+      <c r="DW40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -23320,8 +23486,11 @@
       <c r="DV41" s="15">
         <v>0</v>
       </c>
+      <c r="DW41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -23697,8 +23866,11 @@
       <c r="DV42" s="15">
         <v>16</v>
       </c>
+      <c r="DW42" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="43" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -24074,8 +24246,11 @@
       <c r="DV43" s="28">
         <v>107</v>
       </c>
+      <c r="DW43" s="28">
+        <v>99</v>
+      </c>
     </row>
-    <row r="44" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -24451,8 +24626,11 @@
       <c r="DV44" s="15">
         <v>7</v>
       </c>
+      <c r="DW44" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="45" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -24828,8 +25006,11 @@
       <c r="DV45" s="15">
         <v>31</v>
       </c>
+      <c r="DW45" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="46" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -25205,8 +25386,11 @@
       <c r="DV46" s="15">
         <v>38</v>
       </c>
+      <c r="DW46" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="47" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -25582,8 +25766,11 @@
       <c r="DV47" s="15">
         <v>6</v>
       </c>
+      <c r="DW47" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -25959,8 +26146,11 @@
       <c r="DV48" s="15">
         <v>40</v>
       </c>
+      <c r="DW48" s="15">
+        <v>61</v>
+      </c>
     </row>
-    <row r="49" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="66" t="s">
         <v>83</v>
@@ -26337,8 +26527,11 @@
       <c r="DV49" s="15">
         <v>174</v>
       </c>
+      <c r="DW49" s="15">
+        <v>171</v>
+      </c>
     </row>
-    <row r="50" spans="1:126" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -26712,8 +26905,11 @@
       <c r="DV50" s="15">
         <v>58</v>
       </c>
+      <c r="DW50" s="15">
+        <v>68</v>
+      </c>
     </row>
-    <row r="51" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -27089,8 +27285,11 @@
       <c r="DV51" s="15">
         <v>8</v>
       </c>
+      <c r="DW51" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="52" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -27466,8 +27665,11 @@
       <c r="DV52" s="15">
         <v>33</v>
       </c>
+      <c r="DW52" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="53" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -27843,8 +28045,11 @@
       <c r="DV53" s="15">
         <v>93</v>
       </c>
+      <c r="DW53" s="15">
+        <v>78</v>
+      </c>
     </row>
-    <row r="54" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -28220,8 +28425,11 @@
       <c r="DV54" s="15">
         <v>14</v>
       </c>
+      <c r="DW54" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="55" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -28597,8 +28805,11 @@
       <c r="DV55" s="15">
         <v>34</v>
       </c>
+      <c r="DW55" s="15">
+        <v>45</v>
+      </c>
     </row>
-    <row r="56" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -28974,8 +29185,11 @@
       <c r="DV56" s="15">
         <v>2</v>
       </c>
+      <c r="DW56" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -29351,8 +29565,11 @@
       <c r="DV57" s="15">
         <v>7</v>
       </c>
+      <c r="DW57" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="58" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -29849,8 +30066,11 @@
         <f t="shared" si="10"/>
         <v>6589</v>
       </c>
+      <c r="DW58" s="14">
+        <v>6747</v>
+      </c>
     </row>
-    <row r="59" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -29934,7 +30154,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -30018,7 +30238,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:126" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -30103,9 +30323,10 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="DE2:DV2"/>
-    <mergeCell ref="DE3:DV3"/>
+  <mergeCells count="140">
+    <mergeCell ref="DE2:DW2"/>
+    <mergeCell ref="DE3:DW3"/>
+    <mergeCell ref="DW4:DW5"/>
     <mergeCell ref="DV4:DV5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
@@ -30150,6 +30371,7 @@
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AN4:AN5"/>
@@ -30173,6 +30395,7 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="CK4:CK5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -30197,8 +30420,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="CK4:CK5"/>
-    <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="CN4:CN5"/>
@@ -30255,7 +30476,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:DV57">
+  <conditionalFormatting sqref="DP6:DW57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -30272,13 +30493,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DV58"/>
+  <dimension ref="B1:DW58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DN53" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DH49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DV60" sqref="DV60"/>
+      <selection pane="bottomRight" activeCell="DW58" sqref="DW58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30293,11 +30514,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="126" width="10.875" style="1" customWidth="1"/>
-    <col min="127" max="16384" width="8.625" style="1"/>
+    <col min="106" max="127" width="10.875" style="1" customWidth="1"/>
+    <col min="128" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:126" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:127" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="76" t="s">
         <v>336</v>
       </c>
@@ -30350,11 +30571,12 @@
       <c r="DS1" s="19"/>
       <c r="DT1" s="19"/>
       <c r="DU1" s="19"/>
-      <c r="DV1" s="19" t="s">
+      <c r="DV1" s="19"/>
+      <c r="DW1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="2:126" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:127" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="70" t="s">
@@ -30486,8 +30708,9 @@
       <c r="DT2" s="70"/>
       <c r="DU2" s="70"/>
       <c r="DV2" s="70"/>
+      <c r="DW2" s="70"/>
     </row>
-    <row r="3" spans="2:126" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:127" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
@@ -30623,8 +30846,9 @@
       <c r="DT3" s="51"/>
       <c r="DU3" s="51"/>
       <c r="DV3" s="51"/>
+      <c r="DW3" s="51"/>
     </row>
-    <row r="4" spans="2:126" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:127" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -31000,8 +31224,11 @@
       <c r="DV4" s="50" t="s">
         <v>369</v>
       </c>
+      <c r="DW4" s="50" t="s">
+        <v>373</v>
+      </c>
     </row>
-    <row r="5" spans="2:126" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:127" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="48"/>
@@ -31127,8 +31354,9 @@
       <c r="DT5" s="49"/>
       <c r="DU5" s="49"/>
       <c r="DV5" s="49"/>
+      <c r="DW5" s="49"/>
     </row>
-    <row r="6" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -31504,8 +31732,11 @@
       <c r="DV6" s="28">
         <v>149</v>
       </c>
+      <c r="DW6" s="28">
+        <v>183</v>
+      </c>
     </row>
-    <row r="7" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -31881,8 +32112,11 @@
       <c r="DV7" s="15">
         <v>1</v>
       </c>
+      <c r="DW7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -32258,8 +32492,11 @@
       <c r="DV8" s="28">
         <v>8</v>
       </c>
+      <c r="DW8" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -32635,8 +32872,11 @@
       <c r="DV9" s="15">
         <v>52</v>
       </c>
+      <c r="DW9" s="15">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -33012,8 +33252,11 @@
       <c r="DV10" s="15">
         <v>0</v>
       </c>
+      <c r="DW10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -33389,8 +33632,11 @@
       <c r="DV11" s="15">
         <v>9</v>
       </c>
+      <c r="DW11" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -33766,8 +34012,11 @@
       <c r="DV12" s="15">
         <v>5</v>
       </c>
+      <c r="DW12" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -34143,8 +34392,11 @@
       <c r="DV13" s="15">
         <v>11</v>
       </c>
+      <c r="DW13" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -34520,8 +34772,11 @@
       <c r="DV14" s="15">
         <v>11</v>
       </c>
+      <c r="DW14" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -34897,8 +35152,11 @@
       <c r="DV15" s="15">
         <v>1</v>
       </c>
+      <c r="DW15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -35274,8 +35532,11 @@
       <c r="DV16" s="28">
         <v>72</v>
       </c>
+      <c r="DW16" s="28">
+        <v>73</v>
+      </c>
     </row>
-    <row r="17" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35651,8 +35912,11 @@
       <c r="DV17" s="15">
         <v>109</v>
       </c>
+      <c r="DW17" s="15">
+        <v>160</v>
+      </c>
     </row>
-    <row r="18" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -36028,8 +36292,11 @@
       <c r="DV18" s="34">
         <v>1532</v>
       </c>
+      <c r="DW18" s="34">
+        <v>1837</v>
+      </c>
     </row>
-    <row r="19" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66" t="s">
         <v>27</v>
       </c>
@@ -36405,8 +36672,11 @@
       <c r="DV19" s="15">
         <v>83</v>
       </c>
+      <c r="DW19" s="15">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -36780,8 +37050,11 @@
       <c r="DV20" s="28">
         <v>280</v>
       </c>
+      <c r="DW20" s="28">
+        <v>373</v>
+      </c>
     </row>
-    <row r="21" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -37155,8 +37428,11 @@
       <c r="DV21" s="15">
         <v>11</v>
       </c>
+      <c r="DW21" s="15">
+        <v>53</v>
+      </c>
     </row>
-    <row r="22" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -37532,8 +37808,11 @@
       <c r="DV22" s="15">
         <v>12</v>
       </c>
+      <c r="DW22" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -37909,8 +38188,11 @@
       <c r="DV23" s="15">
         <v>3</v>
       </c>
+      <c r="DW23" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -38286,8 +38568,11 @@
       <c r="DV24" s="15">
         <v>3</v>
       </c>
+      <c r="DW24" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -38663,8 +38948,11 @@
       <c r="DV25" s="15">
         <v>0</v>
       </c>
+      <c r="DW25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -39040,8 +39328,11 @@
       <c r="DV26" s="15">
         <v>10</v>
       </c>
+      <c r="DW26" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -39417,8 +39708,11 @@
       <c r="DV27" s="15">
         <v>0</v>
       </c>
+      <c r="DW27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -39794,8 +40088,11 @@
       <c r="DV28" s="15">
         <v>1</v>
       </c>
+      <c r="DW28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
@@ -40171,8 +40468,11 @@
       <c r="DV29" s="15">
         <v>2</v>
       </c>
+      <c r="DW29" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -40546,8 +40846,11 @@
       <c r="DV30" s="15">
         <v>1</v>
       </c>
+      <c r="DW30" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -40923,8 +41226,11 @@
       <c r="DV31" s="15">
         <v>28</v>
       </c>
+      <c r="DW31" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -41300,8 +41606,11 @@
       <c r="DV32" s="15">
         <v>0</v>
       </c>
+      <c r="DW32" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -41677,8 +41986,11 @@
       <c r="DV33" s="15">
         <v>1</v>
       </c>
+      <c r="DW33" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -42054,8 +42366,11 @@
       <c r="DV34" s="15">
         <v>36</v>
       </c>
+      <c r="DW34" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="35" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
         <v>56</v>
       </c>
@@ -42431,8 +42746,11 @@
       <c r="DV35" s="15">
         <v>261</v>
       </c>
+      <c r="DW35" s="15">
+        <v>282</v>
+      </c>
     </row>
-    <row r="36" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -42806,8 +43124,11 @@
       <c r="DV36" s="28">
         <v>28</v>
       </c>
+      <c r="DW36" s="28">
+        <v>27</v>
+      </c>
     </row>
-    <row r="37" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -43183,8 +43504,11 @@
       <c r="DV37" s="15">
         <v>29</v>
       </c>
+      <c r="DW37" s="15">
+        <v>26</v>
+      </c>
     </row>
-    <row r="38" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -43560,8 +43884,11 @@
       <c r="DV38" s="15">
         <v>1</v>
       </c>
+      <c r="DW38" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -43937,8 +44264,11 @@
       <c r="DV39" s="15">
         <v>6</v>
       </c>
+      <c r="DW39" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -44314,8 +44644,11 @@
       <c r="DV40" s="15">
         <v>0</v>
       </c>
+      <c r="DW40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -44691,8 +45024,11 @@
       <c r="DV41" s="15">
         <v>0</v>
       </c>
+      <c r="DW41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -45068,8 +45404,11 @@
       <c r="DV42" s="15">
         <v>6</v>
       </c>
+      <c r="DW42" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -45445,8 +45784,11 @@
       <c r="DV43" s="28">
         <v>33</v>
       </c>
+      <c r="DW43" s="28">
+        <v>37</v>
+      </c>
     </row>
-    <row r="44" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -45822,8 +46164,11 @@
       <c r="DV44" s="15">
         <v>2</v>
       </c>
+      <c r="DW44" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -46199,8 +46544,11 @@
       <c r="DV45" s="15">
         <v>4</v>
       </c>
+      <c r="DW45" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -46576,8 +46924,11 @@
       <c r="DV46" s="15">
         <v>7</v>
       </c>
+      <c r="DW46" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -46953,8 +47304,11 @@
       <c r="DV47" s="15">
         <v>0</v>
       </c>
+      <c r="DW47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -47330,8 +47684,11 @@
       <c r="DV48" s="15">
         <v>2</v>
       </c>
+      <c r="DW48" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66" t="s">
         <v>83</v>
       </c>
@@ -47707,8 +48064,11 @@
       <c r="DV49" s="15">
         <v>45</v>
       </c>
+      <c r="DW49" s="15">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -48082,8 +48442,11 @@
       <c r="DV50" s="15">
         <v>7</v>
       </c>
+      <c r="DW50" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="51" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -48459,8 +48822,11 @@
       <c r="DV51" s="15">
         <v>1</v>
       </c>
+      <c r="DW51" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -48836,8 +49202,11 @@
       <c r="DV52" s="15">
         <v>11</v>
       </c>
+      <c r="DW52" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="53" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -49213,8 +49582,11 @@
       <c r="DV53" s="15">
         <v>10</v>
       </c>
+      <c r="DW53" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="54" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -49590,8 +49962,11 @@
       <c r="DV54" s="15">
         <v>9</v>
       </c>
+      <c r="DW54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -49967,8 +50342,11 @@
       <c r="DV55" s="15">
         <v>5</v>
       </c>
+      <c r="DW55" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="56" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -50344,8 +50722,11 @@
       <c r="DV56" s="15">
         <v>1</v>
       </c>
+      <c r="DW56" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="57" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -50721,8 +51102,11 @@
       <c r="DV57" s="15">
         <v>0</v>
       </c>
+      <c r="DW57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="2:126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -51218,9 +51602,15 @@
         <f t="shared" si="8"/>
         <v>2899</v>
       </c>
+      <c r="DW58" s="14">
+        <v>3530</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="140">
+    <mergeCell ref="DD2:DW2"/>
+    <mergeCell ref="DD3:DW3"/>
+    <mergeCell ref="DW4:DW5"/>
     <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="DM4:DM5"/>
     <mergeCell ref="DL4:DL5"/>
@@ -51234,8 +51624,6 @@
     <mergeCell ref="DR4:DR5"/>
     <mergeCell ref="DQ4:DQ5"/>
     <mergeCell ref="DT4:DT5"/>
-    <mergeCell ref="DD2:DV2"/>
-    <mergeCell ref="DD3:DV3"/>
     <mergeCell ref="DV4:DV5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="CO4:CO5"/>
@@ -51394,7 +51782,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:DV57</xm:sqref>
+          <xm:sqref>DP6:DW57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -51404,13 +51792,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV61"/>
+  <dimension ref="A1:BW61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AZ28" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BV59" sqref="BV59"/>
+      <selection pane="bottomRight" activeCell="BD3" sqref="BD3:BW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -51423,11 +51811,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="74" width="10.875" style="1" customWidth="1"/>
-    <col min="75" max="16384" width="8.625" style="1"/>
+    <col min="54" max="75" width="10.875" style="1" customWidth="1"/>
+    <col min="76" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:75" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -51476,11 +51864,12 @@
       <c r="BS1" s="19"/>
       <c r="BT1" s="19"/>
       <c r="BU1" s="19"/>
-      <c r="BV1" s="19" t="s">
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:75" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="71" t="s">
@@ -51558,8 +51947,9 @@
       <c r="BT2" s="70"/>
       <c r="BU2" s="70"/>
       <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
     </row>
-    <row r="3" spans="1:74" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:75" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
@@ -51639,8 +52029,9 @@
       <c r="BT3" s="51"/>
       <c r="BU3" s="51"/>
       <c r="BV3" s="51"/>
+      <c r="BW3" s="51"/>
     </row>
-    <row r="4" spans="1:74" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:75" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -51860,8 +52251,11 @@
       <c r="BV4" s="50" t="s">
         <v>370</v>
       </c>
+      <c r="BW4" s="50" t="s">
+        <v>374</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:75" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="47"/>
@@ -51935,8 +52329,9 @@
       <c r="BT5" s="49"/>
       <c r="BU5" s="49"/>
       <c r="BV5" s="49"/>
+      <c r="BW5" s="49"/>
     </row>
-    <row r="6" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -52157,8 +52552,11 @@
       <c r="BV6" s="28">
         <v>67</v>
       </c>
+      <c r="BW6" s="28">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -52378,8 +52776,11 @@
       <c r="BV7" s="15">
         <v>0</v>
       </c>
+      <c r="BW7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -52599,8 +53000,11 @@
       <c r="BV8" s="28">
         <v>2</v>
       </c>
+      <c r="BW8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -52821,8 +53225,11 @@
       <c r="BV9" s="15">
         <v>23</v>
       </c>
+      <c r="BW9" s="15">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -53042,8 +53449,11 @@
       <c r="BV10" s="15">
         <v>2</v>
       </c>
+      <c r="BW10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -53263,8 +53673,11 @@
       <c r="BV11" s="15">
         <v>5</v>
       </c>
+      <c r="BW11" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -53484,8 +53897,11 @@
       <c r="BV12" s="15">
         <v>4</v>
       </c>
+      <c r="BW12" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -53705,8 +54121,11 @@
       <c r="BV13" s="15">
         <v>22</v>
       </c>
+      <c r="BW13" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -53926,8 +54345,11 @@
       <c r="BV14" s="15">
         <v>17</v>
       </c>
+      <c r="BW14" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -54147,8 +54569,11 @@
       <c r="BV15" s="15">
         <v>5</v>
       </c>
+      <c r="BW15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -54369,8 +54794,11 @@
       <c r="BV16" s="28">
         <v>36</v>
       </c>
+      <c r="BW16" s="28">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -54590,8 +55018,11 @@
       <c r="BV17" s="15">
         <v>150</v>
       </c>
+      <c r="BW17" s="15">
+        <v>151</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -54812,8 +55243,11 @@
       <c r="BV18" s="34">
         <v>975</v>
       </c>
+      <c r="BW18" s="34">
+        <v>933</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -55034,8 +55468,11 @@
       <c r="BV19" s="15">
         <v>121</v>
       </c>
+      <c r="BW19" s="15">
+        <v>88</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -55254,8 +55691,11 @@
       <c r="BV20" s="28">
         <v>324</v>
       </c>
+      <c r="BW20" s="28">
+        <v>277</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -55474,8 +55914,11 @@
       <c r="BV21" s="15">
         <v>44</v>
       </c>
+      <c r="BW21" s="15">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -55695,8 +56138,11 @@
       <c r="BV22" s="15">
         <v>12</v>
       </c>
+      <c r="BW22" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -55916,8 +56362,11 @@
       <c r="BV23" s="15">
         <v>0</v>
       </c>
+      <c r="BW23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -56137,8 +56586,11 @@
       <c r="BV24" s="15">
         <v>11</v>
       </c>
+      <c r="BW24" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -56358,8 +56810,11 @@
       <c r="BV25" s="15">
         <v>1</v>
       </c>
+      <c r="BW25" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -56579,8 +57034,11 @@
       <c r="BV26" s="15">
         <v>14</v>
       </c>
+      <c r="BW26" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -56800,8 +57258,11 @@
       <c r="BV27" s="15">
         <v>2</v>
       </c>
+      <c r="BW27" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -57021,8 +57482,11 @@
       <c r="BV28" s="15">
         <v>10</v>
       </c>
+      <c r="BW28" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -57242,8 +57706,11 @@
       <c r="BV29" s="15">
         <v>7</v>
       </c>
+      <c r="BW29" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -57461,8 +57928,11 @@
       <c r="BV30" s="15">
         <v>45</v>
       </c>
+      <c r="BW30" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -57683,8 +58153,11 @@
       <c r="BV31" s="15">
         <v>137</v>
       </c>
+      <c r="BW31" s="15">
+        <v>187</v>
+      </c>
     </row>
-    <row r="32" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -57904,8 +58377,11 @@
       <c r="BV32" s="15">
         <v>5</v>
       </c>
+      <c r="BW32" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -58125,8 +58601,11 @@
       <c r="BV33" s="15">
         <v>0</v>
       </c>
+      <c r="BW33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -58347,8 +58826,11 @@
       <c r="BV34" s="15">
         <v>61</v>
       </c>
+      <c r="BW34" s="15">
+        <v>61</v>
+      </c>
     </row>
-    <row r="35" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -58569,8 +59051,11 @@
       <c r="BV35" s="15">
         <v>238</v>
       </c>
+      <c r="BW35" s="15">
+        <v>195</v>
+      </c>
     </row>
-    <row r="36" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -58788,8 +59273,11 @@
       <c r="BV36" s="28">
         <v>87</v>
       </c>
+      <c r="BW36" s="28">
+        <v>88</v>
+      </c>
     </row>
-    <row r="37" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -59010,8 +59498,11 @@
       <c r="BV37" s="15">
         <v>72</v>
       </c>
+      <c r="BW37" s="15">
+        <v>88</v>
+      </c>
     </row>
-    <row r="38" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -59231,8 +59722,11 @@
       <c r="BV38" s="15">
         <v>22</v>
       </c>
+      <c r="BW38" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="39" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -59452,8 +59946,11 @@
       <c r="BV39" s="15">
         <v>4</v>
       </c>
+      <c r="BW39" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="40" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -59673,8 +60170,11 @@
       <c r="BV40" s="15">
         <v>0</v>
       </c>
+      <c r="BW40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -59894,8 +60394,11 @@
       <c r="BV41" s="15">
         <v>0</v>
       </c>
+      <c r="BW41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -60115,8 +60618,11 @@
       <c r="BV42" s="15">
         <v>13</v>
       </c>
+      <c r="BW42" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="43" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -60336,8 +60842,11 @@
       <c r="BV43" s="28">
         <v>69</v>
       </c>
+      <c r="BW43" s="28">
+        <v>66</v>
+      </c>
     </row>
-    <row r="44" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -60557,8 +61066,11 @@
       <c r="BV44" s="15">
         <v>2</v>
       </c>
+      <c r="BW44" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -60778,8 +61290,11 @@
       <c r="BV45" s="15">
         <v>11</v>
       </c>
+      <c r="BW45" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="46" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -60999,8 +61514,11 @@
       <c r="BV46" s="15">
         <v>16</v>
       </c>
+      <c r="BW46" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="47" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -61220,8 +61738,11 @@
       <c r="BV47" s="15">
         <v>2</v>
       </c>
+      <c r="BW47" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -61441,8 +61962,11 @@
       <c r="BV48" s="15">
         <v>32</v>
       </c>
+      <c r="BW48" s="15">
+        <v>47</v>
+      </c>
     </row>
-    <row r="49" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -61663,8 +62187,11 @@
       <c r="BV49" s="15">
         <v>85</v>
       </c>
+      <c r="BW49" s="15">
+        <v>76</v>
+      </c>
     </row>
-    <row r="50" spans="1:74" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -61882,8 +62409,11 @@
       <c r="BV50" s="15">
         <v>44</v>
       </c>
+      <c r="BW50" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="51" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -62103,8 +62633,11 @@
       <c r="BV51" s="15">
         <v>0</v>
       </c>
+      <c r="BW51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -62324,8 +62857,11 @@
       <c r="BV52" s="15">
         <v>12</v>
       </c>
+      <c r="BW52" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="53" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -62545,8 +63081,11 @@
       <c r="BV53" s="15">
         <v>42</v>
       </c>
+      <c r="BW53" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -62766,8 +63305,11 @@
       <c r="BV54" s="15">
         <v>7</v>
       </c>
+      <c r="BW54" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="55" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -62987,8 +63529,11 @@
       <c r="BV55" s="15">
         <v>12</v>
       </c>
+      <c r="BW55" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="56" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -63208,8 +63753,11 @@
       <c r="BV56" s="15">
         <v>0</v>
       </c>
+      <c r="BW56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -63429,8 +63977,11 @@
       <c r="BV57" s="15">
         <v>1</v>
       </c>
+      <c r="BW57" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="58" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -63719,8 +64270,11 @@
         <f t="shared" si="8"/>
         <v>2873</v>
       </c>
+      <c r="BW58" s="14">
+        <v>2836</v>
+      </c>
     </row>
-    <row r="59" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -63753,7 +64307,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -63786,7 +64340,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:74" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -63820,9 +64374,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="BD2:BV2"/>
-    <mergeCell ref="BD3:BV3"/>
+  <mergeCells count="84">
+    <mergeCell ref="BD2:BW2"/>
+    <mergeCell ref="BD3:BW3"/>
+    <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="AJ4:AJ5"/>
@@ -63852,7 +64407,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D3:AQ3"/>
@@ -63868,7 +64422,6 @@
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="AG4:AG5"/>
@@ -63884,11 +64437,12 @@
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BG4:BG5"/>
@@ -63904,13 +64458,14 @@
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BC4:BC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="74" max="66" man="1"/>
+    <brk id="75" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -63927,7 +64482,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BV57</xm:sqref>
+          <xm:sqref>BP6:BW57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -63937,13 +64492,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA61"/>
+  <dimension ref="A1:CB61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BM38" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BV59" sqref="BV59"/>
+      <selection pane="bottomRight" activeCell="BW4" sqref="BW4:BW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -63954,11 +64509,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="79" width="10.875" style="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.625" style="1"/>
+    <col min="34" max="80" width="10.875" style="1" customWidth="1"/>
+    <col min="81" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:80" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -64007,11 +64562,12 @@
       <c r="BS1" s="19"/>
       <c r="BT1" s="19"/>
       <c r="BU1" s="19"/>
-      <c r="BV1" s="19" t="s">
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:80" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="71" t="s">
@@ -64089,13 +64645,14 @@
       <c r="BT2" s="70"/>
       <c r="BU2" s="70"/>
       <c r="BV2" s="70"/>
-      <c r="BW2" s="20"/>
+      <c r="BW2" s="70"/>
       <c r="BX2" s="20"/>
       <c r="BY2" s="20"/>
       <c r="BZ2" s="20"/>
       <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
     </row>
-    <row r="3" spans="1:79" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:80" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="75" t="s">
@@ -64175,13 +64732,14 @@
       <c r="BT3" s="51"/>
       <c r="BU3" s="51"/>
       <c r="BV3" s="51"/>
-      <c r="BW3" s="21"/>
+      <c r="BW3" s="51"/>
       <c r="BX3" s="21"/>
       <c r="BY3" s="21"/>
       <c r="BZ3" s="21"/>
       <c r="CA3" s="21"/>
+      <c r="CB3" s="21"/>
     </row>
-    <row r="4" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -64401,13 +64959,16 @@
       <c r="BV4" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="BW4" s="83"/>
+      <c r="BW4" s="50" t="s">
+        <v>374</v>
+      </c>
       <c r="BX4" s="83"/>
       <c r="BY4" s="83"/>
       <c r="BZ4" s="83"/>
       <c r="CA4" s="83"/>
+      <c r="CB4" s="83"/>
     </row>
-    <row r="5" spans="1:79" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:80" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="47"/>
@@ -64481,13 +65042,14 @@
       <c r="BT5" s="50"/>
       <c r="BU5" s="50"/>
       <c r="BV5" s="50"/>
-      <c r="BW5" s="83"/>
+      <c r="BW5" s="50"/>
       <c r="BX5" s="83"/>
       <c r="BY5" s="83"/>
       <c r="BZ5" s="83"/>
       <c r="CA5" s="83"/>
+      <c r="CB5" s="83"/>
     </row>
-    <row r="6" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -64708,13 +65270,16 @@
       <c r="BV6" s="28">
         <v>93</v>
       </c>
-      <c r="BW6" s="22"/>
+      <c r="BW6" s="28">
+        <v>116</v>
+      </c>
       <c r="BX6" s="22"/>
       <c r="BY6" s="22"/>
       <c r="BZ6" s="22"/>
       <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
     </row>
-    <row r="7" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -64934,13 +65499,16 @@
       <c r="BV7" s="15">
         <v>1</v>
       </c>
-      <c r="BW7" s="23"/>
+      <c r="BW7" s="15">
+        <v>1</v>
+      </c>
       <c r="BX7" s="23"/>
       <c r="BY7" s="23"/>
       <c r="BZ7" s="23"/>
       <c r="CA7" s="23"/>
+      <c r="CB7" s="23"/>
     </row>
-    <row r="8" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -65160,13 +65728,16 @@
       <c r="BV8" s="28">
         <v>19</v>
       </c>
-      <c r="BW8" s="23"/>
+      <c r="BW8" s="28">
+        <v>21</v>
+      </c>
       <c r="BX8" s="23"/>
       <c r="BY8" s="23"/>
       <c r="BZ8" s="23"/>
       <c r="CA8" s="23"/>
+      <c r="CB8" s="23"/>
     </row>
-    <row r="9" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -65387,13 +65958,16 @@
       <c r="BV9" s="15">
         <v>124</v>
       </c>
-      <c r="BW9" s="23"/>
+      <c r="BW9" s="15">
+        <v>182</v>
+      </c>
       <c r="BX9" s="23"/>
       <c r="BY9" s="23"/>
       <c r="BZ9" s="23"/>
       <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
     </row>
-    <row r="10" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -65613,13 +66187,16 @@
       <c r="BV10" s="15">
         <v>0</v>
       </c>
-      <c r="BW10" s="23"/>
+      <c r="BW10" s="15">
+        <v>2</v>
+      </c>
       <c r="BX10" s="23"/>
       <c r="BY10" s="23"/>
       <c r="BZ10" s="23"/>
       <c r="CA10" s="23"/>
+      <c r="CB10" s="23"/>
     </row>
-    <row r="11" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -65839,13 +66416,16 @@
       <c r="BV11" s="15">
         <v>6</v>
       </c>
-      <c r="BW11" s="23"/>
+      <c r="BW11" s="15">
+        <v>14</v>
+      </c>
       <c r="BX11" s="23"/>
       <c r="BY11" s="23"/>
       <c r="BZ11" s="23"/>
       <c r="CA11" s="23"/>
+      <c r="CB11" s="23"/>
     </row>
-    <row r="12" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -66065,13 +66645,16 @@
       <c r="BV12" s="15">
         <v>4</v>
       </c>
-      <c r="BW12" s="23"/>
+      <c r="BW12" s="15">
+        <v>12</v>
+      </c>
       <c r="BX12" s="23"/>
       <c r="BY12" s="23"/>
       <c r="BZ12" s="23"/>
       <c r="CA12" s="23"/>
+      <c r="CB12" s="23"/>
     </row>
-    <row r="13" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -66291,13 +66874,16 @@
       <c r="BV13" s="15">
         <v>27</v>
       </c>
-      <c r="BW13" s="22"/>
+      <c r="BW13" s="15">
+        <v>15</v>
+      </c>
       <c r="BX13" s="22"/>
       <c r="BY13" s="22"/>
       <c r="BZ13" s="22"/>
       <c r="CA13" s="22"/>
+      <c r="CB13" s="22"/>
     </row>
-    <row r="14" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -66517,13 +67103,16 @@
       <c r="BV14" s="15">
         <v>20</v>
       </c>
-      <c r="BW14" s="23"/>
+      <c r="BW14" s="15">
+        <v>23</v>
+      </c>
       <c r="BX14" s="23"/>
       <c r="BY14" s="23"/>
       <c r="BZ14" s="23"/>
       <c r="CA14" s="23"/>
+      <c r="CB14" s="23"/>
     </row>
-    <row r="15" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -66743,13 +67332,16 @@
       <c r="BV15" s="15">
         <v>1</v>
       </c>
-      <c r="BW15" s="23"/>
+      <c r="BW15" s="15">
+        <v>2</v>
+      </c>
       <c r="BX15" s="23"/>
       <c r="BY15" s="23"/>
       <c r="BZ15" s="23"/>
       <c r="CA15" s="23"/>
+      <c r="CB15" s="23"/>
     </row>
-    <row r="16" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -66970,13 +67562,16 @@
       <c r="BV16" s="28">
         <v>202</v>
       </c>
-      <c r="BW16" s="22"/>
+      <c r="BW16" s="28">
+        <v>192</v>
+      </c>
       <c r="BX16" s="22"/>
       <c r="BY16" s="22"/>
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
+      <c r="CB16" s="22"/>
     </row>
-    <row r="17" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -67196,13 +67791,16 @@
       <c r="BV17" s="15">
         <v>120</v>
       </c>
-      <c r="BW17" s="22"/>
+      <c r="BW17" s="15">
+        <v>122</v>
+      </c>
       <c r="BX17" s="22"/>
       <c r="BY17" s="22"/>
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
+      <c r="CB17" s="22"/>
     </row>
-    <row r="18" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -67423,13 +68021,16 @@
       <c r="BV18" s="34">
         <v>1925</v>
       </c>
-      <c r="BW18" s="22"/>
+      <c r="BW18" s="34">
+        <v>1923</v>
+      </c>
       <c r="BX18" s="22"/>
       <c r="BY18" s="22"/>
       <c r="BZ18" s="22"/>
       <c r="CA18" s="22"/>
+      <c r="CB18" s="22"/>
     </row>
-    <row r="19" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -67650,13 +68251,16 @@
       <c r="BV19" s="15">
         <v>50</v>
       </c>
-      <c r="BW19" s="22"/>
+      <c r="BW19" s="15">
+        <v>36</v>
+      </c>
       <c r="BX19" s="22"/>
       <c r="BY19" s="22"/>
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
+      <c r="CB19" s="22"/>
     </row>
-    <row r="20" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -67875,13 +68479,16 @@
       <c r="BV20" s="28">
         <v>132</v>
       </c>
-      <c r="BW20" s="22"/>
+      <c r="BW20" s="28">
+        <v>124</v>
+      </c>
       <c r="BX20" s="22"/>
       <c r="BY20" s="22"/>
       <c r="BZ20" s="22"/>
       <c r="CA20" s="22"/>
+      <c r="CB20" s="22"/>
     </row>
-    <row r="21" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -68100,13 +68707,16 @@
       <c r="BV21" s="15">
         <v>28</v>
       </c>
-      <c r="BW21" s="22"/>
+      <c r="BW21" s="15">
+        <v>19</v>
+      </c>
       <c r="BX21" s="22"/>
       <c r="BY21" s="22"/>
       <c r="BZ21" s="22"/>
       <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
     </row>
-    <row r="22" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -68326,13 +68936,16 @@
       <c r="BV22" s="15">
         <v>4</v>
       </c>
-      <c r="BW22" s="23"/>
+      <c r="BW22" s="15">
+        <v>3</v>
+      </c>
       <c r="BX22" s="23"/>
       <c r="BY22" s="23"/>
       <c r="BZ22" s="23"/>
       <c r="CA22" s="23"/>
+      <c r="CB22" s="23"/>
     </row>
-    <row r="23" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -68552,13 +69165,16 @@
       <c r="BV23" s="15">
         <v>0</v>
       </c>
-      <c r="BW23" s="23"/>
+      <c r="BW23" s="15">
+        <v>0</v>
+      </c>
       <c r="BX23" s="23"/>
       <c r="BY23" s="23"/>
       <c r="BZ23" s="23"/>
       <c r="CA23" s="23"/>
+      <c r="CB23" s="23"/>
     </row>
-    <row r="24" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -68778,13 +69394,16 @@
       <c r="BV24" s="15">
         <v>16</v>
       </c>
-      <c r="BW24" s="22"/>
+      <c r="BW24" s="15">
+        <v>15</v>
+      </c>
       <c r="BX24" s="22"/>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="22"/>
       <c r="CA24" s="22"/>
+      <c r="CB24" s="22"/>
     </row>
-    <row r="25" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -69004,13 +69623,16 @@
       <c r="BV25" s="15">
         <v>0</v>
       </c>
-      <c r="BW25" s="23"/>
+      <c r="BW25" s="15">
+        <v>0</v>
+      </c>
       <c r="BX25" s="23"/>
       <c r="BY25" s="23"/>
       <c r="BZ25" s="23"/>
       <c r="CA25" s="23"/>
+      <c r="CB25" s="23"/>
     </row>
-    <row r="26" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -69230,13 +69852,16 @@
       <c r="BV26" s="15">
         <v>5</v>
       </c>
-      <c r="BW26" s="23"/>
+      <c r="BW26" s="15">
+        <v>11</v>
+      </c>
       <c r="BX26" s="23"/>
       <c r="BY26" s="23"/>
       <c r="BZ26" s="23"/>
       <c r="CA26" s="23"/>
+      <c r="CB26" s="23"/>
     </row>
-    <row r="27" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -69456,13 +70081,16 @@
       <c r="BV27" s="15">
         <v>0</v>
       </c>
-      <c r="BW27" s="23"/>
+      <c r="BW27" s="15">
+        <v>0</v>
+      </c>
       <c r="BX27" s="23"/>
       <c r="BY27" s="23"/>
       <c r="BZ27" s="23"/>
       <c r="CA27" s="23"/>
+      <c r="CB27" s="23"/>
     </row>
-    <row r="28" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -69682,13 +70310,16 @@
       <c r="BV28" s="15">
         <v>1</v>
       </c>
-      <c r="BW28" s="22"/>
+      <c r="BW28" s="15">
+        <v>4</v>
+      </c>
       <c r="BX28" s="22"/>
       <c r="BY28" s="22"/>
       <c r="BZ28" s="22"/>
       <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
     </row>
-    <row r="29" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -69908,13 +70539,16 @@
       <c r="BV29" s="15">
         <v>3</v>
       </c>
-      <c r="BW29" s="23"/>
+      <c r="BW29" s="15">
+        <v>4</v>
+      </c>
       <c r="BX29" s="23"/>
       <c r="BY29" s="23"/>
       <c r="BZ29" s="23"/>
       <c r="CA29" s="23"/>
+      <c r="CB29" s="23"/>
     </row>
-    <row r="30" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -70132,13 +70766,16 @@
       <c r="BV30" s="15">
         <v>17</v>
       </c>
-      <c r="BW30" s="23"/>
+      <c r="BW30" s="15">
+        <v>17</v>
+      </c>
       <c r="BX30" s="23"/>
       <c r="BY30" s="23"/>
       <c r="BZ30" s="23"/>
       <c r="CA30" s="23"/>
+      <c r="CB30" s="23"/>
     </row>
-    <row r="31" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -70359,13 +70996,16 @@
       <c r="BV31" s="15">
         <v>42</v>
       </c>
-      <c r="BW31" s="22"/>
+      <c r="BW31" s="15">
+        <v>86</v>
+      </c>
       <c r="BX31" s="22"/>
       <c r="BY31" s="22"/>
       <c r="BZ31" s="22"/>
       <c r="CA31" s="22"/>
+      <c r="CB31" s="22"/>
     </row>
-    <row r="32" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -70585,13 +71225,16 @@
       <c r="BV32" s="15">
         <v>2</v>
       </c>
-      <c r="BW32" s="23"/>
+      <c r="BW32" s="15">
+        <v>0</v>
+      </c>
       <c r="BX32" s="23"/>
       <c r="BY32" s="23"/>
       <c r="BZ32" s="23"/>
       <c r="CA32" s="23"/>
+      <c r="CB32" s="23"/>
     </row>
-    <row r="33" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -70811,13 +71454,16 @@
       <c r="BV33" s="15">
         <v>0</v>
       </c>
-      <c r="BW33" s="23"/>
+      <c r="BW33" s="15">
+        <v>0</v>
+      </c>
       <c r="BX33" s="23"/>
       <c r="BY33" s="23"/>
       <c r="BZ33" s="23"/>
       <c r="CA33" s="23"/>
+      <c r="CB33" s="23"/>
     </row>
-    <row r="34" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -71038,13 +71684,16 @@
       <c r="BV34" s="15">
         <v>92</v>
       </c>
-      <c r="BW34" s="22"/>
+      <c r="BW34" s="15">
+        <v>114</v>
+      </c>
       <c r="BX34" s="22"/>
       <c r="BY34" s="22"/>
       <c r="BZ34" s="22"/>
       <c r="CA34" s="22"/>
+      <c r="CB34" s="22"/>
     </row>
-    <row r="35" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -71265,13 +71914,16 @@
       <c r="BV35" s="15">
         <v>314</v>
       </c>
-      <c r="BW35" s="22"/>
+      <c r="BW35" s="15">
+        <v>365</v>
+      </c>
       <c r="BX35" s="22"/>
       <c r="BY35" s="22"/>
       <c r="BZ35" s="22"/>
       <c r="CA35" s="22"/>
+      <c r="CB35" s="22"/>
     </row>
-    <row r="36" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -71489,13 +72141,16 @@
       <c r="BV36" s="28">
         <v>33</v>
       </c>
-      <c r="BW36" s="22"/>
+      <c r="BW36" s="28">
+        <v>34</v>
+      </c>
       <c r="BX36" s="22"/>
       <c r="BY36" s="22"/>
       <c r="BZ36" s="22"/>
       <c r="CA36" s="22"/>
+      <c r="CB36" s="22"/>
     </row>
-    <row r="37" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -71716,13 +72371,16 @@
       <c r="BV37" s="15">
         <v>99</v>
       </c>
-      <c r="BW37" s="22"/>
+      <c r="BW37" s="15">
+        <v>108</v>
+      </c>
       <c r="BX37" s="22"/>
       <c r="BY37" s="22"/>
       <c r="BZ37" s="22"/>
       <c r="CA37" s="22"/>
+      <c r="CB37" s="22"/>
     </row>
-    <row r="38" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -71942,13 +72600,16 @@
       <c r="BV38" s="15">
         <v>10</v>
       </c>
-      <c r="BW38" s="23"/>
+      <c r="BW38" s="15">
+        <v>15</v>
+      </c>
       <c r="BX38" s="23"/>
       <c r="BY38" s="23"/>
       <c r="BZ38" s="23"/>
       <c r="CA38" s="23"/>
+      <c r="CB38" s="23"/>
     </row>
-    <row r="39" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -72168,13 +72829,16 @@
       <c r="BV39" s="15">
         <v>6</v>
       </c>
-      <c r="BW39" s="23"/>
+      <c r="BW39" s="15">
+        <v>10</v>
+      </c>
       <c r="BX39" s="23"/>
       <c r="BY39" s="23"/>
       <c r="BZ39" s="23"/>
       <c r="CA39" s="23"/>
+      <c r="CB39" s="23"/>
     </row>
-    <row r="40" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -72394,13 +73058,16 @@
       <c r="BV40" s="15">
         <v>0</v>
       </c>
-      <c r="BW40" s="23"/>
+      <c r="BW40" s="15">
+        <v>0</v>
+      </c>
       <c r="BX40" s="23"/>
       <c r="BY40" s="23"/>
       <c r="BZ40" s="23"/>
       <c r="CA40" s="23"/>
+      <c r="CB40" s="23"/>
     </row>
-    <row r="41" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -72620,13 +73287,16 @@
       <c r="BV41" s="15">
         <v>0</v>
       </c>
-      <c r="BW41" s="23"/>
+      <c r="BW41" s="15">
+        <v>0</v>
+      </c>
       <c r="BX41" s="23"/>
       <c r="BY41" s="23"/>
       <c r="BZ41" s="23"/>
       <c r="CA41" s="23"/>
+      <c r="CB41" s="23"/>
     </row>
-    <row r="42" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -72846,13 +73516,16 @@
       <c r="BV42" s="15">
         <v>3</v>
       </c>
-      <c r="BW42" s="23"/>
+      <c r="BW42" s="15">
+        <v>12</v>
+      </c>
       <c r="BX42" s="23"/>
       <c r="BY42" s="23"/>
       <c r="BZ42" s="23"/>
       <c r="CA42" s="23"/>
+      <c r="CB42" s="23"/>
     </row>
-    <row r="43" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -73072,13 +73745,16 @@
       <c r="BV43" s="28">
         <v>38</v>
       </c>
-      <c r="BW43" s="23"/>
+      <c r="BW43" s="28">
+        <v>33</v>
+      </c>
       <c r="BX43" s="23"/>
       <c r="BY43" s="23"/>
       <c r="BZ43" s="23"/>
       <c r="CA43" s="23"/>
+      <c r="CB43" s="23"/>
     </row>
-    <row r="44" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -73298,13 +73974,16 @@
       <c r="BV44" s="15">
         <v>5</v>
       </c>
-      <c r="BW44" s="23"/>
+      <c r="BW44" s="15">
+        <v>4</v>
+      </c>
       <c r="BX44" s="23"/>
       <c r="BY44" s="23"/>
       <c r="BZ44" s="23"/>
       <c r="CA44" s="23"/>
+      <c r="CB44" s="23"/>
     </row>
-    <row r="45" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -73524,13 +74203,16 @@
       <c r="BV45" s="15">
         <v>20</v>
       </c>
-      <c r="BW45" s="22"/>
+      <c r="BW45" s="15">
+        <v>20</v>
+      </c>
       <c r="BX45" s="22"/>
       <c r="BY45" s="22"/>
       <c r="BZ45" s="22"/>
       <c r="CA45" s="22"/>
+      <c r="CB45" s="22"/>
     </row>
-    <row r="46" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -73750,13 +74432,16 @@
       <c r="BV46" s="15">
         <v>22</v>
       </c>
-      <c r="BW46" s="23"/>
+      <c r="BW46" s="15">
+        <v>26</v>
+      </c>
       <c r="BX46" s="23"/>
       <c r="BY46" s="23"/>
       <c r="BZ46" s="23"/>
       <c r="CA46" s="23"/>
+      <c r="CB46" s="23"/>
     </row>
-    <row r="47" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -73976,13 +74661,16 @@
       <c r="BV47" s="15">
         <v>4</v>
       </c>
-      <c r="BW47" s="23"/>
+      <c r="BW47" s="15">
+        <v>2</v>
+      </c>
       <c r="BX47" s="23"/>
       <c r="BY47" s="23"/>
       <c r="BZ47" s="23"/>
       <c r="CA47" s="23"/>
+      <c r="CB47" s="23"/>
     </row>
-    <row r="48" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -74202,13 +74890,16 @@
       <c r="BV48" s="15">
         <v>8</v>
       </c>
-      <c r="BW48" s="23"/>
+      <c r="BW48" s="15">
+        <v>14</v>
+      </c>
       <c r="BX48" s="23"/>
       <c r="BY48" s="23"/>
       <c r="BZ48" s="23"/>
       <c r="CA48" s="23"/>
+      <c r="CB48" s="23"/>
     </row>
-    <row r="49" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -74429,13 +75120,16 @@
       <c r="BV49" s="15">
         <v>89</v>
       </c>
-      <c r="BW49" s="22"/>
+      <c r="BW49" s="15">
+        <v>95</v>
+      </c>
       <c r="BX49" s="22"/>
       <c r="BY49" s="22"/>
       <c r="BZ49" s="22"/>
       <c r="CA49" s="22"/>
+      <c r="CB49" s="22"/>
     </row>
-    <row r="50" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -74653,13 +75347,16 @@
       <c r="BV50" s="15">
         <v>14</v>
       </c>
-      <c r="BW50" s="22"/>
+      <c r="BW50" s="15">
+        <v>17</v>
+      </c>
       <c r="BX50" s="22"/>
       <c r="BY50" s="22"/>
       <c r="BZ50" s="22"/>
       <c r="CA50" s="22"/>
+      <c r="CB50" s="22"/>
     </row>
-    <row r="51" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -74879,13 +75576,16 @@
       <c r="BV51" s="15">
         <v>8</v>
       </c>
-      <c r="BW51" s="23"/>
+      <c r="BW51" s="15">
+        <v>5</v>
+      </c>
       <c r="BX51" s="23"/>
       <c r="BY51" s="23"/>
       <c r="BZ51" s="23"/>
       <c r="CA51" s="23"/>
+      <c r="CB51" s="23"/>
     </row>
-    <row r="52" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -75105,13 +75805,16 @@
       <c r="BV52" s="15">
         <v>21</v>
       </c>
-      <c r="BW52" s="23"/>
+      <c r="BW52" s="15">
+        <v>12</v>
+      </c>
       <c r="BX52" s="23"/>
       <c r="BY52" s="23"/>
       <c r="BZ52" s="23"/>
       <c r="CA52" s="23"/>
+      <c r="CB52" s="23"/>
     </row>
-    <row r="53" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -75331,13 +76034,16 @@
       <c r="BV53" s="15">
         <v>51</v>
       </c>
-      <c r="BW53" s="23"/>
+      <c r="BW53" s="15">
+        <v>40</v>
+      </c>
       <c r="BX53" s="23"/>
       <c r="BY53" s="23"/>
       <c r="BZ53" s="23"/>
       <c r="CA53" s="23"/>
+      <c r="CB53" s="23"/>
     </row>
-    <row r="54" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -75557,13 +76263,16 @@
       <c r="BV54" s="15">
         <v>7</v>
       </c>
-      <c r="BW54" s="23"/>
+      <c r="BW54" s="15">
+        <v>7</v>
+      </c>
       <c r="BX54" s="23"/>
       <c r="BY54" s="23"/>
       <c r="BZ54" s="23"/>
       <c r="CA54" s="23"/>
+      <c r="CB54" s="23"/>
     </row>
-    <row r="55" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -75783,13 +76492,16 @@
       <c r="BV55" s="15">
         <v>22</v>
       </c>
-      <c r="BW55" s="23"/>
+      <c r="BW55" s="15">
+        <v>29</v>
+      </c>
       <c r="BX55" s="23"/>
       <c r="BY55" s="23"/>
       <c r="BZ55" s="23"/>
       <c r="CA55" s="23"/>
+      <c r="CB55" s="23"/>
     </row>
-    <row r="56" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -76009,13 +76721,16 @@
       <c r="BV56" s="15">
         <v>2</v>
       </c>
-      <c r="BW56" s="23"/>
+      <c r="BW56" s="15">
+        <v>1</v>
+      </c>
       <c r="BX56" s="23"/>
       <c r="BY56" s="23"/>
       <c r="BZ56" s="23"/>
       <c r="CA56" s="23"/>
+      <c r="CB56" s="23"/>
     </row>
-    <row r="57" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -76235,13 +76950,16 @@
       <c r="BV57" s="15">
         <v>6</v>
       </c>
-      <c r="BW57" s="23"/>
+      <c r="BW57" s="15">
+        <v>4</v>
+      </c>
       <c r="BX57" s="23"/>
       <c r="BY57" s="23"/>
       <c r="BZ57" s="23"/>
       <c r="CA57" s="23"/>
+      <c r="CB57" s="23"/>
     </row>
-    <row r="58" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -76530,13 +77248,16 @@
         <f t="shared" si="4"/>
         <v>3716</v>
       </c>
-      <c r="BW58" s="24"/>
+      <c r="BW58" s="14">
+        <v>3911</v>
+      </c>
       <c r="BX58" s="24"/>
       <c r="BY58" s="24"/>
       <c r="BZ58" s="24"/>
       <c r="CA58" s="24"/>
+      <c r="CB58" s="24"/>
     </row>
-    <row r="59" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -76569,7 +77290,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -76602,7 +77323,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -76636,10 +77357,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="BD2:BV2"/>
-    <mergeCell ref="BD3:BV3"/>
+  <mergeCells count="89">
+    <mergeCell ref="BD3:BW3"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
@@ -76652,22 +77373,23 @@
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BD2:BW2"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="Z4:Z5"/>
@@ -76747,7 +77469,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BV57</xm:sqref>
+          <xm:sqref>BP6:BW57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040816-1\ＪＯＢ040816-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040823-2\ＪＯＢ040823-2\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BW$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BW$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DW$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DW$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BX$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BX$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DX$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DX$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="378">
   <si>
     <t>都道府県</t>
   </si>
@@ -4179,6 +4179,60 @@
     <t>8/8(月)～
 8/14(日)分
 【8月第2週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/15(月)～
+8/21(日)分
+【8月第3週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/16(月)～
+8/22(日)分
+【8月第4週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/15(月)～
+8/21(日)分
+【8月第3週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4710,6 +4764,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4721,9 +4778,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8945,13 +8999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DW61"/>
+  <dimension ref="A1:DX61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DL6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DW4" sqref="DW4:DW5"/>
+      <selection pane="bottomRight" activeCell="DX4" sqref="DX4:DX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8967,11 +9021,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="127" width="10.875" style="1" customWidth="1"/>
-    <col min="128" max="16384" width="8.625" style="1"/>
+    <col min="106" max="128" width="10.875" style="1" customWidth="1"/>
+    <col min="129" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:128" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9025,13 +9079,14 @@
       <c r="DT1" s="19"/>
       <c r="DU1" s="19"/>
       <c r="DV1" s="19"/>
-      <c r="DW1" s="19" t="s">
+      <c r="DW1" s="19"/>
+      <c r="DX1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:127" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+    <row r="2" spans="1:128" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="71" t="s">
         <v>155</v>
       </c>
@@ -9162,10 +9217,11 @@
       <c r="DU2" s="70"/>
       <c r="DV2" s="70"/>
       <c r="DW2" s="70"/>
+      <c r="DX2" s="70"/>
     </row>
-    <row r="3" spans="1:127" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
+    <row r="3" spans="1:128" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="51" t="s">
         <v>139</v>
       </c>
@@ -9300,132 +9356,133 @@
       <c r="DU3" s="51"/>
       <c r="DV3" s="51"/>
       <c r="DW3" s="51"/>
+      <c r="DX3" s="51"/>
     </row>
-    <row r="4" spans="1:127" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:128" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="55" t="s">
         <v>149</v>
       </c>
       <c r="R4" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="59" t="s">
+      <c r="X4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="59" t="s">
+      <c r="Y4" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="59" t="s">
+      <c r="Z4" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="59" t="s">
+      <c r="AA4" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AB4" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AC4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AD4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="59" t="s">
+      <c r="AF4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AG4" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="59" t="s">
+      <c r="AH4" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AI4" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="59" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="59" t="s">
+      <c r="AK4" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="59" t="s">
+      <c r="AL4" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="59" t="s">
+      <c r="AM4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="59" t="s">
+      <c r="AN4" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="59" t="s">
+      <c r="AO4" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="59" t="s">
+      <c r="AP4" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="59" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>144</v>
       </c>
       <c r="AR4" s="47" t="s">
@@ -9680,8 +9737,11 @@
       <c r="DW4" s="50" t="s">
         <v>372</v>
       </c>
+      <c r="DX4" s="50" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="5" spans="1:127" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:128" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="46"/>
@@ -9808,8 +9868,9 @@
       <c r="DU5" s="49"/>
       <c r="DV5" s="49"/>
       <c r="DW5" s="49"/>
+      <c r="DX5" s="49"/>
     </row>
-    <row r="6" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10189,8 +10250,11 @@
       <c r="DW6" s="28">
         <v>207</v>
       </c>
+      <c r="DX6" s="28">
+        <v>170</v>
+      </c>
     </row>
-    <row r="7" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10569,8 +10633,11 @@
       <c r="DW7" s="15">
         <v>2</v>
       </c>
+      <c r="DX7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -10949,8 +11016,11 @@
       <c r="DW8" s="28">
         <v>22</v>
       </c>
+      <c r="DX8" s="28">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11330,8 +11400,11 @@
       <c r="DW9" s="15">
         <v>221</v>
       </c>
+      <c r="DX9" s="15">
+        <v>161</v>
+      </c>
     </row>
-    <row r="10" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11708,8 +11781,11 @@
       <c r="DW10" s="15">
         <v>3</v>
       </c>
+      <c r="DX10" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12088,8 +12164,11 @@
       <c r="DW11" s="15">
         <v>23</v>
       </c>
+      <c r="DX11" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12468,8 +12547,11 @@
       <c r="DW12" s="15">
         <v>16</v>
       </c>
+      <c r="DX12" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -12848,8 +12930,11 @@
       <c r="DW13" s="15">
         <v>40</v>
       </c>
+      <c r="DX13" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13228,8 +13313,11 @@
       <c r="DW14" s="15">
         <v>42</v>
       </c>
+      <c r="DX14" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13608,8 +13696,11 @@
       <c r="DW15" s="15">
         <v>2</v>
       </c>
+      <c r="DX15" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -13989,8 +14080,11 @@
       <c r="DW16" s="28">
         <v>230</v>
       </c>
+      <c r="DX16" s="28">
+        <v>221</v>
+      </c>
     </row>
-    <row r="17" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14369,8 +14463,11 @@
       <c r="DW17" s="15">
         <v>273</v>
       </c>
+      <c r="DX17" s="15">
+        <v>251</v>
+      </c>
     </row>
-    <row r="18" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -14750,8 +14847,11 @@
       <c r="DW18" s="34">
         <v>2856</v>
       </c>
+      <c r="DX18" s="34">
+        <v>2540</v>
+      </c>
     </row>
-    <row r="19" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="66" t="s">
         <v>27</v>
@@ -15131,8 +15231,11 @@
       <c r="DW19" s="15">
         <v>124</v>
       </c>
+      <c r="DX19" s="15">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
@@ -15510,8 +15613,11 @@
       <c r="DW20" s="28">
         <v>401</v>
       </c>
+      <c r="DX20" s="28">
+        <v>409</v>
+      </c>
     </row>
-    <row r="21" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
@@ -15889,8 +15995,11 @@
       <c r="DW21" s="15">
         <v>53</v>
       </c>
+      <c r="DX21" s="15">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16269,8 +16378,11 @@
       <c r="DW22" s="15">
         <v>18</v>
       </c>
+      <c r="DX22" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="23" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -16649,8 +16761,11 @@
       <c r="DW23" s="15">
         <v>0</v>
       </c>
+      <c r="DX23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17029,8 +17144,11 @@
       <c r="DW24" s="15">
         <v>23</v>
       </c>
+      <c r="DX24" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17409,8 +17527,11 @@
       <c r="DW25" s="15">
         <v>3</v>
       </c>
+      <c r="DX25" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -17789,8 +17910,11 @@
       <c r="DW26" s="15">
         <v>25</v>
       </c>
+      <c r="DX26" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="27" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18169,8 +18293,11 @@
       <c r="DW27" s="15">
         <v>2</v>
       </c>
+      <c r="DX27" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18549,8 +18676,11 @@
       <c r="DW28" s="15">
         <v>8</v>
       </c>
+      <c r="DX28" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
@@ -18929,8 +19059,11 @@
       <c r="DW29" s="15">
         <v>17</v>
       </c>
+      <c r="DX29" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="30" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -19307,8 +19440,11 @@
       <c r="DW30" s="15">
         <v>44</v>
       </c>
+      <c r="DX30" s="15">
+        <v>47</v>
+      </c>
     </row>
-    <row r="31" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -19688,8 +19824,11 @@
       <c r="DW31" s="15">
         <v>273</v>
       </c>
+      <c r="DX31" s="15">
+        <v>171</v>
+      </c>
     </row>
-    <row r="32" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20068,8 +20207,11 @@
       <c r="DW32" s="15">
         <v>2</v>
       </c>
+      <c r="DX32" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20448,8 +20590,11 @@
       <c r="DW33" s="15">
         <v>0</v>
       </c>
+      <c r="DX33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -20829,8 +20974,11 @@
       <c r="DW34" s="15">
         <v>175</v>
       </c>
+      <c r="DX34" s="15">
+        <v>145</v>
+      </c>
     </row>
-    <row r="35" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="66" t="s">
         <v>56</v>
@@ -21210,8 +21358,11 @@
       <c r="DW35" s="15">
         <v>560</v>
       </c>
+      <c r="DX35" s="15">
+        <v>575</v>
+      </c>
     </row>
-    <row r="36" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -21588,8 +21739,11 @@
       <c r="DW36" s="28">
         <v>122</v>
       </c>
+      <c r="DX36" s="28">
+        <v>114</v>
+      </c>
     </row>
-    <row r="37" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -21969,8 +22123,11 @@
       <c r="DW37" s="15">
         <v>196</v>
       </c>
+      <c r="DX37" s="15">
+        <v>147</v>
+      </c>
     </row>
-    <row r="38" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -22349,8 +22506,11 @@
       <c r="DW38" s="15">
         <v>42</v>
       </c>
+      <c r="DX38" s="15">
+        <v>45</v>
+      </c>
     </row>
-    <row r="39" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -22729,8 +22889,11 @@
       <c r="DW39" s="15">
         <v>20</v>
       </c>
+      <c r="DX39" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="40" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -23109,8 +23272,11 @@
       <c r="DW40" s="15">
         <v>0</v>
       </c>
+      <c r="DX40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -23489,8 +23655,11 @@
       <c r="DW41" s="15">
         <v>0</v>
       </c>
+      <c r="DX41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -23869,8 +24038,11 @@
       <c r="DW42" s="15">
         <v>29</v>
       </c>
+      <c r="DX42" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="43" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -24249,8 +24421,11 @@
       <c r="DW43" s="28">
         <v>99</v>
       </c>
+      <c r="DX43" s="28">
+        <v>131</v>
+      </c>
     </row>
-    <row r="44" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -24629,8 +24804,11 @@
       <c r="DW44" s="15">
         <v>8</v>
       </c>
+      <c r="DX44" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="45" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -25009,8 +25187,11 @@
       <c r="DW45" s="15">
         <v>38</v>
       </c>
+      <c r="DX45" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="46" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -25389,8 +25570,11 @@
       <c r="DW46" s="15">
         <v>46</v>
       </c>
+      <c r="DX46" s="15">
+        <v>60</v>
+      </c>
     </row>
-    <row r="47" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -25769,8 +25953,11 @@
       <c r="DW47" s="15">
         <v>6</v>
       </c>
+      <c r="DX47" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="48" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -26149,8 +26336,11 @@
       <c r="DW48" s="15">
         <v>61</v>
       </c>
+      <c r="DX48" s="15">
+        <v>36</v>
+      </c>
     </row>
-    <row r="49" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="66" t="s">
         <v>83</v>
@@ -26530,8 +26720,11 @@
       <c r="DW49" s="15">
         <v>171</v>
       </c>
+      <c r="DX49" s="15">
+        <v>168</v>
+      </c>
     </row>
-    <row r="50" spans="1:127" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -26908,8 +27101,11 @@
       <c r="DW50" s="15">
         <v>68</v>
       </c>
+      <c r="DX50" s="15">
+        <v>73</v>
+      </c>
     </row>
-    <row r="51" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -27288,8 +27484,11 @@
       <c r="DW51" s="15">
         <v>5</v>
       </c>
+      <c r="DX51" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="52" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -27668,8 +27867,11 @@
       <c r="DW52" s="15">
         <v>23</v>
       </c>
+      <c r="DX52" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="53" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -28048,8 +28250,11 @@
       <c r="DW53" s="15">
         <v>78</v>
       </c>
+      <c r="DX53" s="15">
+        <v>48</v>
+      </c>
     </row>
-    <row r="54" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -28428,8 +28633,11 @@
       <c r="DW54" s="15">
         <v>17</v>
       </c>
+      <c r="DX54" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="55" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -28808,8 +29016,11 @@
       <c r="DW55" s="15">
         <v>45</v>
       </c>
+      <c r="DX55" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="56" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -29188,8 +29399,11 @@
       <c r="DW56" s="15">
         <v>1</v>
       </c>
+      <c r="DX56" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -29568,8 +29782,11 @@
       <c r="DW57" s="15">
         <v>7</v>
       </c>
+      <c r="DX57" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="58" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -30047,7 +30264,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:DV58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:DX58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -30067,10 +30284,15 @@
         <v>6589</v>
       </c>
       <c r="DW58" s="14">
+        <f t="shared" si="10"/>
         <v>6747</v>
       </c>
+      <c r="DX58" s="14">
+        <f t="shared" si="10"/>
+        <v>6107</v>
+      </c>
     </row>
-    <row r="59" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -30154,7 +30376,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -30238,7 +30460,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:127" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -30323,11 +30545,7 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="DE2:DW2"/>
-    <mergeCell ref="DE3:DW3"/>
-    <mergeCell ref="DW4:DW5"/>
-    <mergeCell ref="DV4:DV5"/>
+  <mergeCells count="141">
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="DJ4:DJ5"/>
@@ -30347,31 +30565,15 @@
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="DS4:DS5"/>
-    <mergeCell ref="DR4:DR5"/>
-    <mergeCell ref="DQ4:DQ5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DH4:DH5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="DK4:DK5"/>
-    <mergeCell ref="CX4:CX5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="CQ4:CQ5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="DE2:DX2"/>
+    <mergeCell ref="DE3:DX3"/>
+    <mergeCell ref="DX4:DX5"/>
+    <mergeCell ref="DW4:DW5"/>
+    <mergeCell ref="DV4:DV5"/>
     <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AN4:AN5"/>
@@ -30395,7 +30597,7 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -30419,6 +30621,7 @@
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BN4:BN5"/>
@@ -30430,6 +30633,19 @@
     <mergeCell ref="CT4:CT5"/>
     <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="CX4:CX5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="DT4:DT5"/>
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
@@ -30440,6 +30656,13 @@
     <mergeCell ref="DA4:DA5"/>
     <mergeCell ref="CV4:CV5"/>
     <mergeCell ref="CW4:CW5"/>
+    <mergeCell ref="DS4:DS5"/>
+    <mergeCell ref="DR4:DR5"/>
+    <mergeCell ref="DQ4:DQ5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DH4:DH5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="DK4:DK5"/>
     <mergeCell ref="BD2:DD2"/>
     <mergeCell ref="BD3:CQ3"/>
     <mergeCell ref="BG4:BG5"/>
@@ -30476,7 +30699,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:DW57">
+  <conditionalFormatting sqref="DP6:DX57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -30493,13 +30716,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DW58"/>
+  <dimension ref="B1:DX58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DH49" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DW58" sqref="DW58"/>
+      <selection pane="bottomRight" activeCell="DX6" sqref="DX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30514,11 +30737,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="127" width="10.875" style="1" customWidth="1"/>
-    <col min="128" max="16384" width="8.625" style="1"/>
+    <col min="106" max="128" width="10.875" style="1" customWidth="1"/>
+    <col min="129" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:127" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:128" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="76" t="s">
         <v>336</v>
       </c>
@@ -30572,13 +30795,14 @@
       <c r="DT1" s="19"/>
       <c r="DU1" s="19"/>
       <c r="DV1" s="19"/>
-      <c r="DW1" s="19" t="s">
+      <c r="DW1" s="19"/>
+      <c r="DX1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="2:127" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+    <row r="2" spans="2:128" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="70" t="s">
         <v>248</v>
       </c>
@@ -30709,10 +30933,11 @@
       <c r="DU2" s="70"/>
       <c r="DV2" s="70"/>
       <c r="DW2" s="70"/>
+      <c r="DX2" s="70"/>
     </row>
-    <row r="3" spans="2:127" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
+    <row r="3" spans="2:128" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="75" t="s">
         <v>289</v>
       </c>
@@ -30847,8 +31072,9 @@
       <c r="DU3" s="51"/>
       <c r="DV3" s="51"/>
       <c r="DW3" s="51"/>
+      <c r="DX3" s="51"/>
     </row>
-    <row r="4" spans="2:127" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:128" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -31227,8 +31453,11 @@
       <c r="DW4" s="50" t="s">
         <v>373</v>
       </c>
+      <c r="DX4" s="50" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="5" spans="2:127" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:128" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="48"/>
@@ -31355,8 +31584,9 @@
       <c r="DU5" s="49"/>
       <c r="DV5" s="49"/>
       <c r="DW5" s="49"/>
+      <c r="DX5" s="49"/>
     </row>
-    <row r="6" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -31735,8 +31965,11 @@
       <c r="DW6" s="28">
         <v>183</v>
       </c>
+      <c r="DX6" s="28">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -32115,8 +32348,11 @@
       <c r="DW7" s="15">
         <v>0</v>
       </c>
+      <c r="DX7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -32495,8 +32731,11 @@
       <c r="DW8" s="28">
         <v>7</v>
       </c>
+      <c r="DX8" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -32875,8 +33114,11 @@
       <c r="DW9" s="15">
         <v>72</v>
       </c>
+      <c r="DX9" s="15">
+        <v>68</v>
+      </c>
     </row>
-    <row r="10" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -33255,8 +33497,11 @@
       <c r="DW10" s="15">
         <v>0</v>
       </c>
+      <c r="DX10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -33635,8 +33880,11 @@
       <c r="DW11" s="15">
         <v>11</v>
       </c>
+      <c r="DX11" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -34015,8 +34263,11 @@
       <c r="DW12" s="15">
         <v>2</v>
       </c>
+      <c r="DX12" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -34395,8 +34646,11 @@
       <c r="DW13" s="15">
         <v>14</v>
       </c>
+      <c r="DX13" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="14" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -34775,8 +35029,11 @@
       <c r="DW14" s="15">
         <v>10</v>
       </c>
+      <c r="DX14" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -35155,8 +35412,11 @@
       <c r="DW15" s="15">
         <v>0</v>
       </c>
+      <c r="DX15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -35535,8 +35795,11 @@
       <c r="DW16" s="28">
         <v>73</v>
       </c>
+      <c r="DX16" s="28">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35915,8 +36178,11 @@
       <c r="DW17" s="15">
         <v>160</v>
       </c>
+      <c r="DX17" s="15">
+        <v>161</v>
+      </c>
     </row>
-    <row r="18" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -36295,8 +36561,11 @@
       <c r="DW18" s="34">
         <v>1837</v>
       </c>
+      <c r="DX18" s="34">
+        <v>1645</v>
+      </c>
     </row>
-    <row r="19" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66" t="s">
         <v>27</v>
       </c>
@@ -36675,8 +36944,11 @@
       <c r="DW19" s="15">
         <v>99</v>
       </c>
+      <c r="DX19" s="15">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -37053,8 +37325,11 @@
       <c r="DW20" s="28">
         <v>373</v>
       </c>
+      <c r="DX20" s="28">
+        <v>401</v>
+      </c>
     </row>
-    <row r="21" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -37431,8 +37706,11 @@
       <c r="DW21" s="15">
         <v>53</v>
       </c>
+      <c r="DX21" s="15">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -37811,8 +38089,11 @@
       <c r="DW22" s="15">
         <v>12</v>
       </c>
+      <c r="DX22" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -38191,8 +38472,11 @@
       <c r="DW23" s="15">
         <v>2</v>
       </c>
+      <c r="DX23" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -38571,8 +38855,11 @@
       <c r="DW24" s="15">
         <v>3</v>
       </c>
+      <c r="DX24" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -38951,8 +39238,11 @@
       <c r="DW25" s="15">
         <v>0</v>
       </c>
+      <c r="DX25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -39331,8 +39621,11 @@
       <c r="DW26" s="15">
         <v>6</v>
       </c>
+      <c r="DX26" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -39711,8 +40004,11 @@
       <c r="DW27" s="15">
         <v>0</v>
       </c>
+      <c r="DX27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -40091,8 +40387,11 @@
       <c r="DW28" s="15">
         <v>1</v>
       </c>
+      <c r="DX28" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="67" t="s">
         <v>45</v>
       </c>
@@ -40471,8 +40770,11 @@
       <c r="DW29" s="15">
         <v>4</v>
       </c>
+      <c r="DX29" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -40849,8 +41151,11 @@
       <c r="DW30" s="15">
         <v>5</v>
       </c>
+      <c r="DX30" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -41229,8 +41534,11 @@
       <c r="DW31" s="15">
         <v>30</v>
       </c>
+      <c r="DX31" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="32" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -41609,8 +41917,11 @@
       <c r="DW32" s="15">
         <v>2</v>
       </c>
+      <c r="DX32" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -41989,8 +42300,11 @@
       <c r="DW33" s="15">
         <v>1</v>
       </c>
+      <c r="DX33" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -42369,8 +42683,11 @@
       <c r="DW34" s="15">
         <v>38</v>
       </c>
+      <c r="DX34" s="15">
+        <v>35</v>
+      </c>
     </row>
-    <row r="35" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
         <v>56</v>
       </c>
@@ -42749,8 +43066,11 @@
       <c r="DW35" s="15">
         <v>282</v>
       </c>
+      <c r="DX35" s="15">
+        <v>268</v>
+      </c>
     </row>
-    <row r="36" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="66"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -43127,8 +43447,11 @@
       <c r="DW36" s="28">
         <v>27</v>
       </c>
+      <c r="DX36" s="28">
+        <v>16</v>
+      </c>
     </row>
-    <row r="37" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -43507,8 +43830,11 @@
       <c r="DW37" s="15">
         <v>26</v>
       </c>
+      <c r="DX37" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="38" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -43887,8 +44213,11 @@
       <c r="DW38" s="15">
         <v>7</v>
       </c>
+      <c r="DX38" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -44267,8 +44596,11 @@
       <c r="DW39" s="15">
         <v>5</v>
       </c>
+      <c r="DX39" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -44647,8 +44979,11 @@
       <c r="DW40" s="15">
         <v>0</v>
       </c>
+      <c r="DX40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -45027,8 +45362,11 @@
       <c r="DW41" s="15">
         <v>0</v>
       </c>
+      <c r="DX41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -45407,8 +45745,11 @@
       <c r="DW42" s="15">
         <v>7</v>
       </c>
+      <c r="DX42" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="43" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -45787,8 +46128,11 @@
       <c r="DW43" s="28">
         <v>37</v>
       </c>
+      <c r="DX43" s="28">
+        <v>47</v>
+      </c>
     </row>
-    <row r="44" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -46167,8 +46511,11 @@
       <c r="DW44" s="15">
         <v>5</v>
       </c>
+      <c r="DX44" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -46547,8 +46894,11 @@
       <c r="DW45" s="15">
         <v>2</v>
       </c>
+      <c r="DX45" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="46" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -46927,8 +47277,11 @@
       <c r="DW46" s="15">
         <v>11</v>
       </c>
+      <c r="DX46" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="47" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -47307,8 +47660,11 @@
       <c r="DW47" s="15">
         <v>1</v>
       </c>
+      <c r="DX47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -47687,8 +48043,11 @@
       <c r="DW48" s="15">
         <v>5</v>
       </c>
+      <c r="DX48" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66" t="s">
         <v>83</v>
       </c>
@@ -48067,8 +48426,11 @@
       <c r="DW49" s="15">
         <v>55</v>
       </c>
+      <c r="DX49" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="50" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -48445,8 +48807,11 @@
       <c r="DW50" s="15">
         <v>10</v>
       </c>
+      <c r="DX50" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -48825,8 +49190,11 @@
       <c r="DW51" s="15">
         <v>3</v>
       </c>
+      <c r="DX51" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -49205,8 +49573,11 @@
       <c r="DW52" s="15">
         <v>9</v>
       </c>
+      <c r="DX52" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="53" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -49585,8 +49956,11 @@
       <c r="DW53" s="15">
         <v>20</v>
       </c>
+      <c r="DX53" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="54" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -49965,8 +50339,11 @@
       <c r="DW54" s="15">
         <v>7</v>
       </c>
+      <c r="DX54" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="55" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -50345,8 +50722,11 @@
       <c r="DW55" s="15">
         <v>8</v>
       </c>
+      <c r="DX55" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="56" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -50725,8 +51105,11 @@
       <c r="DW56" s="15">
         <v>4</v>
       </c>
+      <c r="DX56" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -51105,8 +51488,11 @@
       <c r="DW57" s="15">
         <v>1</v>
       </c>
+      <c r="DX57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -51575,7 +51961,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:DV58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:DX58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -51603,13 +51989,16 @@
         <v>2899</v>
       </c>
       <c r="DW58" s="14">
+        <f t="shared" si="8"/>
         <v>3530</v>
+      </c>
+      <c r="DX58" s="14">
+        <f t="shared" si="8"/>
+        <v>3305</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="DD2:DW2"/>
-    <mergeCell ref="DD3:DW3"/>
+  <mergeCells count="141">
     <mergeCell ref="DW4:DW5"/>
     <mergeCell ref="DU4:DU5"/>
     <mergeCell ref="DM4:DM5"/>
@@ -51625,6 +52014,9 @@
     <mergeCell ref="DQ4:DQ5"/>
     <mergeCell ref="DT4:DT5"/>
     <mergeCell ref="DV4:DV5"/>
+    <mergeCell ref="DD2:DX2"/>
+    <mergeCell ref="DD3:DX3"/>
+    <mergeCell ref="DX4:DX5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="CO4:CO5"/>
     <mergeCell ref="CM4:CM5"/>
@@ -51782,7 +52174,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:DW57</xm:sqref>
+          <xm:sqref>DP6:DX57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -51792,13 +52184,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW61"/>
+  <dimension ref="A1:BX61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BD6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BU6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD3" sqref="BD3:BW3"/>
+      <selection pane="bottomRight" activeCell="BX4" sqref="BX4:BX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -51811,11 +52203,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="75" width="10.875" style="1" customWidth="1"/>
-    <col min="76" max="16384" width="8.625" style="1"/>
+    <col min="54" max="76" width="10.875" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:76" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -51865,13 +52257,14 @@
       <c r="BT1" s="19"/>
       <c r="BU1" s="19"/>
       <c r="BV1" s="19"/>
-      <c r="BW1" s="19" t="s">
+      <c r="BW1" s="19"/>
+      <c r="BX1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+    <row r="2" spans="1:76" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="71" t="s">
         <v>249</v>
       </c>
@@ -51948,10 +52341,11 @@
       <c r="BU2" s="70"/>
       <c r="BV2" s="70"/>
       <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
     </row>
-    <row r="3" spans="1:75" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
+    <row r="3" spans="1:76" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="75" t="s">
         <v>218</v>
       </c>
@@ -52030,8 +52424,9 @@
       <c r="BU3" s="51"/>
       <c r="BV3" s="51"/>
       <c r="BW3" s="51"/>
+      <c r="BX3" s="51"/>
     </row>
-    <row r="4" spans="1:75" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:76" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -52254,8 +52649,11 @@
       <c r="BW4" s="50" t="s">
         <v>374</v>
       </c>
+      <c r="BX4" s="50" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:76" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="47"/>
@@ -52330,8 +52728,9 @@
       <c r="BU5" s="49"/>
       <c r="BV5" s="49"/>
       <c r="BW5" s="49"/>
+      <c r="BX5" s="49"/>
     </row>
-    <row r="6" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -52555,8 +52954,11 @@
       <c r="BW6" s="28">
         <v>91</v>
       </c>
+      <c r="BX6" s="28">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -52779,8 +53181,11 @@
       <c r="BW7" s="15">
         <v>1</v>
       </c>
+      <c r="BX7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -53003,8 +53408,11 @@
       <c r="BW8" s="28">
         <v>1</v>
       </c>
+      <c r="BX8" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -53228,8 +53636,11 @@
       <c r="BW9" s="15">
         <v>39</v>
       </c>
+      <c r="BX9" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -53452,8 +53863,11 @@
       <c r="BW10" s="15">
         <v>1</v>
       </c>
+      <c r="BX10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -53676,8 +54090,11 @@
       <c r="BW11" s="15">
         <v>9</v>
       </c>
+      <c r="BX11" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -53900,8 +54317,11 @@
       <c r="BW12" s="15">
         <v>4</v>
       </c>
+      <c r="BX12" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -54124,8 +54544,11 @@
       <c r="BW13" s="15">
         <v>25</v>
       </c>
+      <c r="BX13" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -54348,8 +54771,11 @@
       <c r="BW14" s="15">
         <v>19</v>
       </c>
+      <c r="BX14" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -54572,8 +54998,11 @@
       <c r="BW15" s="15">
         <v>0</v>
       </c>
+      <c r="BX15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -54797,8 +55226,11 @@
       <c r="BW16" s="28">
         <v>38</v>
       </c>
+      <c r="BX16" s="28">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -55021,8 +55453,11 @@
       <c r="BW17" s="15">
         <v>151</v>
       </c>
+      <c r="BX17" s="15">
+        <v>153</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -55246,8 +55681,11 @@
       <c r="BW18" s="34">
         <v>933</v>
       </c>
+      <c r="BX18" s="34">
+        <v>780</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -55471,8 +55909,11 @@
       <c r="BW19" s="15">
         <v>88</v>
       </c>
+      <c r="BX19" s="15">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -55694,8 +56135,11 @@
       <c r="BW20" s="28">
         <v>277</v>
       </c>
+      <c r="BX20" s="28">
+        <v>287</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -55917,8 +56361,11 @@
       <c r="BW21" s="15">
         <v>34</v>
       </c>
+      <c r="BX21" s="15">
+        <v>39</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -56141,8 +56588,11 @@
       <c r="BW22" s="15">
         <v>15</v>
       </c>
+      <c r="BX22" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -56365,8 +56815,11 @@
       <c r="BW23" s="15">
         <v>0</v>
       </c>
+      <c r="BX23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -56589,8 +57042,11 @@
       <c r="BW24" s="15">
         <v>8</v>
       </c>
+      <c r="BX24" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -56813,8 +57269,11 @@
       <c r="BW25" s="15">
         <v>3</v>
       </c>
+      <c r="BX25" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -57037,8 +57496,11 @@
       <c r="BW26" s="15">
         <v>14</v>
       </c>
+      <c r="BX26" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -57261,8 +57723,11 @@
       <c r="BW27" s="15">
         <v>2</v>
       </c>
+      <c r="BX27" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -57485,8 +57950,11 @@
       <c r="BW28" s="15">
         <v>4</v>
       </c>
+      <c r="BX28" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -57709,8 +58177,11 @@
       <c r="BW29" s="15">
         <v>13</v>
       </c>
+      <c r="BX29" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -57931,8 +58402,11 @@
       <c r="BW30" s="15">
         <v>27</v>
       </c>
+      <c r="BX30" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="31" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -58156,8 +58630,11 @@
       <c r="BW31" s="15">
         <v>187</v>
       </c>
+      <c r="BX31" s="15">
+        <v>116</v>
+      </c>
     </row>
-    <row r="32" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -58380,8 +58857,11 @@
       <c r="BW32" s="15">
         <v>2</v>
       </c>
+      <c r="BX32" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -58604,8 +59084,11 @@
       <c r="BW33" s="15">
         <v>0</v>
       </c>
+      <c r="BX33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -58829,8 +59312,11 @@
       <c r="BW34" s="15">
         <v>61</v>
       </c>
+      <c r="BX34" s="15">
+        <v>55</v>
+      </c>
     </row>
-    <row r="35" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -59054,8 +59540,11 @@
       <c r="BW35" s="15">
         <v>195</v>
       </c>
+      <c r="BX35" s="15">
+        <v>192</v>
+      </c>
     </row>
-    <row r="36" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -59276,8 +59765,11 @@
       <c r="BW36" s="28">
         <v>88</v>
       </c>
+      <c r="BX36" s="28">
+        <v>75</v>
+      </c>
     </row>
-    <row r="37" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -59501,8 +59993,11 @@
       <c r="BW37" s="15">
         <v>88</v>
       </c>
+      <c r="BX37" s="15">
+        <v>64</v>
+      </c>
     </row>
-    <row r="38" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -59725,8 +60220,11 @@
       <c r="BW38" s="15">
         <v>27</v>
       </c>
+      <c r="BX38" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="39" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -59949,8 +60447,11 @@
       <c r="BW39" s="15">
         <v>10</v>
       </c>
+      <c r="BX39" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -60173,8 +60674,11 @@
       <c r="BW40" s="15">
         <v>0</v>
       </c>
+      <c r="BX40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -60397,8 +60901,11 @@
       <c r="BW41" s="15">
         <v>0</v>
       </c>
+      <c r="BX41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -60621,8 +61128,11 @@
       <c r="BW42" s="15">
         <v>17</v>
       </c>
+      <c r="BX42" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="43" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -60845,8 +61355,11 @@
       <c r="BW43" s="28">
         <v>66</v>
       </c>
+      <c r="BX43" s="28">
+        <v>77</v>
+      </c>
     </row>
-    <row r="44" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -61069,8 +61582,11 @@
       <c r="BW44" s="15">
         <v>4</v>
       </c>
+      <c r="BX44" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="45" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -61293,8 +61809,11 @@
       <c r="BW45" s="15">
         <v>18</v>
       </c>
+      <c r="BX45" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="46" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -61517,8 +62036,11 @@
       <c r="BW46" s="15">
         <v>20</v>
       </c>
+      <c r="BX46" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="47" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -61741,8 +62263,11 @@
       <c r="BW47" s="15">
         <v>4</v>
       </c>
+      <c r="BX47" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -61965,8 +62490,11 @@
       <c r="BW48" s="15">
         <v>47</v>
       </c>
+      <c r="BX48" s="15">
+        <v>34</v>
+      </c>
     </row>
-    <row r="49" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -62190,8 +62718,11 @@
       <c r="BW49" s="15">
         <v>76</v>
       </c>
+      <c r="BX49" s="15">
+        <v>66</v>
+      </c>
     </row>
-    <row r="50" spans="1:75" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -62412,8 +62943,11 @@
       <c r="BW50" s="15">
         <v>51</v>
       </c>
+      <c r="BX50" s="15">
+        <v>46</v>
+      </c>
     </row>
-    <row r="51" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -62636,8 +63170,11 @@
       <c r="BW51" s="15">
         <v>0</v>
       </c>
+      <c r="BX51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -62860,8 +63397,11 @@
       <c r="BW52" s="15">
         <v>11</v>
       </c>
+      <c r="BX52" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="53" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -63084,8 +63624,11 @@
       <c r="BW53" s="15">
         <v>38</v>
       </c>
+      <c r="BX53" s="15">
+        <v>24</v>
+      </c>
     </row>
-    <row r="54" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -63308,8 +63851,11 @@
       <c r="BW54" s="15">
         <v>10</v>
       </c>
+      <c r="BX54" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="55" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -63532,8 +64078,11 @@
       <c r="BW55" s="15">
         <v>16</v>
       </c>
+      <c r="BX55" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="56" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -63756,8 +64305,11 @@
       <c r="BW56" s="15">
         <v>0</v>
       </c>
+      <c r="BX56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -63980,8 +64532,11 @@
       <c r="BW57" s="15">
         <v>3</v>
       </c>
+      <c r="BX57" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -64251,7 +64806,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BV58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BX58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -64271,10 +64826,15 @@
         <v>2873</v>
       </c>
       <c r="BW58" s="14">
+        <f t="shared" si="8"/>
         <v>2836</v>
       </c>
+      <c r="BX58" s="14">
+        <f t="shared" si="8"/>
+        <v>2495</v>
+      </c>
     </row>
-    <row r="59" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -64307,7 +64867,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -64340,7 +64900,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:75" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -64374,24 +64934,37 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="BD2:BW2"/>
-    <mergeCell ref="BD3:BW3"/>
+  <mergeCells count="85">
+    <mergeCell ref="BD2:BX2"/>
+    <mergeCell ref="BD3:BX3"/>
+    <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -64424,16 +64997,16 @@
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -64444,28 +65017,16 @@
     <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BH4:BH5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="75" max="66" man="1"/>
+    <brk id="76" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -64482,7 +65043,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BW57</xm:sqref>
+          <xm:sqref>BP6:BX57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -64492,13 +65053,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB61"/>
+  <dimension ref="A1:CC61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BL6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BW4" sqref="BW4:BW5"/>
+      <selection pane="bottomRight" activeCell="BD3" sqref="BD3:BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -64509,11 +65070,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="80" width="10.875" style="1" customWidth="1"/>
-    <col min="81" max="16384" width="8.625" style="1"/>
+    <col min="34" max="81" width="10.875" style="1" customWidth="1"/>
+    <col min="82" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:81" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -64563,13 +65124,14 @@
       <c r="BT1" s="19"/>
       <c r="BU1" s="19"/>
       <c r="BV1" s="19"/>
-      <c r="BW1" s="19" t="s">
+      <c r="BW1" s="19"/>
+      <c r="BX1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:80" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+    <row r="2" spans="1:81" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="71" t="s">
         <v>250</v>
       </c>
@@ -64646,15 +65208,16 @@
       <c r="BU2" s="70"/>
       <c r="BV2" s="70"/>
       <c r="BW2" s="70"/>
-      <c r="BX2" s="20"/>
+      <c r="BX2" s="70"/>
       <c r="BY2" s="20"/>
       <c r="BZ2" s="20"/>
       <c r="CA2" s="20"/>
       <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
     </row>
-    <row r="3" spans="1:80" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
+    <row r="3" spans="1:81" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="75" t="s">
         <v>218</v>
       </c>
@@ -64733,13 +65296,14 @@
       <c r="BU3" s="51"/>
       <c r="BV3" s="51"/>
       <c r="BW3" s="51"/>
-      <c r="BX3" s="21"/>
+      <c r="BX3" s="51"/>
       <c r="BY3" s="21"/>
       <c r="BZ3" s="21"/>
       <c r="CA3" s="21"/>
       <c r="CB3" s="21"/>
+      <c r="CC3" s="21"/>
     </row>
-    <row r="4" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:81" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -64962,13 +65526,16 @@
       <c r="BW4" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="BX4" s="83"/>
+      <c r="BX4" s="50" t="s">
+        <v>377</v>
+      </c>
       <c r="BY4" s="83"/>
       <c r="BZ4" s="83"/>
       <c r="CA4" s="83"/>
       <c r="CB4" s="83"/>
+      <c r="CC4" s="83"/>
     </row>
-    <row r="5" spans="1:80" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:81" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="69"/>
       <c r="D5" s="47"/>
@@ -65043,13 +65610,14 @@
       <c r="BU5" s="50"/>
       <c r="BV5" s="50"/>
       <c r="BW5" s="50"/>
-      <c r="BX5" s="83"/>
+      <c r="BX5" s="50"/>
       <c r="BY5" s="83"/>
       <c r="BZ5" s="83"/>
       <c r="CA5" s="83"/>
       <c r="CB5" s="83"/>
+      <c r="CC5" s="83"/>
     </row>
-    <row r="6" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -65273,13 +65841,16 @@
       <c r="BW6" s="28">
         <v>116</v>
       </c>
-      <c r="BX6" s="22"/>
+      <c r="BX6" s="28">
+        <v>110</v>
+      </c>
       <c r="BY6" s="22"/>
       <c r="BZ6" s="22"/>
       <c r="CA6" s="22"/>
       <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
     </row>
-    <row r="7" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -65502,13 +66073,16 @@
       <c r="BW7" s="15">
         <v>1</v>
       </c>
-      <c r="BX7" s="23"/>
+      <c r="BX7" s="15">
+        <v>0</v>
+      </c>
       <c r="BY7" s="23"/>
       <c r="BZ7" s="23"/>
       <c r="CA7" s="23"/>
       <c r="CB7" s="23"/>
+      <c r="CC7" s="23"/>
     </row>
-    <row r="8" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -65731,13 +66305,16 @@
       <c r="BW8" s="28">
         <v>21</v>
       </c>
-      <c r="BX8" s="23"/>
+      <c r="BX8" s="28">
+        <v>18</v>
+      </c>
       <c r="BY8" s="23"/>
       <c r="BZ8" s="23"/>
       <c r="CA8" s="23"/>
       <c r="CB8" s="23"/>
+      <c r="CC8" s="23"/>
     </row>
-    <row r="9" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -65961,13 +66538,16 @@
       <c r="BW9" s="15">
         <v>182</v>
       </c>
-      <c r="BX9" s="23"/>
+      <c r="BX9" s="15">
+        <v>132</v>
+      </c>
       <c r="BY9" s="23"/>
       <c r="BZ9" s="23"/>
       <c r="CA9" s="23"/>
       <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
     </row>
-    <row r="10" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -66190,13 +66770,16 @@
       <c r="BW10" s="15">
         <v>2</v>
       </c>
-      <c r="BX10" s="23"/>
+      <c r="BX10" s="15">
+        <v>1</v>
+      </c>
       <c r="BY10" s="23"/>
       <c r="BZ10" s="23"/>
       <c r="CA10" s="23"/>
       <c r="CB10" s="23"/>
+      <c r="CC10" s="23"/>
     </row>
-    <row r="11" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -66419,13 +67002,16 @@
       <c r="BW11" s="15">
         <v>14</v>
       </c>
-      <c r="BX11" s="23"/>
+      <c r="BX11" s="15">
+        <v>5</v>
+      </c>
       <c r="BY11" s="23"/>
       <c r="BZ11" s="23"/>
       <c r="CA11" s="23"/>
       <c r="CB11" s="23"/>
+      <c r="CC11" s="23"/>
     </row>
-    <row r="12" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -66648,13 +67234,16 @@
       <c r="BW12" s="15">
         <v>12</v>
       </c>
-      <c r="BX12" s="23"/>
+      <c r="BX12" s="15">
+        <v>12</v>
+      </c>
       <c r="BY12" s="23"/>
       <c r="BZ12" s="23"/>
       <c r="CA12" s="23"/>
       <c r="CB12" s="23"/>
+      <c r="CC12" s="23"/>
     </row>
-    <row r="13" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -66877,13 +67466,16 @@
       <c r="BW13" s="15">
         <v>15</v>
       </c>
-      <c r="BX13" s="22"/>
+      <c r="BX13" s="15">
+        <v>15</v>
+      </c>
       <c r="BY13" s="22"/>
       <c r="BZ13" s="22"/>
       <c r="CA13" s="22"/>
       <c r="CB13" s="22"/>
+      <c r="CC13" s="22"/>
     </row>
-    <row r="14" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -67106,13 +67698,16 @@
       <c r="BW14" s="15">
         <v>23</v>
       </c>
-      <c r="BX14" s="23"/>
+      <c r="BX14" s="15">
+        <v>11</v>
+      </c>
       <c r="BY14" s="23"/>
       <c r="BZ14" s="23"/>
       <c r="CA14" s="23"/>
       <c r="CB14" s="23"/>
+      <c r="CC14" s="23"/>
     </row>
-    <row r="15" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -67335,13 +67930,16 @@
       <c r="BW15" s="15">
         <v>2</v>
       </c>
-      <c r="BX15" s="23"/>
+      <c r="BX15" s="15">
+        <v>3</v>
+      </c>
       <c r="BY15" s="23"/>
       <c r="BZ15" s="23"/>
       <c r="CA15" s="23"/>
       <c r="CB15" s="23"/>
+      <c r="CC15" s="23"/>
     </row>
-    <row r="16" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -67565,13 +68163,16 @@
       <c r="BW16" s="28">
         <v>192</v>
       </c>
-      <c r="BX16" s="22"/>
+      <c r="BX16" s="28">
+        <v>193</v>
+      </c>
       <c r="BY16" s="22"/>
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
+      <c r="CC16" s="22"/>
     </row>
-    <row r="17" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -67794,13 +68395,16 @@
       <c r="BW17" s="15">
         <v>122</v>
       </c>
-      <c r="BX17" s="22"/>
+      <c r="BX17" s="15">
+        <v>98</v>
+      </c>
       <c r="BY17" s="22"/>
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
       <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
     </row>
-    <row r="18" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -68024,13 +68628,16 @@
       <c r="BW18" s="34">
         <v>1923</v>
       </c>
-      <c r="BX18" s="22"/>
+      <c r="BX18" s="34">
+        <v>1760</v>
+      </c>
       <c r="BY18" s="22"/>
       <c r="BZ18" s="22"/>
       <c r="CA18" s="22"/>
       <c r="CB18" s="22"/>
+      <c r="CC18" s="22"/>
     </row>
-    <row r="19" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="78" t="s">
         <v>27</v>
@@ -68254,13 +68861,16 @@
       <c r="BW19" s="15">
         <v>36</v>
       </c>
-      <c r="BX19" s="22"/>
+      <c r="BX19" s="15">
+        <v>31</v>
+      </c>
       <c r="BY19" s="22"/>
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
       <c r="CB19" s="22"/>
+      <c r="CC19" s="22"/>
     </row>
-    <row r="20" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="82"/>
       <c r="C20" s="9" t="s">
@@ -68482,13 +69092,16 @@
       <c r="BW20" s="28">
         <v>124</v>
       </c>
-      <c r="BX20" s="22"/>
+      <c r="BX20" s="28">
+        <v>122</v>
+      </c>
       <c r="BY20" s="22"/>
       <c r="BZ20" s="22"/>
       <c r="CA20" s="22"/>
       <c r="CB20" s="22"/>
+      <c r="CC20" s="22"/>
     </row>
-    <row r="21" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="79"/>
       <c r="C21" s="9" t="s">
@@ -68710,13 +69323,16 @@
       <c r="BW21" s="15">
         <v>19</v>
       </c>
-      <c r="BX21" s="22"/>
+      <c r="BX21" s="15">
+        <v>33</v>
+      </c>
       <c r="BY21" s="22"/>
       <c r="BZ21" s="22"/>
       <c r="CA21" s="22"/>
       <c r="CB21" s="22"/>
+      <c r="CC21" s="22"/>
     </row>
-    <row r="22" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -68939,13 +69555,16 @@
       <c r="BW22" s="15">
         <v>3</v>
       </c>
-      <c r="BX22" s="23"/>
+      <c r="BX22" s="15">
+        <v>5</v>
+      </c>
       <c r="BY22" s="23"/>
       <c r="BZ22" s="23"/>
       <c r="CA22" s="23"/>
       <c r="CB22" s="23"/>
+      <c r="CC22" s="23"/>
     </row>
-    <row r="23" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -69168,13 +69787,16 @@
       <c r="BW23" s="15">
         <v>0</v>
       </c>
-      <c r="BX23" s="23"/>
+      <c r="BX23" s="15">
+        <v>1</v>
+      </c>
       <c r="BY23" s="23"/>
       <c r="BZ23" s="23"/>
       <c r="CA23" s="23"/>
       <c r="CB23" s="23"/>
+      <c r="CC23" s="23"/>
     </row>
-    <row r="24" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -69397,13 +70019,16 @@
       <c r="BW24" s="15">
         <v>15</v>
       </c>
-      <c r="BX24" s="22"/>
+      <c r="BX24" s="15">
+        <v>14</v>
+      </c>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="22"/>
       <c r="CA24" s="22"/>
       <c r="CB24" s="22"/>
+      <c r="CC24" s="22"/>
     </row>
-    <row r="25" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -69626,13 +70251,16 @@
       <c r="BW25" s="15">
         <v>0</v>
       </c>
-      <c r="BX25" s="23"/>
+      <c r="BX25" s="15">
+        <v>1</v>
+      </c>
       <c r="BY25" s="23"/>
       <c r="BZ25" s="23"/>
       <c r="CA25" s="23"/>
       <c r="CB25" s="23"/>
+      <c r="CC25" s="23"/>
     </row>
-    <row r="26" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -69855,13 +70483,16 @@
       <c r="BW26" s="15">
         <v>11</v>
       </c>
-      <c r="BX26" s="23"/>
+      <c r="BX26" s="15">
+        <v>8</v>
+      </c>
       <c r="BY26" s="23"/>
       <c r="BZ26" s="23"/>
       <c r="CA26" s="23"/>
       <c r="CB26" s="23"/>
+      <c r="CC26" s="23"/>
     </row>
-    <row r="27" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -70084,13 +70715,16 @@
       <c r="BW27" s="15">
         <v>0</v>
       </c>
-      <c r="BX27" s="23"/>
+      <c r="BX27" s="15">
+        <v>0</v>
+      </c>
       <c r="BY27" s="23"/>
       <c r="BZ27" s="23"/>
       <c r="CA27" s="23"/>
       <c r="CB27" s="23"/>
+      <c r="CC27" s="23"/>
     </row>
-    <row r="28" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -70313,13 +70947,16 @@
       <c r="BW28" s="15">
         <v>4</v>
       </c>
-      <c r="BX28" s="22"/>
+      <c r="BX28" s="15">
+        <v>2</v>
+      </c>
       <c r="BY28" s="22"/>
       <c r="BZ28" s="22"/>
       <c r="CA28" s="22"/>
       <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
     </row>
-    <row r="29" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="80" t="s">
         <v>45</v>
       </c>
@@ -70542,13 +71179,16 @@
       <c r="BW29" s="15">
         <v>4</v>
       </c>
-      <c r="BX29" s="23"/>
+      <c r="BX29" s="15">
+        <v>7</v>
+      </c>
       <c r="BY29" s="23"/>
       <c r="BZ29" s="23"/>
       <c r="CA29" s="23"/>
       <c r="CB29" s="23"/>
+      <c r="CC29" s="23"/>
     </row>
-    <row r="30" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="81"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -70769,13 +71409,16 @@
       <c r="BW30" s="15">
         <v>17</v>
       </c>
-      <c r="BX30" s="23"/>
+      <c r="BX30" s="15">
+        <v>16</v>
+      </c>
       <c r="BY30" s="23"/>
       <c r="BZ30" s="23"/>
       <c r="CA30" s="23"/>
       <c r="CB30" s="23"/>
+      <c r="CC30" s="23"/>
     </row>
-    <row r="31" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -70999,13 +71642,16 @@
       <c r="BW31" s="15">
         <v>86</v>
       </c>
-      <c r="BX31" s="22"/>
+      <c r="BX31" s="15">
+        <v>55</v>
+      </c>
       <c r="BY31" s="22"/>
       <c r="BZ31" s="22"/>
       <c r="CA31" s="22"/>
       <c r="CB31" s="22"/>
+      <c r="CC31" s="22"/>
     </row>
-    <row r="32" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -71228,13 +71874,16 @@
       <c r="BW32" s="15">
         <v>0</v>
       </c>
-      <c r="BX32" s="23"/>
+      <c r="BX32" s="15">
+        <v>1</v>
+      </c>
       <c r="BY32" s="23"/>
       <c r="BZ32" s="23"/>
       <c r="CA32" s="23"/>
       <c r="CB32" s="23"/>
+      <c r="CC32" s="23"/>
     </row>
-    <row r="33" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -71457,13 +72106,16 @@
       <c r="BW33" s="15">
         <v>0</v>
       </c>
-      <c r="BX33" s="23"/>
+      <c r="BX33" s="15">
+        <v>0</v>
+      </c>
       <c r="BY33" s="23"/>
       <c r="BZ33" s="23"/>
       <c r="CA33" s="23"/>
       <c r="CB33" s="23"/>
+      <c r="CC33" s="23"/>
     </row>
-    <row r="34" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -71687,13 +72339,16 @@
       <c r="BW34" s="15">
         <v>114</v>
       </c>
-      <c r="BX34" s="22"/>
+      <c r="BX34" s="15">
+        <v>90</v>
+      </c>
       <c r="BY34" s="22"/>
       <c r="BZ34" s="22"/>
       <c r="CA34" s="22"/>
       <c r="CB34" s="22"/>
+      <c r="CC34" s="22"/>
     </row>
-    <row r="35" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="78" t="s">
         <v>56</v>
@@ -71917,13 +72572,16 @@
       <c r="BW35" s="15">
         <v>365</v>
       </c>
-      <c r="BX35" s="22"/>
+      <c r="BX35" s="15">
+        <v>383</v>
+      </c>
       <c r="BY35" s="22"/>
       <c r="BZ35" s="22"/>
       <c r="CA35" s="22"/>
       <c r="CB35" s="22"/>
+      <c r="CC35" s="22"/>
     </row>
-    <row r="36" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="79"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -72144,13 +72802,16 @@
       <c r="BW36" s="28">
         <v>34</v>
       </c>
-      <c r="BX36" s="22"/>
+      <c r="BX36" s="28">
+        <v>39</v>
+      </c>
       <c r="BY36" s="22"/>
       <c r="BZ36" s="22"/>
       <c r="CA36" s="22"/>
       <c r="CB36" s="22"/>
+      <c r="CC36" s="22"/>
     </row>
-    <row r="37" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -72374,13 +73035,16 @@
       <c r="BW37" s="15">
         <v>108</v>
       </c>
-      <c r="BX37" s="22"/>
+      <c r="BX37" s="15">
+        <v>83</v>
+      </c>
       <c r="BY37" s="22"/>
       <c r="BZ37" s="22"/>
       <c r="CA37" s="22"/>
       <c r="CB37" s="22"/>
+      <c r="CC37" s="22"/>
     </row>
-    <row r="38" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -72603,13 +73267,16 @@
       <c r="BW38" s="15">
         <v>15</v>
       </c>
-      <c r="BX38" s="23"/>
+      <c r="BX38" s="15">
+        <v>16</v>
+      </c>
       <c r="BY38" s="23"/>
       <c r="BZ38" s="23"/>
       <c r="CA38" s="23"/>
       <c r="CB38" s="23"/>
+      <c r="CC38" s="23"/>
     </row>
-    <row r="39" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -72832,13 +73499,16 @@
       <c r="BW39" s="15">
         <v>10</v>
       </c>
-      <c r="BX39" s="23"/>
+      <c r="BX39" s="15">
+        <v>10</v>
+      </c>
       <c r="BY39" s="23"/>
       <c r="BZ39" s="23"/>
       <c r="CA39" s="23"/>
       <c r="CB39" s="23"/>
+      <c r="CC39" s="23"/>
     </row>
-    <row r="40" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -73061,13 +73731,16 @@
       <c r="BW40" s="15">
         <v>0</v>
       </c>
-      <c r="BX40" s="23"/>
+      <c r="BX40" s="15">
+        <v>0</v>
+      </c>
       <c r="BY40" s="23"/>
       <c r="BZ40" s="23"/>
       <c r="CA40" s="23"/>
       <c r="CB40" s="23"/>
+      <c r="CC40" s="23"/>
     </row>
-    <row r="41" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -73290,13 +73963,16 @@
       <c r="BW41" s="15">
         <v>0</v>
       </c>
-      <c r="BX41" s="23"/>
+      <c r="BX41" s="15">
+        <v>0</v>
+      </c>
       <c r="BY41" s="23"/>
       <c r="BZ41" s="23"/>
       <c r="CA41" s="23"/>
       <c r="CB41" s="23"/>
+      <c r="CC41" s="23"/>
     </row>
-    <row r="42" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -73519,13 +74195,16 @@
       <c r="BW42" s="15">
         <v>12</v>
       </c>
-      <c r="BX42" s="23"/>
+      <c r="BX42" s="15">
+        <v>9</v>
+      </c>
       <c r="BY42" s="23"/>
       <c r="BZ42" s="23"/>
       <c r="CA42" s="23"/>
       <c r="CB42" s="23"/>
+      <c r="CC42" s="23"/>
     </row>
-    <row r="43" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -73748,13 +74427,16 @@
       <c r="BW43" s="28">
         <v>33</v>
       </c>
-      <c r="BX43" s="23"/>
+      <c r="BX43" s="28">
+        <v>54</v>
+      </c>
       <c r="BY43" s="23"/>
       <c r="BZ43" s="23"/>
       <c r="CA43" s="23"/>
       <c r="CB43" s="23"/>
+      <c r="CC43" s="23"/>
     </row>
-    <row r="44" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -73977,13 +74659,16 @@
       <c r="BW44" s="15">
         <v>4</v>
       </c>
-      <c r="BX44" s="23"/>
+      <c r="BX44" s="15">
+        <v>1</v>
+      </c>
       <c r="BY44" s="23"/>
       <c r="BZ44" s="23"/>
       <c r="CA44" s="23"/>
       <c r="CB44" s="23"/>
+      <c r="CC44" s="23"/>
     </row>
-    <row r="45" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -74206,13 +74891,16 @@
       <c r="BW45" s="15">
         <v>20</v>
       </c>
-      <c r="BX45" s="22"/>
+      <c r="BX45" s="15">
+        <v>14</v>
+      </c>
       <c r="BY45" s="22"/>
       <c r="BZ45" s="22"/>
       <c r="CA45" s="22"/>
       <c r="CB45" s="22"/>
+      <c r="CC45" s="22"/>
     </row>
-    <row r="46" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -74435,13 +75123,16 @@
       <c r="BW46" s="15">
         <v>26</v>
       </c>
-      <c r="BX46" s="23"/>
+      <c r="BX46" s="15">
+        <v>35</v>
+      </c>
       <c r="BY46" s="23"/>
       <c r="BZ46" s="23"/>
       <c r="CA46" s="23"/>
       <c r="CB46" s="23"/>
+      <c r="CC46" s="23"/>
     </row>
-    <row r="47" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -74664,13 +75355,16 @@
       <c r="BW47" s="15">
         <v>2</v>
       </c>
-      <c r="BX47" s="23"/>
+      <c r="BX47" s="15">
+        <v>4</v>
+      </c>
       <c r="BY47" s="23"/>
       <c r="BZ47" s="23"/>
       <c r="CA47" s="23"/>
       <c r="CB47" s="23"/>
+      <c r="CC47" s="23"/>
     </row>
-    <row r="48" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -74893,13 +75587,16 @@
       <c r="BW48" s="15">
         <v>14</v>
       </c>
-      <c r="BX48" s="23"/>
+      <c r="BX48" s="15">
+        <v>2</v>
+      </c>
       <c r="BY48" s="23"/>
       <c r="BZ48" s="23"/>
       <c r="CA48" s="23"/>
       <c r="CB48" s="23"/>
+      <c r="CC48" s="23"/>
     </row>
-    <row r="49" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="78" t="s">
         <v>83</v>
@@ -75123,13 +75820,16 @@
       <c r="BW49" s="15">
         <v>95</v>
       </c>
-      <c r="BX49" s="22"/>
+      <c r="BX49" s="15">
+        <v>102</v>
+      </c>
       <c r="BY49" s="22"/>
       <c r="BZ49" s="22"/>
       <c r="CA49" s="22"/>
       <c r="CB49" s="22"/>
+      <c r="CC49" s="22"/>
     </row>
-    <row r="50" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="79"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -75350,13 +76050,16 @@
       <c r="BW50" s="15">
         <v>17</v>
       </c>
-      <c r="BX50" s="22"/>
+      <c r="BX50" s="15">
+        <v>27</v>
+      </c>
       <c r="BY50" s="22"/>
       <c r="BZ50" s="22"/>
       <c r="CA50" s="22"/>
       <c r="CB50" s="22"/>
+      <c r="CC50" s="22"/>
     </row>
-    <row r="51" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -75579,13 +76282,16 @@
       <c r="BW51" s="15">
         <v>5</v>
       </c>
-      <c r="BX51" s="23"/>
+      <c r="BX51" s="15">
+        <v>17</v>
+      </c>
       <c r="BY51" s="23"/>
       <c r="BZ51" s="23"/>
       <c r="CA51" s="23"/>
       <c r="CB51" s="23"/>
+      <c r="CC51" s="23"/>
     </row>
-    <row r="52" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -75808,13 +76514,16 @@
       <c r="BW52" s="15">
         <v>12</v>
       </c>
-      <c r="BX52" s="23"/>
+      <c r="BX52" s="15">
+        <v>15</v>
+      </c>
       <c r="BY52" s="23"/>
       <c r="BZ52" s="23"/>
       <c r="CA52" s="23"/>
       <c r="CB52" s="23"/>
+      <c r="CC52" s="23"/>
     </row>
-    <row r="53" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -76037,13 +76746,16 @@
       <c r="BW53" s="15">
         <v>40</v>
       </c>
-      <c r="BX53" s="23"/>
+      <c r="BX53" s="15">
+        <v>24</v>
+      </c>
       <c r="BY53" s="23"/>
       <c r="BZ53" s="23"/>
       <c r="CA53" s="23"/>
       <c r="CB53" s="23"/>
+      <c r="CC53" s="23"/>
     </row>
-    <row r="54" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -76266,13 +76978,16 @@
       <c r="BW54" s="15">
         <v>7</v>
       </c>
-      <c r="BX54" s="23"/>
+      <c r="BX54" s="15">
+        <v>7</v>
+      </c>
       <c r="BY54" s="23"/>
       <c r="BZ54" s="23"/>
       <c r="CA54" s="23"/>
       <c r="CB54" s="23"/>
+      <c r="CC54" s="23"/>
     </row>
-    <row r="55" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -76495,13 +77210,16 @@
       <c r="BW55" s="15">
         <v>29</v>
       </c>
-      <c r="BX55" s="23"/>
+      <c r="BX55" s="15">
+        <v>15</v>
+      </c>
       <c r="BY55" s="23"/>
       <c r="BZ55" s="23"/>
       <c r="CA55" s="23"/>
       <c r="CB55" s="23"/>
+      <c r="CC55" s="23"/>
     </row>
-    <row r="56" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -76724,13 +77442,16 @@
       <c r="BW56" s="15">
         <v>1</v>
       </c>
-      <c r="BX56" s="23"/>
+      <c r="BX56" s="15">
+        <v>7</v>
+      </c>
       <c r="BY56" s="23"/>
       <c r="BZ56" s="23"/>
       <c r="CA56" s="23"/>
       <c r="CB56" s="23"/>
+      <c r="CC56" s="23"/>
     </row>
-    <row r="57" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -76953,13 +77674,16 @@
       <c r="BW57" s="15">
         <v>4</v>
       </c>
-      <c r="BX57" s="23"/>
+      <c r="BX57" s="15">
+        <v>4</v>
+      </c>
       <c r="BY57" s="23"/>
       <c r="BZ57" s="23"/>
       <c r="CA57" s="23"/>
       <c r="CB57" s="23"/>
+      <c r="CC57" s="23"/>
     </row>
-    <row r="58" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -77229,7 +77953,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BV58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BX58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -77249,15 +77973,20 @@
         <v>3716</v>
       </c>
       <c r="BW58" s="14">
+        <f t="shared" si="4"/>
         <v>3911</v>
       </c>
-      <c r="BX58" s="24"/>
+      <c r="BX58" s="14">
+        <f t="shared" si="4"/>
+        <v>3612</v>
+      </c>
       <c r="BY58" s="24"/>
       <c r="BZ58" s="24"/>
       <c r="CA58" s="24"/>
       <c r="CB58" s="24"/>
+      <c r="CC58" s="24"/>
     </row>
-    <row r="59" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -77290,7 +78019,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -77323,7 +78052,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -77357,10 +78086,12 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="BD3:BW3"/>
+  <mergeCells count="90">
+    <mergeCell ref="BD2:BX2"/>
+    <mergeCell ref="BD3:BX3"/>
+    <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
@@ -77374,19 +78105,18 @@
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BD2:BW2"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
@@ -77469,7 +78199,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BW57</xm:sqref>
+          <xm:sqref>BP6:BX57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040823-2\ＪＯＢ040823-2\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040830-3\ＪＯＢ040830-3\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BX$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BX$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DX$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DX$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BY$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BY$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DY$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DY$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="381">
   <si>
     <t>都道府県</t>
   </si>
@@ -4233,6 +4233,60 @@
     <t>8/15(月)～
 8/21(日)分
 【8月第3週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/22(月)～
+8/28(日)分
+【8月第4週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/23(月)～
+8/29(日)分
+【8月第5週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/22(月)～
+8/28(日)分
+【8月第4週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4598,7 +4652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4728,6 +4782,9 @@
     <xf numFmtId="38" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4749,9 +4806,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4763,6 +4817,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -4809,10 +4866,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4826,6 +4883,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -8999,13 +9062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DX61"/>
+  <dimension ref="A1:DY61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DS6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DX4" sqref="DX4:DX5"/>
+      <selection pane="bottomRight" activeCell="DY4" sqref="DY4:DY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9021,11 +9084,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="128" width="10.875" style="1" customWidth="1"/>
-    <col min="129" max="16384" width="8.625" style="1"/>
+    <col min="106" max="129" width="10.875" style="1" customWidth="1"/>
+    <col min="130" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:129" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9080,148 +9143,150 @@
       <c r="DU1" s="19"/>
       <c r="DV1" s="19"/>
       <c r="DW1" s="19"/>
-      <c r="DX1" s="19" t="s">
+      <c r="DX1" s="19"/>
+      <c r="DY1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:128" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+    <row r="2" spans="1:129" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
-      <c r="CF2" s="43"/>
-      <c r="CG2" s="43"/>
-      <c r="CH2" s="43"/>
-      <c r="CI2" s="43"/>
-      <c r="CJ2" s="43"/>
-      <c r="CK2" s="43"/>
-      <c r="CL2" s="43"/>
-      <c r="CM2" s="43"/>
-      <c r="CN2" s="43"/>
-      <c r="CO2" s="43"/>
-      <c r="CP2" s="43"/>
-      <c r="CQ2" s="43"/>
-      <c r="CR2" s="43"/>
-      <c r="CS2" s="43"/>
-      <c r="CT2" s="43"/>
-      <c r="CU2" s="43"/>
-      <c r="CV2" s="43"/>
-      <c r="CW2" s="43"/>
-      <c r="CX2" s="43"/>
-      <c r="CY2" s="43"/>
-      <c r="CZ2" s="43"/>
-      <c r="DA2" s="43"/>
-      <c r="DB2" s="43"/>
-      <c r="DC2" s="43"/>
-      <c r="DD2" s="43"/>
-      <c r="DE2" s="70" t="s">
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
+      <c r="CU2" s="44"/>
+      <c r="CV2" s="44"/>
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
+      <c r="DD2" s="44"/>
+      <c r="DE2" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="70"/>
-      <c r="DX2" s="70"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
     </row>
-    <row r="3" spans="1:128" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
+    <row r="3" spans="1:129" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="51" t="s">
         <v>139</v>
       </c>
@@ -9267,59 +9332,59 @@
       <c r="AR3" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44" t="s">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BW3" s="44"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CA3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44"/>
-      <c r="CD3" s="44"/>
-      <c r="CE3" s="44"/>
-      <c r="CF3" s="44"/>
-      <c r="CG3" s="44"/>
-      <c r="CH3" s="44"/>
-      <c r="CI3" s="44"/>
-      <c r="CJ3" s="44"/>
-      <c r="CK3" s="44"/>
-      <c r="CL3" s="44"/>
-      <c r="CM3" s="44"/>
-      <c r="CN3" s="44"/>
-      <c r="CO3" s="44"/>
-      <c r="CP3" s="44"/>
-      <c r="CQ3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
+      <c r="CE3" s="45"/>
+      <c r="CF3" s="45"/>
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="45"/>
+      <c r="CI3" s="45"/>
+      <c r="CJ3" s="45"/>
+      <c r="CK3" s="45"/>
+      <c r="CL3" s="45"/>
+      <c r="CM3" s="45"/>
+      <c r="CN3" s="45"/>
+      <c r="CO3" s="45"/>
+      <c r="CP3" s="45"/>
+      <c r="CQ3" s="46"/>
       <c r="CR3" s="51" t="s">
         <v>329</v>
       </c>
@@ -9357,520 +9422,525 @@
       <c r="DV3" s="51"/>
       <c r="DW3" s="51"/>
       <c r="DX3" s="51"/>
+      <c r="DY3" s="51"/>
     </row>
-    <row r="4" spans="1:128" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55" t="s">
+    <row r="4" spans="1:129" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="55" t="s">
+      <c r="Z4" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AA4" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AE4" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="55" t="s">
+      <c r="AF4" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="55" t="s">
+      <c r="AI4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AJ4" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="55" t="s">
+      <c r="AK4" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="55" t="s">
+      <c r="AL4" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="55" t="s">
+      <c r="AM4" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="55" t="s">
+      <c r="AN4" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="55" t="s">
+      <c r="AO4" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="55" t="s">
+      <c r="AP4" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="55" t="s">
+      <c r="AQ4" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="47" t="s">
+      <c r="AR4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="47" t="s">
+      <c r="AS4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="47" t="s">
+      <c r="AT4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="47" t="s">
+      <c r="AU4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="47" t="s">
+      <c r="AV4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="47" t="s">
+      <c r="AW4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="47" t="s">
+      <c r="AX4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="47" t="s">
+      <c r="AY4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="47" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="47" t="s">
+      <c r="BA4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="47" t="s">
+      <c r="BB4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="47" t="s">
+      <c r="BC4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="46" t="s">
+      <c r="BD4" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="BE4" s="46" t="s">
+      <c r="BE4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="BF4" s="46" t="s">
+      <c r="BF4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="46" t="s">
+      <c r="BG4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="BH4" s="46" t="s">
+      <c r="BH4" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="BI4" s="46" t="s">
+      <c r="BI4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="BJ4" s="46" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="BK4" s="46" t="s">
+      <c r="BK4" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="46" t="s">
+      <c r="BL4" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="46" t="s">
+      <c r="BM4" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="BN4" s="46" t="s">
+      <c r="BN4" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="BO4" s="46" t="s">
+      <c r="BO4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="BP4" s="46" t="s">
+      <c r="BP4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="BQ4" s="46" t="s">
+      <c r="BQ4" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="BR4" s="46" t="s">
+      <c r="BR4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="BS4" s="46" t="s">
+      <c r="BS4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="BT4" s="46" t="s">
+      <c r="BT4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="BU4" s="46" t="s">
+      <c r="BU4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="BV4" s="46" t="s">
+      <c r="BV4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="BW4" s="46" t="s">
+      <c r="BW4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="BX4" s="46" t="s">
+      <c r="BX4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="BY4" s="46" t="s">
+      <c r="BY4" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="BZ4" s="46" t="s">
+      <c r="BZ4" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="CA4" s="46" t="s">
+      <c r="CA4" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="46" t="s">
+      <c r="CB4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="CC4" s="46" t="s">
+      <c r="CC4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="CD4" s="46" t="s">
+      <c r="CD4" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="CE4" s="48" t="s">
+      <c r="CE4" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="CF4" s="48" t="s">
+      <c r="CF4" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="CG4" s="48" t="s">
+      <c r="CG4" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="CH4" s="48" t="s">
+      <c r="CH4" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="CI4" s="48" t="s">
+      <c r="CI4" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="CJ4" s="48" t="s">
+      <c r="CJ4" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="CK4" s="48" t="s">
+      <c r="CK4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="CM4" s="48" t="s">
+      <c r="CM4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="CN4" s="48" t="s">
+      <c r="CN4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="CO4" s="48" t="s">
+      <c r="CO4" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="CP4" s="48" t="s">
+      <c r="CP4" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="CQ4" s="48" t="s">
+      <c r="CQ4" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="CR4" s="48" t="s">
+      <c r="CR4" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="CS4" s="48" t="s">
+      <c r="CS4" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="CT4" s="48" t="s">
+      <c r="CT4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="CU4" s="48" t="s">
+      <c r="CU4" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="CV4" s="48" t="s">
+      <c r="CV4" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="CW4" s="48" t="s">
+      <c r="CW4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="CX4" s="48" t="s">
+      <c r="CX4" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="CY4" s="48" t="s">
+      <c r="CY4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="CZ4" s="48" t="s">
+      <c r="CZ4" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="DA4" s="48" t="s">
+      <c r="DA4" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="DB4" s="48" t="s">
+      <c r="DB4" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="DC4" s="48" t="s">
+      <c r="DC4" s="49" t="s">
         <v>312</v>
       </c>
       <c r="DD4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="DE4" s="50" t="s">
+      <c r="DE4" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="DF4" s="50" t="s">
+      <c r="DF4" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="DG4" s="50" t="s">
+      <c r="DG4" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="DH4" s="50" t="s">
+      <c r="DH4" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="DI4" s="50" t="s">
+      <c r="DI4" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="DJ4" s="50" t="s">
+      <c r="DJ4" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="DK4" s="50" t="s">
+      <c r="DK4" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="DL4" s="50" t="s">
+      <c r="DL4" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="DM4" s="50" t="s">
+      <c r="DM4" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="DN4" s="50" t="s">
+      <c r="DN4" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="DO4" s="50" t="s">
+      <c r="DO4" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="DP4" s="50" t="s">
+      <c r="DP4" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="DQ4" s="50" t="s">
+      <c r="DQ4" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="DR4" s="50" t="s">
+      <c r="DR4" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="DS4" s="50" t="s">
+      <c r="DS4" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="DT4" s="50" t="s">
+      <c r="DT4" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="DU4" s="50" t="s">
+      <c r="DU4" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="DV4" s="50" t="s">
+      <c r="DV4" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="DW4" s="50" t="s">
+      <c r="DW4" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="DX4" s="50" t="s">
+      <c r="DX4" s="55" t="s">
         <v>375</v>
       </c>
+      <c r="DY4" s="55" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="5" spans="1:128" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="47"/>
-      <c r="CE5" s="49"/>
-      <c r="CF5" s="49"/>
-      <c r="CG5" s="49"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="49"/>
-      <c r="CK5" s="49"/>
-      <c r="CL5" s="49"/>
-      <c r="CM5" s="49"/>
-      <c r="CN5" s="49"/>
-      <c r="CO5" s="49"/>
-      <c r="CP5" s="49"/>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="49"/>
-      <c r="CS5" s="49"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="49"/>
-      <c r="CV5" s="49"/>
-      <c r="CW5" s="49"/>
-      <c r="CX5" s="49"/>
-      <c r="CY5" s="49"/>
-      <c r="CZ5" s="49"/>
-      <c r="DA5" s="49"/>
-      <c r="DB5" s="49"/>
-      <c r="DC5" s="49"/>
+    <row r="5" spans="1:129" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="62"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="50"/>
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="50"/>
+      <c r="CI5" s="50"/>
+      <c r="CJ5" s="50"/>
+      <c r="CK5" s="50"/>
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="50"/>
+      <c r="CN5" s="50"/>
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="50"/>
+      <c r="CQ5" s="50"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
+      <c r="DC5" s="50"/>
       <c r="DD5" s="54"/>
-      <c r="DE5" s="49"/>
-      <c r="DF5" s="49"/>
-      <c r="DG5" s="49"/>
-      <c r="DH5" s="49"/>
-      <c r="DI5" s="49"/>
-      <c r="DJ5" s="49"/>
-      <c r="DK5" s="49"/>
-      <c r="DL5" s="49"/>
-      <c r="DM5" s="49"/>
-      <c r="DN5" s="49"/>
-      <c r="DO5" s="49"/>
-      <c r="DP5" s="49"/>
-      <c r="DQ5" s="49"/>
-      <c r="DR5" s="49"/>
-      <c r="DS5" s="49"/>
-      <c r="DT5" s="49"/>
-      <c r="DU5" s="49"/>
-      <c r="DV5" s="49"/>
-      <c r="DW5" s="49"/>
-      <c r="DX5" s="49"/>
+      <c r="DE5" s="50"/>
+      <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
+      <c r="DI5" s="50"/>
+      <c r="DJ5" s="50"/>
+      <c r="DK5" s="50"/>
+      <c r="DL5" s="50"/>
+      <c r="DM5" s="50"/>
+      <c r="DN5" s="50"/>
+      <c r="DO5" s="50"/>
+      <c r="DP5" s="50"/>
+      <c r="DQ5" s="50"/>
+      <c r="DR5" s="50"/>
+      <c r="DS5" s="50"/>
+      <c r="DT5" s="50"/>
+      <c r="DU5" s="50"/>
+      <c r="DV5" s="50"/>
+      <c r="DW5" s="50"/>
+      <c r="DX5" s="50"/>
+      <c r="DY5" s="50"/>
     </row>
-    <row r="6" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10253,8 +10323,11 @@
       <c r="DX6" s="28">
         <v>170</v>
       </c>
+      <c r="DY6" s="28">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10636,8 +10709,11 @@
       <c r="DX7" s="15">
         <v>0</v>
       </c>
+      <c r="DY7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11019,8 +11095,11 @@
       <c r="DX8" s="28">
         <v>21</v>
       </c>
+      <c r="DY8" s="28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11403,8 +11482,11 @@
       <c r="DX9" s="15">
         <v>161</v>
       </c>
+      <c r="DY9" s="15">
+        <v>106</v>
+      </c>
     </row>
-    <row r="10" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11784,8 +11866,11 @@
       <c r="DX10" s="15">
         <v>2</v>
       </c>
+      <c r="DY10" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12167,8 +12252,11 @@
       <c r="DX11" s="15">
         <v>19</v>
       </c>
+      <c r="DY11" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12550,8 +12638,11 @@
       <c r="DX12" s="15">
         <v>21</v>
       </c>
+      <c r="DY12" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -12933,8 +13024,11 @@
       <c r="DX13" s="15">
         <v>40</v>
       </c>
+      <c r="DY13" s="15">
+        <v>43</v>
+      </c>
     </row>
-    <row r="14" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13316,8 +13410,11 @@
       <c r="DX14" s="15">
         <v>30</v>
       </c>
+      <c r="DY14" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13699,8 +13796,11 @@
       <c r="DX15" s="15">
         <v>4</v>
       </c>
+      <c r="DY15" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -14083,8 +14183,11 @@
       <c r="DX16" s="28">
         <v>221</v>
       </c>
+      <c r="DY16" s="28">
+        <v>231</v>
+      </c>
     </row>
-    <row r="17" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14466,8 +14569,11 @@
       <c r="DX17" s="15">
         <v>251</v>
       </c>
+      <c r="DY17" s="15">
+        <v>233</v>
+      </c>
     </row>
-    <row r="18" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -14850,10 +14956,13 @@
       <c r="DX18" s="34">
         <v>2540</v>
       </c>
+      <c r="DY18" s="34">
+        <v>2168</v>
+      </c>
     </row>
-    <row r="19" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -15234,10 +15343,13 @@
       <c r="DX19" s="15">
         <v>102</v>
       </c>
+      <c r="DY19" s="15">
+        <v>79</v>
+      </c>
     </row>
-    <row r="20" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -15616,10 +15728,13 @@
       <c r="DX20" s="28">
         <v>409</v>
       </c>
+      <c r="DY20" s="28">
+        <v>293</v>
+      </c>
     </row>
-    <row r="21" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -15998,8 +16113,11 @@
       <c r="DX21" s="15">
         <v>72</v>
       </c>
+      <c r="DY21" s="15">
+        <v>60</v>
+      </c>
     </row>
-    <row r="22" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16381,8 +16499,11 @@
       <c r="DX22" s="15">
         <v>13</v>
       </c>
+      <c r="DY22" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="23" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -16764,8 +16885,11 @@
       <c r="DX23" s="15">
         <v>1</v>
       </c>
+      <c r="DY23" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17147,8 +17271,11 @@
       <c r="DX24" s="15">
         <v>23</v>
       </c>
+      <c r="DY24" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17530,8 +17657,11 @@
       <c r="DX25" s="15">
         <v>3</v>
       </c>
+      <c r="DY25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -17913,8 +18043,11 @@
       <c r="DX26" s="15">
         <v>21</v>
       </c>
+      <c r="DY26" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="27" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18296,8 +18429,11 @@
       <c r="DX27" s="15">
         <v>1</v>
       </c>
+      <c r="DY27" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18679,9 +18815,12 @@
       <c r="DX28" s="15">
         <v>4</v>
       </c>
+      <c r="DY28" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="29" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="67" t="s">
+    <row r="29" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -19062,9 +19201,12 @@
       <c r="DX29" s="15">
         <v>9</v>
       </c>
+      <c r="DY29" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="67"/>
+    <row r="30" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="68"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -19443,8 +19585,11 @@
       <c r="DX30" s="15">
         <v>47</v>
       </c>
+      <c r="DY30" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="31" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -19827,8 +19972,11 @@
       <c r="DX31" s="15">
         <v>171</v>
       </c>
+      <c r="DY31" s="15">
+        <v>172</v>
+      </c>
     </row>
-    <row r="32" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20210,8 +20358,11 @@
       <c r="DX32" s="15">
         <v>3</v>
       </c>
+      <c r="DY32" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20593,8 +20744,11 @@
       <c r="DX33" s="15">
         <v>0</v>
       </c>
+      <c r="DY33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -20977,10 +21131,13 @@
       <c r="DX34" s="15">
         <v>145</v>
       </c>
+      <c r="DY34" s="15">
+        <v>113</v>
+      </c>
     </row>
-    <row r="35" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="67" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -21361,9 +21518,12 @@
       <c r="DX35" s="15">
         <v>575</v>
       </c>
+      <c r="DY35" s="15">
+        <v>440</v>
+      </c>
     </row>
-    <row r="36" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="66"/>
+    <row r="36" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="67"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -21742,8 +21902,11 @@
       <c r="DX36" s="28">
         <v>114</v>
       </c>
+      <c r="DY36" s="28">
+        <v>121</v>
+      </c>
     </row>
-    <row r="37" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -22126,8 +22289,11 @@
       <c r="DX37" s="15">
         <v>147</v>
       </c>
+      <c r="DY37" s="15">
+        <v>106</v>
+      </c>
     </row>
-    <row r="38" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -22509,8 +22675,11 @@
       <c r="DX38" s="15">
         <v>45</v>
       </c>
+      <c r="DY38" s="15">
+        <v>39</v>
+      </c>
     </row>
-    <row r="39" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -22892,8 +23061,11 @@
       <c r="DX39" s="15">
         <v>21</v>
       </c>
+      <c r="DY39" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="40" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -23275,8 +23447,11 @@
       <c r="DX40" s="15">
         <v>0</v>
       </c>
+      <c r="DY40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -23658,8 +23833,11 @@
       <c r="DX41" s="15">
         <v>0</v>
       </c>
+      <c r="DY41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -24041,8 +24219,11 @@
       <c r="DX42" s="15">
         <v>29</v>
       </c>
+      <c r="DY42" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="43" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -24424,8 +24605,11 @@
       <c r="DX43" s="28">
         <v>131</v>
       </c>
+      <c r="DY43" s="28">
+        <v>114</v>
+      </c>
     </row>
-    <row r="44" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -24807,8 +24991,11 @@
       <c r="DX44" s="15">
         <v>9</v>
       </c>
+      <c r="DY44" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -25190,8 +25377,11 @@
       <c r="DX45" s="15">
         <v>31</v>
       </c>
+      <c r="DY45" s="15">
+        <v>36</v>
+      </c>
     </row>
-    <row r="46" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -25573,8 +25763,11 @@
       <c r="DX46" s="15">
         <v>60</v>
       </c>
+      <c r="DY46" s="15">
+        <v>56</v>
+      </c>
     </row>
-    <row r="47" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -25956,8 +26149,11 @@
       <c r="DX47" s="15">
         <v>10</v>
       </c>
+      <c r="DY47" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="48" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -26339,10 +26535,13 @@
       <c r="DX48" s="15">
         <v>36</v>
       </c>
+      <c r="DY48" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="49" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -26723,9 +26922,12 @@
       <c r="DX49" s="15">
         <v>168</v>
       </c>
+      <c r="DY49" s="15">
+        <v>132</v>
+      </c>
     </row>
-    <row r="50" spans="1:128" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="66"/>
+    <row r="50" spans="1:129" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="67"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -27104,8 +27306,11 @@
       <c r="DX50" s="15">
         <v>73</v>
       </c>
+      <c r="DY50" s="15">
+        <v>41</v>
+      </c>
     </row>
-    <row r="51" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -27487,8 +27692,11 @@
       <c r="DX51" s="15">
         <v>17</v>
       </c>
+      <c r="DY51" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="52" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -27870,8 +28078,11 @@
       <c r="DX52" s="15">
         <v>32</v>
       </c>
+      <c r="DY52" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="53" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -28253,8 +28464,11 @@
       <c r="DX53" s="15">
         <v>48</v>
       </c>
+      <c r="DY53" s="15">
+        <v>61</v>
+      </c>
     </row>
-    <row r="54" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -28636,8 +28850,11 @@
       <c r="DX54" s="15">
         <v>21</v>
       </c>
+      <c r="DY54" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="55" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -29019,8 +29236,11 @@
       <c r="DX55" s="15">
         <v>23</v>
       </c>
+      <c r="DY55" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="56" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -29402,8 +29622,11 @@
       <c r="DX56" s="15">
         <v>7</v>
       </c>
+      <c r="DY56" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="57" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -29785,8 +30008,11 @@
       <c r="DX57" s="15">
         <v>6</v>
       </c>
+      <c r="DY57" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -30264,7 +30490,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:DX58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:DY58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -30291,8 +30517,12 @@
         <f t="shared" si="10"/>
         <v>6107</v>
       </c>
+      <c r="DY58" s="14">
+        <f t="shared" si="10"/>
+        <v>5097</v>
+      </c>
     </row>
-    <row r="59" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -30376,7 +30606,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -30460,30 +30690,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:128" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:129" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="66"/>
+      <c r="V61" s="66"/>
+      <c r="W61" s="66"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -30545,7 +30775,7 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="142">
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="DJ4:DJ5"/>
@@ -30565,12 +30795,13 @@
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="DE2:DY2"/>
+    <mergeCell ref="DE3:DY3"/>
+    <mergeCell ref="DY4:DY5"/>
     <mergeCell ref="CQ4:CQ5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="DE2:DX2"/>
-    <mergeCell ref="DE3:DX3"/>
     <mergeCell ref="DX4:DX5"/>
     <mergeCell ref="DW4:DW5"/>
     <mergeCell ref="DV4:DV5"/>
@@ -30578,6 +30809,11 @@
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="DT4:DT5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DO4:DO5"/>
+    <mergeCell ref="DN4:DN5"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B19:B21"/>
@@ -30597,7 +30833,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -30646,10 +30881,6 @@
     <mergeCell ref="CX4:CX5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="DT4:DT5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DO4:DO5"/>
-    <mergeCell ref="DN4:DN5"/>
     <mergeCell ref="CR3:DD3"/>
     <mergeCell ref="CS4:CS5"/>
     <mergeCell ref="DD4:DD5"/>
@@ -30699,7 +30930,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:DX57">
+  <conditionalFormatting sqref="DP6:DY57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -30716,13 +30947,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DX58"/>
+  <dimension ref="B1:DY58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DP2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DX6" sqref="DX6"/>
+      <selection pane="bottomRight" activeCell="DW12" sqref="DW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30732,20 +30963,22 @@
     <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="17" width="11" style="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="40" customWidth="1"/>
-    <col min="19" max="55" width="11" style="1" customWidth="1"/>
+    <col min="19" max="24" width="11" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="4" customWidth="1"/>
+    <col min="26" max="55" width="11" style="1" customWidth="1"/>
     <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="128" width="10.875" style="1" customWidth="1"/>
-    <col min="129" max="16384" width="8.625" style="1"/>
+    <col min="106" max="129" width="10.875" style="1" customWidth="1"/>
+    <col min="130" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:128" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BB1" s="76" t="s">
+    <row r="1" spans="2:129" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB1" s="79" t="s">
         <v>336</v>
       </c>
-      <c r="BC1" s="76"/>
+      <c r="BC1" s="79"/>
       <c r="BI1" s="18"/>
       <c r="CC1" s="29"/>
       <c r="CD1" s="29"/>
@@ -30796,190 +31029,192 @@
       <c r="DU1" s="19"/>
       <c r="DV1" s="19"/>
       <c r="DW1" s="19"/>
-      <c r="DX1" s="19" t="s">
+      <c r="DX1" s="19"/>
+      <c r="DY1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="2:128" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="70" t="s">
+    <row r="2" spans="2:129" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="70" t="s">
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="72"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="DE2" s="70"/>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="70"/>
-      <c r="DX2" s="70"/>
+      <c r="DE2" s="72"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
     </row>
-    <row r="3" spans="2:128" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="75" t="s">
+    <row r="3" spans="2:129" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
       <c r="AR3" s="51" t="s">
         <v>290</v>
       </c>
@@ -30997,45 +31232,45 @@
       <c r="BD3" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BW3" s="44"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CA3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44"/>
-      <c r="CD3" s="44"/>
-      <c r="CE3" s="44"/>
-      <c r="CF3" s="44"/>
-      <c r="CG3" s="44"/>
-      <c r="CH3" s="44"/>
-      <c r="CI3" s="44"/>
-      <c r="CJ3" s="44"/>
-      <c r="CK3" s="44"/>
-      <c r="CL3" s="44"/>
-      <c r="CM3" s="44"/>
-      <c r="CN3" s="44"/>
-      <c r="CO3" s="44"/>
-      <c r="CP3" s="44"/>
-      <c r="CQ3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
+      <c r="CE3" s="45"/>
+      <c r="CF3" s="45"/>
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="45"/>
+      <c r="CI3" s="45"/>
+      <c r="CJ3" s="45"/>
+      <c r="CK3" s="45"/>
+      <c r="CL3" s="45"/>
+      <c r="CM3" s="45"/>
+      <c r="CN3" s="45"/>
+      <c r="CO3" s="45"/>
+      <c r="CP3" s="45"/>
+      <c r="CQ3" s="46"/>
       <c r="CR3" s="51" t="s">
         <v>288</v>
       </c>
@@ -31073,520 +31308,525 @@
       <c r="DV3" s="51"/>
       <c r="DW3" s="51"/>
       <c r="DX3" s="51"/>
+      <c r="DY3" s="51"/>
     </row>
-    <row r="4" spans="2:128" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="72" t="s">
+    <row r="4" spans="2:129" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="72" t="s">
+      <c r="W4" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="72" t="s">
+      <c r="X4" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" s="72" t="s">
+      <c r="Y4" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" s="72" t="s">
+      <c r="Z4" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" s="72" t="s">
+      <c r="AA4" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="72" t="s">
+      <c r="AB4" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="72" t="s">
+      <c r="AC4" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="72" t="s">
+      <c r="AD4" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="AE4" s="72" t="s">
+      <c r="AE4" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="AF4" s="72" t="s">
+      <c r="AF4" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="AG4" s="72" t="s">
+      <c r="AG4" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="AH4" s="72" t="s">
+      <c r="AH4" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="72" t="s">
+      <c r="AI4" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="AJ4" s="72" t="s">
+      <c r="AJ4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="AK4" s="72" t="s">
+      <c r="AK4" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="AL4" s="72" t="s">
+      <c r="AL4" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="AM4" s="72" t="s">
+      <c r="AM4" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="AN4" s="72" t="s">
+      <c r="AN4" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="AO4" s="72" t="s">
+      <c r="AO4" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="AP4" s="72" t="s">
+      <c r="AP4" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="AQ4" s="72" t="s">
+      <c r="AQ4" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="AR4" s="72" t="s">
+      <c r="AR4" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="AS4" s="72" t="s">
+      <c r="AS4" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="AT4" s="72" t="s">
+      <c r="AT4" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="AU4" s="72" t="s">
+      <c r="AU4" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="AV4" s="72" t="s">
+      <c r="AV4" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="AW4" s="72" t="s">
+      <c r="AW4" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="AX4" s="72" t="s">
+      <c r="AX4" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="AY4" s="72" t="s">
+      <c r="AY4" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="AZ4" s="72" t="s">
+      <c r="AZ4" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="BA4" s="72" t="s">
+      <c r="BA4" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="BB4" s="72" t="s">
+      <c r="BB4" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="BC4" s="72" t="s">
+      <c r="BC4" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="BD4" s="46" t="s">
+      <c r="BD4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="BE4" s="46" t="s">
+      <c r="BE4" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" s="46" t="s">
+      <c r="BF4" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" s="46" t="s">
+      <c r="BG4" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="BH4" s="46" t="s">
+      <c r="BH4" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="BI4" s="46" t="s">
+      <c r="BI4" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="46" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="46" t="s">
+      <c r="BK4" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="46" t="s">
+      <c r="BL4" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="46" t="s">
+      <c r="BM4" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="46" t="s">
+      <c r="BN4" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="46" t="s">
+      <c r="BO4" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="46" t="s">
+      <c r="BP4" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="BQ4" s="46" t="s">
+      <c r="BQ4" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="BR4" s="46" t="s">
+      <c r="BR4" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="BS4" s="46" t="s">
+      <c r="BS4" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="BT4" s="46" t="s">
+      <c r="BT4" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="46" t="s">
+      <c r="BU4" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="BV4" s="46" t="s">
+      <c r="BV4" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="BW4" s="46" t="s">
+      <c r="BW4" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="BX4" s="46" t="s">
+      <c r="BX4" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="BY4" s="46" t="s">
+      <c r="BY4" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="BZ4" s="46" t="s">
+      <c r="BZ4" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="CA4" s="46" t="s">
+      <c r="CA4" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="CB4" s="46" t="s">
+      <c r="CB4" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="CC4" s="46" t="s">
+      <c r="CC4" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="CD4" s="46" t="s">
+      <c r="CD4" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="CE4" s="48" t="s">
+      <c r="CE4" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="CF4" s="48" t="s">
+      <c r="CF4" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="CG4" s="48" t="s">
+      <c r="CG4" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="CH4" s="48" t="s">
+      <c r="CH4" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="CI4" s="48" t="s">
+      <c r="CI4" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="CJ4" s="48" t="s">
+      <c r="CJ4" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="CK4" s="48" t="s">
+      <c r="CK4" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="CM4" s="48" t="s">
+      <c r="CM4" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="CN4" s="48" t="s">
+      <c r="CN4" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="CO4" s="48" t="s">
+      <c r="CO4" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="CP4" s="48" t="s">
+      <c r="CP4" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="CQ4" s="48" t="s">
+      <c r="CQ4" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="CR4" s="48" t="s">
+      <c r="CR4" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="CS4" s="48" t="s">
+      <c r="CS4" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="CT4" s="48" t="s">
+      <c r="CT4" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="CU4" s="48" t="s">
+      <c r="CU4" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="CV4" s="48" t="s">
+      <c r="CV4" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="CW4" s="48" t="s">
+      <c r="CW4" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="CX4" s="48" t="s">
+      <c r="CX4" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="CY4" s="48" t="s">
+      <c r="CY4" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="CZ4" s="48" t="s">
+      <c r="CZ4" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="DA4" s="48" t="s">
+      <c r="DA4" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="DB4" s="48" t="s">
+      <c r="DB4" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="DC4" s="48" t="s">
+      <c r="DC4" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="DD4" s="50" t="s">
+      <c r="DD4" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="DE4" s="50" t="s">
+      <c r="DE4" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="DF4" s="50" t="s">
+      <c r="DF4" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="DG4" s="50" t="s">
+      <c r="DG4" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="DH4" s="50" t="s">
+      <c r="DH4" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="DI4" s="50" t="s">
+      <c r="DI4" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="DJ4" s="50" t="s">
+      <c r="DJ4" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="DK4" s="50" t="s">
+      <c r="DK4" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="DL4" s="50" t="s">
+      <c r="DL4" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="DM4" s="50" t="s">
+      <c r="DM4" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="DN4" s="50" t="s">
+      <c r="DN4" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="DO4" s="50" t="s">
+      <c r="DO4" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="DP4" s="50" t="s">
+      <c r="DP4" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="DQ4" s="50" t="s">
+      <c r="DQ4" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="DR4" s="50" t="s">
+      <c r="DR4" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="DS4" s="50" t="s">
+      <c r="DS4" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="DT4" s="50" t="s">
+      <c r="DT4" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="DU4" s="50" t="s">
+      <c r="DU4" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="DV4" s="50" t="s">
+      <c r="DV4" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="DW4" s="50" t="s">
+      <c r="DW4" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="DX4" s="50" t="s">
+      <c r="DX4" s="55" t="s">
         <v>376</v>
       </c>
+      <c r="DY4" s="55" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="5" spans="2:128" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="47"/>
-      <c r="CE5" s="49"/>
-      <c r="CF5" s="49"/>
-      <c r="CG5" s="49"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="49"/>
-      <c r="CK5" s="49"/>
-      <c r="CL5" s="49"/>
-      <c r="CM5" s="49"/>
-      <c r="CN5" s="49"/>
-      <c r="CO5" s="49"/>
-      <c r="CP5" s="49"/>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="49"/>
-      <c r="CS5" s="49"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="49"/>
-      <c r="CV5" s="49"/>
-      <c r="CW5" s="49"/>
-      <c r="CX5" s="49"/>
-      <c r="CY5" s="49"/>
-      <c r="CZ5" s="49"/>
-      <c r="DA5" s="49"/>
-      <c r="DB5" s="49"/>
-      <c r="DC5" s="49"/>
-      <c r="DD5" s="49"/>
-      <c r="DE5" s="49"/>
-      <c r="DF5" s="49"/>
-      <c r="DG5" s="49"/>
-      <c r="DH5" s="49"/>
-      <c r="DI5" s="49"/>
-      <c r="DJ5" s="49"/>
-      <c r="DK5" s="49"/>
-      <c r="DL5" s="49"/>
-      <c r="DM5" s="49"/>
-      <c r="DN5" s="49"/>
-      <c r="DO5" s="49"/>
-      <c r="DP5" s="49"/>
-      <c r="DQ5" s="49"/>
-      <c r="DR5" s="49"/>
-      <c r="DS5" s="49"/>
-      <c r="DT5" s="49"/>
-      <c r="DU5" s="49"/>
-      <c r="DV5" s="49"/>
-      <c r="DW5" s="49"/>
-      <c r="DX5" s="49"/>
+    <row r="5" spans="2:129" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="62"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="50"/>
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="50"/>
+      <c r="CI5" s="50"/>
+      <c r="CJ5" s="50"/>
+      <c r="CK5" s="50"/>
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="50"/>
+      <c r="CN5" s="50"/>
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="50"/>
+      <c r="CQ5" s="50"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
+      <c r="DC5" s="50"/>
+      <c r="DD5" s="50"/>
+      <c r="DE5" s="50"/>
+      <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
+      <c r="DI5" s="50"/>
+      <c r="DJ5" s="50"/>
+      <c r="DK5" s="50"/>
+      <c r="DL5" s="50"/>
+      <c r="DM5" s="50"/>
+      <c r="DN5" s="50"/>
+      <c r="DO5" s="50"/>
+      <c r="DP5" s="50"/>
+      <c r="DQ5" s="50"/>
+      <c r="DR5" s="50"/>
+      <c r="DS5" s="50"/>
+      <c r="DT5" s="50"/>
+      <c r="DU5" s="50"/>
+      <c r="DV5" s="50"/>
+      <c r="DW5" s="50"/>
+      <c r="DX5" s="50"/>
+      <c r="DY5" s="50"/>
     </row>
-    <row r="6" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -31656,7 +31896,7 @@
       <c r="X6" s="26">
         <v>24</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="28">
         <v>20</v>
       </c>
       <c r="Z6" s="26">
@@ -31968,8 +32208,11 @@
       <c r="DX6" s="28">
         <v>102</v>
       </c>
+      <c r="DY6" s="28">
+        <v>87</v>
+      </c>
     </row>
-    <row r="7" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -32039,7 +32282,7 @@
       <c r="X7" s="26">
         <v>3</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="28">
         <v>3</v>
       </c>
       <c r="Z7" s="26">
@@ -32351,8 +32594,11 @@
       <c r="DX7" s="15">
         <v>1</v>
       </c>
+      <c r="DY7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -32422,7 +32668,7 @@
       <c r="X8" s="26">
         <v>0</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="28">
         <v>2</v>
       </c>
       <c r="Z8" s="26">
@@ -32734,8 +32980,11 @@
       <c r="DX8" s="28">
         <v>6</v>
       </c>
+      <c r="DY8" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -32805,7 +33054,7 @@
       <c r="X9" s="26">
         <v>25</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="28">
         <v>26</v>
       </c>
       <c r="Z9" s="26">
@@ -33117,8 +33366,11 @@
       <c r="DX9" s="15">
         <v>68</v>
       </c>
+      <c r="DY9" s="15">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -33188,7 +33440,7 @@
       <c r="X10" s="26">
         <v>0</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="28">
         <v>0</v>
       </c>
       <c r="Z10" s="26">
@@ -33500,8 +33752,11 @@
       <c r="DX10" s="15">
         <v>0</v>
       </c>
+      <c r="DY10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -33571,7 +33826,7 @@
       <c r="X11" s="26">
         <v>1</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="Y11" s="28">
         <v>2</v>
       </c>
       <c r="Z11" s="26">
@@ -33883,8 +34138,11 @@
       <c r="DX11" s="15">
         <v>7</v>
       </c>
+      <c r="DY11" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -33954,7 +34212,7 @@
       <c r="X12" s="26">
         <v>4</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Y12" s="28">
         <v>1</v>
       </c>
       <c r="Z12" s="26">
@@ -34266,8 +34524,11 @@
       <c r="DX12" s="15">
         <v>6</v>
       </c>
+      <c r="DY12" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -34337,7 +34598,7 @@
       <c r="X13" s="26">
         <v>15</v>
       </c>
-      <c r="Y13" s="26">
+      <c r="Y13" s="28">
         <v>5</v>
       </c>
       <c r="Z13" s="26">
@@ -34649,8 +34910,11 @@
       <c r="DX13" s="15">
         <v>18</v>
       </c>
+      <c r="DY13" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -34720,7 +34984,7 @@
       <c r="X14" s="26">
         <v>1</v>
       </c>
-      <c r="Y14" s="26">
+      <c r="Y14" s="28">
         <v>2</v>
       </c>
       <c r="Z14" s="26">
@@ -35032,8 +35296,11 @@
       <c r="DX14" s="15">
         <v>11</v>
       </c>
+      <c r="DY14" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="15" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -35103,7 +35370,7 @@
       <c r="X15" s="26">
         <v>1</v>
       </c>
-      <c r="Y15" s="26">
+      <c r="Y15" s="28">
         <v>0</v>
       </c>
       <c r="Z15" s="26">
@@ -35415,8 +35682,11 @@
       <c r="DX15" s="15">
         <v>0</v>
       </c>
+      <c r="DY15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -35486,7 +35756,7 @@
       <c r="X16" s="26">
         <v>34</v>
       </c>
-      <c r="Y16" s="26">
+      <c r="Y16" s="28">
         <v>26</v>
       </c>
       <c r="Z16" s="26">
@@ -35798,8 +36068,11 @@
       <c r="DX16" s="28">
         <v>114</v>
       </c>
+      <c r="DY16" s="28">
+        <v>90</v>
+      </c>
     </row>
-    <row r="17" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35869,7 +36142,7 @@
       <c r="X17" s="26">
         <v>84</v>
       </c>
-      <c r="Y17" s="26">
+      <c r="Y17" s="28">
         <v>52</v>
       </c>
       <c r="Z17" s="26">
@@ -36181,8 +36454,11 @@
       <c r="DX17" s="15">
         <v>161</v>
       </c>
+      <c r="DY17" s="15">
+        <v>109</v>
+      </c>
     </row>
-    <row r="18" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -36252,7 +36528,7 @@
       <c r="X18" s="26">
         <v>406</v>
       </c>
-      <c r="Y18" s="26">
+      <c r="Y18" s="28">
         <v>409</v>
       </c>
       <c r="Z18" s="26">
@@ -36564,9 +36840,12 @@
       <c r="DX18" s="34">
         <v>1645</v>
       </c>
+      <c r="DY18" s="34">
+        <v>1703</v>
+      </c>
     </row>
-    <row r="19" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="66" t="s">
+    <row r="19" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -36635,7 +36914,7 @@
       <c r="X19" s="26">
         <v>9</v>
       </c>
-      <c r="Y19" s="26">
+      <c r="Y19" s="28">
         <v>14</v>
       </c>
       <c r="Z19" s="26">
@@ -36947,9 +37226,12 @@
       <c r="DX19" s="15">
         <v>100</v>
       </c>
+      <c r="DY19" s="15">
+        <v>88</v>
+      </c>
     </row>
-    <row r="20" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
+    <row r="20" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="67"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -37016,7 +37298,7 @@
       <c r="X20" s="26">
         <v>39</v>
       </c>
-      <c r="Y20" s="26">
+      <c r="Y20" s="28">
         <v>25</v>
       </c>
       <c r="Z20" s="26">
@@ -37328,9 +37610,12 @@
       <c r="DX20" s="28">
         <v>401</v>
       </c>
+      <c r="DY20" s="28">
+        <v>410</v>
+      </c>
     </row>
-    <row r="21" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
+    <row r="21" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="67"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -37397,7 +37682,7 @@
       <c r="X21" s="26">
         <v>16</v>
       </c>
-      <c r="Y21" s="26">
+      <c r="Y21" s="28">
         <v>27</v>
       </c>
       <c r="Z21" s="26">
@@ -37709,8 +37994,11 @@
       <c r="DX21" s="15">
         <v>50</v>
       </c>
+      <c r="DY21" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -37780,7 +38068,7 @@
       <c r="X22" s="26">
         <v>32</v>
       </c>
-      <c r="Y22" s="26">
+      <c r="Y22" s="28">
         <v>16</v>
       </c>
       <c r="Z22" s="26">
@@ -38092,8 +38380,11 @@
       <c r="DX22" s="15">
         <v>10</v>
       </c>
+      <c r="DY22" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -38163,7 +38454,7 @@
       <c r="X23" s="26">
         <v>1</v>
       </c>
-      <c r="Y23" s="26">
+      <c r="Y23" s="28">
         <v>0</v>
       </c>
       <c r="Z23" s="26">
@@ -38475,8 +38766,11 @@
       <c r="DX23" s="15">
         <v>4</v>
       </c>
+      <c r="DY23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -38546,7 +38840,7 @@
       <c r="X24" s="26">
         <v>2</v>
       </c>
-      <c r="Y24" s="26">
+      <c r="Y24" s="28">
         <v>1</v>
       </c>
       <c r="Z24" s="26">
@@ -38858,8 +39152,11 @@
       <c r="DX24" s="15">
         <v>4</v>
       </c>
+      <c r="DY24" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="25" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -38929,7 +39226,7 @@
       <c r="X25" s="26">
         <v>0</v>
       </c>
-      <c r="Y25" s="26">
+      <c r="Y25" s="28">
         <v>0</v>
       </c>
       <c r="Z25" s="26">
@@ -39241,8 +39538,11 @@
       <c r="DX25" s="15">
         <v>1</v>
       </c>
+      <c r="DY25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -39312,7 +39612,7 @@
       <c r="X26" s="26">
         <v>3</v>
       </c>
-      <c r="Y26" s="26">
+      <c r="Y26" s="28">
         <v>5</v>
       </c>
       <c r="Z26" s="26">
@@ -39624,8 +39924,11 @@
       <c r="DX26" s="15">
         <v>9</v>
       </c>
+      <c r="DY26" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -39695,7 +39998,7 @@
       <c r="X27" s="26">
         <v>0</v>
       </c>
-      <c r="Y27" s="26">
+      <c r="Y27" s="28">
         <v>1</v>
       </c>
       <c r="Z27" s="26">
@@ -40007,8 +40310,11 @@
       <c r="DX27" s="15">
         <v>0</v>
       </c>
+      <c r="DY27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -40078,7 +40384,7 @@
       <c r="X28" s="26">
         <v>1</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="Y28" s="28">
         <v>0</v>
       </c>
       <c r="Z28" s="26">
@@ -40390,9 +40696,12 @@
       <c r="DX28" s="15">
         <v>2</v>
       </c>
+      <c r="DY28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="67" t="s">
+    <row r="29" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -40461,7 +40770,7 @@
       <c r="X29" s="26">
         <v>4</v>
       </c>
-      <c r="Y29" s="26">
+      <c r="Y29" s="28">
         <v>5</v>
       </c>
       <c r="Z29" s="26">
@@ -40773,9 +41082,12 @@
       <c r="DX29" s="15">
         <v>7</v>
       </c>
+      <c r="DY29" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="67"/>
+    <row r="30" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="68"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -40842,7 +41154,7 @@
       <c r="X30" s="26">
         <v>1</v>
       </c>
-      <c r="Y30" s="26">
+      <c r="Y30" s="28">
         <v>2</v>
       </c>
       <c r="Z30" s="26">
@@ -41154,8 +41466,11 @@
       <c r="DX30" s="15">
         <v>7</v>
       </c>
+      <c r="DY30" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -41225,7 +41540,7 @@
       <c r="X31" s="26">
         <v>9</v>
       </c>
-      <c r="Y31" s="26">
+      <c r="Y31" s="28">
         <v>5</v>
       </c>
       <c r="Z31" s="26">
@@ -41537,8 +41852,11 @@
       <c r="DX31" s="15">
         <v>22</v>
       </c>
+      <c r="DY31" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -41608,7 +41926,7 @@
       <c r="X32" s="26">
         <v>1</v>
       </c>
-      <c r="Y32" s="26">
+      <c r="Y32" s="28">
         <v>0</v>
       </c>
       <c r="Z32" s="26">
@@ -41920,8 +42238,11 @@
       <c r="DX32" s="15">
         <v>3</v>
       </c>
+      <c r="DY32" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -41991,7 +42312,7 @@
       <c r="X33" s="26">
         <v>0</v>
       </c>
-      <c r="Y33" s="26">
+      <c r="Y33" s="28">
         <v>0</v>
       </c>
       <c r="Z33" s="26">
@@ -42303,8 +42624,11 @@
       <c r="DX33" s="15">
         <v>1</v>
       </c>
+      <c r="DY33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -42374,7 +42698,7 @@
       <c r="X34" s="26">
         <v>16</v>
       </c>
-      <c r="Y34" s="26">
+      <c r="Y34" s="28">
         <v>9</v>
       </c>
       <c r="Z34" s="26">
@@ -42686,9 +43010,12 @@
       <c r="DX34" s="15">
         <v>35</v>
       </c>
+      <c r="DY34" s="15">
+        <v>53</v>
+      </c>
     </row>
-    <row r="35" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="66" t="s">
+    <row r="35" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="67" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -42757,7 +43084,7 @@
       <c r="X35" s="26">
         <v>154</v>
       </c>
-      <c r="Y35" s="26">
+      <c r="Y35" s="28">
         <v>107</v>
       </c>
       <c r="Z35" s="26">
@@ -43069,9 +43396,12 @@
       <c r="DX35" s="15">
         <v>268</v>
       </c>
+      <c r="DY35" s="15">
+        <v>269</v>
+      </c>
     </row>
-    <row r="36" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="66"/>
+    <row r="36" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="67"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -43138,7 +43468,7 @@
       <c r="X36" s="26">
         <v>13</v>
       </c>
-      <c r="Y36" s="26">
+      <c r="Y36" s="28">
         <v>15</v>
       </c>
       <c r="Z36" s="26">
@@ -43450,8 +43780,11 @@
       <c r="DX36" s="28">
         <v>16</v>
       </c>
+      <c r="DY36" s="28">
+        <v>25</v>
+      </c>
     </row>
-    <row r="37" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -43521,7 +43854,7 @@
       <c r="X37" s="26">
         <v>8</v>
       </c>
-      <c r="Y37" s="26">
+      <c r="Y37" s="28">
         <v>7</v>
       </c>
       <c r="Z37" s="26">
@@ -43833,8 +44166,11 @@
       <c r="DX37" s="15">
         <v>31</v>
       </c>
+      <c r="DY37" s="15">
+        <v>33</v>
+      </c>
     </row>
-    <row r="38" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -43904,7 +44240,7 @@
       <c r="X38" s="26">
         <v>3</v>
       </c>
-      <c r="Y38" s="26">
+      <c r="Y38" s="28">
         <v>8</v>
       </c>
       <c r="Z38" s="26">
@@ -44216,8 +44552,11 @@
       <c r="DX38" s="15">
         <v>4</v>
       </c>
+      <c r="DY38" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="39" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -44287,7 +44626,7 @@
       <c r="X39" s="26">
         <v>6</v>
       </c>
-      <c r="Y39" s="26">
+      <c r="Y39" s="28">
         <v>3</v>
       </c>
       <c r="Z39" s="26">
@@ -44599,8 +44938,11 @@
       <c r="DX39" s="15">
         <v>5</v>
       </c>
+      <c r="DY39" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -44670,7 +45012,7 @@
       <c r="X40" s="26">
         <v>0</v>
       </c>
-      <c r="Y40" s="26">
+      <c r="Y40" s="28">
         <v>0</v>
       </c>
       <c r="Z40" s="26">
@@ -44982,8 +45324,11 @@
       <c r="DX40" s="15">
         <v>0</v>
       </c>
+      <c r="DY40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -45053,7 +45398,7 @@
       <c r="X41" s="26">
         <v>0</v>
       </c>
-      <c r="Y41" s="26">
+      <c r="Y41" s="28">
         <v>0</v>
       </c>
       <c r="Z41" s="26">
@@ -45365,8 +45710,11 @@
       <c r="DX41" s="15">
         <v>0</v>
       </c>
+      <c r="DY41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -45436,7 +45784,7 @@
       <c r="X42" s="26">
         <v>1</v>
       </c>
-      <c r="Y42" s="26">
+      <c r="Y42" s="28">
         <v>1</v>
       </c>
       <c r="Z42" s="26">
@@ -45748,8 +46096,11 @@
       <c r="DX42" s="15">
         <v>9</v>
       </c>
+      <c r="DY42" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="43" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -45819,7 +46170,7 @@
       <c r="X43" s="26">
         <v>21</v>
       </c>
-      <c r="Y43" s="26">
+      <c r="Y43" s="28">
         <v>24</v>
       </c>
       <c r="Z43" s="26">
@@ -46131,8 +46482,11 @@
       <c r="DX43" s="28">
         <v>47</v>
       </c>
+      <c r="DY43" s="28">
+        <v>46</v>
+      </c>
     </row>
-    <row r="44" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -46202,7 +46556,7 @@
       <c r="X44" s="26">
         <v>1</v>
       </c>
-      <c r="Y44" s="26">
+      <c r="Y44" s="28">
         <v>0</v>
       </c>
       <c r="Z44" s="26">
@@ -46514,8 +46868,11 @@
       <c r="DX44" s="15">
         <v>7</v>
       </c>
+      <c r="DY44" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -46585,7 +46942,7 @@
       <c r="X45" s="26">
         <v>4</v>
       </c>
-      <c r="Y45" s="26">
+      <c r="Y45" s="28">
         <v>0</v>
       </c>
       <c r="Z45" s="26">
@@ -46897,8 +47254,11 @@
       <c r="DX45" s="15">
         <v>8</v>
       </c>
+      <c r="DY45" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="46" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -46968,7 +47328,7 @@
       <c r="X46" s="26">
         <v>1</v>
       </c>
-      <c r="Y46" s="26">
+      <c r="Y46" s="28">
         <v>1</v>
       </c>
       <c r="Z46" s="26">
@@ -47280,8 +47640,11 @@
       <c r="DX46" s="15">
         <v>8</v>
       </c>
+      <c r="DY46" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="47" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -47351,7 +47714,7 @@
       <c r="X47" s="26">
         <v>1</v>
       </c>
-      <c r="Y47" s="26">
+      <c r="Y47" s="28">
         <v>0</v>
       </c>
       <c r="Z47" s="26">
@@ -47663,8 +48026,11 @@
       <c r="DX47" s="15">
         <v>0</v>
       </c>
+      <c r="DY47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -47734,7 +48100,7 @@
       <c r="X48" s="26">
         <v>9</v>
       </c>
-      <c r="Y48" s="26">
+      <c r="Y48" s="28">
         <v>6</v>
       </c>
       <c r="Z48" s="26">
@@ -48046,9 +48412,12 @@
       <c r="DX48" s="15">
         <v>3</v>
       </c>
+      <c r="DY48" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="49" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="66" t="s">
+    <row r="49" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -48117,7 +48486,7 @@
       <c r="X49" s="26">
         <v>9</v>
       </c>
-      <c r="Y49" s="26">
+      <c r="Y49" s="28">
         <v>2</v>
       </c>
       <c r="Z49" s="26">
@@ -48429,9 +48798,12 @@
       <c r="DX49" s="15">
         <v>46</v>
       </c>
+      <c r="DY49" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="50" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="66"/>
+    <row r="50" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="67"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -48498,7 +48870,7 @@
       <c r="X50" s="26">
         <v>0</v>
       </c>
-      <c r="Y50" s="26">
+      <c r="Y50" s="28">
         <v>1</v>
       </c>
       <c r="Z50" s="26">
@@ -48810,8 +49182,11 @@
       <c r="DX50" s="15">
         <v>9</v>
       </c>
+      <c r="DY50" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="51" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -48881,7 +49256,7 @@
       <c r="X51" s="26">
         <v>5</v>
       </c>
-      <c r="Y51" s="26">
+      <c r="Y51" s="28">
         <v>1</v>
       </c>
       <c r="Z51" s="26">
@@ -49193,8 +49568,11 @@
       <c r="DX51" s="15">
         <v>4</v>
       </c>
+      <c r="DY51" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -49264,7 +49642,7 @@
       <c r="X52" s="26">
         <v>6</v>
       </c>
-      <c r="Y52" s="26">
+      <c r="Y52" s="28">
         <v>3</v>
       </c>
       <c r="Z52" s="26">
@@ -49576,8 +49954,11 @@
       <c r="DX52" s="15">
         <v>6</v>
       </c>
+      <c r="DY52" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -49647,7 +50028,7 @@
       <c r="X53" s="26">
         <v>9</v>
       </c>
-      <c r="Y53" s="26">
+      <c r="Y53" s="28">
         <v>9</v>
       </c>
       <c r="Z53" s="26">
@@ -49959,8 +50340,11 @@
       <c r="DX53" s="15">
         <v>16</v>
       </c>
+      <c r="DY53" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="54" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -50030,7 +50414,7 @@
       <c r="X54" s="26">
         <v>6</v>
       </c>
-      <c r="Y54" s="26">
+      <c r="Y54" s="28">
         <v>3</v>
       </c>
       <c r="Z54" s="26">
@@ -50342,8 +50726,11 @@
       <c r="DX54" s="15">
         <v>8</v>
       </c>
+      <c r="DY54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -50413,7 +50800,7 @@
       <c r="X55" s="26">
         <v>5</v>
       </c>
-      <c r="Y55" s="26">
+      <c r="Y55" s="28">
         <v>3</v>
       </c>
       <c r="Z55" s="26">
@@ -50725,8 +51112,11 @@
       <c r="DX55" s="15">
         <v>13</v>
       </c>
+      <c r="DY55" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -50796,7 +51186,7 @@
       <c r="X56" s="26">
         <v>1</v>
       </c>
-      <c r="Y56" s="26">
+      <c r="Y56" s="28">
         <v>1</v>
       </c>
       <c r="Z56" s="26">
@@ -51108,8 +51498,11 @@
       <c r="DX56" s="15">
         <v>2</v>
       </c>
+      <c r="DY56" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -51179,7 +51572,7 @@
       <c r="X57" s="26">
         <v>0</v>
       </c>
-      <c r="Y57" s="26">
+      <c r="Y57" s="28">
         <v>0</v>
       </c>
       <c r="Z57" s="26">
@@ -51491,8 +51884,11 @@
       <c r="DX57" s="15">
         <v>0</v>
       </c>
+      <c r="DY57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -51581,7 +51977,7 @@
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="Y58" s="27">
+      <c r="Y58" s="43">
         <f t="shared" si="0"/>
         <v>853</v>
       </c>
@@ -51961,7 +52357,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:DX58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:DY58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -51996,17 +52392,13 @@
         <f t="shared" si="8"/>
         <v>3305</v>
       </c>
+      <c r="DY58" s="14">
+        <f t="shared" si="8"/>
+        <v>3258</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="DW4:DW5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="DM4:DM5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DG4:DG5"/>
-    <mergeCell ref="CY4:CY5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
+  <mergeCells count="142">
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
     <mergeCell ref="DS4:DS5"/>
@@ -52014,8 +52406,14 @@
     <mergeCell ref="DQ4:DQ5"/>
     <mergeCell ref="DT4:DT5"/>
     <mergeCell ref="DV4:DV5"/>
-    <mergeCell ref="DD2:DX2"/>
-    <mergeCell ref="DD3:DX3"/>
+    <mergeCell ref="DD2:DY2"/>
+    <mergeCell ref="DD3:DY3"/>
+    <mergeCell ref="DY4:DY5"/>
+    <mergeCell ref="DW4:DW5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="DM4:DM5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DG4:DG5"/>
     <mergeCell ref="DX4:DX5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="CO4:CO5"/>
@@ -52038,6 +52436,9 @@
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="CY4:CY5"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="CA4:CA5"/>
@@ -52174,7 +52575,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:DX57</xm:sqref>
+          <xm:sqref>DP6:DY57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -52184,13 +52585,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX61"/>
+  <dimension ref="A1:BY61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BU6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BQ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BX4" sqref="BX4:BX5"/>
+      <selection pane="bottomRight" activeCell="BY60" sqref="BY60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -52203,11 +52604,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="76" width="10.875" style="1" customWidth="1"/>
-    <col min="77" max="16384" width="8.625" style="1"/>
+    <col min="54" max="77" width="10.875" style="1" customWidth="1"/>
+    <col min="78" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:77" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -52258,136 +52659,138 @@
       <c r="BU1" s="19"/>
       <c r="BV1" s="19"/>
       <c r="BW1" s="19"/>
-      <c r="BX1" s="19" t="s">
+      <c r="BX1" s="19"/>
+      <c r="BY1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:76" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+    <row r="2" spans="1:77" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="70" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
     </row>
-    <row r="3" spans="1:76" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="75" t="s">
+    <row r="3" spans="1:77" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
       <c r="AR3" s="51" t="s">
         <v>286</v>
       </c>
@@ -52425,312 +52828,317 @@
       <c r="BV3" s="51"/>
       <c r="BW3" s="51"/>
       <c r="BX3" s="51"/>
+      <c r="BY3" s="51"/>
     </row>
-    <row r="4" spans="1:76" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46" t="s">
+    <row r="4" spans="1:77" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y4" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AB4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="46" t="s">
+      <c r="AC4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="46" t="s">
+      <c r="AD4" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="AE4" s="48" t="s">
+      <c r="AE4" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="AF4" s="48" t="s">
+      <c r="AF4" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="AG4" s="48" t="s">
+      <c r="AG4" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="AH4" s="48" t="s">
+      <c r="AH4" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="AI4" s="48" t="s">
+      <c r="AI4" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="48" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="AK4" s="48" t="s">
+      <c r="AK4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="AL4" s="48" t="s">
+      <c r="AL4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AM4" s="48" t="s">
+      <c r="AM4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="AN4" s="48" t="s">
+      <c r="AN4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="AQ4" s="48" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="AR4" s="48" t="s">
+      <c r="AR4" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="AT4" s="48" t="s">
+      <c r="AT4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="AV4" s="48" t="s">
+      <c r="AV4" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="AY4" s="48" t="s">
+      <c r="AY4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="AZ4" s="48" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="BA4" s="48" t="s">
+      <c r="BA4" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="BB4" s="48" t="s">
+      <c r="BB4" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="BC4" s="48" t="s">
+      <c r="BC4" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="BD4" s="50" t="s">
+      <c r="BD4" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="BE4" s="50" t="s">
+      <c r="BE4" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="BF4" s="50" t="s">
+      <c r="BF4" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="BG4" s="50" t="s">
+      <c r="BG4" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="BH4" s="50" t="s">
+      <c r="BH4" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="BI4" s="50" t="s">
+      <c r="BI4" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="BJ4" s="50" t="s">
+      <c r="BJ4" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="BK4" s="50" t="s">
+      <c r="BK4" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="BL4" s="50" t="s">
+      <c r="BL4" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="BM4" s="50" t="s">
+      <c r="BM4" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="BN4" s="50" t="s">
+      <c r="BN4" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="BO4" s="50" t="s">
+      <c r="BO4" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BQ4" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BR4" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BS4" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BT4" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BU4" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BV4" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BX4" s="55" t="s">
         <v>377</v>
       </c>
+      <c r="BY4" s="55" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="49"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="49"/>
-      <c r="BP5" s="49"/>
-      <c r="BQ5" s="49"/>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49"/>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="49"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="49"/>
-      <c r="BX5" s="49"/>
+    <row r="5" spans="1:77" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="62"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
     </row>
-    <row r="6" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -52957,8 +53365,11 @@
       <c r="BX6" s="28">
         <v>60</v>
       </c>
+      <c r="BY6" s="28">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -53184,8 +53595,11 @@
       <c r="BX7" s="15">
         <v>0</v>
       </c>
+      <c r="BY7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -53411,8 +53825,11 @@
       <c r="BX8" s="28">
         <v>3</v>
       </c>
+      <c r="BY8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -53639,8 +54056,11 @@
       <c r="BX9" s="15">
         <v>29</v>
       </c>
+      <c r="BY9" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -53866,8 +54286,11 @@
       <c r="BX10" s="15">
         <v>1</v>
       </c>
+      <c r="BY10" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -54093,8 +54516,11 @@
       <c r="BX11" s="15">
         <v>14</v>
       </c>
+      <c r="BY11" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -54320,8 +54746,11 @@
       <c r="BX12" s="15">
         <v>9</v>
       </c>
+      <c r="BY12" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -54547,8 +54976,11 @@
       <c r="BX13" s="15">
         <v>25</v>
       </c>
+      <c r="BY13" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -54774,8 +55206,11 @@
       <c r="BX14" s="15">
         <v>19</v>
       </c>
+      <c r="BY14" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -55001,8 +55436,11 @@
       <c r="BX15" s="15">
         <v>1</v>
       </c>
+      <c r="BY15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -55229,8 +55667,11 @@
       <c r="BX16" s="28">
         <v>28</v>
       </c>
+      <c r="BY16" s="28">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -55456,8 +55897,11 @@
       <c r="BX17" s="15">
         <v>153</v>
       </c>
+      <c r="BY17" s="15">
+        <v>124</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -55684,10 +56128,13 @@
       <c r="BX18" s="34">
         <v>780</v>
       </c>
+      <c r="BY18" s="34">
+        <v>592</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="81" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -55912,10 +56359,13 @@
       <c r="BX19" s="15">
         <v>71</v>
       </c>
+      <c r="BY19" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -56138,10 +56588,13 @@
       <c r="BX20" s="28">
         <v>287</v>
       </c>
+      <c r="BY20" s="28">
+        <v>197</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -56364,8 +56817,11 @@
       <c r="BX21" s="15">
         <v>39</v>
       </c>
+      <c r="BY21" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -56591,8 +57047,11 @@
       <c r="BX22" s="15">
         <v>8</v>
       </c>
+      <c r="BY22" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -56818,8 +57277,11 @@
       <c r="BX23" s="15">
         <v>0</v>
       </c>
+      <c r="BY23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -57045,8 +57507,11 @@
       <c r="BX24" s="15">
         <v>9</v>
       </c>
+      <c r="BY24" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -57272,8 +57737,11 @@
       <c r="BX25" s="15">
         <v>2</v>
       </c>
+      <c r="BY25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -57499,8 +57967,11 @@
       <c r="BX26" s="15">
         <v>13</v>
       </c>
+      <c r="BY26" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -57726,8 +58197,11 @@
       <c r="BX27" s="15">
         <v>1</v>
       </c>
+      <c r="BY27" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -57953,9 +58427,12 @@
       <c r="BX28" s="15">
         <v>2</v>
       </c>
+      <c r="BY28" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="80" t="s">
+    <row r="29" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -58180,9 +58657,12 @@
       <c r="BX29" s="15">
         <v>2</v>
       </c>
+      <c r="BY29" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="81"/>
+    <row r="30" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="84"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -58405,8 +58885,11 @@
       <c r="BX30" s="15">
         <v>31</v>
       </c>
+      <c r="BY30" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="31" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -58633,8 +59116,11 @@
       <c r="BX31" s="15">
         <v>116</v>
       </c>
+      <c r="BY31" s="15">
+        <v>128</v>
+      </c>
     </row>
-    <row r="32" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -58860,8 +59346,11 @@
       <c r="BX32" s="15">
         <v>2</v>
       </c>
+      <c r="BY32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -59087,8 +59576,11 @@
       <c r="BX33" s="15">
         <v>0</v>
       </c>
+      <c r="BY33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -59315,10 +59807,13 @@
       <c r="BX34" s="15">
         <v>55</v>
       </c>
+      <c r="BY34" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="35" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="81" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -59543,9 +60038,12 @@
       <c r="BX35" s="15">
         <v>192</v>
       </c>
+      <c r="BY35" s="15">
+        <v>132</v>
+      </c>
     </row>
-    <row r="36" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="79"/>
+    <row r="36" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="82"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -59768,8 +60266,11 @@
       <c r="BX36" s="28">
         <v>75</v>
       </c>
+      <c r="BY36" s="28">
+        <v>84</v>
+      </c>
     </row>
-    <row r="37" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -59996,8 +60497,11 @@
       <c r="BX37" s="15">
         <v>64</v>
       </c>
+      <c r="BY37" s="15">
+        <v>50</v>
+      </c>
     </row>
-    <row r="38" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -60223,8 +60727,11 @@
       <c r="BX38" s="15">
         <v>29</v>
       </c>
+      <c r="BY38" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="39" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -60450,8 +60957,11 @@
       <c r="BX39" s="15">
         <v>11</v>
       </c>
+      <c r="BY39" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="40" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -60677,8 +61187,11 @@
       <c r="BX40" s="15">
         <v>0</v>
       </c>
+      <c r="BY40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -60904,8 +61417,11 @@
       <c r="BX41" s="15">
         <v>0</v>
       </c>
+      <c r="BY41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -61131,8 +61647,11 @@
       <c r="BX42" s="15">
         <v>20</v>
       </c>
+      <c r="BY42" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -61358,8 +61877,11 @@
       <c r="BX43" s="28">
         <v>77</v>
       </c>
+      <c r="BY43" s="28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="44" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -61585,8 +62107,11 @@
       <c r="BX44" s="15">
         <v>8</v>
       </c>
+      <c r="BY44" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -61812,8 +62337,11 @@
       <c r="BX45" s="15">
         <v>17</v>
       </c>
+      <c r="BY45" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="46" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -62039,8 +62567,11 @@
       <c r="BX46" s="15">
         <v>25</v>
       </c>
+      <c r="BY46" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="47" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -62266,8 +62797,11 @@
       <c r="BX47" s="15">
         <v>6</v>
       </c>
+      <c r="BY47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -62493,10 +63027,13 @@
       <c r="BX48" s="15">
         <v>34</v>
       </c>
+      <c r="BY48" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="49" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="81" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -62721,9 +63258,12 @@
       <c r="BX49" s="15">
         <v>66</v>
       </c>
+      <c r="BY49" s="15">
+        <v>53</v>
+      </c>
     </row>
-    <row r="50" spans="1:76" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="79"/>
+    <row r="50" spans="1:77" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="82"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -62946,8 +63486,11 @@
       <c r="BX50" s="15">
         <v>46</v>
       </c>
+      <c r="BY50" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="51" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -63173,8 +63716,11 @@
       <c r="BX51" s="15">
         <v>0</v>
       </c>
+      <c r="BY51" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -63400,8 +63946,11 @@
       <c r="BX52" s="15">
         <v>17</v>
       </c>
+      <c r="BY52" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="53" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -63627,8 +64176,11 @@
       <c r="BX53" s="15">
         <v>24</v>
       </c>
+      <c r="BY53" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="54" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -63854,8 +64406,11 @@
       <c r="BX54" s="15">
         <v>14</v>
       </c>
+      <c r="BY54" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -64081,8 +64636,11 @@
       <c r="BX55" s="15">
         <v>8</v>
       </c>
+      <c r="BY55" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -64308,8 +64866,11 @@
       <c r="BX56" s="15">
         <v>0</v>
       </c>
+      <c r="BY56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -64535,8 +65096,11 @@
       <c r="BX57" s="15">
         <v>2</v>
       </c>
+      <c r="BY57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -64806,7 +65370,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BX58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BY58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -64833,8 +65397,12 @@
         <f t="shared" si="8"/>
         <v>2495</v>
       </c>
+      <c r="BY58" s="14">
+        <f t="shared" si="8"/>
+        <v>1937</v>
+      </c>
     </row>
-    <row r="59" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -64867,7 +65435,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -64900,7 +65468,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:76" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:77" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -64934,9 +65502,9 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="BD2:BX2"/>
-    <mergeCell ref="BD3:BX3"/>
+  <mergeCells count="86">
+    <mergeCell ref="BD3:BY3"/>
+    <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BV4:BV5"/>
@@ -64965,6 +65533,7 @@
     <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -65004,7 +65573,6 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="D2:BC2"/>
@@ -65020,13 +65588,14 @@
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BD2:BY2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="76" max="66" man="1"/>
+    <brk id="77" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -65043,7 +65612,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BX57</xm:sqref>
+          <xm:sqref>BP6:BY57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -65053,13 +65622,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC61"/>
+  <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BD6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD3" sqref="BD3:BX3"/>
+      <selection pane="bottomRight" activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -65070,11 +65639,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="81" width="10.875" style="1" customWidth="1"/>
-    <col min="82" max="16384" width="8.625" style="1"/>
+    <col min="34" max="82" width="10.875" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -65125,141 +65694,143 @@
       <c r="BU1" s="19"/>
       <c r="BV1" s="19"/>
       <c r="BW1" s="19"/>
-      <c r="BX1" s="19" t="s">
+      <c r="BX1" s="19"/>
+      <c r="BY1" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+    <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="70" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="20"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
       <c r="BZ2" s="20"/>
       <c r="CA2" s="20"/>
       <c r="CB2" s="20"/>
       <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
     </row>
-    <row r="3" spans="1:81" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="75" t="s">
+    <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
       <c r="AR3" s="51" t="s">
         <v>286</v>
       </c>
@@ -65297,327 +65868,332 @@
       <c r="BV3" s="51"/>
       <c r="BW3" s="51"/>
       <c r="BX3" s="51"/>
-      <c r="BY3" s="21"/>
+      <c r="BY3" s="51"/>
       <c r="BZ3" s="21"/>
       <c r="CA3" s="21"/>
       <c r="CB3" s="21"/>
       <c r="CC3" s="21"/>
+      <c r="CD3" s="21"/>
     </row>
-    <row r="4" spans="1:81" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46" t="s">
+    <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y4" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AB4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="46" t="s">
+      <c r="AC4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="46" t="s">
+      <c r="AD4" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="AE4" s="48" t="s">
+      <c r="AE4" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="AF4" s="48" t="s">
+      <c r="AF4" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="AG4" s="48" t="s">
+      <c r="AG4" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="AH4" s="48" t="s">
+      <c r="AH4" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="AI4" s="48" t="s">
+      <c r="AI4" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="48" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="AK4" s="48" t="s">
+      <c r="AK4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="AL4" s="48" t="s">
+      <c r="AL4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AM4" s="48" t="s">
+      <c r="AM4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="AN4" s="48" t="s">
+      <c r="AN4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="AQ4" s="48" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="AR4" s="48" t="s">
+      <c r="AR4" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="AT4" s="48" t="s">
+      <c r="AT4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="AV4" s="48" t="s">
+      <c r="AV4" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="AY4" s="48" t="s">
+      <c r="AY4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="AZ4" s="48" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="BA4" s="48" t="s">
+      <c r="BA4" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="BB4" s="48" t="s">
+      <c r="BB4" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="BC4" s="48" t="s">
+      <c r="BC4" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="BD4" s="50" t="s">
+      <c r="BD4" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="BE4" s="50" t="s">
+      <c r="BE4" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="BF4" s="50" t="s">
+      <c r="BF4" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="BG4" s="50" t="s">
+      <c r="BG4" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="BH4" s="50" t="s">
+      <c r="BH4" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="BI4" s="50" t="s">
+      <c r="BI4" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="BJ4" s="50" t="s">
+      <c r="BJ4" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="BK4" s="50" t="s">
+      <c r="BK4" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="BL4" s="50" t="s">
+      <c r="BL4" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="BM4" s="50" t="s">
+      <c r="BM4" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="BN4" s="50" t="s">
+      <c r="BN4" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="BO4" s="50" t="s">
+      <c r="BO4" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BQ4" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BR4" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BS4" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BT4" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BU4" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BV4" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BX4" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="BY4" s="83"/>
-      <c r="BZ4" s="83"/>
-      <c r="CA4" s="83"/>
-      <c r="CB4" s="83"/>
-      <c r="CC4" s="83"/>
+      <c r="BY4" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="BZ4" s="86"/>
+      <c r="CA4" s="86"/>
+      <c r="CB4" s="86"/>
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="86"/>
     </row>
-    <row r="5" spans="1:81" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="49"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="49"/>
-      <c r="BP5" s="49"/>
-      <c r="BQ5" s="50"/>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50"/>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="50"/>
-      <c r="BV5" s="50"/>
-      <c r="BW5" s="50"/>
-      <c r="BX5" s="50"/>
-      <c r="BY5" s="83"/>
-      <c r="BZ5" s="83"/>
-      <c r="CA5" s="83"/>
-      <c r="CB5" s="83"/>
-      <c r="CC5" s="83"/>
+    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="62"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="55"/>
+      <c r="BR5" s="55"/>
+      <c r="BS5" s="55"/>
+      <c r="BT5" s="55"/>
+      <c r="BU5" s="55"/>
+      <c r="BV5" s="55"/>
+      <c r="BW5" s="55"/>
+      <c r="BX5" s="55"/>
+      <c r="BY5" s="55"/>
+      <c r="BZ5" s="86"/>
+      <c r="CA5" s="86"/>
+      <c r="CB5" s="86"/>
+      <c r="CC5" s="86"/>
+      <c r="CD5" s="86"/>
     </row>
-    <row r="6" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -65844,13 +66420,16 @@
       <c r="BX6" s="28">
         <v>110</v>
       </c>
-      <c r="BY6" s="22"/>
+      <c r="BY6" s="28">
+        <v>89</v>
+      </c>
       <c r="BZ6" s="22"/>
       <c r="CA6" s="22"/>
       <c r="CB6" s="22"/>
       <c r="CC6" s="22"/>
+      <c r="CD6" s="22"/>
     </row>
-    <row r="7" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -66076,13 +66655,16 @@
       <c r="BX7" s="15">
         <v>0</v>
       </c>
-      <c r="BY7" s="23"/>
+      <c r="BY7" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ7" s="23"/>
       <c r="CA7" s="23"/>
       <c r="CB7" s="23"/>
       <c r="CC7" s="23"/>
+      <c r="CD7" s="23"/>
     </row>
-    <row r="8" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -66308,13 +66890,16 @@
       <c r="BX8" s="28">
         <v>18</v>
       </c>
-      <c r="BY8" s="23"/>
+      <c r="BY8" s="28">
+        <v>7</v>
+      </c>
       <c r="BZ8" s="23"/>
       <c r="CA8" s="23"/>
       <c r="CB8" s="23"/>
       <c r="CC8" s="23"/>
+      <c r="CD8" s="23"/>
     </row>
-    <row r="9" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -66541,13 +67126,16 @@
       <c r="BX9" s="15">
         <v>132</v>
       </c>
-      <c r="BY9" s="23"/>
+      <c r="BY9" s="15">
+        <v>87</v>
+      </c>
       <c r="BZ9" s="23"/>
       <c r="CA9" s="23"/>
       <c r="CB9" s="23"/>
       <c r="CC9" s="23"/>
+      <c r="CD9" s="23"/>
     </row>
-    <row r="10" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -66773,13 +67361,16 @@
       <c r="BX10" s="15">
         <v>1</v>
       </c>
-      <c r="BY10" s="23"/>
+      <c r="BY10" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ10" s="23"/>
       <c r="CA10" s="23"/>
       <c r="CB10" s="23"/>
       <c r="CC10" s="23"/>
+      <c r="CD10" s="23"/>
     </row>
-    <row r="11" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -67005,13 +67596,16 @@
       <c r="BX11" s="15">
         <v>5</v>
       </c>
-      <c r="BY11" s="23"/>
+      <c r="BY11" s="15">
+        <v>2</v>
+      </c>
       <c r="BZ11" s="23"/>
       <c r="CA11" s="23"/>
       <c r="CB11" s="23"/>
       <c r="CC11" s="23"/>
+      <c r="CD11" s="23"/>
     </row>
-    <row r="12" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -67237,13 +67831,16 @@
       <c r="BX12" s="15">
         <v>12</v>
       </c>
-      <c r="BY12" s="23"/>
+      <c r="BY12" s="15">
+        <v>12</v>
+      </c>
       <c r="BZ12" s="23"/>
       <c r="CA12" s="23"/>
       <c r="CB12" s="23"/>
       <c r="CC12" s="23"/>
+      <c r="CD12" s="23"/>
     </row>
-    <row r="13" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -67469,13 +68066,16 @@
       <c r="BX13" s="15">
         <v>15</v>
       </c>
-      <c r="BY13" s="22"/>
+      <c r="BY13" s="15">
+        <v>18</v>
+      </c>
       <c r="BZ13" s="22"/>
       <c r="CA13" s="22"/>
       <c r="CB13" s="22"/>
       <c r="CC13" s="22"/>
+      <c r="CD13" s="22"/>
     </row>
-    <row r="14" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -67701,13 +68301,16 @@
       <c r="BX14" s="15">
         <v>11</v>
       </c>
-      <c r="BY14" s="23"/>
+      <c r="BY14" s="15">
+        <v>13</v>
+      </c>
       <c r="BZ14" s="23"/>
       <c r="CA14" s="23"/>
       <c r="CB14" s="23"/>
       <c r="CC14" s="23"/>
+      <c r="CD14" s="23"/>
     </row>
-    <row r="15" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -67933,13 +68536,16 @@
       <c r="BX15" s="15">
         <v>3</v>
       </c>
-      <c r="BY15" s="23"/>
+      <c r="BY15" s="15">
+        <v>3</v>
+      </c>
       <c r="BZ15" s="23"/>
       <c r="CA15" s="23"/>
       <c r="CB15" s="23"/>
       <c r="CC15" s="23"/>
+      <c r="CD15" s="23"/>
     </row>
-    <row r="16" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -68166,13 +68772,16 @@
       <c r="BX16" s="28">
         <v>193</v>
       </c>
-      <c r="BY16" s="22"/>
+      <c r="BY16" s="28">
+        <v>203</v>
+      </c>
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
       <c r="CC16" s="22"/>
+      <c r="CD16" s="22"/>
     </row>
-    <row r="17" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -68398,13 +69007,16 @@
       <c r="BX17" s="15">
         <v>98</v>
       </c>
-      <c r="BY17" s="22"/>
+      <c r="BY17" s="15">
+        <v>109</v>
+      </c>
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
       <c r="CB17" s="22"/>
       <c r="CC17" s="22"/>
+      <c r="CD17" s="22"/>
     </row>
-    <row r="18" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -68631,15 +69243,18 @@
       <c r="BX18" s="34">
         <v>1760</v>
       </c>
-      <c r="BY18" s="22"/>
+      <c r="BY18" s="34">
+        <v>1576</v>
+      </c>
       <c r="BZ18" s="22"/>
       <c r="CA18" s="22"/>
       <c r="CB18" s="22"/>
       <c r="CC18" s="22"/>
+      <c r="CD18" s="22"/>
     </row>
-    <row r="19" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="81" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -68864,15 +69479,18 @@
       <c r="BX19" s="15">
         <v>31</v>
       </c>
-      <c r="BY19" s="22"/>
+      <c r="BY19" s="15">
+        <v>28</v>
+      </c>
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
       <c r="CB19" s="22"/>
       <c r="CC19" s="22"/>
+      <c r="CD19" s="22"/>
     </row>
-    <row r="20" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -69095,15 +69713,18 @@
       <c r="BX20" s="28">
         <v>122</v>
       </c>
-      <c r="BY20" s="22"/>
+      <c r="BY20" s="28">
+        <v>96</v>
+      </c>
       <c r="BZ20" s="22"/>
       <c r="CA20" s="22"/>
       <c r="CB20" s="22"/>
       <c r="CC20" s="22"/>
+      <c r="CD20" s="22"/>
     </row>
-    <row r="21" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -69326,13 +69947,16 @@
       <c r="BX21" s="15">
         <v>33</v>
       </c>
-      <c r="BY21" s="22"/>
+      <c r="BY21" s="15">
+        <v>28</v>
+      </c>
       <c r="BZ21" s="22"/>
       <c r="CA21" s="22"/>
       <c r="CB21" s="22"/>
       <c r="CC21" s="22"/>
+      <c r="CD21" s="22"/>
     </row>
-    <row r="22" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -69558,13 +70182,16 @@
       <c r="BX22" s="15">
         <v>5</v>
       </c>
-      <c r="BY22" s="23"/>
+      <c r="BY22" s="15">
+        <v>4</v>
+      </c>
       <c r="BZ22" s="23"/>
       <c r="CA22" s="23"/>
       <c r="CB22" s="23"/>
       <c r="CC22" s="23"/>
+      <c r="CD22" s="23"/>
     </row>
-    <row r="23" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -69790,13 +70417,16 @@
       <c r="BX23" s="15">
         <v>1</v>
       </c>
-      <c r="BY23" s="23"/>
+      <c r="BY23" s="15">
+        <v>4</v>
+      </c>
       <c r="BZ23" s="23"/>
       <c r="CA23" s="23"/>
       <c r="CB23" s="23"/>
       <c r="CC23" s="23"/>
+      <c r="CD23" s="23"/>
     </row>
-    <row r="24" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -70022,13 +70652,16 @@
       <c r="BX24" s="15">
         <v>14</v>
       </c>
-      <c r="BY24" s="22"/>
+      <c r="BY24" s="15">
+        <v>14</v>
+      </c>
       <c r="BZ24" s="22"/>
       <c r="CA24" s="22"/>
       <c r="CB24" s="22"/>
       <c r="CC24" s="22"/>
+      <c r="CD24" s="22"/>
     </row>
-    <row r="25" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -70254,13 +70887,16 @@
       <c r="BX25" s="15">
         <v>1</v>
       </c>
-      <c r="BY25" s="23"/>
+      <c r="BY25" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ25" s="23"/>
       <c r="CA25" s="23"/>
       <c r="CB25" s="23"/>
       <c r="CC25" s="23"/>
+      <c r="CD25" s="23"/>
     </row>
-    <row r="26" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -70486,13 +71122,16 @@
       <c r="BX26" s="15">
         <v>8</v>
       </c>
-      <c r="BY26" s="23"/>
+      <c r="BY26" s="15">
+        <v>13</v>
+      </c>
       <c r="BZ26" s="23"/>
       <c r="CA26" s="23"/>
       <c r="CB26" s="23"/>
       <c r="CC26" s="23"/>
+      <c r="CD26" s="23"/>
     </row>
-    <row r="27" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -70718,13 +71357,16 @@
       <c r="BX27" s="15">
         <v>0</v>
       </c>
-      <c r="BY27" s="23"/>
+      <c r="BY27" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ27" s="23"/>
       <c r="CA27" s="23"/>
       <c r="CB27" s="23"/>
       <c r="CC27" s="23"/>
+      <c r="CD27" s="23"/>
     </row>
-    <row r="28" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -70950,14 +71592,17 @@
       <c r="BX28" s="15">
         <v>2</v>
       </c>
-      <c r="BY28" s="22"/>
+      <c r="BY28" s="15">
+        <v>5</v>
+      </c>
       <c r="BZ28" s="22"/>
       <c r="CA28" s="22"/>
       <c r="CB28" s="22"/>
       <c r="CC28" s="22"/>
+      <c r="CD28" s="22"/>
     </row>
-    <row r="29" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="80" t="s">
+    <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -71182,14 +71827,17 @@
       <c r="BX29" s="15">
         <v>7</v>
       </c>
-      <c r="BY29" s="23"/>
+      <c r="BY29" s="15">
+        <v>1</v>
+      </c>
       <c r="BZ29" s="23"/>
       <c r="CA29" s="23"/>
       <c r="CB29" s="23"/>
       <c r="CC29" s="23"/>
+      <c r="CD29" s="23"/>
     </row>
-    <row r="30" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="81"/>
+    <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="84"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -71412,13 +72060,16 @@
       <c r="BX30" s="15">
         <v>16</v>
       </c>
-      <c r="BY30" s="23"/>
+      <c r="BY30" s="15">
+        <v>15</v>
+      </c>
       <c r="BZ30" s="23"/>
       <c r="CA30" s="23"/>
       <c r="CB30" s="23"/>
       <c r="CC30" s="23"/>
+      <c r="CD30" s="23"/>
     </row>
-    <row r="31" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -71645,13 +72296,16 @@
       <c r="BX31" s="15">
         <v>55</v>
       </c>
-      <c r="BY31" s="22"/>
+      <c r="BY31" s="15">
+        <v>44</v>
+      </c>
       <c r="BZ31" s="22"/>
       <c r="CA31" s="22"/>
       <c r="CB31" s="22"/>
       <c r="CC31" s="22"/>
+      <c r="CD31" s="22"/>
     </row>
-    <row r="32" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -71877,13 +72531,16 @@
       <c r="BX32" s="15">
         <v>1</v>
       </c>
-      <c r="BY32" s="23"/>
+      <c r="BY32" s="15">
+        <v>2</v>
+      </c>
       <c r="BZ32" s="23"/>
       <c r="CA32" s="23"/>
       <c r="CB32" s="23"/>
       <c r="CC32" s="23"/>
+      <c r="CD32" s="23"/>
     </row>
-    <row r="33" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -72109,13 +72766,16 @@
       <c r="BX33" s="15">
         <v>0</v>
       </c>
-      <c r="BY33" s="23"/>
+      <c r="BY33" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ33" s="23"/>
       <c r="CA33" s="23"/>
       <c r="CB33" s="23"/>
       <c r="CC33" s="23"/>
+      <c r="CD33" s="23"/>
     </row>
-    <row r="34" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -72342,15 +73002,18 @@
       <c r="BX34" s="15">
         <v>90</v>
       </c>
-      <c r="BY34" s="22"/>
+      <c r="BY34" s="15">
+        <v>73</v>
+      </c>
       <c r="BZ34" s="22"/>
       <c r="CA34" s="22"/>
       <c r="CB34" s="22"/>
       <c r="CC34" s="22"/>
+      <c r="CD34" s="22"/>
     </row>
-    <row r="35" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="81" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -72575,14 +73238,17 @@
       <c r="BX35" s="15">
         <v>383</v>
       </c>
-      <c r="BY35" s="22"/>
+      <c r="BY35" s="15">
+        <v>308</v>
+      </c>
       <c r="BZ35" s="22"/>
       <c r="CA35" s="22"/>
       <c r="CB35" s="22"/>
       <c r="CC35" s="22"/>
+      <c r="CD35" s="22"/>
     </row>
-    <row r="36" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="79"/>
+    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="82"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -72805,13 +73471,16 @@
       <c r="BX36" s="28">
         <v>39</v>
       </c>
-      <c r="BY36" s="22"/>
+      <c r="BY36" s="28">
+        <v>37</v>
+      </c>
       <c r="BZ36" s="22"/>
       <c r="CA36" s="22"/>
       <c r="CB36" s="22"/>
       <c r="CC36" s="22"/>
+      <c r="CD36" s="22"/>
     </row>
-    <row r="37" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -73038,13 +73707,16 @@
       <c r="BX37" s="15">
         <v>83</v>
       </c>
-      <c r="BY37" s="22"/>
+      <c r="BY37" s="15">
+        <v>56</v>
+      </c>
       <c r="BZ37" s="22"/>
       <c r="CA37" s="22"/>
       <c r="CB37" s="22"/>
       <c r="CC37" s="22"/>
+      <c r="CD37" s="22"/>
     </row>
-    <row r="38" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -73270,13 +73942,16 @@
       <c r="BX38" s="15">
         <v>16</v>
       </c>
-      <c r="BY38" s="23"/>
+      <c r="BY38" s="15">
+        <v>10</v>
+      </c>
       <c r="BZ38" s="23"/>
       <c r="CA38" s="23"/>
       <c r="CB38" s="23"/>
       <c r="CC38" s="23"/>
+      <c r="CD38" s="23"/>
     </row>
-    <row r="39" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -73502,13 +74177,16 @@
       <c r="BX39" s="15">
         <v>10</v>
       </c>
-      <c r="BY39" s="23"/>
+      <c r="BY39" s="15">
+        <v>9</v>
+      </c>
       <c r="BZ39" s="23"/>
       <c r="CA39" s="23"/>
       <c r="CB39" s="23"/>
       <c r="CC39" s="23"/>
+      <c r="CD39" s="23"/>
     </row>
-    <row r="40" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -73734,13 +74412,16 @@
       <c r="BX40" s="15">
         <v>0</v>
       </c>
-      <c r="BY40" s="23"/>
+      <c r="BY40" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ40" s="23"/>
       <c r="CA40" s="23"/>
       <c r="CB40" s="23"/>
       <c r="CC40" s="23"/>
+      <c r="CD40" s="23"/>
     </row>
-    <row r="41" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -73966,13 +74647,16 @@
       <c r="BX41" s="15">
         <v>0</v>
       </c>
-      <c r="BY41" s="23"/>
+      <c r="BY41" s="15">
+        <v>0</v>
+      </c>
       <c r="BZ41" s="23"/>
       <c r="CA41" s="23"/>
       <c r="CB41" s="23"/>
       <c r="CC41" s="23"/>
+      <c r="CD41" s="23"/>
     </row>
-    <row r="42" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -74198,13 +74882,16 @@
       <c r="BX42" s="15">
         <v>9</v>
       </c>
-      <c r="BY42" s="23"/>
+      <c r="BY42" s="15">
+        <v>8</v>
+      </c>
       <c r="BZ42" s="23"/>
       <c r="CA42" s="23"/>
       <c r="CB42" s="23"/>
       <c r="CC42" s="23"/>
+      <c r="CD42" s="23"/>
     </row>
-    <row r="43" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -74430,13 +75117,16 @@
       <c r="BX43" s="28">
         <v>54</v>
       </c>
-      <c r="BY43" s="23"/>
+      <c r="BY43" s="28">
+        <v>43</v>
+      </c>
       <c r="BZ43" s="23"/>
       <c r="CA43" s="23"/>
       <c r="CB43" s="23"/>
       <c r="CC43" s="23"/>
+      <c r="CD43" s="23"/>
     </row>
-    <row r="44" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -74662,13 +75352,16 @@
       <c r="BX44" s="15">
         <v>1</v>
       </c>
-      <c r="BY44" s="23"/>
+      <c r="BY44" s="15">
+        <v>2</v>
+      </c>
       <c r="BZ44" s="23"/>
       <c r="CA44" s="23"/>
       <c r="CB44" s="23"/>
       <c r="CC44" s="23"/>
+      <c r="CD44" s="23"/>
     </row>
-    <row r="45" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -74894,13 +75587,16 @@
       <c r="BX45" s="15">
         <v>14</v>
       </c>
-      <c r="BY45" s="22"/>
+      <c r="BY45" s="15">
+        <v>21</v>
+      </c>
       <c r="BZ45" s="22"/>
       <c r="CA45" s="22"/>
       <c r="CB45" s="22"/>
       <c r="CC45" s="22"/>
+      <c r="CD45" s="22"/>
     </row>
-    <row r="46" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -75126,13 +75822,16 @@
       <c r="BX46" s="15">
         <v>35</v>
       </c>
-      <c r="BY46" s="23"/>
+      <c r="BY46" s="15">
+        <v>34</v>
+      </c>
       <c r="BZ46" s="23"/>
       <c r="CA46" s="23"/>
       <c r="CB46" s="23"/>
       <c r="CC46" s="23"/>
+      <c r="CD46" s="23"/>
     </row>
-    <row r="47" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -75358,13 +76057,16 @@
       <c r="BX47" s="15">
         <v>4</v>
       </c>
-      <c r="BY47" s="23"/>
+      <c r="BY47" s="15">
+        <v>3</v>
+      </c>
       <c r="BZ47" s="23"/>
       <c r="CA47" s="23"/>
       <c r="CB47" s="23"/>
       <c r="CC47" s="23"/>
+      <c r="CD47" s="23"/>
     </row>
-    <row r="48" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -75590,15 +76292,18 @@
       <c r="BX48" s="15">
         <v>2</v>
       </c>
-      <c r="BY48" s="23"/>
+      <c r="BY48" s="15">
+        <v>11</v>
+      </c>
       <c r="BZ48" s="23"/>
       <c r="CA48" s="23"/>
       <c r="CB48" s="23"/>
       <c r="CC48" s="23"/>
+      <c r="CD48" s="23"/>
     </row>
-    <row r="49" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="81" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -75823,14 +76528,17 @@
       <c r="BX49" s="15">
         <v>102</v>
       </c>
-      <c r="BY49" s="22"/>
+      <c r="BY49" s="15">
+        <v>79</v>
+      </c>
       <c r="BZ49" s="22"/>
       <c r="CA49" s="22"/>
       <c r="CB49" s="22"/>
       <c r="CC49" s="22"/>
+      <c r="CD49" s="22"/>
     </row>
-    <row r="50" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="79"/>
+    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="82"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -76053,13 +76761,16 @@
       <c r="BX50" s="15">
         <v>27</v>
       </c>
-      <c r="BY50" s="22"/>
+      <c r="BY50" s="15">
+        <v>18</v>
+      </c>
       <c r="BZ50" s="22"/>
       <c r="CA50" s="22"/>
       <c r="CB50" s="22"/>
       <c r="CC50" s="22"/>
+      <c r="CD50" s="22"/>
     </row>
-    <row r="51" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -76285,13 +76996,16 @@
       <c r="BX51" s="15">
         <v>17</v>
       </c>
-      <c r="BY51" s="23"/>
+      <c r="BY51" s="15">
+        <v>10</v>
+      </c>
       <c r="BZ51" s="23"/>
       <c r="CA51" s="23"/>
       <c r="CB51" s="23"/>
       <c r="CC51" s="23"/>
+      <c r="CD51" s="23"/>
     </row>
-    <row r="52" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -76517,13 +77231,16 @@
       <c r="BX52" s="15">
         <v>15</v>
       </c>
-      <c r="BY52" s="23"/>
+      <c r="BY52" s="15">
+        <v>11</v>
+      </c>
       <c r="BZ52" s="23"/>
       <c r="CA52" s="23"/>
       <c r="CB52" s="23"/>
       <c r="CC52" s="23"/>
+      <c r="CD52" s="23"/>
     </row>
-    <row r="53" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -76749,13 +77466,16 @@
       <c r="BX53" s="15">
         <v>24</v>
       </c>
-      <c r="BY53" s="23"/>
+      <c r="BY53" s="15">
+        <v>31</v>
+      </c>
       <c r="BZ53" s="23"/>
       <c r="CA53" s="23"/>
       <c r="CB53" s="23"/>
       <c r="CC53" s="23"/>
+      <c r="CD53" s="23"/>
     </row>
-    <row r="54" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -76981,13 +77701,16 @@
       <c r="BX54" s="15">
         <v>7</v>
       </c>
-      <c r="BY54" s="23"/>
+      <c r="BY54" s="15">
+        <v>7</v>
+      </c>
       <c r="BZ54" s="23"/>
       <c r="CA54" s="23"/>
       <c r="CB54" s="23"/>
       <c r="CC54" s="23"/>
+      <c r="CD54" s="23"/>
     </row>
-    <row r="55" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -77213,13 +77936,16 @@
       <c r="BX55" s="15">
         <v>15</v>
       </c>
-      <c r="BY55" s="23"/>
+      <c r="BY55" s="15">
+        <v>8</v>
+      </c>
       <c r="BZ55" s="23"/>
       <c r="CA55" s="23"/>
       <c r="CB55" s="23"/>
       <c r="CC55" s="23"/>
+      <c r="CD55" s="23"/>
     </row>
-    <row r="56" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -77445,13 +78171,16 @@
       <c r="BX56" s="15">
         <v>7</v>
       </c>
-      <c r="BY56" s="23"/>
+      <c r="BY56" s="15">
+        <v>6</v>
+      </c>
       <c r="BZ56" s="23"/>
       <c r="CA56" s="23"/>
       <c r="CB56" s="23"/>
       <c r="CC56" s="23"/>
+      <c r="CD56" s="23"/>
     </row>
-    <row r="57" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -77677,13 +78406,16 @@
       <c r="BX57" s="15">
         <v>4</v>
       </c>
-      <c r="BY57" s="23"/>
+      <c r="BY57" s="15">
+        <v>2</v>
+      </c>
       <c r="BZ57" s="23"/>
       <c r="CA57" s="23"/>
       <c r="CB57" s="23"/>
       <c r="CC57" s="23"/>
+      <c r="CD57" s="23"/>
     </row>
-    <row r="58" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -77953,7 +78685,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BX58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:BY58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -77980,13 +78712,17 @@
         <f t="shared" si="4"/>
         <v>3612</v>
       </c>
-      <c r="BY58" s="24"/>
+      <c r="BY58" s="14">
+        <f t="shared" si="4"/>
+        <v>3160</v>
+      </c>
       <c r="BZ58" s="24"/>
       <c r="CA58" s="24"/>
       <c r="CB58" s="24"/>
       <c r="CC58" s="24"/>
+      <c r="CD58" s="24"/>
     </row>
-    <row r="59" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -78019,7 +78755,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -78052,7 +78788,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -78086,41 +78822,41 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="BD2:BX2"/>
-    <mergeCell ref="BD3:BX3"/>
+  <mergeCells count="91">
+    <mergeCell ref="BD2:BY2"/>
+    <mergeCell ref="BD3:BY3"/>
+    <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="T4:T5"/>
@@ -78136,6 +78872,7 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
@@ -78199,7 +78936,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BX57</xm:sqref>
+          <xm:sqref>BP6:BY57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040906-2\ＪＯＢ040906-2\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040913-3\ＪＯＢ040913-3\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$BZ$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$BZ$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$DZ$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$DZ$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CA$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CA$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EA$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EA$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="381">
   <si>
     <t>都道府県</t>
   </si>
@@ -1751,70 +1751,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7/27(月)～8/2(日)分
-【7月第5週】</t>
-    <rPh sb="18" eb="19">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/3(月)～8/9(日)分
-【8月第1週】</t>
-    <rPh sb="17" eb="18">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/10(月)～8/16(日)分
-【8月第2週】</t>
-    <rPh sb="19" eb="20">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/17(月)～8/23(日)分
-【8月第3週】</t>
-    <rPh sb="19" eb="20">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/24(月)～8/30(日)分
-【8月第4週】</t>
-    <rPh sb="19" eb="20">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/31(月)～9/6(日)分
-【8月第5週･
-9月第1週】</t>
-    <rPh sb="18" eb="19">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>9/7(月)～9/13(日)分
 【9月第2週】</t>
     <rPh sb="18" eb="19">
@@ -2936,40 +2872,6 @@
       <t>ダイ</t>
     </rPh>
     <rPh sb="29" eb="30">
-      <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2/1(月)～
-2/7(日)分
-【1月第6週･
-2月第1週】</t>
-    <rPh sb="4" eb="5">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
       <t>シュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4325,6 +4227,57 @@
     <rPh sb="23" eb="24">
       <t>シュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/5(月)～
+9/11(日)分
+【9月第2週】</t>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/1(月)～
+2/7(日)分
+【2月第1週】</t>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6(月)～
+9/12(日)分
+【9月第2週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/5(月)～
+9/11(日)分
+【9月第2週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4823,12 +4776,6 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4863,6 +4810,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4901,13 +4854,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4943,6 +4896,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4950,9 +4906,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9109,13 +9062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ61"/>
+  <dimension ref="A1:EA61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DM6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DJ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DZ4" sqref="DZ4:DZ5"/>
+      <selection pane="bottomRight" activeCell="EA4" sqref="EA4:EA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9131,15 +9084,15 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="130" width="10.875" style="1" customWidth="1"/>
-    <col min="131" max="16384" width="8.625" style="1"/>
+    <col min="106" max="131" width="10.875" style="1" customWidth="1"/>
+    <col min="132" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:131" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="BD1" s="19"/>
       <c r="CD1" s="19"/>
@@ -9169,7 +9122,7 @@
       <c r="DB1" s="19"/>
       <c r="DC1" s="19"/>
       <c r="DD1" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="DE1" s="19"/>
       <c r="DF1" s="19"/>
@@ -9192,344 +9145,347 @@
       <c r="DW1" s="19"/>
       <c r="DX1" s="19"/>
       <c r="DY1" s="19"/>
-      <c r="DZ1" s="19" t="s">
-        <v>298</v>
+      <c r="DZ1" s="19"/>
+      <c r="EA1" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:130" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:131" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="51"/>
-      <c r="BT2" s="51"/>
-      <c r="BU2" s="51"/>
-      <c r="BV2" s="51"/>
-      <c r="BW2" s="51"/>
-      <c r="BX2" s="51"/>
-      <c r="BY2" s="51"/>
-      <c r="BZ2" s="51"/>
-      <c r="CA2" s="51"/>
-      <c r="CB2" s="51"/>
-      <c r="CC2" s="51"/>
-      <c r="CD2" s="51"/>
-      <c r="CE2" s="51"/>
-      <c r="CF2" s="51"/>
-      <c r="CG2" s="51"/>
-      <c r="CH2" s="51"/>
-      <c r="CI2" s="51"/>
-      <c r="CJ2" s="51"/>
-      <c r="CK2" s="51"/>
-      <c r="CL2" s="51"/>
-      <c r="CM2" s="51"/>
-      <c r="CN2" s="51"/>
-      <c r="CO2" s="51"/>
-      <c r="CP2" s="51"/>
-      <c r="CQ2" s="51"/>
-      <c r="CR2" s="51"/>
-      <c r="CS2" s="51"/>
-      <c r="CT2" s="51"/>
-      <c r="CU2" s="51"/>
-      <c r="CV2" s="51"/>
-      <c r="CW2" s="51"/>
-      <c r="CX2" s="51"/>
-      <c r="CY2" s="51"/>
-      <c r="CZ2" s="51"/>
-      <c r="DA2" s="51"/>
-      <c r="DB2" s="51"/>
-      <c r="DC2" s="51"/>
-      <c r="DD2" s="51"/>
-      <c r="DE2" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="DF2" s="44"/>
-      <c r="DG2" s="44"/>
-      <c r="DH2" s="44"/>
-      <c r="DI2" s="44"/>
-      <c r="DJ2" s="44"/>
-      <c r="DK2" s="44"/>
-      <c r="DL2" s="44"/>
-      <c r="DM2" s="44"/>
-      <c r="DN2" s="44"/>
-      <c r="DO2" s="44"/>
-      <c r="DP2" s="44"/>
-      <c r="DQ2" s="44"/>
-      <c r="DR2" s="44"/>
-      <c r="DS2" s="44"/>
-      <c r="DT2" s="44"/>
-      <c r="DU2" s="44"/>
-      <c r="DV2" s="44"/>
-      <c r="DW2" s="44"/>
-      <c r="DX2" s="44"/>
-      <c r="DY2" s="44"/>
-      <c r="DZ2" s="44"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
+      <c r="DE2" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="72"/>
+      <c r="EA2" s="72"/>
     </row>
-    <row r="3" spans="1:130" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:131" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="48" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="49"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="49"/>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49"/>
-      <c r="CP3" s="49"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
+      <c r="CE3" s="47"/>
+      <c r="CF3" s="47"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="47"/>
+      <c r="CI3" s="47"/>
+      <c r="CJ3" s="47"/>
+      <c r="CK3" s="47"/>
+      <c r="CL3" s="47"/>
+      <c r="CM3" s="47"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="47"/>
+      <c r="CP3" s="47"/>
       <c r="CQ3" s="73"/>
-      <c r="CR3" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="45"/>
-      <c r="CU3" s="45"/>
-      <c r="CV3" s="45"/>
-      <c r="CW3" s="45"/>
-      <c r="CX3" s="45"/>
-      <c r="CY3" s="45"/>
-      <c r="CZ3" s="45"/>
-      <c r="DA3" s="45"/>
-      <c r="DB3" s="45"/>
-      <c r="DC3" s="45"/>
-      <c r="DD3" s="48"/>
-      <c r="DE3" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="DF3" s="45"/>
-      <c r="DG3" s="45"/>
-      <c r="DH3" s="45"/>
-      <c r="DI3" s="45"/>
-      <c r="DJ3" s="45"/>
-      <c r="DK3" s="45"/>
-      <c r="DL3" s="45"/>
-      <c r="DM3" s="45"/>
-      <c r="DN3" s="45"/>
-      <c r="DO3" s="45"/>
-      <c r="DP3" s="45"/>
-      <c r="DQ3" s="45"/>
-      <c r="DR3" s="45"/>
-      <c r="DS3" s="45"/>
-      <c r="DT3" s="45"/>
-      <c r="DU3" s="45"/>
-      <c r="DV3" s="45"/>
-      <c r="DW3" s="45"/>
-      <c r="DX3" s="45"/>
-      <c r="DY3" s="45"/>
-      <c r="DZ3" s="45"/>
+      <c r="CR3" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="56"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="56"/>
+      <c r="DA3" s="56"/>
+      <c r="DB3" s="56"/>
+      <c r="DC3" s="56"/>
+      <c r="DD3" s="46"/>
+      <c r="DE3" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="DF3" s="56"/>
+      <c r="DG3" s="56"/>
+      <c r="DH3" s="56"/>
+      <c r="DI3" s="56"/>
+      <c r="DJ3" s="56"/>
+      <c r="DK3" s="56"/>
+      <c r="DL3" s="56"/>
+      <c r="DM3" s="56"/>
+      <c r="DN3" s="56"/>
+      <c r="DO3" s="56"/>
+      <c r="DP3" s="56"/>
+      <c r="DQ3" s="56"/>
+      <c r="DR3" s="56"/>
+      <c r="DS3" s="56"/>
+      <c r="DT3" s="56"/>
+      <c r="DU3" s="56"/>
+      <c r="DV3" s="56"/>
+      <c r="DW3" s="56"/>
+      <c r="DX3" s="56"/>
+      <c r="DY3" s="56"/>
+      <c r="DZ3" s="56"/>
+      <c r="EA3" s="56"/>
     </row>
-    <row r="4" spans="1:130" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:131" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="55" t="s">
         <v>109</v>
       </c>
       <c r="U4" s="57" t="s">
@@ -9550,451 +9506,455 @@
       <c r="Z4" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="57" t="s">
+      <c r="AA4" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="57" t="s">
+      <c r="AB4" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="57" t="s">
+      <c r="AC4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="57" t="s">
+      <c r="AD4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="57" t="s">
+      <c r="AE4" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="57" t="s">
+      <c r="AF4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="57" t="s">
+      <c r="AG4" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="57" t="s">
+      <c r="AH4" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="57" t="s">
+      <c r="AI4" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="57" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="57" t="s">
+      <c r="AK4" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="57" t="s">
+      <c r="AL4" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="57" t="s">
+      <c r="AM4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="57" t="s">
+      <c r="AN4" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="57" t="s">
+      <c r="AO4" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="57" t="s">
+      <c r="AP4" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="57" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="53" t="s">
+      <c r="AR4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AS4" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AT4" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AU4" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="AV4" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="AW4" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="53" t="s">
+      <c r="AX4" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="AY4" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="AZ4" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BA4" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BB4" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="53" t="s">
+      <c r="BC4" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE4" s="54" t="s">
+      <c r="BD4" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE4" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="BF4" s="54" t="s">
+      <c r="BF4" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="54" t="s">
+      <c r="BG4" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="BH4" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="BI4" s="54" t="s">
+      <c r="BH4" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="BI4" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="BJ4" s="54" t="s">
+      <c r="BJ4" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="BK4" s="54" t="s">
+      <c r="BK4" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="54" t="s">
+      <c r="BL4" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN4" s="54" t="s">
+      <c r="BM4" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="BN4" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="BO4" s="54" t="s">
+      <c r="BO4" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="BP4" s="54" t="s">
+      <c r="BP4" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="BQ4" s="54" t="s">
+      <c r="BQ4" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="BR4" s="54" t="s">
+      <c r="BR4" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="BS4" s="54" t="s">
+      <c r="BS4" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="BT4" s="54" t="s">
+      <c r="BT4" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="BU4" s="55" t="s">
+      <c r="BU4" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="BV4" s="55" t="s">
+      <c r="BV4" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="BW4" s="55" t="s">
+      <c r="BW4" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="BX4" s="55" t="s">
+      <c r="BX4" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="BY4" s="55" t="s">
+      <c r="BY4" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="BZ4" s="54" t="s">
+      <c r="BZ4" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="CA4" s="54" t="s">
+      <c r="CA4" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="54" t="s">
+      <c r="CB4" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="CC4" s="54" t="s">
+      <c r="CC4" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="CD4" s="54" t="s">
+      <c r="CD4" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="CE4" s="52" t="s">
+      <c r="CE4" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF4" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="CG4" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH4" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="CF4" s="52" t="s">
+      <c r="CI4" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="CG4" s="52" t="s">
+      <c r="CJ4" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="CH4" s="52" t="s">
+      <c r="CK4" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="CI4" s="52" t="s">
+      <c r="CL4" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="CJ4" s="52" t="s">
+      <c r="CM4" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="CK4" s="52" t="s">
+      <c r="CN4" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="CL4" s="52" t="s">
+      <c r="CO4" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="CM4" s="52" t="s">
+      <c r="CP4" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="CN4" s="52" t="s">
+      <c r="CQ4" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="CO4" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="CP4" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="CQ4" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="CR4" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="CS4" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="CT4" s="52" t="s">
+      <c r="CR4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="CS4" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="CT4" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="CU4" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="CV4" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="CW4" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="CU4" s="52" t="s">
+      <c r="CX4" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="CV4" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="CW4" s="52" t="s">
+      <c r="CY4" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="CZ4" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="DA4" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="CX4" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="CY4" s="52" t="s">
+      <c r="DB4" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="DC4" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="CZ4" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="DA4" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="DB4" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="DC4" s="52" t="s">
+      <c r="DD4" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="DE4" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="DF4" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="DD4" s="71" t="s">
+      <c r="DG4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="DE4" s="46" t="s">
+      <c r="DH4" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="DF4" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="DG4" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="DH4" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="DI4" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="DJ4" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="DK4" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="DL4" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="DM4" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="DN4" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="DO4" s="46" t="s">
+      <c r="DI4" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="DJ4" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="DK4" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="DL4" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="DM4" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="DN4" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="DO4" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="DP4" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="DQ4" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="DR4" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="DP4" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="DQ4" s="46" t="s">
+      <c r="DS4" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="DR4" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="DS4" s="46" t="s">
+      <c r="DT4" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="DU4" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="DT4" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="DU4" s="46" t="s">
+      <c r="DV4" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="DW4" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="DX4" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="DV4" s="46" t="s">
+      <c r="DY4" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="DW4" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="DX4" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="DY4" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="DZ4" s="46" t="s">
-        <v>376</v>
+      <c r="DZ4" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="EA4" s="44" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:130" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:131" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="53"/>
-      <c r="BN5" s="53"/>
-      <c r="BO5" s="53"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="53"/>
-      <c r="BS5" s="53"/>
-      <c r="BT5" s="53"/>
-      <c r="BU5" s="56"/>
-      <c r="BV5" s="56"/>
-      <c r="BW5" s="56"/>
-      <c r="BX5" s="56"/>
-      <c r="BY5" s="56"/>
-      <c r="BZ5" s="53"/>
-      <c r="CA5" s="53"/>
-      <c r="CB5" s="53"/>
-      <c r="CC5" s="53"/>
-      <c r="CD5" s="53"/>
-      <c r="CE5" s="47"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="47"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="47"/>
-      <c r="CK5" s="47"/>
-      <c r="CL5" s="47"/>
-      <c r="CM5" s="47"/>
-      <c r="CN5" s="47"/>
-      <c r="CO5" s="47"/>
-      <c r="CP5" s="47"/>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="47"/>
-      <c r="CS5" s="47"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="47"/>
-      <c r="CV5" s="47"/>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="47"/>
-      <c r="CY5" s="47"/>
-      <c r="CZ5" s="47"/>
-      <c r="DA5" s="47"/>
-      <c r="DB5" s="47"/>
-      <c r="DC5" s="47"/>
-      <c r="DD5" s="72"/>
-      <c r="DE5" s="47"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="47"/>
-      <c r="DH5" s="47"/>
-      <c r="DI5" s="47"/>
-      <c r="DJ5" s="47"/>
-      <c r="DK5" s="47"/>
-      <c r="DL5" s="47"/>
-      <c r="DM5" s="47"/>
-      <c r="DN5" s="47"/>
-      <c r="DO5" s="47"/>
-      <c r="DP5" s="47"/>
-      <c r="DQ5" s="47"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="47"/>
-      <c r="DT5" s="47"/>
-      <c r="DU5" s="47"/>
-      <c r="DV5" s="47"/>
-      <c r="DW5" s="47"/>
-      <c r="DX5" s="47"/>
-      <c r="DY5" s="47"/>
-      <c r="DZ5" s="47"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="54"/>
+      <c r="BM5" s="54"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="51"/>
+      <c r="BP5" s="51"/>
+      <c r="BQ5" s="51"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="51"/>
+      <c r="BU5" s="54"/>
+      <c r="BV5" s="54"/>
+      <c r="BW5" s="54"/>
+      <c r="BX5" s="54"/>
+      <c r="BY5" s="54"/>
+      <c r="BZ5" s="51"/>
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="51"/>
+      <c r="CD5" s="51"/>
+      <c r="CE5" s="45"/>
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="45"/>
+      <c r="CJ5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="71"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="45"/>
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="45"/>
+      <c r="DT5" s="45"/>
+      <c r="DU5" s="45"/>
+      <c r="DV5" s="45"/>
+      <c r="DW5" s="45"/>
+      <c r="DX5" s="45"/>
+      <c r="DY5" s="45"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
     </row>
-    <row r="6" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10383,8 +10343,11 @@
       <c r="DZ6" s="28">
         <v>113</v>
       </c>
+      <c r="EA6" s="28">
+        <v>136</v>
+      </c>
     </row>
-    <row r="7" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10772,8 +10735,11 @@
       <c r="DZ7" s="15">
         <v>0</v>
       </c>
+      <c r="EA7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11161,8 +11127,11 @@
       <c r="DZ8" s="28">
         <v>19</v>
       </c>
+      <c r="EA8" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11551,8 +11520,11 @@
       <c r="DZ9" s="15">
         <v>79</v>
       </c>
+      <c r="EA9" s="15">
+        <v>75</v>
+      </c>
     </row>
-    <row r="10" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11938,8 +11910,11 @@
       <c r="DZ10" s="15">
         <v>0</v>
       </c>
+      <c r="EA10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12327,8 +12302,11 @@
       <c r="DZ11" s="15">
         <v>13</v>
       </c>
+      <c r="EA11" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12716,13 +12694,16 @@
       <c r="DZ12" s="15">
         <v>2</v>
       </c>
+      <c r="EA12" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D13" s="8">
         <v>11</v>
@@ -13105,8 +13086,11 @@
       <c r="DZ13" s="15">
         <v>34</v>
       </c>
+      <c r="EA13" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13494,8 +13478,11 @@
       <c r="DZ14" s="15">
         <v>26</v>
       </c>
+      <c r="EA14" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13883,8 +13870,11 @@
       <c r="DZ15" s="15">
         <v>1</v>
       </c>
+      <c r="EA15" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -14273,8 +14263,11 @@
       <c r="DZ16" s="28">
         <v>144</v>
       </c>
+      <c r="EA16" s="28">
+        <v>109</v>
+      </c>
     </row>
-    <row r="17" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14662,8 +14655,11 @@
       <c r="DZ17" s="15">
         <v>168</v>
       </c>
+      <c r="EA17" s="15">
+        <v>152</v>
+      </c>
     </row>
-    <row r="18" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -15052,8 +15048,11 @@
       <c r="DZ18" s="34">
         <v>1775</v>
       </c>
+      <c r="EA18" s="34">
+        <v>1667</v>
+      </c>
     </row>
-    <row r="19" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="60" t="s">
         <v>27</v>
@@ -15442,8 +15441,11 @@
       <c r="DZ19" s="15">
         <v>65</v>
       </c>
+      <c r="EA19" s="15">
+        <v>72</v>
+      </c>
     </row>
-    <row r="20" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
@@ -15830,8 +15832,11 @@
       <c r="DZ20" s="28">
         <v>221</v>
       </c>
+      <c r="EA20" s="28">
+        <v>180</v>
+      </c>
     </row>
-    <row r="21" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
@@ -16218,8 +16223,11 @@
       <c r="DZ21" s="15">
         <v>34</v>
       </c>
+      <c r="EA21" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16607,8 +16615,11 @@
       <c r="DZ22" s="15">
         <v>9</v>
       </c>
+      <c r="EA22" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -16996,8 +17007,11 @@
       <c r="DZ23" s="15">
         <v>12</v>
       </c>
+      <c r="EA23" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17385,8 +17399,11 @@
       <c r="DZ24" s="15">
         <v>13</v>
       </c>
+      <c r="EA24" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="25" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17774,8 +17791,11 @@
       <c r="DZ25" s="15">
         <v>2</v>
       </c>
+      <c r="EA25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -18163,8 +18183,11 @@
       <c r="DZ26" s="15">
         <v>13</v>
       </c>
+      <c r="EA26" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="27" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18552,8 +18575,11 @@
       <c r="DZ27" s="15">
         <v>1</v>
       </c>
+      <c r="EA27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18941,8 +18967,11 @@
       <c r="DZ28" s="15">
         <v>1</v>
       </c>
+      <c r="EA28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="61" t="s">
         <v>45</v>
       </c>
@@ -19330,8 +19359,11 @@
       <c r="DZ29" s="15">
         <v>6</v>
       </c>
+      <c r="EA29" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -19717,8 +19749,11 @@
       <c r="DZ30" s="15">
         <v>24</v>
       </c>
+      <c r="EA30" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="31" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -20107,8 +20142,11 @@
       <c r="DZ31" s="15">
         <v>89</v>
       </c>
+      <c r="EA31" s="15">
+        <v>64</v>
+      </c>
     </row>
-    <row r="32" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20496,8 +20534,11 @@
       <c r="DZ32" s="15">
         <v>0</v>
       </c>
+      <c r="EA32" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20885,8 +20926,11 @@
       <c r="DZ33" s="15">
         <v>0</v>
       </c>
+      <c r="EA33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -21275,8 +21319,11 @@
       <c r="DZ34" s="15">
         <v>95</v>
       </c>
+      <c r="EA34" s="15">
+        <v>75</v>
+      </c>
     </row>
-    <row r="35" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="60" t="s">
         <v>56</v>
@@ -21665,8 +21712,11 @@
       <c r="DZ35" s="15">
         <v>461</v>
       </c>
+      <c r="EA35" s="15">
+        <v>365</v>
+      </c>
     </row>
-    <row r="36" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="60"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -22052,8 +22102,11 @@
       <c r="DZ36" s="28">
         <v>64</v>
       </c>
+      <c r="EA36" s="28">
+        <v>69</v>
+      </c>
     </row>
-    <row r="37" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -22442,8 +22495,11 @@
       <c r="DZ37" s="15">
         <v>64</v>
       </c>
+      <c r="EA37" s="15">
+        <v>60</v>
+      </c>
     </row>
-    <row r="38" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -22831,8 +22887,11 @@
       <c r="DZ38" s="15">
         <v>28</v>
       </c>
+      <c r="EA38" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="39" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -23220,8 +23279,11 @@
       <c r="DZ39" s="15">
         <v>15</v>
       </c>
+      <c r="EA39" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="40" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -23609,8 +23671,11 @@
       <c r="DZ40" s="15">
         <v>0</v>
       </c>
+      <c r="EA40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -23998,8 +24063,11 @@
       <c r="DZ41" s="15">
         <v>0</v>
       </c>
+      <c r="EA41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -24387,8 +24455,11 @@
       <c r="DZ42" s="15">
         <v>11</v>
       </c>
+      <c r="EA42" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="43" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -24776,8 +24847,11 @@
       <c r="DZ43" s="28">
         <v>94</v>
       </c>
+      <c r="EA43" s="28">
+        <v>66</v>
+      </c>
     </row>
-    <row r="44" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -25165,8 +25239,11 @@
       <c r="DZ44" s="15">
         <v>6</v>
       </c>
+      <c r="EA44" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -25554,8 +25631,11 @@
       <c r="DZ45" s="15">
         <v>27</v>
       </c>
+      <c r="EA45" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="46" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -25943,8 +26023,11 @@
       <c r="DZ46" s="15">
         <v>34</v>
       </c>
+      <c r="EA46" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="47" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -26332,8 +26415,11 @@
       <c r="DZ47" s="15">
         <v>1</v>
       </c>
+      <c r="EA47" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="48" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -26721,8 +26807,11 @@
       <c r="DZ48" s="15">
         <v>23</v>
       </c>
+      <c r="EA48" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="49" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="60" t="s">
         <v>83</v>
@@ -27111,8 +27200,11 @@
       <c r="DZ49" s="15">
         <v>89</v>
       </c>
+      <c r="EA49" s="15">
+        <v>62</v>
+      </c>
     </row>
-    <row r="50" spans="1:130" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="60"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -27498,8 +27590,11 @@
       <c r="DZ50" s="15">
         <v>41</v>
       </c>
+      <c r="EA50" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="51" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -27887,8 +27982,11 @@
       <c r="DZ51" s="15">
         <v>6</v>
       </c>
+      <c r="EA51" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="52" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -28276,8 +28374,11 @@
       <c r="DZ52" s="15">
         <v>28</v>
       </c>
+      <c r="EA52" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="53" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -28665,8 +28766,11 @@
       <c r="DZ53" s="15">
         <v>45</v>
       </c>
+      <c r="EA53" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="54" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29054,8 +29158,11 @@
       <c r="DZ54" s="15">
         <v>11</v>
       </c>
+      <c r="EA54" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="55" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -29443,8 +29550,11 @@
       <c r="DZ55" s="15">
         <v>10</v>
       </c>
+      <c r="EA55" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="56" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -29832,8 +29942,11 @@
       <c r="DZ56" s="15">
         <v>3</v>
       </c>
+      <c r="EA56" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30221,8 +30334,11 @@
       <c r="DZ57" s="15">
         <v>2</v>
       </c>
+      <c r="EA57" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="58" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -30700,7 +30816,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:DZ58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:EA58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -30735,8 +30851,12 @@
         <f t="shared" si="10"/>
         <v>4022</v>
       </c>
+      <c r="EA58" s="14">
+        <f t="shared" si="10"/>
+        <v>3571</v>
+      </c>
     </row>
-    <row r="59" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -30820,7 +30940,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -30904,7 +31024,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:130" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -30989,7 +31109,16 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="144">
+    <mergeCell ref="CR3:DD3"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="DD4:DD5"/>
+    <mergeCell ref="DA4:DA5"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CW4:CW5"/>
+    <mergeCell ref="DE2:EA2"/>
+    <mergeCell ref="DE3:EA3"/>
+    <mergeCell ref="EA4:EA5"/>
     <mergeCell ref="BD2:DD2"/>
     <mergeCell ref="BD3:CQ3"/>
     <mergeCell ref="BG4:BG5"/>
@@ -31005,28 +31134,6 @@
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CL4:CL5"/>
-    <mergeCell ref="CR3:DD3"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="DD4:DD5"/>
-    <mergeCell ref="DA4:DA5"/>
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CW4:CW5"/>
-    <mergeCell ref="DS4:DS5"/>
-    <mergeCell ref="DR4:DR5"/>
-    <mergeCell ref="DQ4:DQ5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DH4:DH5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="DK4:DK5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BN4:BN5"/>
@@ -31044,6 +31151,13 @@
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CL4:CL5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CU4:CU5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AS4:AS5"/>
@@ -31092,8 +31206,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="CH4:CH5"/>
@@ -31109,8 +31221,15 @@
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
     <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DE2:DZ2"/>
-    <mergeCell ref="DE3:DZ3"/>
+    <mergeCell ref="DS4:DS5"/>
+    <mergeCell ref="DR4:DR5"/>
+    <mergeCell ref="DQ4:DQ5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DH4:DH5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="DK4:DK5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="CP4:CP5"/>
     <mergeCell ref="DZ4:DZ5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
@@ -31133,6 +31252,8 @@
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="DY4:DY5"/>
     <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -31145,7 +31266,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:DZ57">
+  <conditionalFormatting sqref="DP6:EA57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -31162,13 +31283,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DZ58"/>
+  <dimension ref="B1:EA58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DR2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DT47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DZ60" sqref="DZ60"/>
+      <selection pane="bottomRight" activeCell="EA6" sqref="EA6:EA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31185,13 +31306,13 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="130" width="10.875" style="1" customWidth="1"/>
-    <col min="131" max="16384" width="8.625" style="1"/>
+    <col min="106" max="131" width="10.875" style="1" customWidth="1"/>
+    <col min="132" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:130" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:131" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="76" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="BC1" s="76"/>
       <c r="BI1" s="18"/>
@@ -31222,7 +31343,7 @@
       <c r="DA1" s="32"/>
       <c r="DB1" s="19"/>
       <c r="DC1" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="DD1" s="19"/>
       <c r="DE1" s="19"/>
@@ -31246,152 +31367,154 @@
       <c r="DW1" s="19"/>
       <c r="DX1" s="19"/>
       <c r="DY1" s="19"/>
-      <c r="DZ1" s="19" t="s">
-        <v>298</v>
+      <c r="DZ1" s="19"/>
+      <c r="EA1" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="2" spans="2:130" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:131" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="44"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
-      <c r="CE2" s="44"/>
-      <c r="CF2" s="44"/>
-      <c r="CG2" s="44"/>
-      <c r="CH2" s="44"/>
-      <c r="CI2" s="44"/>
-      <c r="CJ2" s="44"/>
-      <c r="CK2" s="44"/>
-      <c r="CL2" s="44"/>
-      <c r="CM2" s="44"/>
-      <c r="CN2" s="44"/>
-      <c r="CO2" s="44"/>
-      <c r="CP2" s="44"/>
-      <c r="CQ2" s="44"/>
-      <c r="CR2" s="44"/>
-      <c r="CS2" s="44"/>
-      <c r="CT2" s="44"/>
-      <c r="CU2" s="44"/>
-      <c r="CV2" s="44"/>
-      <c r="CW2" s="44"/>
-      <c r="CX2" s="44"/>
-      <c r="CY2" s="44"/>
-      <c r="CZ2" s="44"/>
-      <c r="DA2" s="44"/>
-      <c r="DB2" s="44"/>
-      <c r="DC2" s="44"/>
-      <c r="DD2" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="DE2" s="44"/>
-      <c r="DF2" s="44"/>
-      <c r="DG2" s="44"/>
-      <c r="DH2" s="44"/>
-      <c r="DI2" s="44"/>
-      <c r="DJ2" s="44"/>
-      <c r="DK2" s="44"/>
-      <c r="DL2" s="44"/>
-      <c r="DM2" s="44"/>
-      <c r="DN2" s="44"/>
-      <c r="DO2" s="44"/>
-      <c r="DP2" s="44"/>
-      <c r="DQ2" s="44"/>
-      <c r="DR2" s="44"/>
-      <c r="DS2" s="44"/>
-      <c r="DT2" s="44"/>
-      <c r="DU2" s="44"/>
-      <c r="DV2" s="44"/>
-      <c r="DW2" s="44"/>
-      <c r="DX2" s="44"/>
-      <c r="DY2" s="44"/>
-      <c r="DZ2" s="44"/>
+      <c r="D2" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="72"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="DE2" s="72"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="72"/>
+      <c r="EA2" s="72"/>
     </row>
-    <row r="3" spans="2:130" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:131" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="78" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
@@ -31432,103 +31555,104 @@
       <c r="AO3" s="78"/>
       <c r="AP3" s="78"/>
       <c r="AQ3" s="78"/>
-      <c r="AR3" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="49"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="49"/>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49"/>
-      <c r="CP3" s="49"/>
+      <c r="AR3" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
+      <c r="CE3" s="47"/>
+      <c r="CF3" s="47"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="47"/>
+      <c r="CI3" s="47"/>
+      <c r="CJ3" s="47"/>
+      <c r="CK3" s="47"/>
+      <c r="CL3" s="47"/>
+      <c r="CM3" s="47"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="47"/>
+      <c r="CP3" s="47"/>
       <c r="CQ3" s="73"/>
-      <c r="CR3" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="45"/>
-      <c r="CU3" s="45"/>
-      <c r="CV3" s="45"/>
-      <c r="CW3" s="45"/>
-      <c r="CX3" s="45"/>
-      <c r="CY3" s="45"/>
-      <c r="CZ3" s="45"/>
-      <c r="DA3" s="45"/>
-      <c r="DB3" s="45"/>
-      <c r="DC3" s="45"/>
-      <c r="DD3" s="45" t="s">
+      <c r="CR3" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="56"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="56"/>
+      <c r="DA3" s="56"/>
+      <c r="DB3" s="56"/>
+      <c r="DC3" s="56"/>
+      <c r="DD3" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="DE3" s="45"/>
-      <c r="DF3" s="45"/>
-      <c r="DG3" s="45"/>
-      <c r="DH3" s="45"/>
-      <c r="DI3" s="45"/>
-      <c r="DJ3" s="45"/>
-      <c r="DK3" s="45"/>
-      <c r="DL3" s="45"/>
-      <c r="DM3" s="45"/>
-      <c r="DN3" s="45"/>
-      <c r="DO3" s="45"/>
-      <c r="DP3" s="45"/>
-      <c r="DQ3" s="45"/>
-      <c r="DR3" s="45"/>
-      <c r="DS3" s="45"/>
-      <c r="DT3" s="45"/>
-      <c r="DU3" s="45"/>
-      <c r="DV3" s="45"/>
-      <c r="DW3" s="45"/>
-      <c r="DX3" s="45"/>
-      <c r="DY3" s="45"/>
-      <c r="DZ3" s="45"/>
+      <c r="DE3" s="56"/>
+      <c r="DF3" s="56"/>
+      <c r="DG3" s="56"/>
+      <c r="DH3" s="56"/>
+      <c r="DI3" s="56"/>
+      <c r="DJ3" s="56"/>
+      <c r="DK3" s="56"/>
+      <c r="DL3" s="56"/>
+      <c r="DM3" s="56"/>
+      <c r="DN3" s="56"/>
+      <c r="DO3" s="56"/>
+      <c r="DP3" s="56"/>
+      <c r="DQ3" s="56"/>
+      <c r="DR3" s="56"/>
+      <c r="DS3" s="56"/>
+      <c r="DT3" s="56"/>
+      <c r="DU3" s="56"/>
+      <c r="DV3" s="56"/>
+      <c r="DW3" s="56"/>
+      <c r="DX3" s="56"/>
+      <c r="DY3" s="56"/>
+      <c r="DZ3" s="56"/>
+      <c r="EA3" s="56"/>
     </row>
-    <row r="4" spans="2:130" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:131" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
@@ -31691,364 +31815,368 @@
       <c r="BC4" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="BD4" s="54" t="s">
+      <c r="BD4" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="BE4" s="54" t="s">
+      <c r="BE4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" s="54" t="s">
+      <c r="BF4" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" s="54" t="s">
+      <c r="BG4" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="BH4" s="54" t="s">
+      <c r="BH4" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="BI4" s="54" t="s">
+      <c r="BI4" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="54" t="s">
+      <c r="BJ4" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="54" t="s">
+      <c r="BK4" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="54" t="s">
+      <c r="BL4" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="54" t="s">
+      <c r="BM4" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="54" t="s">
+      <c r="BN4" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="54" t="s">
+      <c r="BO4" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="54" t="s">
+      <c r="BP4" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="BQ4" s="54" t="s">
+      <c r="BQ4" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="BR4" s="54" t="s">
+      <c r="BR4" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="BS4" s="54" t="s">
+      <c r="BS4" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="BT4" s="54" t="s">
+      <c r="BT4" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="54" t="s">
+      <c r="BU4" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="BV4" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW4" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX4" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY4" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ4" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA4" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="BV4" s="54" t="s">
+      <c r="CB4" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="BW4" s="54" t="s">
+      <c r="CC4" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="BX4" s="54" t="s">
+      <c r="CD4" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="BY4" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="BZ4" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="CA4" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="CB4" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="CC4" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="CD4" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="CE4" s="52" t="s">
+      <c r="CE4" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="CF4" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="CG4" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="CH4" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="CF4" s="52" t="s">
+      <c r="CI4" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="CG4" s="52" t="s">
+      <c r="CJ4" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="CH4" s="52" t="s">
+      <c r="CK4" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="CI4" s="52" t="s">
+      <c r="CL4" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="CJ4" s="52" t="s">
+      <c r="CM4" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="CK4" s="52" t="s">
+      <c r="CN4" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="CL4" s="52" t="s">
+      <c r="CO4" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="CM4" s="52" t="s">
+      <c r="CP4" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="CN4" s="52" t="s">
+      <c r="CQ4" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="CO4" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="CP4" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="CQ4" s="52" t="s">
+      <c r="CR4" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="CR4" s="52" t="s">
+      <c r="CS4" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="CT4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="CU4" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="CS4" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="CT4" s="52" t="s">
+      <c r="CV4" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="CW4" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="CU4" s="52" t="s">
+      <c r="CX4" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="CV4" s="52" t="s">
+      <c r="CY4" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="CZ4" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="CW4" s="52" t="s">
+      <c r="DA4" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="CX4" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="CY4" s="52" t="s">
+      <c r="DB4" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="DC4" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="CZ4" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="DA4" s="52" t="s">
+      <c r="DD4" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="DB4" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="DC4" s="52" t="s">
+      <c r="DE4" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="DF4" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="DD4" s="46" t="s">
+      <c r="DG4" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="DH4" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="DE4" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="DF4" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="DG4" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="DH4" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="DI4" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="DJ4" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="DK4" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="DL4" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="DM4" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="DN4" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="DO4" s="46" t="s">
+      <c r="DI4" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="DJ4" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="DK4" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="DL4" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="DM4" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="DN4" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="DO4" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="DP4" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="DQ4" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="DR4" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="DP4" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="DQ4" s="46" t="s">
+      <c r="DS4" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="DR4" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="DS4" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="DT4" s="46" t="s">
-        <v>363</v>
+      <c r="DT4" s="44" t="s">
+        <v>356</v>
       </c>
       <c r="DU4" s="74" t="s">
+        <v>372</v>
+      </c>
+      <c r="DV4" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="DW4" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="DX4" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="DY4" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="DZ4" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="EA4" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="DV4" s="74" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW4" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX4" s="74" t="s">
-        <v>382</v>
-      </c>
-      <c r="DY4" s="74" t="s">
-        <v>383</v>
-      </c>
-      <c r="DZ4" s="46" t="s">
-        <v>377</v>
-      </c>
     </row>
-    <row r="5" spans="2:130" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:131" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
       <c r="Y5" s="80"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="53"/>
-      <c r="BN5" s="53"/>
-      <c r="BO5" s="53"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="53"/>
-      <c r="BS5" s="53"/>
-      <c r="BT5" s="53"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="51"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="51"/>
+      <c r="BP5" s="51"/>
+      <c r="BQ5" s="51"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="51"/>
       <c r="BU5" s="53"/>
       <c r="BV5" s="53"/>
       <c r="BW5" s="53"/>
       <c r="BX5" s="53"/>
       <c r="BY5" s="53"/>
       <c r="BZ5" s="53"/>
-      <c r="CA5" s="53"/>
-      <c r="CB5" s="53"/>
-      <c r="CC5" s="53"/>
-      <c r="CD5" s="53"/>
-      <c r="CE5" s="47"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="47"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="47"/>
-      <c r="CK5" s="47"/>
-      <c r="CL5" s="47"/>
-      <c r="CM5" s="47"/>
-      <c r="CN5" s="47"/>
-      <c r="CO5" s="47"/>
-      <c r="CP5" s="47"/>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="47"/>
-      <c r="CS5" s="47"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="47"/>
-      <c r="CV5" s="47"/>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="47"/>
-      <c r="CY5" s="47"/>
-      <c r="CZ5" s="47"/>
-      <c r="DA5" s="47"/>
-      <c r="DB5" s="47"/>
-      <c r="DC5" s="47"/>
-      <c r="DD5" s="47"/>
-      <c r="DE5" s="47"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="47"/>
-      <c r="DH5" s="47"/>
-      <c r="DI5" s="47"/>
-      <c r="DJ5" s="47"/>
-      <c r="DK5" s="47"/>
-      <c r="DL5" s="47"/>
-      <c r="DM5" s="47"/>
-      <c r="DN5" s="47"/>
-      <c r="DO5" s="47"/>
-      <c r="DP5" s="47"/>
-      <c r="DQ5" s="47"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="47"/>
-      <c r="DT5" s="47"/>
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="51"/>
+      <c r="CD5" s="51"/>
+      <c r="CE5" s="45"/>
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="45"/>
+      <c r="CJ5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="45"/>
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="75"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="45"/>
+      <c r="DT5" s="45"/>
       <c r="DU5" s="75"/>
       <c r="DV5" s="75"/>
       <c r="DW5" s="75"/>
       <c r="DX5" s="75"/>
       <c r="DY5" s="75"/>
-      <c r="DZ5" s="47"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
     </row>
-    <row r="6" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -32436,8 +32564,11 @@
       <c r="DZ6" s="28">
         <v>68</v>
       </c>
+      <c r="EA6" s="28">
+        <v>81</v>
+      </c>
     </row>
-    <row r="7" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -32825,8 +32956,11 @@
       <c r="DZ7" s="15">
         <v>0</v>
       </c>
+      <c r="EA7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -33214,8 +33348,11 @@
       <c r="DZ8" s="28">
         <v>4</v>
       </c>
+      <c r="EA8" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -33603,8 +33740,11 @@
       <c r="DZ9" s="15">
         <v>60</v>
       </c>
+      <c r="EA9" s="15">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -33992,8 +34132,11 @@
       <c r="DZ10" s="15">
         <v>0</v>
       </c>
+      <c r="EA10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -34381,8 +34524,11 @@
       <c r="DZ11" s="15">
         <v>6</v>
       </c>
+      <c r="EA11" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -34770,13 +34916,16 @@
       <c r="DZ12" s="15">
         <v>3</v>
       </c>
+      <c r="EA12" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D13" s="26">
         <v>8</v>
@@ -35159,8 +35308,11 @@
       <c r="DZ13" s="15">
         <v>12</v>
       </c>
+      <c r="EA13" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -35548,8 +35700,11 @@
       <c r="DZ14" s="15">
         <v>6</v>
       </c>
+      <c r="EA14" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -35937,8 +36092,11 @@
       <c r="DZ15" s="15">
         <v>0</v>
       </c>
+      <c r="EA15" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -36326,8 +36484,11 @@
       <c r="DZ16" s="28">
         <v>77</v>
       </c>
+      <c r="EA16" s="28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="17" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -36715,8 +36876,11 @@
       <c r="DZ17" s="15">
         <v>105</v>
       </c>
+      <c r="EA17" s="15">
+        <v>98</v>
+      </c>
     </row>
-    <row r="18" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -37104,8 +37268,11 @@
       <c r="DZ18" s="34">
         <v>1208</v>
       </c>
+      <c r="EA18" s="34">
+        <v>1105</v>
+      </c>
     </row>
-    <row r="19" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="60" t="s">
         <v>27</v>
       </c>
@@ -37493,8 +37660,11 @@
       <c r="DZ19" s="15">
         <v>54</v>
       </c>
+      <c r="EA19" s="15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="20" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -37880,8 +38050,11 @@
       <c r="DZ20" s="28">
         <v>283</v>
       </c>
+      <c r="EA20" s="28">
+        <v>149</v>
+      </c>
     </row>
-    <row r="21" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -38267,8 +38440,11 @@
       <c r="DZ21" s="15">
         <v>32</v>
       </c>
+      <c r="EA21" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="22" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -38656,8 +38832,11 @@
       <c r="DZ22" s="15">
         <v>6</v>
       </c>
+      <c r="EA22" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -39045,8 +39224,11 @@
       <c r="DZ23" s="15">
         <v>1</v>
       </c>
+      <c r="EA23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -39434,8 +39616,11 @@
       <c r="DZ24" s="15">
         <v>1</v>
       </c>
+      <c r="EA24" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -39823,8 +40008,11 @@
       <c r="DZ25" s="15">
         <v>0</v>
       </c>
+      <c r="EA25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -40212,8 +40400,11 @@
       <c r="DZ26" s="15">
         <v>7</v>
       </c>
+      <c r="EA26" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -40601,8 +40792,11 @@
       <c r="DZ27" s="15">
         <v>0</v>
       </c>
+      <c r="EA27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -40990,8 +41184,11 @@
       <c r="DZ28" s="15">
         <v>0</v>
       </c>
+      <c r="EA28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="61" t="s">
         <v>45</v>
       </c>
@@ -41379,8 +41576,11 @@
       <c r="DZ29" s="15">
         <v>1</v>
       </c>
+      <c r="EA29" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -41766,8 +41966,11 @@
       <c r="DZ30" s="15">
         <v>10</v>
       </c>
+      <c r="EA30" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -42155,8 +42358,11 @@
       <c r="DZ31" s="15">
         <v>44</v>
       </c>
+      <c r="EA31" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="32" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -42544,8 +42750,11 @@
       <c r="DZ32" s="15">
         <v>3</v>
       </c>
+      <c r="EA32" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -42933,8 +43142,11 @@
       <c r="DZ33" s="15">
         <v>0</v>
       </c>
+      <c r="EA33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -43322,8 +43534,11 @@
       <c r="DZ34" s="15">
         <v>39</v>
       </c>
+      <c r="EA34" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="35" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="60" t="s">
         <v>56</v>
       </c>
@@ -43711,8 +43926,11 @@
       <c r="DZ35" s="15">
         <v>294</v>
       </c>
+      <c r="EA35" s="15">
+        <v>286</v>
+      </c>
     </row>
-    <row r="36" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="60"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -44098,8 +44316,11 @@
       <c r="DZ36" s="28">
         <v>20</v>
       </c>
+      <c r="EA36" s="28">
+        <v>23</v>
+      </c>
     </row>
-    <row r="37" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -44487,8 +44708,11 @@
       <c r="DZ37" s="15">
         <v>31</v>
       </c>
+      <c r="EA37" s="15">
+        <v>36</v>
+      </c>
     </row>
-    <row r="38" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -44876,8 +45100,11 @@
       <c r="DZ38" s="15">
         <v>9</v>
       </c>
+      <c r="EA38" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -45265,8 +45492,11 @@
       <c r="DZ39" s="15">
         <v>7</v>
       </c>
+      <c r="EA39" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -45654,8 +45884,11 @@
       <c r="DZ40" s="15">
         <v>0</v>
       </c>
+      <c r="EA40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -46043,8 +46276,11 @@
       <c r="DZ41" s="15">
         <v>0</v>
       </c>
+      <c r="EA41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -46432,8 +46668,11 @@
       <c r="DZ42" s="15">
         <v>2</v>
       </c>
+      <c r="EA42" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -46821,8 +47060,11 @@
       <c r="DZ43" s="28">
         <v>44</v>
       </c>
+      <c r="EA43" s="28">
+        <v>28</v>
+      </c>
     </row>
-    <row r="44" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -47210,8 +47452,11 @@
       <c r="DZ44" s="15">
         <v>3</v>
       </c>
+      <c r="EA44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -47599,8 +47844,11 @@
       <c r="DZ45" s="15">
         <v>4</v>
       </c>
+      <c r="EA45" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="46" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -47988,8 +48236,11 @@
       <c r="DZ46" s="15">
         <v>10</v>
       </c>
+      <c r="EA46" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -48377,8 +48628,11 @@
       <c r="DZ47" s="15">
         <v>2</v>
       </c>
+      <c r="EA47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -48766,8 +49020,11 @@
       <c r="DZ48" s="15">
         <v>8</v>
       </c>
+      <c r="EA48" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="49" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="60" t="s">
         <v>83</v>
       </c>
@@ -49155,8 +49412,11 @@
       <c r="DZ49" s="15">
         <v>15</v>
       </c>
+      <c r="EA49" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="60"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -49542,8 +49802,11 @@
       <c r="DZ50" s="15">
         <v>4</v>
       </c>
+      <c r="EA50" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -49931,8 +50194,11 @@
       <c r="DZ51" s="15">
         <v>8</v>
       </c>
+      <c r="EA51" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -50320,8 +50586,11 @@
       <c r="DZ52" s="15">
         <v>1</v>
       </c>
+      <c r="EA52" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -50709,8 +50978,11 @@
       <c r="DZ53" s="15">
         <v>13</v>
       </c>
+      <c r="EA53" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="54" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -51098,8 +51370,11 @@
       <c r="DZ54" s="15">
         <v>7</v>
       </c>
+      <c r="EA54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -51487,8 +51762,11 @@
       <c r="DZ55" s="15">
         <v>6</v>
       </c>
+      <c r="EA55" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -51876,8 +52154,11 @@
       <c r="DZ56" s="15">
         <v>2</v>
       </c>
+      <c r="EA56" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -52265,8 +52546,11 @@
       <c r="DZ57" s="15">
         <v>1</v>
       </c>
+      <c r="EA57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="2:130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -52735,7 +53019,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:DZ58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:EA58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -52778,9 +53062,16 @@
         <f t="shared" si="8"/>
         <v>2521</v>
       </c>
+      <c r="EA58" s="14">
+        <f t="shared" si="8"/>
+        <v>2184</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="144">
+    <mergeCell ref="DD2:EA2"/>
+    <mergeCell ref="DD3:EA3"/>
+    <mergeCell ref="EA4:EA5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
@@ -52802,6 +53093,15 @@
     <mergeCell ref="DF4:DF5"/>
     <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="W4:W5"/>
@@ -52811,16 +53111,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="B4:B5"/>
@@ -52842,7 +53132,6 @@
     <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BD4:BD5"/>
@@ -52866,7 +53155,7 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="CQ4:CQ5"/>
@@ -52890,12 +53179,10 @@
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="DM4:DM5"/>
+    <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="DL4:DL5"/>
     <mergeCell ref="DG4:DG5"/>
     <mergeCell ref="DX4:DX5"/>
-    <mergeCell ref="DD2:DZ2"/>
-    <mergeCell ref="DD3:DZ3"/>
     <mergeCell ref="DZ4:DZ5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="CO4:CO5"/>
@@ -52916,6 +53203,7 @@
     <mergeCell ref="CN4:CN5"/>
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
+    <mergeCell ref="CP4:CP5"/>
     <mergeCell ref="DS4:DS5"/>
     <mergeCell ref="DR4:DR5"/>
     <mergeCell ref="DQ4:DQ5"/>
@@ -52924,6 +53212,7 @@
     <mergeCell ref="DY4:DY5"/>
     <mergeCell ref="DW4:DW5"/>
     <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="DM4:DM5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -52958,7 +53247,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:DZ57</xm:sqref>
+          <xm:sqref>DP6:EA57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -52968,13 +53257,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ61"/>
+  <dimension ref="A1:CA61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BR6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BR45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BV59" sqref="BV59"/>
+      <selection pane="bottomRight" activeCell="CA6" sqref="CA6:CA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -52987,11 +53276,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="78" width="10.875" style="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.625" style="1"/>
+    <col min="54" max="79" width="10.875" style="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:79" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -53020,7 +53309,7 @@
       <c r="BA1" s="19"/>
       <c r="BB1" s="19"/>
       <c r="BC1" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="BD1" s="19"/>
       <c r="BE1" s="19"/>
@@ -53044,94 +53333,96 @@
       <c r="BW1" s="19"/>
       <c r="BX1" s="19"/>
       <c r="BY1" s="19"/>
-      <c r="BZ1" s="19" t="s">
-        <v>298</v>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:79" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
+      <c r="D2" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
       <c r="BC2" s="88"/>
-      <c r="BD2" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
+      <c r="BD2" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
     </row>
-    <row r="3" spans="1:78" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:79" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="78" t="s">
@@ -53176,359 +53467,364 @@
       <c r="AO3" s="78"/>
       <c r="AP3" s="78"/>
       <c r="AQ3" s="78"/>
-      <c r="AR3" s="45" t="s">
+      <c r="AR3" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="56"/>
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="56"/>
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
+    </row>
+    <row r="4" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="V4" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="W4" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="X4" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z4" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA4" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC4" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD4" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE4" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF4" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG4" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH4" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI4" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ4" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK4" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL4" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM4" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN4" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO4" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP4" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ4" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS4" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
+      <c r="AT4" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU4" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV4" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW4" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX4" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY4" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ4" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA4" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB4" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC4" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD4" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE4" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF4" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="BG4" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="BH4" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="BI4" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ4" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="BK4" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL4" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM4" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN4" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="BO4" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="BP4" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="BQ4" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR4" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="BS4" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="BT4" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="BU4" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="BV4" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="BW4" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="BX4" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="BY4" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="BZ4" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="CA4" s="44" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="N4" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="O4" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="P4" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q4" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="R4" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="T4" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="V4" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="W4" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="X4" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y4" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z4" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB4" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC4" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD4" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE4" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF4" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH4" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI4" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ4" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="AK4" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL4" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM4" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="AN4" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO4" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="AP4" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ4" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR4" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS4" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="AT4" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU4" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="AV4" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="AW4" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="AX4" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="AY4" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="AZ4" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="BA4" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="BB4" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="BC4" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="BD4" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE4" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="BF4" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="BG4" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="BH4" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="BI4" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="BJ4" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK4" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="BL4" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM4" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="BN4" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="BO4" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="BP4" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="BQ4" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="BR4" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="BS4" s="46" t="s">
-        <v>360</v>
-      </c>
-      <c r="BT4" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="BU4" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="BV4" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="BW4" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="BX4" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="BY4" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="BZ4" s="46" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:78" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:79" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="46"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="45"/>
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
     </row>
-    <row r="6" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -53761,8 +54057,11 @@
       <c r="BZ6" s="28">
         <v>38</v>
       </c>
+      <c r="CA6" s="28">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -53994,8 +54293,11 @@
       <c r="BZ7" s="15">
         <v>0</v>
       </c>
+      <c r="CA7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -54227,8 +54529,11 @@
       <c r="BZ8" s="28">
         <v>3</v>
       </c>
+      <c r="CA8" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -54461,8 +54766,11 @@
       <c r="BZ9" s="15">
         <v>20</v>
       </c>
+      <c r="CA9" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -54694,8 +55002,11 @@
       <c r="BZ10" s="15">
         <v>0</v>
       </c>
+      <c r="CA10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -54927,8 +55238,11 @@
       <c r="BZ11" s="15">
         <v>9</v>
       </c>
+      <c r="CA11" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -55160,13 +55474,16 @@
       <c r="BZ12" s="15">
         <v>1</v>
       </c>
+      <c r="CA12" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
@@ -55393,8 +55710,11 @@
       <c r="BZ13" s="15">
         <v>19</v>
       </c>
+      <c r="CA13" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -55626,8 +55946,11 @@
       <c r="BZ14" s="15">
         <v>9</v>
       </c>
+      <c r="CA14" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -55859,8 +56182,11 @@
       <c r="BZ15" s="15">
         <v>1</v>
       </c>
+      <c r="CA15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -56093,8 +56419,11 @@
       <c r="BZ16" s="28">
         <v>13</v>
       </c>
+      <c r="CA16" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -56326,8 +56655,11 @@
       <c r="BZ17" s="15">
         <v>72</v>
       </c>
+      <c r="CA17" s="15">
+        <v>70</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -56560,8 +56892,11 @@
       <c r="BZ18" s="34">
         <v>429</v>
       </c>
+      <c r="CA18" s="34">
+        <v>397</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="83" t="s">
         <v>27</v>
@@ -56794,10 +57129,13 @@
       <c r="BZ19" s="15">
         <v>41</v>
       </c>
+      <c r="CA19" s="15">
+        <v>43</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -57026,10 +57364,13 @@
       <c r="BZ20" s="28">
         <v>130</v>
       </c>
+      <c r="CA20" s="28">
+        <v>115</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -57258,8 +57599,11 @@
       <c r="BZ21" s="15">
         <v>19</v>
       </c>
+      <c r="CA21" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -57491,8 +57835,11 @@
       <c r="BZ22" s="15">
         <v>5</v>
       </c>
+      <c r="CA22" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -57724,8 +58071,11 @@
       <c r="BZ23" s="15">
         <v>4</v>
       </c>
+      <c r="CA23" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -57957,8 +58307,11 @@
       <c r="BZ24" s="15">
         <v>3</v>
       </c>
+      <c r="CA24" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -58190,8 +58543,11 @@
       <c r="BZ25" s="15">
         <v>2</v>
       </c>
+      <c r="CA25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -58423,8 +58779,11 @@
       <c r="BZ26" s="15">
         <v>5</v>
       </c>
+      <c r="CA26" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -58656,8 +59015,11 @@
       <c r="BZ27" s="15">
         <v>0</v>
       </c>
+      <c r="CA27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -58889,9 +59251,12 @@
       <c r="BZ28" s="15">
         <v>1</v>
       </c>
+      <c r="CA28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
+    <row r="29" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -59122,9 +59487,12 @@
       <c r="BZ29" s="15">
         <v>3</v>
       </c>
+      <c r="CA29" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="86"/>
+    <row r="30" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -59353,8 +59721,11 @@
       <c r="BZ30" s="15">
         <v>13</v>
       </c>
+      <c r="CA30" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -59587,8 +59958,11 @@
       <c r="BZ31" s="15">
         <v>59</v>
       </c>
+      <c r="CA31" s="15">
+        <v>39</v>
+      </c>
     </row>
-    <row r="32" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -59820,8 +60194,11 @@
       <c r="BZ32" s="15">
         <v>0</v>
       </c>
+      <c r="CA32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -60053,8 +60430,11 @@
       <c r="BZ33" s="15">
         <v>0</v>
       </c>
+      <c r="CA33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -60287,8 +60667,11 @@
       <c r="BZ34" s="15">
         <v>28</v>
       </c>
+      <c r="CA34" s="15">
+        <v>24</v>
+      </c>
     </row>
-    <row r="35" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="83" t="s">
         <v>56</v>
@@ -60521,9 +60904,12 @@
       <c r="BZ35" s="15">
         <v>138</v>
       </c>
+      <c r="CA35" s="15">
+        <v>102</v>
+      </c>
     </row>
-    <row r="36" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="84"/>
+    <row r="36" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="85"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -60752,8 +61138,11 @@
       <c r="BZ36" s="28">
         <v>40</v>
       </c>
+      <c r="CA36" s="28">
+        <v>44</v>
+      </c>
     </row>
-    <row r="37" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -60986,8 +61375,11 @@
       <c r="BZ37" s="15">
         <v>20</v>
       </c>
+      <c r="CA37" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="38" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -61219,8 +61611,11 @@
       <c r="BZ38" s="15">
         <v>11</v>
       </c>
+      <c r="CA38" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -61452,8 +61847,11 @@
       <c r="BZ39" s="15">
         <v>6</v>
       </c>
+      <c r="CA39" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -61685,8 +62083,11 @@
       <c r="BZ40" s="15">
         <v>0</v>
       </c>
+      <c r="CA40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -61918,8 +62319,11 @@
       <c r="BZ41" s="15">
         <v>0</v>
       </c>
+      <c r="CA41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -62151,8 +62555,11 @@
       <c r="BZ42" s="15">
         <v>8</v>
       </c>
+      <c r="CA42" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="43" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -62384,8 +62791,11 @@
       <c r="BZ43" s="28">
         <v>55</v>
       </c>
+      <c r="CA43" s="28">
+        <v>41</v>
+      </c>
     </row>
-    <row r="44" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -62617,8 +63027,11 @@
       <c r="BZ44" s="15">
         <v>6</v>
       </c>
+      <c r="CA44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -62850,8 +63263,11 @@
       <c r="BZ45" s="15">
         <v>3</v>
       </c>
+      <c r="CA45" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="46" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -63083,8 +63499,11 @@
       <c r="BZ46" s="15">
         <v>16</v>
       </c>
+      <c r="CA46" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -63316,8 +63735,11 @@
       <c r="BZ47" s="15">
         <v>1</v>
       </c>
+      <c r="CA47" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="48" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -63549,8 +63971,11 @@
       <c r="BZ48" s="15">
         <v>19</v>
       </c>
+      <c r="CA48" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="49" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
@@ -63783,9 +64208,12 @@
       <c r="BZ49" s="15">
         <v>23</v>
       </c>
+      <c r="CA49" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="50" spans="1:78" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="84"/>
+    <row r="50" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="85"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -64014,8 +64442,11 @@
       <c r="BZ50" s="15">
         <v>27</v>
       </c>
+      <c r="CA50" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="51" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -64247,8 +64678,11 @@
       <c r="BZ51" s="15">
         <v>0</v>
       </c>
+      <c r="CA51" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -64480,8 +64914,11 @@
       <c r="BZ52" s="15">
         <v>17</v>
       </c>
+      <c r="CA52" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="53" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -64713,8 +65150,11 @@
       <c r="BZ53" s="15">
         <v>16</v>
       </c>
+      <c r="CA53" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="54" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -64946,8 +65386,11 @@
       <c r="BZ54" s="15">
         <v>7</v>
       </c>
+      <c r="CA54" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="55" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -65179,8 +65622,11 @@
       <c r="BZ55" s="15">
         <v>3</v>
       </c>
+      <c r="CA55" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -65412,8 +65858,11 @@
       <c r="BZ56" s="15">
         <v>0</v>
       </c>
+      <c r="CA56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -65645,8 +66094,11 @@
       <c r="BZ57" s="15">
         <v>0</v>
       </c>
+      <c r="CA57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -65916,7 +66368,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BZ58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CA58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -65951,8 +66403,12 @@
         <f t="shared" si="8"/>
         <v>1343</v>
       </c>
+      <c r="CA58" s="14">
+        <f t="shared" si="8"/>
+        <v>1131</v>
+      </c>
     </row>
-    <row r="59" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -65985,7 +66441,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -66018,7 +66474,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:78" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -66052,11 +66508,15 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
+    <mergeCell ref="BD2:CA2"/>
+    <mergeCell ref="BD3:CA3"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -66069,6 +66529,10 @@
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -66085,11 +66549,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="B49:B50"/>
@@ -66124,8 +66583,6 @@
     <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BD2:BZ2"/>
-    <mergeCell ref="BD3:BZ3"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BX4:BX5"/>
@@ -66146,7 +66603,7 @@
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="78" max="66" man="1"/>
+    <brk id="79" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -66163,7 +66620,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BZ57</xm:sqref>
+          <xm:sqref>BP6:CA57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -66173,13 +66630,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE61"/>
+  <dimension ref="A1:CF61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BU48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BZ59" sqref="BZ59"/>
+      <selection pane="bottomRight" activeCell="CA48" sqref="CA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -66190,11 +66647,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="83" width="10.875" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="8.625" style="1"/>
+    <col min="34" max="84" width="10.875" style="1" customWidth="1"/>
+    <col min="85" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:84" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -66223,7 +66680,7 @@
       <c r="BA1" s="19"/>
       <c r="BB1" s="19"/>
       <c r="BC1" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="BD1" s="19"/>
       <c r="BE1" s="19"/>
@@ -66247,99 +66704,101 @@
       <c r="BW1" s="19"/>
       <c r="BX1" s="19"/>
       <c r="BY1" s="19"/>
-      <c r="BZ1" s="19" t="s">
-        <v>298</v>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:83" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:84" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
+      <c r="D2" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
       <c r="BC2" s="88"/>
-      <c r="BD2" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="20"/>
+      <c r="BD2" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
       <c r="CB2" s="20"/>
       <c r="CC2" s="20"/>
       <c r="CD2" s="20"/>
       <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
     </row>
-    <row r="3" spans="1:83" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:84" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="78" t="s">
@@ -66384,374 +66843,379 @@
       <c r="AO3" s="78"/>
       <c r="AP3" s="78"/>
       <c r="AQ3" s="78"/>
-      <c r="AR3" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="21"/>
+      <c r="AR3" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="56"/>
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="56"/>
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
       <c r="CB3" s="21"/>
       <c r="CC3" s="21"/>
       <c r="CD3" s="21"/>
       <c r="CE3" s="21"/>
+      <c r="CF3" s="21"/>
     </row>
-    <row r="4" spans="1:83" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:84" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="N4" s="54" t="s">
+      <c r="M4" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="V4" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="W4" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="X4" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z4" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA4" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC4" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD4" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE4" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="R4" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="T4" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="V4" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="W4" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="X4" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y4" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z4" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB4" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC4" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD4" s="54" t="s">
+      <c r="AF4" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AG4" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH4" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AI4" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AG4" s="52" t="s">
+      <c r="AJ4" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AK4" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="AI4" s="52" t="s">
+      <c r="AL4" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AM4" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AN4" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AO4" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="AM4" s="52" t="s">
+      <c r="AP4" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="AN4" s="52" t="s">
+      <c r="AQ4" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="AO4" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="AP4" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ4" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR4" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS4" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="AT4" s="52" t="s">
+      <c r="AR4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS4" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT4" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU4" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV4" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW4" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="AU4" s="52" t="s">
+      <c r="AX4" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="AV4" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="AW4" s="52" t="s">
+      <c r="AY4" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ4" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA4" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="AX4" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="AY4" s="52" t="s">
+      <c r="BB4" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC4" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="AZ4" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="BA4" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="BB4" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="BC4" s="52" t="s">
+      <c r="BD4" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE4" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF4" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="BD4" s="46" t="s">
+      <c r="BG4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BE4" s="46" t="s">
+      <c r="BH4" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="BF4" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="BG4" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="BH4" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="BI4" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="BJ4" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK4" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="BL4" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM4" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="BN4" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="BO4" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="BP4" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="BQ4" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="BR4" s="46" t="s">
+      <c r="BI4" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ4" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="BK4" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL4" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM4" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN4" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="BO4" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="BP4" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="BQ4" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR4" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="BS4" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BT4" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="BS4" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="BT4" s="46" t="s">
+      <c r="BU4" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="BV4" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="BW4" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="BU4" s="46" t="s">
+      <c r="BX4" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="BV4" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="BW4" s="46" t="s">
+      <c r="BY4" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="BZ4" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="BX4" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="BY4" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="BZ4" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="CA4" s="89"/>
+      <c r="CA4" s="44" t="s">
+        <v>380</v>
+      </c>
       <c r="CB4" s="89"/>
       <c r="CC4" s="89"/>
       <c r="CD4" s="89"/>
       <c r="CE4" s="89"/>
+      <c r="CF4" s="89"/>
     </row>
-    <row r="5" spans="1:83" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:84" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="46"/>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="89"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
       <c r="CB5" s="89"/>
       <c r="CC5" s="89"/>
       <c r="CD5" s="89"/>
       <c r="CE5" s="89"/>
+      <c r="CF5" s="89"/>
     </row>
-    <row r="6" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -66984,13 +67448,16 @@
       <c r="BZ6" s="28">
         <v>75</v>
       </c>
-      <c r="CA6" s="22"/>
+      <c r="CA6" s="28">
+        <v>91</v>
+      </c>
       <c r="CB6" s="22"/>
       <c r="CC6" s="22"/>
       <c r="CD6" s="22"/>
       <c r="CE6" s="22"/>
+      <c r="CF6" s="22"/>
     </row>
-    <row r="7" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -67222,13 +67689,16 @@
       <c r="BZ7" s="15">
         <v>0</v>
       </c>
-      <c r="CA7" s="23"/>
+      <c r="CA7" s="15">
+        <v>1</v>
+      </c>
       <c r="CB7" s="23"/>
       <c r="CC7" s="23"/>
       <c r="CD7" s="23"/>
       <c r="CE7" s="23"/>
+      <c r="CF7" s="23"/>
     </row>
-    <row r="8" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -67460,13 +67930,16 @@
       <c r="BZ8" s="28">
         <v>16</v>
       </c>
-      <c r="CA8" s="23"/>
+      <c r="CA8" s="28">
+        <v>11</v>
+      </c>
       <c r="CB8" s="23"/>
       <c r="CC8" s="23"/>
       <c r="CD8" s="23"/>
       <c r="CE8" s="23"/>
+      <c r="CF8" s="23"/>
     </row>
-    <row r="9" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -67699,13 +68172,16 @@
       <c r="BZ9" s="15">
         <v>59</v>
       </c>
-      <c r="CA9" s="23"/>
+      <c r="CA9" s="15">
+        <v>63</v>
+      </c>
       <c r="CB9" s="23"/>
       <c r="CC9" s="23"/>
       <c r="CD9" s="23"/>
       <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
     </row>
-    <row r="10" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -67937,13 +68413,16 @@
       <c r="BZ10" s="15">
         <v>0</v>
       </c>
-      <c r="CA10" s="23"/>
+      <c r="CA10" s="15">
+        <v>1</v>
+      </c>
       <c r="CB10" s="23"/>
       <c r="CC10" s="23"/>
       <c r="CD10" s="23"/>
       <c r="CE10" s="23"/>
+      <c r="CF10" s="23"/>
     </row>
-    <row r="11" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -68175,13 +68654,16 @@
       <c r="BZ11" s="15">
         <v>4</v>
       </c>
-      <c r="CA11" s="23"/>
+      <c r="CA11" s="15">
+        <v>5</v>
+      </c>
       <c r="CB11" s="23"/>
       <c r="CC11" s="23"/>
       <c r="CD11" s="23"/>
       <c r="CE11" s="23"/>
+      <c r="CF11" s="23"/>
     </row>
-    <row r="12" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -68413,18 +68895,21 @@
       <c r="BZ12" s="15">
         <v>1</v>
       </c>
-      <c r="CA12" s="23"/>
+      <c r="CA12" s="15">
+        <v>0</v>
+      </c>
       <c r="CB12" s="23"/>
       <c r="CC12" s="23"/>
       <c r="CD12" s="23"/>
       <c r="CE12" s="23"/>
+      <c r="CF12" s="23"/>
     </row>
-    <row r="13" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D13" s="8">
         <v>8</v>
@@ -68651,13 +69136,16 @@
       <c r="BZ13" s="15">
         <v>15</v>
       </c>
-      <c r="CA13" s="22"/>
+      <c r="CA13" s="15">
+        <v>11</v>
+      </c>
       <c r="CB13" s="22"/>
       <c r="CC13" s="22"/>
       <c r="CD13" s="22"/>
       <c r="CE13" s="22"/>
+      <c r="CF13" s="22"/>
     </row>
-    <row r="14" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -68889,13 +69377,16 @@
       <c r="BZ14" s="15">
         <v>17</v>
       </c>
-      <c r="CA14" s="23"/>
+      <c r="CA14" s="15">
+        <v>15</v>
+      </c>
       <c r="CB14" s="23"/>
       <c r="CC14" s="23"/>
       <c r="CD14" s="23"/>
       <c r="CE14" s="23"/>
+      <c r="CF14" s="23"/>
     </row>
-    <row r="15" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -69127,13 +69618,16 @@
       <c r="BZ15" s="15">
         <v>0</v>
       </c>
-      <c r="CA15" s="23"/>
+      <c r="CA15" s="15">
+        <v>2</v>
+      </c>
       <c r="CB15" s="23"/>
       <c r="CC15" s="23"/>
       <c r="CD15" s="23"/>
       <c r="CE15" s="23"/>
+      <c r="CF15" s="23"/>
     </row>
-    <row r="16" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -69366,13 +69860,16 @@
       <c r="BZ16" s="28">
         <v>131</v>
       </c>
-      <c r="CA16" s="22"/>
+      <c r="CA16" s="28">
+        <v>104</v>
+      </c>
       <c r="CB16" s="22"/>
       <c r="CC16" s="22"/>
       <c r="CD16" s="22"/>
       <c r="CE16" s="22"/>
+      <c r="CF16" s="22"/>
     </row>
-    <row r="17" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -69604,13 +70101,16 @@
       <c r="BZ17" s="15">
         <v>96</v>
       </c>
-      <c r="CA17" s="22"/>
+      <c r="CA17" s="15">
+        <v>82</v>
+      </c>
       <c r="CB17" s="22"/>
       <c r="CC17" s="22"/>
       <c r="CD17" s="22"/>
       <c r="CE17" s="22"/>
+      <c r="CF17" s="22"/>
     </row>
-    <row r="18" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -69843,13 +70343,16 @@
       <c r="BZ18" s="34">
         <v>1346</v>
       </c>
-      <c r="CA18" s="22"/>
+      <c r="CA18" s="34">
+        <v>1270</v>
+      </c>
       <c r="CB18" s="22"/>
       <c r="CC18" s="22"/>
       <c r="CD18" s="22"/>
       <c r="CE18" s="22"/>
+      <c r="CF18" s="22"/>
     </row>
-    <row r="19" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="83" t="s">
         <v>27</v>
@@ -70082,15 +70585,18 @@
       <c r="BZ19" s="15">
         <v>24</v>
       </c>
-      <c r="CA19" s="22"/>
+      <c r="CA19" s="15">
+        <v>29</v>
+      </c>
       <c r="CB19" s="22"/>
       <c r="CC19" s="22"/>
       <c r="CD19" s="22"/>
       <c r="CE19" s="22"/>
+      <c r="CF19" s="22"/>
     </row>
-    <row r="20" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -70319,15 +70825,18 @@
       <c r="BZ20" s="28">
         <v>91</v>
       </c>
-      <c r="CA20" s="22"/>
+      <c r="CA20" s="28">
+        <v>65</v>
+      </c>
       <c r="CB20" s="22"/>
       <c r="CC20" s="22"/>
       <c r="CD20" s="22"/>
       <c r="CE20" s="22"/>
+      <c r="CF20" s="22"/>
     </row>
-    <row r="21" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -70556,13 +71065,16 @@
       <c r="BZ21" s="15">
         <v>15</v>
       </c>
-      <c r="CA21" s="22"/>
+      <c r="CA21" s="15">
+        <v>14</v>
+      </c>
       <c r="CB21" s="22"/>
       <c r="CC21" s="22"/>
       <c r="CD21" s="22"/>
       <c r="CE21" s="22"/>
+      <c r="CF21" s="22"/>
     </row>
-    <row r="22" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -70794,13 +71306,16 @@
       <c r="BZ22" s="15">
         <v>4</v>
       </c>
-      <c r="CA22" s="23"/>
+      <c r="CA22" s="15">
+        <v>3</v>
+      </c>
       <c r="CB22" s="23"/>
       <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23"/>
+      <c r="CF22" s="23"/>
     </row>
-    <row r="23" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -71032,13 +71547,16 @@
       <c r="BZ23" s="15">
         <v>8</v>
       </c>
-      <c r="CA23" s="23"/>
+      <c r="CA23" s="15">
+        <v>5</v>
+      </c>
       <c r="CB23" s="23"/>
       <c r="CC23" s="23"/>
       <c r="CD23" s="23"/>
       <c r="CE23" s="23"/>
+      <c r="CF23" s="23"/>
     </row>
-    <row r="24" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -71270,13 +71788,16 @@
       <c r="BZ24" s="15">
         <v>10</v>
       </c>
-      <c r="CA24" s="22"/>
+      <c r="CA24" s="15">
+        <v>11</v>
+      </c>
       <c r="CB24" s="22"/>
       <c r="CC24" s="22"/>
       <c r="CD24" s="22"/>
       <c r="CE24" s="22"/>
+      <c r="CF24" s="22"/>
     </row>
-    <row r="25" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -71508,13 +72029,16 @@
       <c r="BZ25" s="15">
         <v>0</v>
       </c>
-      <c r="CA25" s="23"/>
+      <c r="CA25" s="15">
+        <v>0</v>
+      </c>
       <c r="CB25" s="23"/>
       <c r="CC25" s="23"/>
       <c r="CD25" s="23"/>
       <c r="CE25" s="23"/>
+      <c r="CF25" s="23"/>
     </row>
-    <row r="26" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -71746,13 +72270,16 @@
       <c r="BZ26" s="15">
         <v>8</v>
       </c>
-      <c r="CA26" s="23"/>
+      <c r="CA26" s="15">
+        <v>14</v>
+      </c>
       <c r="CB26" s="23"/>
       <c r="CC26" s="23"/>
       <c r="CD26" s="23"/>
       <c r="CE26" s="23"/>
+      <c r="CF26" s="23"/>
     </row>
-    <row r="27" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -71984,13 +72511,16 @@
       <c r="BZ27" s="15">
         <v>1</v>
       </c>
-      <c r="CA27" s="23"/>
+      <c r="CA27" s="15">
+        <v>0</v>
+      </c>
       <c r="CB27" s="23"/>
       <c r="CC27" s="23"/>
       <c r="CD27" s="23"/>
       <c r="CE27" s="23"/>
+      <c r="CF27" s="23"/>
     </row>
-    <row r="28" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -72222,14 +72752,17 @@
       <c r="BZ28" s="15">
         <v>0</v>
       </c>
-      <c r="CA28" s="22"/>
+      <c r="CA28" s="15">
+        <v>0</v>
+      </c>
       <c r="CB28" s="22"/>
       <c r="CC28" s="22"/>
       <c r="CD28" s="22"/>
       <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
     </row>
-    <row r="29" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
+    <row r="29" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -72460,14 +72993,17 @@
       <c r="BZ29" s="15">
         <v>3</v>
       </c>
-      <c r="CA29" s="23"/>
+      <c r="CA29" s="15">
+        <v>1</v>
+      </c>
       <c r="CB29" s="23"/>
       <c r="CC29" s="23"/>
       <c r="CD29" s="23"/>
       <c r="CE29" s="23"/>
+      <c r="CF29" s="23"/>
     </row>
-    <row r="30" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="86"/>
+    <row r="30" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -72696,13 +73232,16 @@
       <c r="BZ30" s="15">
         <v>11</v>
       </c>
-      <c r="CA30" s="23"/>
+      <c r="CA30" s="15">
+        <v>12</v>
+      </c>
       <c r="CB30" s="23"/>
       <c r="CC30" s="23"/>
       <c r="CD30" s="23"/>
       <c r="CE30" s="23"/>
+      <c r="CF30" s="23"/>
     </row>
-    <row r="31" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -72935,13 +73474,16 @@
       <c r="BZ31" s="15">
         <v>30</v>
       </c>
-      <c r="CA31" s="22"/>
+      <c r="CA31" s="15">
+        <v>25</v>
+      </c>
       <c r="CB31" s="22"/>
       <c r="CC31" s="22"/>
       <c r="CD31" s="22"/>
       <c r="CE31" s="22"/>
+      <c r="CF31" s="22"/>
     </row>
-    <row r="32" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -73173,13 +73715,16 @@
       <c r="BZ32" s="15">
         <v>0</v>
       </c>
-      <c r="CA32" s="23"/>
+      <c r="CA32" s="15">
+        <v>1</v>
+      </c>
       <c r="CB32" s="23"/>
       <c r="CC32" s="23"/>
       <c r="CD32" s="23"/>
       <c r="CE32" s="23"/>
+      <c r="CF32" s="23"/>
     </row>
-    <row r="33" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -73411,13 +73956,16 @@
       <c r="BZ33" s="15">
         <v>0</v>
       </c>
-      <c r="CA33" s="23"/>
+      <c r="CA33" s="15">
+        <v>0</v>
+      </c>
       <c r="CB33" s="23"/>
       <c r="CC33" s="23"/>
       <c r="CD33" s="23"/>
       <c r="CE33" s="23"/>
+      <c r="CF33" s="23"/>
     </row>
-    <row r="34" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -73650,13 +74198,16 @@
       <c r="BZ34" s="15">
         <v>67</v>
       </c>
-      <c r="CA34" s="22"/>
+      <c r="CA34" s="15">
+        <v>51</v>
+      </c>
       <c r="CB34" s="22"/>
       <c r="CC34" s="22"/>
       <c r="CD34" s="22"/>
       <c r="CE34" s="22"/>
+      <c r="CF34" s="22"/>
     </row>
-    <row r="35" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="83" t="s">
         <v>56</v>
@@ -73889,14 +74440,17 @@
       <c r="BZ35" s="15">
         <v>323</v>
       </c>
-      <c r="CA35" s="22"/>
+      <c r="CA35" s="15">
+        <v>263</v>
+      </c>
       <c r="CB35" s="22"/>
       <c r="CC35" s="22"/>
       <c r="CD35" s="22"/>
       <c r="CE35" s="22"/>
+      <c r="CF35" s="22"/>
     </row>
-    <row r="36" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="84"/>
+    <row r="36" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="85"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -74125,13 +74679,16 @@
       <c r="BZ36" s="28">
         <v>24</v>
       </c>
-      <c r="CA36" s="22"/>
+      <c r="CA36" s="28">
+        <v>25</v>
+      </c>
       <c r="CB36" s="22"/>
       <c r="CC36" s="22"/>
       <c r="CD36" s="22"/>
       <c r="CE36" s="22"/>
+      <c r="CF36" s="22"/>
     </row>
-    <row r="37" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -74364,13 +74921,16 @@
       <c r="BZ37" s="15">
         <v>44</v>
       </c>
-      <c r="CA37" s="22"/>
+      <c r="CA37" s="15">
+        <v>35</v>
+      </c>
       <c r="CB37" s="22"/>
       <c r="CC37" s="22"/>
       <c r="CD37" s="22"/>
       <c r="CE37" s="22"/>
+      <c r="CF37" s="22"/>
     </row>
-    <row r="38" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -74602,13 +75162,16 @@
       <c r="BZ38" s="15">
         <v>17</v>
       </c>
-      <c r="CA38" s="23"/>
+      <c r="CA38" s="15">
+        <v>5</v>
+      </c>
       <c r="CB38" s="23"/>
       <c r="CC38" s="23"/>
       <c r="CD38" s="23"/>
       <c r="CE38" s="23"/>
+      <c r="CF38" s="23"/>
     </row>
-    <row r="39" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -74840,13 +75403,16 @@
       <c r="BZ39" s="15">
         <v>9</v>
       </c>
-      <c r="CA39" s="23"/>
+      <c r="CA39" s="15">
+        <v>8</v>
+      </c>
       <c r="CB39" s="23"/>
       <c r="CC39" s="23"/>
       <c r="CD39" s="23"/>
       <c r="CE39" s="23"/>
+      <c r="CF39" s="23"/>
     </row>
-    <row r="40" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -75078,13 +75644,16 @@
       <c r="BZ40" s="15">
         <v>0</v>
       </c>
-      <c r="CA40" s="23"/>
+      <c r="CA40" s="15">
+        <v>0</v>
+      </c>
       <c r="CB40" s="23"/>
       <c r="CC40" s="23"/>
       <c r="CD40" s="23"/>
       <c r="CE40" s="23"/>
+      <c r="CF40" s="23"/>
     </row>
-    <row r="41" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -75316,13 +75885,16 @@
       <c r="BZ41" s="15">
         <v>0</v>
       </c>
-      <c r="CA41" s="23"/>
+      <c r="CA41" s="15">
+        <v>0</v>
+      </c>
       <c r="CB41" s="23"/>
       <c r="CC41" s="23"/>
       <c r="CD41" s="23"/>
       <c r="CE41" s="23"/>
+      <c r="CF41" s="23"/>
     </row>
-    <row r="42" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -75554,13 +76126,16 @@
       <c r="BZ42" s="15">
         <v>3</v>
       </c>
-      <c r="CA42" s="23"/>
+      <c r="CA42" s="15">
+        <v>10</v>
+      </c>
       <c r="CB42" s="23"/>
       <c r="CC42" s="23"/>
       <c r="CD42" s="23"/>
       <c r="CE42" s="23"/>
+      <c r="CF42" s="23"/>
     </row>
-    <row r="43" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -75792,13 +76367,16 @@
       <c r="BZ43" s="28">
         <v>39</v>
       </c>
-      <c r="CA43" s="23"/>
+      <c r="CA43" s="28">
+        <v>25</v>
+      </c>
       <c r="CB43" s="23"/>
       <c r="CC43" s="23"/>
       <c r="CD43" s="23"/>
       <c r="CE43" s="23"/>
+      <c r="CF43" s="23"/>
     </row>
-    <row r="44" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -76030,13 +76608,16 @@
       <c r="BZ44" s="15">
         <v>0</v>
       </c>
-      <c r="CA44" s="23"/>
+      <c r="CA44" s="15">
+        <v>4</v>
+      </c>
       <c r="CB44" s="23"/>
       <c r="CC44" s="23"/>
       <c r="CD44" s="23"/>
       <c r="CE44" s="23"/>
+      <c r="CF44" s="23"/>
     </row>
-    <row r="45" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -76268,13 +76849,16 @@
       <c r="BZ45" s="15">
         <v>24</v>
       </c>
-      <c r="CA45" s="22"/>
+      <c r="CA45" s="15">
+        <v>13</v>
+      </c>
       <c r="CB45" s="22"/>
       <c r="CC45" s="22"/>
       <c r="CD45" s="22"/>
       <c r="CE45" s="22"/>
+      <c r="CF45" s="22"/>
     </row>
-    <row r="46" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -76506,13 +77090,16 @@
       <c r="BZ46" s="15">
         <v>18</v>
       </c>
-      <c r="CA46" s="23"/>
+      <c r="CA46" s="15">
+        <v>22</v>
+      </c>
       <c r="CB46" s="23"/>
       <c r="CC46" s="23"/>
       <c r="CD46" s="23"/>
       <c r="CE46" s="23"/>
+      <c r="CF46" s="23"/>
     </row>
-    <row r="47" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -76744,13 +77331,16 @@
       <c r="BZ47" s="15">
         <v>0</v>
       </c>
-      <c r="CA47" s="23"/>
+      <c r="CA47" s="15">
+        <v>0</v>
+      </c>
       <c r="CB47" s="23"/>
       <c r="CC47" s="23"/>
       <c r="CD47" s="23"/>
       <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
     </row>
-    <row r="48" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -76982,13 +77572,16 @@
       <c r="BZ48" s="15">
         <v>4</v>
       </c>
-      <c r="CA48" s="23"/>
+      <c r="CA48" s="15">
+        <v>2</v>
+      </c>
       <c r="CB48" s="23"/>
       <c r="CC48" s="23"/>
       <c r="CD48" s="23"/>
       <c r="CE48" s="23"/>
+      <c r="CF48" s="23"/>
     </row>
-    <row r="49" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
@@ -77221,14 +77814,17 @@
       <c r="BZ49" s="15">
         <v>66</v>
       </c>
-      <c r="CA49" s="22"/>
+      <c r="CA49" s="15">
+        <v>58</v>
+      </c>
       <c r="CB49" s="22"/>
       <c r="CC49" s="22"/>
       <c r="CD49" s="22"/>
       <c r="CE49" s="22"/>
+      <c r="CF49" s="22"/>
     </row>
-    <row r="50" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="84"/>
+    <row r="50" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="85"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -77457,13 +78053,16 @@
       <c r="BZ50" s="15">
         <v>14</v>
       </c>
-      <c r="CA50" s="22"/>
+      <c r="CA50" s="15">
+        <v>9</v>
+      </c>
       <c r="CB50" s="22"/>
       <c r="CC50" s="22"/>
       <c r="CD50" s="22"/>
       <c r="CE50" s="22"/>
+      <c r="CF50" s="22"/>
     </row>
-    <row r="51" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -77695,13 +78294,16 @@
       <c r="BZ51" s="15">
         <v>6</v>
       </c>
-      <c r="CA51" s="23"/>
+      <c r="CA51" s="15">
+        <v>5</v>
+      </c>
       <c r="CB51" s="23"/>
       <c r="CC51" s="23"/>
       <c r="CD51" s="23"/>
       <c r="CE51" s="23"/>
+      <c r="CF51" s="23"/>
     </row>
-    <row r="52" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -77933,13 +78535,16 @@
       <c r="BZ52" s="15">
         <v>11</v>
       </c>
-      <c r="CA52" s="23"/>
+      <c r="CA52" s="15">
+        <v>19</v>
+      </c>
       <c r="CB52" s="23"/>
       <c r="CC52" s="23"/>
       <c r="CD52" s="23"/>
       <c r="CE52" s="23"/>
+      <c r="CF52" s="23"/>
     </row>
-    <row r="53" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -78171,13 +78776,16 @@
       <c r="BZ53" s="15">
         <v>29</v>
       </c>
-      <c r="CA53" s="23"/>
+      <c r="CA53" s="15">
+        <v>26</v>
+      </c>
       <c r="CB53" s="23"/>
       <c r="CC53" s="23"/>
       <c r="CD53" s="23"/>
       <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
     </row>
-    <row r="54" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -78409,13 +79017,16 @@
       <c r="BZ54" s="15">
         <v>4</v>
       </c>
-      <c r="CA54" s="23"/>
+      <c r="CA54" s="15">
+        <v>8</v>
+      </c>
       <c r="CB54" s="23"/>
       <c r="CC54" s="23"/>
       <c r="CD54" s="23"/>
       <c r="CE54" s="23"/>
+      <c r="CF54" s="23"/>
     </row>
-    <row r="55" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -78647,13 +79258,16 @@
       <c r="BZ55" s="15">
         <v>7</v>
       </c>
-      <c r="CA55" s="23"/>
+      <c r="CA55" s="15">
+        <v>11</v>
+      </c>
       <c r="CB55" s="23"/>
       <c r="CC55" s="23"/>
       <c r="CD55" s="23"/>
       <c r="CE55" s="23"/>
+      <c r="CF55" s="23"/>
     </row>
-    <row r="56" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -78885,13 +79499,16 @@
       <c r="BZ56" s="15">
         <v>3</v>
       </c>
-      <c r="CA56" s="23"/>
+      <c r="CA56" s="15">
+        <v>1</v>
+      </c>
       <c r="CB56" s="23"/>
       <c r="CC56" s="23"/>
       <c r="CD56" s="23"/>
       <c r="CE56" s="23"/>
+      <c r="CF56" s="23"/>
     </row>
-    <row r="57" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -79123,13 +79740,16 @@
       <c r="BZ57" s="15">
         <v>2</v>
       </c>
-      <c r="CA57" s="23"/>
+      <c r="CA57" s="15">
+        <v>4</v>
+      </c>
       <c r="CB57" s="23"/>
       <c r="CC57" s="23"/>
       <c r="CD57" s="23"/>
       <c r="CE57" s="23"/>
+      <c r="CF57" s="23"/>
     </row>
-    <row r="58" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -79399,7 +80019,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:BZ58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CA58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -79434,13 +80054,17 @@
         <f t="shared" si="4"/>
         <v>2679</v>
       </c>
-      <c r="CA58" s="24"/>
+      <c r="CA58" s="14">
+        <f t="shared" si="4"/>
+        <v>2440</v>
+      </c>
       <c r="CB58" s="24"/>
       <c r="CC58" s="24"/>
       <c r="CD58" s="24"/>
       <c r="CE58" s="24"/>
+      <c r="CF58" s="24"/>
     </row>
-    <row r="59" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -79473,7 +80097,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -79506,7 +80130,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -79540,7 +80164,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="93">
+    <mergeCell ref="BD2:CA2"/>
+    <mergeCell ref="BD3:CA3"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -79554,7 +80181,6 @@
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AE4:AE5"/>
@@ -79577,6 +80203,7 @@
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="T4:T5"/>
@@ -79593,27 +80220,25 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BD2:BZ2"/>
-    <mergeCell ref="BD3:BZ3"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
@@ -79655,7 +80280,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:BZ57</xm:sqref>
+          <xm:sqref>BP6:CA57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040913-3\ＪＯＢ040913-3\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040921-4\ＪＯＢ040921-4\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CA$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CA$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EA$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EA$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CB$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CB$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EB$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EB$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="384">
   <si>
     <t>都道府県</t>
   </si>
@@ -4278,6 +4278,33 @@
     <t>9/5(月)～
 9/11(日)分
 【9月第2週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/12(月)～
+9/18(日)分
+【9月第3週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/13(月)～
+9/19(日)分
+【9月第3週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/12(月)～
+9/18(日)分
+【9月第3週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4812,18 +4839,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4835,6 +4850,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4854,13 +4881,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4875,11 +4902,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4896,9 +4923,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4906,6 +4930,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9062,13 +9089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EA61"/>
+  <dimension ref="A1:EB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DJ6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DN6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EA4" sqref="EA4:EA5"/>
+      <selection pane="bottomRight" activeCell="EB4" sqref="EB4:EB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9084,11 +9111,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="131" width="10.875" style="1" customWidth="1"/>
-    <col min="132" max="16384" width="8.625" style="1"/>
+    <col min="106" max="132" width="10.875" style="1" customWidth="1"/>
+    <col min="133" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:132" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9146,11 +9173,12 @@
       <c r="DX1" s="19"/>
       <c r="DY1" s="19"/>
       <c r="DZ1" s="19"/>
-      <c r="EA1" s="19" t="s">
+      <c r="EA1" s="19"/>
+      <c r="EB1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:132" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="48" t="s">
@@ -9262,77 +9290,78 @@
       <c r="DB2" s="49"/>
       <c r="DC2" s="49"/>
       <c r="DD2" s="49"/>
-      <c r="DE2" s="72" t="s">
+      <c r="DE2" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="DF2" s="72"/>
-      <c r="DG2" s="72"/>
-      <c r="DH2" s="72"/>
-      <c r="DI2" s="72"/>
-      <c r="DJ2" s="72"/>
-      <c r="DK2" s="72"/>
-      <c r="DL2" s="72"/>
-      <c r="DM2" s="72"/>
-      <c r="DN2" s="72"/>
-      <c r="DO2" s="72"/>
-      <c r="DP2" s="72"/>
-      <c r="DQ2" s="72"/>
-      <c r="DR2" s="72"/>
-      <c r="DS2" s="72"/>
-      <c r="DT2" s="72"/>
-      <c r="DU2" s="72"/>
-      <c r="DV2" s="72"/>
-      <c r="DW2" s="72"/>
-      <c r="DX2" s="72"/>
-      <c r="DY2" s="72"/>
-      <c r="DZ2" s="72"/>
-      <c r="EA2" s="72"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="70"/>
+      <c r="DX2" s="70"/>
+      <c r="DY2" s="70"/>
+      <c r="DZ2" s="70"/>
+      <c r="EA2" s="70"/>
+      <c r="EB2" s="70"/>
     </row>
-    <row r="3" spans="1:131" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:132" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
       <c r="AR3" s="46" t="s">
         <v>140</v>
       </c>
@@ -9389,52 +9418,53 @@
       <c r="CO3" s="47"/>
       <c r="CP3" s="47"/>
       <c r="CQ3" s="73"/>
-      <c r="CR3" s="56" t="s">
+      <c r="CR3" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="56"/>
-      <c r="DA3" s="56"/>
-      <c r="DB3" s="56"/>
-      <c r="DC3" s="56"/>
+      <c r="CS3" s="61"/>
+      <c r="CT3" s="61"/>
+      <c r="CU3" s="61"/>
+      <c r="CV3" s="61"/>
+      <c r="CW3" s="61"/>
+      <c r="CX3" s="61"/>
+      <c r="CY3" s="61"/>
+      <c r="CZ3" s="61"/>
+      <c r="DA3" s="61"/>
+      <c r="DB3" s="61"/>
+      <c r="DC3" s="61"/>
       <c r="DD3" s="46"/>
-      <c r="DE3" s="56" t="s">
+      <c r="DE3" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="DF3" s="56"/>
-      <c r="DG3" s="56"/>
-      <c r="DH3" s="56"/>
-      <c r="DI3" s="56"/>
-      <c r="DJ3" s="56"/>
-      <c r="DK3" s="56"/>
-      <c r="DL3" s="56"/>
-      <c r="DM3" s="56"/>
-      <c r="DN3" s="56"/>
-      <c r="DO3" s="56"/>
-      <c r="DP3" s="56"/>
-      <c r="DQ3" s="56"/>
-      <c r="DR3" s="56"/>
-      <c r="DS3" s="56"/>
-      <c r="DT3" s="56"/>
-      <c r="DU3" s="56"/>
-      <c r="DV3" s="56"/>
-      <c r="DW3" s="56"/>
-      <c r="DX3" s="56"/>
-      <c r="DY3" s="56"/>
-      <c r="DZ3" s="56"/>
-      <c r="EA3" s="56"/>
+      <c r="DF3" s="61"/>
+      <c r="DG3" s="61"/>
+      <c r="DH3" s="61"/>
+      <c r="DI3" s="61"/>
+      <c r="DJ3" s="61"/>
+      <c r="DK3" s="61"/>
+      <c r="DL3" s="61"/>
+      <c r="DM3" s="61"/>
+      <c r="DN3" s="61"/>
+      <c r="DO3" s="61"/>
+      <c r="DP3" s="61"/>
+      <c r="DQ3" s="61"/>
+      <c r="DR3" s="61"/>
+      <c r="DS3" s="61"/>
+      <c r="DT3" s="61"/>
+      <c r="DU3" s="61"/>
+      <c r="DV3" s="61"/>
+      <c r="DW3" s="61"/>
+      <c r="DX3" s="61"/>
+      <c r="DY3" s="61"/>
+      <c r="DZ3" s="61"/>
+      <c r="EA3" s="61"/>
+      <c r="EB3" s="61"/>
     </row>
-    <row r="4" spans="1:131" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:132" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -9479,7 +9509,7 @@
       <c r="Q4" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="60" t="s">
         <v>107</v>
       </c>
       <c r="S4" s="55" t="s">
@@ -9488,22 +9518,22 @@
       <c r="T4" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="57" t="s">
+      <c r="W4" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="57" t="s">
+      <c r="X4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="57" t="s">
+      <c r="Y4" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="57" t="s">
+      <c r="Z4" s="60" t="s">
         <v>147</v>
       </c>
       <c r="AA4" s="55" t="s">
@@ -9749,7 +9779,7 @@
       <c r="DC4" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="DD4" s="70" t="s">
+      <c r="DD4" s="71" t="s">
         <v>307</v>
       </c>
       <c r="DE4" s="44" t="s">
@@ -9821,10 +9851,13 @@
       <c r="EA4" s="44" t="s">
         <v>377</v>
       </c>
+      <c r="EB4" s="44" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="5" spans="1:131" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:132" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -9929,7 +9962,7 @@
       <c r="DA5" s="45"/>
       <c r="DB5" s="45"/>
       <c r="DC5" s="45"/>
-      <c r="DD5" s="71"/>
+      <c r="DD5" s="72"/>
       <c r="DE5" s="45"/>
       <c r="DF5" s="45"/>
       <c r="DG5" s="45"/>
@@ -9953,8 +9986,9 @@
       <c r="DY5" s="45"/>
       <c r="DZ5" s="45"/>
       <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
     </row>
-    <row r="6" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10346,8 +10380,11 @@
       <c r="EA6" s="28">
         <v>136</v>
       </c>
+      <c r="EB6" s="28">
+        <v>127</v>
+      </c>
     </row>
-    <row r="7" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10738,8 +10775,11 @@
       <c r="EA7" s="15">
         <v>1</v>
       </c>
+      <c r="EB7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11130,8 +11170,11 @@
       <c r="EA8" s="28">
         <v>11</v>
       </c>
+      <c r="EB8" s="28">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11523,8 +11566,11 @@
       <c r="EA9" s="15">
         <v>75</v>
       </c>
+      <c r="EB9" s="15">
+        <v>96</v>
+      </c>
     </row>
-    <row r="10" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11913,8 +11959,11 @@
       <c r="EA10" s="15">
         <v>1</v>
       </c>
+      <c r="EB10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12305,8 +12354,11 @@
       <c r="EA11" s="15">
         <v>12</v>
       </c>
+      <c r="EB11" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12697,8 +12749,11 @@
       <c r="EA12" s="15">
         <v>1</v>
       </c>
+      <c r="EB12" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -13089,8 +13144,11 @@
       <c r="EA13" s="15">
         <v>23</v>
       </c>
+      <c r="EB13" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13481,8 +13539,11 @@
       <c r="EA14" s="15">
         <v>19</v>
       </c>
+      <c r="EB14" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13873,8 +13934,11 @@
       <c r="EA15" s="15">
         <v>3</v>
       </c>
+      <c r="EB15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -14266,8 +14330,11 @@
       <c r="EA16" s="28">
         <v>109</v>
       </c>
+      <c r="EB16" s="28">
+        <v>131</v>
+      </c>
     </row>
-    <row r="17" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14658,8 +14725,11 @@
       <c r="EA17" s="15">
         <v>152</v>
       </c>
+      <c r="EB17" s="15">
+        <v>149</v>
+      </c>
     </row>
-    <row r="18" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -15051,10 +15121,13 @@
       <c r="EA18" s="34">
         <v>1667</v>
       </c>
+      <c r="EB18" s="34">
+        <v>1722</v>
+      </c>
     </row>
-    <row r="19" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -15444,10 +15517,13 @@
       <c r="EA19" s="15">
         <v>72</v>
       </c>
+      <c r="EB19" s="15">
+        <v>65</v>
+      </c>
     </row>
-    <row r="20" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -15835,10 +15911,13 @@
       <c r="EA20" s="28">
         <v>180</v>
       </c>
+      <c r="EB20" s="28">
+        <v>185</v>
+      </c>
     </row>
-    <row r="21" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="60"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -16226,8 +16305,11 @@
       <c r="EA21" s="15">
         <v>30</v>
       </c>
+      <c r="EB21" s="15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="22" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16618,8 +16700,11 @@
       <c r="EA22" s="15">
         <v>9</v>
       </c>
+      <c r="EB22" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -17010,8 +17095,11 @@
       <c r="EA23" s="15">
         <v>7</v>
       </c>
+      <c r="EB23" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17402,8 +17490,11 @@
       <c r="EA24" s="15">
         <v>14</v>
       </c>
+      <c r="EB24" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17794,8 +17885,11 @@
       <c r="EA25" s="15">
         <v>0</v>
       </c>
+      <c r="EB25" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -18186,8 +18280,11 @@
       <c r="EA26" s="15">
         <v>21</v>
       </c>
+      <c r="EB26" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18578,8 +18675,11 @@
       <c r="EA27" s="15">
         <v>0</v>
       </c>
+      <c r="EB27" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -18970,9 +19070,12 @@
       <c r="EA28" s="15">
         <v>1</v>
       </c>
+      <c r="EB28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="61" t="s">
+    <row r="29" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -19362,9 +19465,12 @@
       <c r="EA29" s="15">
         <v>1</v>
       </c>
+      <c r="EB29" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="30" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+    <row r="30" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -19752,8 +19858,11 @@
       <c r="EA30" s="15">
         <v>23</v>
       </c>
+      <c r="EB30" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="31" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -20145,8 +20254,11 @@
       <c r="EA31" s="15">
         <v>64</v>
       </c>
+      <c r="EB31" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="32" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20537,8 +20649,11 @@
       <c r="EA32" s="15">
         <v>1</v>
       </c>
+      <c r="EB32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -20929,8 +21044,11 @@
       <c r="EA33" s="15">
         <v>0</v>
       </c>
+      <c r="EB33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -21322,10 +21440,13 @@
       <c r="EA34" s="15">
         <v>75</v>
       </c>
+      <c r="EB34" s="15">
+        <v>52</v>
+      </c>
     </row>
-    <row r="35" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -21715,9 +21836,12 @@
       <c r="EA35" s="15">
         <v>365</v>
       </c>
+      <c r="EB35" s="15">
+        <v>341</v>
+      </c>
     </row>
-    <row r="36" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="60"/>
+    <row r="36" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="56"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -22105,8 +22229,11 @@
       <c r="EA36" s="28">
         <v>69</v>
       </c>
+      <c r="EB36" s="28">
+        <v>41</v>
+      </c>
     </row>
-    <row r="37" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -22498,8 +22625,11 @@
       <c r="EA37" s="15">
         <v>60</v>
       </c>
+      <c r="EB37" s="15">
+        <v>65</v>
+      </c>
     </row>
-    <row r="38" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -22890,8 +23020,11 @@
       <c r="EA38" s="15">
         <v>8</v>
       </c>
+      <c r="EB38" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="39" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -23282,8 +23415,11 @@
       <c r="EA39" s="15">
         <v>12</v>
       </c>
+      <c r="EB39" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="40" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -23674,8 +23810,11 @@
       <c r="EA40" s="15">
         <v>0</v>
       </c>
+      <c r="EB40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -24066,8 +24205,11 @@
       <c r="EA41" s="15">
         <v>0</v>
       </c>
+      <c r="EB41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -24458,8 +24600,11 @@
       <c r="EA42" s="15">
         <v>18</v>
       </c>
+      <c r="EB42" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="43" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -24850,8 +24995,11 @@
       <c r="EA43" s="28">
         <v>66</v>
       </c>
+      <c r="EB43" s="28">
+        <v>62</v>
+      </c>
     </row>
-    <row r="44" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -25242,8 +25390,11 @@
       <c r="EA44" s="15">
         <v>5</v>
       </c>
+      <c r="EB44" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="45" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -25634,8 +25785,11 @@
       <c r="EA45" s="15">
         <v>21</v>
       </c>
+      <c r="EB45" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="46" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -26026,8 +26180,11 @@
       <c r="EA46" s="15">
         <v>25</v>
       </c>
+      <c r="EB46" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="47" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -26418,8 +26575,11 @@
       <c r="EA47" s="15">
         <v>3</v>
       </c>
+      <c r="EB47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -26810,10 +26970,13 @@
       <c r="EA48" s="15">
         <v>17</v>
       </c>
+      <c r="EB48" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="49" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -27203,9 +27366,12 @@
       <c r="EA49" s="15">
         <v>62</v>
       </c>
+      <c r="EB49" s="15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="50" spans="1:131" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="60"/>
+    <row r="50" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="56"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -27593,8 +27759,11 @@
       <c r="EA50" s="15">
         <v>25</v>
       </c>
+      <c r="EB50" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="51" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -27985,8 +28154,11 @@
       <c r="EA51" s="15">
         <v>7</v>
       </c>
+      <c r="EB51" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="52" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -28377,8 +28549,11 @@
       <c r="EA52" s="15">
         <v>27</v>
       </c>
+      <c r="EB52" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="53" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -28769,8 +28944,11 @@
       <c r="EA53" s="15">
         <v>42</v>
       </c>
+      <c r="EB53" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="54" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29161,8 +29339,11 @@
       <c r="EA54" s="15">
         <v>14</v>
       </c>
+      <c r="EB54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -29553,8 +29734,11 @@
       <c r="EA55" s="15">
         <v>12</v>
       </c>
+      <c r="EB55" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="56" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -29945,8 +30129,11 @@
       <c r="EA56" s="15">
         <v>1</v>
       </c>
+      <c r="EB56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30337,8 +30524,11 @@
       <c r="EA57" s="15">
         <v>4</v>
       </c>
+      <c r="EB57" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -30816,7 +31006,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:EA58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:EB58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -30855,8 +31045,12 @@
         <f t="shared" si="10"/>
         <v>3571</v>
       </c>
+      <c r="EB58" s="14">
+        <f t="shared" si="10"/>
+        <v>3513</v>
+      </c>
     </row>
-    <row r="59" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -30940,7 +31134,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -31024,30 +31218,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:131" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -31109,15 +31303,16 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="145">
+    <mergeCell ref="DE2:EB2"/>
+    <mergeCell ref="DE3:EB3"/>
+    <mergeCell ref="EB4:EB5"/>
     <mergeCell ref="CR3:DD3"/>
     <mergeCell ref="CS4:CS5"/>
     <mergeCell ref="DD4:DD5"/>
     <mergeCell ref="DA4:DA5"/>
     <mergeCell ref="CV4:CV5"/>
     <mergeCell ref="CW4:CW5"/>
-    <mergeCell ref="DE2:EA2"/>
-    <mergeCell ref="DE3:EA3"/>
     <mergeCell ref="EA4:EA5"/>
     <mergeCell ref="BD2:DD2"/>
     <mergeCell ref="BD3:CQ3"/>
@@ -31190,6 +31385,8 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="D61:W61"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B29:B30"/>
@@ -31204,8 +31401,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="CH4:CH5"/>
@@ -31266,7 +31461,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:EA57">
+  <conditionalFormatting sqref="DP6:EB57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -31283,13 +31478,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:EA58"/>
+  <dimension ref="B1:EB58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DT47" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DR41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EA6" sqref="EA6:EA57"/>
+      <selection pane="bottomRight" activeCell="EB61" sqref="EB61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31306,11 +31501,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="131" width="10.875" style="1" customWidth="1"/>
-    <col min="132" max="16384" width="8.625" style="1"/>
+    <col min="106" max="132" width="10.875" style="1" customWidth="1"/>
+    <col min="133" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:131" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:132" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="76" t="s">
         <v>329</v>
       </c>
@@ -31368,207 +31563,209 @@
       <c r="DX1" s="19"/>
       <c r="DY1" s="19"/>
       <c r="DZ1" s="19"/>
-      <c r="EA1" s="19" t="s">
+      <c r="EA1" s="19"/>
+      <c r="EB1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="2:131" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:132" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="72"/>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="72"/>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="72"/>
-      <c r="CB2" s="72"/>
-      <c r="CC2" s="72"/>
-      <c r="CD2" s="72"/>
-      <c r="CE2" s="72"/>
-      <c r="CF2" s="72"/>
-      <c r="CG2" s="72"/>
-      <c r="CH2" s="72"/>
-      <c r="CI2" s="72"/>
-      <c r="CJ2" s="72"/>
-      <c r="CK2" s="72"/>
-      <c r="CL2" s="72"/>
-      <c r="CM2" s="72"/>
-      <c r="CN2" s="72"/>
-      <c r="CO2" s="72"/>
-      <c r="CP2" s="72"/>
-      <c r="CQ2" s="72"/>
-      <c r="CR2" s="72"/>
-      <c r="CS2" s="72"/>
-      <c r="CT2" s="72"/>
-      <c r="CU2" s="72"/>
-      <c r="CV2" s="72"/>
-      <c r="CW2" s="72"/>
-      <c r="CX2" s="72"/>
-      <c r="CY2" s="72"/>
-      <c r="CZ2" s="72"/>
-      <c r="DA2" s="72"/>
-      <c r="DB2" s="72"/>
-      <c r="DC2" s="72"/>
-      <c r="DD2" s="72" t="s">
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="DE2" s="72"/>
-      <c r="DF2" s="72"/>
-      <c r="DG2" s="72"/>
-      <c r="DH2" s="72"/>
-      <c r="DI2" s="72"/>
-      <c r="DJ2" s="72"/>
-      <c r="DK2" s="72"/>
-      <c r="DL2" s="72"/>
-      <c r="DM2" s="72"/>
-      <c r="DN2" s="72"/>
-      <c r="DO2" s="72"/>
-      <c r="DP2" s="72"/>
-      <c r="DQ2" s="72"/>
-      <c r="DR2" s="72"/>
-      <c r="DS2" s="72"/>
-      <c r="DT2" s="72"/>
-      <c r="DU2" s="72"/>
-      <c r="DV2" s="72"/>
-      <c r="DW2" s="72"/>
-      <c r="DX2" s="72"/>
-      <c r="DY2" s="72"/>
-      <c r="DZ2" s="72"/>
-      <c r="EA2" s="72"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="70"/>
+      <c r="DX2" s="70"/>
+      <c r="DY2" s="70"/>
+      <c r="DZ2" s="70"/>
+      <c r="EA2" s="70"/>
+      <c r="EB2" s="70"/>
     </row>
-    <row r="3" spans="2:131" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:132" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="56" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
       <c r="BD3" s="46" t="s">
         <v>327</v>
       </c>
@@ -31611,208 +31808,209 @@
       <c r="CO3" s="47"/>
       <c r="CP3" s="47"/>
       <c r="CQ3" s="73"/>
-      <c r="CR3" s="56" t="s">
+      <c r="CR3" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="56"/>
-      <c r="DA3" s="56"/>
-      <c r="DB3" s="56"/>
-      <c r="DC3" s="56"/>
-      <c r="DD3" s="56" t="s">
+      <c r="CS3" s="61"/>
+      <c r="CT3" s="61"/>
+      <c r="CU3" s="61"/>
+      <c r="CV3" s="61"/>
+      <c r="CW3" s="61"/>
+      <c r="CX3" s="61"/>
+      <c r="CY3" s="61"/>
+      <c r="CZ3" s="61"/>
+      <c r="DA3" s="61"/>
+      <c r="DB3" s="61"/>
+      <c r="DC3" s="61"/>
+      <c r="DD3" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="DE3" s="56"/>
-      <c r="DF3" s="56"/>
-      <c r="DG3" s="56"/>
-      <c r="DH3" s="56"/>
-      <c r="DI3" s="56"/>
-      <c r="DJ3" s="56"/>
-      <c r="DK3" s="56"/>
-      <c r="DL3" s="56"/>
-      <c r="DM3" s="56"/>
-      <c r="DN3" s="56"/>
-      <c r="DO3" s="56"/>
-      <c r="DP3" s="56"/>
-      <c r="DQ3" s="56"/>
-      <c r="DR3" s="56"/>
-      <c r="DS3" s="56"/>
-      <c r="DT3" s="56"/>
-      <c r="DU3" s="56"/>
-      <c r="DV3" s="56"/>
-      <c r="DW3" s="56"/>
-      <c r="DX3" s="56"/>
-      <c r="DY3" s="56"/>
-      <c r="DZ3" s="56"/>
-      <c r="EA3" s="56"/>
+      <c r="DE3" s="61"/>
+      <c r="DF3" s="61"/>
+      <c r="DG3" s="61"/>
+      <c r="DH3" s="61"/>
+      <c r="DI3" s="61"/>
+      <c r="DJ3" s="61"/>
+      <c r="DK3" s="61"/>
+      <c r="DL3" s="61"/>
+      <c r="DM3" s="61"/>
+      <c r="DN3" s="61"/>
+      <c r="DO3" s="61"/>
+      <c r="DP3" s="61"/>
+      <c r="DQ3" s="61"/>
+      <c r="DR3" s="61"/>
+      <c r="DS3" s="61"/>
+      <c r="DT3" s="61"/>
+      <c r="DU3" s="61"/>
+      <c r="DV3" s="61"/>
+      <c r="DW3" s="61"/>
+      <c r="DX3" s="61"/>
+      <c r="DY3" s="61"/>
+      <c r="DZ3" s="61"/>
+      <c r="EA3" s="61"/>
+      <c r="EB3" s="61"/>
     </row>
-    <row r="4" spans="2:131" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:132" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="77" t="s">
+      <c r="C4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="78" t="s">
         <v>187</v>
       </c>
       <c r="R4" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="78" t="s">
         <v>163</v>
       </c>
       <c r="Y4" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" s="77" t="s">
+      <c r="Z4" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" s="77" t="s">
+      <c r="AA4" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="77" t="s">
+      <c r="AB4" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="77" t="s">
+      <c r="AC4" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="AD4" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="AE4" s="77" t="s">
+      <c r="AE4" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="AF4" s="77" t="s">
+      <c r="AF4" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="AG4" s="77" t="s">
+      <c r="AG4" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="AH4" s="77" t="s">
+      <c r="AH4" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="77" t="s">
+      <c r="AI4" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="AJ4" s="77" t="s">
+      <c r="AJ4" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="AK4" s="77" t="s">
+      <c r="AK4" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="AL4" s="77" t="s">
+      <c r="AL4" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="AM4" s="77" t="s">
+      <c r="AM4" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="AN4" s="77" t="s">
+      <c r="AN4" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="AO4" s="77" t="s">
+      <c r="AO4" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="AP4" s="77" t="s">
+      <c r="AP4" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="AQ4" s="77" t="s">
+      <c r="AQ4" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="AR4" s="77" t="s">
+      <c r="AR4" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="AS4" s="77" t="s">
+      <c r="AS4" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="AT4" s="77" t="s">
+      <c r="AT4" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="AU4" s="77" t="s">
+      <c r="AU4" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="AV4" s="77" t="s">
+      <c r="AV4" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="AW4" s="77" t="s">
+      <c r="AW4" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="AY4" s="77" t="s">
+      <c r="AY4" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="BA4" s="77" t="s">
+      <c r="BA4" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="BB4" s="77" t="s">
+      <c r="BB4" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="BC4" s="77" t="s">
+      <c r="BC4" s="78" t="s">
         <v>186</v>
       </c>
       <c r="BD4" s="52" t="s">
@@ -31866,22 +32064,22 @@
       <c r="BT4" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="57" t="s">
+      <c r="BU4" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="BV4" s="57" t="s">
+      <c r="BV4" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="BW4" s="57" t="s">
+      <c r="BW4" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="BX4" s="57" t="s">
+      <c r="BX4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="BY4" s="57" t="s">
+      <c r="BY4" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="57" t="s">
+      <c r="BZ4" s="60" t="s">
         <v>147</v>
       </c>
       <c r="CA4" s="52" t="s">
@@ -32043,10 +32241,13 @@
       <c r="EA4" s="44" t="s">
         <v>379</v>
       </c>
+      <c r="EB4" s="44" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="5" spans="2:131" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:132" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
@@ -32175,8 +32376,9 @@
       <c r="DY5" s="75"/>
       <c r="DZ5" s="45"/>
       <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
     </row>
-    <row r="6" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -32567,8 +32769,11 @@
       <c r="EA6" s="28">
         <v>81</v>
       </c>
+      <c r="EB6" s="28">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -32959,8 +33164,11 @@
       <c r="EA7" s="15">
         <v>0</v>
       </c>
+      <c r="EB7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -33351,8 +33559,11 @@
       <c r="EA8" s="28">
         <v>7</v>
       </c>
+      <c r="EB8" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -33743,8 +33954,11 @@
       <c r="EA9" s="15">
         <v>41</v>
       </c>
+      <c r="EB9" s="15">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -34135,8 +34349,11 @@
       <c r="EA10" s="15">
         <v>0</v>
       </c>
+      <c r="EB10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -34527,8 +34744,11 @@
       <c r="EA11" s="15">
         <v>6</v>
       </c>
+      <c r="EB11" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -34919,8 +35139,11 @@
       <c r="EA12" s="15">
         <v>2</v>
       </c>
+      <c r="EB12" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -35311,8 +35534,11 @@
       <c r="EA13" s="15">
         <v>8</v>
       </c>
+      <c r="EB13" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="14" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -35703,8 +35929,11 @@
       <c r="EA14" s="15">
         <v>9</v>
       </c>
+      <c r="EB14" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -36095,8 +36324,11 @@
       <c r="EA15" s="15">
         <v>2</v>
       </c>
+      <c r="EB15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -36487,8 +36719,11 @@
       <c r="EA16" s="28">
         <v>71</v>
       </c>
+      <c r="EB16" s="28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="17" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -36879,8 +37114,11 @@
       <c r="EA17" s="15">
         <v>98</v>
       </c>
+      <c r="EB17" s="15">
+        <v>95</v>
+      </c>
     </row>
-    <row r="18" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -37271,9 +37509,12 @@
       <c r="EA18" s="34">
         <v>1105</v>
       </c>
+      <c r="EB18" s="34">
+        <v>908</v>
+      </c>
     </row>
-    <row r="19" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="60" t="s">
+    <row r="19" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -37663,9 +37904,12 @@
       <c r="EA19" s="15">
         <v>37</v>
       </c>
+      <c r="EB19" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="60"/>
+    <row r="20" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="56"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -38053,9 +38297,12 @@
       <c r="EA20" s="28">
         <v>149</v>
       </c>
+      <c r="EB20" s="28">
+        <v>112</v>
+      </c>
     </row>
-    <row r="21" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="60"/>
+    <row r="21" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="56"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -38443,8 +38690,11 @@
       <c r="EA21" s="15">
         <v>21</v>
       </c>
+      <c r="EB21" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="22" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -38835,8 +39085,11 @@
       <c r="EA22" s="15">
         <v>8</v>
       </c>
+      <c r="EB22" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="23" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -39227,8 +39480,11 @@
       <c r="EA23" s="15">
         <v>0</v>
       </c>
+      <c r="EB23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -39619,8 +39875,11 @@
       <c r="EA24" s="15">
         <v>3</v>
       </c>
+      <c r="EB24" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -40011,8 +40270,11 @@
       <c r="EA25" s="15">
         <v>1</v>
       </c>
+      <c r="EB25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -40403,8 +40665,11 @@
       <c r="EA26" s="15">
         <v>9</v>
       </c>
+      <c r="EB26" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="27" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -40795,8 +41060,11 @@
       <c r="EA27" s="15">
         <v>0</v>
       </c>
+      <c r="EB27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -41187,9 +41455,12 @@
       <c r="EA28" s="15">
         <v>0</v>
       </c>
+      <c r="EB28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="61" t="s">
+    <row r="29" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -41579,9 +41850,12 @@
       <c r="EA29" s="15">
         <v>3</v>
       </c>
+      <c r="EB29" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+    <row r="30" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -41969,8 +42243,11 @@
       <c r="EA30" s="15">
         <v>4</v>
       </c>
+      <c r="EB30" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -42361,8 +42638,11 @@
       <c r="EA31" s="15">
         <v>21</v>
       </c>
+      <c r="EB31" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="32" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -42753,8 +43033,11 @@
       <c r="EA32" s="15">
         <v>1</v>
       </c>
+      <c r="EB32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -43145,8 +43428,11 @@
       <c r="EA33" s="15">
         <v>0</v>
       </c>
+      <c r="EB33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -43537,9 +43823,12 @@
       <c r="EA34" s="15">
         <v>21</v>
       </c>
+      <c r="EB34" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="35" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="60" t="s">
+    <row r="35" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -43929,9 +44218,12 @@
       <c r="EA35" s="15">
         <v>286</v>
       </c>
+      <c r="EB35" s="15">
+        <v>251</v>
+      </c>
     </row>
-    <row r="36" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="60"/>
+    <row r="36" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="56"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -44319,8 +44611,11 @@
       <c r="EA36" s="28">
         <v>23</v>
       </c>
+      <c r="EB36" s="28">
+        <v>19</v>
+      </c>
     </row>
-    <row r="37" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -44711,8 +45006,11 @@
       <c r="EA37" s="15">
         <v>36</v>
       </c>
+      <c r="EB37" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="38" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -45103,8 +45401,11 @@
       <c r="EA38" s="15">
         <v>7</v>
       </c>
+      <c r="EB38" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -45495,8 +45796,11 @@
       <c r="EA39" s="15">
         <v>4</v>
       </c>
+      <c r="EB39" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -45887,8 +46191,11 @@
       <c r="EA40" s="15">
         <v>0</v>
       </c>
+      <c r="EB40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -46279,8 +46586,11 @@
       <c r="EA41" s="15">
         <v>0</v>
       </c>
+      <c r="EB41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -46671,8 +46981,11 @@
       <c r="EA42" s="15">
         <v>3</v>
       </c>
+      <c r="EB42" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -47063,8 +47376,11 @@
       <c r="EA43" s="28">
         <v>28</v>
       </c>
+      <c r="EB43" s="28">
+        <v>18</v>
+      </c>
     </row>
-    <row r="44" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -47455,8 +47771,11 @@
       <c r="EA44" s="15">
         <v>1</v>
       </c>
+      <c r="EB44" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -47847,8 +48166,11 @@
       <c r="EA45" s="15">
         <v>10</v>
       </c>
+      <c r="EB45" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="46" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -48239,8 +48561,11 @@
       <c r="EA46" s="15">
         <v>3</v>
       </c>
+      <c r="EB46" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -48631,8 +48956,11 @@
       <c r="EA47" s="15">
         <v>1</v>
       </c>
+      <c r="EB47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -49023,9 +49351,12 @@
       <c r="EA48" s="15">
         <v>6</v>
       </c>
+      <c r="EB48" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="49" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="60" t="s">
+    <row r="49" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -49415,9 +49746,12 @@
       <c r="EA49" s="15">
         <v>19</v>
       </c>
+      <c r="EB49" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="50" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="60"/>
+    <row r="50" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="56"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -49805,8 +50139,11 @@
       <c r="EA50" s="15">
         <v>2</v>
       </c>
+      <c r="EB50" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -50197,8 +50534,11 @@
       <c r="EA51" s="15">
         <v>2</v>
       </c>
+      <c r="EB51" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -50589,8 +50929,11 @@
       <c r="EA52" s="15">
         <v>5</v>
       </c>
+      <c r="EB52" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -50981,8 +51324,11 @@
       <c r="EA53" s="15">
         <v>19</v>
       </c>
+      <c r="EB53" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="54" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -51373,8 +51719,11 @@
       <c r="EA54" s="15">
         <v>7</v>
       </c>
+      <c r="EB54" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="55" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -51765,8 +52114,11 @@
       <c r="EA55" s="15">
         <v>10</v>
       </c>
+      <c r="EB55" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="56" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -52157,8 +52509,11 @@
       <c r="EA56" s="15">
         <v>3</v>
       </c>
+      <c r="EB56" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -52549,8 +52904,11 @@
       <c r="EA57" s="15">
         <v>1</v>
       </c>
+      <c r="EB57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="2:131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -53019,7 +53377,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:EA58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:EB58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -53066,11 +53424,16 @@
         <f t="shared" si="8"/>
         <v>2184</v>
       </c>
+      <c r="EB58" s="14">
+        <f t="shared" si="8"/>
+        <v>1898</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="DD2:EA2"/>
-    <mergeCell ref="DD3:EA3"/>
+  <mergeCells count="145">
+    <mergeCell ref="DD2:EB2"/>
+    <mergeCell ref="DD3:EB3"/>
+    <mergeCell ref="EB4:EB5"/>
     <mergeCell ref="EA4:EA5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="BX4:BX5"/>
@@ -53092,6 +53455,12 @@
     <mergeCell ref="CS4:CS5"/>
     <mergeCell ref="DF4:DF5"/>
     <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
@@ -53101,19 +53470,7 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="AR4:AR5"/>
@@ -53135,6 +53492,9 @@
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BV4:BV5"/>
@@ -53156,6 +53516,9 @@
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="CQ4:CQ5"/>
@@ -53247,7 +53610,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:EA57</xm:sqref>
+          <xm:sqref>DP6:EB57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -53257,13 +53620,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA61"/>
+  <dimension ref="A1:CB61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BR45" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BN6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA6" sqref="CA6:CA57"/>
+      <selection pane="bottomRight" activeCell="CB60" sqref="CB60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -53276,11 +53639,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="79" width="10.875" style="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.625" style="1"/>
+    <col min="54" max="80" width="10.875" style="1" customWidth="1"/>
+    <col min="81" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:80" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -53334,11 +53697,12 @@
       <c r="BX1" s="19"/>
       <c r="BY1" s="19"/>
       <c r="BZ1" s="19"/>
-      <c r="CA1" s="19" t="s">
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:80" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="48" t="s">
@@ -53395,124 +53759,126 @@
       <c r="BA2" s="49"/>
       <c r="BB2" s="49"/>
       <c r="BC2" s="88"/>
-      <c r="BD2" s="72" t="s">
+      <c r="BD2" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="72"/>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="72"/>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="72"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
     </row>
-    <row r="3" spans="1:79" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:80" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="56" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56" t="s">
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="56"/>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="56"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
+      <c r="BR3" s="61"/>
+      <c r="BS3" s="61"/>
+      <c r="BT3" s="61"/>
+      <c r="BU3" s="61"/>
+      <c r="BV3" s="61"/>
+      <c r="BW3" s="61"/>
+      <c r="BX3" s="61"/>
+      <c r="BY3" s="61"/>
+      <c r="BZ3" s="61"/>
+      <c r="CA3" s="61"/>
+      <c r="CB3" s="61"/>
     </row>
-    <row r="4" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -53743,10 +54109,13 @@
       <c r="CA4" s="44" t="s">
         <v>380</v>
       </c>
+      <c r="CB4" s="44" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:80" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -53823,8 +54192,9 @@
       <c r="BY5" s="45"/>
       <c r="BZ5" s="44"/>
       <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
     </row>
-    <row r="6" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -54060,8 +54430,11 @@
       <c r="CA6" s="28">
         <v>45</v>
       </c>
+      <c r="CB6" s="28">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -54296,8 +54669,11 @@
       <c r="CA7" s="15">
         <v>0</v>
       </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -54532,8 +54908,11 @@
       <c r="CA8" s="28">
         <v>0</v>
       </c>
+      <c r="CB8" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -54769,8 +55148,11 @@
       <c r="CA9" s="15">
         <v>12</v>
       </c>
+      <c r="CB9" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -55005,8 +55387,11 @@
       <c r="CA10" s="15">
         <v>0</v>
       </c>
+      <c r="CB10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -55241,8 +55626,11 @@
       <c r="CA11" s="15">
         <v>7</v>
       </c>
+      <c r="CB11" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -55477,8 +55865,11 @@
       <c r="CA12" s="15">
         <v>1</v>
       </c>
+      <c r="CB12" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -55713,8 +56104,11 @@
       <c r="CA13" s="15">
         <v>12</v>
       </c>
+      <c r="CB13" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -55949,8 +56343,11 @@
       <c r="CA14" s="15">
         <v>4</v>
       </c>
+      <c r="CB14" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -56185,8 +56582,11 @@
       <c r="CA15" s="15">
         <v>1</v>
       </c>
+      <c r="CB15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -56422,8 +56822,11 @@
       <c r="CA16" s="28">
         <v>5</v>
       </c>
+      <c r="CB16" s="28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -56658,8 +57061,11 @@
       <c r="CA17" s="15">
         <v>70</v>
       </c>
+      <c r="CB17" s="15">
+        <v>63</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -56895,8 +57301,11 @@
       <c r="CA18" s="34">
         <v>397</v>
       </c>
+      <c r="CB18" s="34">
+        <v>347</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="83" t="s">
         <v>27</v>
@@ -57132,10 +57541,13 @@
       <c r="CA19" s="15">
         <v>43</v>
       </c>
+      <c r="CB19" s="15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="84"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -57367,10 +57779,13 @@
       <c r="CA20" s="28">
         <v>115</v>
       </c>
+      <c r="CB20" s="28">
+        <v>104</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -57602,8 +58017,11 @@
       <c r="CA21" s="15">
         <v>16</v>
       </c>
+      <c r="CB21" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -57838,8 +58256,11 @@
       <c r="CA22" s="15">
         <v>6</v>
       </c>
+      <c r="CB22" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -58074,8 +58495,11 @@
       <c r="CA23" s="15">
         <v>2</v>
       </c>
+      <c r="CB23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -58310,8 +58734,11 @@
       <c r="CA24" s="15">
         <v>3</v>
       </c>
+      <c r="CB24" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -58546,8 +58973,11 @@
       <c r="CA25" s="15">
         <v>0</v>
       </c>
+      <c r="CB25" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -58782,8 +59212,11 @@
       <c r="CA26" s="15">
         <v>7</v>
       </c>
+      <c r="CB26" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -59018,8 +59451,11 @@
       <c r="CA27" s="15">
         <v>0</v>
       </c>
+      <c r="CB27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -59254,9 +59690,12 @@
       <c r="CA28" s="15">
         <v>1</v>
       </c>
+      <c r="CB28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="86" t="s">
+    <row r="29" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="85" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -59490,9 +59929,12 @@
       <c r="CA29" s="15">
         <v>0</v>
       </c>
+      <c r="CB29" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="87"/>
+    <row r="30" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="86"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -59724,8 +60166,11 @@
       <c r="CA30" s="15">
         <v>11</v>
       </c>
+      <c r="CB30" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -59961,8 +60406,11 @@
       <c r="CA31" s="15">
         <v>39</v>
       </c>
+      <c r="CB31" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -60197,8 +60645,11 @@
       <c r="CA32" s="15">
         <v>0</v>
       </c>
+      <c r="CB32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -60433,8 +60884,11 @@
       <c r="CA33" s="15">
         <v>0</v>
       </c>
+      <c r="CB33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -60670,8 +61124,11 @@
       <c r="CA34" s="15">
         <v>24</v>
       </c>
+      <c r="CB34" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="83" t="s">
         <v>56</v>
@@ -60907,9 +61364,12 @@
       <c r="CA35" s="15">
         <v>102</v>
       </c>
+      <c r="CB35" s="15">
+        <v>78</v>
+      </c>
     </row>
-    <row r="36" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="85"/>
+    <row r="36" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="84"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -61141,8 +61601,11 @@
       <c r="CA36" s="28">
         <v>44</v>
       </c>
+      <c r="CB36" s="28">
+        <v>21</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -61378,8 +61841,11 @@
       <c r="CA37" s="15">
         <v>25</v>
       </c>
+      <c r="CB37" s="15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -61614,8 +62080,11 @@
       <c r="CA38" s="15">
         <v>3</v>
       </c>
+      <c r="CB38" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -61850,8 +62319,11 @@
       <c r="CA39" s="15">
         <v>4</v>
       </c>
+      <c r="CB39" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -62086,8 +62558,11 @@
       <c r="CA40" s="15">
         <v>0</v>
       </c>
+      <c r="CB40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -62322,8 +62797,11 @@
       <c r="CA41" s="15">
         <v>0</v>
       </c>
+      <c r="CB41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -62558,8 +63036,11 @@
       <c r="CA42" s="15">
         <v>8</v>
       </c>
+      <c r="CB42" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -62794,8 +63275,11 @@
       <c r="CA43" s="28">
         <v>41</v>
       </c>
+      <c r="CB43" s="28">
+        <v>39</v>
+      </c>
     </row>
-    <row r="44" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -63030,8 +63514,11 @@
       <c r="CA44" s="15">
         <v>1</v>
       </c>
+      <c r="CB44" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -63266,8 +63753,11 @@
       <c r="CA45" s="15">
         <v>8</v>
       </c>
+      <c r="CB45" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="46" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -63502,8 +63992,11 @@
       <c r="CA46" s="15">
         <v>3</v>
       </c>
+      <c r="CB46" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="47" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -63738,8 +64231,11 @@
       <c r="CA47" s="15">
         <v>3</v>
       </c>
+      <c r="CB47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -63974,8 +64470,11 @@
       <c r="CA48" s="15">
         <v>15</v>
       </c>
+      <c r="CB48" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="49" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
@@ -64211,9 +64710,12 @@
       <c r="CA49" s="15">
         <v>4</v>
       </c>
+      <c r="CB49" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="50" spans="1:79" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="85"/>
+    <row r="50" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="84"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -64445,8 +64947,11 @@
       <c r="CA50" s="15">
         <v>16</v>
       </c>
+      <c r="CB50" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -64681,8 +65186,11 @@
       <c r="CA51" s="15">
         <v>2</v>
       </c>
+      <c r="CB51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -64917,8 +65425,11 @@
       <c r="CA52" s="15">
         <v>8</v>
       </c>
+      <c r="CB52" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="53" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -65153,8 +65664,11 @@
       <c r="CA53" s="15">
         <v>16</v>
       </c>
+      <c r="CB53" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="54" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -65389,8 +65903,11 @@
       <c r="CA54" s="15">
         <v>6</v>
       </c>
+      <c r="CB54" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -65625,8 +66142,11 @@
       <c r="CA55" s="15">
         <v>1</v>
       </c>
+      <c r="CB55" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -65861,8 +66381,11 @@
       <c r="CA56" s="15">
         <v>0</v>
       </c>
+      <c r="CB56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -66097,8 +66620,11 @@
       <c r="CA57" s="15">
         <v>0</v>
       </c>
+      <c r="CB57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -66368,7 +66894,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:CA58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CB58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -66407,8 +66933,12 @@
         <f t="shared" si="8"/>
         <v>1131</v>
       </c>
+      <c r="CB58" s="14">
+        <f t="shared" si="8"/>
+        <v>967</v>
+      </c>
     </row>
-    <row r="59" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -66441,7 +66971,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -66474,7 +67004,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:79" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -66508,15 +67038,20 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="BD2:CA2"/>
-    <mergeCell ref="BD3:CA3"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BE4:BE5"/>
+  <mergeCells count="89">
     <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BD2:CB2"/>
+    <mergeCell ref="BD3:CB3"/>
+    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -66529,9 +67064,7 @@
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
@@ -66545,12 +67078,24 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -66567,29 +67112,12 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="BQ4:BQ5"/>
@@ -66597,13 +67125,16 @@
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BE4:BE5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="79" max="66" man="1"/>
+    <brk id="80" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -66620,7 +67151,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CA57</xm:sqref>
+          <xm:sqref>BP6:CB57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -66630,13 +67161,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF61"/>
+  <dimension ref="A1:CG61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BU48" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA48" sqref="CA48"/>
+      <selection pane="bottomRight" activeCell="BY39" sqref="BY39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -66647,11 +67178,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="84" width="10.875" style="1" customWidth="1"/>
-    <col min="85" max="16384" width="8.625" style="1"/>
+    <col min="34" max="85" width="10.875" style="1" customWidth="1"/>
+    <col min="86" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:85" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -66705,11 +67236,12 @@
       <c r="BX1" s="19"/>
       <c r="BY1" s="19"/>
       <c r="BZ1" s="19"/>
-      <c r="CA1" s="19" t="s">
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:84" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:85" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="48" t="s">
@@ -66766,134 +67298,136 @@
       <c r="BA2" s="49"/>
       <c r="BB2" s="49"/>
       <c r="BC2" s="88"/>
-      <c r="BD2" s="72" t="s">
+      <c r="BD2" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="72"/>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="72"/>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="72"/>
-      <c r="CB2" s="20"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
       <c r="CC2" s="20"/>
       <c r="CD2" s="20"/>
       <c r="CE2" s="20"/>
       <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
     </row>
-    <row r="3" spans="1:84" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:85" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="56" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56" t="s">
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="56"/>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="56"/>
-      <c r="CB3" s="21"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
+      <c r="BR3" s="61"/>
+      <c r="BS3" s="61"/>
+      <c r="BT3" s="61"/>
+      <c r="BU3" s="61"/>
+      <c r="BV3" s="61"/>
+      <c r="BW3" s="61"/>
+      <c r="BX3" s="61"/>
+      <c r="BY3" s="61"/>
+      <c r="BZ3" s="61"/>
+      <c r="CA3" s="61"/>
+      <c r="CB3" s="61"/>
       <c r="CC3" s="21"/>
       <c r="CD3" s="21"/>
       <c r="CE3" s="21"/>
       <c r="CF3" s="21"/>
+      <c r="CG3" s="21"/>
     </row>
-    <row r="4" spans="1:84" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:85" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -67124,15 +67658,18 @@
       <c r="CA4" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="89"/>
+      <c r="CB4" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="CC4" s="89"/>
       <c r="CD4" s="89"/>
       <c r="CE4" s="89"/>
       <c r="CF4" s="89"/>
+      <c r="CG4" s="89"/>
     </row>
-    <row r="5" spans="1:84" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:85" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="69"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -67209,13 +67746,14 @@
       <c r="BY5" s="44"/>
       <c r="BZ5" s="44"/>
       <c r="CA5" s="44"/>
-      <c r="CB5" s="89"/>
+      <c r="CB5" s="44"/>
       <c r="CC5" s="89"/>
       <c r="CD5" s="89"/>
       <c r="CE5" s="89"/>
       <c r="CF5" s="89"/>
+      <c r="CG5" s="89"/>
     </row>
-    <row r="6" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -67451,13 +67989,16 @@
       <c r="CA6" s="28">
         <v>91</v>
       </c>
-      <c r="CB6" s="22"/>
+      <c r="CB6" s="28">
+        <v>90</v>
+      </c>
       <c r="CC6" s="22"/>
       <c r="CD6" s="22"/>
       <c r="CE6" s="22"/>
       <c r="CF6" s="22"/>
+      <c r="CG6" s="22"/>
     </row>
-    <row r="7" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -67692,13 +68233,16 @@
       <c r="CA7" s="15">
         <v>1</v>
       </c>
-      <c r="CB7" s="23"/>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
       <c r="CC7" s="23"/>
       <c r="CD7" s="23"/>
       <c r="CE7" s="23"/>
       <c r="CF7" s="23"/>
+      <c r="CG7" s="23"/>
     </row>
-    <row r="8" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -67933,13 +68477,16 @@
       <c r="CA8" s="28">
         <v>11</v>
       </c>
-      <c r="CB8" s="23"/>
+      <c r="CB8" s="28">
+        <v>15</v>
+      </c>
       <c r="CC8" s="23"/>
       <c r="CD8" s="23"/>
       <c r="CE8" s="23"/>
       <c r="CF8" s="23"/>
+      <c r="CG8" s="23"/>
     </row>
-    <row r="9" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -68175,13 +68722,16 @@
       <c r="CA9" s="15">
         <v>63</v>
       </c>
-      <c r="CB9" s="23"/>
+      <c r="CB9" s="15">
+        <v>82</v>
+      </c>
       <c r="CC9" s="23"/>
       <c r="CD9" s="23"/>
       <c r="CE9" s="23"/>
       <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
     </row>
-    <row r="10" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -68416,13 +68966,16 @@
       <c r="CA10" s="15">
         <v>1</v>
       </c>
-      <c r="CB10" s="23"/>
+      <c r="CB10" s="15">
+        <v>0</v>
+      </c>
       <c r="CC10" s="23"/>
       <c r="CD10" s="23"/>
       <c r="CE10" s="23"/>
       <c r="CF10" s="23"/>
+      <c r="CG10" s="23"/>
     </row>
-    <row r="11" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -68657,13 +69210,16 @@
       <c r="CA11" s="15">
         <v>5</v>
       </c>
-      <c r="CB11" s="23"/>
+      <c r="CB11" s="15">
+        <v>9</v>
+      </c>
       <c r="CC11" s="23"/>
       <c r="CD11" s="23"/>
       <c r="CE11" s="23"/>
       <c r="CF11" s="23"/>
+      <c r="CG11" s="23"/>
     </row>
-    <row r="12" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -68898,13 +69454,16 @@
       <c r="CA12" s="15">
         <v>0</v>
       </c>
-      <c r="CB12" s="23"/>
+      <c r="CB12" s="15">
+        <v>6</v>
+      </c>
       <c r="CC12" s="23"/>
       <c r="CD12" s="23"/>
       <c r="CE12" s="23"/>
       <c r="CF12" s="23"/>
+      <c r="CG12" s="23"/>
     </row>
-    <row r="13" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -69139,13 +69698,16 @@
       <c r="CA13" s="15">
         <v>11</v>
       </c>
-      <c r="CB13" s="22"/>
+      <c r="CB13" s="15">
+        <v>10</v>
+      </c>
       <c r="CC13" s="22"/>
       <c r="CD13" s="22"/>
       <c r="CE13" s="22"/>
       <c r="CF13" s="22"/>
+      <c r="CG13" s="22"/>
     </row>
-    <row r="14" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -69380,13 +69942,16 @@
       <c r="CA14" s="15">
         <v>15</v>
       </c>
-      <c r="CB14" s="23"/>
+      <c r="CB14" s="15">
+        <v>14</v>
+      </c>
       <c r="CC14" s="23"/>
       <c r="CD14" s="23"/>
       <c r="CE14" s="23"/>
       <c r="CF14" s="23"/>
+      <c r="CG14" s="23"/>
     </row>
-    <row r="15" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -69621,13 +70186,16 @@
       <c r="CA15" s="15">
         <v>2</v>
       </c>
-      <c r="CB15" s="23"/>
+      <c r="CB15" s="15">
+        <v>0</v>
+      </c>
       <c r="CC15" s="23"/>
       <c r="CD15" s="23"/>
       <c r="CE15" s="23"/>
       <c r="CF15" s="23"/>
+      <c r="CG15" s="23"/>
     </row>
-    <row r="16" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -69863,13 +70431,16 @@
       <c r="CA16" s="28">
         <v>104</v>
       </c>
-      <c r="CB16" s="22"/>
+      <c r="CB16" s="28">
+        <v>123</v>
+      </c>
       <c r="CC16" s="22"/>
       <c r="CD16" s="22"/>
       <c r="CE16" s="22"/>
       <c r="CF16" s="22"/>
+      <c r="CG16" s="22"/>
     </row>
-    <row r="17" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -70104,13 +70675,16 @@
       <c r="CA17" s="15">
         <v>82</v>
       </c>
-      <c r="CB17" s="22"/>
+      <c r="CB17" s="15">
+        <v>86</v>
+      </c>
       <c r="CC17" s="22"/>
       <c r="CD17" s="22"/>
       <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
+      <c r="CG17" s="22"/>
     </row>
-    <row r="18" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -70346,13 +70920,16 @@
       <c r="CA18" s="34">
         <v>1270</v>
       </c>
-      <c r="CB18" s="22"/>
+      <c r="CB18" s="34">
+        <v>1375</v>
+      </c>
       <c r="CC18" s="22"/>
       <c r="CD18" s="22"/>
       <c r="CE18" s="22"/>
       <c r="CF18" s="22"/>
+      <c r="CG18" s="22"/>
     </row>
-    <row r="19" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="83" t="s">
         <v>27</v>
@@ -70588,15 +71165,18 @@
       <c r="CA19" s="15">
         <v>29</v>
       </c>
-      <c r="CB19" s="22"/>
+      <c r="CB19" s="15">
+        <v>28</v>
+      </c>
       <c r="CC19" s="22"/>
       <c r="CD19" s="22"/>
       <c r="CE19" s="22"/>
       <c r="CF19" s="22"/>
+      <c r="CG19" s="22"/>
     </row>
-    <row r="20" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="84"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -70828,15 +71408,18 @@
       <c r="CA20" s="28">
         <v>65</v>
       </c>
-      <c r="CB20" s="22"/>
+      <c r="CB20" s="28">
+        <v>81</v>
+      </c>
       <c r="CC20" s="22"/>
       <c r="CD20" s="22"/>
       <c r="CE20" s="22"/>
       <c r="CF20" s="22"/>
+      <c r="CG20" s="22"/>
     </row>
-    <row r="21" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -71068,13 +71651,16 @@
       <c r="CA21" s="15">
         <v>14</v>
       </c>
-      <c r="CB21" s="22"/>
+      <c r="CB21" s="15">
+        <v>26</v>
+      </c>
       <c r="CC21" s="22"/>
       <c r="CD21" s="22"/>
       <c r="CE21" s="22"/>
       <c r="CF21" s="22"/>
+      <c r="CG21" s="22"/>
     </row>
-    <row r="22" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -71309,13 +71895,16 @@
       <c r="CA22" s="15">
         <v>3</v>
       </c>
-      <c r="CB22" s="23"/>
+      <c r="CB22" s="15">
+        <v>3</v>
+      </c>
       <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23"/>
       <c r="CF22" s="23"/>
+      <c r="CG22" s="23"/>
     </row>
-    <row r="23" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -71550,13 +72139,16 @@
       <c r="CA23" s="15">
         <v>5</v>
       </c>
-      <c r="CB23" s="23"/>
+      <c r="CB23" s="15">
+        <v>6</v>
+      </c>
       <c r="CC23" s="23"/>
       <c r="CD23" s="23"/>
       <c r="CE23" s="23"/>
       <c r="CF23" s="23"/>
+      <c r="CG23" s="23"/>
     </row>
-    <row r="24" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -71791,13 +72383,16 @@
       <c r="CA24" s="15">
         <v>11</v>
       </c>
-      <c r="CB24" s="22"/>
+      <c r="CB24" s="15">
+        <v>8</v>
+      </c>
       <c r="CC24" s="22"/>
       <c r="CD24" s="22"/>
       <c r="CE24" s="22"/>
       <c r="CF24" s="22"/>
+      <c r="CG24" s="22"/>
     </row>
-    <row r="25" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -72032,13 +72627,16 @@
       <c r="CA25" s="15">
         <v>0</v>
       </c>
-      <c r="CB25" s="23"/>
+      <c r="CB25" s="15">
+        <v>0</v>
+      </c>
       <c r="CC25" s="23"/>
       <c r="CD25" s="23"/>
       <c r="CE25" s="23"/>
       <c r="CF25" s="23"/>
+      <c r="CG25" s="23"/>
     </row>
-    <row r="26" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -72273,13 +72871,16 @@
       <c r="CA26" s="15">
         <v>14</v>
       </c>
-      <c r="CB26" s="23"/>
+      <c r="CB26" s="15">
+        <v>9</v>
+      </c>
       <c r="CC26" s="23"/>
       <c r="CD26" s="23"/>
       <c r="CE26" s="23"/>
       <c r="CF26" s="23"/>
+      <c r="CG26" s="23"/>
     </row>
-    <row r="27" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -72514,13 +73115,16 @@
       <c r="CA27" s="15">
         <v>0</v>
       </c>
-      <c r="CB27" s="23"/>
+      <c r="CB27" s="15">
+        <v>1</v>
+      </c>
       <c r="CC27" s="23"/>
       <c r="CD27" s="23"/>
       <c r="CE27" s="23"/>
       <c r="CF27" s="23"/>
+      <c r="CG27" s="23"/>
     </row>
-    <row r="28" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -72755,14 +73359,17 @@
       <c r="CA28" s="15">
         <v>0</v>
       </c>
-      <c r="CB28" s="22"/>
+      <c r="CB28" s="15">
+        <v>0</v>
+      </c>
       <c r="CC28" s="22"/>
       <c r="CD28" s="22"/>
       <c r="CE28" s="22"/>
       <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
     </row>
-    <row r="29" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="86" t="s">
+    <row r="29" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="85" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -72996,14 +73603,17 @@
       <c r="CA29" s="15">
         <v>1</v>
       </c>
-      <c r="CB29" s="23"/>
+      <c r="CB29" s="15">
+        <v>3</v>
+      </c>
       <c r="CC29" s="23"/>
       <c r="CD29" s="23"/>
       <c r="CE29" s="23"/>
       <c r="CF29" s="23"/>
+      <c r="CG29" s="23"/>
     </row>
-    <row r="30" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="87"/>
+    <row r="30" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="86"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -73235,13 +73845,16 @@
       <c r="CA30" s="15">
         <v>12</v>
       </c>
-      <c r="CB30" s="23"/>
+      <c r="CB30" s="15">
+        <v>18</v>
+      </c>
       <c r="CC30" s="23"/>
       <c r="CD30" s="23"/>
       <c r="CE30" s="23"/>
       <c r="CF30" s="23"/>
+      <c r="CG30" s="23"/>
     </row>
-    <row r="31" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -73477,13 +74090,16 @@
       <c r="CA31" s="15">
         <v>25</v>
       </c>
-      <c r="CB31" s="22"/>
+      <c r="CB31" s="15">
+        <v>14</v>
+      </c>
       <c r="CC31" s="22"/>
       <c r="CD31" s="22"/>
       <c r="CE31" s="22"/>
       <c r="CF31" s="22"/>
+      <c r="CG31" s="22"/>
     </row>
-    <row r="32" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -73718,13 +74334,16 @@
       <c r="CA32" s="15">
         <v>1</v>
       </c>
-      <c r="CB32" s="23"/>
+      <c r="CB32" s="15">
+        <v>0</v>
+      </c>
       <c r="CC32" s="23"/>
       <c r="CD32" s="23"/>
       <c r="CE32" s="23"/>
       <c r="CF32" s="23"/>
+      <c r="CG32" s="23"/>
     </row>
-    <row r="33" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -73959,13 +74578,16 @@
       <c r="CA33" s="15">
         <v>0</v>
       </c>
-      <c r="CB33" s="23"/>
+      <c r="CB33" s="15">
+        <v>0</v>
+      </c>
       <c r="CC33" s="23"/>
       <c r="CD33" s="23"/>
       <c r="CE33" s="23"/>
       <c r="CF33" s="23"/>
+      <c r="CG33" s="23"/>
     </row>
-    <row r="34" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -74201,13 +74823,16 @@
       <c r="CA34" s="15">
         <v>51</v>
       </c>
-      <c r="CB34" s="22"/>
+      <c r="CB34" s="15">
+        <v>39</v>
+      </c>
       <c r="CC34" s="22"/>
       <c r="CD34" s="22"/>
       <c r="CE34" s="22"/>
       <c r="CF34" s="22"/>
+      <c r="CG34" s="22"/>
     </row>
-    <row r="35" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="83" t="s">
         <v>56</v>
@@ -74443,14 +75068,17 @@
       <c r="CA35" s="15">
         <v>263</v>
       </c>
-      <c r="CB35" s="22"/>
+      <c r="CB35" s="15">
+        <v>263</v>
+      </c>
       <c r="CC35" s="22"/>
       <c r="CD35" s="22"/>
       <c r="CE35" s="22"/>
       <c r="CF35" s="22"/>
+      <c r="CG35" s="22"/>
     </row>
-    <row r="36" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="85"/>
+    <row r="36" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="84"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -74682,13 +75310,16 @@
       <c r="CA36" s="28">
         <v>25</v>
       </c>
-      <c r="CB36" s="22"/>
+      <c r="CB36" s="28">
+        <v>20</v>
+      </c>
       <c r="CC36" s="22"/>
       <c r="CD36" s="22"/>
       <c r="CE36" s="22"/>
       <c r="CF36" s="22"/>
+      <c r="CG36" s="22"/>
     </row>
-    <row r="37" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -74924,13 +75555,16 @@
       <c r="CA37" s="15">
         <v>35</v>
       </c>
-      <c r="CB37" s="22"/>
+      <c r="CB37" s="15">
+        <v>38</v>
+      </c>
       <c r="CC37" s="22"/>
       <c r="CD37" s="22"/>
       <c r="CE37" s="22"/>
       <c r="CF37" s="22"/>
+      <c r="CG37" s="22"/>
     </row>
-    <row r="38" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -75165,13 +75799,16 @@
       <c r="CA38" s="15">
         <v>5</v>
       </c>
-      <c r="CB38" s="23"/>
+      <c r="CB38" s="15">
+        <v>6</v>
+      </c>
       <c r="CC38" s="23"/>
       <c r="CD38" s="23"/>
       <c r="CE38" s="23"/>
       <c r="CF38" s="23"/>
+      <c r="CG38" s="23"/>
     </row>
-    <row r="39" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -75406,13 +76043,16 @@
       <c r="CA39" s="15">
         <v>8</v>
       </c>
-      <c r="CB39" s="23"/>
+      <c r="CB39" s="15">
+        <v>6</v>
+      </c>
       <c r="CC39" s="23"/>
       <c r="CD39" s="23"/>
       <c r="CE39" s="23"/>
       <c r="CF39" s="23"/>
+      <c r="CG39" s="23"/>
     </row>
-    <row r="40" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -75647,13 +76287,16 @@
       <c r="CA40" s="15">
         <v>0</v>
       </c>
-      <c r="CB40" s="23"/>
+      <c r="CB40" s="15">
+        <v>0</v>
+      </c>
       <c r="CC40" s="23"/>
       <c r="CD40" s="23"/>
       <c r="CE40" s="23"/>
       <c r="CF40" s="23"/>
+      <c r="CG40" s="23"/>
     </row>
-    <row r="41" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -75888,13 +76531,16 @@
       <c r="CA41" s="15">
         <v>0</v>
       </c>
-      <c r="CB41" s="23"/>
+      <c r="CB41" s="15">
+        <v>0</v>
+      </c>
       <c r="CC41" s="23"/>
       <c r="CD41" s="23"/>
       <c r="CE41" s="23"/>
       <c r="CF41" s="23"/>
+      <c r="CG41" s="23"/>
     </row>
-    <row r="42" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -76129,13 +76775,16 @@
       <c r="CA42" s="15">
         <v>10</v>
       </c>
-      <c r="CB42" s="23"/>
+      <c r="CB42" s="15">
+        <v>6</v>
+      </c>
       <c r="CC42" s="23"/>
       <c r="CD42" s="23"/>
       <c r="CE42" s="23"/>
       <c r="CF42" s="23"/>
+      <c r="CG42" s="23"/>
     </row>
-    <row r="43" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -76370,13 +77019,16 @@
       <c r="CA43" s="28">
         <v>25</v>
       </c>
-      <c r="CB43" s="23"/>
+      <c r="CB43" s="28">
+        <v>23</v>
+      </c>
       <c r="CC43" s="23"/>
       <c r="CD43" s="23"/>
       <c r="CE43" s="23"/>
       <c r="CF43" s="23"/>
+      <c r="CG43" s="23"/>
     </row>
-    <row r="44" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -76611,13 +77263,16 @@
       <c r="CA44" s="15">
         <v>4</v>
       </c>
-      <c r="CB44" s="23"/>
+      <c r="CB44" s="15">
+        <v>3</v>
+      </c>
       <c r="CC44" s="23"/>
       <c r="CD44" s="23"/>
       <c r="CE44" s="23"/>
       <c r="CF44" s="23"/>
+      <c r="CG44" s="23"/>
     </row>
-    <row r="45" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -76852,13 +77507,16 @@
       <c r="CA45" s="15">
         <v>13</v>
       </c>
-      <c r="CB45" s="22"/>
+      <c r="CB45" s="15">
+        <v>11</v>
+      </c>
       <c r="CC45" s="22"/>
       <c r="CD45" s="22"/>
       <c r="CE45" s="22"/>
       <c r="CF45" s="22"/>
+      <c r="CG45" s="22"/>
     </row>
-    <row r="46" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -77093,13 +77751,16 @@
       <c r="CA46" s="15">
         <v>22</v>
       </c>
-      <c r="CB46" s="23"/>
+      <c r="CB46" s="15">
+        <v>10</v>
+      </c>
       <c r="CC46" s="23"/>
       <c r="CD46" s="23"/>
       <c r="CE46" s="23"/>
       <c r="CF46" s="23"/>
+      <c r="CG46" s="23"/>
     </row>
-    <row r="47" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -77334,13 +77995,16 @@
       <c r="CA47" s="15">
         <v>0</v>
       </c>
-      <c r="CB47" s="23"/>
+      <c r="CB47" s="15">
+        <v>1</v>
+      </c>
       <c r="CC47" s="23"/>
       <c r="CD47" s="23"/>
       <c r="CE47" s="23"/>
       <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
     </row>
-    <row r="48" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -77575,13 +78239,16 @@
       <c r="CA48" s="15">
         <v>2</v>
       </c>
-      <c r="CB48" s="23"/>
+      <c r="CB48" s="15">
+        <v>7</v>
+      </c>
       <c r="CC48" s="23"/>
       <c r="CD48" s="23"/>
       <c r="CE48" s="23"/>
       <c r="CF48" s="23"/>
+      <c r="CG48" s="23"/>
     </row>
-    <row r="49" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
@@ -77817,14 +78484,17 @@
       <c r="CA49" s="15">
         <v>58</v>
       </c>
-      <c r="CB49" s="22"/>
+      <c r="CB49" s="15">
+        <v>34</v>
+      </c>
       <c r="CC49" s="22"/>
       <c r="CD49" s="22"/>
       <c r="CE49" s="22"/>
       <c r="CF49" s="22"/>
+      <c r="CG49" s="22"/>
     </row>
-    <row r="50" spans="1:84" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="85"/>
+    <row r="50" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="84"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -78056,13 +78726,16 @@
       <c r="CA50" s="15">
         <v>9</v>
       </c>
-      <c r="CB50" s="22"/>
+      <c r="CB50" s="15">
+        <v>7</v>
+      </c>
       <c r="CC50" s="22"/>
       <c r="CD50" s="22"/>
       <c r="CE50" s="22"/>
       <c r="CF50" s="22"/>
+      <c r="CG50" s="22"/>
     </row>
-    <row r="51" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -78297,13 +78970,16 @@
       <c r="CA51" s="15">
         <v>5</v>
       </c>
-      <c r="CB51" s="23"/>
+      <c r="CB51" s="15">
+        <v>12</v>
+      </c>
       <c r="CC51" s="23"/>
       <c r="CD51" s="23"/>
       <c r="CE51" s="23"/>
       <c r="CF51" s="23"/>
+      <c r="CG51" s="23"/>
     </row>
-    <row r="52" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -78538,13 +79214,16 @@
       <c r="CA52" s="15">
         <v>19</v>
       </c>
-      <c r="CB52" s="23"/>
+      <c r="CB52" s="15">
+        <v>16</v>
+      </c>
       <c r="CC52" s="23"/>
       <c r="CD52" s="23"/>
       <c r="CE52" s="23"/>
       <c r="CF52" s="23"/>
+      <c r="CG52" s="23"/>
     </row>
-    <row r="53" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -78779,13 +79458,16 @@
       <c r="CA53" s="15">
         <v>26</v>
       </c>
-      <c r="CB53" s="23"/>
+      <c r="CB53" s="15">
+        <v>22</v>
+      </c>
       <c r="CC53" s="23"/>
       <c r="CD53" s="23"/>
       <c r="CE53" s="23"/>
       <c r="CF53" s="23"/>
+      <c r="CG53" s="23"/>
     </row>
-    <row r="54" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -79020,13 +79702,16 @@
       <c r="CA54" s="15">
         <v>8</v>
       </c>
-      <c r="CB54" s="23"/>
+      <c r="CB54" s="15">
+        <v>2</v>
+      </c>
       <c r="CC54" s="23"/>
       <c r="CD54" s="23"/>
       <c r="CE54" s="23"/>
       <c r="CF54" s="23"/>
+      <c r="CG54" s="23"/>
     </row>
-    <row r="55" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -79261,13 +79946,16 @@
       <c r="CA55" s="15">
         <v>11</v>
       </c>
-      <c r="CB55" s="23"/>
+      <c r="CB55" s="15">
+        <v>12</v>
+      </c>
       <c r="CC55" s="23"/>
       <c r="CD55" s="23"/>
       <c r="CE55" s="23"/>
       <c r="CF55" s="23"/>
+      <c r="CG55" s="23"/>
     </row>
-    <row r="56" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -79502,13 +80190,16 @@
       <c r="CA56" s="15">
         <v>1</v>
       </c>
-      <c r="CB56" s="23"/>
+      <c r="CB56" s="15">
+        <v>0</v>
+      </c>
       <c r="CC56" s="23"/>
       <c r="CD56" s="23"/>
       <c r="CE56" s="23"/>
       <c r="CF56" s="23"/>
+      <c r="CG56" s="23"/>
     </row>
-    <row r="57" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -79743,13 +80434,16 @@
       <c r="CA57" s="15">
         <v>4</v>
       </c>
-      <c r="CB57" s="23"/>
+      <c r="CB57" s="15">
+        <v>1</v>
+      </c>
       <c r="CC57" s="23"/>
       <c r="CD57" s="23"/>
       <c r="CE57" s="23"/>
       <c r="CF57" s="23"/>
+      <c r="CG57" s="23"/>
     </row>
-    <row r="58" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -80019,7 +80713,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:CA58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CB58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -80058,13 +80752,17 @@
         <f t="shared" si="4"/>
         <v>2440</v>
       </c>
-      <c r="CB58" s="24"/>
+      <c r="CB58" s="14">
+        <f t="shared" si="4"/>
+        <v>2546</v>
+      </c>
       <c r="CC58" s="24"/>
       <c r="CD58" s="24"/>
       <c r="CE58" s="24"/>
       <c r="CF58" s="24"/>
+      <c r="CG58" s="24"/>
     </row>
-    <row r="59" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -80097,7 +80795,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -80130,7 +80828,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:84" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -80164,9 +80862,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="BD2:CA2"/>
-    <mergeCell ref="BD3:CA3"/>
+  <mergeCells count="94">
+    <mergeCell ref="BD2:CB2"/>
+    <mergeCell ref="BD3:CB3"/>
+    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="CA4:CA5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
@@ -80220,17 +80919,17 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
@@ -80238,7 +80937,7 @@
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
@@ -80280,7 +80979,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CA57</xm:sqref>
+          <xm:sqref>BP6:CB57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040921-4\ＪＯＢ040921-4\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040927-4\ＪＯＢ040927-4\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,16 +22,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CB$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CB$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EB$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EB$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CC$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CC$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EC$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EC$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'搬送困難事案（前年同期）'!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="387">
   <si>
     <t>都道府県</t>
   </si>
@@ -4307,6 +4307,24 @@
 【9月第3週】</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>9/19(月)～
+9/25(日)分
+【9月第4週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/19(月)～
+9/25(日)分
+【9月第4週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/20(月)～
+9/26(日)分
+【9月第4週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -4491,7 +4509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4501,6 +4519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4670,7 +4694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4803,6 +4827,15 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4839,6 +4872,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4850,18 +4889,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4875,11 +4902,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4914,6 +4947,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4923,6 +4962,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4930,9 +4972,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9089,13 +9128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB61"/>
+  <dimension ref="A1:EC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DN6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DO6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EB4" sqref="EB4:EB5"/>
+      <selection pane="bottomRight" activeCell="EC4" sqref="EC4:EC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9111,11 +9150,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="132" width="10.875" style="1" customWidth="1"/>
-    <col min="133" max="16384" width="8.625" style="1"/>
+    <col min="106" max="133" width="10.875" style="1" customWidth="1"/>
+    <col min="134" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:133" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9174,821 +9213,828 @@
       <c r="DY1" s="19"/>
       <c r="DZ1" s="19"/>
       <c r="EA1" s="19"/>
-      <c r="EB1" s="19" t="s">
+      <c r="EB1" s="19"/>
+      <c r="EC1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:132" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="1:133" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="49"/>
-      <c r="CK2" s="49"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="49"/>
-      <c r="CN2" s="49"/>
-      <c r="CO2" s="49"/>
-      <c r="CP2" s="49"/>
-      <c r="CQ2" s="49"/>
-      <c r="CR2" s="49"/>
-      <c r="CS2" s="49"/>
-      <c r="CT2" s="49"/>
-      <c r="CU2" s="49"/>
-      <c r="CV2" s="49"/>
-      <c r="CW2" s="49"/>
-      <c r="CX2" s="49"/>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49"/>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="70" t="s">
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="52"/>
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="52"/>
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="52"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="52"/>
+      <c r="CL2" s="52"/>
+      <c r="CM2" s="52"/>
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="52"/>
+      <c r="CP2" s="52"/>
+      <c r="CQ2" s="52"/>
+      <c r="CR2" s="52"/>
+      <c r="CS2" s="52"/>
+      <c r="CT2" s="52"/>
+      <c r="CU2" s="52"/>
+      <c r="CV2" s="52"/>
+      <c r="CW2" s="52"/>
+      <c r="CX2" s="52"/>
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="52"/>
+      <c r="DA2" s="52"/>
+      <c r="DB2" s="52"/>
+      <c r="DC2" s="52"/>
+      <c r="DD2" s="52"/>
+      <c r="DE2" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="70"/>
-      <c r="DX2" s="70"/>
-      <c r="DY2" s="70"/>
-      <c r="DZ2" s="70"/>
-      <c r="EA2" s="70"/>
-      <c r="EB2" s="70"/>
+      <c r="DF2" s="73"/>
+      <c r="DG2" s="73"/>
+      <c r="DH2" s="73"/>
+      <c r="DI2" s="73"/>
+      <c r="DJ2" s="73"/>
+      <c r="DK2" s="73"/>
+      <c r="DL2" s="73"/>
+      <c r="DM2" s="73"/>
+      <c r="DN2" s="73"/>
+      <c r="DO2" s="73"/>
+      <c r="DP2" s="73"/>
+      <c r="DQ2" s="73"/>
+      <c r="DR2" s="73"/>
+      <c r="DS2" s="73"/>
+      <c r="DT2" s="73"/>
+      <c r="DU2" s="73"/>
+      <c r="DV2" s="73"/>
+      <c r="DW2" s="73"/>
+      <c r="DX2" s="73"/>
+      <c r="DY2" s="73"/>
+      <c r="DZ2" s="73"/>
+      <c r="EA2" s="73"/>
+      <c r="EB2" s="73"/>
+      <c r="EC2" s="73"/>
     </row>
-    <row r="3" spans="1:132" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="61" t="s">
+    <row r="3" spans="1:133" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="46" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
-      <c r="CE3" s="47"/>
-      <c r="CF3" s="47"/>
-      <c r="CG3" s="47"/>
-      <c r="CH3" s="47"/>
-      <c r="CI3" s="47"/>
-      <c r="CJ3" s="47"/>
-      <c r="CK3" s="47"/>
-      <c r="CL3" s="47"/>
-      <c r="CM3" s="47"/>
-      <c r="CN3" s="47"/>
-      <c r="CO3" s="47"/>
-      <c r="CP3" s="47"/>
-      <c r="CQ3" s="73"/>
-      <c r="CR3" s="61" t="s">
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="50"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="50"/>
+      <c r="CJ3" s="50"/>
+      <c r="CK3" s="50"/>
+      <c r="CL3" s="50"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="50"/>
+      <c r="CQ3" s="76"/>
+      <c r="CR3" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="CS3" s="61"/>
-      <c r="CT3" s="61"/>
-      <c r="CU3" s="61"/>
-      <c r="CV3" s="61"/>
-      <c r="CW3" s="61"/>
-      <c r="CX3" s="61"/>
-      <c r="CY3" s="61"/>
-      <c r="CZ3" s="61"/>
-      <c r="DA3" s="61"/>
-      <c r="DB3" s="61"/>
-      <c r="DC3" s="61"/>
-      <c r="DD3" s="46"/>
-      <c r="DE3" s="61" t="s">
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+      <c r="CV3" s="72"/>
+      <c r="CW3" s="72"/>
+      <c r="CX3" s="72"/>
+      <c r="CY3" s="72"/>
+      <c r="CZ3" s="72"/>
+      <c r="DA3" s="72"/>
+      <c r="DB3" s="72"/>
+      <c r="DC3" s="72"/>
+      <c r="DD3" s="49"/>
+      <c r="DE3" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="DF3" s="61"/>
-      <c r="DG3" s="61"/>
-      <c r="DH3" s="61"/>
-      <c r="DI3" s="61"/>
-      <c r="DJ3" s="61"/>
-      <c r="DK3" s="61"/>
-      <c r="DL3" s="61"/>
-      <c r="DM3" s="61"/>
-      <c r="DN3" s="61"/>
-      <c r="DO3" s="61"/>
-      <c r="DP3" s="61"/>
-      <c r="DQ3" s="61"/>
-      <c r="DR3" s="61"/>
-      <c r="DS3" s="61"/>
-      <c r="DT3" s="61"/>
-      <c r="DU3" s="61"/>
-      <c r="DV3" s="61"/>
-      <c r="DW3" s="61"/>
-      <c r="DX3" s="61"/>
-      <c r="DY3" s="61"/>
-      <c r="DZ3" s="61"/>
-      <c r="EA3" s="61"/>
-      <c r="EB3" s="61"/>
+      <c r="DF3" s="72"/>
+      <c r="DG3" s="72"/>
+      <c r="DH3" s="72"/>
+      <c r="DI3" s="72"/>
+      <c r="DJ3" s="72"/>
+      <c r="DK3" s="72"/>
+      <c r="DL3" s="72"/>
+      <c r="DM3" s="72"/>
+      <c r="DN3" s="72"/>
+      <c r="DO3" s="72"/>
+      <c r="DP3" s="72"/>
+      <c r="DQ3" s="72"/>
+      <c r="DR3" s="72"/>
+      <c r="DS3" s="72"/>
+      <c r="DT3" s="72"/>
+      <c r="DU3" s="72"/>
+      <c r="DV3" s="72"/>
+      <c r="DW3" s="72"/>
+      <c r="DX3" s="72"/>
+      <c r="DY3" s="72"/>
+      <c r="DZ3" s="72"/>
+      <c r="EA3" s="72"/>
+      <c r="EB3" s="72"/>
+      <c r="EC3" s="72"/>
     </row>
-    <row r="4" spans="1:132" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55" t="s">
+    <row r="4" spans="1:133" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="60" t="s">
+      <c r="W4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="60" t="s">
+      <c r="X4" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="60" t="s">
+      <c r="Y4" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="60" t="s">
+      <c r="Z4" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AA4" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AE4" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="55" t="s">
+      <c r="AF4" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="55" t="s">
+      <c r="AI4" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AJ4" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="55" t="s">
+      <c r="AK4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="55" t="s">
+      <c r="AL4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="55" t="s">
+      <c r="AM4" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="55" t="s">
+      <c r="AN4" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="55" t="s">
+      <c r="AO4" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="55" t="s">
+      <c r="AP4" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="55" t="s">
+      <c r="AQ4" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="51" t="s">
+      <c r="AX4" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="51" t="s">
+      <c r="AZ4" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="51" t="s">
+      <c r="BA4" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="51" t="s">
+      <c r="BB4" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="51" t="s">
+      <c r="BC4" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="52" t="s">
+      <c r="BD4" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="BE4" s="52" t="s">
+      <c r="BE4" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="BF4" s="52" t="s">
+      <c r="BF4" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="52" t="s">
+      <c r="BG4" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="BH4" s="52" t="s">
+      <c r="BH4" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="BI4" s="52" t="s">
+      <c r="BI4" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="BJ4" s="52" t="s">
+      <c r="BJ4" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="BK4" s="52" t="s">
+      <c r="BK4" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="53" t="s">
+      <c r="BL4" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="53" t="s">
+      <c r="BM4" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="BN4" s="52" t="s">
+      <c r="BN4" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="BO4" s="52" t="s">
+      <c r="BO4" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="BP4" s="52" t="s">
+      <c r="BP4" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="BQ4" s="52" t="s">
+      <c r="BQ4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="BR4" s="52" t="s">
+      <c r="BR4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="BS4" s="52" t="s">
+      <c r="BS4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="BT4" s="52" t="s">
+      <c r="BT4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="BU4" s="53" t="s">
+      <c r="BU4" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="BV4" s="53" t="s">
+      <c r="BV4" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="BW4" s="53" t="s">
+      <c r="BW4" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="BX4" s="53" t="s">
+      <c r="BX4" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="BY4" s="53" t="s">
+      <c r="BY4" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="BZ4" s="52" t="s">
+      <c r="BZ4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="CA4" s="52" t="s">
+      <c r="CA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="52" t="s">
+      <c r="CB4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="CC4" s="52" t="s">
+      <c r="CC4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="CD4" s="52" t="s">
+      <c r="CD4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="CE4" s="50" t="s">
+      <c r="CE4" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="CF4" s="50" t="s">
+      <c r="CF4" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="CG4" s="50" t="s">
+      <c r="CG4" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="CH4" s="50" t="s">
+      <c r="CH4" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="CI4" s="50" t="s">
+      <c r="CI4" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="CJ4" s="50" t="s">
+      <c r="CJ4" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="CK4" s="50" t="s">
+      <c r="CK4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="CL4" s="50" t="s">
+      <c r="CL4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="CM4" s="50" t="s">
+      <c r="CM4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="CN4" s="50" t="s">
+      <c r="CN4" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="CO4" s="50" t="s">
+      <c r="CO4" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="CP4" s="50" t="s">
+      <c r="CP4" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="CQ4" s="50" t="s">
+      <c r="CQ4" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="CR4" s="50" t="s">
+      <c r="CR4" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="CS4" s="50" t="s">
+      <c r="CS4" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="CT4" s="50" t="s">
+      <c r="CT4" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="CU4" s="50" t="s">
+      <c r="CU4" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="CV4" s="50" t="s">
+      <c r="CV4" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="CW4" s="50" t="s">
+      <c r="CW4" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="CX4" s="50" t="s">
+      <c r="CX4" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="CY4" s="50" t="s">
+      <c r="CY4" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="CZ4" s="50" t="s">
+      <c r="CZ4" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="DA4" s="50" t="s">
+      <c r="DA4" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="DB4" s="50" t="s">
+      <c r="DB4" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="DC4" s="50" t="s">
+      <c r="DC4" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="DD4" s="71" t="s">
+      <c r="DD4" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="DE4" s="44" t="s">
+      <c r="DE4" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="DF4" s="44" t="s">
+      <c r="DF4" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="DG4" s="44" t="s">
+      <c r="DG4" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="DH4" s="44" t="s">
+      <c r="DH4" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="DI4" s="44" t="s">
+      <c r="DI4" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="DJ4" s="44" t="s">
+      <c r="DJ4" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="DK4" s="44" t="s">
+      <c r="DK4" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="DL4" s="44" t="s">
+      <c r="DL4" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="DM4" s="44" t="s">
+      <c r="DM4" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="DN4" s="44" t="s">
+      <c r="DN4" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="DO4" s="44" t="s">
+      <c r="DO4" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="DP4" s="44" t="s">
+      <c r="DP4" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="DQ4" s="44" t="s">
+      <c r="DQ4" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="DR4" s="44" t="s">
+      <c r="DR4" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="DS4" s="44" t="s">
+      <c r="DS4" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="DT4" s="44" t="s">
+      <c r="DT4" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="DU4" s="44" t="s">
+      <c r="DU4" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="DV4" s="44" t="s">
+      <c r="DV4" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="DW4" s="44" t="s">
+      <c r="DW4" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="DX4" s="44" t="s">
+      <c r="DX4" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="DY4" s="44" t="s">
+      <c r="DY4" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="DZ4" s="44" t="s">
+      <c r="DZ4" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="EA4" s="44" t="s">
+      <c r="EA4" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="EB4" s="44" t="s">
+      <c r="EB4" s="47" t="s">
         <v>381</v>
       </c>
+      <c r="EC4" s="47" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="5" spans="1:132" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="69"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="54"/>
-      <c r="BM5" s="54"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="51"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="51"/>
-      <c r="BT5" s="51"/>
-      <c r="BU5" s="54"/>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="54"/>
-      <c r="BX5" s="54"/>
-      <c r="BY5" s="54"/>
-      <c r="BZ5" s="51"/>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="45"/>
-      <c r="CF5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="45"/>
-      <c r="CJ5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="72"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="45"/>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="45"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="45"/>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="45"/>
-      <c r="DV5" s="45"/>
-      <c r="DW5" s="45"/>
-      <c r="DX5" s="45"/>
-      <c r="DY5" s="45"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
+    <row r="5" spans="1:133" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
+      <c r="BJ5" s="54"/>
+      <c r="BK5" s="54"/>
+      <c r="BL5" s="57"/>
+      <c r="BM5" s="57"/>
+      <c r="BN5" s="54"/>
+      <c r="BO5" s="54"/>
+      <c r="BP5" s="54"/>
+      <c r="BQ5" s="54"/>
+      <c r="BR5" s="54"/>
+      <c r="BS5" s="54"/>
+      <c r="BT5" s="54"/>
+      <c r="BU5" s="57"/>
+      <c r="BV5" s="57"/>
+      <c r="BW5" s="57"/>
+      <c r="BX5" s="57"/>
+      <c r="BY5" s="57"/>
+      <c r="BZ5" s="54"/>
+      <c r="CA5" s="54"/>
+      <c r="CB5" s="54"/>
+      <c r="CC5" s="54"/>
+      <c r="CD5" s="54"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="48"/>
+      <c r="CI5" s="48"/>
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="48"/>
+      <c r="CR5" s="48"/>
+      <c r="CS5" s="48"/>
+      <c r="CT5" s="48"/>
+      <c r="CU5" s="48"/>
+      <c r="CV5" s="48"/>
+      <c r="CW5" s="48"/>
+      <c r="CX5" s="48"/>
+      <c r="CY5" s="48"/>
+      <c r="CZ5" s="48"/>
+      <c r="DA5" s="48"/>
+      <c r="DB5" s="48"/>
+      <c r="DC5" s="48"/>
+      <c r="DD5" s="75"/>
+      <c r="DE5" s="48"/>
+      <c r="DF5" s="48"/>
+      <c r="DG5" s="48"/>
+      <c r="DH5" s="48"/>
+      <c r="DI5" s="48"/>
+      <c r="DJ5" s="48"/>
+      <c r="DK5" s="48"/>
+      <c r="DL5" s="48"/>
+      <c r="DM5" s="48"/>
+      <c r="DN5" s="48"/>
+      <c r="DO5" s="48"/>
+      <c r="DP5" s="48"/>
+      <c r="DQ5" s="48"/>
+      <c r="DR5" s="48"/>
+      <c r="DS5" s="48"/>
+      <c r="DT5" s="48"/>
+      <c r="DU5" s="48"/>
+      <c r="DV5" s="48"/>
+      <c r="DW5" s="48"/>
+      <c r="DX5" s="48"/>
+      <c r="DY5" s="48"/>
+      <c r="DZ5" s="48"/>
+      <c r="EA5" s="48"/>
+      <c r="EB5" s="48"/>
+      <c r="EC5" s="47"/>
     </row>
-    <row r="6" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10383,8 +10429,11 @@
       <c r="EB6" s="28">
         <v>127</v>
       </c>
+      <c r="EC6" s="28">
+        <v>159</v>
+      </c>
     </row>
-    <row r="7" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10778,8 +10827,11 @@
       <c r="EB7" s="15">
         <v>0</v>
       </c>
+      <c r="EC7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11173,8 +11225,11 @@
       <c r="EB8" s="28">
         <v>15</v>
       </c>
+      <c r="EC8" s="28">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11569,8 +11624,11 @@
       <c r="EB9" s="15">
         <v>96</v>
       </c>
+      <c r="EC9" s="15">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -11962,8 +12020,11 @@
       <c r="EB10" s="15">
         <v>1</v>
       </c>
+      <c r="EC10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12357,8 +12418,11 @@
       <c r="EB11" s="15">
         <v>15</v>
       </c>
+      <c r="EC11" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12752,8 +12816,11 @@
       <c r="EB12" s="15">
         <v>7</v>
       </c>
+      <c r="EC12" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -13147,8 +13214,11 @@
       <c r="EB13" s="15">
         <v>27</v>
       </c>
+      <c r="EC13" s="15">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13542,8 +13612,11 @@
       <c r="EB14" s="15">
         <v>19</v>
       </c>
+      <c r="EC14" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -13937,8 +14010,11 @@
       <c r="EB15" s="15">
         <v>1</v>
       </c>
+      <c r="EC15" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -14333,8 +14409,11 @@
       <c r="EB16" s="28">
         <v>131</v>
       </c>
+      <c r="EC16" s="28">
+        <v>124</v>
+      </c>
     </row>
-    <row r="17" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14728,8 +14807,11 @@
       <c r="EB17" s="15">
         <v>149</v>
       </c>
+      <c r="EC17" s="15">
+        <v>166</v>
+      </c>
     </row>
-    <row r="18" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -15124,10 +15206,13 @@
       <c r="EB18" s="34">
         <v>1722</v>
       </c>
+      <c r="EC18" s="34">
+        <v>1740</v>
+      </c>
     </row>
-    <row r="19" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="61" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -15520,10 +15605,13 @@
       <c r="EB19" s="15">
         <v>65</v>
       </c>
+      <c r="EC19" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -15914,10 +16002,13 @@
       <c r="EB20" s="28">
         <v>185</v>
       </c>
+      <c r="EC20" s="28">
+        <v>130</v>
+      </c>
     </row>
-    <row r="21" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="56"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -16308,8 +16399,11 @@
       <c r="EB21" s="15">
         <v>44</v>
       </c>
+      <c r="EC21" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16703,8 +16797,11 @@
       <c r="EB22" s="15">
         <v>4</v>
       </c>
+      <c r="EC22" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -17098,8 +17195,11 @@
       <c r="EB23" s="15">
         <v>7</v>
       </c>
+      <c r="EC23" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17493,8 +17593,11 @@
       <c r="EB24" s="15">
         <v>10</v>
       </c>
+      <c r="EC24" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17888,8 +17991,11 @@
       <c r="EB25" s="15">
         <v>2</v>
       </c>
+      <c r="EC25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -18283,8 +18389,11 @@
       <c r="EB26" s="15">
         <v>15</v>
       </c>
+      <c r="EC26" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="27" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18678,8 +18787,11 @@
       <c r="EB27" s="15">
         <v>1</v>
       </c>
+      <c r="EC27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -19073,9 +19185,12 @@
       <c r="EB28" s="15">
         <v>0</v>
       </c>
+      <c r="EC28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -19468,9 +19583,12 @@
       <c r="EB29" s="15">
         <v>5</v>
       </c>
+      <c r="EC29" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+    <row r="30" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="62"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -19861,8 +19979,11 @@
       <c r="EB30" s="15">
         <v>32</v>
       </c>
+      <c r="EC30" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="31" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -20257,8 +20378,11 @@
       <c r="EB31" s="15">
         <v>32</v>
       </c>
+      <c r="EC31" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="32" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20652,8 +20776,11 @@
       <c r="EB32" s="15">
         <v>0</v>
       </c>
+      <c r="EC32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -21047,8 +21174,11 @@
       <c r="EB33" s="15">
         <v>0</v>
       </c>
+      <c r="EC33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -21443,10 +21573,13 @@
       <c r="EB34" s="15">
         <v>52</v>
       </c>
+      <c r="EC34" s="15">
+        <v>60</v>
+      </c>
     </row>
-    <row r="35" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="61" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -21839,9 +21972,12 @@
       <c r="EB35" s="15">
         <v>341</v>
       </c>
+      <c r="EC35" s="15">
+        <v>314</v>
+      </c>
     </row>
-    <row r="36" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="56"/>
+    <row r="36" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="61"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -22232,8 +22368,11 @@
       <c r="EB36" s="28">
         <v>41</v>
       </c>
+      <c r="EC36" s="28">
+        <v>36</v>
+      </c>
     </row>
-    <row r="37" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -22628,8 +22767,11 @@
       <c r="EB37" s="15">
         <v>65</v>
       </c>
+      <c r="EC37" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="38" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -23023,8 +23165,11 @@
       <c r="EB38" s="15">
         <v>10</v>
       </c>
+      <c r="EC38" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -23418,8 +23563,11 @@
       <c r="EB39" s="15">
         <v>8</v>
       </c>
+      <c r="EC39" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -23813,8 +23961,11 @@
       <c r="EB40" s="15">
         <v>0</v>
       </c>
+      <c r="EC40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -24208,8 +24359,11 @@
       <c r="EB41" s="15">
         <v>0</v>
       </c>
+      <c r="EC41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -24603,8 +24757,11 @@
       <c r="EB42" s="15">
         <v>12</v>
       </c>
+      <c r="EC42" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="43" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -24998,8 +25155,11 @@
       <c r="EB43" s="28">
         <v>62</v>
       </c>
+      <c r="EC43" s="28">
+        <v>54</v>
+      </c>
     </row>
-    <row r="44" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -25393,8 +25553,11 @@
       <c r="EB44" s="15">
         <v>3</v>
       </c>
+      <c r="EC44" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -25788,8 +25951,11 @@
       <c r="EB45" s="15">
         <v>18</v>
       </c>
+      <c r="EC45" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="46" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -26183,8 +26349,11 @@
       <c r="EB46" s="15">
         <v>23</v>
       </c>
+      <c r="EC46" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="47" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -26578,8 +26747,11 @@
       <c r="EB47" s="15">
         <v>1</v>
       </c>
+      <c r="EC47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -26973,10 +27145,13 @@
       <c r="EB48" s="15">
         <v>14</v>
       </c>
+      <c r="EC48" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="49" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="61" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -27369,9 +27544,12 @@
       <c r="EB49" s="15">
         <v>44</v>
       </c>
+      <c r="EC49" s="15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="50" spans="1:132" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="56"/>
+    <row r="50" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="61"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -27762,8 +27940,11 @@
       <c r="EB50" s="15">
         <v>16</v>
       </c>
+      <c r="EC50" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -28157,8 +28338,11 @@
       <c r="EB51" s="15">
         <v>12</v>
       </c>
+      <c r="EC51" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="52" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -28552,8 +28736,11 @@
       <c r="EB52" s="15">
         <v>25</v>
       </c>
+      <c r="EC52" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="53" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -28947,8 +29134,11 @@
       <c r="EB53" s="15">
         <v>31</v>
       </c>
+      <c r="EC53" s="15">
+        <v>52</v>
+      </c>
     </row>
-    <row r="54" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29342,8 +29532,11 @@
       <c r="EB54" s="15">
         <v>7</v>
       </c>
+      <c r="EC54" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -29737,8 +29930,11 @@
       <c r="EB55" s="15">
         <v>14</v>
       </c>
+      <c r="EC55" s="15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="56" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -30132,8 +30328,11 @@
       <c r="EB56" s="15">
         <v>0</v>
       </c>
+      <c r="EC56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30527,8 +30726,11 @@
       <c r="EB57" s="15">
         <v>2</v>
       </c>
+      <c r="EC57" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -31006,7 +31208,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:EB58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:EC58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -31049,8 +31251,12 @@
         <f t="shared" si="10"/>
         <v>3513</v>
       </c>
+      <c r="EC58" s="14">
+        <f t="shared" si="10"/>
+        <v>3400</v>
+      </c>
     </row>
-    <row r="59" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -31134,7 +31340,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -31218,30 +31424,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:132" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -31303,9 +31509,10 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="DE2:EB2"/>
-    <mergeCell ref="DE3:EB3"/>
+  <mergeCells count="146">
+    <mergeCell ref="DE2:EC2"/>
+    <mergeCell ref="DE3:EC3"/>
+    <mergeCell ref="EC4:EC5"/>
     <mergeCell ref="EB4:EB5"/>
     <mergeCell ref="CR3:DD3"/>
     <mergeCell ref="CS4:CS5"/>
@@ -31327,8 +31534,6 @@
     <mergeCell ref="CY4:CY5"/>
     <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BN4:BN5"/>
@@ -31351,8 +31556,6 @@
     <mergeCell ref="CL4:CL5"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CU4:CU5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AS4:AS5"/>
@@ -31360,6 +31563,11 @@
     <mergeCell ref="CX4:CX5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -31401,9 +31609,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="DX4:DX5"/>
     <mergeCell ref="DW4:DW5"/>
     <mergeCell ref="DV4:DV5"/>
@@ -31425,6 +31630,8 @@
     <mergeCell ref="DK4:DK5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CU4:CU5"/>
     <mergeCell ref="DZ4:DZ5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
@@ -31461,13 +31668,13 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:EB57">
+  <conditionalFormatting sqref="DP6:EC57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="29" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="64" man="1"/>
     <brk id="108" max="64" man="1"/>
@@ -31478,13 +31685,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:EB58"/>
+  <dimension ref="B1:EC58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DR41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="DO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EB61" sqref="EB61"/>
+      <selection pane="bottomRight" activeCell="EC60" sqref="EC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31496,20 +31703,22 @@
     <col min="18" max="18" width="11" style="40" customWidth="1"/>
     <col min="19" max="24" width="11" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="4" customWidth="1"/>
-    <col min="26" max="55" width="11" style="1" customWidth="1"/>
+    <col min="26" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11" style="44" customWidth="1"/>
+    <col min="30" max="55" width="11" style="1" customWidth="1"/>
     <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="132" width="10.875" style="1" customWidth="1"/>
-    <col min="133" max="16384" width="8.625" style="1"/>
+    <col min="106" max="133" width="10.875" style="1" customWidth="1"/>
+    <col min="134" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:132" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BB1" s="76" t="s">
+    <row r="1" spans="2:133" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB1" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="BC1" s="76"/>
+      <c r="BC1" s="79"/>
       <c r="BI1" s="18"/>
       <c r="CC1" s="29"/>
       <c r="CD1" s="29"/>
@@ -31564,821 +31773,828 @@
       <c r="DY1" s="19"/>
       <c r="DZ1" s="19"/>
       <c r="EA1" s="19"/>
-      <c r="EB1" s="19" t="s">
+      <c r="EB1" s="19"/>
+      <c r="EC1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="2:132" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="70" t="s">
+    <row r="2" spans="2:133" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73" t="s">
         <v>326</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="70" t="s">
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="73"/>
+      <c r="CE2" s="73"/>
+      <c r="CF2" s="73"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="73"/>
+      <c r="CI2" s="73"/>
+      <c r="CJ2" s="73"/>
+      <c r="CK2" s="73"/>
+      <c r="CL2" s="73"/>
+      <c r="CM2" s="73"/>
+      <c r="CN2" s="73"/>
+      <c r="CO2" s="73"/>
+      <c r="CP2" s="73"/>
+      <c r="CQ2" s="73"/>
+      <c r="CR2" s="73"/>
+      <c r="CS2" s="73"/>
+      <c r="CT2" s="73"/>
+      <c r="CU2" s="73"/>
+      <c r="CV2" s="73"/>
+      <c r="CW2" s="73"/>
+      <c r="CX2" s="73"/>
+      <c r="CY2" s="73"/>
+      <c r="CZ2" s="73"/>
+      <c r="DA2" s="73"/>
+      <c r="DB2" s="73"/>
+      <c r="DC2" s="73"/>
+      <c r="DD2" s="73" t="s">
         <v>326</v>
       </c>
-      <c r="DE2" s="70"/>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="70"/>
-      <c r="DX2" s="70"/>
-      <c r="DY2" s="70"/>
-      <c r="DZ2" s="70"/>
-      <c r="EA2" s="70"/>
-      <c r="EB2" s="70"/>
+      <c r="DE2" s="73"/>
+      <c r="DF2" s="73"/>
+      <c r="DG2" s="73"/>
+      <c r="DH2" s="73"/>
+      <c r="DI2" s="73"/>
+      <c r="DJ2" s="73"/>
+      <c r="DK2" s="73"/>
+      <c r="DL2" s="73"/>
+      <c r="DM2" s="73"/>
+      <c r="DN2" s="73"/>
+      <c r="DO2" s="73"/>
+      <c r="DP2" s="73"/>
+      <c r="DQ2" s="73"/>
+      <c r="DR2" s="73"/>
+      <c r="DS2" s="73"/>
+      <c r="DT2" s="73"/>
+      <c r="DU2" s="73"/>
+      <c r="DV2" s="73"/>
+      <c r="DW2" s="73"/>
+      <c r="DX2" s="73"/>
+      <c r="DY2" s="73"/>
+      <c r="DZ2" s="73"/>
+      <c r="EA2" s="73"/>
+      <c r="EB2" s="73"/>
+      <c r="EC2" s="73"/>
     </row>
-    <row r="3" spans="2:132" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="77" t="s">
+    <row r="3" spans="2:133" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="61" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="46" t="s">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
-      <c r="CE3" s="47"/>
-      <c r="CF3" s="47"/>
-      <c r="CG3" s="47"/>
-      <c r="CH3" s="47"/>
-      <c r="CI3" s="47"/>
-      <c r="CJ3" s="47"/>
-      <c r="CK3" s="47"/>
-      <c r="CL3" s="47"/>
-      <c r="CM3" s="47"/>
-      <c r="CN3" s="47"/>
-      <c r="CO3" s="47"/>
-      <c r="CP3" s="47"/>
-      <c r="CQ3" s="73"/>
-      <c r="CR3" s="61" t="s">
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="50"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="50"/>
+      <c r="CJ3" s="50"/>
+      <c r="CK3" s="50"/>
+      <c r="CL3" s="50"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="50"/>
+      <c r="CQ3" s="76"/>
+      <c r="CR3" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="CS3" s="61"/>
-      <c r="CT3" s="61"/>
-      <c r="CU3" s="61"/>
-      <c r="CV3" s="61"/>
-      <c r="CW3" s="61"/>
-      <c r="CX3" s="61"/>
-      <c r="CY3" s="61"/>
-      <c r="CZ3" s="61"/>
-      <c r="DA3" s="61"/>
-      <c r="DB3" s="61"/>
-      <c r="DC3" s="61"/>
-      <c r="DD3" s="61" t="s">
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+      <c r="CV3" s="72"/>
+      <c r="CW3" s="72"/>
+      <c r="CX3" s="72"/>
+      <c r="CY3" s="72"/>
+      <c r="CZ3" s="72"/>
+      <c r="DA3" s="72"/>
+      <c r="DB3" s="72"/>
+      <c r="DC3" s="72"/>
+      <c r="DD3" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="DE3" s="61"/>
-      <c r="DF3" s="61"/>
-      <c r="DG3" s="61"/>
-      <c r="DH3" s="61"/>
-      <c r="DI3" s="61"/>
-      <c r="DJ3" s="61"/>
-      <c r="DK3" s="61"/>
-      <c r="DL3" s="61"/>
-      <c r="DM3" s="61"/>
-      <c r="DN3" s="61"/>
-      <c r="DO3" s="61"/>
-      <c r="DP3" s="61"/>
-      <c r="DQ3" s="61"/>
-      <c r="DR3" s="61"/>
-      <c r="DS3" s="61"/>
-      <c r="DT3" s="61"/>
-      <c r="DU3" s="61"/>
-      <c r="DV3" s="61"/>
-      <c r="DW3" s="61"/>
-      <c r="DX3" s="61"/>
-      <c r="DY3" s="61"/>
-      <c r="DZ3" s="61"/>
-      <c r="EA3" s="61"/>
-      <c r="EB3" s="61"/>
+      <c r="DE3" s="72"/>
+      <c r="DF3" s="72"/>
+      <c r="DG3" s="72"/>
+      <c r="DH3" s="72"/>
+      <c r="DI3" s="72"/>
+      <c r="DJ3" s="72"/>
+      <c r="DK3" s="72"/>
+      <c r="DL3" s="72"/>
+      <c r="DM3" s="72"/>
+      <c r="DN3" s="72"/>
+      <c r="DO3" s="72"/>
+      <c r="DP3" s="72"/>
+      <c r="DQ3" s="72"/>
+      <c r="DR3" s="72"/>
+      <c r="DS3" s="72"/>
+      <c r="DT3" s="72"/>
+      <c r="DU3" s="72"/>
+      <c r="DV3" s="72"/>
+      <c r="DW3" s="72"/>
+      <c r="DX3" s="72"/>
+      <c r="DY3" s="72"/>
+      <c r="DZ3" s="72"/>
+      <c r="EA3" s="72"/>
+      <c r="EB3" s="72"/>
+      <c r="EC3" s="72"/>
     </row>
-    <row r="4" spans="2:132" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="78" t="s">
+    <row r="4" spans="2:133" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" s="79" t="s">
+      <c r="Y4" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" s="78" t="s">
+      <c r="Z4" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" s="78" t="s">
+      <c r="AA4" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="78" t="s">
+      <c r="AB4" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="78" t="s">
+      <c r="AC4" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="78" t="s">
+      <c r="AD4" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="AE4" s="78" t="s">
+      <c r="AE4" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="AF4" s="78" t="s">
+      <c r="AF4" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="AG4" s="78" t="s">
+      <c r="AG4" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="AH4" s="78" t="s">
+      <c r="AH4" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="78" t="s">
+      <c r="AI4" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="AJ4" s="78" t="s">
+      <c r="AJ4" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="AK4" s="78" t="s">
+      <c r="AK4" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="AL4" s="78" t="s">
+      <c r="AL4" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="AM4" s="78" t="s">
+      <c r="AM4" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="AN4" s="78" t="s">
+      <c r="AN4" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="AO4" s="78" t="s">
+      <c r="AO4" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="AP4" s="78" t="s">
+      <c r="AP4" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="AQ4" s="78" t="s">
+      <c r="AQ4" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="AR4" s="78" t="s">
+      <c r="AR4" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="AS4" s="78" t="s">
+      <c r="AS4" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="AT4" s="78" t="s">
+      <c r="AT4" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="AU4" s="78" t="s">
+      <c r="AU4" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="AV4" s="78" t="s">
+      <c r="AV4" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="AW4" s="78" t="s">
+      <c r="AW4" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="AX4" s="78" t="s">
+      <c r="AX4" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="AY4" s="78" t="s">
+      <c r="AY4" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="AZ4" s="78" t="s">
+      <c r="AZ4" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="BA4" s="78" t="s">
+      <c r="BA4" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="BB4" s="78" t="s">
+      <c r="BB4" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="BC4" s="78" t="s">
+      <c r="BC4" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="BD4" s="52" t="s">
+      <c r="BD4" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="BE4" s="52" t="s">
+      <c r="BE4" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" s="52" t="s">
+      <c r="BF4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" s="52" t="s">
+      <c r="BG4" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="BH4" s="52" t="s">
+      <c r="BH4" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="BI4" s="52" t="s">
+      <c r="BI4" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="52" t="s">
+      <c r="BJ4" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="52" t="s">
+      <c r="BK4" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="52" t="s">
+      <c r="BL4" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="52" t="s">
+      <c r="BM4" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="52" t="s">
+      <c r="BN4" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="52" t="s">
+      <c r="BO4" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="52" t="s">
+      <c r="BP4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="BQ4" s="52" t="s">
+      <c r="BQ4" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="BR4" s="52" t="s">
+      <c r="BR4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="BS4" s="52" t="s">
+      <c r="BS4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="BT4" s="52" t="s">
+      <c r="BT4" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="60" t="s">
+      <c r="BU4" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="BV4" s="60" t="s">
+      <c r="BV4" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="BW4" s="60" t="s">
+      <c r="BW4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="BX4" s="60" t="s">
+      <c r="BX4" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="BY4" s="60" t="s">
+      <c r="BY4" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="60" t="s">
+      <c r="BZ4" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="CA4" s="52" t="s">
+      <c r="CA4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="CB4" s="52" t="s">
+      <c r="CB4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="CC4" s="52" t="s">
+      <c r="CC4" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="CD4" s="52" t="s">
+      <c r="CD4" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="CE4" s="50" t="s">
+      <c r="CE4" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="CF4" s="50" t="s">
+      <c r="CF4" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="CG4" s="50" t="s">
+      <c r="CG4" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="CH4" s="50" t="s">
+      <c r="CH4" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="CI4" s="50" t="s">
+      <c r="CI4" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="CJ4" s="50" t="s">
+      <c r="CJ4" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="CK4" s="50" t="s">
+      <c r="CK4" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="CL4" s="50" t="s">
+      <c r="CL4" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="CM4" s="50" t="s">
+      <c r="CM4" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="CN4" s="50" t="s">
+      <c r="CN4" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="CO4" s="50" t="s">
+      <c r="CO4" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="CP4" s="50" t="s">
+      <c r="CP4" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="CQ4" s="50" t="s">
+      <c r="CQ4" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="CR4" s="50" t="s">
+      <c r="CR4" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="CS4" s="50" t="s">
+      <c r="CS4" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="CT4" s="50" t="s">
+      <c r="CT4" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="CU4" s="50" t="s">
+      <c r="CU4" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="CV4" s="50" t="s">
+      <c r="CV4" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="CW4" s="50" t="s">
+      <c r="CW4" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="CX4" s="50" t="s">
+      <c r="CX4" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="CY4" s="50" t="s">
+      <c r="CY4" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="CZ4" s="50" t="s">
+      <c r="CZ4" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="DA4" s="50" t="s">
+      <c r="DA4" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="DB4" s="50" t="s">
+      <c r="DB4" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="DC4" s="50" t="s">
+      <c r="DC4" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="DD4" s="44" t="s">
+      <c r="DD4" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="DE4" s="44" t="s">
+      <c r="DE4" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="DF4" s="44" t="s">
+      <c r="DF4" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="DG4" s="44" t="s">
+      <c r="DG4" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="DH4" s="44" t="s">
+      <c r="DH4" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="DI4" s="44" t="s">
+      <c r="DI4" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="DJ4" s="44" t="s">
+      <c r="DJ4" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="DK4" s="44" t="s">
+      <c r="DK4" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="DL4" s="44" t="s">
+      <c r="DL4" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="DM4" s="74" t="s">
+      <c r="DM4" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="DN4" s="44" t="s">
+      <c r="DN4" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="DO4" s="44" t="s">
+      <c r="DO4" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="DP4" s="44" t="s">
+      <c r="DP4" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="DQ4" s="44" t="s">
+      <c r="DQ4" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="DR4" s="44" t="s">
+      <c r="DR4" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="DS4" s="44" t="s">
+      <c r="DS4" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="DT4" s="44" t="s">
+      <c r="DT4" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="DU4" s="74" t="s">
+      <c r="DU4" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="DV4" s="74" t="s">
+      <c r="DV4" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="DW4" s="74" t="s">
+      <c r="DW4" s="77" t="s">
         <v>374</v>
       </c>
-      <c r="DX4" s="74" t="s">
+      <c r="DX4" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="DY4" s="74" t="s">
+      <c r="DY4" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="DZ4" s="44" t="s">
+      <c r="DZ4" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="EA4" s="44" t="s">
+      <c r="EA4" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="EB4" s="44" t="s">
+      <c r="EB4" s="47" t="s">
         <v>382</v>
       </c>
+      <c r="EC4" s="47" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="5" spans="2:132" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="69"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="51"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="51"/>
-      <c r="BT5" s="51"/>
-      <c r="BU5" s="53"/>
-      <c r="BV5" s="53"/>
-      <c r="BW5" s="53"/>
-      <c r="BX5" s="53"/>
-      <c r="BY5" s="53"/>
-      <c r="BZ5" s="53"/>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="45"/>
-      <c r="CF5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="45"/>
-      <c r="CJ5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="45"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="45"/>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="75"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="45"/>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="75"/>
-      <c r="DV5" s="75"/>
-      <c r="DW5" s="75"/>
-      <c r="DX5" s="75"/>
-      <c r="DY5" s="75"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
+    <row r="5" spans="2:133" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
+      <c r="BJ5" s="54"/>
+      <c r="BK5" s="54"/>
+      <c r="BL5" s="54"/>
+      <c r="BM5" s="54"/>
+      <c r="BN5" s="54"/>
+      <c r="BO5" s="54"/>
+      <c r="BP5" s="54"/>
+      <c r="BQ5" s="54"/>
+      <c r="BR5" s="54"/>
+      <c r="BS5" s="54"/>
+      <c r="BT5" s="54"/>
+      <c r="BU5" s="56"/>
+      <c r="BV5" s="56"/>
+      <c r="BW5" s="56"/>
+      <c r="BX5" s="56"/>
+      <c r="BY5" s="56"/>
+      <c r="BZ5" s="56"/>
+      <c r="CA5" s="54"/>
+      <c r="CB5" s="54"/>
+      <c r="CC5" s="54"/>
+      <c r="CD5" s="54"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="48"/>
+      <c r="CI5" s="48"/>
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="48"/>
+      <c r="CR5" s="48"/>
+      <c r="CS5" s="48"/>
+      <c r="CT5" s="48"/>
+      <c r="CU5" s="48"/>
+      <c r="CV5" s="48"/>
+      <c r="CW5" s="48"/>
+      <c r="CX5" s="48"/>
+      <c r="CY5" s="48"/>
+      <c r="CZ5" s="48"/>
+      <c r="DA5" s="48"/>
+      <c r="DB5" s="48"/>
+      <c r="DC5" s="48"/>
+      <c r="DD5" s="48"/>
+      <c r="DE5" s="48"/>
+      <c r="DF5" s="48"/>
+      <c r="DG5" s="48"/>
+      <c r="DH5" s="48"/>
+      <c r="DI5" s="48"/>
+      <c r="DJ5" s="48"/>
+      <c r="DK5" s="48"/>
+      <c r="DL5" s="48"/>
+      <c r="DM5" s="78"/>
+      <c r="DN5" s="48"/>
+      <c r="DO5" s="48"/>
+      <c r="DP5" s="48"/>
+      <c r="DQ5" s="48"/>
+      <c r="DR5" s="48"/>
+      <c r="DS5" s="48"/>
+      <c r="DT5" s="48"/>
+      <c r="DU5" s="78"/>
+      <c r="DV5" s="78"/>
+      <c r="DW5" s="78"/>
+      <c r="DX5" s="78"/>
+      <c r="DY5" s="78"/>
+      <c r="DZ5" s="48"/>
+      <c r="EA5" s="48"/>
+      <c r="EB5" s="48"/>
+      <c r="EC5" s="48"/>
     </row>
-    <row r="6" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -32460,7 +32676,7 @@
       <c r="AB6" s="26">
         <v>22</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AC6" s="45">
         <v>18</v>
       </c>
       <c r="AD6" s="26">
@@ -32772,8 +32988,11 @@
       <c r="EB6" s="28">
         <v>51</v>
       </c>
+      <c r="EC6" s="28">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -32855,7 +33074,7 @@
       <c r="AB7" s="26">
         <v>5</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="45">
         <v>1</v>
       </c>
       <c r="AD7" s="26">
@@ -33167,8 +33386,11 @@
       <c r="EB7" s="15">
         <v>0</v>
       </c>
+      <c r="EC7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -33250,7 +33472,7 @@
       <c r="AB8" s="26">
         <v>0</v>
       </c>
-      <c r="AC8" s="26">
+      <c r="AC8" s="45">
         <v>3</v>
       </c>
       <c r="AD8" s="26">
@@ -33562,8 +33784,11 @@
       <c r="EB8" s="28">
         <v>5</v>
       </c>
+      <c r="EC8" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -33645,7 +33870,7 @@
       <c r="AB9" s="26">
         <v>29</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC9" s="45">
         <v>23</v>
       </c>
       <c r="AD9" s="26">
@@ -33957,8 +34182,11 @@
       <c r="EB9" s="15">
         <v>45</v>
       </c>
+      <c r="EC9" s="15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="10" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -34040,7 +34268,7 @@
       <c r="AB10" s="26">
         <v>0</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="45">
         <v>0</v>
       </c>
       <c r="AD10" s="26">
@@ -34352,8 +34580,11 @@
       <c r="EB10" s="15">
         <v>0</v>
       </c>
+      <c r="EC10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -34435,7 +34666,7 @@
       <c r="AB11" s="26">
         <v>3</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AC11" s="45">
         <v>3</v>
       </c>
       <c r="AD11" s="26">
@@ -34747,8 +34978,11 @@
       <c r="EB11" s="15">
         <v>5</v>
       </c>
+      <c r="EC11" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -34830,7 +35064,7 @@
       <c r="AB12" s="26">
         <v>2</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AC12" s="45">
         <v>0</v>
       </c>
       <c r="AD12" s="26">
@@ -35142,8 +35376,11 @@
       <c r="EB12" s="15">
         <v>3</v>
       </c>
+      <c r="EC12" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -35225,7 +35462,7 @@
       <c r="AB13" s="26">
         <v>7</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AC13" s="45">
         <v>6</v>
       </c>
       <c r="AD13" s="26">
@@ -35537,8 +35774,11 @@
       <c r="EB13" s="15">
         <v>18</v>
       </c>
+      <c r="EC13" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -35620,7 +35860,7 @@
       <c r="AB14" s="26">
         <v>5</v>
       </c>
-      <c r="AC14" s="26">
+      <c r="AC14" s="45">
         <v>2</v>
       </c>
       <c r="AD14" s="26">
@@ -35932,8 +36172,11 @@
       <c r="EB14" s="15">
         <v>13</v>
       </c>
+      <c r="EC14" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -36015,7 +36258,7 @@
       <c r="AB15" s="26">
         <v>0</v>
       </c>
-      <c r="AC15" s="26">
+      <c r="AC15" s="45">
         <v>0</v>
       </c>
       <c r="AD15" s="26">
@@ -36327,8 +36570,11 @@
       <c r="EB15" s="15">
         <v>0</v>
       </c>
+      <c r="EC15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -36410,7 +36656,7 @@
       <c r="AB16" s="26">
         <v>29</v>
       </c>
-      <c r="AC16" s="26">
+      <c r="AC16" s="45">
         <v>30</v>
       </c>
       <c r="AD16" s="26">
@@ -36722,8 +36968,11 @@
       <c r="EB16" s="28">
         <v>71</v>
       </c>
+      <c r="EC16" s="28">
+        <v>55</v>
+      </c>
     </row>
-    <row r="17" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -36805,7 +37054,7 @@
       <c r="AB17" s="26">
         <v>71</v>
       </c>
-      <c r="AC17" s="26">
+      <c r="AC17" s="45">
         <v>94</v>
       </c>
       <c r="AD17" s="26">
@@ -37117,8 +37366,11 @@
       <c r="EB17" s="15">
         <v>95</v>
       </c>
+      <c r="EC17" s="15">
+        <v>89</v>
+      </c>
     </row>
-    <row r="18" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -37200,7 +37452,7 @@
       <c r="AB18" s="26">
         <v>430</v>
       </c>
-      <c r="AC18" s="26">
+      <c r="AC18" s="45">
         <v>396</v>
       </c>
       <c r="AD18" s="26">
@@ -37512,9 +37764,12 @@
       <c r="EB18" s="34">
         <v>908</v>
       </c>
+      <c r="EC18" s="34">
+        <v>900</v>
+      </c>
     </row>
-    <row r="19" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="56" t="s">
+    <row r="19" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="61" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -37595,7 +37850,7 @@
       <c r="AB19" s="26">
         <v>10</v>
       </c>
-      <c r="AC19" s="26">
+      <c r="AC19" s="45">
         <v>17</v>
       </c>
       <c r="AD19" s="26">
@@ -37907,9 +38162,12 @@
       <c r="EB19" s="15">
         <v>42</v>
       </c>
+      <c r="EC19" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="56"/>
+    <row r="20" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="61"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -37988,7 +38246,7 @@
       <c r="AB20" s="26">
         <v>22</v>
       </c>
-      <c r="AC20" s="26">
+      <c r="AC20" s="45">
         <v>29</v>
       </c>
       <c r="AD20" s="26">
@@ -38300,9 +38558,12 @@
       <c r="EB20" s="28">
         <v>112</v>
       </c>
+      <c r="EC20" s="28">
+        <v>90</v>
+      </c>
     </row>
-    <row r="21" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="56"/>
+    <row r="21" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="61"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -38381,7 +38642,7 @@
       <c r="AB21" s="26">
         <v>12</v>
       </c>
-      <c r="AC21" s="26">
+      <c r="AC21" s="45">
         <v>20</v>
       </c>
       <c r="AD21" s="26">
@@ -38693,8 +38954,11 @@
       <c r="EB21" s="15">
         <v>25</v>
       </c>
+      <c r="EC21" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -38776,7 +39040,7 @@
       <c r="AB22" s="26">
         <v>28</v>
       </c>
-      <c r="AC22" s="26">
+      <c r="AC22" s="45">
         <v>29</v>
       </c>
       <c r="AD22" s="26">
@@ -39088,8 +39352,11 @@
       <c r="EB22" s="15">
         <v>15</v>
       </c>
+      <c r="EC22" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -39171,7 +39438,7 @@
       <c r="AB23" s="26">
         <v>0</v>
       </c>
-      <c r="AC23" s="26">
+      <c r="AC23" s="45">
         <v>0</v>
       </c>
       <c r="AD23" s="26">
@@ -39483,8 +39750,11 @@
       <c r="EB23" s="15">
         <v>1</v>
       </c>
+      <c r="EC23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -39566,7 +39836,7 @@
       <c r="AB24" s="26">
         <v>2</v>
       </c>
-      <c r="AC24" s="26">
+      <c r="AC24" s="45">
         <v>1</v>
       </c>
       <c r="AD24" s="26">
@@ -39878,8 +40148,11 @@
       <c r="EB24" s="15">
         <v>6</v>
       </c>
+      <c r="EC24" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -39961,7 +40234,7 @@
       <c r="AB25" s="26">
         <v>0</v>
       </c>
-      <c r="AC25" s="26">
+      <c r="AC25" s="45">
         <v>0</v>
       </c>
       <c r="AD25" s="26">
@@ -40273,8 +40546,11 @@
       <c r="EB25" s="15">
         <v>0</v>
       </c>
+      <c r="EC25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -40356,7 +40632,7 @@
       <c r="AB26" s="26">
         <v>6</v>
       </c>
-      <c r="AC26" s="26">
+      <c r="AC26" s="45">
         <v>9</v>
       </c>
       <c r="AD26" s="26">
@@ -40668,8 +40944,11 @@
       <c r="EB26" s="15">
         <v>11</v>
       </c>
+      <c r="EC26" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -40751,7 +41030,7 @@
       <c r="AB27" s="26">
         <v>0</v>
       </c>
-      <c r="AC27" s="26">
+      <c r="AC27" s="45">
         <v>0</v>
       </c>
       <c r="AD27" s="26">
@@ -41063,8 +41342,11 @@
       <c r="EB27" s="15">
         <v>0</v>
       </c>
+      <c r="EC27" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -41146,7 +41428,7 @@
       <c r="AB28" s="26">
         <v>0</v>
       </c>
-      <c r="AC28" s="26">
+      <c r="AC28" s="45">
         <v>0</v>
       </c>
       <c r="AD28" s="26">
@@ -41458,9 +41740,12 @@
       <c r="EB28" s="15">
         <v>0</v>
       </c>
+      <c r="EC28" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -41541,7 +41826,7 @@
       <c r="AB29" s="26">
         <v>3</v>
       </c>
-      <c r="AC29" s="26">
+      <c r="AC29" s="45">
         <v>2</v>
       </c>
       <c r="AD29" s="26">
@@ -41853,9 +42138,12 @@
       <c r="EB29" s="15">
         <v>3</v>
       </c>
+      <c r="EC29" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+    <row r="30" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="62"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -41934,7 +42222,7 @@
       <c r="AB30" s="26">
         <v>3</v>
       </c>
-      <c r="AC30" s="26">
+      <c r="AC30" s="45">
         <v>1</v>
       </c>
       <c r="AD30" s="26">
@@ -42246,8 +42534,11 @@
       <c r="EB30" s="15">
         <v>3</v>
       </c>
+      <c r="EC30" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -42329,7 +42620,7 @@
       <c r="AB31" s="26">
         <v>5</v>
       </c>
-      <c r="AC31" s="26">
+      <c r="AC31" s="45">
         <v>10</v>
       </c>
       <c r="AD31" s="26">
@@ -42641,8 +42932,11 @@
       <c r="EB31" s="15">
         <v>23</v>
       </c>
+      <c r="EC31" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="32" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -42724,7 +43018,7 @@
       <c r="AB32" s="26">
         <v>0</v>
       </c>
-      <c r="AC32" s="26">
+      <c r="AC32" s="45">
         <v>0</v>
       </c>
       <c r="AD32" s="26">
@@ -43036,8 +43330,11 @@
       <c r="EB32" s="15">
         <v>0</v>
       </c>
+      <c r="EC32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -43119,7 +43416,7 @@
       <c r="AB33" s="26">
         <v>1</v>
       </c>
-      <c r="AC33" s="26">
+      <c r="AC33" s="45">
         <v>0</v>
       </c>
       <c r="AD33" s="26">
@@ -43431,8 +43728,11 @@
       <c r="EB33" s="15">
         <v>0</v>
       </c>
+      <c r="EC33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -43514,7 +43814,7 @@
       <c r="AB34" s="26">
         <v>14</v>
       </c>
-      <c r="AC34" s="26">
+      <c r="AC34" s="45">
         <v>15</v>
       </c>
       <c r="AD34" s="26">
@@ -43826,9 +44126,12 @@
       <c r="EB34" s="15">
         <v>14</v>
       </c>
+      <c r="EC34" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="35" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="56" t="s">
+    <row r="35" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="61" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -43909,7 +44212,7 @@
       <c r="AB35" s="26">
         <v>122</v>
       </c>
-      <c r="AC35" s="26">
+      <c r="AC35" s="45">
         <v>108</v>
       </c>
       <c r="AD35" s="26">
@@ -44221,9 +44524,12 @@
       <c r="EB35" s="15">
         <v>251</v>
       </c>
+      <c r="EC35" s="15">
+        <v>230</v>
+      </c>
     </row>
-    <row r="36" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="56"/>
+    <row r="36" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="61"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -44302,7 +44608,7 @@
       <c r="AB36" s="26">
         <v>10</v>
       </c>
-      <c r="AC36" s="26">
+      <c r="AC36" s="45">
         <v>13</v>
       </c>
       <c r="AD36" s="26">
@@ -44614,8 +44920,11 @@
       <c r="EB36" s="28">
         <v>19</v>
       </c>
+      <c r="EC36" s="28">
+        <v>15</v>
+      </c>
     </row>
-    <row r="37" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -44697,7 +45006,7 @@
       <c r="AB37" s="26">
         <v>9</v>
       </c>
-      <c r="AC37" s="26">
+      <c r="AC37" s="45">
         <v>11</v>
       </c>
       <c r="AD37" s="26">
@@ -45009,8 +45318,11 @@
       <c r="EB37" s="15">
         <v>30</v>
       </c>
+      <c r="EC37" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="38" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -45092,7 +45404,7 @@
       <c r="AB38" s="26">
         <v>3</v>
       </c>
-      <c r="AC38" s="26">
+      <c r="AC38" s="45">
         <v>4</v>
       </c>
       <c r="AD38" s="26">
@@ -45404,8 +45716,11 @@
       <c r="EB38" s="15">
         <v>2</v>
       </c>
+      <c r="EC38" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -45487,7 +45802,7 @@
       <c r="AB39" s="26">
         <v>4</v>
       </c>
-      <c r="AC39" s="26">
+      <c r="AC39" s="45">
         <v>3</v>
       </c>
       <c r="AD39" s="26">
@@ -45799,8 +46114,11 @@
       <c r="EB39" s="15">
         <v>6</v>
       </c>
+      <c r="EC39" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -45882,7 +46200,7 @@
       <c r="AB40" s="26">
         <v>1</v>
       </c>
-      <c r="AC40" s="26">
+      <c r="AC40" s="45">
         <v>0</v>
       </c>
       <c r="AD40" s="26">
@@ -46194,8 +46512,11 @@
       <c r="EB40" s="15">
         <v>0</v>
       </c>
+      <c r="EC40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -46277,7 +46598,7 @@
       <c r="AB41" s="26">
         <v>0</v>
       </c>
-      <c r="AC41" s="26">
+      <c r="AC41" s="45">
         <v>0</v>
       </c>
       <c r="AD41" s="26">
@@ -46589,8 +46910,11 @@
       <c r="EB41" s="15">
         <v>0</v>
       </c>
+      <c r="EC41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -46672,7 +46996,7 @@
       <c r="AB42" s="26">
         <v>2</v>
       </c>
-      <c r="AC42" s="26">
+      <c r="AC42" s="45">
         <v>4</v>
       </c>
       <c r="AD42" s="26">
@@ -46984,8 +47308,11 @@
       <c r="EB42" s="15">
         <v>2</v>
       </c>
+      <c r="EC42" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -47067,7 +47394,7 @@
       <c r="AB43" s="26">
         <v>40</v>
       </c>
-      <c r="AC43" s="26">
+      <c r="AC43" s="45">
         <v>30</v>
       </c>
       <c r="AD43" s="26">
@@ -47379,8 +47706,11 @@
       <c r="EB43" s="28">
         <v>18</v>
       </c>
+      <c r="EC43" s="28">
+        <v>34</v>
+      </c>
     </row>
-    <row r="44" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -47462,7 +47792,7 @@
       <c r="AB44" s="26">
         <v>1</v>
       </c>
-      <c r="AC44" s="26">
+      <c r="AC44" s="45">
         <v>3</v>
       </c>
       <c r="AD44" s="26">
@@ -47774,8 +48104,11 @@
       <c r="EB44" s="15">
         <v>2</v>
       </c>
+      <c r="EC44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -47857,7 +48190,7 @@
       <c r="AB45" s="26">
         <v>4</v>
       </c>
-      <c r="AC45" s="26">
+      <c r="AC45" s="45">
         <v>1</v>
       </c>
       <c r="AD45" s="26">
@@ -48169,8 +48502,11 @@
       <c r="EB45" s="15">
         <v>13</v>
       </c>
+      <c r="EC45" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="46" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -48252,7 +48588,7 @@
       <c r="AB46" s="26">
         <v>7</v>
       </c>
-      <c r="AC46" s="26">
+      <c r="AC46" s="45">
         <v>5</v>
       </c>
       <c r="AD46" s="26">
@@ -48564,8 +48900,11 @@
       <c r="EB46" s="15">
         <v>2</v>
       </c>
+      <c r="EC46" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="47" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -48647,7 +48986,7 @@
       <c r="AB47" s="26">
         <v>1</v>
       </c>
-      <c r="AC47" s="26">
+      <c r="AC47" s="45">
         <v>1</v>
       </c>
       <c r="AD47" s="26">
@@ -48959,8 +49298,11 @@
       <c r="EB47" s="15">
         <v>1</v>
       </c>
+      <c r="EC47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -49042,7 +49384,7 @@
       <c r="AB48" s="26">
         <v>7</v>
       </c>
-      <c r="AC48" s="26">
+      <c r="AC48" s="45">
         <v>4</v>
       </c>
       <c r="AD48" s="26">
@@ -49354,9 +49696,12 @@
       <c r="EB48" s="15">
         <v>4</v>
       </c>
+      <c r="EC48" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="56" t="s">
+    <row r="49" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="61" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -49437,7 +49782,7 @@
       <c r="AB49" s="26">
         <v>9</v>
       </c>
-      <c r="AC49" s="26">
+      <c r="AC49" s="45">
         <v>5</v>
       </c>
       <c r="AD49" s="26">
@@ -49749,9 +50094,12 @@
       <c r="EB49" s="15">
         <v>20</v>
       </c>
+      <c r="EC49" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="50" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="56"/>
+    <row r="50" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="61"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -49830,7 +50178,7 @@
       <c r="AB50" s="26">
         <v>0</v>
       </c>
-      <c r="AC50" s="26">
+      <c r="AC50" s="45">
         <v>1</v>
       </c>
       <c r="AD50" s="26">
@@ -50142,8 +50490,11 @@
       <c r="EB50" s="15">
         <v>9</v>
       </c>
+      <c r="EC50" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -50225,7 +50576,7 @@
       <c r="AB51" s="26">
         <v>1</v>
       </c>
-      <c r="AC51" s="26">
+      <c r="AC51" s="45">
         <v>4</v>
       </c>
       <c r="AD51" s="26">
@@ -50537,8 +50888,11 @@
       <c r="EB51" s="15">
         <v>1</v>
       </c>
+      <c r="EC51" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -50620,7 +50974,7 @@
       <c r="AB52" s="26">
         <v>5</v>
       </c>
-      <c r="AC52" s="26">
+      <c r="AC52" s="45">
         <v>6</v>
       </c>
       <c r="AD52" s="26">
@@ -50932,8 +51286,11 @@
       <c r="EB52" s="15">
         <v>5</v>
       </c>
+      <c r="EC52" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -51015,7 +51372,7 @@
       <c r="AB53" s="26">
         <v>14</v>
       </c>
-      <c r="AC53" s="26">
+      <c r="AC53" s="45">
         <v>6</v>
       </c>
       <c r="AD53" s="26">
@@ -51327,8 +51684,11 @@
       <c r="EB53" s="15">
         <v>16</v>
       </c>
+      <c r="EC53" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="54" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -51410,7 +51770,7 @@
       <c r="AB54" s="26">
         <v>5</v>
       </c>
-      <c r="AC54" s="26">
+      <c r="AC54" s="45">
         <v>4</v>
       </c>
       <c r="AD54" s="26">
@@ -51722,8 +52082,11 @@
       <c r="EB54" s="15">
         <v>10</v>
       </c>
+      <c r="EC54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -51805,7 +52168,7 @@
       <c r="AB55" s="26">
         <v>8</v>
       </c>
-      <c r="AC55" s="26">
+      <c r="AC55" s="45">
         <v>10</v>
       </c>
       <c r="AD55" s="26">
@@ -52117,8 +52480,11 @@
       <c r="EB55" s="15">
         <v>15</v>
       </c>
+      <c r="EC55" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -52200,7 +52566,7 @@
       <c r="AB56" s="26">
         <v>0</v>
       </c>
-      <c r="AC56" s="26">
+      <c r="AC56" s="45">
         <v>2</v>
       </c>
       <c r="AD56" s="26">
@@ -52512,8 +52878,11 @@
       <c r="EB56" s="15">
         <v>2</v>
       </c>
+      <c r="EC56" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -52595,7 +52964,7 @@
       <c r="AB57" s="26">
         <v>1</v>
       </c>
-      <c r="AC57" s="26">
+      <c r="AC57" s="45">
         <v>1</v>
       </c>
       <c r="AD57" s="26">
@@ -52907,8 +53276,11 @@
       <c r="EB57" s="15">
         <v>1</v>
       </c>
+      <c r="EC57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -53013,7 +53385,7 @@
         <f t="shared" si="0"/>
         <v>963</v>
       </c>
-      <c r="AC58" s="27">
+      <c r="AC58" s="46">
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
@@ -53377,7 +53749,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:EB58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:EC58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -53428,11 +53800,16 @@
         <f t="shared" si="8"/>
         <v>1898</v>
       </c>
+      <c r="EC58" s="14">
+        <f t="shared" si="8"/>
+        <v>1778</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="DD2:EB2"/>
-    <mergeCell ref="DD3:EB3"/>
+  <mergeCells count="146">
+    <mergeCell ref="DD2:EC2"/>
+    <mergeCell ref="DD3:EC3"/>
+    <mergeCell ref="EC4:EC5"/>
     <mergeCell ref="EB4:EB5"/>
     <mergeCell ref="EA4:EA5"/>
     <mergeCell ref="AH4:AH5"/>
@@ -53463,15 +53840,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS4:AS5"/>
@@ -53487,7 +53855,6 @@
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
@@ -53496,6 +53863,15 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="B2:C3"/>
@@ -53519,6 +53895,7 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="CQ4:CQ5"/>
@@ -53610,7 +53987,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:EB57</xm:sqref>
+          <xm:sqref>DP6:EC57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -53620,13 +53997,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB61"/>
+  <dimension ref="A1:CC61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BN6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BO45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CB60" sqref="CB60"/>
+      <selection pane="bottomRight" activeCell="CC63" sqref="CC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -53639,11 +54016,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="80" width="10.875" style="1" customWidth="1"/>
-    <col min="81" max="16384" width="8.625" style="1"/>
+    <col min="54" max="81" width="10.875" style="1" customWidth="1"/>
+    <col min="82" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:81" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -53698,503 +54075,510 @@
       <c r="BY1" s="19"/>
       <c r="BZ1" s="19"/>
       <c r="CA1" s="19"/>
-      <c r="CB1" s="19" t="s">
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:80" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="1:81" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="70" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
     </row>
-    <row r="3" spans="1:80" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="77" t="s">
+    <row r="3" spans="1:81" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="61" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61" t="s">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="61"/>
-      <c r="BY3" s="61"/>
-      <c r="BZ3" s="61"/>
-      <c r="CA3" s="61"/>
-      <c r="CB3" s="61"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="72"/>
+      <c r="CB3" s="72"/>
+      <c r="CC3" s="72"/>
     </row>
-    <row r="4" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:81" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="52" t="s">
+      <c r="AD4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AE4" s="50" t="s">
+      <c r="AE4" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="AF4" s="50" t="s">
+      <c r="AF4" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="AG4" s="50" t="s">
+      <c r="AG4" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="AH4" s="50" t="s">
+      <c r="AH4" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="AI4" s="50" t="s">
+      <c r="AI4" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="AK4" s="50" t="s">
+      <c r="AK4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="50" t="s">
+      <c r="AL4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="AO4" s="50" t="s">
+      <c r="AO4" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="AP4" s="50" t="s">
+      <c r="AP4" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="AQ4" s="50" t="s">
+      <c r="AQ4" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="AR4" s="50" t="s">
+      <c r="AR4" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="AS4" s="50" t="s">
+      <c r="AS4" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="AT4" s="50" t="s">
+      <c r="AT4" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="AU4" s="50" t="s">
+      <c r="AU4" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="AV4" s="50" t="s">
+      <c r="AV4" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="AW4" s="50" t="s">
+      <c r="AW4" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="AX4" s="50" t="s">
+      <c r="AX4" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="AY4" s="50" t="s">
+      <c r="AY4" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="AZ4" s="50" t="s">
+      <c r="AZ4" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="BA4" s="50" t="s">
+      <c r="BA4" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="BB4" s="50" t="s">
+      <c r="BB4" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="BC4" s="50" t="s">
+      <c r="BC4" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="BD4" s="44" t="s">
+      <c r="BD4" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" s="44" t="s">
+      <c r="BE4" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="44" t="s">
+      <c r="BF4" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="BG4" s="44" t="s">
+      <c r="BG4" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="44" t="s">
+      <c r="BH4" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="44" t="s">
+      <c r="BI4" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="44" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="BK4" s="44" t="s">
+      <c r="BK4" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="BL4" s="44" t="s">
+      <c r="BL4" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="BM4" s="44" t="s">
+      <c r="BM4" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="BN4" s="44" t="s">
+      <c r="BN4" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="44" t="s">
+      <c r="BO4" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="BP4" s="44" t="s">
+      <c r="BP4" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="44" t="s">
+      <c r="BQ4" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="44" t="s">
+      <c r="BR4" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="BS4" s="44" t="s">
+      <c r="BS4" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="BT4" s="44" t="s">
+      <c r="BT4" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="BU4" s="44" t="s">
+      <c r="BU4" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="BV4" s="44" t="s">
+      <c r="BV4" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="BW4" s="44" t="s">
+      <c r="BW4" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="BX4" s="44" t="s">
+      <c r="BX4" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="BY4" s="44" t="s">
+      <c r="BY4" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="BZ4" s="44" t="s">
+      <c r="BZ4" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="CA4" s="44" t="s">
+      <c r="CA4" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="44" t="s">
+      <c r="CB4" s="47" t="s">
         <v>383</v>
       </c>
+      <c r="CC4" s="47" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="69"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="45"/>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
+    <row r="5" spans="1:81" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="47"/>
     </row>
-    <row r="6" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -54433,8 +54817,11 @@
       <c r="CB6" s="28">
         <v>37</v>
       </c>
+      <c r="CC6" s="28">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -54672,8 +55059,11 @@
       <c r="CB7" s="15">
         <v>0</v>
       </c>
+      <c r="CC7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -54911,8 +55301,11 @@
       <c r="CB8" s="28">
         <v>0</v>
       </c>
+      <c r="CC8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -55151,8 +55544,11 @@
       <c r="CB9" s="15">
         <v>14</v>
       </c>
+      <c r="CC9" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -55390,8 +55786,11 @@
       <c r="CB10" s="15">
         <v>1</v>
       </c>
+      <c r="CC10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -55629,8 +56028,11 @@
       <c r="CB11" s="15">
         <v>6</v>
       </c>
+      <c r="CC11" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -55868,8 +56270,11 @@
       <c r="CB12" s="15">
         <v>1</v>
       </c>
+      <c r="CC12" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -56107,8 +56512,11 @@
       <c r="CB13" s="15">
         <v>17</v>
       </c>
+      <c r="CC13" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="14" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -56346,8 +56754,11 @@
       <c r="CB14" s="15">
         <v>5</v>
       </c>
+      <c r="CC14" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -56585,8 +56996,11 @@
       <c r="CB15" s="15">
         <v>1</v>
       </c>
+      <c r="CC15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -56825,8 +57239,11 @@
       <c r="CB16" s="28">
         <v>8</v>
       </c>
+      <c r="CC16" s="28">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -57064,8 +57481,11 @@
       <c r="CB17" s="15">
         <v>63</v>
       </c>
+      <c r="CC17" s="15">
+        <v>63</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -57304,10 +57724,13 @@
       <c r="CB18" s="34">
         <v>347</v>
       </c>
+      <c r="CC18" s="34">
+        <v>348</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="88" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -57544,10 +57967,13 @@
       <c r="CB19" s="15">
         <v>37</v>
       </c>
+      <c r="CC19" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -57782,10 +58208,13 @@
       <c r="CB20" s="28">
         <v>104</v>
       </c>
+      <c r="CC20" s="28">
+        <v>68</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="84"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -58020,8 +58449,11 @@
       <c r="CB21" s="15">
         <v>18</v>
       </c>
+      <c r="CC21" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -58259,8 +58691,11 @@
       <c r="CB22" s="15">
         <v>1</v>
       </c>
+      <c r="CC22" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -58498,8 +58933,11 @@
       <c r="CB23" s="15">
         <v>1</v>
       </c>
+      <c r="CC23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -58737,8 +59175,11 @@
       <c r="CB24" s="15">
         <v>2</v>
       </c>
+      <c r="CC24" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -58976,8 +59417,11 @@
       <c r="CB25" s="15">
         <v>2</v>
       </c>
+      <c r="CC25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -59215,8 +59659,11 @@
       <c r="CB26" s="15">
         <v>6</v>
       </c>
+      <c r="CC26" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -59454,8 +59901,11 @@
       <c r="CB27" s="15">
         <v>0</v>
       </c>
+      <c r="CC27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -59693,9 +60143,12 @@
       <c r="CB28" s="15">
         <v>0</v>
       </c>
+      <c r="CC28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
+    <row r="29" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="91" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -59932,9 +60385,12 @@
       <c r="CB29" s="15">
         <v>2</v>
       </c>
+      <c r="CC29" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="86"/>
+    <row r="30" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="92"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -60169,8 +60625,11 @@
       <c r="CB30" s="15">
         <v>14</v>
       </c>
+      <c r="CC30" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -60409,8 +60868,11 @@
       <c r="CB31" s="15">
         <v>18</v>
       </c>
+      <c r="CC31" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -60648,8 +61110,11 @@
       <c r="CB32" s="15">
         <v>0</v>
       </c>
+      <c r="CC32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -60887,8 +61352,11 @@
       <c r="CB33" s="15">
         <v>0</v>
       </c>
+      <c r="CC33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -61127,10 +61595,13 @@
       <c r="CB34" s="15">
         <v>13</v>
       </c>
+      <c r="CC34" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="35" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="88" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -61367,9 +61838,12 @@
       <c r="CB35" s="15">
         <v>78</v>
       </c>
+      <c r="CC35" s="15">
+        <v>75</v>
+      </c>
     </row>
-    <row r="36" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="84"/>
+    <row r="36" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="90"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -61604,8 +62078,11 @@
       <c r="CB36" s="28">
         <v>21</v>
       </c>
+      <c r="CC36" s="28">
+        <v>18</v>
+      </c>
     </row>
-    <row r="37" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -61844,8 +62321,11 @@
       <c r="CB37" s="15">
         <v>27</v>
       </c>
+      <c r="CC37" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -62083,8 +62563,11 @@
       <c r="CB38" s="15">
         <v>4</v>
       </c>
+      <c r="CC38" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -62322,8 +62805,11 @@
       <c r="CB39" s="15">
         <v>2</v>
       </c>
+      <c r="CC39" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -62561,8 +63047,11 @@
       <c r="CB40" s="15">
         <v>0</v>
       </c>
+      <c r="CC40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -62800,8 +63289,11 @@
       <c r="CB41" s="15">
         <v>0</v>
       </c>
+      <c r="CC41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -63039,8 +63531,11 @@
       <c r="CB42" s="15">
         <v>6</v>
       </c>
+      <c r="CC42" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -63278,8 +63773,11 @@
       <c r="CB43" s="28">
         <v>39</v>
       </c>
+      <c r="CC43" s="28">
+        <v>33</v>
+      </c>
     </row>
-    <row r="44" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -63517,8 +64015,11 @@
       <c r="CB44" s="15">
         <v>0</v>
       </c>
+      <c r="CC44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -63756,8 +64257,11 @@
       <c r="CB45" s="15">
         <v>7</v>
       </c>
+      <c r="CC45" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -63995,8 +64499,11 @@
       <c r="CB46" s="15">
         <v>13</v>
       </c>
+      <c r="CC46" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="47" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -64234,8 +64741,11 @@
       <c r="CB47" s="15">
         <v>0</v>
       </c>
+      <c r="CC47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -64473,10 +64983,13 @@
       <c r="CB48" s="15">
         <v>7</v>
       </c>
+      <c r="CC48" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="49" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -64713,9 +65226,12 @@
       <c r="CB49" s="15">
         <v>10</v>
       </c>
+      <c r="CC49" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="50" spans="1:80" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="84"/>
+    <row r="50" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="90"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -64950,8 +65466,11 @@
       <c r="CB50" s="15">
         <v>9</v>
       </c>
+      <c r="CC50" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -65189,8 +65708,11 @@
       <c r="CB51" s="15">
         <v>0</v>
       </c>
+      <c r="CC51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -65428,8 +65950,11 @@
       <c r="CB52" s="15">
         <v>9</v>
       </c>
+      <c r="CC52" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -65667,8 +66192,11 @@
       <c r="CB53" s="15">
         <v>9</v>
       </c>
+      <c r="CC53" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="54" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -65906,8 +66434,11 @@
       <c r="CB54" s="15">
         <v>5</v>
       </c>
+      <c r="CC54" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -66145,8 +66676,11 @@
       <c r="CB55" s="15">
         <v>2</v>
       </c>
+      <c r="CC55" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="56" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -66384,8 +66918,11 @@
       <c r="CB56" s="15">
         <v>0</v>
       </c>
+      <c r="CC56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -66623,8 +67160,11 @@
       <c r="CB57" s="15">
         <v>1</v>
       </c>
+      <c r="CC57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -66894,7 +67434,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:CB58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CC58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -66937,8 +67477,12 @@
         <f t="shared" si="8"/>
         <v>967</v>
       </c>
+      <c r="CC58" s="14">
+        <f t="shared" si="8"/>
+        <v>847</v>
+      </c>
     </row>
-    <row r="59" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -66971,7 +67515,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -67004,7 +67548,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:80" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -67038,7 +67582,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="90">
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BD2:CC2"/>
+    <mergeCell ref="BD3:CC3"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BG4:BG5"/>
@@ -67049,23 +67596,23 @@
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BD2:CB2"/>
-    <mergeCell ref="BD3:CB3"/>
     <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -67082,20 +67629,6 @@
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -67109,13 +67642,26 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BK4:BK5"/>
@@ -67125,16 +67671,15 @@
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BL4:BL5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="80" max="66" man="1"/>
+    <brk id="81" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -67151,7 +67696,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CB57</xm:sqref>
+          <xm:sqref>BP6:CC57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -67161,13 +67706,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG61"/>
+  <dimension ref="A1:CH61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BY39" sqref="BY39"/>
+      <selection pane="bottomRight" activeCell="CC60" sqref="CC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -67178,11 +67723,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="85" width="10.875" style="1" customWidth="1"/>
-    <col min="86" max="16384" width="8.625" style="1"/>
+    <col min="34" max="86" width="10.875" style="1" customWidth="1"/>
+    <col min="87" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:86" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -67237,523 +67782,530 @@
       <c r="BY1" s="19"/>
       <c r="BZ1" s="19"/>
       <c r="CA1" s="19"/>
-      <c r="CB1" s="19" t="s">
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:85" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="1:86" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="70" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="20"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
       <c r="CD2" s="20"/>
       <c r="CE2" s="20"/>
       <c r="CF2" s="20"/>
       <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
     </row>
-    <row r="3" spans="1:85" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="77" t="s">
+    <row r="3" spans="1:86" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="61" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61" t="s">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="61"/>
-      <c r="BY3" s="61"/>
-      <c r="BZ3" s="61"/>
-      <c r="CA3" s="61"/>
-      <c r="CB3" s="61"/>
-      <c r="CC3" s="21"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="72"/>
+      <c r="CB3" s="72"/>
+      <c r="CC3" s="72"/>
       <c r="CD3" s="21"/>
       <c r="CE3" s="21"/>
       <c r="CF3" s="21"/>
       <c r="CG3" s="21"/>
+      <c r="CH3" s="21"/>
     </row>
-    <row r="4" spans="1:85" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:86" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="52" t="s">
+      <c r="AD4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AE4" s="50" t="s">
+      <c r="AE4" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="AF4" s="50" t="s">
+      <c r="AF4" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="AG4" s="50" t="s">
+      <c r="AG4" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="AH4" s="50" t="s">
+      <c r="AH4" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="AI4" s="50" t="s">
+      <c r="AI4" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="AK4" s="50" t="s">
+      <c r="AK4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="50" t="s">
+      <c r="AL4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="AO4" s="50" t="s">
+      <c r="AO4" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="AP4" s="50" t="s">
+      <c r="AP4" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="AQ4" s="50" t="s">
+      <c r="AQ4" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="AR4" s="50" t="s">
+      <c r="AR4" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="AS4" s="50" t="s">
+      <c r="AS4" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="AT4" s="50" t="s">
+      <c r="AT4" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="AU4" s="50" t="s">
+      <c r="AU4" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="AV4" s="50" t="s">
+      <c r="AV4" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="AW4" s="50" t="s">
+      <c r="AW4" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="AX4" s="50" t="s">
+      <c r="AX4" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="AY4" s="50" t="s">
+      <c r="AY4" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="AZ4" s="50" t="s">
+      <c r="AZ4" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="BA4" s="50" t="s">
+      <c r="BA4" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="BB4" s="50" t="s">
+      <c r="BB4" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="BC4" s="50" t="s">
+      <c r="BC4" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="BD4" s="44" t="s">
+      <c r="BD4" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" s="44" t="s">
+      <c r="BE4" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="44" t="s">
+      <c r="BF4" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="BG4" s="44" t="s">
+      <c r="BG4" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="44" t="s">
+      <c r="BH4" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="44" t="s">
+      <c r="BI4" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="44" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="BK4" s="44" t="s">
+      <c r="BK4" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="BL4" s="44" t="s">
+      <c r="BL4" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="BM4" s="44" t="s">
+      <c r="BM4" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="BN4" s="44" t="s">
+      <c r="BN4" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="44" t="s">
+      <c r="BO4" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="BP4" s="44" t="s">
+      <c r="BP4" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="44" t="s">
+      <c r="BQ4" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="44" t="s">
+      <c r="BR4" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="BS4" s="44" t="s">
+      <c r="BS4" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="BT4" s="44" t="s">
+      <c r="BT4" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="BU4" s="44" t="s">
+      <c r="BU4" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="BV4" s="44" t="s">
+      <c r="BV4" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="BW4" s="44" t="s">
+      <c r="BW4" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="BX4" s="44" t="s">
+      <c r="BX4" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="BY4" s="44" t="s">
+      <c r="BY4" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="BZ4" s="44" t="s">
+      <c r="BZ4" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="CA4" s="44" t="s">
+      <c r="CA4" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="44" t="s">
+      <c r="CB4" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="CC4" s="89"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="89"/>
+      <c r="CC4" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="94"/>
+      <c r="CF4" s="94"/>
+      <c r="CG4" s="94"/>
+      <c r="CH4" s="94"/>
     </row>
-    <row r="5" spans="1:85" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="69"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="44"/>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="89"/>
-      <c r="CD5" s="89"/>
-      <c r="CE5" s="89"/>
-      <c r="CF5" s="89"/>
-      <c r="CG5" s="89"/>
+    <row r="5" spans="1:86" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="47"/>
+      <c r="BT5" s="47"/>
+      <c r="BU5" s="47"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="47"/>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="47"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="47"/>
+      <c r="CD5" s="94"/>
+      <c r="CE5" s="94"/>
+      <c r="CF5" s="94"/>
+      <c r="CG5" s="94"/>
+      <c r="CH5" s="94"/>
     </row>
-    <row r="6" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -67992,13 +68544,16 @@
       <c r="CB6" s="28">
         <v>90</v>
       </c>
-      <c r="CC6" s="22"/>
+      <c r="CC6" s="28">
+        <v>123</v>
+      </c>
       <c r="CD6" s="22"/>
       <c r="CE6" s="22"/>
       <c r="CF6" s="22"/>
       <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
     </row>
-    <row r="7" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -68236,13 +68791,16 @@
       <c r="CB7" s="15">
         <v>0</v>
       </c>
-      <c r="CC7" s="23"/>
+      <c r="CC7" s="15">
+        <v>0</v>
+      </c>
       <c r="CD7" s="23"/>
       <c r="CE7" s="23"/>
       <c r="CF7" s="23"/>
       <c r="CG7" s="23"/>
+      <c r="CH7" s="23"/>
     </row>
-    <row r="8" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -68480,13 +69038,16 @@
       <c r="CB8" s="28">
         <v>15</v>
       </c>
-      <c r="CC8" s="23"/>
+      <c r="CC8" s="28">
+        <v>9</v>
+      </c>
       <c r="CD8" s="23"/>
       <c r="CE8" s="23"/>
       <c r="CF8" s="23"/>
       <c r="CG8" s="23"/>
+      <c r="CH8" s="23"/>
     </row>
-    <row r="9" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -68725,13 +69286,16 @@
       <c r="CB9" s="15">
         <v>82</v>
       </c>
-      <c r="CC9" s="23"/>
+      <c r="CC9" s="15">
+        <v>75</v>
+      </c>
       <c r="CD9" s="23"/>
       <c r="CE9" s="23"/>
       <c r="CF9" s="23"/>
       <c r="CG9" s="23"/>
+      <c r="CH9" s="23"/>
     </row>
-    <row r="10" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -68969,13 +69533,16 @@
       <c r="CB10" s="15">
         <v>0</v>
       </c>
-      <c r="CC10" s="23"/>
+      <c r="CC10" s="15">
+        <v>0</v>
+      </c>
       <c r="CD10" s="23"/>
       <c r="CE10" s="23"/>
       <c r="CF10" s="23"/>
       <c r="CG10" s="23"/>
+      <c r="CH10" s="23"/>
     </row>
-    <row r="11" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -69213,13 +69780,16 @@
       <c r="CB11" s="15">
         <v>9</v>
       </c>
-      <c r="CC11" s="23"/>
+      <c r="CC11" s="15">
+        <v>11</v>
+      </c>
       <c r="CD11" s="23"/>
       <c r="CE11" s="23"/>
       <c r="CF11" s="23"/>
       <c r="CG11" s="23"/>
+      <c r="CH11" s="23"/>
     </row>
-    <row r="12" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -69457,13 +70027,16 @@
       <c r="CB12" s="15">
         <v>6</v>
       </c>
-      <c r="CC12" s="23"/>
+      <c r="CC12" s="15">
+        <v>3</v>
+      </c>
       <c r="CD12" s="23"/>
       <c r="CE12" s="23"/>
       <c r="CF12" s="23"/>
       <c r="CG12" s="23"/>
+      <c r="CH12" s="23"/>
     </row>
-    <row r="13" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -69701,13 +70274,16 @@
       <c r="CB13" s="15">
         <v>10</v>
       </c>
-      <c r="CC13" s="22"/>
+      <c r="CC13" s="15">
+        <v>24</v>
+      </c>
       <c r="CD13" s="22"/>
       <c r="CE13" s="22"/>
       <c r="CF13" s="22"/>
       <c r="CG13" s="22"/>
+      <c r="CH13" s="22"/>
     </row>
-    <row r="14" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -69945,13 +70521,16 @@
       <c r="CB14" s="15">
         <v>14</v>
       </c>
-      <c r="CC14" s="23"/>
+      <c r="CC14" s="15">
+        <v>23</v>
+      </c>
       <c r="CD14" s="23"/>
       <c r="CE14" s="23"/>
       <c r="CF14" s="23"/>
       <c r="CG14" s="23"/>
+      <c r="CH14" s="23"/>
     </row>
-    <row r="15" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -70189,13 +70768,16 @@
       <c r="CB15" s="15">
         <v>0</v>
       </c>
-      <c r="CC15" s="23"/>
+      <c r="CC15" s="15">
+        <v>2</v>
+      </c>
       <c r="CD15" s="23"/>
       <c r="CE15" s="23"/>
       <c r="CF15" s="23"/>
       <c r="CG15" s="23"/>
+      <c r="CH15" s="23"/>
     </row>
-    <row r="16" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -70434,13 +71016,16 @@
       <c r="CB16" s="28">
         <v>123</v>
       </c>
-      <c r="CC16" s="22"/>
+      <c r="CC16" s="28">
+        <v>114</v>
+      </c>
       <c r="CD16" s="22"/>
       <c r="CE16" s="22"/>
       <c r="CF16" s="22"/>
       <c r="CG16" s="22"/>
+      <c r="CH16" s="22"/>
     </row>
-    <row r="17" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -70678,13 +71263,16 @@
       <c r="CB17" s="15">
         <v>86</v>
       </c>
-      <c r="CC17" s="22"/>
+      <c r="CC17" s="15">
+        <v>103</v>
+      </c>
       <c r="CD17" s="22"/>
       <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
       <c r="CG17" s="22"/>
+      <c r="CH17" s="22"/>
     </row>
-    <row r="18" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -70923,15 +71511,18 @@
       <c r="CB18" s="34">
         <v>1375</v>
       </c>
-      <c r="CC18" s="22"/>
+      <c r="CC18" s="34">
+        <v>1392</v>
+      </c>
       <c r="CD18" s="22"/>
       <c r="CE18" s="22"/>
       <c r="CF18" s="22"/>
       <c r="CG18" s="22"/>
+      <c r="CH18" s="22"/>
     </row>
-    <row r="19" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="88" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -71168,15 +71759,18 @@
       <c r="CB19" s="15">
         <v>28</v>
       </c>
-      <c r="CC19" s="22"/>
+      <c r="CC19" s="15">
+        <v>21</v>
+      </c>
       <c r="CD19" s="22"/>
       <c r="CE19" s="22"/>
       <c r="CF19" s="22"/>
       <c r="CG19" s="22"/>
+      <c r="CH19" s="22"/>
     </row>
-    <row r="20" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -71411,15 +72005,18 @@
       <c r="CB20" s="28">
         <v>81</v>
       </c>
-      <c r="CC20" s="22"/>
+      <c r="CC20" s="28">
+        <v>62</v>
+      </c>
       <c r="CD20" s="22"/>
       <c r="CE20" s="22"/>
       <c r="CF20" s="22"/>
       <c r="CG20" s="22"/>
+      <c r="CH20" s="22"/>
     </row>
-    <row r="21" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="84"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -71654,13 +72251,16 @@
       <c r="CB21" s="15">
         <v>26</v>
       </c>
-      <c r="CC21" s="22"/>
+      <c r="CC21" s="15">
+        <v>13</v>
+      </c>
       <c r="CD21" s="22"/>
       <c r="CE21" s="22"/>
       <c r="CF21" s="22"/>
       <c r="CG21" s="22"/>
+      <c r="CH21" s="22"/>
     </row>
-    <row r="22" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -71898,13 +72498,16 @@
       <c r="CB22" s="15">
         <v>3</v>
       </c>
-      <c r="CC22" s="23"/>
+      <c r="CC22" s="15">
+        <v>5</v>
+      </c>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23"/>
       <c r="CF22" s="23"/>
       <c r="CG22" s="23"/>
+      <c r="CH22" s="23"/>
     </row>
-    <row r="23" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -72142,13 +72745,16 @@
       <c r="CB23" s="15">
         <v>6</v>
       </c>
-      <c r="CC23" s="23"/>
+      <c r="CC23" s="15">
+        <v>2</v>
+      </c>
       <c r="CD23" s="23"/>
       <c r="CE23" s="23"/>
       <c r="CF23" s="23"/>
       <c r="CG23" s="23"/>
+      <c r="CH23" s="23"/>
     </row>
-    <row r="24" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -72386,13 +72992,16 @@
       <c r="CB24" s="15">
         <v>8</v>
       </c>
-      <c r="CC24" s="22"/>
+      <c r="CC24" s="15">
+        <v>8</v>
+      </c>
       <c r="CD24" s="22"/>
       <c r="CE24" s="22"/>
       <c r="CF24" s="22"/>
       <c r="CG24" s="22"/>
+      <c r="CH24" s="22"/>
     </row>
-    <row r="25" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -72630,13 +73239,16 @@
       <c r="CB25" s="15">
         <v>0</v>
       </c>
-      <c r="CC25" s="23"/>
+      <c r="CC25" s="15">
+        <v>0</v>
+      </c>
       <c r="CD25" s="23"/>
       <c r="CE25" s="23"/>
       <c r="CF25" s="23"/>
       <c r="CG25" s="23"/>
+      <c r="CH25" s="23"/>
     </row>
-    <row r="26" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -72874,13 +73486,16 @@
       <c r="CB26" s="15">
         <v>9</v>
       </c>
-      <c r="CC26" s="23"/>
+      <c r="CC26" s="15">
+        <v>7</v>
+      </c>
       <c r="CD26" s="23"/>
       <c r="CE26" s="23"/>
       <c r="CF26" s="23"/>
       <c r="CG26" s="23"/>
+      <c r="CH26" s="23"/>
     </row>
-    <row r="27" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -73118,13 +73733,16 @@
       <c r="CB27" s="15">
         <v>1</v>
       </c>
-      <c r="CC27" s="23"/>
+      <c r="CC27" s="15">
+        <v>0</v>
+      </c>
       <c r="CD27" s="23"/>
       <c r="CE27" s="23"/>
       <c r="CF27" s="23"/>
       <c r="CG27" s="23"/>
+      <c r="CH27" s="23"/>
     </row>
-    <row r="28" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -73362,14 +73980,17 @@
       <c r="CB28" s="15">
         <v>0</v>
       </c>
-      <c r="CC28" s="22"/>
+      <c r="CC28" s="15">
+        <v>0</v>
+      </c>
       <c r="CD28" s="22"/>
       <c r="CE28" s="22"/>
       <c r="CF28" s="22"/>
       <c r="CG28" s="22"/>
+      <c r="CH28" s="22"/>
     </row>
-    <row r="29" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
+    <row r="29" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="91" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -73606,14 +74227,17 @@
       <c r="CB29" s="15">
         <v>3</v>
       </c>
-      <c r="CC29" s="23"/>
+      <c r="CC29" s="15">
+        <v>0</v>
+      </c>
       <c r="CD29" s="23"/>
       <c r="CE29" s="23"/>
       <c r="CF29" s="23"/>
       <c r="CG29" s="23"/>
+      <c r="CH29" s="23"/>
     </row>
-    <row r="30" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="86"/>
+    <row r="30" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="92"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -73848,13 +74472,16 @@
       <c r="CB30" s="15">
         <v>18</v>
       </c>
-      <c r="CC30" s="23"/>
+      <c r="CC30" s="15">
+        <v>5</v>
+      </c>
       <c r="CD30" s="23"/>
       <c r="CE30" s="23"/>
       <c r="CF30" s="23"/>
       <c r="CG30" s="23"/>
+      <c r="CH30" s="23"/>
     </row>
-    <row r="31" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -74093,13 +74720,16 @@
       <c r="CB31" s="15">
         <v>14</v>
       </c>
-      <c r="CC31" s="22"/>
+      <c r="CC31" s="15">
+        <v>24</v>
+      </c>
       <c r="CD31" s="22"/>
       <c r="CE31" s="22"/>
       <c r="CF31" s="22"/>
       <c r="CG31" s="22"/>
+      <c r="CH31" s="22"/>
     </row>
-    <row r="32" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -74337,13 +74967,16 @@
       <c r="CB32" s="15">
         <v>0</v>
       </c>
-      <c r="CC32" s="23"/>
+      <c r="CC32" s="15">
+        <v>0</v>
+      </c>
       <c r="CD32" s="23"/>
       <c r="CE32" s="23"/>
       <c r="CF32" s="23"/>
       <c r="CG32" s="23"/>
+      <c r="CH32" s="23"/>
     </row>
-    <row r="33" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -74581,13 +75214,16 @@
       <c r="CB33" s="15">
         <v>0</v>
       </c>
-      <c r="CC33" s="23"/>
+      <c r="CC33" s="15">
+        <v>0</v>
+      </c>
       <c r="CD33" s="23"/>
       <c r="CE33" s="23"/>
       <c r="CF33" s="23"/>
       <c r="CG33" s="23"/>
+      <c r="CH33" s="23"/>
     </row>
-    <row r="34" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -74826,15 +75462,18 @@
       <c r="CB34" s="15">
         <v>39</v>
       </c>
-      <c r="CC34" s="22"/>
+      <c r="CC34" s="15">
+        <v>37</v>
+      </c>
       <c r="CD34" s="22"/>
       <c r="CE34" s="22"/>
       <c r="CF34" s="22"/>
       <c r="CG34" s="22"/>
+      <c r="CH34" s="22"/>
     </row>
-    <row r="35" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="88" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -75071,14 +75710,17 @@
       <c r="CB35" s="15">
         <v>263</v>
       </c>
-      <c r="CC35" s="22"/>
+      <c r="CC35" s="15">
+        <v>239</v>
+      </c>
       <c r="CD35" s="22"/>
       <c r="CE35" s="22"/>
       <c r="CF35" s="22"/>
       <c r="CG35" s="22"/>
+      <c r="CH35" s="22"/>
     </row>
-    <row r="36" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="84"/>
+    <row r="36" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="90"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -75313,13 +75955,16 @@
       <c r="CB36" s="28">
         <v>20</v>
       </c>
-      <c r="CC36" s="22"/>
+      <c r="CC36" s="28">
+        <v>18</v>
+      </c>
       <c r="CD36" s="22"/>
       <c r="CE36" s="22"/>
       <c r="CF36" s="22"/>
       <c r="CG36" s="22"/>
+      <c r="CH36" s="22"/>
     </row>
-    <row r="37" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -75558,13 +76203,16 @@
       <c r="CB37" s="15">
         <v>38</v>
       </c>
-      <c r="CC37" s="22"/>
+      <c r="CC37" s="15">
+        <v>40</v>
+      </c>
       <c r="CD37" s="22"/>
       <c r="CE37" s="22"/>
       <c r="CF37" s="22"/>
       <c r="CG37" s="22"/>
+      <c r="CH37" s="22"/>
     </row>
-    <row r="38" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -75802,13 +76450,16 @@
       <c r="CB38" s="15">
         <v>6</v>
       </c>
-      <c r="CC38" s="23"/>
+      <c r="CC38" s="15">
+        <v>4</v>
+      </c>
       <c r="CD38" s="23"/>
       <c r="CE38" s="23"/>
       <c r="CF38" s="23"/>
       <c r="CG38" s="23"/>
+      <c r="CH38" s="23"/>
     </row>
-    <row r="39" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -76046,13 +76697,16 @@
       <c r="CB39" s="15">
         <v>6</v>
       </c>
-      <c r="CC39" s="23"/>
+      <c r="CC39" s="15">
+        <v>3</v>
+      </c>
       <c r="CD39" s="23"/>
       <c r="CE39" s="23"/>
       <c r="CF39" s="23"/>
       <c r="CG39" s="23"/>
+      <c r="CH39" s="23"/>
     </row>
-    <row r="40" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -76290,13 +76944,16 @@
       <c r="CB40" s="15">
         <v>0</v>
       </c>
-      <c r="CC40" s="23"/>
+      <c r="CC40" s="15">
+        <v>0</v>
+      </c>
       <c r="CD40" s="23"/>
       <c r="CE40" s="23"/>
       <c r="CF40" s="23"/>
       <c r="CG40" s="23"/>
+      <c r="CH40" s="23"/>
     </row>
-    <row r="41" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -76534,13 +77191,16 @@
       <c r="CB41" s="15">
         <v>0</v>
       </c>
-      <c r="CC41" s="23"/>
+      <c r="CC41" s="15">
+        <v>0</v>
+      </c>
       <c r="CD41" s="23"/>
       <c r="CE41" s="23"/>
       <c r="CF41" s="23"/>
       <c r="CG41" s="23"/>
+      <c r="CH41" s="23"/>
     </row>
-    <row r="42" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -76778,13 +77438,16 @@
       <c r="CB42" s="15">
         <v>6</v>
       </c>
-      <c r="CC42" s="23"/>
+      <c r="CC42" s="15">
+        <v>3</v>
+      </c>
       <c r="CD42" s="23"/>
       <c r="CE42" s="23"/>
       <c r="CF42" s="23"/>
       <c r="CG42" s="23"/>
+      <c r="CH42" s="23"/>
     </row>
-    <row r="43" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -77022,13 +77685,16 @@
       <c r="CB43" s="28">
         <v>23</v>
       </c>
-      <c r="CC43" s="23"/>
+      <c r="CC43" s="28">
+        <v>21</v>
+      </c>
       <c r="CD43" s="23"/>
       <c r="CE43" s="23"/>
       <c r="CF43" s="23"/>
       <c r="CG43" s="23"/>
+      <c r="CH43" s="23"/>
     </row>
-    <row r="44" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -77266,13 +77932,16 @@
       <c r="CB44" s="15">
         <v>3</v>
       </c>
-      <c r="CC44" s="23"/>
+      <c r="CC44" s="15">
+        <v>4</v>
+      </c>
       <c r="CD44" s="23"/>
       <c r="CE44" s="23"/>
       <c r="CF44" s="23"/>
       <c r="CG44" s="23"/>
+      <c r="CH44" s="23"/>
     </row>
-    <row r="45" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -77510,13 +78179,16 @@
       <c r="CB45" s="15">
         <v>11</v>
       </c>
-      <c r="CC45" s="22"/>
+      <c r="CC45" s="15">
+        <v>13</v>
+      </c>
       <c r="CD45" s="22"/>
       <c r="CE45" s="22"/>
       <c r="CF45" s="22"/>
       <c r="CG45" s="22"/>
+      <c r="CH45" s="22"/>
     </row>
-    <row r="46" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -77754,13 +78426,16 @@
       <c r="CB46" s="15">
         <v>10</v>
       </c>
-      <c r="CC46" s="23"/>
+      <c r="CC46" s="15">
+        <v>13</v>
+      </c>
       <c r="CD46" s="23"/>
       <c r="CE46" s="23"/>
       <c r="CF46" s="23"/>
       <c r="CG46" s="23"/>
+      <c r="CH46" s="23"/>
     </row>
-    <row r="47" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -77998,13 +78673,16 @@
       <c r="CB47" s="15">
         <v>1</v>
       </c>
-      <c r="CC47" s="23"/>
+      <c r="CC47" s="15">
+        <v>1</v>
+      </c>
       <c r="CD47" s="23"/>
       <c r="CE47" s="23"/>
       <c r="CF47" s="23"/>
       <c r="CG47" s="23"/>
+      <c r="CH47" s="23"/>
     </row>
-    <row r="48" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -78242,15 +78920,18 @@
       <c r="CB48" s="15">
         <v>7</v>
       </c>
-      <c r="CC48" s="23"/>
+      <c r="CC48" s="15">
+        <v>3</v>
+      </c>
       <c r="CD48" s="23"/>
       <c r="CE48" s="23"/>
       <c r="CF48" s="23"/>
       <c r="CG48" s="23"/>
+      <c r="CH48" s="23"/>
     </row>
-    <row r="49" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -78487,14 +79168,17 @@
       <c r="CB49" s="15">
         <v>34</v>
       </c>
-      <c r="CC49" s="22"/>
+      <c r="CC49" s="15">
+        <v>38</v>
+      </c>
       <c r="CD49" s="22"/>
       <c r="CE49" s="22"/>
       <c r="CF49" s="22"/>
       <c r="CG49" s="22"/>
+      <c r="CH49" s="22"/>
     </row>
-    <row r="50" spans="1:85" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="84"/>
+    <row r="50" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="90"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -78729,13 +79413,16 @@
       <c r="CB50" s="15">
         <v>7</v>
       </c>
-      <c r="CC50" s="22"/>
+      <c r="CC50" s="15">
+        <v>5</v>
+      </c>
       <c r="CD50" s="22"/>
       <c r="CE50" s="22"/>
       <c r="CF50" s="22"/>
       <c r="CG50" s="22"/>
+      <c r="CH50" s="22"/>
     </row>
-    <row r="51" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -78973,13 +79660,16 @@
       <c r="CB51" s="15">
         <v>12</v>
       </c>
-      <c r="CC51" s="23"/>
+      <c r="CC51" s="15">
+        <v>13</v>
+      </c>
       <c r="CD51" s="23"/>
       <c r="CE51" s="23"/>
       <c r="CF51" s="23"/>
       <c r="CG51" s="23"/>
+      <c r="CH51" s="23"/>
     </row>
-    <row r="52" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -79217,13 +79907,16 @@
       <c r="CB52" s="15">
         <v>16</v>
       </c>
-      <c r="CC52" s="23"/>
+      <c r="CC52" s="15">
+        <v>10</v>
+      </c>
       <c r="CD52" s="23"/>
       <c r="CE52" s="23"/>
       <c r="CF52" s="23"/>
       <c r="CG52" s="23"/>
+      <c r="CH52" s="23"/>
     </row>
-    <row r="53" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -79461,13 +80154,16 @@
       <c r="CB53" s="15">
         <v>22</v>
       </c>
-      <c r="CC53" s="23"/>
+      <c r="CC53" s="15">
+        <v>34</v>
+      </c>
       <c r="CD53" s="23"/>
       <c r="CE53" s="23"/>
       <c r="CF53" s="23"/>
       <c r="CG53" s="23"/>
+      <c r="CH53" s="23"/>
     </row>
-    <row r="54" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -79705,13 +80401,16 @@
       <c r="CB54" s="15">
         <v>2</v>
       </c>
-      <c r="CC54" s="23"/>
+      <c r="CC54" s="15">
+        <v>4</v>
+      </c>
       <c r="CD54" s="23"/>
       <c r="CE54" s="23"/>
       <c r="CF54" s="23"/>
       <c r="CG54" s="23"/>
+      <c r="CH54" s="23"/>
     </row>
-    <row r="55" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -79949,13 +80648,16 @@
       <c r="CB55" s="15">
         <v>12</v>
       </c>
-      <c r="CC55" s="23"/>
+      <c r="CC55" s="15">
+        <v>22</v>
+      </c>
       <c r="CD55" s="23"/>
       <c r="CE55" s="23"/>
       <c r="CF55" s="23"/>
       <c r="CG55" s="23"/>
+      <c r="CH55" s="23"/>
     </row>
-    <row r="56" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -80193,13 +80895,16 @@
       <c r="CB56" s="15">
         <v>0</v>
       </c>
-      <c r="CC56" s="23"/>
+      <c r="CC56" s="15">
+        <v>0</v>
+      </c>
       <c r="CD56" s="23"/>
       <c r="CE56" s="23"/>
       <c r="CF56" s="23"/>
       <c r="CG56" s="23"/>
+      <c r="CH56" s="23"/>
     </row>
-    <row r="57" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -80437,13 +81142,16 @@
       <c r="CB57" s="15">
         <v>1</v>
       </c>
-      <c r="CC57" s="23"/>
+      <c r="CC57" s="15">
+        <v>2</v>
+      </c>
       <c r="CD57" s="23"/>
       <c r="CE57" s="23"/>
       <c r="CF57" s="23"/>
       <c r="CG57" s="23"/>
+      <c r="CH57" s="23"/>
     </row>
-    <row r="58" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -80713,7 +81421,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:CB58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CC58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -80756,13 +81464,17 @@
         <f t="shared" si="4"/>
         <v>2546</v>
       </c>
-      <c r="CC58" s="24"/>
+      <c r="CC58" s="14">
+        <f t="shared" si="4"/>
+        <v>2553</v>
+      </c>
       <c r="CD58" s="24"/>
       <c r="CE58" s="24"/>
       <c r="CF58" s="24"/>
       <c r="CG58" s="24"/>
+      <c r="CH58" s="24"/>
     </row>
-    <row r="59" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -80795,7 +81507,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -80828,7 +81540,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:85" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -80862,11 +81574,18 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="BD2:CB2"/>
-    <mergeCell ref="BD3:CB3"/>
+  <mergeCells count="95">
+    <mergeCell ref="BD2:CC2"/>
+    <mergeCell ref="BD3:CC3"/>
+    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -80896,13 +81615,13 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="T4:T5"/>
@@ -80919,25 +81638,24 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
@@ -80952,11 +81670,6 @@
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -80979,7 +81692,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CB57</xm:sqref>
+          <xm:sqref>BP6:CC57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB040927-4\ＪＯＢ040927-4\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB041004-1\ＪＯＢ041004-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CC$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CC$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EC$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EC$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CD$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CD$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$ED$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$ED$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'搬送困難事案（前年同期）'!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="390">
   <si>
     <t>都道府県</t>
   </si>
@@ -4325,6 +4325,27 @@
 【9月第4週】</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>9/26(月)～
+10/2(日)分
+【9月第5週
+ 10月第1週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/26(月)～
+10/2(日)分
+【9月第5週
+ 10月第1週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/27(月)～
+10/3(日)分
+【9月第5週
+10月第1週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -4509,7 +4530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4519,12 +4540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4694,7 +4709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4827,14 +4842,11 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4845,22 +4857,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4871,24 +4889,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4911,46 +4911,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4959,10 +4941,28 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4974,8 +4974,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -9128,13 +9128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC61"/>
+  <dimension ref="A1:ED61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DO6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DV39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EC4" sqref="EC4:EC5"/>
+      <selection pane="bottomRight" activeCell="ED4" sqref="ED4:ED5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9150,11 +9150,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="133" width="10.875" style="1" customWidth="1"/>
-    <col min="134" max="16384" width="8.625" style="1"/>
+    <col min="106" max="134" width="10.875" style="1" customWidth="1"/>
+    <col min="135" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:134" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9214,14 +9214,15 @@
       <c r="DZ1" s="19"/>
       <c r="EA1" s="19"/>
       <c r="EB1" s="19"/>
-      <c r="EC1" s="19" t="s">
+      <c r="EC1" s="19"/>
+      <c r="ED1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:133" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="51" t="s">
+    <row r="2" spans="1:134" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="73" t="s">
         <v>155</v>
       </c>
       <c r="E2" s="52"/>
@@ -9330,339 +9331,341 @@
       <c r="DB2" s="52"/>
       <c r="DC2" s="52"/>
       <c r="DD2" s="52"/>
-      <c r="DE2" s="73" t="s">
+      <c r="DE2" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="DF2" s="73"/>
-      <c r="DG2" s="73"/>
-      <c r="DH2" s="73"/>
-      <c r="DI2" s="73"/>
-      <c r="DJ2" s="73"/>
-      <c r="DK2" s="73"/>
-      <c r="DL2" s="73"/>
-      <c r="DM2" s="73"/>
-      <c r="DN2" s="73"/>
-      <c r="DO2" s="73"/>
-      <c r="DP2" s="73"/>
-      <c r="DQ2" s="73"/>
-      <c r="DR2" s="73"/>
-      <c r="DS2" s="73"/>
-      <c r="DT2" s="73"/>
-      <c r="DU2" s="73"/>
-      <c r="DV2" s="73"/>
-      <c r="DW2" s="73"/>
-      <c r="DX2" s="73"/>
-      <c r="DY2" s="73"/>
-      <c r="DZ2" s="73"/>
-      <c r="EA2" s="73"/>
-      <c r="EB2" s="73"/>
-      <c r="EC2" s="73"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
+      <c r="DM2" s="44"/>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
+      <c r="DX2" s="44"/>
+      <c r="DY2" s="44"/>
+      <c r="DZ2" s="44"/>
+      <c r="EA2" s="44"/>
+      <c r="EB2" s="44"/>
+      <c r="EC2" s="44"/>
+      <c r="ED2" s="44"/>
     </row>
-    <row r="3" spans="1:133" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="72" t="s">
+    <row r="3" spans="1:134" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="49" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50" t="s">
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="50"/>
-      <c r="BX3" s="50"/>
-      <c r="BY3" s="50"/>
-      <c r="BZ3" s="50"/>
-      <c r="CA3" s="50"/>
-      <c r="CB3" s="50"/>
-      <c r="CC3" s="50"/>
-      <c r="CD3" s="50"/>
-      <c r="CE3" s="50"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="50"/>
-      <c r="CJ3" s="50"/>
-      <c r="CK3" s="50"/>
-      <c r="CL3" s="50"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="50"/>
-      <c r="CQ3" s="76"/>
-      <c r="CR3" s="72" t="s">
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="53"/>
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="53"/>
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="53"/>
+      <c r="CB3" s="53"/>
+      <c r="CC3" s="53"/>
+      <c r="CD3" s="53"/>
+      <c r="CE3" s="53"/>
+      <c r="CF3" s="53"/>
+      <c r="CG3" s="53"/>
+      <c r="CH3" s="53"/>
+      <c r="CI3" s="53"/>
+      <c r="CJ3" s="53"/>
+      <c r="CK3" s="53"/>
+      <c r="CL3" s="53"/>
+      <c r="CM3" s="53"/>
+      <c r="CN3" s="53"/>
+      <c r="CO3" s="53"/>
+      <c r="CP3" s="53"/>
+      <c r="CQ3" s="54"/>
+      <c r="CR3" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="72"/>
-      <c r="DD3" s="49"/>
-      <c r="DE3" s="72" t="s">
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="45"/>
+      <c r="CU3" s="45"/>
+      <c r="CV3" s="45"/>
+      <c r="CW3" s="45"/>
+      <c r="CX3" s="45"/>
+      <c r="CY3" s="45"/>
+      <c r="CZ3" s="45"/>
+      <c r="DA3" s="45"/>
+      <c r="DB3" s="45"/>
+      <c r="DC3" s="45"/>
+      <c r="DD3" s="48"/>
+      <c r="DE3" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="DF3" s="72"/>
-      <c r="DG3" s="72"/>
-      <c r="DH3" s="72"/>
-      <c r="DI3" s="72"/>
-      <c r="DJ3" s="72"/>
-      <c r="DK3" s="72"/>
-      <c r="DL3" s="72"/>
-      <c r="DM3" s="72"/>
-      <c r="DN3" s="72"/>
-      <c r="DO3" s="72"/>
-      <c r="DP3" s="72"/>
-      <c r="DQ3" s="72"/>
-      <c r="DR3" s="72"/>
-      <c r="DS3" s="72"/>
-      <c r="DT3" s="72"/>
-      <c r="DU3" s="72"/>
-      <c r="DV3" s="72"/>
-      <c r="DW3" s="72"/>
-      <c r="DX3" s="72"/>
-      <c r="DY3" s="72"/>
-      <c r="DZ3" s="72"/>
-      <c r="EA3" s="72"/>
-      <c r="EB3" s="72"/>
-      <c r="EC3" s="72"/>
+      <c r="DF3" s="45"/>
+      <c r="DG3" s="45"/>
+      <c r="DH3" s="45"/>
+      <c r="DI3" s="45"/>
+      <c r="DJ3" s="45"/>
+      <c r="DK3" s="45"/>
+      <c r="DL3" s="45"/>
+      <c r="DM3" s="45"/>
+      <c r="DN3" s="45"/>
+      <c r="DO3" s="45"/>
+      <c r="DP3" s="45"/>
+      <c r="DQ3" s="45"/>
+      <c r="DR3" s="45"/>
+      <c r="DS3" s="45"/>
+      <c r="DT3" s="45"/>
+      <c r="DU3" s="45"/>
+      <c r="DV3" s="45"/>
+      <c r="DW3" s="45"/>
+      <c r="DX3" s="45"/>
+      <c r="DY3" s="45"/>
+      <c r="DZ3" s="45"/>
+      <c r="EA3" s="45"/>
+      <c r="EB3" s="45"/>
+      <c r="EC3" s="45"/>
+      <c r="ED3" s="45"/>
     </row>
-    <row r="4" spans="1:133" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="58" t="s">
+    <row r="4" spans="1:134" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="58" t="s">
+      <c r="S4" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="69" t="s">
+      <c r="X4" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="69" t="s">
+      <c r="Y4" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="69" t="s">
+      <c r="Z4" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="58" t="s">
+      <c r="AA4" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AB4" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="58" t="s">
+      <c r="AD4" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="58" t="s">
+      <c r="AE4" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="58" t="s">
+      <c r="AF4" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="58" t="s">
+      <c r="AG4" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="58" t="s">
+      <c r="AH4" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="58" t="s">
+      <c r="AI4" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="58" t="s">
+      <c r="AJ4" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="58" t="s">
+      <c r="AK4" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="58" t="s">
+      <c r="AL4" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="58" t="s">
+      <c r="AM4" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="58" t="s">
+      <c r="AN4" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="58" t="s">
+      <c r="AO4" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="58" t="s">
+      <c r="AP4" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="58" t="s">
+      <c r="AQ4" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="54" t="s">
+      <c r="AR4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="54" t="s">
+      <c r="AS4" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="54" t="s">
+      <c r="AT4" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="54" t="s">
+      <c r="AU4" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="54" t="s">
+      <c r="AV4" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="54" t="s">
+      <c r="AW4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="54" t="s">
+      <c r="AX4" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="54" t="s">
+      <c r="AY4" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="54" t="s">
+      <c r="AZ4" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="54" t="s">
+      <c r="BA4" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="54" t="s">
+      <c r="BB4" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="54" t="s">
+      <c r="BC4" s="56" t="s">
         <v>138</v>
       </c>
       <c r="BD4" s="55" t="s">
@@ -9689,10 +9692,10 @@
       <c r="BK4" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="56" t="s">
+      <c r="BL4" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="56" t="s">
+      <c r="BM4" s="57" t="s">
         <v>245</v>
       </c>
       <c r="BN4" s="55" t="s">
@@ -9716,19 +9719,19 @@
       <c r="BT4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="BU4" s="56" t="s">
+      <c r="BU4" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="BV4" s="56" t="s">
+      <c r="BV4" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="BW4" s="56" t="s">
+      <c r="BW4" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="BX4" s="56" t="s">
+      <c r="BX4" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="BY4" s="56" t="s">
+      <c r="BY4" s="57" t="s">
         <v>227</v>
       </c>
       <c r="BZ4" s="55" t="s">
@@ -9746,163 +9749,166 @@
       <c r="CD4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="CE4" s="53" t="s">
+      <c r="CE4" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="CF4" s="53" t="s">
+      <c r="CF4" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="CG4" s="53" t="s">
+      <c r="CG4" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="CH4" s="53" t="s">
+      <c r="CH4" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="CI4" s="53" t="s">
+      <c r="CI4" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="CJ4" s="53" t="s">
+      <c r="CJ4" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="CK4" s="53" t="s">
+      <c r="CK4" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="CL4" s="53" t="s">
+      <c r="CL4" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="CM4" s="53" t="s">
+      <c r="CM4" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="CN4" s="53" t="s">
+      <c r="CN4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="CO4" s="53" t="s">
+      <c r="CO4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="CP4" s="53" t="s">
+      <c r="CP4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="CQ4" s="53" t="s">
+      <c r="CQ4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="CR4" s="53" t="s">
+      <c r="CR4" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="CS4" s="53" t="s">
+      <c r="CS4" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="CT4" s="53" t="s">
+      <c r="CT4" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="CU4" s="53" t="s">
+      <c r="CU4" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="CV4" s="53" t="s">
+      <c r="CV4" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="CW4" s="53" t="s">
+      <c r="CW4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="CX4" s="53" t="s">
+      <c r="CX4" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="CY4" s="53" t="s">
+      <c r="CY4" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="CZ4" s="53" t="s">
+      <c r="CZ4" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="DA4" s="53" t="s">
+      <c r="DA4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="DB4" s="53" t="s">
+      <c r="DB4" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="DC4" s="53" t="s">
+      <c r="DC4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="DD4" s="74" t="s">
+      <c r="DD4" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="DE4" s="47" t="s">
+      <c r="DE4" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="DF4" s="47" t="s">
+      <c r="DF4" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="DG4" s="47" t="s">
+      <c r="DG4" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="DH4" s="47" t="s">
+      <c r="DH4" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="DI4" s="47" t="s">
+      <c r="DI4" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="DJ4" s="47" t="s">
+      <c r="DJ4" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="DK4" s="47" t="s">
+      <c r="DK4" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="DL4" s="47" t="s">
+      <c r="DL4" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="DM4" s="47" t="s">
+      <c r="DM4" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="DN4" s="47" t="s">
+      <c r="DN4" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="DO4" s="47" t="s">
+      <c r="DO4" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="DP4" s="47" t="s">
+      <c r="DP4" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="DQ4" s="47" t="s">
+      <c r="DQ4" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="DR4" s="47" t="s">
+      <c r="DR4" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="DS4" s="47" t="s">
+      <c r="DS4" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="DT4" s="47" t="s">
+      <c r="DT4" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="DU4" s="47" t="s">
+      <c r="DU4" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="DV4" s="47" t="s">
+      <c r="DV4" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="DW4" s="47" t="s">
+      <c r="DW4" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="DX4" s="47" t="s">
+      <c r="DX4" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="DY4" s="47" t="s">
+      <c r="DY4" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="DZ4" s="47" t="s">
+      <c r="DZ4" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="EA4" s="47" t="s">
+      <c r="EA4" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="EB4" s="47" t="s">
+      <c r="EB4" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="EC4" s="47" t="s">
+      <c r="EC4" s="46" t="s">
         <v>385</v>
       </c>
+      <c r="ED4" s="46" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="5" spans="1:133" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="71"/>
-      <c r="C5" s="64"/>
+    <row r="5" spans="1:134" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="66"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
@@ -9917,15 +9923,15 @@
       <c r="O5" s="55"/>
       <c r="P5" s="55"/>
       <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="55"/>
       <c r="T5" s="55"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
       <c r="AA5" s="55"/>
       <c r="AB5" s="55"/>
       <c r="AC5" s="55"/>
@@ -9943,98 +9949,99 @@
       <c r="AO5" s="55"/>
       <c r="AP5" s="55"/>
       <c r="AQ5" s="55"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="54"/>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="54"/>
-      <c r="BL5" s="57"/>
-      <c r="BM5" s="57"/>
-      <c r="BN5" s="54"/>
-      <c r="BO5" s="54"/>
-      <c r="BP5" s="54"/>
-      <c r="BQ5" s="54"/>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="54"/>
-      <c r="BT5" s="54"/>
-      <c r="BU5" s="57"/>
-      <c r="BV5" s="57"/>
-      <c r="BW5" s="57"/>
-      <c r="BX5" s="57"/>
-      <c r="BY5" s="57"/>
-      <c r="BZ5" s="54"/>
-      <c r="CA5" s="54"/>
-      <c r="CB5" s="54"/>
-      <c r="CC5" s="54"/>
-      <c r="CD5" s="54"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="48"/>
-      <c r="CG5" s="48"/>
-      <c r="CH5" s="48"/>
-      <c r="CI5" s="48"/>
-      <c r="CJ5" s="48"/>
-      <c r="CK5" s="48"/>
-      <c r="CL5" s="48"/>
-      <c r="CM5" s="48"/>
-      <c r="CN5" s="48"/>
-      <c r="CO5" s="48"/>
-      <c r="CP5" s="48"/>
-      <c r="CQ5" s="48"/>
-      <c r="CR5" s="48"/>
-      <c r="CS5" s="48"/>
-      <c r="CT5" s="48"/>
-      <c r="CU5" s="48"/>
-      <c r="CV5" s="48"/>
-      <c r="CW5" s="48"/>
-      <c r="CX5" s="48"/>
-      <c r="CY5" s="48"/>
-      <c r="CZ5" s="48"/>
-      <c r="DA5" s="48"/>
-      <c r="DB5" s="48"/>
-      <c r="DC5" s="48"/>
-      <c r="DD5" s="75"/>
-      <c r="DE5" s="48"/>
-      <c r="DF5" s="48"/>
-      <c r="DG5" s="48"/>
-      <c r="DH5" s="48"/>
-      <c r="DI5" s="48"/>
-      <c r="DJ5" s="48"/>
-      <c r="DK5" s="48"/>
-      <c r="DL5" s="48"/>
-      <c r="DM5" s="48"/>
-      <c r="DN5" s="48"/>
-      <c r="DO5" s="48"/>
-      <c r="DP5" s="48"/>
-      <c r="DQ5" s="48"/>
-      <c r="DR5" s="48"/>
-      <c r="DS5" s="48"/>
-      <c r="DT5" s="48"/>
-      <c r="DU5" s="48"/>
-      <c r="DV5" s="48"/>
-      <c r="DW5" s="48"/>
-      <c r="DX5" s="48"/>
-      <c r="DY5" s="48"/>
-      <c r="DZ5" s="48"/>
-      <c r="EA5" s="48"/>
-      <c r="EB5" s="48"/>
-      <c r="EC5" s="47"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="56"/>
+      <c r="BS5" s="56"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="58"/>
+      <c r="BV5" s="58"/>
+      <c r="BW5" s="58"/>
+      <c r="BX5" s="58"/>
+      <c r="BY5" s="58"/>
+      <c r="BZ5" s="56"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="47"/>
+      <c r="CF5" s="47"/>
+      <c r="CG5" s="47"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="47"/>
+      <c r="CJ5" s="47"/>
+      <c r="CK5" s="47"/>
+      <c r="CL5" s="47"/>
+      <c r="CM5" s="47"/>
+      <c r="CN5" s="47"/>
+      <c r="CO5" s="47"/>
+      <c r="CP5" s="47"/>
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="47"/>
+      <c r="CS5" s="47"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="47"/>
+      <c r="CV5" s="47"/>
+      <c r="CW5" s="47"/>
+      <c r="CX5" s="47"/>
+      <c r="CY5" s="47"/>
+      <c r="CZ5" s="47"/>
+      <c r="DA5" s="47"/>
+      <c r="DB5" s="47"/>
+      <c r="DC5" s="47"/>
+      <c r="DD5" s="51"/>
+      <c r="DE5" s="47"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="47"/>
+      <c r="DH5" s="47"/>
+      <c r="DI5" s="47"/>
+      <c r="DJ5" s="47"/>
+      <c r="DK5" s="47"/>
+      <c r="DL5" s="47"/>
+      <c r="DM5" s="47"/>
+      <c r="DN5" s="47"/>
+      <c r="DO5" s="47"/>
+      <c r="DP5" s="47"/>
+      <c r="DQ5" s="47"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="47"/>
+      <c r="DT5" s="47"/>
+      <c r="DU5" s="47"/>
+      <c r="DV5" s="47"/>
+      <c r="DW5" s="47"/>
+      <c r="DX5" s="47"/>
+      <c r="DY5" s="47"/>
+      <c r="DZ5" s="47"/>
+      <c r="EA5" s="47"/>
+      <c r="EB5" s="47"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="46"/>
     </row>
-    <row r="6" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10432,8 +10439,11 @@
       <c r="EC6" s="28">
         <v>159</v>
       </c>
+      <c r="ED6" s="28">
+        <v>119</v>
+      </c>
     </row>
-    <row r="7" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10830,8 +10840,11 @@
       <c r="EC7" s="15">
         <v>0</v>
       </c>
+      <c r="ED7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11228,8 +11241,11 @@
       <c r="EC8" s="28">
         <v>10</v>
       </c>
+      <c r="ED8" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11627,8 +11643,11 @@
       <c r="EC9" s="15">
         <v>85</v>
       </c>
+      <c r="ED9" s="15">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -12023,8 +12042,11 @@
       <c r="EC10" s="15">
         <v>0</v>
       </c>
+      <c r="ED10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12421,8 +12443,11 @@
       <c r="EC11" s="15">
         <v>18</v>
       </c>
+      <c r="ED11" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12819,8 +12844,11 @@
       <c r="EC12" s="15">
         <v>3</v>
       </c>
+      <c r="ED12" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -13217,8 +13245,11 @@
       <c r="EC13" s="15">
         <v>41</v>
       </c>
+      <c r="ED13" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13615,8 +13646,11 @@
       <c r="EC14" s="15">
         <v>40</v>
       </c>
+      <c r="ED14" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -14013,8 +14047,11 @@
       <c r="EC15" s="15">
         <v>2</v>
       </c>
+      <c r="ED15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -14412,8 +14449,11 @@
       <c r="EC16" s="28">
         <v>124</v>
       </c>
+      <c r="ED16" s="28">
+        <v>95</v>
+      </c>
     </row>
-    <row r="17" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14810,8 +14850,11 @@
       <c r="EC17" s="15">
         <v>166</v>
       </c>
+      <c r="ED17" s="15">
+        <v>117</v>
+      </c>
     </row>
-    <row r="18" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -15209,10 +15252,13 @@
       <c r="EC18" s="34">
         <v>1740</v>
       </c>
+      <c r="ED18" s="34">
+        <v>1437</v>
+      </c>
     </row>
-    <row r="19" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -15608,10 +15654,13 @@
       <c r="EC19" s="15">
         <v>40</v>
       </c>
+      <c r="ED19" s="15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="20" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="61"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -16005,10 +16054,13 @@
       <c r="EC20" s="28">
         <v>130</v>
       </c>
+      <c r="ED20" s="28">
+        <v>122</v>
+      </c>
     </row>
-    <row r="21" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="61"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -16402,8 +16454,11 @@
       <c r="EC21" s="15">
         <v>19</v>
       </c>
+      <c r="ED21" s="15">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16800,8 +16855,11 @@
       <c r="EC22" s="15">
         <v>8</v>
       </c>
+      <c r="ED22" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -17198,8 +17256,11 @@
       <c r="EC23" s="15">
         <v>2</v>
       </c>
+      <c r="ED23" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17596,8 +17657,11 @@
       <c r="EC24" s="15">
         <v>10</v>
       </c>
+      <c r="ED24" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -17994,8 +18058,11 @@
       <c r="EC25" s="15">
         <v>1</v>
       </c>
+      <c r="ED25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -18392,8 +18459,11 @@
       <c r="EC26" s="15">
         <v>11</v>
       </c>
+      <c r="ED26" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18790,8 +18860,11 @@
       <c r="EC27" s="15">
         <v>0</v>
       </c>
+      <c r="ED27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -19188,9 +19261,12 @@
       <c r="EC28" s="15">
         <v>0</v>
       </c>
+      <c r="ED28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="70" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -19586,9 +19662,12 @@
       <c r="EC29" s="15">
         <v>1</v>
       </c>
+      <c r="ED29" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="62"/>
+    <row r="30" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="70"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -19982,8 +20061,11 @@
       <c r="EC30" s="15">
         <v>9</v>
       </c>
+      <c r="ED30" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="31" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -20381,8 +20463,11 @@
       <c r="EC31" s="15">
         <v>32</v>
       </c>
+      <c r="ED31" s="15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="32" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20779,8 +20864,11 @@
       <c r="EC32" s="15">
         <v>0</v>
       </c>
+      <c r="ED32" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -21177,8 +21265,11 @@
       <c r="EC33" s="15">
         <v>0</v>
       </c>
+      <c r="ED33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -21576,10 +21667,13 @@
       <c r="EC34" s="15">
         <v>60</v>
       </c>
+      <c r="ED34" s="15">
+        <v>62</v>
+      </c>
     </row>
-    <row r="35" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="69" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -21975,9 +22069,12 @@
       <c r="EC35" s="15">
         <v>314</v>
       </c>
+      <c r="ED35" s="15">
+        <v>252</v>
+      </c>
     </row>
-    <row r="36" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="61"/>
+    <row r="36" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="69"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -22371,8 +22468,11 @@
       <c r="EC36" s="28">
         <v>36</v>
       </c>
+      <c r="ED36" s="28">
+        <v>39</v>
+      </c>
     </row>
-    <row r="37" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -22770,8 +22870,11 @@
       <c r="EC37" s="15">
         <v>51</v>
       </c>
+      <c r="ED37" s="15">
+        <v>35</v>
+      </c>
     </row>
-    <row r="38" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -23168,8 +23271,11 @@
       <c r="EC38" s="15">
         <v>6</v>
       </c>
+      <c r="ED38" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -23566,8 +23672,11 @@
       <c r="EC39" s="15">
         <v>7</v>
       </c>
+      <c r="ED39" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -23964,8 +24073,11 @@
       <c r="EC40" s="15">
         <v>0</v>
       </c>
+      <c r="ED40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -24362,8 +24474,11 @@
       <c r="EC41" s="15">
         <v>0</v>
       </c>
+      <c r="ED41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -24760,8 +24875,11 @@
       <c r="EC42" s="15">
         <v>8</v>
       </c>
+      <c r="ED42" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="43" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -25158,8 +25276,11 @@
       <c r="EC43" s="28">
         <v>54</v>
       </c>
+      <c r="ED43" s="28">
+        <v>38</v>
+      </c>
     </row>
-    <row r="44" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -25556,8 +25677,11 @@
       <c r="EC44" s="15">
         <v>5</v>
       </c>
+      <c r="ED44" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -25954,8 +26078,11 @@
       <c r="EC45" s="15">
         <v>19</v>
       </c>
+      <c r="ED45" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="46" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -26352,8 +26479,11 @@
       <c r="EC46" s="15">
         <v>17</v>
       </c>
+      <c r="ED46" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="47" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -26750,8 +26880,11 @@
       <c r="EC47" s="15">
         <v>1</v>
       </c>
+      <c r="ED47" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="48" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -27148,10 +27281,13 @@
       <c r="EC48" s="15">
         <v>10</v>
       </c>
+      <c r="ED48" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="49" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -27547,9 +27683,12 @@
       <c r="EC49" s="15">
         <v>42</v>
       </c>
+      <c r="ED49" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:133" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="61"/>
+    <row r="50" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="69"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -27943,8 +28082,11 @@
       <c r="EC50" s="15">
         <v>8</v>
       </c>
+      <c r="ED50" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -28341,8 +28483,11 @@
       <c r="EC51" s="15">
         <v>13</v>
       </c>
+      <c r="ED51" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="52" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -28739,8 +28884,11 @@
       <c r="EC52" s="15">
         <v>14</v>
       </c>
+      <c r="ED52" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="53" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -29137,8 +29285,11 @@
       <c r="EC53" s="15">
         <v>52</v>
       </c>
+      <c r="ED53" s="15">
+        <v>36</v>
+      </c>
     </row>
-    <row r="54" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29535,8 +29686,11 @@
       <c r="EC54" s="15">
         <v>5</v>
       </c>
+      <c r="ED54" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -29933,8 +30087,11 @@
       <c r="EC55" s="15">
         <v>25</v>
       </c>
+      <c r="ED55" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="56" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -30331,8 +30488,11 @@
       <c r="EC56" s="15">
         <v>0</v>
       </c>
+      <c r="ED56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30729,8 +30889,11 @@
       <c r="EC57" s="15">
         <v>2</v>
       </c>
+      <c r="ED57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -31255,8 +31418,11 @@
         <f t="shared" si="10"/>
         <v>3400</v>
       </c>
+      <c r="ED58" s="14">
+        <v>2806</v>
+      </c>
     </row>
-    <row r="59" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -31340,7 +31506,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -31424,30 +31590,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:133" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -31509,30 +31675,105 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="DE2:EC2"/>
-    <mergeCell ref="DE3:EC3"/>
-    <mergeCell ref="EC4:EC5"/>
-    <mergeCell ref="EB4:EB5"/>
-    <mergeCell ref="CR3:DD3"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="DD4:DD5"/>
-    <mergeCell ref="DA4:DA5"/>
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CW4:CW5"/>
-    <mergeCell ref="EA4:EA5"/>
-    <mergeCell ref="BD2:DD2"/>
-    <mergeCell ref="BD3:CQ3"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="CM4:CM5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="CY4:CY5"/>
-    <mergeCell ref="CF4:CF5"/>
+  <mergeCells count="147">
+    <mergeCell ref="DZ4:DZ5"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="DJ4:DJ5"/>
+    <mergeCell ref="DI4:DI5"/>
+    <mergeCell ref="DG4:DG5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="DB4:DB5"/>
+    <mergeCell ref="DM4:DM5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="DY4:DY5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="DX4:DX5"/>
+    <mergeCell ref="DW4:DW5"/>
+    <mergeCell ref="DV4:DV5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="DT4:DT5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DO4:DO5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="DS4:DS5"/>
+    <mergeCell ref="DR4:DR5"/>
+    <mergeCell ref="DQ4:DQ5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DH4:DH5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="DK4:DK5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="D61:W61"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="CX4:CX5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BL4:BL5"/>
@@ -31557,105 +31798,31 @@
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="CJ4:CJ5"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="CX4:CX5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="DX4:DX5"/>
-    <mergeCell ref="DW4:DW5"/>
-    <mergeCell ref="DV4:DV5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="DT4:DT5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DO4:DO5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DS4:DS5"/>
-    <mergeCell ref="DR4:DR5"/>
-    <mergeCell ref="DQ4:DQ5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DH4:DH5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="DK4:DK5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="DZ4:DZ5"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="DJ4:DJ5"/>
-    <mergeCell ref="DI4:DI5"/>
-    <mergeCell ref="DG4:DG5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="DB4:DB5"/>
-    <mergeCell ref="DM4:DM5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="DY4:DY5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="DE2:ED2"/>
+    <mergeCell ref="DE3:ED3"/>
+    <mergeCell ref="ED4:ED5"/>
+    <mergeCell ref="EC4:EC5"/>
+    <mergeCell ref="EB4:EB5"/>
+    <mergeCell ref="CR3:DD3"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="DD4:DD5"/>
+    <mergeCell ref="DA4:DA5"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CW4:CW5"/>
+    <mergeCell ref="EA4:EA5"/>
+    <mergeCell ref="BD2:DD2"/>
+    <mergeCell ref="BD3:CQ3"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="CM4:CM5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="CY4:CY5"/>
+    <mergeCell ref="CF4:CF5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -31668,7 +31835,7 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:EC57">
+  <conditionalFormatting sqref="DP6:ED57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
@@ -31685,13 +31852,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:EC58"/>
+  <dimension ref="B1:ED58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DO2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DH29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EC60" sqref="EC60"/>
+      <selection pane="bottomRight" activeCell="ED6" sqref="ED6:ED58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31704,21 +31871,21 @@
     <col min="19" max="24" width="11" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="4" customWidth="1"/>
     <col min="26" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="44" customWidth="1"/>
+    <col min="29" max="29" width="11" style="4" customWidth="1"/>
     <col min="30" max="55" width="11" style="1" customWidth="1"/>
     <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="133" width="10.875" style="1" customWidth="1"/>
-    <col min="134" max="16384" width="8.625" style="1"/>
+    <col min="106" max="134" width="10.875" style="1" customWidth="1"/>
+    <col min="135" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:133" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BB1" s="79" t="s">
+    <row r="1" spans="2:134" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB1" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="BC1" s="79"/>
+      <c r="BC1" s="80"/>
       <c r="BI1" s="18"/>
       <c r="CC1" s="29"/>
       <c r="CD1" s="29"/>
@@ -31774,455 +31941,458 @@
       <c r="DZ1" s="19"/>
       <c r="EA1" s="19"/>
       <c r="EB1" s="19"/>
-      <c r="EC1" s="19" t="s">
+      <c r="EC1" s="19"/>
+      <c r="ED1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="2:133" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="73" t="s">
+    <row r="2" spans="2:134" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="73"/>
-      <c r="BH2" s="73"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="73"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="73"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="73"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="73"/>
-      <c r="CE2" s="73"/>
-      <c r="CF2" s="73"/>
-      <c r="CG2" s="73"/>
-      <c r="CH2" s="73"/>
-      <c r="CI2" s="73"/>
-      <c r="CJ2" s="73"/>
-      <c r="CK2" s="73"/>
-      <c r="CL2" s="73"/>
-      <c r="CM2" s="73"/>
-      <c r="CN2" s="73"/>
-      <c r="CO2" s="73"/>
-      <c r="CP2" s="73"/>
-      <c r="CQ2" s="73"/>
-      <c r="CR2" s="73"/>
-      <c r="CS2" s="73"/>
-      <c r="CT2" s="73"/>
-      <c r="CU2" s="73"/>
-      <c r="CV2" s="73"/>
-      <c r="CW2" s="73"/>
-      <c r="CX2" s="73"/>
-      <c r="CY2" s="73"/>
-      <c r="CZ2" s="73"/>
-      <c r="DA2" s="73"/>
-      <c r="DB2" s="73"/>
-      <c r="DC2" s="73"/>
-      <c r="DD2" s="73" t="s">
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
+      <c r="CU2" s="44"/>
+      <c r="CV2" s="44"/>
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
+      <c r="DD2" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="DE2" s="73"/>
-      <c r="DF2" s="73"/>
-      <c r="DG2" s="73"/>
-      <c r="DH2" s="73"/>
-      <c r="DI2" s="73"/>
-      <c r="DJ2" s="73"/>
-      <c r="DK2" s="73"/>
-      <c r="DL2" s="73"/>
-      <c r="DM2" s="73"/>
-      <c r="DN2" s="73"/>
-      <c r="DO2" s="73"/>
-      <c r="DP2" s="73"/>
-      <c r="DQ2" s="73"/>
-      <c r="DR2" s="73"/>
-      <c r="DS2" s="73"/>
-      <c r="DT2" s="73"/>
-      <c r="DU2" s="73"/>
-      <c r="DV2" s="73"/>
-      <c r="DW2" s="73"/>
-      <c r="DX2" s="73"/>
-      <c r="DY2" s="73"/>
-      <c r="DZ2" s="73"/>
-      <c r="EA2" s="73"/>
-      <c r="EB2" s="73"/>
-      <c r="EC2" s="73"/>
+      <c r="DE2" s="44"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
+      <c r="DM2" s="44"/>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
+      <c r="DX2" s="44"/>
+      <c r="DY2" s="44"/>
+      <c r="DZ2" s="44"/>
+      <c r="EA2" s="44"/>
+      <c r="EB2" s="44"/>
+      <c r="EC2" s="44"/>
+      <c r="ED2" s="44"/>
     </row>
-    <row r="3" spans="2:133" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="80" t="s">
+    <row r="3" spans="2:134" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="72" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="49" t="s">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="50"/>
-      <c r="BX3" s="50"/>
-      <c r="BY3" s="50"/>
-      <c r="BZ3" s="50"/>
-      <c r="CA3" s="50"/>
-      <c r="CB3" s="50"/>
-      <c r="CC3" s="50"/>
-      <c r="CD3" s="50"/>
-      <c r="CE3" s="50"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="50"/>
-      <c r="CJ3" s="50"/>
-      <c r="CK3" s="50"/>
-      <c r="CL3" s="50"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="50"/>
-      <c r="CQ3" s="76"/>
-      <c r="CR3" s="72" t="s">
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="53"/>
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="53"/>
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="53"/>
+      <c r="CB3" s="53"/>
+      <c r="CC3" s="53"/>
+      <c r="CD3" s="53"/>
+      <c r="CE3" s="53"/>
+      <c r="CF3" s="53"/>
+      <c r="CG3" s="53"/>
+      <c r="CH3" s="53"/>
+      <c r="CI3" s="53"/>
+      <c r="CJ3" s="53"/>
+      <c r="CK3" s="53"/>
+      <c r="CL3" s="53"/>
+      <c r="CM3" s="53"/>
+      <c r="CN3" s="53"/>
+      <c r="CO3" s="53"/>
+      <c r="CP3" s="53"/>
+      <c r="CQ3" s="54"/>
+      <c r="CR3" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="72"/>
-      <c r="DD3" s="72" t="s">
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="45"/>
+      <c r="CU3" s="45"/>
+      <c r="CV3" s="45"/>
+      <c r="CW3" s="45"/>
+      <c r="CX3" s="45"/>
+      <c r="CY3" s="45"/>
+      <c r="CZ3" s="45"/>
+      <c r="DA3" s="45"/>
+      <c r="DB3" s="45"/>
+      <c r="DC3" s="45"/>
+      <c r="DD3" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="DE3" s="72"/>
-      <c r="DF3" s="72"/>
-      <c r="DG3" s="72"/>
-      <c r="DH3" s="72"/>
-      <c r="DI3" s="72"/>
-      <c r="DJ3" s="72"/>
-      <c r="DK3" s="72"/>
-      <c r="DL3" s="72"/>
-      <c r="DM3" s="72"/>
-      <c r="DN3" s="72"/>
-      <c r="DO3" s="72"/>
-      <c r="DP3" s="72"/>
-      <c r="DQ3" s="72"/>
-      <c r="DR3" s="72"/>
-      <c r="DS3" s="72"/>
-      <c r="DT3" s="72"/>
-      <c r="DU3" s="72"/>
-      <c r="DV3" s="72"/>
-      <c r="DW3" s="72"/>
-      <c r="DX3" s="72"/>
-      <c r="DY3" s="72"/>
-      <c r="DZ3" s="72"/>
-      <c r="EA3" s="72"/>
-      <c r="EB3" s="72"/>
-      <c r="EC3" s="72"/>
+      <c r="DE3" s="45"/>
+      <c r="DF3" s="45"/>
+      <c r="DG3" s="45"/>
+      <c r="DH3" s="45"/>
+      <c r="DI3" s="45"/>
+      <c r="DJ3" s="45"/>
+      <c r="DK3" s="45"/>
+      <c r="DL3" s="45"/>
+      <c r="DM3" s="45"/>
+      <c r="DN3" s="45"/>
+      <c r="DO3" s="45"/>
+      <c r="DP3" s="45"/>
+      <c r="DQ3" s="45"/>
+      <c r="DR3" s="45"/>
+      <c r="DS3" s="45"/>
+      <c r="DT3" s="45"/>
+      <c r="DU3" s="45"/>
+      <c r="DV3" s="45"/>
+      <c r="DW3" s="45"/>
+      <c r="DX3" s="45"/>
+      <c r="DY3" s="45"/>
+      <c r="DZ3" s="45"/>
+      <c r="EA3" s="45"/>
+      <c r="EB3" s="45"/>
+      <c r="EC3" s="45"/>
+      <c r="ED3" s="45"/>
     </row>
-    <row r="4" spans="2:133" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="81" t="s">
+    <row r="4" spans="2:134" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="T4" s="81" t="s">
+      <c r="T4" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="81" t="s">
+      <c r="W4" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="81" t="s">
+      <c r="X4" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" s="82" t="s">
+      <c r="Y4" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" s="81" t="s">
+      <c r="Z4" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" s="81" t="s">
+      <c r="AA4" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="81" t="s">
+      <c r="AB4" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="84" t="s">
+      <c r="AC4" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="81" t="s">
+      <c r="AD4" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="AE4" s="81" t="s">
+      <c r="AE4" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="AF4" s="81" t="s">
+      <c r="AF4" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="AG4" s="81" t="s">
+      <c r="AG4" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="AH4" s="81" t="s">
+      <c r="AH4" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="81" t="s">
+      <c r="AI4" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="AJ4" s="81" t="s">
+      <c r="AJ4" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="AK4" s="81" t="s">
+      <c r="AK4" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="AL4" s="81" t="s">
+      <c r="AL4" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="AM4" s="81" t="s">
+      <c r="AM4" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="AN4" s="81" t="s">
+      <c r="AN4" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="AO4" s="81" t="s">
+      <c r="AO4" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="AP4" s="81" t="s">
+      <c r="AP4" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="AQ4" s="81" t="s">
+      <c r="AQ4" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="AR4" s="81" t="s">
+      <c r="AR4" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="AS4" s="81" t="s">
+      <c r="AS4" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="AT4" s="81" t="s">
+      <c r="AT4" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="AU4" s="81" t="s">
+      <c r="AU4" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="AV4" s="81" t="s">
+      <c r="AV4" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="AW4" s="81" t="s">
+      <c r="AW4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="AX4" s="81" t="s">
+      <c r="AX4" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="AY4" s="81" t="s">
+      <c r="AY4" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="AZ4" s="81" t="s">
+      <c r="AZ4" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="BA4" s="81" t="s">
+      <c r="BA4" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="BB4" s="81" t="s">
+      <c r="BB4" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="BC4" s="81" t="s">
+      <c r="BC4" s="74" t="s">
         <v>186</v>
       </c>
       <c r="BD4" s="55" t="s">
@@ -32276,22 +32446,22 @@
       <c r="BT4" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="69" t="s">
+      <c r="BU4" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="BV4" s="69" t="s">
+      <c r="BV4" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="BW4" s="69" t="s">
+      <c r="BW4" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="BX4" s="69" t="s">
+      <c r="BX4" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="BY4" s="69" t="s">
+      <c r="BY4" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="69" t="s">
+      <c r="BZ4" s="64" t="s">
         <v>147</v>
       </c>
       <c r="CA4" s="55" t="s">
@@ -32306,295 +32476,299 @@
       <c r="CD4" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="CE4" s="53" t="s">
+      <c r="CE4" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="CF4" s="53" t="s">
+      <c r="CF4" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="CG4" s="53" t="s">
+      <c r="CG4" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="CH4" s="53" t="s">
+      <c r="CH4" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="CI4" s="53" t="s">
+      <c r="CI4" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="CJ4" s="53" t="s">
+      <c r="CJ4" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="CK4" s="53" t="s">
+      <c r="CK4" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="CL4" s="53" t="s">
+      <c r="CL4" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="CM4" s="53" t="s">
+      <c r="CM4" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="CN4" s="53" t="s">
+      <c r="CN4" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="CO4" s="53" t="s">
+      <c r="CO4" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="CP4" s="53" t="s">
+      <c r="CP4" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="CQ4" s="53" t="s">
+      <c r="CQ4" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="CR4" s="53" t="s">
+      <c r="CR4" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="CS4" s="53" t="s">
+      <c r="CS4" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="CT4" s="53" t="s">
+      <c r="CT4" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="CU4" s="53" t="s">
+      <c r="CU4" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="CV4" s="53" t="s">
+      <c r="CV4" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="CW4" s="53" t="s">
+      <c r="CW4" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="CX4" s="53" t="s">
+      <c r="CX4" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="CY4" s="53" t="s">
+      <c r="CY4" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="CZ4" s="53" t="s">
+      <c r="CZ4" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="DA4" s="53" t="s">
+      <c r="DA4" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="DB4" s="53" t="s">
+      <c r="DB4" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="DC4" s="53" t="s">
+      <c r="DC4" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="DD4" s="47" t="s">
+      <c r="DD4" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="DE4" s="47" t="s">
+      <c r="DE4" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="DF4" s="47" t="s">
+      <c r="DF4" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="DG4" s="47" t="s">
+      <c r="DG4" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="DH4" s="47" t="s">
+      <c r="DH4" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="DI4" s="47" t="s">
+      <c r="DI4" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="DJ4" s="47" t="s">
+      <c r="DJ4" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="DK4" s="47" t="s">
+      <c r="DK4" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="DL4" s="47" t="s">
+      <c r="DL4" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="DM4" s="77" t="s">
+      <c r="DM4" s="81" t="s">
         <v>337</v>
       </c>
-      <c r="DN4" s="47" t="s">
+      <c r="DN4" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="DO4" s="47" t="s">
+      <c r="DO4" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="DP4" s="47" t="s">
+      <c r="DP4" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="DQ4" s="47" t="s">
+      <c r="DQ4" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="DR4" s="47" t="s">
+      <c r="DR4" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="DS4" s="47" t="s">
+      <c r="DS4" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="DT4" s="47" t="s">
+      <c r="DT4" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="DU4" s="77" t="s">
+      <c r="DU4" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="DV4" s="77" t="s">
+      <c r="DV4" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="DW4" s="77" t="s">
+      <c r="DW4" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="DX4" s="77" t="s">
+      <c r="DX4" s="81" t="s">
         <v>375</v>
       </c>
-      <c r="DY4" s="77" t="s">
+      <c r="DY4" s="81" t="s">
         <v>376</v>
       </c>
-      <c r="DZ4" s="47" t="s">
+      <c r="DZ4" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="EA4" s="47" t="s">
+      <c r="EA4" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="EB4" s="47" t="s">
+      <c r="EB4" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="EC4" s="47" t="s">
+      <c r="EC4" s="46" t="s">
         <v>386</v>
       </c>
+      <c r="ED4" s="46" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="5" spans="2:133" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="71"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="54"/>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="54"/>
-      <c r="BL5" s="54"/>
-      <c r="BM5" s="54"/>
-      <c r="BN5" s="54"/>
-      <c r="BO5" s="54"/>
-      <c r="BP5" s="54"/>
-      <c r="BQ5" s="54"/>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="54"/>
-      <c r="BT5" s="54"/>
-      <c r="BU5" s="56"/>
-      <c r="BV5" s="56"/>
-      <c r="BW5" s="56"/>
-      <c r="BX5" s="56"/>
-      <c r="BY5" s="56"/>
-      <c r="BZ5" s="56"/>
-      <c r="CA5" s="54"/>
-      <c r="CB5" s="54"/>
-      <c r="CC5" s="54"/>
-      <c r="CD5" s="54"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="48"/>
-      <c r="CG5" s="48"/>
-      <c r="CH5" s="48"/>
-      <c r="CI5" s="48"/>
-      <c r="CJ5" s="48"/>
-      <c r="CK5" s="48"/>
-      <c r="CL5" s="48"/>
-      <c r="CM5" s="48"/>
-      <c r="CN5" s="48"/>
-      <c r="CO5" s="48"/>
-      <c r="CP5" s="48"/>
-      <c r="CQ5" s="48"/>
-      <c r="CR5" s="48"/>
-      <c r="CS5" s="48"/>
-      <c r="CT5" s="48"/>
-      <c r="CU5" s="48"/>
-      <c r="CV5" s="48"/>
-      <c r="CW5" s="48"/>
-      <c r="CX5" s="48"/>
-      <c r="CY5" s="48"/>
-      <c r="CZ5" s="48"/>
-      <c r="DA5" s="48"/>
-      <c r="DB5" s="48"/>
-      <c r="DC5" s="48"/>
-      <c r="DD5" s="48"/>
-      <c r="DE5" s="48"/>
-      <c r="DF5" s="48"/>
-      <c r="DG5" s="48"/>
-      <c r="DH5" s="48"/>
-      <c r="DI5" s="48"/>
-      <c r="DJ5" s="48"/>
-      <c r="DK5" s="48"/>
-      <c r="DL5" s="48"/>
-      <c r="DM5" s="78"/>
-      <c r="DN5" s="48"/>
-      <c r="DO5" s="48"/>
-      <c r="DP5" s="48"/>
-      <c r="DQ5" s="48"/>
-      <c r="DR5" s="48"/>
-      <c r="DS5" s="48"/>
-      <c r="DT5" s="48"/>
-      <c r="DU5" s="78"/>
-      <c r="DV5" s="78"/>
-      <c r="DW5" s="78"/>
-      <c r="DX5" s="78"/>
-      <c r="DY5" s="78"/>
-      <c r="DZ5" s="48"/>
-      <c r="EA5" s="48"/>
-      <c r="EB5" s="48"/>
-      <c r="EC5" s="48"/>
+    <row r="5" spans="2:134" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="56"/>
+      <c r="BS5" s="56"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="57"/>
+      <c r="BV5" s="57"/>
+      <c r="BW5" s="57"/>
+      <c r="BX5" s="57"/>
+      <c r="BY5" s="57"/>
+      <c r="BZ5" s="57"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="47"/>
+      <c r="CF5" s="47"/>
+      <c r="CG5" s="47"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="47"/>
+      <c r="CJ5" s="47"/>
+      <c r="CK5" s="47"/>
+      <c r="CL5" s="47"/>
+      <c r="CM5" s="47"/>
+      <c r="CN5" s="47"/>
+      <c r="CO5" s="47"/>
+      <c r="CP5" s="47"/>
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="47"/>
+      <c r="CS5" s="47"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="47"/>
+      <c r="CV5" s="47"/>
+      <c r="CW5" s="47"/>
+      <c r="CX5" s="47"/>
+      <c r="CY5" s="47"/>
+      <c r="CZ5" s="47"/>
+      <c r="DA5" s="47"/>
+      <c r="DB5" s="47"/>
+      <c r="DC5" s="47"/>
+      <c r="DD5" s="47"/>
+      <c r="DE5" s="47"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="47"/>
+      <c r="DH5" s="47"/>
+      <c r="DI5" s="47"/>
+      <c r="DJ5" s="47"/>
+      <c r="DK5" s="47"/>
+      <c r="DL5" s="47"/>
+      <c r="DM5" s="82"/>
+      <c r="DN5" s="47"/>
+      <c r="DO5" s="47"/>
+      <c r="DP5" s="47"/>
+      <c r="DQ5" s="47"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="47"/>
+      <c r="DT5" s="47"/>
+      <c r="DU5" s="82"/>
+      <c r="DV5" s="82"/>
+      <c r="DW5" s="82"/>
+      <c r="DX5" s="82"/>
+      <c r="DY5" s="82"/>
+      <c r="DZ5" s="47"/>
+      <c r="EA5" s="47"/>
+      <c r="EB5" s="47"/>
+      <c r="EC5" s="47"/>
+      <c r="ED5" s="47"/>
     </row>
-    <row r="6" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -32676,7 +32850,7 @@
       <c r="AB6" s="26">
         <v>22</v>
       </c>
-      <c r="AC6" s="45">
+      <c r="AC6" s="28">
         <v>18</v>
       </c>
       <c r="AD6" s="26">
@@ -32991,8 +33165,11 @@
       <c r="EC6" s="28">
         <v>67</v>
       </c>
+      <c r="ED6" s="28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="7" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -33074,7 +33251,7 @@
       <c r="AB7" s="26">
         <v>5</v>
       </c>
-      <c r="AC7" s="45">
+      <c r="AC7" s="28">
         <v>1</v>
       </c>
       <c r="AD7" s="26">
@@ -33389,8 +33566,11 @@
       <c r="EC7" s="15">
         <v>1</v>
       </c>
+      <c r="ED7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -33472,7 +33652,7 @@
       <c r="AB8" s="26">
         <v>0</v>
       </c>
-      <c r="AC8" s="45">
+      <c r="AC8" s="28">
         <v>3</v>
       </c>
       <c r="AD8" s="26">
@@ -33787,8 +33967,11 @@
       <c r="EC8" s="28">
         <v>6</v>
       </c>
+      <c r="ED8" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -33870,7 +34053,7 @@
       <c r="AB9" s="26">
         <v>29</v>
       </c>
-      <c r="AC9" s="45">
+      <c r="AC9" s="28">
         <v>23</v>
       </c>
       <c r="AD9" s="26">
@@ -34185,8 +34368,11 @@
       <c r="EC9" s="15">
         <v>44</v>
       </c>
+      <c r="ED9" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -34268,7 +34454,7 @@
       <c r="AB10" s="26">
         <v>0</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="28">
         <v>0</v>
       </c>
       <c r="AD10" s="26">
@@ -34583,8 +34769,11 @@
       <c r="EC10" s="15">
         <v>0</v>
       </c>
+      <c r="ED10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -34666,7 +34855,7 @@
       <c r="AB11" s="26">
         <v>3</v>
       </c>
-      <c r="AC11" s="45">
+      <c r="AC11" s="28">
         <v>3</v>
       </c>
       <c r="AD11" s="26">
@@ -34981,8 +35170,11 @@
       <c r="EC11" s="15">
         <v>10</v>
       </c>
+      <c r="ED11" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -35064,7 +35256,7 @@
       <c r="AB12" s="26">
         <v>2</v>
       </c>
-      <c r="AC12" s="45">
+      <c r="AC12" s="28">
         <v>0</v>
       </c>
       <c r="AD12" s="26">
@@ -35379,8 +35571,11 @@
       <c r="EC12" s="15">
         <v>3</v>
       </c>
+      <c r="ED12" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -35462,7 +35657,7 @@
       <c r="AB13" s="26">
         <v>7</v>
       </c>
-      <c r="AC13" s="45">
+      <c r="AC13" s="28">
         <v>6</v>
       </c>
       <c r="AD13" s="26">
@@ -35777,8 +35972,11 @@
       <c r="EC13" s="15">
         <v>16</v>
       </c>
+      <c r="ED13" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -35860,7 +36058,7 @@
       <c r="AB14" s="26">
         <v>5</v>
       </c>
-      <c r="AC14" s="45">
+      <c r="AC14" s="28">
         <v>2</v>
       </c>
       <c r="AD14" s="26">
@@ -36175,8 +36373,11 @@
       <c r="EC14" s="15">
         <v>6</v>
       </c>
+      <c r="ED14" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -36258,7 +36459,7 @@
       <c r="AB15" s="26">
         <v>0</v>
       </c>
-      <c r="AC15" s="45">
+      <c r="AC15" s="28">
         <v>0</v>
       </c>
       <c r="AD15" s="26">
@@ -36573,8 +36774,11 @@
       <c r="EC15" s="15">
         <v>0</v>
       </c>
+      <c r="ED15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -36656,7 +36860,7 @@
       <c r="AB16" s="26">
         <v>29</v>
       </c>
-      <c r="AC16" s="45">
+      <c r="AC16" s="28">
         <v>30</v>
       </c>
       <c r="AD16" s="26">
@@ -36971,8 +37175,11 @@
       <c r="EC16" s="28">
         <v>55</v>
       </c>
+      <c r="ED16" s="28">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -37054,7 +37261,7 @@
       <c r="AB17" s="26">
         <v>71</v>
       </c>
-      <c r="AC17" s="45">
+      <c r="AC17" s="28">
         <v>94</v>
       </c>
       <c r="AD17" s="26">
@@ -37369,8 +37576,11 @@
       <c r="EC17" s="15">
         <v>89</v>
       </c>
+      <c r="ED17" s="15">
+        <v>78</v>
+      </c>
     </row>
-    <row r="18" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -37452,7 +37662,7 @@
       <c r="AB18" s="26">
         <v>430</v>
       </c>
-      <c r="AC18" s="45">
+      <c r="AC18" s="28">
         <v>396</v>
       </c>
       <c r="AD18" s="26">
@@ -37767,9 +37977,12 @@
       <c r="EC18" s="34">
         <v>900</v>
       </c>
+      <c r="ED18" s="34">
+        <v>678</v>
+      </c>
     </row>
-    <row r="19" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="61" t="s">
+    <row r="19" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -37850,7 +38063,7 @@
       <c r="AB19" s="26">
         <v>10</v>
       </c>
-      <c r="AC19" s="45">
+      <c r="AC19" s="28">
         <v>17</v>
       </c>
       <c r="AD19" s="26">
@@ -38165,9 +38378,12 @@
       <c r="EC19" s="15">
         <v>30</v>
       </c>
+      <c r="ED19" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="61"/>
+    <row r="20" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="69"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -38246,7 +38462,7 @@
       <c r="AB20" s="26">
         <v>22</v>
       </c>
-      <c r="AC20" s="45">
+      <c r="AC20" s="28">
         <v>29</v>
       </c>
       <c r="AD20" s="26">
@@ -38561,9 +38777,12 @@
       <c r="EC20" s="28">
         <v>90</v>
       </c>
+      <c r="ED20" s="28">
+        <v>66</v>
+      </c>
     </row>
-    <row r="21" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="61"/>
+    <row r="21" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="69"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -38642,7 +38861,7 @@
       <c r="AB21" s="26">
         <v>12</v>
       </c>
-      <c r="AC21" s="45">
+      <c r="AC21" s="28">
         <v>20</v>
       </c>
       <c r="AD21" s="26">
@@ -38957,8 +39176,11 @@
       <c r="EC21" s="15">
         <v>20</v>
       </c>
+      <c r="ED21" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -39040,7 +39262,7 @@
       <c r="AB22" s="26">
         <v>28</v>
       </c>
-      <c r="AC22" s="45">
+      <c r="AC22" s="28">
         <v>29</v>
       </c>
       <c r="AD22" s="26">
@@ -39355,8 +39577,11 @@
       <c r="EC22" s="15">
         <v>9</v>
       </c>
+      <c r="ED22" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -39438,7 +39663,7 @@
       <c r="AB23" s="26">
         <v>0</v>
       </c>
-      <c r="AC23" s="45">
+      <c r="AC23" s="28">
         <v>0</v>
       </c>
       <c r="AD23" s="26">
@@ -39753,8 +39978,11 @@
       <c r="EC23" s="15">
         <v>1</v>
       </c>
+      <c r="ED23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -39836,7 +40064,7 @@
       <c r="AB24" s="26">
         <v>2</v>
       </c>
-      <c r="AC24" s="45">
+      <c r="AC24" s="28">
         <v>1</v>
       </c>
       <c r="AD24" s="26">
@@ -40151,8 +40379,11 @@
       <c r="EC24" s="15">
         <v>6</v>
       </c>
+      <c r="ED24" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -40234,7 +40465,7 @@
       <c r="AB25" s="26">
         <v>0</v>
       </c>
-      <c r="AC25" s="45">
+      <c r="AC25" s="28">
         <v>0</v>
       </c>
       <c r="AD25" s="26">
@@ -40549,8 +40780,11 @@
       <c r="EC25" s="15">
         <v>0</v>
       </c>
+      <c r="ED25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -40632,7 +40866,7 @@
       <c r="AB26" s="26">
         <v>6</v>
       </c>
-      <c r="AC26" s="45">
+      <c r="AC26" s="28">
         <v>9</v>
       </c>
       <c r="AD26" s="26">
@@ -40947,8 +41181,11 @@
       <c r="EC26" s="15">
         <v>4</v>
       </c>
+      <c r="ED26" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -41030,7 +41267,7 @@
       <c r="AB27" s="26">
         <v>0</v>
       </c>
-      <c r="AC27" s="45">
+      <c r="AC27" s="28">
         <v>0</v>
       </c>
       <c r="AD27" s="26">
@@ -41345,8 +41582,11 @@
       <c r="EC27" s="15">
         <v>1</v>
       </c>
+      <c r="ED27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -41428,7 +41668,7 @@
       <c r="AB28" s="26">
         <v>0</v>
       </c>
-      <c r="AC28" s="45">
+      <c r="AC28" s="28">
         <v>0</v>
       </c>
       <c r="AD28" s="26">
@@ -41743,9 +41983,12 @@
       <c r="EC28" s="15">
         <v>2</v>
       </c>
+      <c r="ED28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="70" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -41826,7 +42069,7 @@
       <c r="AB29" s="26">
         <v>3</v>
       </c>
-      <c r="AC29" s="45">
+      <c r="AC29" s="28">
         <v>2</v>
       </c>
       <c r="AD29" s="26">
@@ -42141,9 +42384,12 @@
       <c r="EC29" s="15">
         <v>0</v>
       </c>
+      <c r="ED29" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="62"/>
+    <row r="30" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="70"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -42222,7 +42468,7 @@
       <c r="AB30" s="26">
         <v>3</v>
       </c>
-      <c r="AC30" s="45">
+      <c r="AC30" s="28">
         <v>1</v>
       </c>
       <c r="AD30" s="26">
@@ -42537,8 +42783,11 @@
       <c r="EC30" s="15">
         <v>3</v>
       </c>
+      <c r="ED30" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -42620,7 +42869,7 @@
       <c r="AB31" s="26">
         <v>5</v>
       </c>
-      <c r="AC31" s="45">
+      <c r="AC31" s="28">
         <v>10</v>
       </c>
       <c r="AD31" s="26">
@@ -42935,8 +43184,11 @@
       <c r="EC31" s="15">
         <v>18</v>
       </c>
+      <c r="ED31" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -43018,7 +43270,7 @@
       <c r="AB32" s="26">
         <v>0</v>
       </c>
-      <c r="AC32" s="45">
+      <c r="AC32" s="28">
         <v>0</v>
       </c>
       <c r="AD32" s="26">
@@ -43333,8 +43585,11 @@
       <c r="EC32" s="15">
         <v>0</v>
       </c>
+      <c r="ED32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -43416,7 +43671,7 @@
       <c r="AB33" s="26">
         <v>1</v>
       </c>
-      <c r="AC33" s="45">
+      <c r="AC33" s="28">
         <v>0</v>
       </c>
       <c r="AD33" s="26">
@@ -43731,8 +43986,11 @@
       <c r="EC33" s="15">
         <v>0</v>
       </c>
+      <c r="ED33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -43814,7 +44072,7 @@
       <c r="AB34" s="26">
         <v>14</v>
       </c>
-      <c r="AC34" s="45">
+      <c r="AC34" s="28">
         <v>15</v>
       </c>
       <c r="AD34" s="26">
@@ -44129,9 +44387,12 @@
       <c r="EC34" s="15">
         <v>18</v>
       </c>
+      <c r="ED34" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="61" t="s">
+    <row r="35" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -44212,7 +44473,7 @@
       <c r="AB35" s="26">
         <v>122</v>
       </c>
-      <c r="AC35" s="45">
+      <c r="AC35" s="28">
         <v>108</v>
       </c>
       <c r="AD35" s="26">
@@ -44527,9 +44788,12 @@
       <c r="EC35" s="15">
         <v>230</v>
       </c>
+      <c r="ED35" s="15">
+        <v>221</v>
+      </c>
     </row>
-    <row r="36" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="61"/>
+    <row r="36" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="69"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -44608,7 +44872,7 @@
       <c r="AB36" s="26">
         <v>10</v>
       </c>
-      <c r="AC36" s="45">
+      <c r="AC36" s="28">
         <v>13</v>
       </c>
       <c r="AD36" s="26">
@@ -44923,8 +45187,11 @@
       <c r="EC36" s="28">
         <v>15</v>
       </c>
+      <c r="ED36" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -45006,7 +45273,7 @@
       <c r="AB37" s="26">
         <v>9</v>
       </c>
-      <c r="AC37" s="45">
+      <c r="AC37" s="28">
         <v>11</v>
       </c>
       <c r="AD37" s="26">
@@ -45321,8 +45588,11 @@
       <c r="EC37" s="15">
         <v>31</v>
       </c>
+      <c r="ED37" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -45404,7 +45674,7 @@
       <c r="AB38" s="26">
         <v>3</v>
       </c>
-      <c r="AC38" s="45">
+      <c r="AC38" s="28">
         <v>4</v>
       </c>
       <c r="AD38" s="26">
@@ -45719,8 +45989,11 @@
       <c r="EC38" s="15">
         <v>4</v>
       </c>
+      <c r="ED38" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -45802,7 +46075,7 @@
       <c r="AB39" s="26">
         <v>4</v>
       </c>
-      <c r="AC39" s="45">
+      <c r="AC39" s="28">
         <v>3</v>
       </c>
       <c r="AD39" s="26">
@@ -46117,8 +46390,11 @@
       <c r="EC39" s="15">
         <v>3</v>
       </c>
+      <c r="ED39" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -46200,7 +46476,7 @@
       <c r="AB40" s="26">
         <v>1</v>
       </c>
-      <c r="AC40" s="45">
+      <c r="AC40" s="28">
         <v>0</v>
       </c>
       <c r="AD40" s="26">
@@ -46515,8 +46791,11 @@
       <c r="EC40" s="15">
         <v>0</v>
       </c>
+      <c r="ED40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -46598,7 +46877,7 @@
       <c r="AB41" s="26">
         <v>0</v>
       </c>
-      <c r="AC41" s="45">
+      <c r="AC41" s="28">
         <v>0</v>
       </c>
       <c r="AD41" s="26">
@@ -46913,8 +47192,11 @@
       <c r="EC41" s="15">
         <v>0</v>
       </c>
+      <c r="ED41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -46996,7 +47278,7 @@
       <c r="AB42" s="26">
         <v>2</v>
       </c>
-      <c r="AC42" s="45">
+      <c r="AC42" s="28">
         <v>4</v>
       </c>
       <c r="AD42" s="26">
@@ -47311,8 +47593,11 @@
       <c r="EC42" s="15">
         <v>1</v>
       </c>
+      <c r="ED42" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -47394,7 +47679,7 @@
       <c r="AB43" s="26">
         <v>40</v>
       </c>
-      <c r="AC43" s="45">
+      <c r="AC43" s="28">
         <v>30</v>
       </c>
       <c r="AD43" s="26">
@@ -47709,8 +47994,11 @@
       <c r="EC43" s="28">
         <v>34</v>
       </c>
+      <c r="ED43" s="28">
+        <v>28</v>
+      </c>
     </row>
-    <row r="44" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -47792,7 +48080,7 @@
       <c r="AB44" s="26">
         <v>1</v>
       </c>
-      <c r="AC44" s="45">
+      <c r="AC44" s="28">
         <v>3</v>
       </c>
       <c r="AD44" s="26">
@@ -48107,8 +48395,11 @@
       <c r="EC44" s="15">
         <v>1</v>
       </c>
+      <c r="ED44" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -48190,7 +48481,7 @@
       <c r="AB45" s="26">
         <v>4</v>
       </c>
-      <c r="AC45" s="45">
+      <c r="AC45" s="28">
         <v>1</v>
       </c>
       <c r="AD45" s="26">
@@ -48505,8 +48796,11 @@
       <c r="EC45" s="15">
         <v>5</v>
       </c>
+      <c r="ED45" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="46" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -48588,7 +48882,7 @@
       <c r="AB46" s="26">
         <v>7</v>
       </c>
-      <c r="AC46" s="45">
+      <c r="AC46" s="28">
         <v>5</v>
       </c>
       <c r="AD46" s="26">
@@ -48903,8 +49197,11 @@
       <c r="EC46" s="15">
         <v>5</v>
       </c>
+      <c r="ED46" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="47" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -48986,7 +49283,7 @@
       <c r="AB47" s="26">
         <v>1</v>
       </c>
-      <c r="AC47" s="45">
+      <c r="AC47" s="28">
         <v>1</v>
       </c>
       <c r="AD47" s="26">
@@ -49301,8 +49598,11 @@
       <c r="EC47" s="15">
         <v>1</v>
       </c>
+      <c r="ED47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -49384,7 +49684,7 @@
       <c r="AB48" s="26">
         <v>7</v>
       </c>
-      <c r="AC48" s="45">
+      <c r="AC48" s="28">
         <v>4</v>
       </c>
       <c r="AD48" s="26">
@@ -49699,9 +49999,12 @@
       <c r="EC48" s="15">
         <v>2</v>
       </c>
+      <c r="ED48" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="49" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61" t="s">
+    <row r="49" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -49782,7 +50085,7 @@
       <c r="AB49" s="26">
         <v>9</v>
       </c>
-      <c r="AC49" s="45">
+      <c r="AC49" s="28">
         <v>5</v>
       </c>
       <c r="AD49" s="26">
@@ -50097,9 +50400,12 @@
       <c r="EC49" s="15">
         <v>10</v>
       </c>
+      <c r="ED49" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="50" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="61"/>
+    <row r="50" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="69"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -50178,7 +50484,7 @@
       <c r="AB50" s="26">
         <v>0</v>
       </c>
-      <c r="AC50" s="45">
+      <c r="AC50" s="28">
         <v>1</v>
       </c>
       <c r="AD50" s="26">
@@ -50493,8 +50799,11 @@
       <c r="EC50" s="15">
         <v>2</v>
       </c>
+      <c r="ED50" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -50576,7 +50885,7 @@
       <c r="AB51" s="26">
         <v>1</v>
       </c>
-      <c r="AC51" s="45">
+      <c r="AC51" s="28">
         <v>4</v>
       </c>
       <c r="AD51" s="26">
@@ -50891,8 +51200,11 @@
       <c r="EC51" s="15">
         <v>2</v>
       </c>
+      <c r="ED51" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -50974,7 +51286,7 @@
       <c r="AB52" s="26">
         <v>5</v>
       </c>
-      <c r="AC52" s="45">
+      <c r="AC52" s="28">
         <v>6</v>
       </c>
       <c r="AD52" s="26">
@@ -51289,8 +51601,11 @@
       <c r="EC52" s="15">
         <v>5</v>
       </c>
+      <c r="ED52" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="53" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -51372,7 +51687,7 @@
       <c r="AB53" s="26">
         <v>14</v>
       </c>
-      <c r="AC53" s="45">
+      <c r="AC53" s="28">
         <v>6</v>
       </c>
       <c r="AD53" s="26">
@@ -51687,8 +52002,11 @@
       <c r="EC53" s="15">
         <v>12</v>
       </c>
+      <c r="ED53" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="54" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -51770,7 +52088,7 @@
       <c r="AB54" s="26">
         <v>5</v>
       </c>
-      <c r="AC54" s="45">
+      <c r="AC54" s="28">
         <v>4</v>
       </c>
       <c r="AD54" s="26">
@@ -52085,8 +52403,11 @@
       <c r="EC54" s="15">
         <v>7</v>
       </c>
+      <c r="ED54" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -52168,7 +52489,7 @@
       <c r="AB55" s="26">
         <v>8</v>
       </c>
-      <c r="AC55" s="45">
+      <c r="AC55" s="28">
         <v>10</v>
       </c>
       <c r="AD55" s="26">
@@ -52483,8 +52804,11 @@
       <c r="EC55" s="15">
         <v>6</v>
       </c>
+      <c r="ED55" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -52566,7 +52890,7 @@
       <c r="AB56" s="26">
         <v>0</v>
       </c>
-      <c r="AC56" s="45">
+      <c r="AC56" s="28">
         <v>2</v>
       </c>
       <c r="AD56" s="26">
@@ -52881,8 +53205,11 @@
       <c r="EC56" s="15">
         <v>3</v>
       </c>
+      <c r="ED56" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -52964,7 +53291,7 @@
       <c r="AB57" s="26">
         <v>1</v>
       </c>
-      <c r="AC57" s="45">
+      <c r="AC57" s="28">
         <v>1</v>
       </c>
       <c r="AD57" s="26">
@@ -53279,8 +53606,11 @@
       <c r="EC57" s="15">
         <v>0</v>
       </c>
+      <c r="ED57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -53385,7 +53715,7 @@
         <f t="shared" si="0"/>
         <v>963</v>
       </c>
-      <c r="AC58" s="46">
+      <c r="AC58" s="43">
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
@@ -53804,122 +54134,21 @@
         <f t="shared" si="8"/>
         <v>1778</v>
       </c>
+      <c r="ED58" s="14">
+        <v>1480</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="DD2:EC2"/>
-    <mergeCell ref="DD3:EC3"/>
-    <mergeCell ref="EC4:EC5"/>
-    <mergeCell ref="EB4:EB5"/>
-    <mergeCell ref="EA4:EA5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="CR3:DC3"/>
-    <mergeCell ref="BD2:DC2"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="BD3:CQ3"/>
-    <mergeCell ref="DJ4:DJ5"/>
-    <mergeCell ref="DI4:DI5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CL4:CL5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CR4:CR5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="CY4:CY5"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BG4:BG5"/>
+  <mergeCells count="147">
+    <mergeCell ref="DS4:DS5"/>
+    <mergeCell ref="DR4:DR5"/>
+    <mergeCell ref="DQ4:DQ5"/>
+    <mergeCell ref="DT4:DT5"/>
+    <mergeCell ref="DV4:DV5"/>
+    <mergeCell ref="DY4:DY5"/>
+    <mergeCell ref="DW4:DW5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="DM4:DM5"/>
     <mergeCell ref="DL4:DL5"/>
     <mergeCell ref="DG4:DG5"/>
     <mergeCell ref="DX4:DX5"/>
@@ -53944,15 +54173,120 @@
     <mergeCell ref="DP4:DP5"/>
     <mergeCell ref="DO4:DO5"/>
     <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="DS4:DS5"/>
-    <mergeCell ref="DR4:DR5"/>
-    <mergeCell ref="DQ4:DQ5"/>
-    <mergeCell ref="DT4:DT5"/>
-    <mergeCell ref="DV4:DV5"/>
-    <mergeCell ref="DY4:DY5"/>
-    <mergeCell ref="DW4:DW5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="DM4:DM5"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CR4:CR5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="CY4:CY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="DD2:ED2"/>
+    <mergeCell ref="DD3:ED3"/>
+    <mergeCell ref="ED4:ED5"/>
+    <mergeCell ref="EC4:EC5"/>
+    <mergeCell ref="EB4:EB5"/>
+    <mergeCell ref="EA4:EA5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="CR3:DC3"/>
+    <mergeCell ref="BD2:DC2"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="BD3:CQ3"/>
+    <mergeCell ref="DJ4:DJ5"/>
+    <mergeCell ref="DI4:DI5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CL4:CL5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CS4:CS5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -53987,7 +54321,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:EC57</xm:sqref>
+          <xm:sqref>DP6:ED57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -53997,13 +54331,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC61"/>
+  <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BO45" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BP30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CC63" sqref="CC63"/>
+      <selection pane="bottomRight" activeCell="CD57" sqref="CD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -54016,11 +54350,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="81" width="10.875" style="1" customWidth="1"/>
-    <col min="82" max="16384" width="8.625" style="1"/>
+    <col min="54" max="82" width="10.875" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -54076,14 +54410,15 @@
       <c r="BZ1" s="19"/>
       <c r="CA1" s="19"/>
       <c r="CB1" s="19"/>
-      <c r="CC1" s="19" t="s">
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="51" t="s">
+    <row r="2" spans="1:82" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="73" t="s">
         <v>243</v>
       </c>
       <c r="E2" s="52"/>
@@ -54136,129 +54471,131 @@
       <c r="AZ2" s="52"/>
       <c r="BA2" s="52"/>
       <c r="BB2" s="52"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="73" t="s">
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="73"/>
-      <c r="BH2" s="73"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="73"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="73"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="73"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="73"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
     </row>
-    <row r="3" spans="1:81" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="80" t="s">
+    <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="72" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72" t="s">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
     </row>
-    <row r="4" spans="1:81" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="63" t="s">
+    <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="71" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -54342,243 +54679,247 @@
       <c r="AD4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AE4" s="53" t="s">
+      <c r="AE4" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="AF4" s="53" t="s">
+      <c r="AF4" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AG4" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AH4" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AI4" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AK4" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AM4" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="53" t="s">
+      <c r="AN4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AO4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AP4" s="53" t="s">
+      <c r="AP4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="AQ4" s="53" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AR4" s="53" t="s">
+      <c r="AR4" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AS4" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AT4" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AU4" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="AV4" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="AW4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AX4" s="53" t="s">
+      <c r="AX4" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="AY4" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BA4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BB4" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="BC4" s="53" t="s">
+      <c r="BC4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="BD4" s="47" t="s">
+      <c r="BD4" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" s="47" t="s">
+      <c r="BE4" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="47" t="s">
+      <c r="BF4" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="BG4" s="47" t="s">
+      <c r="BG4" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="47" t="s">
+      <c r="BH4" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="47" t="s">
+      <c r="BI4" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="47" t="s">
+      <c r="BJ4" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="BK4" s="47" t="s">
+      <c r="BK4" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="BL4" s="47" t="s">
+      <c r="BL4" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="BM4" s="47" t="s">
+      <c r="BM4" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="BN4" s="47" t="s">
+      <c r="BN4" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="47" t="s">
+      <c r="BO4" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="BP4" s="47" t="s">
+      <c r="BP4" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="47" t="s">
+      <c r="BQ4" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="47" t="s">
+      <c r="BR4" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="BS4" s="47" t="s">
+      <c r="BS4" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="BT4" s="47" t="s">
+      <c r="BT4" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="BU4" s="47" t="s">
+      <c r="BU4" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="BV4" s="47" t="s">
+      <c r="BV4" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="BW4" s="47" t="s">
+      <c r="BW4" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="BX4" s="47" t="s">
+      <c r="BX4" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="BY4" s="47" t="s">
+      <c r="BY4" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="BZ4" s="47" t="s">
+      <c r="BZ4" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="CA4" s="47" t="s">
+      <c r="CA4" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="47" t="s">
+      <c r="CB4" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="CC4" s="47" t="s">
+      <c r="CC4" s="46" t="s">
         <v>384</v>
       </c>
+      <c r="CD4" s="46" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="5" spans="1:81" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="71"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="48"/>
-      <c r="BW5" s="48"/>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
+    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="47"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="47"/>
+      <c r="BT5" s="47"/>
+      <c r="BU5" s="47"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="47"/>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="47"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
     </row>
-    <row r="6" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -54820,8 +55161,11 @@
       <c r="CC6" s="28">
         <v>36</v>
       </c>
+      <c r="CD6" s="28">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -55062,8 +55406,11 @@
       <c r="CC7" s="15">
         <v>0</v>
       </c>
+      <c r="CD7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -55304,8 +55651,11 @@
       <c r="CC8" s="28">
         <v>1</v>
       </c>
+      <c r="CD8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -55547,8 +55897,11 @@
       <c r="CC9" s="15">
         <v>10</v>
       </c>
+      <c r="CD9" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -55789,8 +56142,11 @@
       <c r="CC10" s="15">
         <v>0</v>
       </c>
+      <c r="CD10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -56031,8 +56387,11 @@
       <c r="CC11" s="15">
         <v>7</v>
       </c>
+      <c r="CD11" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -56273,8 +56632,11 @@
       <c r="CC12" s="15">
         <v>0</v>
       </c>
+      <c r="CD12" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -56515,8 +56877,11 @@
       <c r="CC13" s="15">
         <v>17</v>
       </c>
+      <c r="CD13" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -56757,8 +57122,11 @@
       <c r="CC14" s="15">
         <v>17</v>
       </c>
+      <c r="CD14" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -56999,8 +57367,11 @@
       <c r="CC15" s="15">
         <v>0</v>
       </c>
+      <c r="CD15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -57242,8 +57613,11 @@
       <c r="CC16" s="28">
         <v>10</v>
       </c>
+      <c r="CD16" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -57484,8 +57858,11 @@
       <c r="CC17" s="15">
         <v>63</v>
       </c>
+      <c r="CD17" s="15">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -57727,10 +58104,13 @@
       <c r="CC18" s="34">
         <v>348</v>
       </c>
+      <c r="CD18" s="34">
+        <v>266</v>
+      </c>
     </row>
-    <row r="19" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="84" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -57970,10 +58350,13 @@
       <c r="CC19" s="15">
         <v>19</v>
       </c>
+      <c r="CD19" s="15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -58211,10 +58594,13 @@
       <c r="CC20" s="28">
         <v>68</v>
       </c>
+      <c r="CD20" s="28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="21" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="90"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -58452,8 +58838,11 @@
       <c r="CC21" s="15">
         <v>6</v>
       </c>
+      <c r="CD21" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="22" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -58694,8 +59083,11 @@
       <c r="CC22" s="15">
         <v>3</v>
       </c>
+      <c r="CD22" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -58936,8 +59328,11 @@
       <c r="CC23" s="15">
         <v>0</v>
       </c>
+      <c r="CD23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -59178,8 +59573,11 @@
       <c r="CC24" s="15">
         <v>2</v>
       </c>
+      <c r="CD24" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -59420,8 +59818,11 @@
       <c r="CC25" s="15">
         <v>1</v>
       </c>
+      <c r="CD25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -59662,8 +60063,11 @@
       <c r="CC26" s="15">
         <v>4</v>
       </c>
+      <c r="CD26" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -59904,8 +60308,11 @@
       <c r="CC27" s="15">
         <v>0</v>
       </c>
+      <c r="CD27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -60146,9 +60553,12 @@
       <c r="CC28" s="15">
         <v>0</v>
       </c>
+      <c r="CD28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91" t="s">
+    <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -60388,9 +60798,12 @@
       <c r="CC29" s="15">
         <v>1</v>
       </c>
+      <c r="CD29" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="92"/>
+    <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -60628,8 +61041,11 @@
       <c r="CC30" s="15">
         <v>4</v>
       </c>
+      <c r="CD30" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -60871,8 +61287,11 @@
       <c r="CC31" s="15">
         <v>8</v>
       </c>
+      <c r="CD31" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="32" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -61113,8 +61532,11 @@
       <c r="CC32" s="15">
         <v>0</v>
       </c>
+      <c r="CD32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -61355,8 +61777,11 @@
       <c r="CC33" s="15">
         <v>0</v>
       </c>
+      <c r="CD33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -61598,10 +62023,13 @@
       <c r="CC34" s="15">
         <v>23</v>
       </c>
+      <c r="CD34" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="84" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -61841,9 +62269,12 @@
       <c r="CC35" s="15">
         <v>75</v>
       </c>
+      <c r="CD35" s="15">
+        <v>39</v>
+      </c>
     </row>
-    <row r="36" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="90"/>
+    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="85"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -62081,8 +62512,11 @@
       <c r="CC36" s="28">
         <v>18</v>
       </c>
+      <c r="CD36" s="28">
+        <v>17</v>
+      </c>
     </row>
-    <row r="37" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -62324,8 +62758,11 @@
       <c r="CC37" s="15">
         <v>11</v>
       </c>
+      <c r="CD37" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -62566,8 +63003,11 @@
       <c r="CC38" s="15">
         <v>2</v>
       </c>
+      <c r="CD38" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -62808,8 +63248,11 @@
       <c r="CC39" s="15">
         <v>4</v>
       </c>
+      <c r="CD39" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -63050,8 +63493,11 @@
       <c r="CC40" s="15">
         <v>0</v>
       </c>
+      <c r="CD40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -63292,8 +63738,11 @@
       <c r="CC41" s="15">
         <v>0</v>
       </c>
+      <c r="CD41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -63534,8 +63983,11 @@
       <c r="CC42" s="15">
         <v>5</v>
       </c>
+      <c r="CD42" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -63776,8 +64228,11 @@
       <c r="CC43" s="28">
         <v>33</v>
       </c>
+      <c r="CD43" s="28">
+        <v>20</v>
+      </c>
     </row>
-    <row r="44" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -64018,8 +64473,11 @@
       <c r="CC44" s="15">
         <v>1</v>
       </c>
+      <c r="CD44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -64260,8 +64718,11 @@
       <c r="CC45" s="15">
         <v>6</v>
       </c>
+      <c r="CD45" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -64502,8 +64963,11 @@
       <c r="CC46" s="15">
         <v>4</v>
       </c>
+      <c r="CD46" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -64744,8 +65208,11 @@
       <c r="CC47" s="15">
         <v>0</v>
       </c>
+      <c r="CD47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -64986,10 +65453,13 @@
       <c r="CC48" s="15">
         <v>7</v>
       </c>
+      <c r="CD48" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="84" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -65229,9 +65699,12 @@
       <c r="CC49" s="15">
         <v>4</v>
       </c>
+      <c r="CD49" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:81" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="90"/>
+    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="85"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -65469,8 +65942,11 @@
       <c r="CC50" s="15">
         <v>3</v>
       </c>
+      <c r="CD50" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -65711,8 +66187,11 @@
       <c r="CC51" s="15">
         <v>0</v>
       </c>
+      <c r="CD51" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -65953,8 +66432,11 @@
       <c r="CC52" s="15">
         <v>4</v>
       </c>
+      <c r="CD52" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -66195,8 +66677,11 @@
       <c r="CC53" s="15">
         <v>18</v>
       </c>
+      <c r="CD53" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="54" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -66437,8 +66922,11 @@
       <c r="CC54" s="15">
         <v>1</v>
       </c>
+      <c r="CD54" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -66679,8 +67167,11 @@
       <c r="CC55" s="15">
         <v>3</v>
       </c>
+      <c r="CD55" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="56" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -66921,8 +67412,11 @@
       <c r="CC56" s="15">
         <v>0</v>
       </c>
+      <c r="CD56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -67163,8 +67657,11 @@
       <c r="CC57" s="15">
         <v>0</v>
       </c>
+      <c r="CD57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -67481,8 +67978,11 @@
         <f t="shared" si="8"/>
         <v>847</v>
       </c>
+      <c r="CD58" s="14">
+        <v>664</v>
+      </c>
     </row>
-    <row r="59" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -67515,7 +68015,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -67548,7 +68048,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:81" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -67582,37 +68082,51 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="BD2:CC2"/>
-    <mergeCell ref="BD3:CC3"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="AZ4:AZ5"/>
+  <mergeCells count="91">
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -67629,57 +68143,44 @@
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CA4:CA5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="81" max="66" man="1"/>
+    <brk id="82" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -67696,7 +68197,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CC57</xm:sqref>
+          <xm:sqref>BP6:CD57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -67706,13 +68207,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH61"/>
+  <dimension ref="A1:CI61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BY42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CC60" sqref="CC60"/>
+      <selection pane="bottomRight" activeCell="CA60" sqref="CA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -67723,11 +68224,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="86" width="10.875" style="1" customWidth="1"/>
-    <col min="87" max="16384" width="8.625" style="1"/>
+    <col min="34" max="87" width="10.875" style="1" customWidth="1"/>
+    <col min="88" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:87" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -67783,14 +68284,15 @@
       <c r="BZ1" s="19"/>
       <c r="CA1" s="19"/>
       <c r="CB1" s="19"/>
-      <c r="CC1" s="19" t="s">
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="51" t="s">
+    <row r="2" spans="1:87" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="73" t="s">
         <v>244</v>
       </c>
       <c r="E2" s="52"/>
@@ -67843,139 +68345,141 @@
       <c r="AZ2" s="52"/>
       <c r="BA2" s="52"/>
       <c r="BB2" s="52"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="73" t="s">
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="73"/>
-      <c r="BH2" s="73"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="73"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="73"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="73"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="20"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
       <c r="CE2" s="20"/>
       <c r="CF2" s="20"/>
       <c r="CG2" s="20"/>
       <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
     </row>
-    <row r="3" spans="1:86" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="80" t="s">
+    <row r="3" spans="1:87" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="72" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72" t="s">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
-      <c r="CD3" s="21"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
       <c r="CE3" s="21"/>
       <c r="CF3" s="21"/>
       <c r="CG3" s="21"/>
       <c r="CH3" s="21"/>
+      <c r="CI3" s="21"/>
     </row>
-    <row r="4" spans="1:86" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="63" t="s">
+    <row r="4" spans="1:87" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="71" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -68059,253 +68563,257 @@
       <c r="AD4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AE4" s="53" t="s">
+      <c r="AE4" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="AF4" s="53" t="s">
+      <c r="AF4" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AG4" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AH4" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AI4" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AK4" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AM4" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="53" t="s">
+      <c r="AN4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AO4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AP4" s="53" t="s">
+      <c r="AP4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="AQ4" s="53" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AR4" s="53" t="s">
+      <c r="AR4" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AS4" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AT4" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AU4" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="AV4" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="AW4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AX4" s="53" t="s">
+      <c r="AX4" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="AY4" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BA4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BB4" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="BC4" s="53" t="s">
+      <c r="BC4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="BD4" s="47" t="s">
+      <c r="BD4" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" s="47" t="s">
+      <c r="BE4" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="47" t="s">
+      <c r="BF4" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="BG4" s="47" t="s">
+      <c r="BG4" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="47" t="s">
+      <c r="BH4" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="47" t="s">
+      <c r="BI4" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="47" t="s">
+      <c r="BJ4" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="BK4" s="47" t="s">
+      <c r="BK4" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="BL4" s="47" t="s">
+      <c r="BL4" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="BM4" s="47" t="s">
+      <c r="BM4" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="BN4" s="47" t="s">
+      <c r="BN4" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="47" t="s">
+      <c r="BO4" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="BP4" s="47" t="s">
+      <c r="BP4" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="47" t="s">
+      <c r="BQ4" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="47" t="s">
+      <c r="BR4" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="BS4" s="47" t="s">
+      <c r="BS4" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="BT4" s="47" t="s">
+      <c r="BT4" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="BU4" s="47" t="s">
+      <c r="BU4" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="BV4" s="47" t="s">
+      <c r="BV4" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="BW4" s="47" t="s">
+      <c r="BW4" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="BX4" s="47" t="s">
+      <c r="BX4" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="BY4" s="47" t="s">
+      <c r="BY4" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="BZ4" s="47" t="s">
+      <c r="BZ4" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="CA4" s="47" t="s">
+      <c r="CA4" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="47" t="s">
+      <c r="CB4" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="CC4" s="47" t="s">
+      <c r="CC4" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="94"/>
-      <c r="CF4" s="94"/>
-      <c r="CG4" s="94"/>
-      <c r="CH4" s="94"/>
+      <c r="CD4" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE4" s="89"/>
+      <c r="CF4" s="89"/>
+      <c r="CG4" s="89"/>
+      <c r="CH4" s="89"/>
+      <c r="CI4" s="89"/>
     </row>
-    <row r="5" spans="1:86" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="71"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="94"/>
-      <c r="CE5" s="94"/>
-      <c r="CF5" s="94"/>
-      <c r="CG5" s="94"/>
-      <c r="CH5" s="94"/>
+    <row r="5" spans="1:87" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="47"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="46"/>
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="89"/>
+      <c r="CF5" s="89"/>
+      <c r="CG5" s="89"/>
+      <c r="CH5" s="89"/>
+      <c r="CI5" s="89"/>
     </row>
-    <row r="6" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -68547,13 +69055,16 @@
       <c r="CC6" s="28">
         <v>123</v>
       </c>
-      <c r="CD6" s="22"/>
+      <c r="CD6" s="28">
+        <v>90</v>
+      </c>
       <c r="CE6" s="22"/>
       <c r="CF6" s="22"/>
       <c r="CG6" s="22"/>
       <c r="CH6" s="22"/>
+      <c r="CI6" s="22"/>
     </row>
-    <row r="7" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -68794,13 +69305,16 @@
       <c r="CC7" s="15">
         <v>0</v>
       </c>
-      <c r="CD7" s="23"/>
+      <c r="CD7" s="15">
+        <v>1</v>
+      </c>
       <c r="CE7" s="23"/>
       <c r="CF7" s="23"/>
       <c r="CG7" s="23"/>
       <c r="CH7" s="23"/>
+      <c r="CI7" s="23"/>
     </row>
-    <row r="8" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -69041,13 +69555,16 @@
       <c r="CC8" s="28">
         <v>9</v>
       </c>
-      <c r="CD8" s="23"/>
+      <c r="CD8" s="28">
+        <v>10</v>
+      </c>
       <c r="CE8" s="23"/>
       <c r="CF8" s="23"/>
       <c r="CG8" s="23"/>
       <c r="CH8" s="23"/>
+      <c r="CI8" s="23"/>
     </row>
-    <row r="9" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -69289,13 +69806,16 @@
       <c r="CC9" s="15">
         <v>75</v>
       </c>
-      <c r="CD9" s="23"/>
+      <c r="CD9" s="15">
+        <v>56</v>
+      </c>
       <c r="CE9" s="23"/>
       <c r="CF9" s="23"/>
       <c r="CG9" s="23"/>
       <c r="CH9" s="23"/>
+      <c r="CI9" s="23"/>
     </row>
-    <row r="10" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -69536,13 +70056,16 @@
       <c r="CC10" s="15">
         <v>0</v>
       </c>
-      <c r="CD10" s="23"/>
+      <c r="CD10" s="15">
+        <v>1</v>
+      </c>
       <c r="CE10" s="23"/>
       <c r="CF10" s="23"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="23"/>
+      <c r="CI10" s="23"/>
     </row>
-    <row r="11" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -69783,13 +70306,16 @@
       <c r="CC11" s="15">
         <v>11</v>
       </c>
-      <c r="CD11" s="23"/>
+      <c r="CD11" s="15">
+        <v>6</v>
+      </c>
       <c r="CE11" s="23"/>
       <c r="CF11" s="23"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="23"/>
+      <c r="CI11" s="23"/>
     </row>
-    <row r="12" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -70030,13 +70556,16 @@
       <c r="CC12" s="15">
         <v>3</v>
       </c>
-      <c r="CD12" s="23"/>
+      <c r="CD12" s="15">
+        <v>6</v>
+      </c>
       <c r="CE12" s="23"/>
       <c r="CF12" s="23"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="23"/>
+      <c r="CI12" s="23"/>
     </row>
-    <row r="13" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -70277,13 +70806,16 @@
       <c r="CC13" s="15">
         <v>24</v>
       </c>
-      <c r="CD13" s="22"/>
+      <c r="CD13" s="15">
+        <v>15</v>
+      </c>
       <c r="CE13" s="22"/>
       <c r="CF13" s="22"/>
       <c r="CG13" s="22"/>
       <c r="CH13" s="22"/>
+      <c r="CI13" s="22"/>
     </row>
-    <row r="14" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -70524,13 +71056,16 @@
       <c r="CC14" s="15">
         <v>23</v>
       </c>
-      <c r="CD14" s="23"/>
+      <c r="CD14" s="15">
+        <v>7</v>
+      </c>
       <c r="CE14" s="23"/>
       <c r="CF14" s="23"/>
       <c r="CG14" s="23"/>
       <c r="CH14" s="23"/>
+      <c r="CI14" s="23"/>
     </row>
-    <row r="15" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -70771,13 +71306,16 @@
       <c r="CC15" s="15">
         <v>2</v>
       </c>
-      <c r="CD15" s="23"/>
+      <c r="CD15" s="15">
+        <v>0</v>
+      </c>
       <c r="CE15" s="23"/>
       <c r="CF15" s="23"/>
       <c r="CG15" s="23"/>
       <c r="CH15" s="23"/>
+      <c r="CI15" s="23"/>
     </row>
-    <row r="16" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -71019,13 +71557,16 @@
       <c r="CC16" s="28">
         <v>114</v>
       </c>
-      <c r="CD16" s="22"/>
+      <c r="CD16" s="28">
+        <v>94</v>
+      </c>
       <c r="CE16" s="22"/>
       <c r="CF16" s="22"/>
       <c r="CG16" s="22"/>
       <c r="CH16" s="22"/>
+      <c r="CI16" s="22"/>
     </row>
-    <row r="17" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -71266,13 +71807,16 @@
       <c r="CC17" s="15">
         <v>103</v>
       </c>
-      <c r="CD17" s="22"/>
+      <c r="CD17" s="15">
+        <v>69</v>
+      </c>
       <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
+      <c r="CI17" s="22"/>
     </row>
-    <row r="18" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -71514,15 +72058,18 @@
       <c r="CC18" s="34">
         <v>1392</v>
       </c>
-      <c r="CD18" s="22"/>
+      <c r="CD18" s="34">
+        <v>1171</v>
+      </c>
       <c r="CE18" s="22"/>
       <c r="CF18" s="22"/>
       <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
+      <c r="CI18" s="22"/>
     </row>
-    <row r="19" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="84" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -71762,15 +72309,18 @@
       <c r="CC19" s="15">
         <v>21</v>
       </c>
-      <c r="CD19" s="22"/>
+      <c r="CD19" s="15">
+        <v>19</v>
+      </c>
       <c r="CE19" s="22"/>
       <c r="CF19" s="22"/>
       <c r="CG19" s="22"/>
       <c r="CH19" s="22"/>
+      <c r="CI19" s="22"/>
     </row>
-    <row r="20" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -72008,15 +72558,18 @@
       <c r="CC20" s="28">
         <v>62</v>
       </c>
-      <c r="CD20" s="22"/>
+      <c r="CD20" s="28">
+        <v>51</v>
+      </c>
       <c r="CE20" s="22"/>
       <c r="CF20" s="22"/>
       <c r="CG20" s="22"/>
       <c r="CH20" s="22"/>
+      <c r="CI20" s="22"/>
     </row>
-    <row r="21" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="90"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -72254,13 +72807,16 @@
       <c r="CC21" s="15">
         <v>13</v>
       </c>
-      <c r="CD21" s="22"/>
+      <c r="CD21" s="15">
+        <v>20</v>
+      </c>
       <c r="CE21" s="22"/>
       <c r="CF21" s="22"/>
       <c r="CG21" s="22"/>
       <c r="CH21" s="22"/>
+      <c r="CI21" s="22"/>
     </row>
-    <row r="22" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -72501,13 +73057,16 @@
       <c r="CC22" s="15">
         <v>5</v>
       </c>
-      <c r="CD22" s="23"/>
+      <c r="CD22" s="15">
+        <v>6</v>
+      </c>
       <c r="CE22" s="23"/>
       <c r="CF22" s="23"/>
       <c r="CG22" s="23"/>
       <c r="CH22" s="23"/>
+      <c r="CI22" s="23"/>
     </row>
-    <row r="23" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -72748,13 +73307,16 @@
       <c r="CC23" s="15">
         <v>2</v>
       </c>
-      <c r="CD23" s="23"/>
+      <c r="CD23" s="15">
+        <v>1</v>
+      </c>
       <c r="CE23" s="23"/>
       <c r="CF23" s="23"/>
       <c r="CG23" s="23"/>
       <c r="CH23" s="23"/>
+      <c r="CI23" s="23"/>
     </row>
-    <row r="24" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -72995,13 +73557,16 @@
       <c r="CC24" s="15">
         <v>8</v>
       </c>
-      <c r="CD24" s="22"/>
+      <c r="CD24" s="15">
+        <v>10</v>
+      </c>
       <c r="CE24" s="22"/>
       <c r="CF24" s="22"/>
       <c r="CG24" s="22"/>
       <c r="CH24" s="22"/>
+      <c r="CI24" s="22"/>
     </row>
-    <row r="25" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -73242,13 +73807,16 @@
       <c r="CC25" s="15">
         <v>0</v>
       </c>
-      <c r="CD25" s="23"/>
+      <c r="CD25" s="15">
+        <v>0</v>
+      </c>
       <c r="CE25" s="23"/>
       <c r="CF25" s="23"/>
       <c r="CG25" s="23"/>
       <c r="CH25" s="23"/>
+      <c r="CI25" s="23"/>
     </row>
-    <row r="26" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -73489,13 +74057,16 @@
       <c r="CC26" s="15">
         <v>7</v>
       </c>
-      <c r="CD26" s="23"/>
+      <c r="CD26" s="15">
+        <v>2</v>
+      </c>
       <c r="CE26" s="23"/>
       <c r="CF26" s="23"/>
       <c r="CG26" s="23"/>
       <c r="CH26" s="23"/>
+      <c r="CI26" s="23"/>
     </row>
-    <row r="27" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -73736,13 +74307,16 @@
       <c r="CC27" s="15">
         <v>0</v>
       </c>
-      <c r="CD27" s="23"/>
+      <c r="CD27" s="15">
+        <v>0</v>
+      </c>
       <c r="CE27" s="23"/>
       <c r="CF27" s="23"/>
       <c r="CG27" s="23"/>
       <c r="CH27" s="23"/>
+      <c r="CI27" s="23"/>
     </row>
-    <row r="28" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -73983,14 +74557,17 @@
       <c r="CC28" s="15">
         <v>0</v>
       </c>
-      <c r="CD28" s="22"/>
+      <c r="CD28" s="15">
+        <v>1</v>
+      </c>
       <c r="CE28" s="22"/>
       <c r="CF28" s="22"/>
       <c r="CG28" s="22"/>
       <c r="CH28" s="22"/>
+      <c r="CI28" s="22"/>
     </row>
-    <row r="29" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91" t="s">
+    <row r="29" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -74230,14 +74807,17 @@
       <c r="CC29" s="15">
         <v>0</v>
       </c>
-      <c r="CD29" s="23"/>
+      <c r="CD29" s="15">
+        <v>1</v>
+      </c>
       <c r="CE29" s="23"/>
       <c r="CF29" s="23"/>
       <c r="CG29" s="23"/>
       <c r="CH29" s="23"/>
+      <c r="CI29" s="23"/>
     </row>
-    <row r="30" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="92"/>
+    <row r="30" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -74475,13 +75055,16 @@
       <c r="CC30" s="15">
         <v>5</v>
       </c>
-      <c r="CD30" s="23"/>
+      <c r="CD30" s="15">
+        <v>11</v>
+      </c>
       <c r="CE30" s="23"/>
       <c r="CF30" s="23"/>
       <c r="CG30" s="23"/>
       <c r="CH30" s="23"/>
+      <c r="CI30" s="23"/>
     </row>
-    <row r="31" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -74723,13 +75306,16 @@
       <c r="CC31" s="15">
         <v>24</v>
       </c>
-      <c r="CD31" s="22"/>
+      <c r="CD31" s="15">
+        <v>25</v>
+      </c>
       <c r="CE31" s="22"/>
       <c r="CF31" s="22"/>
       <c r="CG31" s="22"/>
       <c r="CH31" s="22"/>
+      <c r="CI31" s="22"/>
     </row>
-    <row r="32" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -74970,13 +75556,16 @@
       <c r="CC32" s="15">
         <v>0</v>
       </c>
-      <c r="CD32" s="23"/>
+      <c r="CD32" s="15">
+        <v>1</v>
+      </c>
       <c r="CE32" s="23"/>
       <c r="CF32" s="23"/>
       <c r="CG32" s="23"/>
       <c r="CH32" s="23"/>
+      <c r="CI32" s="23"/>
     </row>
-    <row r="33" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -75217,13 +75806,16 @@
       <c r="CC33" s="15">
         <v>0</v>
       </c>
-      <c r="CD33" s="23"/>
+      <c r="CD33" s="15">
+        <v>0</v>
+      </c>
       <c r="CE33" s="23"/>
       <c r="CF33" s="23"/>
       <c r="CG33" s="23"/>
       <c r="CH33" s="23"/>
+      <c r="CI33" s="23"/>
     </row>
-    <row r="34" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -75465,15 +76057,18 @@
       <c r="CC34" s="15">
         <v>37</v>
       </c>
-      <c r="CD34" s="22"/>
+      <c r="CD34" s="15">
+        <v>54</v>
+      </c>
       <c r="CE34" s="22"/>
       <c r="CF34" s="22"/>
       <c r="CG34" s="22"/>
       <c r="CH34" s="22"/>
+      <c r="CI34" s="22"/>
     </row>
-    <row r="35" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="84" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -75713,14 +76308,17 @@
       <c r="CC35" s="15">
         <v>239</v>
       </c>
-      <c r="CD35" s="22"/>
+      <c r="CD35" s="15">
+        <v>213</v>
+      </c>
       <c r="CE35" s="22"/>
       <c r="CF35" s="22"/>
       <c r="CG35" s="22"/>
       <c r="CH35" s="22"/>
+      <c r="CI35" s="22"/>
     </row>
-    <row r="36" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="90"/>
+    <row r="36" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="85"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -75958,13 +76556,16 @@
       <c r="CC36" s="28">
         <v>18</v>
       </c>
-      <c r="CD36" s="22"/>
+      <c r="CD36" s="28">
+        <v>22</v>
+      </c>
       <c r="CE36" s="22"/>
       <c r="CF36" s="22"/>
       <c r="CG36" s="22"/>
       <c r="CH36" s="22"/>
+      <c r="CI36" s="22"/>
     </row>
-    <row r="37" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -76206,13 +76807,16 @@
       <c r="CC37" s="15">
         <v>40</v>
       </c>
-      <c r="CD37" s="22"/>
+      <c r="CD37" s="15">
+        <v>24</v>
+      </c>
       <c r="CE37" s="22"/>
       <c r="CF37" s="22"/>
       <c r="CG37" s="22"/>
       <c r="CH37" s="22"/>
+      <c r="CI37" s="22"/>
     </row>
-    <row r="38" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -76453,13 +77057,16 @@
       <c r="CC38" s="15">
         <v>4</v>
       </c>
-      <c r="CD38" s="23"/>
+      <c r="CD38" s="15">
+        <v>3</v>
+      </c>
       <c r="CE38" s="23"/>
       <c r="CF38" s="23"/>
       <c r="CG38" s="23"/>
       <c r="CH38" s="23"/>
+      <c r="CI38" s="23"/>
     </row>
-    <row r="39" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -76700,13 +77307,16 @@
       <c r="CC39" s="15">
         <v>3</v>
       </c>
-      <c r="CD39" s="23"/>
+      <c r="CD39" s="15">
+        <v>4</v>
+      </c>
       <c r="CE39" s="23"/>
       <c r="CF39" s="23"/>
       <c r="CG39" s="23"/>
       <c r="CH39" s="23"/>
+      <c r="CI39" s="23"/>
     </row>
-    <row r="40" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -76947,13 +77557,16 @@
       <c r="CC40" s="15">
         <v>0</v>
       </c>
-      <c r="CD40" s="23"/>
+      <c r="CD40" s="15">
+        <v>0</v>
+      </c>
       <c r="CE40" s="23"/>
       <c r="CF40" s="23"/>
       <c r="CG40" s="23"/>
       <c r="CH40" s="23"/>
+      <c r="CI40" s="23"/>
     </row>
-    <row r="41" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -77194,13 +77807,16 @@
       <c r="CC41" s="15">
         <v>0</v>
       </c>
-      <c r="CD41" s="23"/>
+      <c r="CD41" s="15">
+        <v>0</v>
+      </c>
       <c r="CE41" s="23"/>
       <c r="CF41" s="23"/>
       <c r="CG41" s="23"/>
       <c r="CH41" s="23"/>
+      <c r="CI41" s="23"/>
     </row>
-    <row r="42" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -77441,13 +78057,16 @@
       <c r="CC42" s="15">
         <v>3</v>
       </c>
-      <c r="CD42" s="23"/>
+      <c r="CD42" s="15">
+        <v>6</v>
+      </c>
       <c r="CE42" s="23"/>
       <c r="CF42" s="23"/>
       <c r="CG42" s="23"/>
       <c r="CH42" s="23"/>
+      <c r="CI42" s="23"/>
     </row>
-    <row r="43" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -77688,13 +78307,16 @@
       <c r="CC43" s="28">
         <v>21</v>
       </c>
-      <c r="CD43" s="23"/>
+      <c r="CD43" s="28">
+        <v>18</v>
+      </c>
       <c r="CE43" s="23"/>
       <c r="CF43" s="23"/>
       <c r="CG43" s="23"/>
       <c r="CH43" s="23"/>
+      <c r="CI43" s="23"/>
     </row>
-    <row r="44" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -77935,13 +78557,16 @@
       <c r="CC44" s="15">
         <v>4</v>
       </c>
-      <c r="CD44" s="23"/>
+      <c r="CD44" s="15">
+        <v>1</v>
+      </c>
       <c r="CE44" s="23"/>
       <c r="CF44" s="23"/>
       <c r="CG44" s="23"/>
       <c r="CH44" s="23"/>
+      <c r="CI44" s="23"/>
     </row>
-    <row r="45" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -78182,13 +78807,16 @@
       <c r="CC45" s="15">
         <v>13</v>
       </c>
-      <c r="CD45" s="22"/>
+      <c r="CD45" s="15">
+        <v>12</v>
+      </c>
       <c r="CE45" s="22"/>
       <c r="CF45" s="22"/>
       <c r="CG45" s="22"/>
       <c r="CH45" s="22"/>
+      <c r="CI45" s="22"/>
     </row>
-    <row r="46" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -78429,13 +79057,16 @@
       <c r="CC46" s="15">
         <v>13</v>
       </c>
-      <c r="CD46" s="23"/>
+      <c r="CD46" s="15">
+        <v>13</v>
+      </c>
       <c r="CE46" s="23"/>
       <c r="CF46" s="23"/>
       <c r="CG46" s="23"/>
       <c r="CH46" s="23"/>
+      <c r="CI46" s="23"/>
     </row>
-    <row r="47" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -78676,13 +79307,16 @@
       <c r="CC47" s="15">
         <v>1</v>
       </c>
-      <c r="CD47" s="23"/>
+      <c r="CD47" s="15">
+        <v>1</v>
+      </c>
       <c r="CE47" s="23"/>
       <c r="CF47" s="23"/>
       <c r="CG47" s="23"/>
       <c r="CH47" s="23"/>
+      <c r="CI47" s="23"/>
     </row>
-    <row r="48" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -78923,15 +79557,18 @@
       <c r="CC48" s="15">
         <v>3</v>
       </c>
-      <c r="CD48" s="23"/>
+      <c r="CD48" s="15">
+        <v>9</v>
+      </c>
       <c r="CE48" s="23"/>
       <c r="CF48" s="23"/>
       <c r="CG48" s="23"/>
       <c r="CH48" s="23"/>
+      <c r="CI48" s="23"/>
     </row>
-    <row r="49" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="84" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -79171,14 +79808,17 @@
       <c r="CC49" s="15">
         <v>38</v>
       </c>
-      <c r="CD49" s="22"/>
+      <c r="CD49" s="15">
+        <v>23</v>
+      </c>
       <c r="CE49" s="22"/>
       <c r="CF49" s="22"/>
       <c r="CG49" s="22"/>
       <c r="CH49" s="22"/>
+      <c r="CI49" s="22"/>
     </row>
-    <row r="50" spans="1:86" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="90"/>
+    <row r="50" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="85"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -79416,13 +80056,16 @@
       <c r="CC50" s="15">
         <v>5</v>
       </c>
-      <c r="CD50" s="22"/>
+      <c r="CD50" s="15">
+        <v>6</v>
+      </c>
       <c r="CE50" s="22"/>
       <c r="CF50" s="22"/>
       <c r="CG50" s="22"/>
       <c r="CH50" s="22"/>
+      <c r="CI50" s="22"/>
     </row>
-    <row r="51" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -79663,13 +80306,16 @@
       <c r="CC51" s="15">
         <v>13</v>
       </c>
-      <c r="CD51" s="23"/>
+      <c r="CD51" s="15">
+        <v>8</v>
+      </c>
       <c r="CE51" s="23"/>
       <c r="CF51" s="23"/>
       <c r="CG51" s="23"/>
       <c r="CH51" s="23"/>
+      <c r="CI51" s="23"/>
     </row>
-    <row r="52" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -79910,13 +80556,16 @@
       <c r="CC52" s="15">
         <v>10</v>
       </c>
-      <c r="CD52" s="23"/>
+      <c r="CD52" s="15">
+        <v>7</v>
+      </c>
       <c r="CE52" s="23"/>
       <c r="CF52" s="23"/>
       <c r="CG52" s="23"/>
       <c r="CH52" s="23"/>
+      <c r="CI52" s="23"/>
     </row>
-    <row r="53" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -80157,13 +80806,16 @@
       <c r="CC53" s="15">
         <v>34</v>
       </c>
-      <c r="CD53" s="23"/>
+      <c r="CD53" s="15">
+        <v>27</v>
+      </c>
       <c r="CE53" s="23"/>
       <c r="CF53" s="23"/>
       <c r="CG53" s="23"/>
       <c r="CH53" s="23"/>
+      <c r="CI53" s="23"/>
     </row>
-    <row r="54" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -80404,13 +81056,16 @@
       <c r="CC54" s="15">
         <v>4</v>
       </c>
-      <c r="CD54" s="23"/>
+      <c r="CD54" s="15">
+        <v>2</v>
+      </c>
       <c r="CE54" s="23"/>
       <c r="CF54" s="23"/>
       <c r="CG54" s="23"/>
       <c r="CH54" s="23"/>
+      <c r="CI54" s="23"/>
     </row>
-    <row r="55" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -80651,13 +81306,16 @@
       <c r="CC55" s="15">
         <v>22</v>
       </c>
-      <c r="CD55" s="23"/>
+      <c r="CD55" s="15">
+        <v>14</v>
+      </c>
       <c r="CE55" s="23"/>
       <c r="CF55" s="23"/>
       <c r="CG55" s="23"/>
       <c r="CH55" s="23"/>
+      <c r="CI55" s="23"/>
     </row>
-    <row r="56" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -80898,13 +81556,16 @@
       <c r="CC56" s="15">
         <v>0</v>
       </c>
-      <c r="CD56" s="23"/>
+      <c r="CD56" s="15">
+        <v>0</v>
+      </c>
       <c r="CE56" s="23"/>
       <c r="CF56" s="23"/>
       <c r="CG56" s="23"/>
       <c r="CH56" s="23"/>
+      <c r="CI56" s="23"/>
     </row>
-    <row r="57" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -81145,13 +81806,16 @@
       <c r="CC57" s="15">
         <v>2</v>
       </c>
-      <c r="CD57" s="23"/>
+      <c r="CD57" s="15">
+        <v>1</v>
+      </c>
       <c r="CE57" s="23"/>
       <c r="CF57" s="23"/>
       <c r="CG57" s="23"/>
       <c r="CH57" s="23"/>
+      <c r="CI57" s="23"/>
     </row>
-    <row r="58" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -81468,13 +82132,16 @@
         <f t="shared" si="4"/>
         <v>2553</v>
       </c>
-      <c r="CD58" s="24"/>
+      <c r="CD58" s="14">
+        <v>2142</v>
+      </c>
       <c r="CE58" s="24"/>
       <c r="CF58" s="24"/>
       <c r="CG58" s="24"/>
       <c r="CH58" s="24"/>
+      <c r="CI58" s="24"/>
     </row>
-    <row r="59" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -81507,7 +82174,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -81540,7 +82207,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:86" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -81574,18 +82241,75 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="BD2:CC2"/>
-    <mergeCell ref="BD3:CC3"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
+  <mergeCells count="96">
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -81602,78 +82326,22 @@
     <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="55" max="66" man="1"/>
   </colBreaks>
@@ -81692,7 +82360,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CC57</xm:sqref>
+          <xm:sqref>BP6:CD57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB041004-1\ＪＯＢ041004-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB041012-1\ＪＯＢ041012-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CD$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CD$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$ED$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$ED$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CE$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CE$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EE$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EE$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="392">
   <si>
     <t>都道府県</t>
   </si>
@@ -4346,6 +4346,18 @@
 10月第1週】</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>10/3(月)～
+10/9(日)分
+【10月第2週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/4(月)～
+10/10(日)分
+【10月第2週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -4842,30 +4854,6 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4881,11 +4869,32 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -4928,6 +4937,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9128,13 +9140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ED61"/>
+  <dimension ref="A1:EE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DV39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="ED4" sqref="ED4:ED5"/>
+      <selection pane="bottomRight" activeCell="EE4" sqref="EE4:EE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9150,11 +9162,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="134" width="10.875" style="1" customWidth="1"/>
-    <col min="135" max="16384" width="8.625" style="1"/>
+    <col min="106" max="135" width="10.875" style="1" customWidth="1"/>
+    <col min="136" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:135" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9215,538 +9227,541 @@
       <c r="EA1" s="19"/>
       <c r="EB1" s="19"/>
       <c r="EC1" s="19"/>
-      <c r="ED1" s="19" t="s">
+      <c r="ED1" s="19"/>
+      <c r="EE1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:134" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
+    <row r="2" spans="1:135" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="52"/>
-      <c r="BY2" s="52"/>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="52"/>
-      <c r="CD2" s="52"/>
-      <c r="CE2" s="52"/>
-      <c r="CF2" s="52"/>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="52"/>
-      <c r="CL2" s="52"/>
-      <c r="CM2" s="52"/>
-      <c r="CN2" s="52"/>
-      <c r="CO2" s="52"/>
-      <c r="CP2" s="52"/>
-      <c r="CQ2" s="52"/>
-      <c r="CR2" s="52"/>
-      <c r="CS2" s="52"/>
-      <c r="CT2" s="52"/>
-      <c r="CU2" s="52"/>
-      <c r="CV2" s="52"/>
-      <c r="CW2" s="52"/>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="52"/>
-      <c r="DA2" s="52"/>
-      <c r="DB2" s="52"/>
-      <c r="DC2" s="52"/>
-      <c r="DD2" s="52"/>
-      <c r="DE2" s="44" t="s">
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
+      <c r="CU2" s="44"/>
+      <c r="CV2" s="44"/>
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
+      <c r="DD2" s="44"/>
+      <c r="DE2" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="DF2" s="44"/>
-      <c r="DG2" s="44"/>
-      <c r="DH2" s="44"/>
-      <c r="DI2" s="44"/>
-      <c r="DJ2" s="44"/>
-      <c r="DK2" s="44"/>
-      <c r="DL2" s="44"/>
-      <c r="DM2" s="44"/>
-      <c r="DN2" s="44"/>
-      <c r="DO2" s="44"/>
-      <c r="DP2" s="44"/>
-      <c r="DQ2" s="44"/>
-      <c r="DR2" s="44"/>
-      <c r="DS2" s="44"/>
-      <c r="DT2" s="44"/>
-      <c r="DU2" s="44"/>
-      <c r="DV2" s="44"/>
-      <c r="DW2" s="44"/>
-      <c r="DX2" s="44"/>
-      <c r="DY2" s="44"/>
-      <c r="DZ2" s="44"/>
-      <c r="EA2" s="44"/>
-      <c r="EB2" s="44"/>
-      <c r="EC2" s="44"/>
-      <c r="ED2" s="44"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="72"/>
+      <c r="EA2" s="72"/>
+      <c r="EB2" s="72"/>
+      <c r="EC2" s="72"/>
+      <c r="ED2" s="72"/>
+      <c r="EE2" s="72"/>
     </row>
-    <row r="3" spans="1:134" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="45" t="s">
+    <row r="3" spans="1:135" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="48" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53" t="s">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="53"/>
-      <c r="BJ3" s="53"/>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="53"/>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="53"/>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="53"/>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="53"/>
-      <c r="BZ3" s="53"/>
-      <c r="CA3" s="53"/>
-      <c r="CB3" s="53"/>
-      <c r="CC3" s="53"/>
-      <c r="CD3" s="53"/>
-      <c r="CE3" s="53"/>
-      <c r="CF3" s="53"/>
-      <c r="CG3" s="53"/>
-      <c r="CH3" s="53"/>
-      <c r="CI3" s="53"/>
-      <c r="CJ3" s="53"/>
-      <c r="CK3" s="53"/>
-      <c r="CL3" s="53"/>
-      <c r="CM3" s="53"/>
-      <c r="CN3" s="53"/>
-      <c r="CO3" s="53"/>
-      <c r="CP3" s="53"/>
-      <c r="CQ3" s="54"/>
-      <c r="CR3" s="45" t="s">
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
+      <c r="CE3" s="45"/>
+      <c r="CF3" s="45"/>
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="45"/>
+      <c r="CI3" s="45"/>
+      <c r="CJ3" s="45"/>
+      <c r="CK3" s="45"/>
+      <c r="CL3" s="45"/>
+      <c r="CM3" s="45"/>
+      <c r="CN3" s="45"/>
+      <c r="CO3" s="45"/>
+      <c r="CP3" s="45"/>
+      <c r="CQ3" s="46"/>
+      <c r="CR3" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="45"/>
-      <c r="CU3" s="45"/>
-      <c r="CV3" s="45"/>
-      <c r="CW3" s="45"/>
-      <c r="CX3" s="45"/>
-      <c r="CY3" s="45"/>
-      <c r="CZ3" s="45"/>
-      <c r="DA3" s="45"/>
-      <c r="DB3" s="45"/>
-      <c r="DC3" s="45"/>
-      <c r="DD3" s="48"/>
-      <c r="DE3" s="45" t="s">
+      <c r="CS3" s="54"/>
+      <c r="CT3" s="54"/>
+      <c r="CU3" s="54"/>
+      <c r="CV3" s="54"/>
+      <c r="CW3" s="54"/>
+      <c r="CX3" s="54"/>
+      <c r="CY3" s="54"/>
+      <c r="CZ3" s="54"/>
+      <c r="DA3" s="54"/>
+      <c r="DB3" s="54"/>
+      <c r="DC3" s="54"/>
+      <c r="DD3" s="55"/>
+      <c r="DE3" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="DF3" s="45"/>
-      <c r="DG3" s="45"/>
-      <c r="DH3" s="45"/>
-      <c r="DI3" s="45"/>
-      <c r="DJ3" s="45"/>
-      <c r="DK3" s="45"/>
-      <c r="DL3" s="45"/>
-      <c r="DM3" s="45"/>
-      <c r="DN3" s="45"/>
-      <c r="DO3" s="45"/>
-      <c r="DP3" s="45"/>
-      <c r="DQ3" s="45"/>
-      <c r="DR3" s="45"/>
-      <c r="DS3" s="45"/>
-      <c r="DT3" s="45"/>
-      <c r="DU3" s="45"/>
-      <c r="DV3" s="45"/>
-      <c r="DW3" s="45"/>
-      <c r="DX3" s="45"/>
-      <c r="DY3" s="45"/>
-      <c r="DZ3" s="45"/>
-      <c r="EA3" s="45"/>
-      <c r="EB3" s="45"/>
-      <c r="EC3" s="45"/>
-      <c r="ED3" s="45"/>
+      <c r="DF3" s="54"/>
+      <c r="DG3" s="54"/>
+      <c r="DH3" s="54"/>
+      <c r="DI3" s="54"/>
+      <c r="DJ3" s="54"/>
+      <c r="DK3" s="54"/>
+      <c r="DL3" s="54"/>
+      <c r="DM3" s="54"/>
+      <c r="DN3" s="54"/>
+      <c r="DO3" s="54"/>
+      <c r="DP3" s="54"/>
+      <c r="DQ3" s="54"/>
+      <c r="DR3" s="54"/>
+      <c r="DS3" s="54"/>
+      <c r="DT3" s="54"/>
+      <c r="DU3" s="54"/>
+      <c r="DV3" s="54"/>
+      <c r="DW3" s="54"/>
+      <c r="DX3" s="54"/>
+      <c r="DY3" s="54"/>
+      <c r="DZ3" s="54"/>
+      <c r="EA3" s="54"/>
+      <c r="EB3" s="54"/>
+      <c r="EC3" s="54"/>
+      <c r="ED3" s="54"/>
+      <c r="EE3" s="54"/>
     </row>
-    <row r="4" spans="1:134" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="59" t="s">
+    <row r="4" spans="1:135" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="64" t="s">
+      <c r="X4" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="64" t="s">
+      <c r="Y4" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="64" t="s">
+      <c r="Z4" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="59" t="s">
+      <c r="AA4" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AB4" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AC4" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AD4" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="59" t="s">
+      <c r="AF4" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AG4" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="59" t="s">
+      <c r="AH4" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AI4" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="59" t="s">
+      <c r="AJ4" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="59" t="s">
+      <c r="AK4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="59" t="s">
+      <c r="AL4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="59" t="s">
+      <c r="AM4" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="59" t="s">
+      <c r="AN4" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="59" t="s">
+      <c r="AO4" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="59" t="s">
+      <c r="AP4" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="59" t="s">
+      <c r="AQ4" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="56" t="s">
+      <c r="AR4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="56" t="s">
+      <c r="AS4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="56" t="s">
+      <c r="AT4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="56" t="s">
+      <c r="AU4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="56" t="s">
+      <c r="AV4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="56" t="s">
+      <c r="AW4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="56" t="s">
+      <c r="AX4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="56" t="s">
+      <c r="AY4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="56" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="56" t="s">
+      <c r="BA4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="56" t="s">
+      <c r="BB4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="56" t="s">
+      <c r="BC4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="55" t="s">
+      <c r="BD4" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="BE4" s="55" t="s">
+      <c r="BE4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="BF4" s="55" t="s">
+      <c r="BF4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="55" t="s">
+      <c r="BG4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="BH4" s="55" t="s">
+      <c r="BH4" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="BI4" s="55" t="s">
+      <c r="BI4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="BJ4" s="55" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="BK4" s="55" t="s">
+      <c r="BK4" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="57" t="s">
+      <c r="BL4" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="57" t="s">
+      <c r="BM4" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="BN4" s="55" t="s">
+      <c r="BN4" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="BO4" s="55" t="s">
+      <c r="BO4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="BP4" s="55" t="s">
+      <c r="BP4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="BQ4" s="55" t="s">
+      <c r="BQ4" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="BR4" s="55" t="s">
+      <c r="BR4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="BS4" s="55" t="s">
+      <c r="BS4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="BT4" s="55" t="s">
+      <c r="BT4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="BU4" s="57" t="s">
+      <c r="BU4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="BV4" s="57" t="s">
+      <c r="BV4" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="BW4" s="57" t="s">
+      <c r="BW4" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="BX4" s="57" t="s">
+      <c r="BX4" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="BY4" s="57" t="s">
+      <c r="BY4" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="BZ4" s="55" t="s">
+      <c r="BZ4" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="CA4" s="55" t="s">
+      <c r="CA4" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="55" t="s">
+      <c r="CB4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="CC4" s="55" t="s">
+      <c r="CC4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="CD4" s="55" t="s">
+      <c r="CD4" s="47" t="s">
         <v>232</v>
       </c>
       <c r="CE4" s="49" t="s">
@@ -9824,224 +9839,228 @@
       <c r="DC4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="DD4" s="50" t="s">
+      <c r="DD4" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="DE4" s="46" t="s">
+      <c r="DE4" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="DF4" s="46" t="s">
+      <c r="DF4" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="DG4" s="46" t="s">
+      <c r="DG4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="DH4" s="46" t="s">
+      <c r="DH4" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="DI4" s="46" t="s">
+      <c r="DI4" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="DJ4" s="46" t="s">
+      <c r="DJ4" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="DK4" s="46" t="s">
+      <c r="DK4" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="DL4" s="46" t="s">
+      <c r="DL4" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="DM4" s="46" t="s">
+      <c r="DM4" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="DN4" s="46" t="s">
+      <c r="DN4" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="DO4" s="46" t="s">
+      <c r="DO4" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="DP4" s="46" t="s">
+      <c r="DP4" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="DQ4" s="46" t="s">
+      <c r="DQ4" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="DR4" s="46" t="s">
+      <c r="DR4" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="DS4" s="46" t="s">
+      <c r="DS4" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="DT4" s="46" t="s">
+      <c r="DT4" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="DU4" s="46" t="s">
+      <c r="DU4" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="DV4" s="46" t="s">
+      <c r="DV4" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="DW4" s="46" t="s">
+      <c r="DW4" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="DX4" s="46" t="s">
+      <c r="DX4" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="DY4" s="46" t="s">
+      <c r="DY4" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="DZ4" s="46" t="s">
+      <c r="DZ4" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="EA4" s="46" t="s">
+      <c r="EA4" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="EB4" s="46" t="s">
+      <c r="EB4" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="EC4" s="46" t="s">
+      <c r="EC4" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="ED4" s="46" t="s">
+      <c r="ED4" s="53" t="s">
         <v>387</v>
       </c>
+      <c r="EE4" s="53" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="5" spans="1:134" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="58"/>
-      <c r="BM5" s="58"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
-      <c r="BR5" s="56"/>
-      <c r="BS5" s="56"/>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="58"/>
-      <c r="BV5" s="58"/>
-      <c r="BW5" s="58"/>
-      <c r="BX5" s="58"/>
-      <c r="BY5" s="58"/>
-      <c r="BZ5" s="56"/>
-      <c r="CA5" s="56"/>
-      <c r="CB5" s="56"/>
-      <c r="CC5" s="56"/>
-      <c r="CD5" s="56"/>
-      <c r="CE5" s="47"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="47"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="47"/>
-      <c r="CK5" s="47"/>
-      <c r="CL5" s="47"/>
-      <c r="CM5" s="47"/>
-      <c r="CN5" s="47"/>
-      <c r="CO5" s="47"/>
-      <c r="CP5" s="47"/>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="47"/>
-      <c r="CS5" s="47"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="47"/>
-      <c r="CV5" s="47"/>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="47"/>
-      <c r="CY5" s="47"/>
-      <c r="CZ5" s="47"/>
-      <c r="DA5" s="47"/>
-      <c r="DB5" s="47"/>
-      <c r="DC5" s="47"/>
-      <c r="DD5" s="51"/>
-      <c r="DE5" s="47"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="47"/>
-      <c r="DH5" s="47"/>
-      <c r="DI5" s="47"/>
-      <c r="DJ5" s="47"/>
-      <c r="DK5" s="47"/>
-      <c r="DL5" s="47"/>
-      <c r="DM5" s="47"/>
-      <c r="DN5" s="47"/>
-      <c r="DO5" s="47"/>
-      <c r="DP5" s="47"/>
-      <c r="DQ5" s="47"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="47"/>
-      <c r="DT5" s="47"/>
-      <c r="DU5" s="47"/>
-      <c r="DV5" s="47"/>
-      <c r="DW5" s="47"/>
-      <c r="DX5" s="47"/>
-      <c r="DY5" s="47"/>
-      <c r="DZ5" s="47"/>
-      <c r="EA5" s="47"/>
-      <c r="EB5" s="47"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="46"/>
+    <row r="5" spans="1:135" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="65"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="52"/>
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="52"/>
+      <c r="BV5" s="52"/>
+      <c r="BW5" s="52"/>
+      <c r="BX5" s="52"/>
+      <c r="BY5" s="52"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="50"/>
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="50"/>
+      <c r="CI5" s="50"/>
+      <c r="CJ5" s="50"/>
+      <c r="CK5" s="50"/>
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="50"/>
+      <c r="CN5" s="50"/>
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="50"/>
+      <c r="CQ5" s="50"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
+      <c r="DC5" s="50"/>
+      <c r="DD5" s="57"/>
+      <c r="DE5" s="50"/>
+      <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
+      <c r="DI5" s="50"/>
+      <c r="DJ5" s="50"/>
+      <c r="DK5" s="50"/>
+      <c r="DL5" s="50"/>
+      <c r="DM5" s="50"/>
+      <c r="DN5" s="50"/>
+      <c r="DO5" s="50"/>
+      <c r="DP5" s="50"/>
+      <c r="DQ5" s="50"/>
+      <c r="DR5" s="50"/>
+      <c r="DS5" s="50"/>
+      <c r="DT5" s="50"/>
+      <c r="DU5" s="50"/>
+      <c r="DV5" s="50"/>
+      <c r="DW5" s="50"/>
+      <c r="DX5" s="50"/>
+      <c r="DY5" s="50"/>
+      <c r="DZ5" s="50"/>
+      <c r="EA5" s="50"/>
+      <c r="EB5" s="50"/>
+      <c r="EC5" s="53"/>
+      <c r="ED5" s="53"/>
+      <c r="EE5" s="53"/>
     </row>
-    <row r="6" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10442,8 +10461,11 @@
       <c r="ED6" s="28">
         <v>119</v>
       </c>
+      <c r="EE6" s="28">
+        <v>122</v>
+      </c>
     </row>
-    <row r="7" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10843,8 +10865,11 @@
       <c r="ED7" s="15">
         <v>1</v>
       </c>
+      <c r="EE7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11244,8 +11269,11 @@
       <c r="ED8" s="28">
         <v>11</v>
       </c>
+      <c r="EE8" s="28">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11646,8 +11674,11 @@
       <c r="ED9" s="15">
         <v>63</v>
       </c>
+      <c r="EE9" s="15">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -12045,8 +12076,11 @@
       <c r="ED10" s="15">
         <v>1</v>
       </c>
+      <c r="EE10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12446,8 +12480,11 @@
       <c r="ED11" s="15">
         <v>9</v>
       </c>
+      <c r="EE11" s="15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="12" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12847,8 +12884,11 @@
       <c r="ED12" s="15">
         <v>6</v>
       </c>
+      <c r="EE12" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -13248,8 +13288,11 @@
       <c r="ED13" s="15">
         <v>31</v>
       </c>
+      <c r="EE13" s="15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13649,8 +13692,11 @@
       <c r="ED14" s="15">
         <v>12</v>
       </c>
+      <c r="EE14" s="15">
+        <v>26</v>
+      </c>
     </row>
-    <row r="15" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -14050,8 +14096,11 @@
       <c r="ED15" s="15">
         <v>0</v>
       </c>
+      <c r="EE15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -14452,8 +14501,11 @@
       <c r="ED16" s="28">
         <v>95</v>
       </c>
+      <c r="EE16" s="28">
+        <v>87</v>
+      </c>
     </row>
-    <row r="17" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -14853,8 +14905,11 @@
       <c r="ED17" s="15">
         <v>117</v>
       </c>
+      <c r="EE17" s="15">
+        <v>128</v>
+      </c>
     </row>
-    <row r="18" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -15255,10 +15310,13 @@
       <c r="ED18" s="34">
         <v>1437</v>
       </c>
+      <c r="EE18" s="34">
+        <v>1320</v>
+      </c>
     </row>
-    <row r="19" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -15657,10 +15715,13 @@
       <c r="ED19" s="15">
         <v>49</v>
       </c>
+      <c r="EE19" s="15">
+        <v>45</v>
+      </c>
     </row>
-    <row r="20" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="69"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -16057,10 +16118,13 @@
       <c r="ED20" s="28">
         <v>122</v>
       </c>
+      <c r="EE20" s="28">
+        <v>96</v>
+      </c>
     </row>
-    <row r="21" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="69"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -16457,8 +16521,11 @@
       <c r="ED21" s="15">
         <v>34</v>
       </c>
+      <c r="EE21" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -16858,8 +16925,11 @@
       <c r="ED22" s="15">
         <v>7</v>
       </c>
+      <c r="EE22" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -17259,8 +17329,11 @@
       <c r="ED23" s="15">
         <v>1</v>
       </c>
+      <c r="EE23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -17660,8 +17733,11 @@
       <c r="ED24" s="15">
         <v>16</v>
       </c>
+      <c r="EE24" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -18061,8 +18137,11 @@
       <c r="ED25" s="15">
         <v>0</v>
       </c>
+      <c r="EE25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -18462,8 +18541,11 @@
       <c r="ED26" s="15">
         <v>7</v>
       </c>
+      <c r="EE26" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -18863,8 +18945,11 @@
       <c r="ED27" s="15">
         <v>0</v>
       </c>
+      <c r="EE27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -19264,9 +19349,12 @@
       <c r="ED28" s="15">
         <v>1</v>
       </c>
+      <c r="EE28" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="69" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -19665,9 +19753,12 @@
       <c r="ED29" s="15">
         <v>1</v>
       </c>
+      <c r="EE29" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="70"/>
+    <row r="30" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="69"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -20064,8 +20155,11 @@
       <c r="ED30" s="15">
         <v>21</v>
       </c>
+      <c r="EE30" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="31" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -20466,8 +20560,11 @@
       <c r="ED31" s="15">
         <v>38</v>
       </c>
+      <c r="EE31" s="15">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -20867,8 +20964,11 @@
       <c r="ED32" s="15">
         <v>1</v>
       </c>
+      <c r="EE32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -21268,8 +21368,11 @@
       <c r="ED33" s="15">
         <v>0</v>
       </c>
+      <c r="EE33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -21670,10 +21773,13 @@
       <c r="ED34" s="15">
         <v>62</v>
       </c>
+      <c r="EE34" s="15">
+        <v>40</v>
+      </c>
     </row>
-    <row r="35" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -22072,9 +22178,12 @@
       <c r="ED35" s="15">
         <v>252</v>
       </c>
+      <c r="EE35" s="15">
+        <v>240</v>
+      </c>
     </row>
-    <row r="36" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="69"/>
+    <row r="36" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="68"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -22471,8 +22580,11 @@
       <c r="ED36" s="28">
         <v>39</v>
       </c>
+      <c r="EE36" s="28">
+        <v>32</v>
+      </c>
     </row>
-    <row r="37" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -22873,8 +22985,11 @@
       <c r="ED37" s="15">
         <v>35</v>
       </c>
+      <c r="EE37" s="15">
+        <v>39</v>
+      </c>
     </row>
-    <row r="38" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -23274,8 +23389,11 @@
       <c r="ED38" s="15">
         <v>6</v>
       </c>
+      <c r="EE38" s="15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="39" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -23675,8 +23793,11 @@
       <c r="ED39" s="15">
         <v>7</v>
       </c>
+      <c r="EE39" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -24076,8 +24197,11 @@
       <c r="ED40" s="15">
         <v>0</v>
       </c>
+      <c r="EE40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -24477,8 +24601,11 @@
       <c r="ED41" s="15">
         <v>0</v>
       </c>
+      <c r="EE41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -24878,8 +25005,11 @@
       <c r="ED42" s="15">
         <v>9</v>
       </c>
+      <c r="EE42" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="43" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -25279,8 +25409,11 @@
       <c r="ED43" s="28">
         <v>38</v>
       </c>
+      <c r="EE43" s="28">
+        <v>34</v>
+      </c>
     </row>
-    <row r="44" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -25680,8 +25813,11 @@
       <c r="ED44" s="15">
         <v>2</v>
       </c>
+      <c r="EE44" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -26081,8 +26217,11 @@
       <c r="ED45" s="15">
         <v>15</v>
       </c>
+      <c r="EE45" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -26482,8 +26621,11 @@
       <c r="ED46" s="15">
         <v>19</v>
       </c>
+      <c r="EE46" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="47" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -26883,8 +27025,11 @@
       <c r="ED47" s="15">
         <v>3</v>
       </c>
+      <c r="EE47" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -27284,10 +27429,13 @@
       <c r="ED48" s="15">
         <v>14</v>
       </c>
+      <c r="EE48" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -27686,9 +27834,12 @@
       <c r="ED49" s="15">
         <v>23</v>
       </c>
+      <c r="EE49" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:134" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="69"/>
+    <row r="50" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="68"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -28085,8 +28236,11 @@
       <c r="ED50" s="15">
         <v>8</v>
       </c>
+      <c r="EE50" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -28486,8 +28640,11 @@
       <c r="ED51" s="15">
         <v>9</v>
       </c>
+      <c r="EE51" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -28887,8 +29044,11 @@
       <c r="ED52" s="15">
         <v>9</v>
       </c>
+      <c r="EE52" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="53" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -29288,8 +29448,11 @@
       <c r="ED53" s="15">
         <v>36</v>
       </c>
+      <c r="EE53" s="15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="54" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29689,8 +29852,11 @@
       <c r="ED54" s="15">
         <v>2</v>
       </c>
+      <c r="EE54" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -30090,8 +30256,11 @@
       <c r="ED55" s="15">
         <v>17</v>
       </c>
+      <c r="EE55" s="15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="56" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -30491,8 +30660,11 @@
       <c r="ED56" s="15">
         <v>0</v>
       </c>
+      <c r="EE56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30892,8 +31064,11 @@
       <c r="ED57" s="15">
         <v>1</v>
       </c>
+      <c r="EE57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -31371,7 +31546,7 @@
         <v>2812</v>
       </c>
       <c r="DR58" s="14">
-        <f t="shared" ref="DR58:EC58" si="10">SUM(DR6:DR57)</f>
+        <f t="shared" ref="DR58:EE58" si="10">SUM(DR6:DR57)</f>
         <v>2887</v>
       </c>
       <c r="DS58" s="14">
@@ -31419,10 +31594,15 @@
         <v>3400</v>
       </c>
       <c r="ED58" s="14">
+        <f t="shared" si="10"/>
         <v>2806</v>
       </c>
+      <c r="EE58" s="14">
+        <f t="shared" si="10"/>
+        <v>2624</v>
+      </c>
     </row>
-    <row r="59" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -31506,7 +31686,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -31590,30 +31770,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:134" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -31675,7 +31855,10 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="148">
+    <mergeCell ref="DE2:EE2"/>
+    <mergeCell ref="DE3:EE3"/>
+    <mergeCell ref="EE4:EE5"/>
     <mergeCell ref="DZ4:DZ5"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
@@ -31697,6 +31880,10 @@
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="DY4:DY5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="CQ4:CQ5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M4:M5"/>
@@ -31717,12 +31904,6 @@
     <mergeCell ref="DQ4:DQ5"/>
     <mergeCell ref="DL4:DL5"/>
     <mergeCell ref="DH4:DH5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="DK4:DK5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CU4:CU5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="T4:T5"/>
@@ -31765,20 +31946,14 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="CX4:CX5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="CN4:CN5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CL4:CL5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="DE4:DE5"/>
     <mergeCell ref="CR4:CR5"/>
     <mergeCell ref="DC4:DC5"/>
@@ -31788,19 +31963,13 @@
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="CK4:CK5"/>
     <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CL4:CL5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="DE2:ED2"/>
-    <mergeCell ref="DE3:ED3"/>
+    <mergeCell ref="CX4:CX5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="ED4:ED5"/>
     <mergeCell ref="EC4:EC5"/>
     <mergeCell ref="EB4:EB5"/>
@@ -31811,6 +31980,9 @@
     <mergeCell ref="CV4:CV5"/>
     <mergeCell ref="CW4:CW5"/>
     <mergeCell ref="EA4:EA5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="DK4:DK5"/>
     <mergeCell ref="BD2:DD2"/>
     <mergeCell ref="BD3:CQ3"/>
     <mergeCell ref="BG4:BG5"/>
@@ -31823,6 +31995,15 @@
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="CY4:CY5"/>
     <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="CN4:CN5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="CP4:CP5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -31835,13 +32016,13 @@
       <formula>LEN(TRIM(DO6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP6:ED57">
+  <conditionalFormatting sqref="DP6:EE57">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(DP6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="64" man="1"/>
     <brk id="108" max="64" man="1"/>
@@ -31852,13 +32033,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ED58"/>
+  <dimension ref="B1:EE58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DH29" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="DY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="ED6" sqref="ED6:ED58"/>
+      <selection pane="bottomRight" activeCell="EE60" sqref="EE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31877,11 +32058,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="100" width="10.875" style="1" customWidth="1"/>
     <col min="101" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="134" width="10.875" style="1" customWidth="1"/>
-    <col min="135" max="16384" width="8.625" style="1"/>
+    <col min="106" max="135" width="10.875" style="1" customWidth="1"/>
+    <col min="136" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:134" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:135" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BB1" s="80" t="s">
         <v>329</v>
       </c>
@@ -31942,154 +32123,156 @@
       <c r="EA1" s="19"/>
       <c r="EB1" s="19"/>
       <c r="EC1" s="19"/>
-      <c r="ED1" s="19" t="s">
+      <c r="ED1" s="19"/>
+      <c r="EE1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="2:134" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="44" t="s">
+    <row r="2" spans="2:135" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="44"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
-      <c r="CE2" s="44"/>
-      <c r="CF2" s="44"/>
-      <c r="CG2" s="44"/>
-      <c r="CH2" s="44"/>
-      <c r="CI2" s="44"/>
-      <c r="CJ2" s="44"/>
-      <c r="CK2" s="44"/>
-      <c r="CL2" s="44"/>
-      <c r="CM2" s="44"/>
-      <c r="CN2" s="44"/>
-      <c r="CO2" s="44"/>
-      <c r="CP2" s="44"/>
-      <c r="CQ2" s="44"/>
-      <c r="CR2" s="44"/>
-      <c r="CS2" s="44"/>
-      <c r="CT2" s="44"/>
-      <c r="CU2" s="44"/>
-      <c r="CV2" s="44"/>
-      <c r="CW2" s="44"/>
-      <c r="CX2" s="44"/>
-      <c r="CY2" s="44"/>
-      <c r="CZ2" s="44"/>
-      <c r="DA2" s="44"/>
-      <c r="DB2" s="44"/>
-      <c r="DC2" s="44"/>
-      <c r="DD2" s="44" t="s">
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="72"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="DE2" s="44"/>
-      <c r="DF2" s="44"/>
-      <c r="DG2" s="44"/>
-      <c r="DH2" s="44"/>
-      <c r="DI2" s="44"/>
-      <c r="DJ2" s="44"/>
-      <c r="DK2" s="44"/>
-      <c r="DL2" s="44"/>
-      <c r="DM2" s="44"/>
-      <c r="DN2" s="44"/>
-      <c r="DO2" s="44"/>
-      <c r="DP2" s="44"/>
-      <c r="DQ2" s="44"/>
-      <c r="DR2" s="44"/>
-      <c r="DS2" s="44"/>
-      <c r="DT2" s="44"/>
-      <c r="DU2" s="44"/>
-      <c r="DV2" s="44"/>
-      <c r="DW2" s="44"/>
-      <c r="DX2" s="44"/>
-      <c r="DY2" s="44"/>
-      <c r="DZ2" s="44"/>
-      <c r="EA2" s="44"/>
-      <c r="EB2" s="44"/>
-      <c r="EC2" s="44"/>
-      <c r="ED2" s="44"/>
+      <c r="DE2" s="72"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="72"/>
+      <c r="EA2" s="72"/>
+      <c r="EB2" s="72"/>
+      <c r="EC2" s="72"/>
+      <c r="ED2" s="72"/>
+      <c r="EE2" s="72"/>
     </row>
-    <row r="3" spans="2:134" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+    <row r="3" spans="2:135" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="77" t="s">
         <v>283</v>
       </c>
@@ -32132,111 +32315,112 @@
       <c r="AO3" s="77"/>
       <c r="AP3" s="77"/>
       <c r="AQ3" s="77"/>
-      <c r="AR3" s="45" t="s">
+      <c r="AR3" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="48" t="s">
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="53"/>
-      <c r="BJ3" s="53"/>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="53"/>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="53"/>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="53"/>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="53"/>
-      <c r="BZ3" s="53"/>
-      <c r="CA3" s="53"/>
-      <c r="CB3" s="53"/>
-      <c r="CC3" s="53"/>
-      <c r="CD3" s="53"/>
-      <c r="CE3" s="53"/>
-      <c r="CF3" s="53"/>
-      <c r="CG3" s="53"/>
-      <c r="CH3" s="53"/>
-      <c r="CI3" s="53"/>
-      <c r="CJ3" s="53"/>
-      <c r="CK3" s="53"/>
-      <c r="CL3" s="53"/>
-      <c r="CM3" s="53"/>
-      <c r="CN3" s="53"/>
-      <c r="CO3" s="53"/>
-      <c r="CP3" s="53"/>
-      <c r="CQ3" s="54"/>
-      <c r="CR3" s="45" t="s">
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
+      <c r="CE3" s="45"/>
+      <c r="CF3" s="45"/>
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="45"/>
+      <c r="CI3" s="45"/>
+      <c r="CJ3" s="45"/>
+      <c r="CK3" s="45"/>
+      <c r="CL3" s="45"/>
+      <c r="CM3" s="45"/>
+      <c r="CN3" s="45"/>
+      <c r="CO3" s="45"/>
+      <c r="CP3" s="45"/>
+      <c r="CQ3" s="46"/>
+      <c r="CR3" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="45"/>
-      <c r="CU3" s="45"/>
-      <c r="CV3" s="45"/>
-      <c r="CW3" s="45"/>
-      <c r="CX3" s="45"/>
-      <c r="CY3" s="45"/>
-      <c r="CZ3" s="45"/>
-      <c r="DA3" s="45"/>
-      <c r="DB3" s="45"/>
-      <c r="DC3" s="45"/>
-      <c r="DD3" s="45" t="s">
+      <c r="CS3" s="54"/>
+      <c r="CT3" s="54"/>
+      <c r="CU3" s="54"/>
+      <c r="CV3" s="54"/>
+      <c r="CW3" s="54"/>
+      <c r="CX3" s="54"/>
+      <c r="CY3" s="54"/>
+      <c r="CZ3" s="54"/>
+      <c r="DA3" s="54"/>
+      <c r="DB3" s="54"/>
+      <c r="DC3" s="54"/>
+      <c r="DD3" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="DE3" s="45"/>
-      <c r="DF3" s="45"/>
-      <c r="DG3" s="45"/>
-      <c r="DH3" s="45"/>
-      <c r="DI3" s="45"/>
-      <c r="DJ3" s="45"/>
-      <c r="DK3" s="45"/>
-      <c r="DL3" s="45"/>
-      <c r="DM3" s="45"/>
-      <c r="DN3" s="45"/>
-      <c r="DO3" s="45"/>
-      <c r="DP3" s="45"/>
-      <c r="DQ3" s="45"/>
-      <c r="DR3" s="45"/>
-      <c r="DS3" s="45"/>
-      <c r="DT3" s="45"/>
-      <c r="DU3" s="45"/>
-      <c r="DV3" s="45"/>
-      <c r="DW3" s="45"/>
-      <c r="DX3" s="45"/>
-      <c r="DY3" s="45"/>
-      <c r="DZ3" s="45"/>
-      <c r="EA3" s="45"/>
-      <c r="EB3" s="45"/>
-      <c r="EC3" s="45"/>
-      <c r="ED3" s="45"/>
+      <c r="DE3" s="54"/>
+      <c r="DF3" s="54"/>
+      <c r="DG3" s="54"/>
+      <c r="DH3" s="54"/>
+      <c r="DI3" s="54"/>
+      <c r="DJ3" s="54"/>
+      <c r="DK3" s="54"/>
+      <c r="DL3" s="54"/>
+      <c r="DM3" s="54"/>
+      <c r="DN3" s="54"/>
+      <c r="DO3" s="54"/>
+      <c r="DP3" s="54"/>
+      <c r="DQ3" s="54"/>
+      <c r="DR3" s="54"/>
+      <c r="DS3" s="54"/>
+      <c r="DT3" s="54"/>
+      <c r="DU3" s="54"/>
+      <c r="DV3" s="54"/>
+      <c r="DW3" s="54"/>
+      <c r="DX3" s="54"/>
+      <c r="DY3" s="54"/>
+      <c r="DZ3" s="54"/>
+      <c r="EA3" s="54"/>
+      <c r="EB3" s="54"/>
+      <c r="EC3" s="54"/>
+      <c r="ED3" s="54"/>
+      <c r="EE3" s="54"/>
     </row>
-    <row r="4" spans="2:134" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="71" t="s">
+    <row r="4" spans="2:135" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="74" t="s">
@@ -32395,85 +32579,85 @@
       <c r="BC4" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="BD4" s="55" t="s">
+      <c r="BD4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="BE4" s="55" t="s">
+      <c r="BE4" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" s="55" t="s">
+      <c r="BF4" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" s="55" t="s">
+      <c r="BG4" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="BH4" s="55" t="s">
+      <c r="BH4" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="BI4" s="55" t="s">
+      <c r="BI4" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="55" t="s">
+      <c r="BJ4" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="55" t="s">
+      <c r="BK4" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="55" t="s">
+      <c r="BL4" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="55" t="s">
+      <c r="BM4" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="55" t="s">
+      <c r="BN4" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="55" t="s">
+      <c r="BO4" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="55" t="s">
+      <c r="BP4" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="BQ4" s="55" t="s">
+      <c r="BQ4" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="BR4" s="55" t="s">
+      <c r="BR4" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="BS4" s="55" t="s">
+      <c r="BS4" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="BT4" s="55" t="s">
+      <c r="BT4" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="BU4" s="64" t="s">
+      <c r="BU4" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="BV4" s="64" t="s">
+      <c r="BV4" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="BW4" s="64" t="s">
+      <c r="BW4" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="BX4" s="64" t="s">
+      <c r="BX4" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="BY4" s="64" t="s">
+      <c r="BY4" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="64" t="s">
+      <c r="BZ4" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="CA4" s="55" t="s">
+      <c r="CA4" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="CB4" s="55" t="s">
+      <c r="CB4" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="CC4" s="55" t="s">
+      <c r="CC4" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="CD4" s="55" t="s">
+      <c r="CD4" s="47" t="s">
         <v>241</v>
       </c>
       <c r="CE4" s="49" t="s">
@@ -32551,55 +32735,55 @@
       <c r="DC4" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="DD4" s="46" t="s">
+      <c r="DD4" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="DE4" s="46" t="s">
+      <c r="DE4" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="DF4" s="46" t="s">
+      <c r="DF4" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="DG4" s="46" t="s">
+      <c r="DG4" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="DH4" s="46" t="s">
+      <c r="DH4" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="DI4" s="46" t="s">
+      <c r="DI4" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="DJ4" s="46" t="s">
+      <c r="DJ4" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="DK4" s="46" t="s">
+      <c r="DK4" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="DL4" s="46" t="s">
+      <c r="DL4" s="53" t="s">
         <v>335</v>
       </c>
       <c r="DM4" s="81" t="s">
         <v>337</v>
       </c>
-      <c r="DN4" s="46" t="s">
+      <c r="DN4" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="DO4" s="46" t="s">
+      <c r="DO4" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="DP4" s="46" t="s">
+      <c r="DP4" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="DQ4" s="46" t="s">
+      <c r="DQ4" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="DR4" s="46" t="s">
+      <c r="DR4" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="DS4" s="46" t="s">
+      <c r="DS4" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="DT4" s="46" t="s">
+      <c r="DT4" s="53" t="s">
         <v>356</v>
       </c>
       <c r="DU4" s="81" t="s">
@@ -32617,25 +32801,28 @@
       <c r="DY4" s="81" t="s">
         <v>376</v>
       </c>
-      <c r="DZ4" s="46" t="s">
+      <c r="DZ4" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="EA4" s="46" t="s">
+      <c r="EA4" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="EB4" s="46" t="s">
+      <c r="EB4" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="EC4" s="46" t="s">
+      <c r="EC4" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="ED4" s="46" t="s">
+      <c r="ED4" s="53" t="s">
         <v>389</v>
       </c>
+      <c r="EE4" s="53" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="5" spans="2:134" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
+    <row r="5" spans="2:135" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="65"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -32688,87 +32875,88 @@
       <c r="BA5" s="49"/>
       <c r="BB5" s="49"/>
       <c r="BC5" s="49"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
-      <c r="BR5" s="56"/>
-      <c r="BS5" s="56"/>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="57"/>
-      <c r="BV5" s="57"/>
-      <c r="BW5" s="57"/>
-      <c r="BX5" s="57"/>
-      <c r="BY5" s="57"/>
-      <c r="BZ5" s="57"/>
-      <c r="CA5" s="56"/>
-      <c r="CB5" s="56"/>
-      <c r="CC5" s="56"/>
-      <c r="CD5" s="56"/>
-      <c r="CE5" s="47"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="47"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="47"/>
-      <c r="CK5" s="47"/>
-      <c r="CL5" s="47"/>
-      <c r="CM5" s="47"/>
-      <c r="CN5" s="47"/>
-      <c r="CO5" s="47"/>
-      <c r="CP5" s="47"/>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="47"/>
-      <c r="CS5" s="47"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="47"/>
-      <c r="CV5" s="47"/>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="47"/>
-      <c r="CY5" s="47"/>
-      <c r="CZ5" s="47"/>
-      <c r="DA5" s="47"/>
-      <c r="DB5" s="47"/>
-      <c r="DC5" s="47"/>
-      <c r="DD5" s="47"/>
-      <c r="DE5" s="47"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="47"/>
-      <c r="DH5" s="47"/>
-      <c r="DI5" s="47"/>
-      <c r="DJ5" s="47"/>
-      <c r="DK5" s="47"/>
-      <c r="DL5" s="47"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="51"/>
+      <c r="BV5" s="51"/>
+      <c r="BW5" s="51"/>
+      <c r="BX5" s="51"/>
+      <c r="BY5" s="51"/>
+      <c r="BZ5" s="51"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="50"/>
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="50"/>
+      <c r="CI5" s="50"/>
+      <c r="CJ5" s="50"/>
+      <c r="CK5" s="50"/>
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="50"/>
+      <c r="CN5" s="50"/>
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="50"/>
+      <c r="CQ5" s="50"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
+      <c r="DC5" s="50"/>
+      <c r="DD5" s="50"/>
+      <c r="DE5" s="50"/>
+      <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
+      <c r="DI5" s="50"/>
+      <c r="DJ5" s="50"/>
+      <c r="DK5" s="50"/>
+      <c r="DL5" s="50"/>
       <c r="DM5" s="82"/>
-      <c r="DN5" s="47"/>
-      <c r="DO5" s="47"/>
-      <c r="DP5" s="47"/>
-      <c r="DQ5" s="47"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="47"/>
-      <c r="DT5" s="47"/>
+      <c r="DN5" s="50"/>
+      <c r="DO5" s="50"/>
+      <c r="DP5" s="50"/>
+      <c r="DQ5" s="50"/>
+      <c r="DR5" s="50"/>
+      <c r="DS5" s="50"/>
+      <c r="DT5" s="50"/>
       <c r="DU5" s="82"/>
       <c r="DV5" s="82"/>
       <c r="DW5" s="82"/>
       <c r="DX5" s="82"/>
       <c r="DY5" s="82"/>
-      <c r="DZ5" s="47"/>
-      <c r="EA5" s="47"/>
-      <c r="EB5" s="47"/>
-      <c r="EC5" s="47"/>
-      <c r="ED5" s="47"/>
+      <c r="DZ5" s="50"/>
+      <c r="EA5" s="50"/>
+      <c r="EB5" s="50"/>
+      <c r="EC5" s="50"/>
+      <c r="ED5" s="50"/>
+      <c r="EE5" s="53"/>
     </row>
-    <row r="6" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -33168,8 +33356,11 @@
       <c r="ED6" s="28">
         <v>71</v>
       </c>
+      <c r="EE6" s="28">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -33569,8 +33760,11 @@
       <c r="ED7" s="15">
         <v>0</v>
       </c>
+      <c r="EE7" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -33970,8 +34164,11 @@
       <c r="ED8" s="28">
         <v>3</v>
       </c>
+      <c r="EE8" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -34371,8 +34568,11 @@
       <c r="ED9" s="15">
         <v>51</v>
       </c>
+      <c r="EE9" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -34772,8 +34972,11 @@
       <c r="ED10" s="15">
         <v>0</v>
       </c>
+      <c r="EE10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -35173,8 +35376,11 @@
       <c r="ED11" s="15">
         <v>3</v>
       </c>
+      <c r="EE11" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -35574,8 +35780,11 @@
       <c r="ED12" s="15">
         <v>4</v>
       </c>
+      <c r="EE12" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -35975,8 +36184,11 @@
       <c r="ED13" s="15">
         <v>10</v>
       </c>
+      <c r="EE13" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -36376,8 +36588,11 @@
       <c r="ED14" s="15">
         <v>4</v>
       </c>
+      <c r="EE14" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -36777,8 +36992,11 @@
       <c r="ED15" s="15">
         <v>0</v>
       </c>
+      <c r="EE15" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -37178,8 +37396,11 @@
       <c r="ED16" s="28">
         <v>49</v>
       </c>
+      <c r="EE16" s="28">
+        <v>43</v>
+      </c>
     </row>
-    <row r="17" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -37579,8 +37800,11 @@
       <c r="ED17" s="15">
         <v>78</v>
       </c>
+      <c r="EE17" s="15">
+        <v>70</v>
+      </c>
     </row>
-    <row r="18" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -37980,9 +38204,12 @@
       <c r="ED18" s="34">
         <v>678</v>
       </c>
+      <c r="EE18" s="34">
+        <v>672</v>
+      </c>
     </row>
-    <row r="19" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="68" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -38381,9 +38608,12 @@
       <c r="ED19" s="15">
         <v>18</v>
       </c>
+      <c r="EE19" s="15">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="69"/>
+    <row r="20" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="68"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -38780,9 +39010,12 @@
       <c r="ED20" s="28">
         <v>66</v>
       </c>
+      <c r="EE20" s="28">
+        <v>67</v>
+      </c>
     </row>
-    <row r="21" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="69"/>
+    <row r="21" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="68"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -39179,8 +39412,11 @@
       <c r="ED21" s="15">
         <v>18</v>
       </c>
+      <c r="EE21" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="22" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -39580,8 +39816,11 @@
       <c r="ED22" s="15">
         <v>8</v>
       </c>
+      <c r="EE22" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -39981,8 +40220,11 @@
       <c r="ED23" s="15">
         <v>0</v>
       </c>
+      <c r="EE23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -40382,8 +40624,11 @@
       <c r="ED24" s="15">
         <v>4</v>
       </c>
+      <c r="EE24" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -40783,8 +41028,11 @@
       <c r="ED25" s="15">
         <v>0</v>
       </c>
+      <c r="EE25" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -41184,8 +41432,11 @@
       <c r="ED26" s="15">
         <v>9</v>
       </c>
+      <c r="EE26" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -41585,8 +41836,11 @@
       <c r="ED27" s="15">
         <v>0</v>
       </c>
+      <c r="EE27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -41986,9 +42240,12 @@
       <c r="ED28" s="15">
         <v>0</v>
       </c>
+      <c r="EE28" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="69" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -42387,9 +42644,12 @@
       <c r="ED29" s="15">
         <v>2</v>
       </c>
+      <c r="EE29" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="70"/>
+    <row r="30" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="69"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -42786,8 +43046,11 @@
       <c r="ED30" s="15">
         <v>3</v>
       </c>
+      <c r="EE30" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -43187,8 +43450,11 @@
       <c r="ED31" s="15">
         <v>14</v>
       </c>
+      <c r="EE31" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -43588,8 +43854,11 @@
       <c r="ED32" s="15">
         <v>0</v>
       </c>
+      <c r="EE32" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -43989,8 +44258,11 @@
       <c r="ED33" s="15">
         <v>0</v>
       </c>
+      <c r="EE33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -44390,9 +44662,12 @@
       <c r="ED34" s="15">
         <v>9</v>
       </c>
+      <c r="EE34" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="35" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="69" t="s">
+    <row r="35" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -44791,9 +45066,12 @@
       <c r="ED35" s="15">
         <v>221</v>
       </c>
+      <c r="EE35" s="15">
+        <v>212</v>
+      </c>
     </row>
-    <row r="36" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="69"/>
+    <row r="36" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="68"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -45190,8 +45468,11 @@
       <c r="ED36" s="28">
         <v>11</v>
       </c>
+      <c r="EE36" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -45591,8 +45872,11 @@
       <c r="ED37" s="15">
         <v>23</v>
       </c>
+      <c r="EE37" s="15">
+        <v>28</v>
+      </c>
     </row>
-    <row r="38" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -45992,8 +46276,11 @@
       <c r="ED38" s="15">
         <v>3</v>
       </c>
+      <c r="EE38" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -46393,8 +46680,11 @@
       <c r="ED39" s="15">
         <v>6</v>
       </c>
+      <c r="EE39" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -46794,8 +47084,11 @@
       <c r="ED40" s="15">
         <v>0</v>
       </c>
+      <c r="EE40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -47195,8 +47488,11 @@
       <c r="ED41" s="15">
         <v>0</v>
       </c>
+      <c r="EE41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -47596,8 +47892,11 @@
       <c r="ED42" s="15">
         <v>3</v>
       </c>
+      <c r="EE42" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -47997,8 +48296,11 @@
       <c r="ED43" s="28">
         <v>28</v>
       </c>
+      <c r="EE43" s="28">
+        <v>22</v>
+      </c>
     </row>
-    <row r="44" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -48398,8 +48700,11 @@
       <c r="ED44" s="15">
         <v>0</v>
       </c>
+      <c r="EE44" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -48799,8 +49104,11 @@
       <c r="ED45" s="15">
         <v>4</v>
       </c>
+      <c r="EE45" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="46" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -49200,8 +49508,11 @@
       <c r="ED46" s="15">
         <v>5</v>
       </c>
+      <c r="EE46" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="47" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -49601,8 +49912,11 @@
       <c r="ED47" s="15">
         <v>0</v>
       </c>
+      <c r="EE47" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -50002,9 +50316,12 @@
       <c r="ED48" s="15">
         <v>22</v>
       </c>
+      <c r="EE48" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="69" t="s">
+    <row r="49" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -50403,9 +50720,12 @@
       <c r="ED49" s="15">
         <v>16</v>
       </c>
+      <c r="EE49" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="50" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="69"/>
+    <row r="50" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="68"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -50802,8 +51122,11 @@
       <c r="ED50" s="15">
         <v>2</v>
       </c>
+      <c r="EE50" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -51203,8 +51526,11 @@
       <c r="ED51" s="15">
         <v>3</v>
       </c>
+      <c r="EE51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -51604,8 +51930,11 @@
       <c r="ED52" s="15">
         <v>6</v>
       </c>
+      <c r="EE52" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -52005,8 +52334,11 @@
       <c r="ED53" s="15">
         <v>10</v>
       </c>
+      <c r="EE53" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="54" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -52406,8 +52738,11 @@
       <c r="ED54" s="15">
         <v>7</v>
       </c>
+      <c r="EE54" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="55" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -52807,8 +53142,11 @@
       <c r="ED55" s="15">
         <v>6</v>
       </c>
+      <c r="EE55" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="56" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -53208,8 +53546,11 @@
       <c r="ED56" s="15">
         <v>2</v>
       </c>
+      <c r="EE56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -53609,8 +53950,11 @@
       <c r="ED57" s="15">
         <v>0</v>
       </c>
+      <c r="EE57" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="2:134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -54079,7 +54423,7 @@
         <v>1266</v>
       </c>
       <c r="DP58" s="14">
-        <f t="shared" ref="DP58:EC58" si="8">SUM(DP6:DP57)</f>
+        <f t="shared" ref="DP58:EE58" si="8">SUM(DP6:DP57)</f>
         <v>1312</v>
       </c>
       <c r="DQ58" s="14">
@@ -54135,11 +54479,19 @@
         <v>1778</v>
       </c>
       <c r="ED58" s="14">
+        <f t="shared" si="8"/>
         <v>1480</v>
+      </c>
+      <c r="EE58" s="14">
+        <f t="shared" si="8"/>
+        <v>1456</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="148">
+    <mergeCell ref="EE4:EE5"/>
+    <mergeCell ref="DD2:EE2"/>
+    <mergeCell ref="DD3:EE3"/>
     <mergeCell ref="DS4:DS5"/>
     <mergeCell ref="DR4:DR5"/>
     <mergeCell ref="DQ4:DQ5"/>
@@ -54153,10 +54505,8 @@
     <mergeCell ref="DG4:DG5"/>
     <mergeCell ref="DX4:DX5"/>
     <mergeCell ref="DZ4:DZ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CM4:CM5"/>
-    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DO4:DO5"/>
     <mergeCell ref="DK4:DK5"/>
     <mergeCell ref="DE4:DE5"/>
     <mergeCell ref="DC4:DC5"/>
@@ -54170,9 +54520,11 @@
     <mergeCell ref="DB4:DB5"/>
     <mergeCell ref="DH4:DH5"/>
     <mergeCell ref="CN4:CN5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DO4:DO5"/>
     <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="DF4:DF5"/>
+    <mergeCell ref="CR4:CR5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CT4:CT5"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="CA4:CA5"/>
@@ -54192,6 +54544,11 @@
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="X4:X5"/>
@@ -54213,6 +54570,8 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="D4:D5"/>
@@ -54224,9 +54583,21 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="ED4:ED5"/>
+    <mergeCell ref="EC4:EC5"/>
+    <mergeCell ref="EB4:EB5"/>
+    <mergeCell ref="EA4:EA5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="DN4:DN5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS4:AS5"/>
@@ -54239,41 +54610,10 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="DF4:DF5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CR4:CR5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="CY4:CY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="DD2:ED2"/>
-    <mergeCell ref="DD3:ED3"/>
-    <mergeCell ref="ED4:ED5"/>
-    <mergeCell ref="EC4:EC5"/>
-    <mergeCell ref="EB4:EB5"/>
-    <mergeCell ref="EA4:EA5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CM4:CM5"/>
+    <mergeCell ref="CK4:CK5"/>
     <mergeCell ref="CR3:DC3"/>
     <mergeCell ref="BD2:DC2"/>
     <mergeCell ref="D2:BC2"/>
@@ -54287,6 +54627,16 @@
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="CY4:CY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="DJ6:DN57">
@@ -54321,7 +54671,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>DP6:ED57</xm:sqref>
+          <xm:sqref>DP6:EE57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -54331,13 +54681,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD61"/>
+  <dimension ref="A1:CE61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BP30" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BX6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CD57" sqref="CD57"/>
+      <selection pane="bottomRight" activeCell="CE61" sqref="CE61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -54350,11 +54700,11 @@
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
     <col min="35" max="48" width="10.875" style="1" customWidth="1"/>
     <col min="49" max="53" width="11.125" style="1" customWidth="1"/>
-    <col min="54" max="82" width="10.875" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="8.625" style="1"/>
+    <col min="54" max="83" width="10.875" style="1" customWidth="1"/>
+    <col min="84" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:83" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -54411,100 +54761,102 @@
       <c r="CA1" s="19"/>
       <c r="CB1" s="19"/>
       <c r="CC1" s="19"/>
-      <c r="CD1" s="19" t="s">
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
+    <row r="2" spans="1:83" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
       <c r="BC2" s="83"/>
-      <c r="BD2" s="44" t="s">
+      <c r="BD2" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="44"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
     </row>
-    <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+    <row r="3" spans="1:83" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="77" t="s">
         <v>218</v>
       </c>
@@ -54547,136 +54899,137 @@
       <c r="AO3" s="77"/>
       <c r="AP3" s="77"/>
       <c r="AQ3" s="77"/>
-      <c r="AR3" s="45" t="s">
+      <c r="AR3" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45" t="s">
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
+      <c r="BE3" s="54"/>
+      <c r="BF3" s="54"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="54"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="54"/>
+      <c r="BL3" s="54"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="54"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="54"/>
+      <c r="BS3" s="54"/>
+      <c r="BT3" s="54"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
     </row>
-    <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55" t="s">
+    <row r="4" spans="1:83" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="55" t="s">
+      <c r="Z4" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AA4" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="47" t="s">
         <v>250</v>
       </c>
       <c r="AE4" s="49" t="s">
@@ -54754,172 +55107,176 @@
       <c r="BC4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="BD4" s="46" t="s">
+      <c r="BD4" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" s="46" t="s">
+      <c r="BE4" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="46" t="s">
+      <c r="BF4" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="BG4" s="46" t="s">
+      <c r="BG4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="46" t="s">
+      <c r="BH4" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="46" t="s">
+      <c r="BI4" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="46" t="s">
+      <c r="BJ4" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="BK4" s="46" t="s">
+      <c r="BK4" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="BL4" s="46" t="s">
+      <c r="BL4" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="BM4" s="46" t="s">
+      <c r="BM4" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="BN4" s="46" t="s">
+      <c r="BN4" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="46" t="s">
+      <c r="BO4" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="BP4" s="46" t="s">
+      <c r="BP4" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="46" t="s">
+      <c r="BQ4" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="46" t="s">
+      <c r="BR4" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="BS4" s="46" t="s">
+      <c r="BS4" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="BT4" s="46" t="s">
+      <c r="BT4" s="53" t="s">
         <v>357</v>
       </c>
-      <c r="BU4" s="46" t="s">
+      <c r="BU4" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="BV4" s="46" t="s">
+      <c r="BV4" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="BW4" s="46" t="s">
+      <c r="BW4" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="BX4" s="46" t="s">
+      <c r="BX4" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="BY4" s="46" t="s">
+      <c r="BY4" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="BZ4" s="46" t="s">
+      <c r="BZ4" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="CA4" s="46" t="s">
+      <c r="CA4" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="46" t="s">
+      <c r="CB4" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="CC4" s="46" t="s">
+      <c r="CC4" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="CD4" s="46" t="s">
+      <c r="CD4" s="53" t="s">
         <v>388</v>
       </c>
+      <c r="CE4" s="53" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
+    <row r="5" spans="1:83" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="65"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="53"/>
+      <c r="CB5" s="53"/>
+      <c r="CC5" s="53"/>
+      <c r="CD5" s="53"/>
+      <c r="CE5" s="53"/>
     </row>
-    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -55164,8 +55521,11 @@
       <c r="CD6" s="28">
         <v>29</v>
       </c>
+      <c r="CE6" s="28">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -55409,8 +55769,11 @@
       <c r="CD7" s="15">
         <v>0</v>
       </c>
+      <c r="CE7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -55654,8 +56017,11 @@
       <c r="CD8" s="28">
         <v>1</v>
       </c>
+      <c r="CE8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -55900,8 +56266,11 @@
       <c r="CD9" s="15">
         <v>7</v>
       </c>
+      <c r="CE9" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -56145,8 +56514,11 @@
       <c r="CD10" s="15">
         <v>0</v>
       </c>
+      <c r="CE10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -56390,8 +56762,11 @@
       <c r="CD11" s="15">
         <v>3</v>
       </c>
+      <c r="CE11" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -56635,8 +57010,11 @@
       <c r="CD12" s="15">
         <v>0</v>
       </c>
+      <c r="CE12" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -56880,8 +57258,11 @@
       <c r="CD13" s="15">
         <v>16</v>
       </c>
+      <c r="CE13" s="15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -57125,8 +57506,11 @@
       <c r="CD14" s="15">
         <v>5</v>
       </c>
+      <c r="CE14" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -57370,8 +57754,11 @@
       <c r="CD15" s="15">
         <v>0</v>
       </c>
+      <c r="CE15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -57616,8 +58003,11 @@
       <c r="CD16" s="28">
         <v>1</v>
       </c>
+      <c r="CE16" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -57861,8 +58251,11 @@
       <c r="CD17" s="15">
         <v>48</v>
       </c>
+      <c r="CE17" s="15">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -58107,8 +58500,11 @@
       <c r="CD18" s="34">
         <v>266</v>
       </c>
+      <c r="CE18" s="34">
+        <v>200</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="84" t="s">
         <v>27</v>
@@ -58353,8 +58749,11 @@
       <c r="CD19" s="15">
         <v>30</v>
       </c>
+      <c r="CE19" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="88"/>
       <c r="C20" s="9" t="s">
@@ -58597,8 +58996,11 @@
       <c r="CD20" s="28">
         <v>71</v>
       </c>
+      <c r="CE20" s="28">
+        <v>40</v>
+      </c>
     </row>
-    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="85"/>
       <c r="C21" s="9" t="s">
@@ -58841,8 +59243,11 @@
       <c r="CD21" s="15">
         <v>14</v>
       </c>
+      <c r="CE21" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -59086,8 +59491,11 @@
       <c r="CD22" s="15">
         <v>1</v>
       </c>
+      <c r="CE22" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -59331,8 +59739,11 @@
       <c r="CD23" s="15">
         <v>0</v>
       </c>
+      <c r="CE23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -59576,8 +59987,11 @@
       <c r="CD24" s="15">
         <v>6</v>
       </c>
+      <c r="CE24" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -59821,8 +60235,11 @@
       <c r="CD25" s="15">
         <v>0</v>
       </c>
+      <c r="CE25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -60066,8 +60483,11 @@
       <c r="CD26" s="15">
         <v>5</v>
       </c>
+      <c r="CE26" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -60311,8 +60731,11 @@
       <c r="CD27" s="15">
         <v>0</v>
       </c>
+      <c r="CE27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -60556,8 +60979,11 @@
       <c r="CD28" s="15">
         <v>0</v>
       </c>
+      <c r="CE28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
         <v>45</v>
       </c>
@@ -60801,8 +61227,11 @@
       <c r="CD29" s="15">
         <v>0</v>
       </c>
+      <c r="CE29" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -61044,8 +61473,11 @@
       <c r="CD30" s="15">
         <v>10</v>
       </c>
+      <c r="CE30" s="15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -61290,8 +61722,11 @@
       <c r="CD31" s="15">
         <v>13</v>
       </c>
+      <c r="CE31" s="15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -61535,8 +61970,11 @@
       <c r="CD32" s="15">
         <v>0</v>
       </c>
+      <c r="CE32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -61780,8 +62218,11 @@
       <c r="CD33" s="15">
         <v>0</v>
       </c>
+      <c r="CE33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -62026,8 +62467,11 @@
       <c r="CD34" s="15">
         <v>8</v>
       </c>
+      <c r="CE34" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="84" t="s">
         <v>56</v>
@@ -62272,8 +62716,11 @@
       <c r="CD35" s="15">
         <v>39</v>
       </c>
+      <c r="CE35" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="85"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -62515,8 +62962,11 @@
       <c r="CD36" s="28">
         <v>17</v>
       </c>
+      <c r="CE36" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -62761,8 +63211,11 @@
       <c r="CD37" s="15">
         <v>11</v>
       </c>
+      <c r="CE37" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -63006,8 +63459,11 @@
       <c r="CD38" s="15">
         <v>3</v>
       </c>
+      <c r="CE38" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -63251,8 +63707,11 @@
       <c r="CD39" s="15">
         <v>3</v>
       </c>
+      <c r="CE39" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -63496,8 +63955,11 @@
       <c r="CD40" s="15">
         <v>0</v>
       </c>
+      <c r="CE40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -63741,8 +64203,11 @@
       <c r="CD41" s="15">
         <v>0</v>
       </c>
+      <c r="CE41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -63986,8 +64451,11 @@
       <c r="CD42" s="15">
         <v>3</v>
       </c>
+      <c r="CE42" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -64231,8 +64699,11 @@
       <c r="CD43" s="28">
         <v>20</v>
       </c>
+      <c r="CE43" s="28">
+        <v>12</v>
+      </c>
     </row>
-    <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -64476,8 +64947,11 @@
       <c r="CD44" s="15">
         <v>1</v>
       </c>
+      <c r="CE44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -64721,8 +65195,11 @@
       <c r="CD45" s="15">
         <v>3</v>
       </c>
+      <c r="CE45" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -64966,8 +65443,11 @@
       <c r="CD46" s="15">
         <v>6</v>
       </c>
+      <c r="CE46" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -65211,8 +65691,11 @@
       <c r="CD47" s="15">
         <v>2</v>
       </c>
+      <c r="CE47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -65456,8 +65939,11 @@
       <c r="CD48" s="15">
         <v>5</v>
       </c>
+      <c r="CE48" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="84" t="s">
         <v>83</v>
@@ -65702,8 +66188,11 @@
       <c r="CD49" s="15">
         <v>0</v>
       </c>
+      <c r="CE49" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:83" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="85"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -65945,8 +66434,11 @@
       <c r="CD50" s="15">
         <v>2</v>
       </c>
+      <c r="CE50" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -66190,8 +66682,11 @@
       <c r="CD51" s="15">
         <v>1</v>
       </c>
+      <c r="CE51" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -66435,8 +66930,11 @@
       <c r="CD52" s="15">
         <v>2</v>
       </c>
+      <c r="CE52" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -66680,8 +67178,11 @@
       <c r="CD53" s="15">
         <v>9</v>
       </c>
+      <c r="CE53" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -66925,8 +67426,11 @@
       <c r="CD54" s="15">
         <v>0</v>
       </c>
+      <c r="CE54" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -67170,8 +67674,11 @@
       <c r="CD55" s="15">
         <v>3</v>
       </c>
+      <c r="CE55" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -67415,8 +67922,11 @@
       <c r="CD56" s="15">
         <v>0</v>
       </c>
+      <c r="CE56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -67660,8 +68170,11 @@
       <c r="CD57" s="15">
         <v>0</v>
       </c>
+      <c r="CE57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -67931,7 +68444,7 @@
         <v>680</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:CC58" si="8">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CE58" si="8">SUM(BR6:BR57)</f>
         <v>855</v>
       </c>
       <c r="BS58" s="14">
@@ -67979,10 +68492,15 @@
         <v>847</v>
       </c>
       <c r="CD58" s="14">
+        <f t="shared" si="8"/>
         <v>664</v>
       </c>
+      <c r="CE58" s="14">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
     </row>
-    <row r="59" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -68015,7 +68533,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -68048,7 +68566,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -68082,7 +68600,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="92">
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="BD2:CE2"/>
+    <mergeCell ref="BD3:CE3"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BI4:BI5"/>
@@ -68095,6 +68616,7 @@
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
@@ -68149,7 +68671,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AK4:AK5"/>
@@ -68158,8 +68679,6 @@
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
     <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="BH4:BH5"/>
@@ -68180,7 +68699,7 @@
   <pageSetup paperSize="9" scale="26" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="55" max="66" man="1"/>
-    <brk id="82" max="66" man="1"/>
+    <brk id="83" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -68197,7 +68716,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CD57</xm:sqref>
+          <xm:sqref>BP6:CE57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -68207,13 +68726,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI61"/>
+  <dimension ref="A1:CJ61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BY42" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BN42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA60" sqref="CA60"/>
+      <selection pane="bottomRight" activeCell="CD42" sqref="CD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -68224,11 +68743,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
     <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
-    <col min="34" max="87" width="10.875" style="1" customWidth="1"/>
-    <col min="88" max="16384" width="8.625" style="1"/>
+    <col min="34" max="88" width="10.875" style="1" customWidth="1"/>
+    <col min="89" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:88" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -68285,105 +68804,107 @@
       <c r="CA1" s="19"/>
       <c r="CB1" s="19"/>
       <c r="CC1" s="19"/>
-      <c r="CD1" s="19" t="s">
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:87" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
+    <row r="2" spans="1:88" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
       <c r="BC2" s="83"/>
-      <c r="BD2" s="44" t="s">
+      <c r="BD2" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="44"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
-      <c r="CE2" s="20"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
       <c r="CF2" s="20"/>
       <c r="CG2" s="20"/>
       <c r="CH2" s="20"/>
       <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
     </row>
-    <row r="3" spans="1:87" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+    <row r="3" spans="1:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="77" t="s">
         <v>218</v>
       </c>
@@ -68426,21 +68947,21 @@
       <c r="AO3" s="77"/>
       <c r="AP3" s="77"/>
       <c r="AQ3" s="77"/>
-      <c r="AR3" s="45" t="s">
+      <c r="AR3" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45" t="s">
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="55" t="s">
         <v>328</v>
       </c>
       <c r="BE3" s="45"/>
@@ -68469,98 +68990,99 @@
       <c r="CB3" s="45"/>
       <c r="CC3" s="45"/>
       <c r="CD3" s="45"/>
-      <c r="CE3" s="21"/>
+      <c r="CE3" s="46"/>
       <c r="CF3" s="21"/>
       <c r="CG3" s="21"/>
       <c r="CH3" s="21"/>
       <c r="CI3" s="21"/>
+      <c r="CJ3" s="21"/>
     </row>
-    <row r="4" spans="1:87" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55" t="s">
+    <row r="4" spans="1:88" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="55" t="s">
+      <c r="Z4" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AA4" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="47" t="s">
         <v>250</v>
       </c>
       <c r="AE4" s="49" t="s">
@@ -68638,182 +69160,186 @@
       <c r="BC4" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="BD4" s="46" t="s">
+      <c r="BD4" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" s="46" t="s">
+      <c r="BE4" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="BF4" s="46" t="s">
+      <c r="BF4" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="BG4" s="46" t="s">
+      <c r="BG4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="46" t="s">
+      <c r="BH4" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="46" t="s">
+      <c r="BI4" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="46" t="s">
+      <c r="BJ4" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="BK4" s="46" t="s">
+      <c r="BK4" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="BL4" s="46" t="s">
+      <c r="BL4" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="BM4" s="46" t="s">
+      <c r="BM4" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="BN4" s="46" t="s">
+      <c r="BN4" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="46" t="s">
+      <c r="BO4" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="BP4" s="46" t="s">
+      <c r="BP4" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="46" t="s">
+      <c r="BQ4" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="46" t="s">
+      <c r="BR4" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="BS4" s="46" t="s">
+      <c r="BS4" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="BT4" s="46" t="s">
+      <c r="BT4" s="53" t="s">
         <v>357</v>
       </c>
-      <c r="BU4" s="46" t="s">
+      <c r="BU4" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="BV4" s="46" t="s">
+      <c r="BV4" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="BW4" s="46" t="s">
+      <c r="BW4" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="BX4" s="46" t="s">
+      <c r="BX4" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="BY4" s="46" t="s">
+      <c r="BY4" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="BZ4" s="46" t="s">
+      <c r="BZ4" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="CA4" s="46" t="s">
+      <c r="CA4" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="CB4" s="46" t="s">
+      <c r="CB4" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="CC4" s="46" t="s">
+      <c r="CC4" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="CD4" s="46" t="s">
+      <c r="CD4" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="CE4" s="89"/>
+      <c r="CE4" s="53" t="s">
+        <v>390</v>
+      </c>
       <c r="CF4" s="89"/>
       <c r="CG4" s="89"/>
       <c r="CH4" s="89"/>
       <c r="CI4" s="89"/>
+      <c r="CJ4" s="89"/>
     </row>
-    <row r="5" spans="1:87" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="46"/>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="89"/>
+    <row r="5" spans="1:88" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="65"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
+      <c r="BV5" s="53"/>
+      <c r="BW5" s="53"/>
+      <c r="BX5" s="53"/>
+      <c r="BY5" s="53"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="53"/>
+      <c r="CB5" s="53"/>
+      <c r="CC5" s="53"/>
+      <c r="CD5" s="53"/>
+      <c r="CE5" s="53"/>
       <c r="CF5" s="89"/>
       <c r="CG5" s="89"/>
       <c r="CH5" s="89"/>
       <c r="CI5" s="89"/>
+      <c r="CJ5" s="89"/>
     </row>
-    <row r="6" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -69058,13 +69584,16 @@
       <c r="CD6" s="28">
         <v>90</v>
       </c>
-      <c r="CE6" s="22"/>
+      <c r="CE6" s="28">
+        <v>97</v>
+      </c>
       <c r="CF6" s="22"/>
       <c r="CG6" s="22"/>
       <c r="CH6" s="22"/>
       <c r="CI6" s="22"/>
+      <c r="CJ6" s="22"/>
     </row>
-    <row r="7" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -69308,13 +69837,16 @@
       <c r="CD7" s="15">
         <v>1</v>
       </c>
-      <c r="CE7" s="23"/>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
       <c r="CF7" s="23"/>
       <c r="CG7" s="23"/>
       <c r="CH7" s="23"/>
       <c r="CI7" s="23"/>
+      <c r="CJ7" s="23"/>
     </row>
-    <row r="8" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -69558,13 +70090,16 @@
       <c r="CD8" s="28">
         <v>10</v>
       </c>
-      <c r="CE8" s="23"/>
+      <c r="CE8" s="28">
+        <v>13</v>
+      </c>
       <c r="CF8" s="23"/>
       <c r="CG8" s="23"/>
       <c r="CH8" s="23"/>
       <c r="CI8" s="23"/>
+      <c r="CJ8" s="23"/>
     </row>
-    <row r="9" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -69809,13 +70344,16 @@
       <c r="CD9" s="15">
         <v>56</v>
       </c>
-      <c r="CE9" s="23"/>
+      <c r="CE9" s="15">
+        <v>76</v>
+      </c>
       <c r="CF9" s="23"/>
       <c r="CG9" s="23"/>
       <c r="CH9" s="23"/>
       <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
     </row>
-    <row r="10" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -70059,13 +70597,16 @@
       <c r="CD10" s="15">
         <v>1</v>
       </c>
-      <c r="CE10" s="23"/>
+      <c r="CE10" s="15">
+        <v>0</v>
+      </c>
       <c r="CF10" s="23"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="23"/>
       <c r="CI10" s="23"/>
+      <c r="CJ10" s="23"/>
     </row>
-    <row r="11" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -70309,13 +70850,16 @@
       <c r="CD11" s="15">
         <v>6</v>
       </c>
-      <c r="CE11" s="23"/>
+      <c r="CE11" s="15">
+        <v>14</v>
+      </c>
       <c r="CF11" s="23"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="23"/>
       <c r="CI11" s="23"/>
+      <c r="CJ11" s="23"/>
     </row>
-    <row r="12" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -70559,13 +71103,16 @@
       <c r="CD12" s="15">
         <v>6</v>
       </c>
-      <c r="CE12" s="23"/>
+      <c r="CE12" s="15">
+        <v>3</v>
+      </c>
       <c r="CF12" s="23"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="23"/>
       <c r="CI12" s="23"/>
+      <c r="CJ12" s="23"/>
     </row>
-    <row r="13" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -70809,13 +71356,16 @@
       <c r="CD13" s="15">
         <v>15</v>
       </c>
-      <c r="CE13" s="22"/>
+      <c r="CE13" s="15">
+        <v>17</v>
+      </c>
       <c r="CF13" s="22"/>
       <c r="CG13" s="22"/>
       <c r="CH13" s="22"/>
       <c r="CI13" s="22"/>
+      <c r="CJ13" s="22"/>
     </row>
-    <row r="14" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -71059,13 +71609,16 @@
       <c r="CD14" s="15">
         <v>7</v>
       </c>
-      <c r="CE14" s="23"/>
+      <c r="CE14" s="15">
+        <v>19</v>
+      </c>
       <c r="CF14" s="23"/>
       <c r="CG14" s="23"/>
       <c r="CH14" s="23"/>
       <c r="CI14" s="23"/>
+      <c r="CJ14" s="23"/>
     </row>
-    <row r="15" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -71309,13 +71862,16 @@
       <c r="CD15" s="15">
         <v>0</v>
       </c>
-      <c r="CE15" s="23"/>
+      <c r="CE15" s="15">
+        <v>1</v>
+      </c>
       <c r="CF15" s="23"/>
       <c r="CG15" s="23"/>
       <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
+      <c r="CJ15" s="23"/>
     </row>
-    <row r="16" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -71560,13 +72116,16 @@
       <c r="CD16" s="28">
         <v>94</v>
       </c>
-      <c r="CE16" s="22"/>
+      <c r="CE16" s="28">
+        <v>86</v>
+      </c>
       <c r="CF16" s="22"/>
       <c r="CG16" s="22"/>
       <c r="CH16" s="22"/>
       <c r="CI16" s="22"/>
+      <c r="CJ16" s="22"/>
     </row>
-    <row r="17" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -71810,13 +72369,16 @@
       <c r="CD17" s="15">
         <v>69</v>
       </c>
-      <c r="CE17" s="22"/>
+      <c r="CE17" s="15">
+        <v>80</v>
+      </c>
       <c r="CF17" s="22"/>
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
       <c r="CI17" s="22"/>
+      <c r="CJ17" s="22"/>
     </row>
-    <row r="18" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -72061,13 +72623,16 @@
       <c r="CD18" s="34">
         <v>1171</v>
       </c>
-      <c r="CE18" s="22"/>
+      <c r="CE18" s="34">
+        <v>1120</v>
+      </c>
       <c r="CF18" s="22"/>
       <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
+      <c r="CJ18" s="22"/>
     </row>
-    <row r="19" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="84" t="s">
         <v>27</v>
@@ -72312,13 +72877,16 @@
       <c r="CD19" s="15">
         <v>19</v>
       </c>
-      <c r="CE19" s="22"/>
+      <c r="CE19" s="15">
+        <v>23</v>
+      </c>
       <c r="CF19" s="22"/>
       <c r="CG19" s="22"/>
       <c r="CH19" s="22"/>
       <c r="CI19" s="22"/>
+      <c r="CJ19" s="22"/>
     </row>
-    <row r="20" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="88"/>
       <c r="C20" s="9" t="s">
@@ -72561,13 +73129,16 @@
       <c r="CD20" s="28">
         <v>51</v>
       </c>
-      <c r="CE20" s="22"/>
+      <c r="CE20" s="28">
+        <v>56</v>
+      </c>
       <c r="CF20" s="22"/>
       <c r="CG20" s="22"/>
       <c r="CH20" s="22"/>
       <c r="CI20" s="22"/>
+      <c r="CJ20" s="22"/>
     </row>
-    <row r="21" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="85"/>
       <c r="C21" s="9" t="s">
@@ -72810,13 +73381,16 @@
       <c r="CD21" s="15">
         <v>20</v>
       </c>
-      <c r="CE21" s="22"/>
+      <c r="CE21" s="15">
+        <v>13</v>
+      </c>
       <c r="CF21" s="22"/>
       <c r="CG21" s="22"/>
       <c r="CH21" s="22"/>
       <c r="CI21" s="22"/>
+      <c r="CJ21" s="22"/>
     </row>
-    <row r="22" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -73060,13 +73634,16 @@
       <c r="CD22" s="15">
         <v>6</v>
       </c>
-      <c r="CE22" s="23"/>
+      <c r="CE22" s="15">
+        <v>1</v>
+      </c>
       <c r="CF22" s="23"/>
       <c r="CG22" s="23"/>
       <c r="CH22" s="23"/>
       <c r="CI22" s="23"/>
+      <c r="CJ22" s="23"/>
     </row>
-    <row r="23" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -73310,13 +73887,16 @@
       <c r="CD23" s="15">
         <v>1</v>
       </c>
-      <c r="CE23" s="23"/>
+      <c r="CE23" s="15">
+        <v>0</v>
+      </c>
       <c r="CF23" s="23"/>
       <c r="CG23" s="23"/>
       <c r="CH23" s="23"/>
       <c r="CI23" s="23"/>
+      <c r="CJ23" s="23"/>
     </row>
-    <row r="24" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -73560,13 +74140,16 @@
       <c r="CD24" s="15">
         <v>10</v>
       </c>
-      <c r="CE24" s="22"/>
+      <c r="CE24" s="15">
+        <v>4</v>
+      </c>
       <c r="CF24" s="22"/>
       <c r="CG24" s="22"/>
       <c r="CH24" s="22"/>
       <c r="CI24" s="22"/>
+      <c r="CJ24" s="22"/>
     </row>
-    <row r="25" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -73810,13 +74393,16 @@
       <c r="CD25" s="15">
         <v>0</v>
       </c>
-      <c r="CE25" s="23"/>
+      <c r="CE25" s="15">
+        <v>1</v>
+      </c>
       <c r="CF25" s="23"/>
       <c r="CG25" s="23"/>
       <c r="CH25" s="23"/>
       <c r="CI25" s="23"/>
+      <c r="CJ25" s="23"/>
     </row>
-    <row r="26" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -74060,13 +74646,16 @@
       <c r="CD26" s="15">
         <v>2</v>
       </c>
-      <c r="CE26" s="23"/>
+      <c r="CE26" s="15">
+        <v>7</v>
+      </c>
       <c r="CF26" s="23"/>
       <c r="CG26" s="23"/>
       <c r="CH26" s="23"/>
       <c r="CI26" s="23"/>
+      <c r="CJ26" s="23"/>
     </row>
-    <row r="27" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -74310,13 +74899,16 @@
       <c r="CD27" s="15">
         <v>0</v>
       </c>
-      <c r="CE27" s="23"/>
+      <c r="CE27" s="15">
+        <v>0</v>
+      </c>
       <c r="CF27" s="23"/>
       <c r="CG27" s="23"/>
       <c r="CH27" s="23"/>
       <c r="CI27" s="23"/>
+      <c r="CJ27" s="23"/>
     </row>
-    <row r="28" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -74560,13 +75152,16 @@
       <c r="CD28" s="15">
         <v>1</v>
       </c>
-      <c r="CE28" s="22"/>
+      <c r="CE28" s="15">
+        <v>2</v>
+      </c>
       <c r="CF28" s="22"/>
       <c r="CG28" s="22"/>
       <c r="CH28" s="22"/>
       <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
     </row>
-    <row r="29" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
         <v>45</v>
       </c>
@@ -74810,13 +75405,16 @@
       <c r="CD29" s="15">
         <v>1</v>
       </c>
-      <c r="CE29" s="23"/>
+      <c r="CE29" s="15">
+        <v>3</v>
+      </c>
       <c r="CF29" s="23"/>
       <c r="CG29" s="23"/>
       <c r="CH29" s="23"/>
       <c r="CI29" s="23"/>
+      <c r="CJ29" s="23"/>
     </row>
-    <row r="30" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -75058,13 +75656,16 @@
       <c r="CD30" s="15">
         <v>11</v>
       </c>
-      <c r="CE30" s="23"/>
+      <c r="CE30" s="15">
+        <v>9</v>
+      </c>
       <c r="CF30" s="23"/>
       <c r="CG30" s="23"/>
       <c r="CH30" s="23"/>
       <c r="CI30" s="23"/>
+      <c r="CJ30" s="23"/>
     </row>
-    <row r="31" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -75309,13 +75910,16 @@
       <c r="CD31" s="15">
         <v>25</v>
       </c>
-      <c r="CE31" s="22"/>
+      <c r="CE31" s="15">
+        <v>15</v>
+      </c>
       <c r="CF31" s="22"/>
       <c r="CG31" s="22"/>
       <c r="CH31" s="22"/>
       <c r="CI31" s="22"/>
+      <c r="CJ31" s="22"/>
     </row>
-    <row r="32" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -75559,13 +76163,16 @@
       <c r="CD32" s="15">
         <v>1</v>
       </c>
-      <c r="CE32" s="23"/>
+      <c r="CE32" s="15">
+        <v>0</v>
+      </c>
       <c r="CF32" s="23"/>
       <c r="CG32" s="23"/>
       <c r="CH32" s="23"/>
       <c r="CI32" s="23"/>
+      <c r="CJ32" s="23"/>
     </row>
-    <row r="33" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -75809,13 +76416,16 @@
       <c r="CD33" s="15">
         <v>0</v>
       </c>
-      <c r="CE33" s="23"/>
+      <c r="CE33" s="15">
+        <v>0</v>
+      </c>
       <c r="CF33" s="23"/>
       <c r="CG33" s="23"/>
       <c r="CH33" s="23"/>
       <c r="CI33" s="23"/>
+      <c r="CJ33" s="23"/>
     </row>
-    <row r="34" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -76060,13 +76670,16 @@
       <c r="CD34" s="15">
         <v>54</v>
       </c>
-      <c r="CE34" s="22"/>
+      <c r="CE34" s="15">
+        <v>32</v>
+      </c>
       <c r="CF34" s="22"/>
       <c r="CG34" s="22"/>
       <c r="CH34" s="22"/>
       <c r="CI34" s="22"/>
+      <c r="CJ34" s="22"/>
     </row>
-    <row r="35" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="84" t="s">
         <v>56</v>
@@ -76311,13 +76924,16 @@
       <c r="CD35" s="15">
         <v>213</v>
       </c>
-      <c r="CE35" s="22"/>
+      <c r="CE35" s="15">
+        <v>208</v>
+      </c>
       <c r="CF35" s="22"/>
       <c r="CG35" s="22"/>
       <c r="CH35" s="22"/>
       <c r="CI35" s="22"/>
+      <c r="CJ35" s="22"/>
     </row>
-    <row r="36" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="85"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -76559,13 +77175,16 @@
       <c r="CD36" s="28">
         <v>22</v>
       </c>
-      <c r="CE36" s="22"/>
+      <c r="CE36" s="28">
+        <v>21</v>
+      </c>
       <c r="CF36" s="22"/>
       <c r="CG36" s="22"/>
       <c r="CH36" s="22"/>
       <c r="CI36" s="22"/>
+      <c r="CJ36" s="22"/>
     </row>
-    <row r="37" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -76810,13 +77429,16 @@
       <c r="CD37" s="15">
         <v>24</v>
       </c>
-      <c r="CE37" s="22"/>
+      <c r="CE37" s="15">
+        <v>33</v>
+      </c>
       <c r="CF37" s="22"/>
       <c r="CG37" s="22"/>
       <c r="CH37" s="22"/>
       <c r="CI37" s="22"/>
+      <c r="CJ37" s="22"/>
     </row>
-    <row r="38" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -77060,13 +77682,16 @@
       <c r="CD38" s="15">
         <v>3</v>
       </c>
-      <c r="CE38" s="23"/>
+      <c r="CE38" s="15">
+        <v>5</v>
+      </c>
       <c r="CF38" s="23"/>
       <c r="CG38" s="23"/>
       <c r="CH38" s="23"/>
       <c r="CI38" s="23"/>
+      <c r="CJ38" s="23"/>
     </row>
-    <row r="39" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -77310,13 +77935,16 @@
       <c r="CD39" s="15">
         <v>4</v>
       </c>
-      <c r="CE39" s="23"/>
+      <c r="CE39" s="15">
+        <v>5</v>
+      </c>
       <c r="CF39" s="23"/>
       <c r="CG39" s="23"/>
       <c r="CH39" s="23"/>
       <c r="CI39" s="23"/>
+      <c r="CJ39" s="23"/>
     </row>
-    <row r="40" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -77560,13 +78188,16 @@
       <c r="CD40" s="15">
         <v>0</v>
       </c>
-      <c r="CE40" s="23"/>
+      <c r="CE40" s="15">
+        <v>0</v>
+      </c>
       <c r="CF40" s="23"/>
       <c r="CG40" s="23"/>
       <c r="CH40" s="23"/>
       <c r="CI40" s="23"/>
+      <c r="CJ40" s="23"/>
     </row>
-    <row r="41" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -77810,13 +78441,16 @@
       <c r="CD41" s="15">
         <v>0</v>
       </c>
-      <c r="CE41" s="23"/>
+      <c r="CE41" s="15">
+        <v>0</v>
+      </c>
       <c r="CF41" s="23"/>
       <c r="CG41" s="23"/>
       <c r="CH41" s="23"/>
       <c r="CI41" s="23"/>
+      <c r="CJ41" s="23"/>
     </row>
-    <row r="42" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -78060,13 +78694,16 @@
       <c r="CD42" s="15">
         <v>6</v>
       </c>
-      <c r="CE42" s="23"/>
+      <c r="CE42" s="15">
+        <v>5</v>
+      </c>
       <c r="CF42" s="23"/>
       <c r="CG42" s="23"/>
       <c r="CH42" s="23"/>
       <c r="CI42" s="23"/>
+      <c r="CJ42" s="23"/>
     </row>
-    <row r="43" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -78310,13 +78947,16 @@
       <c r="CD43" s="28">
         <v>18</v>
       </c>
-      <c r="CE43" s="23"/>
+      <c r="CE43" s="28">
+        <v>22</v>
+      </c>
       <c r="CF43" s="23"/>
       <c r="CG43" s="23"/>
       <c r="CH43" s="23"/>
       <c r="CI43" s="23"/>
+      <c r="CJ43" s="23"/>
     </row>
-    <row r="44" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -78560,13 +79200,16 @@
       <c r="CD44" s="15">
         <v>1</v>
       </c>
-      <c r="CE44" s="23"/>
+      <c r="CE44" s="15">
+        <v>4</v>
+      </c>
       <c r="CF44" s="23"/>
       <c r="CG44" s="23"/>
       <c r="CH44" s="23"/>
       <c r="CI44" s="23"/>
+      <c r="CJ44" s="23"/>
     </row>
-    <row r="45" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -78810,13 +79453,16 @@
       <c r="CD45" s="15">
         <v>12</v>
       </c>
-      <c r="CE45" s="22"/>
+      <c r="CE45" s="15">
+        <v>9</v>
+      </c>
       <c r="CF45" s="22"/>
       <c r="CG45" s="22"/>
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
+      <c r="CJ45" s="22"/>
     </row>
-    <row r="46" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -79060,13 +79706,16 @@
       <c r="CD46" s="15">
         <v>13</v>
       </c>
-      <c r="CE46" s="23"/>
+      <c r="CE46" s="15">
+        <v>15</v>
+      </c>
       <c r="CF46" s="23"/>
       <c r="CG46" s="23"/>
       <c r="CH46" s="23"/>
       <c r="CI46" s="23"/>
+      <c r="CJ46" s="23"/>
     </row>
-    <row r="47" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -79310,13 +79959,16 @@
       <c r="CD47" s="15">
         <v>1</v>
       </c>
-      <c r="CE47" s="23"/>
+      <c r="CE47" s="15">
+        <v>2</v>
+      </c>
       <c r="CF47" s="23"/>
       <c r="CG47" s="23"/>
       <c r="CH47" s="23"/>
       <c r="CI47" s="23"/>
+      <c r="CJ47" s="23"/>
     </row>
-    <row r="48" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -79560,13 +80212,16 @@
       <c r="CD48" s="15">
         <v>9</v>
       </c>
-      <c r="CE48" s="23"/>
+      <c r="CE48" s="15">
+        <v>1</v>
+      </c>
       <c r="CF48" s="23"/>
       <c r="CG48" s="23"/>
       <c r="CH48" s="23"/>
       <c r="CI48" s="23"/>
+      <c r="CJ48" s="23"/>
     </row>
-    <row r="49" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="84" t="s">
         <v>83</v>
@@ -79811,13 +80466,16 @@
       <c r="CD49" s="15">
         <v>23</v>
       </c>
-      <c r="CE49" s="22"/>
+      <c r="CE49" s="15">
+        <v>23</v>
+      </c>
       <c r="CF49" s="22"/>
       <c r="CG49" s="22"/>
       <c r="CH49" s="22"/>
       <c r="CI49" s="22"/>
+      <c r="CJ49" s="22"/>
     </row>
-    <row r="50" spans="1:87" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="85"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -80059,13 +80717,16 @@
       <c r="CD50" s="15">
         <v>6</v>
       </c>
-      <c r="CE50" s="22"/>
+      <c r="CE50" s="15">
+        <v>5</v>
+      </c>
       <c r="CF50" s="22"/>
       <c r="CG50" s="22"/>
       <c r="CH50" s="22"/>
       <c r="CI50" s="22"/>
+      <c r="CJ50" s="22"/>
     </row>
-    <row r="51" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -80309,13 +80970,16 @@
       <c r="CD51" s="15">
         <v>8</v>
       </c>
-      <c r="CE51" s="23"/>
+      <c r="CE51" s="15">
+        <v>3</v>
+      </c>
       <c r="CF51" s="23"/>
       <c r="CG51" s="23"/>
       <c r="CH51" s="23"/>
       <c r="CI51" s="23"/>
+      <c r="CJ51" s="23"/>
     </row>
-    <row r="52" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -80559,13 +81223,16 @@
       <c r="CD52" s="15">
         <v>7</v>
       </c>
-      <c r="CE52" s="23"/>
+      <c r="CE52" s="15">
+        <v>12</v>
+      </c>
       <c r="CF52" s="23"/>
       <c r="CG52" s="23"/>
       <c r="CH52" s="23"/>
       <c r="CI52" s="23"/>
+      <c r="CJ52" s="23"/>
     </row>
-    <row r="53" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -80809,13 +81476,16 @@
       <c r="CD53" s="15">
         <v>27</v>
       </c>
-      <c r="CE53" s="23"/>
+      <c r="CE53" s="15">
+        <v>16</v>
+      </c>
       <c r="CF53" s="23"/>
       <c r="CG53" s="23"/>
       <c r="CH53" s="23"/>
       <c r="CI53" s="23"/>
+      <c r="CJ53" s="23"/>
     </row>
-    <row r="54" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -81059,13 +81729,16 @@
       <c r="CD54" s="15">
         <v>2</v>
       </c>
-      <c r="CE54" s="23"/>
+      <c r="CE54" s="15">
+        <v>3</v>
+      </c>
       <c r="CF54" s="23"/>
       <c r="CG54" s="23"/>
       <c r="CH54" s="23"/>
       <c r="CI54" s="23"/>
+      <c r="CJ54" s="23"/>
     </row>
-    <row r="55" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -81309,13 +81982,16 @@
       <c r="CD55" s="15">
         <v>14</v>
       </c>
-      <c r="CE55" s="23"/>
+      <c r="CE55" s="15">
+        <v>9</v>
+      </c>
       <c r="CF55" s="23"/>
       <c r="CG55" s="23"/>
       <c r="CH55" s="23"/>
       <c r="CI55" s="23"/>
+      <c r="CJ55" s="23"/>
     </row>
-    <row r="56" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -81559,13 +82235,16 @@
       <c r="CD56" s="15">
         <v>0</v>
       </c>
-      <c r="CE56" s="23"/>
+      <c r="CE56" s="15">
+        <v>0</v>
+      </c>
       <c r="CF56" s="23"/>
       <c r="CG56" s="23"/>
       <c r="CH56" s="23"/>
       <c r="CI56" s="23"/>
+      <c r="CJ56" s="23"/>
     </row>
-    <row r="57" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -81809,13 +82488,16 @@
       <c r="CD57" s="15">
         <v>1</v>
       </c>
-      <c r="CE57" s="23"/>
+      <c r="CE57" s="15">
+        <v>0</v>
+      </c>
       <c r="CF57" s="23"/>
       <c r="CG57" s="23"/>
       <c r="CH57" s="23"/>
       <c r="CI57" s="23"/>
+      <c r="CJ57" s="23"/>
     </row>
-    <row r="58" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -82085,7 +82767,7 @@
         <v>2132</v>
       </c>
       <c r="BR58" s="14">
-        <f t="shared" ref="BR58:CC58" si="4">SUM(BR6:BR57)</f>
+        <f t="shared" ref="BR58:CE58" si="4">SUM(BR6:BR57)</f>
         <v>2032</v>
       </c>
       <c r="BS58" s="14">
@@ -82133,15 +82815,20 @@
         <v>2553</v>
       </c>
       <c r="CD58" s="14">
+        <f t="shared" si="4"/>
         <v>2142</v>
       </c>
-      <c r="CE58" s="24"/>
+      <c r="CE58" s="14">
+        <f t="shared" si="4"/>
+        <v>2093</v>
+      </c>
       <c r="CF58" s="24"/>
       <c r="CG58" s="24"/>
       <c r="CH58" s="24"/>
       <c r="CI58" s="24"/>
+      <c r="CJ58" s="24"/>
     </row>
-    <row r="59" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -82174,7 +82861,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -82207,7 +82894,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:87" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -82241,9 +82928,10 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="97">
+    <mergeCell ref="BD2:CE2"/>
     <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CI4:CI5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BS4:BS5"/>
@@ -82256,22 +82944,22 @@
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="CE4:CE5"/>
     <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="CE4:CE5"/>
     <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="B49:B50"/>
@@ -82305,11 +82993,13 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="BD3:CE3"/>
     <mergeCell ref="AR3:BC3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -82325,24 +83015,23 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="BZ4:BZ5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="31" max="66" man="1"/>
     <brk id="55" max="66" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
@@ -82360,7 +83049,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BP6:CD57</xm:sqref>
+          <xm:sqref>BP6:CE57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB041012-1\ＪＯＢ041012-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB041018-1\ＪＯＢ041018-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CE$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CE$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EE$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EE$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$CF$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$CF$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$EF$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$EF$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="394">
   <si>
     <t>都道府県</t>
   </si>
@@ -4356,6 +4356,18 @@
     <t>10/4(月)～
 10/10(日)分
 【10月第2週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/10(月)～
+10/16(日)分
+【10月第3週】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11(月)～
+10/17(日)分
+【10月第3週】</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9140,13 +9152,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE61"/>
+  <dimension ref="A1:EF61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DP6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DR6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EE4" sqref="EE4:EE5"/>
+      <selection pane="bottomRight" activeCell="EF4" sqref="EF4:EF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9162,11 +9174,11 @@
     <col min="83" max="90" width="11.125" style="1" customWidth="1"/>
     <col min="91" max="102" width="10.875" style="1" customWidth="1"/>
     <col min="103" max="105" width="11.125" style="1" customWidth="1"/>
-    <col min="106" max="135" width="10.875" style="1" customWidth="1"/>
-    <col min="136" max="16384" width="8.625" style="1"/>
+    <col min="106" max="136" width="10.875" style="1" customWidth="1"/>
+    <col min="137" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:136" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="19" t="s">
@@ -9228,11 +9240,12 @@
       <c r="EB1" s="19"/>
       <c r="EC1" s="19"/>
       <c r="ED1" s="19"/>
-      <c r="EE1" s="19" t="s">
+      <c r="EE1" s="19"/>
+      <c r="EF1" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:136" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
       <c r="D2" s="73" t="s">
@@ -9373,8 +9386,9 @@
       <c r="EC2" s="72"/>
       <c r="ED2" s="72"/>
       <c r="EE2" s="72"/>
+      <c r="EF2" s="72"/>
     </row>
-    <row r="3" spans="1:135" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:136" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="61"/>
       <c r="C3" s="62"/>
       <c r="D3" s="54" t="s">
@@ -9519,8 +9533,9 @@
       <c r="EC3" s="54"/>
       <c r="ED3" s="54"/>
       <c r="EE3" s="54"/>
+      <c r="EF3" s="54"/>
     </row>
-    <row r="4" spans="1:135" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:136" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="64" t="s">
         <v>0</v>
       </c>
@@ -9923,8 +9938,11 @@
       <c r="EE4" s="53" t="s">
         <v>390</v>
       </c>
+      <c r="EF4" s="53" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="5" spans="1:135" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:136" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="65"/>
       <c r="C5" s="71"/>
       <c r="D5" s="47"/>
@@ -10059,8 +10077,9 @@
       <c r="EC5" s="53"/>
       <c r="ED5" s="53"/>
       <c r="EE5" s="53"/>
+      <c r="EF5" s="53"/>
     </row>
-    <row r="6" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:136" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -10464,8 +10483,11 @@
       <c r="EE6" s="28">
         <v>122</v>
       </c>
+      <c r="EF6" s="28">
+        <v>127</v>
+      </c>
     </row>
-    <row r="7" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:136" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -10868,8 +10890,11 @@
       <c r="EE7" s="15">
         <v>1</v>
       </c>
+      <c r="EF7" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:136" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11272,8 +11297,11 @@
       <c r="EE8" s="28">
         <v>14</v>
       </c>
+      <c r="EF8" s="28">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:136" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11677,8 +11705,11 @@
       <c r="EE9" s="15">
         <v>91</v>
       </c>
+      <c r="EF9" s="15">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:136" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -12079,8 +12110,11 @@
       <c r="EE10" s="15">
         <v>0</v>
       </c>
+      <c r="EF10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:136" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -12483,8 +12517,11 @@
       <c r="EE11" s="15">
         <v>21</v>
       </c>
+      <c r="EF11" s="15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:135" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:136" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -12887,8 +12924,11 @@
       <c r="EE12" s="15">
         <v>6</v>
       </c>
+      <c r="EF12" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:135" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:136" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -13291,8 +13331,11 @@
       <c r="EE13" s="15">
         <v>37</v>
       </c>
+      <c r="EF13" s="15">
+        <v>34</v>
+      </c>
  